--- a/Data.xlsx
+++ b/Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P101"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Nombre_Publicación</t>
+          <t>Nombre_Publicacion</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -466,7 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Filiación_Autor</t>
+          <t>Filiacion_Autor</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -481,12 +481,12 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>País_Filiación_Autor</t>
+          <t>Pais_Filiacion_Autor</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Año</t>
+          <t>Ano</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -496,17 +496,12 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Número</t>
+          <t>Numero</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
           <t>DOI_Enlace_texto_completo</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Pais_Filiación_Autor</t>
         </is>
       </c>
     </row>
@@ -551,7 +546,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Alldridge, P.,Reforming the criminae law of corruption,; ANDENAES, J.,Deterrence,(2002) Encyclopedia of crime and justice, pp. 507-514. Cited 3 times.; ANDRUET, A.,Atenciones de "mera cortesía" a los jueces y el decoro judicial para su aceptación,(2019) ; ARRIBAS LÓPEZ, E.,Sobre el denominado delito de cohecho pasivo impropio,(2009) Diario La Ley; Varela, O.A.,The usefulness of the concept of corruption regarding the delimitation of the typical behavior in the crime of bribery (Open Access),; BALL, H., FRIEDMAN, L.,The Use of Criminal Sanctions in the Enforcement of Economic Legislation: A Sociological View,(1965) Stanford Law Review, 17 (2), pp. 197-223. Cited 39 times.; Baucus, M.S., Baucus, D.A.,Paying the piper: An empirical examination of longer-term financial consequences of illegal corporate behavior,; BUOMPADRE, J.,Cohecho y tráfico de influencias,(2011) Código Penal y normas complementarias. Análisis doctrinal y jurisprudencial, 10, pp. 443-524.; CREUS, C.,(1981) Delitos contra la administración pública. Comentarios de los artículos 237 a 281 del Código Penal. Cited 2 times.,Buenos Aires: Astrea; DE LA MATA BARRANCO, N.,El bien jurídico protegido en el delito de cohecho,(2006) Revista de Derecho Penal y Criminología, (17), pp. 81-152. Cited 3 times.; Dana, J., Loewenstein, G.,A Social Science Perspective on Gifts to Physicians from Industry,; DONNA, E.,(2008) Delitos contra la Administración Pública,Santa Fe: Rubinzal-Culzoni; DWORKIN, R.,(1977) Taking Rights Seriously. Cited 5817 times.,Cambridge: Harvard University Press; FEINBERG, J.,(1984) Harm to Others: The Moral Limits of the Criminal Law, 1. Cited 989 times.,New York: Oxford University Press; FEINBERG, J.,The expressive function of punishment,(1965) The Monist, 49 (3), pp. 397-423. Cited 230 times.; FERNÁNDEZ CABRERA, M.,La intervención mínima como argumento para absolver en delitos de corrupción: crítica dogmática y político-criminal,InDret, pp. 1-43. Cited 2 times.; GÓMEZ POMAR, F., ORTIZ DE URBINA, I.,(2005) Chantaje e intimidación: un análisis jurídico-económico. Cited 4 times.,Madrid: Thomson-Civitas; Guerrini, R., Guidi, D.,Bribery in Italy: An outlook on present laws and perspectives on reform,; GIMBERNAT ORDEIG, E.,El endiablado cohecho impropio,(2010) ; GRECO, L.,Complicidad a través de acciones neutrales: la imputación objetiva en la participación,(2017) La problemática de la responsabilidad penal por conductas cotidianas; Green, S.P.,What's Wrong With Bribery,; Green, S.P., Kugler, M.B.,Public perceptions of white collar crime culpability: Bribery, perjury, and fraud,; GUZMÁN DALBORA, J.,Integridad ministerial y autonomía de las funciones públicas como bien jurídico del delito de cohecho en razón del cargo,(2020) Delito, naturaleza y libertad. Temas y problemas de Filosofía del Derecho y Filosofía jurídico-penal, pp. 337-368.; HELLMAN, D.,A Theory of Bribery,(2017) Cardozo Law Review, 38, pp. 1947-1992. Cited 2 times.; HUSAK, D.,The Criminal Law as Last Resort,(2004) Oxford Journal of Legal Studies, 24 (2), pp. 207-235. Cited 69 times.; JAKOBS, G.,(1996) La imputación objetiva en el Derecho Penal. Cited 19 times.,1 ed. Buenos Aires: AD-HOC; KINDHÄa&amp;USER, U.,Presupuestos de la corrupción punible en el Estado, la economía y la sociedad. Los delitos de corrupción en el Código penal alemán,(2007) , (3), pp. 1-18. Cited 5 times.; Klein, C.B.,What Exactly Is an Unlawful Gratuity after United States v. Sun-Diamond Growers?,; LINDGREN, J.,The theory, history and practice of the bribery-extortion distinction,(1993) University of Pennsylvania Law Review, 141, pp. 1695-1740. Cited 46 times.; LOMBANA VILLALBA, J.,(2014) Corrupción, cohecho y tráfico de influencias en España y Colombia,Bogotá: Editorial Universidad del Rosario; LOOS, F.,Del bien jurídico en los delitos de cohecho,(2009) Estudios filosóficos-jurídicos y penales del Prof. Dr. Fritz Loos. Homenaje a sus 70 años, pp. 143-162.; MACAGNO, M.,La supervivencia de los delitos de sospecha: el caso del artículo 259 del Código Penal argentino,(2011) Anales, (41), pp. 179-192.; Mazar, N., Amir, O., Ariely, D.,The dishonesty of honest people: A theory of self-concept maintenance (Open Access),; NAGIN, D.,Criminal Deterrence Research at the Outset of the Twenty-First Century,(1998) Crime and Justice, 23, pp. 1-42. Cited 719 times.; OLAIZOLA NOGALES, I.,(1999) El delito de cohecho. Cited 3 times.,Valencia: Tirant lo Blanch; OLIVER, C.,Aproximación al delito de cohecho,(2004) Revista de Estudios de la Justicia, (5), pp. 83-115. Cited 7 times.; PERALTA, J.,Prevención general positiva como respeto por el orden jurídico. A su vez, una distinción analítica entre distintos conceptos de "prevención general positiva,(2008) Indret, pp. 1-32. Cited 2 times.; PÉREZ BARBERÁ, G.,Dolo como reproche. Hacia el abandono de la idea del dolo como estado mental,(2012) Pensar en Derecho, (1), pp. 169-211.; PHILIPS, M.,Bribery,(1984) Ethics, 94 (4), pp. 621-636. Cited 22 times.; PRENZEL, T., MACKAY, P.,Police Attitudes to the Acceptance of Gratuities,(1995) Criminal Justice Ethics, 14 (1), pp. 16-25.; RAGUÉS I VALLÈS, R.,(1999) El dolo y su prueba en el proceso penal. Cited 34 times.,Barcelona: José María Bosch Editor; Robinson, P.H., Darley, J.M.,The utility of desert,; Rose-Ackerman, S.,The law and economics of bribery and extortion,; ROSE-ACKERMAN, S.,(2001) La corrupción y los gobiernos. Causas, consecuencias y reforma. Cited 24 times.,1. edición. Traducción de COLODRÓN GÓMEZ, A. Buenos Aires: Siglo veintiuno editores; ROXIN, C.,(1997) Derecho Penal. Parte General. Tomo I. Fundamentos. La Estructura de la Teoría del Delito. Cited 96 times.,1 edición. Traducción de la 2 edición alemana y notas de LUZÓN PEÑA, D. (Director); DÍAZ Y GARCÍA CONLLEDO, M.; REMESAL, V.Madrid: Civitas; RUA, G.,Cohecho y tráfico de influencias,(2011) Código Penal y normas complementarias. Análisis doctrinal y jurisprudencial, 10, pp. 524-621.; SAAD-DINIZ, E., RODRIGUEZ, V.,Persecución penal de la corrupción en el marco brasileño: desde las transformaciones del delito de cohecho hasta la nueva mirada sobre la corrupción empresarial,(2016) Revista de Estudios Brasileños, 3 (4), pp. 147-159.; Sah, S., Loewenstein, G.,Effect of reminders of personal sacrifice and suggested rationalizations on residents' self-reported willingness to accept gifts: A randomized trial,; SANCINETTI, M.,(2005) Casos de Derecho penal. Parte general. 3 edición ampliada y revisada,Buenos Aires: Hammurabi; SANCINETTI, M.,(1994) El delito de enriquecimiento ilícito (art. 268, 2, C.P.). Un tipo penal violatorio del estado de Derecho,Buenos Aires: Ad-Hoc; SANDEL, M.,(2013) What Money Can't Buy. The moral limits of markets. Cited 1838 times.,New York: Farrar, Straus and Giroux; SIMESTER, A., VON HIRSH, A.,(2011) Crimes, Harms, and Wrongs. On the Principles of Criminalisation. Cited 144 times.,Portland: Hart Publishing; SOUSA MENDES, P.,Os novos crimes de recebimento indebido de vantagem no Código penal portugués,(2011) Revista do Ministério Público do Rio Grande do Sul, (68), pp. 238-239.; Stein, A.,Corrupt intentions: Bribery, unlawful gratuity, and honest-services fraud,; TEACHOUT, Z.,(2014) Corruption in America. From Benjamin Franklins snuff box to Citizen United. Cited 139 times.,Cambridge: Harvard University Press; VÁZQUEZ-PORTOMEÑE SEIJAS, F.,El delito de admisión de beneficios en consideración al cargo y la prevención de la corrupción pública en Bolivia,(2016) Revista Boliviana de Derecho, (22), pp. 120-143. Cited 2 times.; VÁZQUEZ-PORTOMEÑE SEIJAS, F.,Admisión de regalos y corrupción pública. Consideraciones políticocriminales sobre el llamado cohecho de facilitación (art. 422 CP),(2011) Revista de Derecho Penal y Criminología, (6), pp. 151-180. Cited 3 times.; VIZUETA FERNÁNDEZ, J.,(2003) Delitos contra la administración pública: estudio crítico del delito de cohecho,Granada: Comares; WELZEL, H.,El nuevo sistema del Derecho Penal. Una introducción a la doctrina de la acción finalista, segunda reimpresión de la 1 edición en castellano. Cited 8 times.,Barcelona: Ariel, 1964. Traducción de CEREZO MIR, J. Editorial Bdef: Buenos Aires, 2004; ZAFFARONI, E., ALAGIA, A., SLOKAR, A.,(2005) Derecho Penal. Parte General. Cited 196 times.,2 edición. Buenos Aires: Ediar</t>
+          <t>Alldridge, P.,Reforming the criminae law of corruption,; ANDENAES, J.,Deterrence,(2002) Encyclopedia of crime and justice, pp. 507-514. Cited 3 times.; ANDRUET, A.,Atenciones de "mera cortesía" a los jueces y el decoro judicial para su aceptación,(2019) ; ARRIBAS LÓPEZ, E.,Sobre el denominado delito de cohecho pasivo impropio,(2009) Diario La Ley; Varela, O.A.,The usefulness of the concept of corruption regarding the delimitation of the typical behavior in the crime of bribery,; BALL, H., FRIEDMAN, L.,The Use of Criminal Sanctions in the Enforcement of Economic Legislation: A Sociological View,(1965) Stanford Law Review, 17 (2), pp. 197-223. Cited 39 times.; Baucus, M.S., Baucus, D.A.,Paying the piper: An empirical examination of longer-term financial consequences of illegal corporate behavior,; BUOMPADRE, J.,Cohecho y tráfico de influencias,(2011) Código Penal y normas complementarias. Análisis doctrinal y jurisprudencial, 10, pp. 443-524.; CREUS, C.,(1981) Delitos contra la administración pública. Comentarios de los artículos 237 a 281 del Código Penal. Cited 2 times.,Buenos Aires: Astrea; DE LA MATA BARRANCO, N.,El bien jurídico protegido en el delito de cohecho,(2006) Revista de Derecho Penal y Criminología, (17), pp. 81-152. Cited 3 times.; Dana, J., Loewenstein, G.,A Social Science Perspective on Gifts to Physicians from Industry,; DONNA, E.,(2008) Delitos contra la Administración Pública,Santa Fe: Rubinzal-Culzoni; DWORKIN, R.,(1977) Taking Rights Seriously. Cited 5830 times.,Cambridge: Harvard University Press; FEINBERG, J.,(1984) Harm to Others: The Moral Limits of the Criminal Law, 1. Cited 998 times.,New York: Oxford University Press; FEINBERG, J.,The expressive function of punishment,(1965) The Monist, 49 (3), pp. 397-423. Cited 233 times.; FERNÁNDEZ CABRERA, M.,La intervención mínima como argumento para absolver en delitos de corrupción: crítica dogmática y político-criminal,InDret, pp. 1-43. Cited 2 times.; GÓMEZ POMAR, F., ORTIZ DE URBINA, I.,(2005) Chantaje e intimidación: un análisis jurídico-económico. Cited 4 times.,Madrid: Thomson-Civitas; Guerrini, R., Guidi, D.,Bribery in Italy: An outlook on present laws and perspectives on reform,; GIMBERNAT ORDEIG, E.,El endiablado cohecho impropio,(2010) ; GRECO, L.,Complicidad a través de acciones neutrales: la imputación objetiva en la participación,(2017) La problemática de la responsabilidad penal por conductas cotidianas; Green, S.P.,What's Wrong With Bribery,; Green, S.P., Kugler, M.B.,Public perceptions of white collar crime culpability: Bribery, perjury, and fraud,; GUZMÁN DALBORA, J.,Integridad ministerial y autonomía de las funciones públicas como bien jurídico del delito de cohecho en razón del cargo,(2020) Delito, naturaleza y libertad. Temas y problemas de Filosofía del Derecho y Filosofía jurídico-penal, pp. 337-368.; HELLMAN, D.,A Theory of Bribery,(2017) Cardozo Law Review, 38, pp. 1947-1992. Cited 2 times.; HUSAK, D.,The Criminal Law as Last Resort,(2004) Oxford Journal of Legal Studies, 24 (2), pp. 207-235. Cited 69 times.; JAKOBS, G.,(1996) La imputación objetiva en el Derecho Penal. Cited 19 times.,1 ed. Buenos Aires: AD-HOC; KINDHÄa&amp;USER, U.,Presupuestos de la corrupción punible en el Estado, la economía y la sociedad. Los delitos de corrupción en el Código penal alemán,(2007) , (3), pp. 1-18. Cited 5 times.; Klein, C.B.,What Exactly Is an Unlawful Gratuity after United States v. Sun-Diamond Growers?,; LINDGREN, J.,The theory, history and practice of the bribery-extortion distinction,(1993) University of Pennsylvania Law Review, 141, pp. 1695-1740. Cited 46 times.; LOMBANA VILLALBA, J.,(2014) Corrupción, cohecho y tráfico de influencias en España y Colombia,Bogotá: Editorial Universidad del Rosario; LOOS, F.,Del bien jurídico en los delitos de cohecho,(2009) Estudios filosóficos-jurídicos y penales del Prof. Dr. Fritz Loos. Homenaje a sus 70 años, pp. 143-162.; MACAGNO, M.,La supervivencia de los delitos de sospecha: el caso del artículo 259 del Código Penal argentino,(2011) Anales, (41), pp. 179-192.; Mazar, N., Amir, O., Ariely, D.,The dishonesty of honest people: A theory of self-concept maintenance,; NAGIN, D.,Criminal Deterrence Research at the Outset of the Twenty-First Century,(1998) Crime and Justice, 23, pp. 1-42. Cited 719 times.; OLAIZOLA NOGALES, I.,(1999) El delito de cohecho. Cited 3 times.,Valencia: Tirant lo Blanch; OLIVER, C.,Aproximación al delito de cohecho,(2004) Revista de Estudios de la Justicia, (5), pp. 83-115. Cited 7 times.; PERALTA, J.,Prevención general positiva como respeto por el orden jurídico. A su vez, una distinción analítica entre distintos conceptos de "prevención general positiva,(2008) Indret, pp. 1-32. Cited 2 times.; PÉREZ BARBERÁ, G.,Dolo como reproche. Hacia el abandono de la idea del dolo como estado mental,(2012) Pensar en Derecho, (1), pp. 169-211.; PHILIPS, M.,Bribery,(1984) Ethics, 94 (4), pp. 621-636. Cited 22 times.; PRENZEL, T., MACKAY, P.,Police Attitudes to the Acceptance of Gratuities,(1995) Criminal Justice Ethics, 14 (1), pp. 16-25.; RAGUÉS I VALLÈS, R.,(1999) El dolo y su prueba en el proceso penal. Cited 34 times.,Barcelona: José María Bosch Editor; Robinson, P.H., Darley, J.M.,The utility of desert,; Rose-Ackerman, S.,The law and economics of bribery and extortion,; ROSE-ACKERMAN, S.,(2001) La corrupción y los gobiernos. Causas, consecuencias y reforma. Cited 24 times.,1. edición. Traducción de COLODRÓN GÓMEZ, A. Buenos Aires: Siglo veintiuno editores; ROXIN, C.,(1997) Derecho Penal. Parte General. Tomo I. Fundamentos. La Estructura de la Teoría del Delito. Cited 97 times.,1 edición. Traducción de la 2 edición alemana y notas de LUZÓN PEÑA, D. (Director); DÍAZ Y GARCÍA CONLLEDO, M.; REMESAL, V.Madrid: Civitas; RUA, G.,Cohecho y tráfico de influencias,(2011) Código Penal y normas complementarias. Análisis doctrinal y jurisprudencial, 10, pp. 524-621.; SAAD-DINIZ, E., RODRIGUEZ, V.,Persecución penal de la corrupción en el marco brasileño: desde las transformaciones del delito de cohecho hasta la nueva mirada sobre la corrupción empresarial,(2016) Revista de Estudios Brasileños, 3 (4), pp. 147-159.; Sah, S., Loewenstein, G.,Effect of reminders of personal sacrifice and suggested rationalizations on residents' self-reported willingness to accept gifts: A randomized trial,; SANCINETTI, M.,(2005) Casos de Derecho penal. Parte general. 3 edición ampliada y revisada,Buenos Aires: Hammurabi; SANCINETTI, M.,(1994) El delito de enriquecimiento ilícito (art. 268, 2, C.P.). Un tipo penal violatorio del estado de Derecho,Buenos Aires: Ad-Hoc; SANDEL, M.,(2013) What Money Can't Buy. The moral limits of markets. Cited 1846 times.,New York: Farrar, Straus and Giroux; SIMESTER, A., VON HIRSH, A.,(2011) Crimes, Harms, and Wrongs. On the Principles of Criminalisation. Cited 145 times.,Portland: Hart Publishing; SOUSA MENDES, P.,Os novos crimes de recebimento indebido de vantagem no Código penal portugués,(2011) Revista do Ministério Público do Rio Grande do Sul, (68), pp. 238-239.; Stein, A.,Corrupt intentions: Bribery, unlawful gratuity, and honest-services fraud,; TEACHOUT, Z.,(2014) Corruption in America. From Benjamin Franklins snuff box to Citizen United. Cited 139 times.,Cambridge: Harvard University Press; VÁZQUEZ-PORTOMEÑE SEIJAS, F.,El delito de admisión de beneficios en consideración al cargo y la prevención de la corrupción pública en Bolivia,(2016) Revista Boliviana de Derecho, (22), pp. 120-143. Cited 2 times.; VÁZQUEZ-PORTOMEÑE SEIJAS, F.,Admisión de regalos y corrupción pública. Consideraciones políticocriminales sobre el llamado cohecho de facilitación (art. 422 CP),(2011) Revista de Derecho Penal y Criminología, (6), pp. 151-180. Cited 3 times.; VIZUETA FERNÁNDEZ, J.,(2003) Delitos contra la administración pública: estudio crítico del delito de cohecho,Granada: Comares; WELZEL, H.,El nuevo sistema del Derecho Penal. Una introducción a la doctrina de la acción finalista, segunda reimpresión de la 1 edición en castellano. Cited 8 times.,Barcelona: Ariel, 1964. Traducción de CEREZO MIR, J. Editorial Bdef: Buenos Aires, 2004; ZAFFARONI, E., ALAGIA, A., SLOKAR, A.,(2005) Derecho Penal. Parte General. Cited 196 times.,2 edición. Buenos Aires: Ediar</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -582,11 +577,6 @@
       <c r="O2" t="inlineStr">
         <is>
           <t>10.1590/2317-6172202104</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Argentina</t>
         </is>
       </c>
     </row>
@@ -664,11 +654,6 @@
           <t>10.1108/EEMCS-10-2018-0231</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Peru</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -711,7 +696,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1887) ,Código Civil Colombiano [CCC]. Ley 57 de 15 de abril de 1887 (Colombia),  2; Sala de lo Contencioso Administrativo, sección segunda. Cited 11 times.,Consejo de Estado. 2011-00494 de 2014. (C. P. Alfonso Vargas Rincón; 13 de febrero de 2014),  4; Sala de lo Contencioso Administrativo, sección segunda. Cited 11 times.,Consejo de Estado. Sentencia 17001-23-33-000-2014-00282-01. (C. P. William Hernández Gómez; 28 de noviembre de 2018),  6; Sentencia C-037 de 2003,Corte Constitucional de Colombia. (M. P. Alvaro Tafur Galvis; 28 de enero de 2003),  8; Sentencia C-094 de 2003,Corte Constitucional de Colombia. (M. P. Jaime Córdoba Triviño; 11 de febrero de 2003),  10; Sentencia C-614 de 2009,Corte Constitucional de Colombia. (M. P. Jorge Ignacio Pretelt Chaljub; 2 de septiembre de 2009),  12; Sentencia T-279 de 2016,Corte Constitucional de Colombia. (M. P. Gloria Stella Ortiz Delgado; 20 de junio de 2019),  14; (2015) Por medio del cual se expide el decreto único reglamentario del sector administrativo de planeación nacional. Cited 25 times.,Decreto 1082 de 26 de mayo de 2015. D.O 49523,  16; (1983) Por el cual se expiden normas sobre contratos de la Nación y sus entidades descentralizadas y se dictan otras disposiciones. Cited 2 times.,Decreto 222 de [con fuerza de ley]. 2 de febrero de 1983. D.O 36189,  18; Especializar - De?nición - Diccionario de la lengua española | RAE - ASALE,https://dle.rae.es/especializar?m=30_2,  20; Fernández, Guillermo Ospina, Acosta, Eduardo Ospina,(2005) Teoría general del contrato y del negocio jurídico. Cited 14 times.,Ed. Temis (7 ed); Eduardo García de Enterría, I, Fernández, Tomás-Ramón,(2008) Curso de Derecho Administrativo. Cited 120 times.,Ed. Temis-Palestra (12 ed); Rincón Salcedo, J.G.,The "chaos" of public procurement legislation in Colombia,; Najar, Jorge Enrique Ibáñez,El "Estatuto general de Contratación de la Administración Pública" Estudio normativo, doctrina y jurisprudencia sobre su naturaleza,(2004) Vniversitas, 108, pp. 119-192.; Benavides, José Luis,(2014) Contrato de prestación de servicios, Difícil delimitación ?ente al contrato realidad, en Contratos públicos,Estudios, Ed. Universidad Externado de Colombia; (2007) Por medio de la cual se introducen medidas para la e?ciencia y la transparencia en la Ley 80 de 1993 y se dictan otras disposiciones generales sobre la contratación con Recursos Públicos,Ley 1150 de 16 de julio de 2007. D.O 46691,  27; Montoya Osorio, Marta Elena, Pérez, Guillermo Montoya,(2001) Las personas en el Derecho civil colombiano,Ed. Leyer; Making the Difference in Public Services Delivery: ?e Review of the Colombian Public Procurement System, GOV/PGC/ETH(2015)11, OECD,Organization for Economic Co-operation and Development, 61 (2015), </t>
+          <t xml:space="preserve">(1887) ,Código Civil Colombiano [CCC]. Ley 57 de 15 de abril de 1887 (Colombia),  2; Sala de lo Contencioso Administrativo, sección segunda. Cited 11 times.,Consejo de Estado. 2011-00494 de 2014. (C. P. Alfonso Vargas Rincón; 13 de febrero de 2014),  4; Sala de lo Contencioso Administrativo, sección segunda. Cited 11 times.,Consejo de Estado. Sentencia 17001-23-33-000-2014-00282-01. (C. P. William Hernández Gómez; 28 de noviembre de 2018),  6; Sentencia C-037 de 2003,Corte Constitucional de Colombia. (M. P. Alvaro Tafur Galvis; 28 de enero de 2003),  8; Sentencia C-094 de 2003,Corte Constitucional de Colombia. (M. P. Jaime Córdoba Triviño; 11 de febrero de 2003),  10; Sentencia C-614 de 2009,Corte Constitucional de Colombia. (M. P. Jorge Ignacio Pretelt Chaljub; 2 de septiembre de 2009),  12; Sentencia T-279 de 2016,Corte Constitucional de Colombia. (M. P. Gloria Stella Ortiz Delgado; 20 de junio de 2019),  14; (2015) Por medio del cual se expide el decreto único reglamentario del sector administrativo de planeación nacional. Cited 27 times.,Decreto 1082 de 26 de mayo de 2015. D.O 49523,  16; (1983) Por el cual se expiden normas sobre contratos de la Nación y sus entidades descentralizadas y se dictan otras disposiciones. Cited 2 times.,Decreto 222 de [con fuerza de ley]. 2 de febrero de 1983. D.O 36189,  18; Especializar - De?nición - Diccionario de la lengua española | RAE - ASALE,https://dle.rae.es/especializar?m=30_2,  20; Fernández, Guillermo Ospina, Acosta, Eduardo Ospina,(2005) Teoría general del contrato y del negocio jurídico. Cited 16 times.,Ed. Temis (7 ed); Eduardo García de Enterría, I, Fernández, Tomás-Ramón,(2008) Curso de Derecho Administrativo. Cited 121 times.,Ed. Temis-Palestra (12 ed); Rincón Salcedo, J.G.,The "chaos" of public procurement legislation in Colombia,; Najar, Jorge Enrique Ibáñez,El "Estatuto general de Contratación de la Administración Pública" Estudio normativo, doctrina y jurisprudencia sobre su naturaleza,(2004) Vniversitas, 108, pp. 119-192.; Benavides, José Luis,(2014) Contrato de prestación de servicios, Difícil delimitación ?ente al contrato realidad, en Contratos públicos,Estudios, Ed. Universidad Externado de Colombia; (2007) Por medio de la cual se introducen medidas para la e?ciencia y la transparencia en la Ley 80 de 1993 y se dictan otras disposiciones generales sobre la contratación con Recursos Públicos,Ley 1150 de 16 de julio de 2007. D.O 46691,  27; Montoya Osorio, Marta Elena, Pérez, Guillermo Montoya,(2001) Las personas en el Derecho civil colombiano,Ed. Leyer; Making the Difference in Public Services Delivery: ?e Review of the Colombian Public Procurement System, GOV/PGC/ETH(2015)11, OECD,Organization for Economic Co-operation and Development, 61 (2015), </t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -742,11 +727,6 @@
       <c r="O4" t="inlineStr">
         <is>
           <t>10.11144/JAVERIANA.VJ139.CPSE</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Colombia</t>
         </is>
       </c>
     </row>
@@ -791,7 +771,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Almeida Espinoza, E. P.,(2020) Aplicación de la metodología Flipped Classroom en el proceso de enseñanza-aprendizaje del idioma inglés. Cited 2 times.,[Tesis de Maestría, Universidad Tecnológica Indoámerica]; Briones, N., Vera, C.,Flipped Classroom con Edpuzzle para el fortalecimiento de la comprensión lectora,(2021) Polo del Conocimiento: Revista científico-profesional, 6 (3), pp. 324-341.; Casillas, S., González, N. C., Aldrete, C., Loperena, R.,Aula invertida como estrategia de aprendizaje de Matemáticas: Flipped classroom as a math learning strategy,(2021) Tecnología Educativa Revista CONAIC, 8 (1), pp. 42-49.; Freire, P.,(1978) Pedagogía del Oprimido. Cited 2742 times.,Siglo XXI Editores; Garrido, M.P,Entrevista: David Calle. El profesor Youtuber,(2019) Revista Innovación Educativa, (5).; Gutiérrez, B., Sánchez, J,Flipped Classroom, como Herramienta Educomunicacional. Un enfoque ante la globalización,(2020) ACADEMICUS, 1 (17), pp. 6-14.; Hernández-Sánchez, S., López-Gutiérrez, J., Rocas-Rocas, B.,Maestros como ciudadanos del mundo: literacidad, nuevas tecnologías e inglés en escuelas normales para el diálogo global Eduscientia,(2019) Divulgación de la ciencia educativa; Prieto Martín, A., Barbarroja, J., Álvarez, S., Corell, A.,Effectiveness of the flipped classroom model in university education: A synthesis of the best evidence,; Suárez, M, Suárez, W.,(2021) Flipped classroom and the writing skill,[Tesis de grado. Universidad Técnica de Ambato]; Ball, S. J.,(2012) Educación global: Nuevas redes políticas en el imaginario neoliberal,Routledge; Bizelli, J. L., López Soligo, M., Lopes Reis, M., Assis de Miranda, N.,(2021) La Gestión Educativa en situación de confinamiento en Brasil. En: La Gestión de los Centros Educativos en situación de confinamiento en Iberoamérica,Joaquín Gairín Sallánz Cristina Mercader Juan (Coordinadores). Red de apoyo a la gestión educativa. Barcelona; Campopiano, R., Emetz, C., Schurmann, S., Urrutia, P., Dominoni, F.,(2015) Gestión educativa y TIC: Orientaciones para su integración. Cited 2 times.,ANSES, Buenos Aires; Carbonell, J.,(2001) La aventura de innovar. El cambio en la escuela. Cited 66 times.,Morata; Foucault, M.,(2002) Defender la sociedad. Cited 238 times.,Fondo de Cultura Económica; HOOD, C.,A PUBLIC MANAGEMENT FOR ALL SEASONS?,; Leiva Guerrero, M. V., Villarroel Montaner, D.,La Gestión Educativa en situación de confinamiento en Chile,(2021) La Gestión de los Centros Educativos en situación de confinamiento en Iberoamérica; Flores, F., Torres, H.,(2010) La organización como escuela de conocimiento,Trillas; González-Veiga, M.C., Cueto, B., Mato, J.,¿Qué beneficios tiene para la empresa su colaboración con el sector educativo? Un análisis de la Formación en Centros de Trabajo,(2005) Revista del Ministerio de Trabajo e Inmigración, 76, pp. 39-57. Cited 3 times.; Gorozabel-Quiñonez, J.E., Alcívar-Ce-deño, T. G., Moreira-Morales, L. L., Zambrano-Delgado, M. F.,Los modelos de gestión educativa y su aporte a la educación ecuatoria-na,(2020) Episteme Koinonia, 3 (5).; Mclaren, P.,(1997) Pedagogía crítica y cultura depredadora. Políticas de oposición en la era postmoderna. Cited 40 times.,Paidós. Quito; Manso, J.,La incorporación de (nuevos) actores en el sistema edu-cativo español,(2017) 9º Congreso Latinoa-mericano de Ciencia Política/ Aso-ciación Latinoamericana de Ciencia Política (ALACIP). Cited 2 times.; Martínez, A., Noguera, C., Castro, J.,(1994) Currículo y modernización. Cuatro décadas de educación Colombia. Cited 2 times.,Foro Nacional por Colombia. Tercer Milenio, Bogotá; Marquez, L., Abdo, Y., Angulo, F.,Prototipo de control de acceso a aulas y registro automático de asistencia,(2014) Revista Colombiana de Tecnologías de Avanzada, 26 (2), pp. 41-47. Cited 4 times.; Molina Ramírez, M.T.,(2012) Innovación en gestión escolar: aprendizajes para la política pública,[Universidad de Chile]; Quiñones, J.,Reflexión Crítica sobre la incorporación de las TIC a la Educación Formal,(2017) ; Rizo, M.,Rol del docente y estudiante en la educación virtual,(2020) Revista Multi-Ensayos, 6 (12). Cited 4 times.; Salinas, J.,Tecnologías de la información y la comunicación en la enseñanza universitaria: El caso de la UIB,(1999) I Simposium Iberoamericano de Didáctica universitaria: La Calidad de la docencia universitaria; Salinas, J.,Innovación docente y uso de las TIC en la enseñanza universitaria,(2004) Revista Universidad y Sociedad del Conocimiento, 1 (1), pp. 1-16. Cited 196 times.; Saura, G.,Neoliberalización filantrópica y nuevas formas de privatización educativa,(2016) Revista de la Asociación de Sociología de la Educación, 9 (2), pp. 248-264. Cited 10 times.; Sunkel, G., Trucco, d., Espejo, A.,(2013) La integración de las tecnologías digitales en las escuelas de América Latina y el Caribe Una mirada multidimensional. Cited 30 times.,Naciones Unidas, CEPAL, Unión Europea. Santiago de Chile; (2012) Máster oficial en formación del profesorado de ESO, BACH, FP y EI,Valencia, España,http://ocw.umh.es/ciencias-sociales-y-juridicas/Innovacion-docente-e-iniciacion-en-la-investigacion-educativa-458/materiales-de-aprendizaje/unidad-1-introduccion-a-la-innovacion-docente/unidad-1.pdf; Vargas, E.,Gestión e innovación educativa,(2015) Revista Nuevo Humanismo, 3 (2), pp. 95-113.; Verger, A., Normand, R.,New public management and education: Theoretical and conceptual elements for the study of a global education reform model (Open Access),; Velasco, C. A.,Gerencia de entornos virtuales de aprendizaje en la gestión docente universitaria,(2018) Eco Matemático, 9 (1), pp. 23-42.; Viñals Blanco, A., Cuenca Amigo, J.,El rol del docente en la era digital,(2016) Revista Interuniversitaria de Formación del Profesorado, 30 (2), pp. 103-114. Cited 67 times.; Viñas, S.,(2012) La innovación en la gestión educativa. Trabajo final de la carrera de licenciatura en “Gestión de Institución Educativa”,Universidad Abierta Interamericana. Buenos Aires</t>
+          <t>Almeida Espinoza, E. P.,(2020) Aplicación de la metodología Flipped Classroom en el proceso de enseñanza-aprendizaje del idioma inglés. Cited 2 times.,[Tesis de Maestría, Universidad Tecnológica Indoámerica]; Briones, N., Vera, C.,Flipped Classroom con Edpuzzle para el fortalecimiento de la comprensión lectora,(2021) Polo del Conocimiento: Revista científico-profesional, 6 (3), pp. 324-341.; Casillas, S., González, N. C., Aldrete, C., Loperena, R.,Aula invertida como estrategia de aprendizaje de Matemáticas: Flipped classroom as a math learning strategy,(2021) Tecnología Educativa Revista CONAIC, 8 (1), pp. 42-49.; Freire, P.,(1978) Pedagogía del Oprimido. Cited 2772 times.,Siglo XXI Editores; Garrido, M.P,Entrevista: David Calle. El profesor Youtuber,(2019) Revista Innovación Educativa, (5).; Gutiérrez, B., Sánchez, J,Flipped Classroom, como Herramienta Educomunicacional. Un enfoque ante la globalización,(2020) ACADEMICUS, 1 (17), pp. 6-14.; Hernández-Sánchez, S., López-Gutiérrez, J., Rocas-Rocas, B.,Maestros como ciudadanos del mundo: literacidad, nuevas tecnologías e inglés en escuelas normales para el diálogo global Eduscientia,(2019) Divulgación de la ciencia educativa; Prieto Martín, A., Barbarroja, J., Álvarez, S., Corell, A.,Effectiveness of the flipped classroom model in university education: A synthesis of the best evidence,; Suárez, M, Suárez, W.,(2021) Flipped classroom and the writing skill,[Tesis de grado. Universidad Técnica de Ambato]; Ball, S. J.,(2012) Educación global: Nuevas redes políticas en el imaginario neoliberal,Routledge; Bizelli, J. L., López Soligo, M., Lopes Reis, M., Assis de Miranda, N.,(2021) La Gestión Educativa en situación de confinamiento en Brasil. En: La Gestión de los Centros Educativos en situación de confinamiento en Iberoamérica,Joaquín Gairín Sallánz Cristina Mercader Juan (Coordinadores). Red de apoyo a la gestión educativa. Barcelona; Campopiano, R., Emetz, C., Schurmann, S., Urrutia, P., Dominoni, F.,(2015) Gestión educativa y TIC: Orientaciones para su integración. Cited 2 times.,ANSES, Buenos Aires; Carbonell, J.,(2001) La aventura de innovar. El cambio en la escuela. Cited 66 times.,Morata; Foucault, M.,(2002) Defender la sociedad. Cited 240 times.,Fondo de Cultura Económica; HOOD, C.,A PUBLIC MANAGEMENT FOR ALL SEASONS?,; Leiva Guerrero, M. V., Villarroel Montaner, D.,La Gestión Educativa en situación de confinamiento en Chile,(2021) La Gestión de los Centros Educativos en situación de confinamiento en Iberoamérica; Flores, F., Torres, H.,(2010) La organización como escuela de conocimiento,Trillas; González-Veiga, M.C., Cueto, B., Mato, J.,¿Qué beneficios tiene para la empresa su colaboración con el sector educativo? Un análisis de la Formación en Centros de Trabajo,(2005) Revista del Ministerio de Trabajo e Inmigración, 76, pp. 39-57. Cited 3 times.; Gorozabel-Quiñonez, J.E., Alcívar-Ce-deño, T. G., Moreira-Morales, L. L., Zambrano-Delgado, M. F.,Los modelos de gestión educativa y su aporte a la educación ecuatoria-na,(2020) Episteme Koinonia, 3 (5).; Mclaren, P.,(1997) Pedagogía crítica y cultura depredadora. Políticas de oposición en la era postmoderna. Cited 40 times.,Paidós. Quito; Manso, J.,La incorporación de (nuevos) actores en el sistema edu-cativo español,(2017) 9º Congreso Latinoa-mericano de Ciencia Política/ Aso-ciación Latinoamericana de Ciencia Política (ALACIP). Cited 2 times.; Martínez, A., Noguera, C., Castro, J.,(1994) Currículo y modernización. Cuatro décadas de educación Colombia. Cited 2 times.,Foro Nacional por Colombia. Tercer Milenio, Bogotá; Marquez, L., Abdo, Y., Angulo, F.,Prototipo de control de acceso a aulas y registro automático de asistencia,(2014) Revista Colombiana de Tecnologías de Avanzada, 26 (2), pp. 41-47. Cited 4 times.; Molina Ramírez, M.T.,(2012) Innovación en gestión escolar: aprendizajes para la política pública,[Universidad de Chile]; Quiñones, J.,Reflexión Crítica sobre la incorporación de las TIC a la Educación Formal,(2017) ; Rizo, M.,Rol del docente y estudiante en la educación virtual,(2020) Revista Multi-Ensayos, 6 (12). Cited 4 times.; Salinas, J.,Tecnologías de la información y la comunicación en la enseñanza universitaria: El caso de la UIB,(1999) I Simposium Iberoamericano de Didáctica universitaria: La Calidad de la docencia universitaria; Salinas, J.,Innovación docente y uso de las TIC en la enseñanza universitaria,(2004) Revista Universidad y Sociedad del Conocimiento, 1 (1), pp. 1-16. Cited 196 times.; Saura, G.,Neoliberalización filantrópica y nuevas formas de privatización educativa,(2016) Revista de la Asociación de Sociología de la Educación, 9 (2), pp. 248-264. Cited 10 times.; Sunkel, G., Trucco, d., Espejo, A.,(2013) La integración de las tecnologías digitales en las escuelas de América Latina y el Caribe Una mirada multidimensional. Cited 30 times.,Naciones Unidas, CEPAL, Unión Europea. Santiago de Chile; (2012) Máster oficial en formación del profesorado de ESO, BACH, FP y EI,Valencia, España,http://ocw.umh.es/ciencias-sociales-y-juridicas/Innovacion-docente-e-iniciacion-en-la-investigacion-educativa-458/materiales-de-aprendizaje/unidad-1-introduccion-a-la-innovacion-docente/unidad-1.pdf; Vargas, E.,Gestión e innovación educativa,(2015) Revista Nuevo Humanismo, 3 (2), pp. 95-113.; Verger, A., Normand, R.,New public management and education: Theoretical and conceptual elements for the study of a global education reform model,; Velasco, C. A.,Gerencia de entornos virtuales de aprendizaje en la gestión docente universitaria,(2018) Eco Matemático, 9 (1), pp. 23-42.; Viñals Blanco, A., Cuenca Amigo, J.,El rol del docente en la era digital,(2016) Revista Interuniversitaria de Formación del Profesorado, 30 (2), pp. 103-114. Cited 67 times.; Viñas, S.,(2012) La innovación en la gestión educativa. Trabajo final de la carrera de licenciatura en “Gestión de Institución Educativa”,Universidad Abierta Interamericana. Buenos Aires</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -822,11 +802,6 @@
       <c r="O5" t="inlineStr">
         <is>
           <t>10.52080/rvgluz.27.8.47</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Varios Paises</t>
         </is>
       </c>
     </row>
@@ -871,7 +846,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Arroyo, L. T.,(2002) Las garantías individuales y el rol de protección constitucional. Cited 3 times.,Ediciones Arroyo; Couture, E.,(1958) Fundamentos del derecho procesal civil. Cited 89 times.,3ra ed. Roque De Palma; Díaz, A.,La efectividad de las medidas de protección frente a la violencia familiar,(2009) Revista Electrónica del Trabajador Judicial, 1, pp. 1-1.; (2008) Constitución de la República. Cited 95 times.,Registro Oficial N. 449. Última modificación: 13-jul-2021,https://www.oas.org/juridico/pdfs/mesicic4_ecu_const.pdf; (2002) Código de la Niñez y Adolescencia. Cited 6 times.,Le 2002-100,https://www.registrocivil.gob.ec/wp-content/uploads/downloads/2014/01/este-es-06-C%C3%93DIGO-DE-LA-NI%C3%91EZ-Y-ADOLESCENCIA-Leyes-conexas.pdf; (2011) Ley Orgánica de Educación Intercultural. Cited 41 times.,Registro Oficial N. 417,https://oig.cepal.org/sites/default/files/2011_leyeducacionintercultural_ecu.pdf; Rivas, J.C.F.,Right to education. Its essential content in the Chilean law (Open Access),; García, J.,(2017) Principio procesal de inocencia,Derecho Ecuador; Giribaldi, N. V.,El principio de tipicidad en el derecho administrativo sancionatorio,(2019) Revista de derecho, 18 (36), pp. 69-84.; Gordillo, A.,(2013) Teoría General del Derecho Administrativo,1a ed. Buenos Aires. Fundación de Derecho Administrativo; López, M. P.,Principios del procedimiento administrativo,(1993) Alegatos, (25), pp. 101-102.; Otárola Espinoza, Y.,El Respeto a los Derechos fundamentales reconocidos en Tratados Internacionales: Los niños de la calle,(2006) Revista chilena de derecho, 33 (2), pp. 385-397.; Reigada, A. T.,Dogmática administrativa y derecho constitucional: el caso del servicio público,(1999) Revista española de derecho constitucional, (57), pp. 87-164. Cited 2 times.; Rodríguez-Toubes Muñiz, J.,(2019) La interpretación extensiva de la ley,Dykinson; Zavala, E.,(2005) Derecho Administrativo,Edino</t>
+          <t>Arroyo, L. T.,(2002) Las garantías individuales y el rol de protección constitucional. Cited 3 times.,Ediciones Arroyo; Couture, E.,(1958) Fundamentos del derecho procesal civil. Cited 90 times.,3ra ed. Roque De Palma; Díaz, A.,La efectividad de las medidas de protección frente a la violencia familiar,(2009) Revista Electrónica del Trabajador Judicial, 1, pp. 1-1.; (2008) Constitución de la República. Cited 96 times.,Registro Oficial N. 449. Última modificación: 13-jul-2021,https://www.oas.org/juridico/pdfs/mesicic4_ecu_const.pdf; (2002) Código de la Niñez y Adolescencia. Cited 6 times.,Le 2002-100,https://www.registrocivil.gob.ec/wp-content/uploads/downloads/2014/01/este-es-06-C%C3%93DIGO-DE-LA-NI%C3%91EZ-Y-ADOLESCENCIA-Leyes-conexas.pdf; (2011) Ley Orgánica de Educación Intercultural. Cited 41 times.,Registro Oficial N. 417,https://oig.cepal.org/sites/default/files/2011_leyeducacionintercultural_ecu.pdf; Rivas, J.C.F.,Right to education. Its essential content in the Chilean law,; García, J.,(2017) Principio procesal de inocencia,Derecho Ecuador; Giribaldi, N. V.,El principio de tipicidad en el derecho administrativo sancionatorio,(2019) Revista de derecho, 18 (36), pp. 69-84.; Gordillo, A.,(2013) Teoría General del Derecho Administrativo,1a ed. Buenos Aires. Fundación de Derecho Administrativo; López, M. P.,Principios del procedimiento administrativo,(1993) Alegatos, (25), pp. 101-102.; Otárola Espinoza, Y.,El Respeto a los Derechos fundamentales reconocidos en Tratados Internacionales: Los niños de la calle,(2006) Revista chilena de derecho, 33 (2), pp. 385-397.; Reigada, A. T.,Dogmática administrativa y derecho constitucional: el caso del servicio público,(1999) Revista española de derecho constitucional, (57), pp. 87-164. Cited 2 times.; Rodríguez-Toubes Muñiz, J.,(2019) La interpretación extensiva de la ley,Dykinson; Zavala, E.,(2005) Derecho Administrativo,Edino</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -902,11 +877,6 @@
       <c r="O6" t="inlineStr">
         <is>
           <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85143203453&amp;partnerID=40&amp;md5=6bc0441487fab2e02e3203196e78f2ff</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
         </is>
       </c>
     </row>
@@ -951,7 +921,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Barzelay, M.,La Nueva Gerencia Pública, Un ensayo bibliográfico para estudiosos de Latinoamérica y (otros),(2001) CLAD Reforma y Democracia, (19). Cited 6 times.; Ghiggo, B., Gilberto, F., Uribe-Hernández, Cecilia, Y., Revilla, C., Adolfo, Oxolón, V., (...), Mercedes, J.,Modernization of the State in public management: Systematic review (Open Access),; (2012) Participación ciudadana y derechos humanos. Cited 2 times.,https://cidhmorelos.wordpress.com/2012/11/01/participacion-ciudadana-y-derechoshumanos/,  4; De La Garza Montemayor, D.J., Yllán Ramírez, E.R., Barredo Ibáñez, D.,Trends in modern public administration: The new public management in Mexico (Open Access),; Font, J., Blanco, I., Gomà, R., Jarques, M.,Mecanismos de participación ciudadana en la toma de decisiones locales: una visión panorámica,(2012) Participación ciudadana en las políticas públicas, pp. 56-104.; Audin Aloiso, G.S., Cesar Augusto, H.S., Pastor, R.L.,Public management in a Colombian border city: The gaze of its inhabitants,; Gamboa-Suárez, A. A., UrbinaCárdenas, J. E., Prada-Núñez, R.,Conflicto Armado, Vulnerabilidad y Desescolaridad: Determinantes del Abandono Escolar en la Región del Catatumbo,(2019) Saber, Ciencia Y Libertad, 14 (2), pp. 222-231. Cited 2 times.; Giannini, M.,(1991) El poder público. Estado y administraciones públicas. Cited 3 times.,Editorial Civitas; Hernández, J.,Perspectiva conceptual normativa de la participación ciudadana y democracia en Venezuela,(2013) TELOS, 15 (1), pp. 64-76. Cited 6 times.; Hernández G. de Velazco, J.J., Chumaceiro Hernández, A.C.,Historical approach to citizen participation in Venezuela: From the relationship State-Society models (1958-2012),; De Velazco, J.J.H.G., Hernández, A.C.C.,An epistemological discussion on citizen participation management,; Hernández, J., Nuñez, I.,La participación ciudadana en el proceso constituyente venezolano de 1999: Evolución y desarrollo,(2002) Telos, 4 (1), pp. 98-113.; Kliksberg, B.,(2002) Una nueva gerencia pública para la modernización del Estado y afrontar los desafíos de la integración. Cited 6 times.,http://orion2020.org/archivo/competencias_gerenciales/comunicacion_organizacional/s2_nuevagerenciapublica.pdf; (1994) Ley de los derechos de participación y control ciudadano,Ley N 26300 de,https://pdba.georgetown.edu/Electoral/Peru/participycontrol.pdf; (2002) Ley Marco de Modernización de la Gestión del Estado. Cited 4 times.,Ley N 27658 de,http://www.oas.org/juridico/spanish/per_res18.pdf; (2002) Ley de Transparencia y Acceso a la Información Pública. Cited 3 times.,Ley N 27806 de,https://www.asambleanacional.gob.ve/storage/documentos/documentos/ley-de-transparenciay-acceso-a-la-informacionpublica-20210930233602.pdf; (2002) Ley Orgánica de Gobiernos Regionales. Cited 5 times.,Ley N 27867 de,  19; Knoepfel, P., Larrue, C., Subirats, J., Varone, F.,(2008) Análisis y gestión de políticas públicas. Cited 91 times.,Ariel; Montecinos, E., Contreras, P.,Citizenship participation in public management: A review of the current state,; Montecinos, E.,Institutional design and citizen participation in participatory budgeting. The cases of Chile, Argentina, Peru, Dominican Republic and Uruguay,; Morillo Flores, J., Huachallanqui Salcedo, J., Palacios Garay, J., Uribe Hernández, Y.C.,Governance and citizen participation in the local development of a Lima, Perú (Open Access),; Naser, A., Ramírez-Alujas, Á., Rosales, D.,Desde el gobierno abierto al Estado abierto en América Latina y el Caribe,(2017) . Cited 12 times.; Ordoñez Valencia, H., Trelles Vicuña, D.,Social control in citizen participation: A vision from local public services,; Palacios Garay, J.P., Toledo-Córdova, M.F., Miranda-Aburto, E.J., Flores Farro, A.,Public policies and local participatory governance,; Peña, M.,Democracia representativa y participación ciudadana en Venezuela (1958 2015),(2017) TELOS, 19 (1), pp. 3-26. Cited 3 times.; Quispe Fernández, G., Ayaviri Nina, D., Maldonado Vargas, R.,Participation of actors in local development in rural settings,; Ramírez-Viveros, J.,(2015) Modelos de participación ciudadana. Una propuesta integradora. Cited 2 times.,[Tesis Doctoral). Universidad Carlos III de Madrid, España]; Restrepo, J. L., Cotrina, Y. E., Daza, A.,Participación ciudadana en el sistema de seguridad social en salud en Colombia,(2021) Revista de Ciencias Sociales (Ve), XXVII (1), pp. 230-240. Cited 5 times.; Benavides, C.R., Iñiguez, I.J.,The participatory budgeting process: Adherence or citizen disappointment? Case: Decentralized autonomous government of la concordia (Open Access),; Rodríguez, M., Mendivelso, F.,Diseño de Investigación de Corte Transversal,(2018) Revista Médica Sanitas, 21 (3), pp. 141-146. Cited 13 times.; Salas Subía, M.A.,Perception of citizen participation in rural parish autonomous governments: Otavalo-Ecuador,; Sánchez González, J.J.,Transparentizing public powers: Open government, open parliament and open justice,; Valdez, A.,(2014) Administración pública y rankings. Cited 2 times.,CRONICA; Valdez Zepeda, A.,Paradigmas emergentes en la gestión pública en América Latina,(2019) Revista Venezolana De Gerencia, 24 (86), pp. 325-339. Cited 3 times.</t>
+          <t>Barzelay, M.,La Nueva Gerencia Pública, Un ensayo bibliográfico para estudiosos de Latinoamérica y (otros),(2001) CLAD Reforma y Democracia, (19). Cited 6 times.; Ghiggo, B., Gilberto, F., Uribe-Hernández, Cecilia, Y., Revilla, C., Adolfo, Oxolón, V., (...), Mercedes, J.,Modernization of the State in public management: Systematic review,; (2012) Participación ciudadana y derechos humanos. Cited 2 times.,https://cidhmorelos.wordpress.com/2012/11/01/participacion-ciudadana-y-derechoshumanos/,  4; De La Garza Montemayor, D.J., Yllán Ramírez, E.R., Barredo Ibáñez, D.,Trends in modern public administration: The new public management in Mexico,; Font, J., Blanco, I., Gomà, R., Jarques, M.,Mecanismos de participación ciudadana en la toma de decisiones locales: una visión panorámica,(2012) Participación ciudadana en las políticas públicas, pp. 56-104.; Audin Aloiso, G.S., Cesar Augusto, H.S., Pastor, R.L.,Public management in a Colombian border city: The gaze of its inhabitants,; Gamboa-Suárez, A. A., UrbinaCárdenas, J. E., Prada-Núñez, R.,Conflicto Armado, Vulnerabilidad y Desescolaridad: Determinantes del Abandono Escolar en la Región del Catatumbo,(2019) Saber, Ciencia Y Libertad, 14 (2), pp. 222-231. Cited 3 times.; Giannini, M.,(1991) El poder público. Estado y administraciones públicas. Cited 3 times.,Editorial Civitas; Hernández, J.,Perspectiva conceptual normativa de la participación ciudadana y democracia en Venezuela,(2013) TELOS, 15 (1), pp. 64-76. Cited 6 times.; Hernández G. de Velazco, J.J., Chumaceiro Hernández, A.C.,Historical approach to citizen participation in Venezuela: From the relationship State-Society models (1958-2012),; De Velazco, J.J.H.G., Hernández, A.C.C.,An epistemological discussion on citizen participation management,; Hernández, J., Nuñez, I.,La participación ciudadana en el proceso constituyente venezolano de 1999: Evolución y desarrollo,(2002) Telos, 4 (1), pp. 98-113.; Kliksberg, B.,(2002) Una nueva gerencia pública para la modernización del Estado y afrontar los desafíos de la integración. Cited 6 times.,http://orion2020.org/archivo/competencias_gerenciales/comunicacion_organizacional/s2_nuevagerenciapublica.pdf; (1994) Ley de los derechos de participación y control ciudadano,Ley N 26300 de,https://pdba.georgetown.edu/Electoral/Peru/participycontrol.pdf; (2002) Ley Marco de Modernización de la Gestión del Estado. Cited 4 times.,Ley N 27658 de,http://www.oas.org/juridico/spanish/per_res18.pdf; (2002) Ley de Transparencia y Acceso a la Información Pública. Cited 3 times.,Ley N 27806 de,https://www.asambleanacional.gob.ve/storage/documentos/documentos/ley-de-transparenciay-acceso-a-la-informacionpublica-20210930233602.pdf; (2002) Ley Orgánica de Gobiernos Regionales. Cited 5 times.,Ley N 27867 de,  19; Knoepfel, P., Larrue, C., Subirats, J., Varone, F.,(2008) Análisis y gestión de políticas públicas. Cited 92 times.,Ariel; Montecinos, E., Contreras, P.,Citizenship participation in public management: A review of the current state,; Montecinos, E.,Institutional design and citizen participation in participatory budgeting. The cases of Chile, Argentina, Peru, Dominican Republic and Uruguay,; Morillo Flores, J., Huachallanqui Salcedo, J., Palacios Garay, J., Uribe Hernández, Y.C.,Governance and citizen participation in the local development of a Lima, Perú,; Naser, A., Ramírez-Alujas, Á., Rosales, D.,Desde el gobierno abierto al Estado abierto en América Latina y el Caribe,(2017) . Cited 12 times.; Ordoñez Valencia, H., Trelles Vicuña, D.,Social control in citizen participation: A vision from local public services,; Palacios Garay, J.P., Toledo-Córdova, M.F., Miranda-Aburto, E.J., Flores Farro, A.,Public policies and local participatory governance (Open Access),; Peña, M.,Democracia representativa y participación ciudadana en Venezuela (1958 2015),(2017) TELOS, 19 (1), pp. 3-26. Cited 3 times.; Quispe Fernández, G., Ayaviri Nina, D., Maldonado Vargas, R.,Participation of actors in local development in rural settings (Open Access),; Ramírez-Viveros, J.,(2015) Modelos de participación ciudadana. Una propuesta integradora. Cited 2 times.,[Tesis Doctoral). Universidad Carlos III de Madrid, España]; Restrepo, J. L., Cotrina, Y. E., Daza, A.,Participación ciudadana en el sistema de seguridad social en salud en Colombia,(2021) Revista de Ciencias Sociales (Ve), XXVII (1), pp. 230-240. Cited 5 times.; Benavides, C.R., Iñiguez, I.J.,The participatory budgeting process: Adherence or citizen disappointment? Case: Decentralized autonomous government of la concordia,; Rodríguez, M., Mendivelso, F.,Diseño de Investigación de Corte Transversal,(2018) Revista Médica Sanitas, 21 (3), pp. 141-146. Cited 13 times.; Salas Subía, M.A.,Perception of citizen participation in rural parish autonomous governments: Otavalo-Ecuador,; Sánchez González, J.J.,Transparentizing public powers: Open government, open parliament and open justice,; Valdez, A.,(2014) Administración pública y rankings. Cited 2 times.,CRONICA; Valdez Zepeda, A.,Paradigmas emergentes en la gestión pública en América Latina,(2019) Revista Venezolana De Gerencia, 24 (86), pp. 325-339. Cited 3 times.</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -982,11 +952,6 @@
       <c r="O7" t="inlineStr">
         <is>
           <t>10.52080/rvgluz.27.100.12</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Peru</t>
         </is>
       </c>
     </row>
@@ -1031,7 +996,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Alburquerque, F.,Desarrollo económico local y descentralización en América Latina,(2004) Revista de CEPAL, (82). Cited 58 times.; Alburquerque, F.,El enfoque del desarrollo económico territorial,(2015) Enfoque, estrategias e información para el Desarrollo Territorial. Los aprendizajes desde Conecta, p. 1143. Cited 8 times.; Alkire, S.,Human Development: Definitions, critiques, and related concepts,(2010) . Cited 125 times.; Armijo, M.,Planificación estratégica e indicadores de desempeño en el sector público,(2011) Serie Manuales, 69.; Ausejo, F.,Descentralización y Presupuesto por Resultados. Diplomado sobre gestión por resultados,(2010) ; Benko, G., Lipietz, A.,El nuevo debate regional,(1994) Las regiones que ganan, pp. 19-37. Cited 4 times.; Boisier, S.,(1993) Desarrollo regional endógeno en Chile. ¿Utopía o necesidad?,https://docplayer.es/117015-Desarrollo-local-de-queestamos-hablando.html; Bonet, J.,Desequilibrios regionales en la política de descentralización en Colombia,(2006) Documentos de Trabajo Sobre Economía Regional-Banco de la República, p. 77. Cited 4 times.; Bonnefoy, J. C., Armijo, M.,(2005) Indicadores de desempeño en el sector público, 45.,Serie Manuales, CEPAL; Botero, M. E., Hernández, D.,(2016) Desarrollo regional y capacidad institucional: el déficit de capacidad institucional del Estado en los territorios subnacionales,Editorial Universidad del Rosario, Facultad de Ciencia Política y Gobierno; Camagni, R.,Territorial capital and regional development,; Camagni, R., Capello, R.,Regional Competitiveness and Territorial Capital: A Conceptual Approach and Empirical Evidence from the European Union,; Castellano, N., Díaz, B.,Tecnologías de información y comunicación en la sociedad del conocimiento,(2020) Revista Negotium, 47 (16), pp. 5-12. Cited 5 times.; Cheibub, J. A.,(2010) How to include political capabilities in the HDI? An evaluation of alternatives. Cited 5 times.,Human Development Research Paper, 2010/41. Human Development Report Office (HDRO), United Nations Development Programme (UNDP); (2017) Panorama del desarrollo territorial en América Latina y el Caribe. Cited 6 times.,CEPAL,  16; Davoodi, H., Zou, H.-F.,Fiscal Decentralization and Economic Growth: A Cross-Country Study (Open Access),; (2022) Medición de Desempeño Departamental MDD 2020,Disponible en,https://colaboracion.dnp.gov.co/CDT/Desarrollo%20Territorial/MDD/Informe%20MDD%20-%202020.pdf; (2011) European statistics code of practice. Cited 38 times.,http://ec.europa.eu/eurostat/documents/3859598/5921861/KS32-11-955-EN.PDF/5fa1ebc6-90bb43fa-888f-dde032471e15,  20; Fernández Llera, R.,Buen gobierno local y rendición de cuentas en España,(2020) Retos Revista de Ciencias de la Administración y Economía, 10 (19), pp. 29-44. Cited 2 times.; Flic, Gabriel, Scartascini, Carlos,El presupuesto por resultados en América Latina: Condiciones para su implantación y desarrollo,(2012) ; García Estévez, J., Gómez Márquez, A.,Colombia, en Rodríguez Miranda, Adrián; Vial, Camilo (eds),(2021) Medición y agenda para el desarrollo territorial en América Latina: El Índice de Desarrollo Regional LATAM; García López, R., García Moreno, M.,(2010) La gestión para resultados en el desarrollo: Avances y desafíos en América Latina y el Caribe. Cited 22 times.,Washington, DC, Estados: Banco Interamericano de Desarrollo; Garizado-Román, P.A., Duque-Sandoval, H., Aya-Vásquez, D.A.,Human development in the municipalities of the pacific region of colombia (Open Access),; Graham, C.,The challenges of incorporating empowerment into HDI: Some lessons from happiness economics and quality of life research,(2010) . Cited 11 times.; (2014) Public Value Management, Measurement and Reporting, 3.,  28,Harrison, T.M., Sayogo, D.S.; Hayes, A.F., Cai, L.,Using heteroskedasticity-consistent standard error estimators in OLS regression: An introduction and software implementation (Open Access),; (2012) Data Quality Assessment Framework (DQAF) for national accounts statistics,Disponible en,https://dsbb.imf.org/content/pdfs/dqrs_nag.pdf; Lathrop, D., Ruma, L.,(2010) Open Government. Collaboration, Transparency, and Participation in Practice. Cited 302 times.,Sebastiopol: O`Reilly Media; Letelier, L.,(2012) Teoría y práctica de la Descentralización Fiscal. Cited 10 times.,Santiago: Ediciones UC; Lourenço, R.P.,An analysis of open government portals: A perspective of transparency for accountability,; Magri, A., Rodríguez, M.,La fábula de los tres hermanos y el desarrollo territorial en su complejidad multinivel. Consideraciones sobre el caso uruguayo en el contexto latinoamericano,(2017) Cuadernos del Claeh, 36 (Nº105), pp. 77-106. Cited 2 times.; Marcel, M,Presupuesto por resultados: ¿Moda burocrática o nuevo paradigma de gestión pública?,(2009) Presupuesto Basado en Resultados; Martinez-Vazquez, J., McNab, R.M.,Fiscal decentralization and economic growth (Open Access),; Montecinos, E.,Territorial planning in Chile: From the Top Down model to the challenges of multilevel articulation,; Mueller, D.,(1979) Public Choice. Cited 646 times.,Cambridge University Press; Muinelo-Gallo, L, Rodríguez Miranda, A.,(2019) Finanzas subnacionales y capacidades para el desarrollo económico territorial en Uruguay: 1990-2016,(Serie Documentos de Trabajo;15/19). Udelar, FCEA, IECON; Neumayer, E.,(2010) Human development and sustainability. Cited 17 times.,Human Development Research Paper, 2010/05. Human Development Report Office (HDRO), United Nations Development Programme (UNDP); Nijkamp, P.,The «resourceful region». A new conceptualisation of regional development strategies,; North, D.,Institutions, institutional change, and economic performance,(1990) Trad. Instituciones, cambio institucional y desempeño económico. Cited 252 times.; Nussbaum, M.C.,Capabilities as fundamental entitlements: Sen and social justice (Open Access),; Oates, W.,(1972) Fiscal federalism. Cited 3074 times.,Harcourt Brace Jovanovich; Olurankinse, F.,Inter local government capital budget execution Comparison,(2011) American Journal of Economics and Business Administration, 3 (3), pp. 506-510. Cited 3 times.; (2008) Handbook on constructing composite indicators: Methodology and user guide. Cited 3149 times.,Organización para la Cooperación y el Desarrollo Económicos-OECD OECD, JRC European Commission,  47; Pedroza, A., Romero, R.,Clientelismo político en la gestión pública: Características y consecuencias como forma de dominación política,(2018) Revista Telos, 20 (2).; Prud'homme, R.,The dangers of decentralization (Open Access),; Rodríguez-Miranda, A., Vial, C.,(2021) Medición y agenda para el desarrollo territorial en América Latina: El Índice de Desarrollo Regional LATAM,Santiago: Universidad Autónoma de Chile, Universidad de la República Uruguay; Rodríguez-Pose, A., Ezcurra, R.,Does decentralization matter for regional disparities? A cross-country analysis (Open Access),; Samuelson, P.,The pure theory of public expenditure,(1954) Review of Economics and Statistics, XXXVI (4). Cited 3354 times.; Sen, A.,(1999) Desarrollo y libertad. Cited 404 times.,Planeta; Sen, A.,(1985) Commodities and capabilities. Cited 4156 times.,Elsevier; Tavakol, M., Dennick, R.,Making sense of Cronbach's alpha (Open Access),; Vázquez Barquero, A.,(1999) Desarrollo, redes e innovación: Lecciones sobre desarrollo endógeno. Cited 77 times.,Pirámide; Vázquez Barquero, A.,(2002) Endogenous Development. Cited 87 times.,Routledge, Londres; Vázquez Barquero, A.,(2005) Las Nuevas Fuerzas del Desarrollo. Cited 65 times.,Ed. Antoni Bosch; Vázquez-Barquero, A., Rodríguez-Cohard, J.C.,Local development in a global world: Challenges and opportunities,; Vial, M. C.,Concept and Experience of Decentralization in Latin America,(2017) Global Encyclopedia of Public Administration, Public Policy, and; Worthy, B.,More open but not more trusted? The effect of the freedom of information act 2000 on the United Kingdom central government,; Yetano, A., Castillejos, B.I.,Performance audit in Latin America: Improving trust in governments? (Open Access),; Zhang, X.,Fiscal decentralization and political centralization in China: Implications for growth and inequality (Open Access),</t>
+          <t>Alburquerque, F.,Desarrollo económico local y descentralización en América Latina,(2004) Revista de CEPAL, (82). Cited 58 times.; Alburquerque, F.,El enfoque del desarrollo económico territorial,(2015) Enfoque, estrategias e información para el Desarrollo Territorial. Los aprendizajes desde Conecta, p. 1143. Cited 8 times.; Alkire, S.,Human Development: Definitions, critiques, and related concepts,(2010) . Cited 126 times.; Armijo, M.,Planificación estratégica e indicadores de desempeño en el sector público,(2011) Serie Manuales, 69.; Ausejo, F.,Descentralización y Presupuesto por Resultados. Diplomado sobre gestión por resultados,(2010) ; Benko, G., Lipietz, A.,El nuevo debate regional,(1994) Las regiones que ganan, pp. 19-37. Cited 4 times.; Boisier, S.,(1993) Desarrollo regional endógeno en Chile. ¿Utopía o necesidad?,https://docplayer.es/117015-Desarrollo-local-de-queestamos-hablando.html; Bonet, J.,Desequilibrios regionales en la política de descentralización en Colombia,(2006) Documentos de Trabajo Sobre Economía Regional-Banco de la República, p. 77. Cited 4 times.; Bonnefoy, J. C., Armijo, M.,(2005) Indicadores de desempeño en el sector público, 45.,Serie Manuales, CEPAL; Botero, M. E., Hernández, D.,(2016) Desarrollo regional y capacidad institucional: el déficit de capacidad institucional del Estado en los territorios subnacionales,Editorial Universidad del Rosario, Facultad de Ciencia Política y Gobierno; Camagni, R.,Territorial capital and regional development,; Camagni, R., Capello, R.,Regional Competitiveness and Territorial Capital: A Conceptual Approach and Empirical Evidence from the European Union,; Castellano, N., Díaz, B.,Tecnologías de información y comunicación en la sociedad del conocimiento,(2020) Revista Negotium, 47 (16), pp. 5-12. Cited 5 times.; Cheibub, J. A.,(2010) How to include political capabilities in the HDI? An evaluation of alternatives. Cited 5 times.,Human Development Research Paper, 2010/41. Human Development Report Office (HDRO), United Nations Development Programme (UNDP); (2017) Panorama del desarrollo territorial en América Latina y el Caribe. Cited 6 times.,CEPAL,  16; Davoodi, H., Zou, H.-F.,Fiscal Decentralization and Economic Growth: A Cross-Country Study,; (2022) Medición de Desempeño Departamental MDD 2020,Disponible en,https://colaboracion.dnp.gov.co/CDT/Desarrollo%20Territorial/MDD/Informe%20MDD%20-%202020.pdf; (2011) European statistics code of practice. Cited 39 times.,http://ec.europa.eu/eurostat/documents/3859598/5921861/KS32-11-955-EN.PDF/5fa1ebc6-90bb43fa-888f-dde032471e15,  20; Fernández Llera, R.,Buen gobierno local y rendición de cuentas en España,(2020) Retos Revista de Ciencias de la Administración y Economía, 10 (19), pp. 29-44. Cited 2 times.; Flic, Gabriel, Scartascini, Carlos,El presupuesto por resultados en América Latina: Condiciones para su implantación y desarrollo,(2012) ; García Estévez, J., Gómez Márquez, A.,Colombia, en Rodríguez Miranda, Adrián; Vial, Camilo (eds),(2021) Medición y agenda para el desarrollo territorial en América Latina: El Índice de Desarrollo Regional LATAM; García López, R., García Moreno, M.,(2010) La gestión para resultados en el desarrollo: Avances y desafíos en América Latina y el Caribe. Cited 22 times.,Washington, DC, Estados: Banco Interamericano de Desarrollo; Garizado-Román, P.A., Duque-Sandoval, H., Aya-Vásquez, D.A.,Human development in the municipalities of the pacific region of colombia,; Graham, C.,The challenges of incorporating empowerment into HDI: Some lessons from happiness economics and quality of life research,(2010) . Cited 11 times.; (2014) Public Value Management, Measurement and Reporting, 3.,  28,Harrison, T.M., Sayogo, D.S.; Hayes, A.F., Cai, L.,Using heteroskedasticity-consistent standard error estimators in OLS regression: An introduction and software implementation,; (2012) Data Quality Assessment Framework (DQAF) for national accounts statistics,Disponible en,https://dsbb.imf.org/content/pdfs/dqrs_nag.pdf; Lathrop, D., Ruma, L.,(2010) Open Government. Collaboration, Transparency, and Participation in Practice. Cited 304 times.,Sebastiopol: O`Reilly Media; Letelier, L.,(2012) Teoría y práctica de la Descentralización Fiscal. Cited 10 times.,Santiago: Ediciones UC; Lourenço, R.P.,An analysis of open government portals: A perspective of transparency for accountability,; Magri, A., Rodríguez, M.,La fábula de los tres hermanos y el desarrollo territorial en su complejidad multinivel. Consideraciones sobre el caso uruguayo en el contexto latinoamericano,(2017) Cuadernos del Claeh, 36 (Nº105), pp. 77-106. Cited 2 times.; Marcel, M,Presupuesto por resultados: ¿Moda burocrática o nuevo paradigma de gestión pública?,(2009) Presupuesto Basado en Resultados; Martinez-Vazquez, J., McNab, R.M.,Fiscal decentralization and economic growth,; Montecinos, E.,Territorial planning in Chile: From the Top Down model to the challenges of multilevel articulation,; Mueller, D.,(1979) Public Choice. Cited 647 times.,Cambridge University Press; Muinelo-Gallo, L, Rodríguez Miranda, A.,(2019) Finanzas subnacionales y capacidades para el desarrollo económico territorial en Uruguay: 1990-2016,(Serie Documentos de Trabajo;15/19). Udelar, FCEA, IECON; Neumayer, E.,(2010) Human development and sustainability. Cited 17 times.,Human Development Research Paper, 2010/05. Human Development Report Office (HDRO), United Nations Development Programme (UNDP); Nijkamp, P.,The «resourceful region». A new conceptualisation of regional development strategies,; North, D.,Institutions, institutional change, and economic performance,(1990) Trad. Instituciones, cambio institucional y desempeño económico. Cited 252 times.; Nussbaum, M.C.,Capabilities as fundamental entitlements: Sen and social justice,; Oates, W.,(1972) Fiscal federalism. Cited 3077 times.,Harcourt Brace Jovanovich; Olurankinse, F.,Inter local government capital budget execution Comparison,(2011) American Journal of Economics and Business Administration, 3 (3), pp. 506-510. Cited 3 times.; (2008) Handbook on constructing composite indicators: Methodology and user guide. Cited 3158 times.,Organización para la Cooperación y el Desarrollo Económicos-OECD OECD, JRC European Commission,  47; Pedroza, A., Romero, R.,Clientelismo político en la gestión pública: Características y consecuencias como forma de dominación política,(2018) Revista Telos, 20 (2).; Prud'homme, R.,The dangers of decentralization (Open Access),; Rodríguez-Miranda, A., Vial, C.,(2021) Medición y agenda para el desarrollo territorial en América Latina: El Índice de Desarrollo Regional LATAM,Santiago: Universidad Autónoma de Chile, Universidad de la República Uruguay; Rodríguez-Pose, A., Ezcurra, R.,Does decentralization matter for regional disparities? A cross-country analysis (Open Access),; Samuelson, P.,The pure theory of public expenditure,(1954) Review of Economics and Statistics, XXXVI (4). Cited 3362 times.; Sen, A.,(1999) Desarrollo y libertad. Cited 405 times.,Planeta; Sen, A.,(1985) Commodities and capabilities. Cited 4172 times.,Elsevier; Tavakol, M., Dennick, R.,Making sense of Cronbach's alpha (Open Access),; Vázquez Barquero, A.,(1999) Desarrollo, redes e innovación: Lecciones sobre desarrollo endógeno. Cited 77 times.,Pirámide; Vázquez Barquero, A.,(2002) Endogenous Development. Cited 88 times.,Routledge, Londres; Vázquez Barquero, A.,(2005) Las Nuevas Fuerzas del Desarrollo. Cited 65 times.,Ed. Antoni Bosch; Vázquez-Barquero, A., Rodríguez-Cohard, J.C.,Local development in a global world: Challenges and opportunities (Open Access),; Vial, M. C.,Concept and Experience of Decentralization in Latin America,(2017) Global Encyclopedia of Public Administration, Public Policy, and; Worthy, B.,More open but not more trusted? The effect of the freedom of information act 2000 on the United Kingdom central government (Open Access),; Yetano, A., Castillejos, B.I.,Performance audit in Latin America: Improving trust in governments?,; Zhang, X.,Fiscal decentralization and political centralization in China: Implications for growth and inequality,</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1062,11 +1027,6 @@
       <c r="O8" t="inlineStr">
         <is>
           <t>10.52080/rvgluz.27.100.4</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Varios Paises</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1071,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Aguilar Villanueva, L. F.,(2006) Gobernanza y gestión pública. Cited 138 times.,Fondo de Cultura Económica; Barzelay, M.,Introduction: The process dynamics of public management policymaking,; Ghiggo, B., Gilberto, F., Uribe-Hernández, Cecilia, Y., Revilla, C., Adolfo, Oxolón, V., (...), Mercedes, J.,Modernization of the State in public management: Systematic review (Open Access),; (2021) Gobierno abierto,https://fc-abogados.com/es/gobierno-abierto/,  5; Corominas, J., Pascual, J. A.,(1984) Diccionario crítico etimológico,Gredos; De La Garza Montemayor, D.J., Yllán Ramírez, E.R., Barredo Ibáñez, D.,Trends in modern public administration: The new public management in Mexico (Open Access),; Delgado Cantú, G.,(2015) Historia de México, Legado histórico y pasado reciente,Pearson Educación; Flores Caballero, R.,(1988) Administración y política en la historia de México. Cited 4 times.,FCE-INAP; Fuentes Aguirre, A.,(2008) La Otra Historia de México. Hidalgo e Iturbide, La gloria y el olvido,Amazon; Garfias, L.,(1997) La Revolución Mexicana: Compendio histórico, político y militar. Cited 3 times.,Panorama Editorial; Guajardo, G. E.,(1996) Administración de la Calidad Total. Conceptos y Enseñanzas de los Grandes Maestros de la Calidad. Cited 3 times.,Ed. PAX; Guerrero, O.,(1999) Del Estado Gerencial al Estado Cívico. Cited 5 times.,UAEM Miguel Ángel Porrúa; Kliksberg, B.,Hacia un nuevo perfil del Estado en América Latina. Los cambios en las percepciones y las demandas de los ciudadanos,(2005) Revista del CLAD, Reforma y Democracia, (32). Cited 2 times.; Lozada, C.,(1999) De Burócratas a Gerentes: Las ciencias de la gestión aplicada a la administración del Estado. Cited 4 times.,Banco Interamericano de Desarrollo; Meyer, Lor,(2010) Nueva Historia General de México. Cited 6 times.,El Colegio de México; de Oca Rojas Yorberth, M., Isaac, B.B.C., Nelson, C.C.S.,Research methodology in entrepreneurship: A strategy for the scientific production of university teachers (Open Access),; Muñoz Gutiérrez, R.,(2000) Pasión por un Buen Gobierno: Administración por Calidad en el Gobierno de Vicente Fox. Cited 4 times.,Ed. Arte y cultura; Ochoa Henríquez, H., Montes de Oca, Y.,Accountability in public management models: Theoretical reflections,; Ostrom, V.,Development in the Fields of Public Administration,(1964) Public Administration Review, 24 (1). Cited 9 times.; Roeder, R.,(1958) Juárez y su México,editorial; Tejada Estrada, G.C., Rengifo Lozano, R.A., Boy Barreto, A.M., Rodríguez Chirinos, J.V.,Organizational structure and control in a bureaucratic management model (Open Access),; Torres Fregoso, J.,Marco Conceptual de la Gerencia Pública para América Latina,(2008) Revista Ciencias de la Administración, (2). Cited 3 times.; Bcrroncs, R.U.,,(2009) Convergencia, 16 (49), pp. 73-102. Cited 2 times.</t>
+          <t>Aguilar Villanueva, L. F.,(2006) Gobernanza y gestión pública. Cited 138 times.,Fondo de Cultura Económica; Barzelay, M.,Introduction: The process dynamics of public management policymaking,; Ghiggo, B., Gilberto, F., Uribe-Hernández, Cecilia, Y., Revilla, C., Adolfo, Oxolón, V., (...), Mercedes, J.,Modernization of the State in public management: Systematic review,; (2021) Gobierno abierto,https://fc-abogados.com/es/gobierno-abierto/,  5; Corominas, J., Pascual, J. A.,(1984) Diccionario crítico etimológico,Gredos; De La Garza Montemayor, D.J., Yllán Ramírez, E.R., Barredo Ibáñez, D.,Trends in modern public administration: The new public management in Mexico,; Delgado Cantú, G.,(2015) Historia de México, Legado histórico y pasado reciente,Pearson Educación; Flores Caballero, R.,(1988) Administración y política en la historia de México. Cited 4 times.,FCE-INAP; Fuentes Aguirre, A.,(2008) La Otra Historia de México. Hidalgo e Iturbide, La gloria y el olvido,Amazon; Garfias, L.,(1997) La Revolución Mexicana: Compendio histórico, político y militar. Cited 3 times.,Panorama Editorial; Guajardo, G. E.,(1996) Administración de la Calidad Total. Conceptos y Enseñanzas de los Grandes Maestros de la Calidad. Cited 3 times.,Ed. PAX; Guerrero, O.,(1999) Del Estado Gerencial al Estado Cívico. Cited 5 times.,UAEM Miguel Ángel Porrúa; Kliksberg, B.,Hacia un nuevo perfil del Estado en América Latina. Los cambios en las percepciones y las demandas de los ciudadanos,(2005) Revista del CLAD, Reforma y Democracia, (32). Cited 2 times.; Lozada, C.,(1999) De Burócratas a Gerentes: Las ciencias de la gestión aplicada a la administración del Estado. Cited 4 times.,Banco Interamericano de Desarrollo; Meyer, Lor,(2010) Nueva Historia General de México. Cited 6 times.,El Colegio de México; de Oca Rojas Yorberth, M., Isaac, B.B.C., Nelson, C.C.S.,Research methodology in entrepreneurship: A strategy for the scientific production of university teachers,; Muñoz Gutiérrez, R.,(2000) Pasión por un Buen Gobierno: Administración por Calidad en el Gobierno de Vicente Fox. Cited 4 times.,Ed. Arte y cultura; Ochoa Henríquez, H., Montes de Oca, Y.,Accountability in public management models: Theoretical reflections,; Ostrom, V.,Development in the Fields of Public Administration,(1964) Public Administration Review, 24 (1). Cited 9 times.; Roeder, R.,(1958) Juárez y su México,editorial; Tejada Estrada, G.C., Rengifo Lozano, R.A., Boy Barreto, A.M., Rodríguez Chirinos, J.V.,Organizational structure and control in a bureaucratic management model (Open Access),; Torres Fregoso, J.,Marco Conceptual de la Gerencia Pública para América Latina,(2008) Revista Ciencias de la Administración, (2). Cited 3 times.; Bcrroncs, R.U.,,(2009) Convergencia, 16 (49), pp. 73-102. Cited 2 times.</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1142,11 +1102,6 @@
       <c r="O9" t="inlineStr">
         <is>
           <t>10.52080/rvgluz.27.100.3</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Varios Paises</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1146,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Adi, S., Dutil, P.,Searching for strategy: Value for Money (VFM) audit choice in the new public management era,; Akhmetova, N., Esengeldina, L.,Some contemporary problems of systematization of legislation in the republic of Kazakhstan,(2014) EDUCATION and SCIENCE without borders, 5 (10), pp. 47-51.; Aldemir, C.,Educational Governance in Turkey: From the view of New Public Management and New Social Movement Theories,(2018) Gaziantep University Journal of Social Sciences, 17 (2), pp. 438-452.; Aubert, B.A., Bourdeau, S.,Public sector performance and decentralization of decision rights,; Ayala, D., Figueroa, D., Salcedo, J.,Sistematización de experiencias de algunas universidades privadas de Bogotá sobre su proceso de implementación de Normas Internacionales de Información Financiera,(2017) Revista Científica General José María Córdova, 15 (20), pp. 291-307.; Badillo, D.,(2020) El Economista. Diario El Economista,(18 de 01 de); Bercu, A., Vatamanu, A.,The performance paradox in the public sector in eu member states. key facts and challenges,(2019) Journal of Public Administration, Finance and Law, (16), pp. 25-34.; Bondar, F.,Quality of Government and Decentralization in Romania,(2014) International Review of Social Research, 4 (1), pp. 5-25. Cited 2 times.; Burnier, D.,Reimagining Performance in Public Administration Theory and Practice: Creating a Democratic Performativity of Care and Hope,; Cantos Ochoa, M.,La auditoría integral como herramienta de validación de la gestión institucional,(2019) Telos, 21 (29), pp. 422-448. Cited 2 times.; Cerrillo, A., Casadejesús, A.,El impacto de la gestión documental en la transparencia de las Administraciones públicas: la transparencia por diseño,(2018) Gestión y Análisis de Políticas Públicas, Nueva Época (GAPP), (19), pp. 6-16. Cited 6 times.; (2006) Informes de labores de la CNPSS,http://www.transparencia.seguro-popular.gob.mx/index.php/planes-programas-einformes/22-planes-programas-einformes/39-informes-de-labores-dela-cnpss,  13; Corral, M.,(2015) Dokutekana,(02 de 03 de); Crispim, G., Alberton, L., Duque, C.,Opportunity of robust research in Accounting: a literary analysis on performance indicators in the management of municipal governments,(2019) Contabilidad y Negocios, 14 (28), pp. 126-142.; Curry, D., Van de Walle, S.,A Bibliometrics Approach to Understanding Conceptual Breadth, Depth and Development: The Case of New Public Management (Open Access),; De La Garza Montemayor, D.J., Yllán Ramírez, E.R., Barredo Ibáñez, D.,Trends in modern public administration: The new public management in Mexico (Open Access),; Encalada-Encarnación, V. R.,Desarrollo social-económico inclusivo hacia la modernización y profesionalización estatal en Ecuador,(2017) Santiago, (144), pp. 721-737.; Fawcett, P., Corbett, J.,Politicians, professionalization and anti-politics: why we want leaders who act like professionals but are paid like amateurs (Open Access),; Franciskovic, J.,Challenges of Public Administration: Budget by Results and Accountability (Open Access),; (2020) Acuerdan acciones conjuntas Coahuila, Nuevo León y Tamaulipas ante la contingencia del COVID 19,Gobierno de Coahuila (19 de marzo de),https://coahuila.gob.mx/noticias/index/acuerdan-accionesconjuntas-coahuila-nuevo-leon-ytamaulipas-ante-la-contingencia-delcovid-19-19-03-20; González, B.,Complejidad y sistematización de la evaluación de la educación superior en México,(2014) Revista de Comunicación de la SEECI, 18 (33), pp. 1-12. Cited 2 times.; Guevara, A., Espejel, J., Flores, M.,Los retos de la nueva gestión pública en América Latina,(2010) Espacios Públicos, 13 (27), pp. 33-46. Cited 3 times.; Hernández-Ibarra, L. E., Mercado Martínez, F., Flores Yesica, R., Cruz Ortiz, M.,La atención a la enfermedad crónica en el Seguro Popular. La desigualdad institucionalizada en México,(2019) Revista Facultad Nacional de Salud Pública, 37, pp. 75-75.; Huffman, C., Van Gameren, E.,Heterogeneous and distributional effects of Mexico's health insurance for the poor on the supply of healthcare services (Open Access),; (2020) Instituto Nacional de Estadística y Geografía. Cited 364 times.,https://www.inegi.org.mx/datos/,  27; Khadzhyradieva, S., Slukhai, S., Rachynskyi, A.,Public Administration in Ukraine: Adjusting to European Standards (Open Access),; Mujica, M., Ibañez, N., Castillo, R.,La administración como disciplina científica transdisciplinaria y compleja: un estudio latinoamericano,(2018) Revista Científica Electrónica de Ciencias Gerenciales, (40), pp. 5-27.; Ochman, M., Escalante, J.C.,Systematization and evaluation of citizenship skills for democratic societies,; Ochoa, H., Fuenmayor, J., Henríquez, D.,De la descentralización territorial a la descentralización participativa en Venezuela,(2007) Utopía y Praxis Latinoamericana, 12 (36), p. 91105. Cited 4 times.; Olum, Y.,Decentralization in developing countries: preconditions for successful implementation,(2014) Commonwealth Journal of Local Governance, (15), pp. 23-38. Cited 10 times.; Orozco-Núñez, E., Alcalde-Rabanal, J., Navarro, J., Lozano, R.,Administrative efficiency in the Mexican fund for the prevention of catastrophic expenditures in health (Open Access),; Payán Serna, K. F.,El Presupuesto basado en Resultados en México,(2019) Trascender, contabilidad y gestión, (10), pp. 36-49.; Ponomariov, B., McCabe, B.,Professionalism vs. Public Service Motivation: Can Public Administration Education Alleviate the Tension?,(2017) Administrative Theory &amp; Praxis, 39, pp. 80-99. Cited 7 times.; Popa, F.,Aspects of decentralization in the context of public administration reform,(2013) SEA Practical Application of Science, 1 (1), pp. 126-133.; Presidencia, R.,(2020) Presidente firma convenio con hospitales privados para reforzar capacidades en epidemia de COVID-19,(13 de abril de); Ramos, J.,Gestión por resultados en México, 2013-2014. Algunos impactos en Baja California,(2016) Estudios Fronterizos, 17 (34), pp. 64-84. Cited 2 times.; Régimen de Protección Social en Salud Nuevo León,R (s.f),https://www.nl.gob.mx/seguropopular; Rivera-Hernández, M., Rahman, M., Galárraga, O.,Preventive healthcare-seeking behavior among poor older adults in Mexico: The impact of Seguro Popular, 2000-2012 (Open Access),; Robles, B.,La entrevista en profundidad: Una tecnica util dentro del campo antropofisico,(2011) Cuicuilco, 18 (52), pp. 39-49. Cited 57 times.; Rodríguez Bolívar, M.P.,The influence of political factors in policymakers' perceptions on the implementation of Web 2.0 technologies for citizen participation and knowledge sharing in public sector delivery,; Romo, G., Quintero, C.,Los gobiernos de las ciudades y los organismos que promueven su profesionalización. Propuesta metodológica de intervención organizacional a través de un estudio de caso: ICMA Latinoamérica,(2014) Gestión y Política Pública, (1), p. 79120.; Ruiz Medina, M.,(2011) Políticas públicas en salud y su impacto en el seguro popular en Culiacán, Sinaloa, México. Cited 2 times.,[Tesis, Universidad Autónoma de Sinaloa]]; (2019) Transparencia Focalizada,http://www.transparencia.seguropopular.gob.mx/index.php/transparencia-focalizada/21pesonas-afiliadas,  46; (2005) Elementos Conceptuales,Financieros y operativos, México,  48; Tavas, B.,The discipline of public administration: new public administration and management,(2019) IJOESS, International Journal of Eurasia Social Sciences, 10 (37), pp. 458-463.; Toledo, E.,La rendición de cuentas (accountability) y la retórica de la nueva gestión pública,(2009) Espacios Públicos, 12 (24), pp. 71-89. Cited 5 times.; Valenzuela, E., Henriquez, O., Cienfuegos, I.,The three types of power distribution, that structure decentralization in South America (Open Access),; Vásquez-González, Y.L.,Measuring social capital: An approach based on citizen participation in local governments (Open Access),; Vicher, M.,Mecanismos de tipo mercado en la Administración pública: refexiones sobre su aplicación,(2015) Panorama, 9 (16), p. 118128.; Vignolo, J.,Niveles de atención, de prevención y atención primaria de la salud,(2011) Prensa Médica Latinoamericana, pp. 11-14. Cited 36 times.; Yllán Rodríguez, E. R.,Mecanismos de participación ciudadana en el estado de Nuevo León,(2017) Caso: Observatorios ciudadanos durante la administración 2009-2015</t>
+          <t>Adi, S., Dutil, P.,Searching for strategy: Value for Money (VFM) audit choice in the new public management era,; Akhmetova, N., Esengeldina, L.,Some contemporary problems of systematization of legislation in the republic of Kazakhstan,(2014) EDUCATION and SCIENCE without borders, 5 (10), pp. 47-51.; Aldemir, C.,Educational Governance in Turkey: From the view of New Public Management and New Social Movement Theories,(2018) Gaziantep University Journal of Social Sciences, 17 (2), pp. 438-452.; Aubert, B.A., Bourdeau, S.,Public sector performance and decentralization of decision rights,; Ayala, D., Figueroa, D., Salcedo, J.,Sistematización de experiencias de algunas universidades privadas de Bogotá sobre su proceso de implementación de Normas Internacionales de Información Financiera,(2017) Revista Científica General José María Córdova, 15 (20), pp. 291-307.; Badillo, D.,(2020) El Economista. Diario El Economista,(18 de 01 de); Bercu, A., Vatamanu, A.,The performance paradox in the public sector in eu member states. key facts and challenges,(2019) Journal of Public Administration, Finance and Law, (16), pp. 25-34.; Bondar, F.,Quality of Government and Decentralization in Romania,(2014) International Review of Social Research, 4 (1), pp. 5-25. Cited 2 times.; Burnier, D.,Reimagining Performance in Public Administration Theory and Practice: Creating a Democratic Performativity of Care and Hope,; Cantos Ochoa, M.,La auditoría integral como herramienta de validación de la gestión institucional,(2019) Telos, 21 (29), pp. 422-448. Cited 2 times.; Cerrillo, A., Casadejesús, A.,El impacto de la gestión documental en la transparencia de las Administraciones públicas: la transparencia por diseño,(2018) Gestión y Análisis de Políticas Públicas, Nueva Época (GAPP), (19), pp. 6-16. Cited 6 times.; (2006) Informes de labores de la CNPSS,http://www.transparencia.seguro-popular.gob.mx/index.php/planes-programas-einformes/22-planes-programas-einformes/39-informes-de-labores-dela-cnpss,  13; Corral, M.,(2015) Dokutekana,(02 de 03 de); Crispim, G., Alberton, L., Duque, C.,Opportunity of robust research in Accounting: a literary analysis on performance indicators in the management of municipal governments,(2019) Contabilidad y Negocios, 14 (28), pp. 126-142.; Curry, D., Van de Walle, S.,A Bibliometrics Approach to Understanding Conceptual Breadth, Depth and Development: The Case of New Public Management,; De La Garza Montemayor, D.J., Yllán Ramírez, E.R., Barredo Ibáñez, D.,Trends in modern public administration: The new public management in Mexico,; Encalada-Encarnación, V. R.,Desarrollo social-económico inclusivo hacia la modernización y profesionalización estatal en Ecuador,(2017) Santiago, (144), pp. 721-737.; Fawcett, P., Corbett, J.,Politicians, professionalization and anti-politics: why we want leaders who act like professionals but are paid like amateurs,; Franciskovic, J.,Challenges of Public Administration: Budget by Results and Accountability,; (2020) Acuerdan acciones conjuntas Coahuila, Nuevo León y Tamaulipas ante la contingencia del COVID 19,Gobierno de Coahuila (19 de marzo de),https://coahuila.gob.mx/noticias/index/acuerdan-accionesconjuntas-coahuila-nuevo-leon-ytamaulipas-ante-la-contingencia-delcovid-19-19-03-20; González, B.,Complejidad y sistematización de la evaluación de la educación superior en México,(2014) Revista de Comunicación de la SEECI, 18 (33), pp. 1-12. Cited 2 times.; Guevara, A., Espejel, J., Flores, M.,Los retos de la nueva gestión pública en América Latina,(2010) Espacios Públicos, 13 (27), pp. 33-46. Cited 3 times.; Hernández-Ibarra, L. E., Mercado Martínez, F., Flores Yesica, R., Cruz Ortiz, M.,La atención a la enfermedad crónica en el Seguro Popular. La desigualdad institucionalizada en México,(2019) Revista Facultad Nacional de Salud Pública, 37, pp. 75-75.; Huffman, C., Van Gameren, E.,Heterogeneous and distributional effects of Mexico's health insurance for the poor on the supply of healthcare services,; (2020) Instituto Nacional de Estadística y Geografía. Cited 365 times.,https://www.inegi.org.mx/datos/,  27; Khadzhyradieva, S., Slukhai, S., Rachynskyi, A.,Public Administration in Ukraine: Adjusting to European Standards,; Mujica, M., Ibañez, N., Castillo, R.,La administración como disciplina científica transdisciplinaria y compleja: un estudio latinoamericano,(2018) Revista Científica Electrónica de Ciencias Gerenciales, (40), pp. 5-27.; Ochman, M., Escalante, J.C.,Systematization and evaluation of citizenship skills for democratic societies,; Ochoa, H., Fuenmayor, J., Henríquez, D.,De la descentralización territorial a la descentralización participativa en Venezuela,(2007) Utopía y Praxis Latinoamericana, 12 (36), p. 91105. Cited 4 times.; Olum, Y.,Decentralization in developing countries: preconditions for successful implementation,(2014) Commonwealth Journal of Local Governance, (15), pp. 23-38. Cited 11 times.; Orozco-Núñez, E., Alcalde-Rabanal, J., Navarro, J., Lozano, R.,Administrative efficiency in the Mexican fund for the prevention of catastrophic expenditures in health,; Payán Serna, K. F.,El Presupuesto basado en Resultados en México,(2019) Trascender, contabilidad y gestión, (10), pp. 36-49.; Ponomariov, B., McCabe, B.,Professionalism vs. Public Service Motivation: Can Public Administration Education Alleviate the Tension?,(2017) Administrative Theory &amp; Praxis, 39, pp. 80-99. Cited 7 times.; Popa, F.,Aspects of decentralization in the context of public administration reform,(2013) SEA Practical Application of Science, 1 (1), pp. 126-133.; Presidencia, R.,(2020) Presidente firma convenio con hospitales privados para reforzar capacidades en epidemia de COVID-19,(13 de abril de); Ramos, J.,Gestión por resultados en México, 2013-2014. Algunos impactos en Baja California,(2016) Estudios Fronterizos, 17 (34), pp. 64-84. Cited 2 times.; Régimen de Protección Social en Salud Nuevo León,R (s.f),https://www.nl.gob.mx/seguropopular; Rivera-Hernández, M., Rahman, M., Galárraga, O.,Preventive healthcare-seeking behavior among poor older adults in Mexico: The impact of Seguro Popular, 2000-2012 (Open Access),; Robles, B.,La entrevista en profundidad: Una tecnica util dentro del campo antropofisico,(2011) Cuicuilco, 18 (52), pp. 39-49. Cited 58 times.; Rodríguez Bolívar, M.P.,The influence of political factors in policymakers' perceptions on the implementation of Web 2.0 technologies for citizen participation and knowledge sharing in public sector delivery (Open Access),; Romo, G., Quintero, C.,Los gobiernos de las ciudades y los organismos que promueven su profesionalización. Propuesta metodológica de intervención organizacional a través de un estudio de caso: ICMA Latinoamérica,(2014) Gestión y Política Pública, (1), p. 79120.; Ruiz Medina, M.,(2011) Políticas públicas en salud y su impacto en el seguro popular en Culiacán, Sinaloa, México. Cited 2 times.,[Tesis, Universidad Autónoma de Sinaloa]]; (2019) Transparencia Focalizada,http://www.transparencia.seguropopular.gob.mx/index.php/transparencia-focalizada/21pesonas-afiliadas,  46; (2005) Elementos Conceptuales,Financieros y operativos, México,  48; Tavas, B.,The discipline of public administration: new public administration and management,(2019) IJOESS, International Journal of Eurasia Social Sciences, 10 (37), pp. 458-463.; Toledo, E.,La rendición de cuentas (accountability) y la retórica de la nueva gestión pública,(2009) Espacios Públicos, 12 (24), pp. 71-89. Cited 5 times.; Valenzuela, E., Henriquez, O., Cienfuegos, I.,The three types of power distribution, that structure decentralization in South America,; Vásquez-González, Y.L.,Measuring social capital: An approach based on citizen participation in local governments (Open Access),; Vicher, M.,Mecanismos de tipo mercado en la Administración pública: refexiones sobre su aplicación,(2015) Panorama, 9 (16), p. 118128.; Vignolo, J.,Niveles de atención, de prevención y atención primaria de la salud,(2011) Prensa Médica Latinoamericana, pp. 11-14. Cited 36 times.; Yllán Rodríguez, E. R.,Mecanismos de participación ciudadana en el estado de Nuevo León,(2017) Caso: Observatorios ciudadanos durante la administración 2009-2015</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1222,11 +1177,6 @@
       <c r="O10" t="inlineStr">
         <is>
           <t>10.52080/rvgluz.27.100.2</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Mexico</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1221,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Quintero Castellanos, C.E.,,(2017) Perfiles Latinoamericanos, 25 (50), pp. 39-57. Cited 7 times.; Caballero Martìn, V.,(2009) Los conflictos sociales y socio-ambientales en el sector rural y su relación con el desarrollo rural,Sepia Xiii; Hernández-Sampieri, R., Fernández, C., Baptista, P.,(2006) Metodología de la Investigación. Cited 6043 times.,Editorial McGraw-Hill Interamericana; Leiva, A., Ramírez, A.,Efectos de la inseguridad ciudadana en el bienestar de la población,(2021) Ciencia Latina. Revista Multidisciplinar, 5 (3), pp. 6-14.; Levin, R., Ramos, B.,(2010) Estadística para Administración y Economía. Cited 27 times.,7ma edición revisada. Pearson Educación de México. Prentice Hall; Noroña, D.R, Vega, V.,Autopercepción de la salud laboral en docentes del Instituto Superior Tecnológico Sucre,(2022) Revista Asociación Especialistas Medicina del Trabajo, 31 (1), pp. 13-20.; Monge, G.,Tratamiento de los deberes constitucionales de la persona en el Perú: Una introducción,(2021) Forseti, 9 (13), pp. 46-62. Cited 2 times.; Ortega, K.M., Pino, S.L.,Impacto social y económico de los factores de riesgo que afectan la seguridad ciudadana en Ecuador,(2021) Revista Espacios, 42 (21), pp. 52-70. Cited 2 times.; Pajuelo Teves, R.,Perú: crisis política permanente y nuevas protestas sociales,(2004) Osal, Observatorio Social de América Latina, 5 (14), pp. 51-68. Cited 5 times.; Palacios-Valladares, I.,Chile’s 2019 october protests and the student movement: Eventful mobilization?*1,; Violencia contra mujeres niñas y niños,(2020) Informe Estado de la violencia en el Perú, pp. 263-273.,En: INEI (ed), Lima: p; Postigo, E.,Bioética y transhumanismo desde la perspectiva de la naturaleza humana,(2019) ARBOR Ciencia, Pensamiento y Cultura, 195 (792), pp. 1-10. Cited 3 times.; Sánchez, A.J.,(2019) Epistemología y metodología jurídica. Cited 3 times.,Tirant lo Blanch; Sánchez-Toledo Ledesma, A.M.,Effects of home-office on workers’ well-being,; Revilla, M., González, A.,Movimientos sociales y movilizaciones colectivas en América Latina en la última década,(2019) Presentación. Política y Sociedad, 56 (1), pp. 15-19.; Tanner, E., Jo, S., Lipsey, M.,Factores de riesgo y crimen,(2019) Seguridad</t>
+          <t>Quintero Castellanos, C.E.,,(2017) Perfiles Latinoamericanos, 25 (50), pp. 39-57. Cited 7 times.; Caballero Martìn, V.,(2009) Los conflictos sociales y socio-ambientales en el sector rural y su relación con el desarrollo rural,Sepia Xiii; Hernández-Sampieri, R., Fernández, C., Baptista, P.,(2006) Metodología de la Investigación. Cited 6077 times.,Editorial McGraw-Hill Interamericana; Leiva, A., Ramírez, A.,Efectos de la inseguridad ciudadana en el bienestar de la población,(2021) Ciencia Latina. Revista Multidisciplinar, 5 (3), pp. 6-14.; Levin, R., Ramos, B.,(2010) Estadística para Administración y Economía. Cited 27 times.,7ma edición revisada. Pearson Educación de México. Prentice Hall; Noroña, D.R, Vega, V.,Autopercepción de la salud laboral en docentes del Instituto Superior Tecnológico Sucre,(2022) Revista Asociación Especialistas Medicina del Trabajo, 31 (1), pp. 13-20.; Monge, G.,Tratamiento de los deberes constitucionales de la persona en el Perú: Una introducción,(2021) Forseti, 9 (13), pp. 46-62. Cited 3 times.; Ortega, K.M., Pino, S.L.,Impacto social y económico de los factores de riesgo que afectan la seguridad ciudadana en Ecuador,(2021) Revista Espacios, 42 (21), pp. 52-70. Cited 2 times.; Pajuelo Teves, R.,Perú: crisis política permanente y nuevas protestas sociales,(2004) Osal, Observatorio Social de América Latina, 5 (14), pp. 51-68. Cited 5 times.; Palacios-Valladares, I.,Chile’s 2019 october protests and the student movement: Eventful mobilization?*1,; Violencia contra mujeres niñas y niños,(2020) Informe Estado de la violencia en el Perú, pp. 263-273.,En: INEI (ed), Lima: p; Postigo, E.,Bioética y transhumanismo desde la perspectiva de la naturaleza humana,(2019) ARBOR Ciencia, Pensamiento y Cultura, 195 (792), pp. 1-10. Cited 3 times.; Sánchez, A.J.,(2019) Epistemología y metodología jurídica. Cited 3 times.,Tirant lo Blanch; Sánchez-Toledo Ledesma, A.M.,Effects of home-office on workers’ well-being,; Revilla, M., González, A.,Movimientos sociales y movilizaciones colectivas en América Latina en la última década,(2019) Presentación. Política y Sociedad, 56 (1), pp. 15-19.; Tanner, E., Jo, S., Lipsey, M.,Factores de riesgo y crimen,(2019) Seguridad</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1302,11 +1252,6 @@
       <c r="O11" t="inlineStr">
         <is>
           <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85138545256&amp;partnerID=40&amp;md5=e148d53b60923b1fd626961d2bfa6374</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>Peru</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1296,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Abello, J.,El delito político y la Corte Penal Internacional,(2004) Revista de derecho: División de Ciencias Jurídicas de la Universidad del Norte, (21), pp. 200-233. Cited 2 times.; Aduna, A.,La influencia de la cultura y del estilo de gestión sobre el clima organizacional. Estudio de caso de la mediana empresa en la delegación Iztapalapa,(2008) Estudios Gerenciales, 24 (106), pp. 47-64. Cited 11 times.; Código Orgánico Integral Penal, COIP,(2014) . Cited 4 times.,Registro Oficial Suplemento 180; (2015) Código Orgánico General de Procesos. Cited 28 times.,Registro Oficial Suplemento N. 506,https://www.funcionjudicial.gob.ec/pdf/CODIGO%20ORGANICO%20GENERAL%20DE%20PROCESOS.pdf; Freire, M.,(2018) Los requisitos de procedibilidad en el delito de peculado en el Ecuador,(Bachelor’s thesis, PUCE); Guevara, F., Pérez, Y., Macazana, D.,Pensamiento crítico y su relación con el rendimiento académico en la investigación formativa de los estudiantes universitarios,(2019) Dilemas contemporáneos: Educación, Política y Valores, 1 (13), pp. 1-18. Cited 6 times.; Jhayya, R.,(2020) Evaluación de riesgos psicosociales en los servidores de la unidad de análisis financiero y económico (UAFE),Universidad Internacional SEK; Lara, M.,(2015) Gobierno y responsabilidad corporativa del sector bancario del Ecuador y su compromiso frente al riesgo del fraude interno,(Master’s thesis, Universidad de Guayaquil Facultad de Ciencias Administrativas); Macazana Fernández, D.M., Rodríguez Grández, C., Collazos Paucar, E., Pastor Segura, J., Castañeda Terrones, R.H.,AUTHENTIC ASSESSMENT AND STUDENT AUTONOMY,; Mancilla Rendón, M.E., Saavedra García, M.L.,Corporate governance and the audit committee as part of Corporate Social Responsibility (Open Access),; Ossa, E.,(1986) Estudio del peculado,Librería Jurídicas Wilches; Pérez, G., Gotsens, M., Palència, L., Marí-Dell'Olmo, M., Domínguez-Berjón, M.F., Rodríguez-Sanz, M., Puig, V., (...), Borrell, C.,Study protocol on the effect of the economic crisis on mortality and reproductive health and health inequalities in Spain (Open Access),; Porta Serra, M., Kritchevsky, S.B.,La Asociación Entre Mortalidad y Gasto de Medicamentos Persiste al Controlar por la Renta «Per Cápita» (Open Access),; Ramos, R. A.,DERECHO CONSTITUCIONAL EN ECUADOR Y ASPECTOS SOBRE LA CORRUPCIÓN DESDE LO PENAL,(2017) Revista Chakiñan de Ciencias Sociales y Humanidades, 2, pp. 35-46.; Rodríguez, C.,(2017) El principio de proporcionalidad por el legislador. Ideas para una mejora en Ex ante de las leyes en Colombia. Cited 2 times.,Universidad del Magdalena; Rodríguez-Raga, S., Rodríguez, F.F.R.,Determinants of access to financial products among Colombian households (Open Access),; Tixi, Y.,(2018) La trascendencia de los informes de indicios de responsabilidad penal y su incidencia en la decisión judicial: Estudio de caso múltiple de delito de peculado,Instituto de Altos Estudios Nacional. (Tesis de maestría de la Universidad de Posgrado del Estado); von Feigenblatt, O., Peña-Acuña, B., Cardoso-Pulido, M. J.,(2022) Aprendizaje personalizado y education maker: Nuevos paradigmas didácticos y otras aproximaciones. Cited 3 times.,Ediciones Octaedro. https://books.google.com.ec/books?hl=es&amp;lr=&amp;id=RRhgE AAAQBAJ&amp;oi=fnd&amp;pg=PA1&amp;dq=Aprendizaje+pers onalizado+y+education+maker:+Nuevos+paradigm as+did%C3%A1cticos+y+otras+aproximaciones&amp;ot s=Bn08ysXv4w&amp;sig=PzD6Pd8zMJ1MhzpesAAPtjb rTfE&amp;redir_esc=y#v=onepage&amp;q=Aprendizaje%20 personalizado%20y%20education%20maker%3A%20 Nuevos%20paradigmas%20did%C3%A1cticos%20 y%20otras%20aproximaciones&amp;f=false; Yépez, M.,(2015) La incorporación del enfoque de género en la Ley y la justicia,(sitio web Derecho Ecuador) Obtenido de; Yumiseba, P., Fernanda, J.,(2018) El informe de contraloría general del estado para la investigación del delito de peculado,(Bachelor’s thesis, Universidad Nacional de Chimborazo, 2018)</t>
+          <t>Abello, J.,El delito político y la Corte Penal Internacional,(2004) Revista de derecho: División de Ciencias Jurídicas de la Universidad del Norte, (21), pp. 200-233. Cited 2 times.; Aduna, A.,La influencia de la cultura y del estilo de gestión sobre el clima organizacional. Estudio de caso de la mediana empresa en la delegación Iztapalapa,(2008) Estudios Gerenciales, 24 (106), pp. 47-64. Cited 11 times.; Código Orgánico Integral Penal, COIP,(2014) . Cited 4 times.,Registro Oficial Suplemento 180; (2015) Código Orgánico General de Procesos. Cited 28 times.,Registro Oficial Suplemento N. 506,https://www.funcionjudicial.gob.ec/pdf/CODIGO%20ORGANICO%20GENERAL%20DE%20PROCESOS.pdf; Freire, M.,(2018) Los requisitos de procedibilidad en el delito de peculado en el Ecuador,(Bachelor’s thesis, PUCE); Guevara, F., Pérez, Y., Macazana, D.,Pensamiento crítico y su relación con el rendimiento académico en la investigación formativa de los estudiantes universitarios,(2019) Dilemas contemporáneos: Educación, Política y Valores, 1 (13), pp. 1-18. Cited 6 times.; Jhayya, R.,(2020) Evaluación de riesgos psicosociales en los servidores de la unidad de análisis financiero y económico (UAFE),Universidad Internacional SEK; Lara, M.,(2015) Gobierno y responsabilidad corporativa del sector bancario del Ecuador y su compromiso frente al riesgo del fraude interno,(Master’s thesis, Universidad de Guayaquil Facultad de Ciencias Administrativas); Macazana Fernández, D.M., Rodríguez Grández, C., Collazos Paucar, E., Pastor Segura, J., Castañeda Terrones, R.H.,AUTHENTIC ASSESSMENT AND STUDENT AUTONOMY,; Mancilla Rendón, M.E., Saavedra García, M.L.,Corporate governance and the audit committee as part of Corporate Social Responsibility,; Ossa, E.,(1986) Estudio del peculado,Librería Jurídicas Wilches; Pérez, G., Gotsens, M., Palència, L., Marí-Dell'Olmo, M., Domínguez-Berjón, M.F., Rodríguez-Sanz, M., Puig, V., (...), Borrell, C.,Study protocol on the effect of the economic crisis on mortality and reproductive health and health inequalities in Spain,; Porta Serra, M., Kritchevsky, S.B.,La Asociación Entre Mortalidad y Gasto de Medicamentos Persiste al Controlar por la Renta «Per Cápita»,; Ramos, R. A.,DERECHO CONSTITUCIONAL EN ECUADOR Y ASPECTOS SOBRE LA CORRUPCIÓN DESDE LO PENAL,(2017) Revista Chakiñan de Ciencias Sociales y Humanidades, 2, pp. 35-46.; Rodríguez, C.,(2017) El principio de proporcionalidad por el legislador. Ideas para una mejora en Ex ante de las leyes en Colombia. Cited 2 times.,Universidad del Magdalena; Rodríguez-Raga, S., Rodríguez, F.F.R.,Determinants of access to financial products among Colombian households (Open Access),; Tixi, Y.,(2018) La trascendencia de los informes de indicios de responsabilidad penal y su incidencia en la decisión judicial: Estudio de caso múltiple de delito de peculado,Instituto de Altos Estudios Nacional. (Tesis de maestría de la Universidad de Posgrado del Estado); von Feigenblatt, O., Peña-Acuña, B., Cardoso-Pulido, M. J.,(2022) Aprendizaje personalizado y education maker: Nuevos paradigmas didácticos y otras aproximaciones. Cited 3 times.,Ediciones Octaedro. https://books.google.com.ec/books?hl=es&amp;lr=&amp;id=RRhgE AAAQBAJ&amp;oi=fnd&amp;pg=PA1&amp;dq=Aprendizaje+pers onalizado+y+education+maker:+Nuevos+paradigm as+did%C3%A1cticos+y+otras+aproximaciones&amp;ot s=Bn08ysXv4w&amp;sig=PzD6Pd8zMJ1MhzpesAAPtjb rTfE&amp;redir_esc=y#v=onepage&amp;q=Aprendizaje%20 personalizado%20y%20education%20maker%3A%20 Nuevos%20paradigmas%20did%C3%A1cticos%20 y%20otras%20aproximaciones&amp;f=false; Yépez, M.,(2015) La incorporación del enfoque de género en la Ley y la justicia,(sitio web Derecho Ecuador) Obtenido de; Yumiseba, P., Fernanda, J.,(2018) El informe de contraloría general del estado para la investigación del delito de peculado,(Bachelor’s thesis, Universidad Nacional de Chimborazo, 2018)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1382,11 +1327,6 @@
       <c r="O12" t="inlineStr">
         <is>
           <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85138510627&amp;partnerID=40&amp;md5=d08b0f74c2b23edbc72b107edc6daf0f</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1371,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>AlAhram,(2021) . و7,accessed, 1 August 2021 تعديلات تاريخية لتغليظ عقوبة التحرش الجنسي غرامة نصف مليون جنيه سنوات سجن; Alvesson, M.,(2011) Interpreting Interviews. Cited 242 times.,Sage, London; Alvesson, M., Kärreman, D.,(2011) Qualitative Research and Theory Development. Cited 233 times.,Sage, London; Alvinius, A., Holmberg, A.,Silence-breaking butterfly effect: Resistance towards the military within #MeToo (Open Access),; Alwatan,(2017) |. 17 ‘’,accessed, 1 August 2021 بالتواريخ في عامين واقعة تحرش جنسي في جامعات مصر; https://www.asu.edu.eg/545/page/anti-violence-against-women-unit,  7,https://www.aucegypt.edu/news/i-want-keep-conversation-going-%E2%80%94-personal-note-nadeen-ashraf-assault-police-founder; Bell, M.P., McLaughlin, M.E., Sequeira, J.M.,Discrimination, harassment, and the glass ceiling: Women executives as change agents,; Bell, M.E., Street, A.E., Stafford, J.,Victims' Psychosocial Well-Being After Reporting Sexual Harassment in the Military,; Bernard, H.R., Bernard, H.R.,(2013) Social Research Methods: Qualitative and Quantitative Approaches. Cited 1334 times.,Sage Publications, Thousand Oaks; Binder, R., Garcia, P., Johnson, B., Fuentes-Afflick, E.,Sexual harassment in medical schools: The challenge of covert retaliation as a barrier to reporting (Open Access),; Bloom, B.E., Sorin, C.R., Wagman, J.A., Oaks, L.,Employees, Advisees, and Emerging Scholars: A Qualitative Analysis of Graduate Students' Roles and Experiences of Sexual Violence and Sexual Harassment on College Campuses (Open Access),; Bogdan, R.C., Biklen, S.K.,(2007) Qualitative Research for Education: An Introduction to Theories and Methods. Cited 7530 times.,5th ed., Allyn &amp; Bacon, Boston, MA; Bondestam, F., Lundqvist, M.,Sexual harassment in higher education–a systematic review (Open Access),; Brorsen Smidt, T., Bondestam, F., Pétursdóttir, G.M., Einarsdóttir, Þ.,Expanding gendered sites of resistance in the neoliberal academy,; Campbell, J.-L., Göritz, A.S.,Culture Corrupts! A Qualitative Study of Organizational Culture in Corrupt Organizations,; Cesario, B., Parks-Stamm, E., Turgut, M.,Initial assessment of the psychometric properties of the Sexual Harassment Reporting Attitudes Scale (Open Access),; Chawla, N., Gabriel, A.S., O’Leary Kelly, A., Rosen, C.C.,From #MeToo to #TimesUp: Identifying Next Steps in Sexual Harassment Research in the Organizational Sciences,; Clair, R.P., Brown, N.E., Dougherty, D.S., Delemeester, H.K., Geist-Martin, P., Gorden, W.I., Sorg, T., (...), Turner, P.K.,#MeToo, sexual harassment: an article, a forum, and a dream for the future,; Cortina, L.M., Areguin, M.A.,Putting People down and Pushing Them Out: Sexual Harassment in the Workplace,; Cortina, L.M., Berdahl, J.L.,Sexual harassment in organizations: A decade of research in review,; Cortina, L.M., Wasti, S.A.,Profiles in coping: Responses to sexual harassment across persons, organizations, and cultures,; Creswell, J.W., Poth, C.N.,(2016) Qualitative Inquiry and Research Design: Choosing Among Five Approaches. Cited 35703 times.,Sage Publications; Denzin, N.K.,(1989) The Research Act. Cited 1748 times.,3rd ed., Prentice-Hall, New York, NY; Fahmy, A., Abdelmonem, A., Hamdy, E., Badr, A., Hassan, R.,(2014) Towards a Safer City: Sexual Harassment in Greater Cairo: Effectiveness of Crowdsourced Data. Cited 17 times.,HarassMap; Fedina, L., Holmes, J.L., Backes, B.L.,Campus Sexual Assault: A Systematic Review of Prevalence Research From 2000 to 2015,; Fitzgerald, L.,Unseen: the sexual harassment of low-income women in America,; Fitzgerald, L.F., Cortina, L.M.,Sexual harassment in work organizations: a view from the 21st century,(2018) APA Handbook of the Psychology of Women: Perspectives on Women's Private and Public Lives, 2, pp. 215-234. Cited 87 times.; Fitzgerald, L.F., Gelfand, M.J., Drasgow, F.,Measuring Sexual Harassment: Theoretical and Psychometric Advances,; Fitzgerald, L.F., Swan, S., Fischer, K.,Why didn't she just report him? The psychological and legal implications of women's responses to sexual harassment,(1995) Journal of Social Issues, 51 (1), pp. 117-138. Cited 260 times.; Fitzgerald, L.F., Swan, S., Magley, V.J.,But was it really sexual harassment? Legal, behavioural, and psychological definitions of the workplace victimization of women,(1997) Sexual Harassment: Theory, Research, and Treatment, pp. 5-28. Cited 243 times.; Fitzgerald, L.F., Drasgow, F., Hulin, C.L., Gelfand, M.J., Magley, V.J.,Antecedents and consequences of sexual harassment in organizations: A test of an integrated model,; Foster, P.J., Fullagar, C.J.,Why Don’t We Report Sexual Harassment? An Application of the Theory of Planned Behavior,; Gavin, J.H., Quick, J.C., Gavin, D.J.,(2021) Ending Sexual Violence in College: A Community-Focused Approach. Cited 2 times.,JHU Press; Glomb, T.M., Richman, W.L., Hulin, C.L., Drasgow, F., Schneider, K.T., Fitzgerald, L.F.,Ambient sexual harassment: An integrated model of antecedents and consequences,; Grosser, K., Tyler, M.,Sexual harassment, sexual violence and CSR: radical feminist theory and a human rights perspective,(2021) Journal of Business Ethics, pp. 1-16.; Grosvold, J., Rayton, B., Brammer, S.,Women on corporate boards: a comparative institutional analysis,(2015) Business and Society, pp. 1-40. Cited 4 times.; Hammad, H.,Sexual harassment in Egypt: an old plague in a new revolutionary order,(2017) GENDER–Zeitschrift für Geschlecht, Kultur und Gesellschaft, 9 (1), pp. 44-63. Cited 4 times.; Harsey, S., Freyd, J.J.,Deny, Attack, and Reverse Victim and Offender (DARVO): What Is the Influence on Perceived Perpetrator and Victim Credibility? (Open Access),; Harvey, M., Treadway, D., Heames, J.T., Duke, A.,Bullying in the 21st century global organization: An ethical perspective,; Hassan, R., Shoukry, A., Komsan, N.A.,(2008) Clouds in Egypt's Sky: Sexual Harassment: From Verbal Harassment to Rape. Cited 26 times.,ECWR Report. (Arabic; Hassan, R., Roushdy, R., Sieverding, M.,(2019) An Application of the Ecological Model to Understanding and Preventing Sexual Harassment in Informal Areas of Cairo,Population Council, Cairo; Herrera, M.C., Herrera, A., Expósito, F.,Stop Harassment! Men's reactions to victims' confrontation (Open Access),; Herrera, A., Herrera, M.C., Expósito, F.,Is the beautiful always so good? Influence of physical attractiveness on the social perception of sexual harassment / ¿Es lo bello siempre tan bueno? Influencia del atractivo físico en la percepción social del acoso sexual,; Hershcovis, M.S., Vranjes, I., Berdahl, J.L., Cortina, L.M.,INTEGRATIVE CONCEPTUAL REVIEW,; (2020) Sexual harassment in the world of work,https://tinyurl.com/yghmjth4,  47; Kabat-Farr, D., Cortina, L.M.,Sex-based harassment in employment: New insights into gender and context,; Kachen, A., Krishen, A.S., Petrescu, M., Gill, R.D., Peter, P.C.,#MeToo, #MeThree, #MeFour: Twitter as community building across academic and corporate institutions,; Klein, L.B., Martin, S.L.,Sexual Harassment of College and University Students: A Systematic Review,; Kvale, S.,The Qualitative Research Interview: A Phenomenological and a Hermeneutical Mode of Understanidng,; Langone, A.,(2021) #MeToo and time's up founders explain the difference between the 2 movements,accessed, 17 July 2021; Lincoln, Y.S., Guba, E.G.,(1985) Naturalistic Inquiry. Cited 35585 times.,Sage, Beverly Hills, CA; Lonsway, K.A., Cortina, L.M., Magley, V.J.,Sexual harassment mythology: Definition, conceptualization, and measurement,; Loy, P.H., Stewart, L.P.,The extent and effects of the sexual harassment of working women,; Marshall, C., Dalyot, K., Galloway, S.,Sexual harassment in higher education: Re-framing the puzzle of its persistence,; Maxwell, J.A.,(1996) Qualitative Research Design: An Interactive Approach. Cited 7299 times.,Sage, Thousand Oaks, CA; Mcdonald, P.,Workplace Sexual Harassment 30 Years on: A Review of the Literature,; Mcdonald, P., Charlesworth, S., Graham, T.,Developing a framework of effective prevention and response strategies in workplace sexual harassment (Open Access),; McLaughlin, H., Uggen, C., Blackstone, A.,Sexual Harassment, Workplace Authority, and the Paradox of Power (Open Access),; McLaughlin, H., Uggen, C., Blackstone, A.,The Economic and Career Effects of Sexual Harassment on Working Women (Open Access),; Miller, G.J., Stanko, B.B., Landgraf, E.L.,Sexual harassment and public accounting: anecdotal evidence from the profession,(2010) Journal of Diversity Management (JDM), 5 (1), pp. 7-21. Cited 2 times.; Mitchell, M.S., Vogel, R.M., Folger, R.,Third parties' reactions to the abusive supervision of coworkers,; Mousa, M.,Academia is racist: Barriers women faculty face in academic public contexts,; Mousa, M.,It is not a man's world: perceptions by male faculty of the status and representation of their female colleagues,; Mousa, M.,From Intersectionality to Substantive Representation: Determinants of the Representation of Women Faculty in Academic Contexts: Voices of Egyptian Academic Leaders,; Mousa, M.,How workplace fun is experienced in the banking sector? A qualitative study,; Mousa, M.,Winterizing the Egyptian spring: why might business schools fail to develop responsible leaders? (Open Access),; Mousa, M., Alas, R.,Uncertainty and teachers' organizational commitment in Egyptian public schools,(2016) European Journal of Business and Management, 8 (20), pp. 38-47. Cited 12 times.; Mousa, M., Mahmood, M.,Mental Illness of Management Educators: Does Holding Multiple Academic Jobs Play a Role? A Qualitative Study (Open Access),; Mousa, M., Samara, G.,Mental health of business academics within the COVID-19 era: can meaningful work help? A qualitative study,; Ngwane, K.S.,Workplace harassment and its impact on staff performance: a case study of a South African higher education institution,(2018) Journal of Management and Administration, 2018 (2), pp. 163-189. Cited 2 times.; O'Leary-Kelly, A.M., Bowes-Sperry, L., Bates, C.A., Lean, E.R.,Sexual harassment at work: A decade (Plus) of progress,; Peirce, E., Smolinski, C.A., Rosen, B.,Why sexual harassment complaints fall on deaf ears,; Rosenthal, M.N., Smidt, A.M., Freyd, J.J.,Still Second Class: Sexual Harassment of Graduate Students,; Rosenthal, M., Smith, C.P., Freyd, J.J.,Behind closed doors: university employees as stakeholders in campus sexual violence,; Sadek, G.,(2016) Egypt: sexual violence against women,accessed, 28 June 2021; Schneider, K.T., Swan, S., Fitzgerald, L.F.,Job-related and psychological effects of sexual harassment in the workplace: Empirical evidence from two organizations,; Schultz, V.,Understanding sexual harassment law in action: what has gone wrong and what we can do about it,(2006) Thomas Jefferson Law Review, 29, pp. 1-53. Cited 18 times.; Sen, P.,(2021) #MeToo: headlines from a global movement | UN women digital library: publications,accessed, 17 July 2021</t>
+          <t>AlAhram,(2021) . و7,accessed, 1 August 2021 تعديلات تاريخية لتغليظ عقوبة التحرش الجنسي غرامة نصف مليون جنيه سنوات سجن; Alvesson, M.,(2011) Interpreting Interviews. Cited 243 times.,Sage, London; Alvesson, M., Kärreman, D.,(2011) Qualitative Research and Theory Development. Cited 233 times.,Sage, London; Alvinius, A., Holmberg, A.,Silence-breaking butterfly effect: Resistance towards the military within #MeToo,; Alwatan,(2017) |. 17 ‘’,accessed, 1 August 2021 بالتواريخ في عامين واقعة تحرش جنسي في جامعات مصر; https://www.asu.edu.eg/545/page/anti-violence-against-women-unit,  7,https://www.aucegypt.edu/news/i-want-keep-conversation-going-%E2%80%94-personal-note-nadeen-ashraf-assault-police-founder; Bell, M.P., McLaughlin, M.E., Sequeira, J.M.,Discrimination, harassment, and the glass ceiling: Women executives as change agents,; Bell, M.E., Street, A.E., Stafford, J.,Victims' Psychosocial Well-Being After Reporting Sexual Harassment in the Military,; Bernard, H.R., Bernard, H.R.,(2013) Social Research Methods: Qualitative and Quantitative Approaches. Cited 1336 times.,Sage Publications, Thousand Oaks; Binder, R., Garcia, P., Johnson, B., Fuentes-Afflick, E.,Sexual harassment in medical schools: The challenge of covert retaliation as a barrier to reporting,; Bloom, B.E., Sorin, C.R., Wagman, J.A., Oaks, L.,Employees, Advisees, and Emerging Scholars: A Qualitative Analysis of Graduate Students' Roles and Experiences of Sexual Violence and Sexual Harassment on College Campuses,; Bogdan, R.C., Biklen, S.K.,(2007) Qualitative Research for Education: An Introduction to Theories and Methods. Cited 7541 times.,5th ed., Allyn &amp; Bacon, Boston, MA; Bondestam, F., Lundqvist, M.,Sexual harassment in higher education–a systematic review,; Brorsen Smidt, T., Bondestam, F., Pétursdóttir, G.M., Einarsdóttir, Þ.,Expanding gendered sites of resistance in the neoliberal academy,; Campbell, J.-L., Göritz, A.S.,Culture Corrupts! A Qualitative Study of Organizational Culture in Corrupt Organizations,; Cesario, B., Parks-Stamm, E., Turgut, M.,Initial assessment of the psychometric properties of the Sexual Harassment Reporting Attitudes Scale,; Chawla, N., Gabriel, A.S., O’Leary Kelly, A., Rosen, C.C.,From #MeToo to #TimesUp: Identifying Next Steps in Sexual Harassment Research in the Organizational Sciences,; Clair, R.P., Brown, N.E., Dougherty, D.S., Delemeester, H.K., Geist-Martin, P., Gorden, W.I., Sorg, T., (...), Turner, P.K.,#MeToo, sexual harassment: an article, a forum, and a dream for the future,; Cortina, L.M., Areguin, M.A.,Putting People down and Pushing Them Out: Sexual Harassment in the Workplace,; Cortina, L.M., Berdahl, J.L.,Sexual harassment in organizations: A decade of research in review,; Cortina, L.M., Wasti, S.A.,Profiles in coping: Responses to sexual harassment across persons, organizations, and cultures,; Creswell, J.W., Poth, C.N.,(2016) Qualitative Inquiry and Research Design: Choosing Among Five Approaches. Cited 35854 times.,Sage Publications; Denzin, N.K.,(1989) The Research Act. Cited 1749 times.,3rd ed., Prentice-Hall, New York, NY; Fahmy, A., Abdelmonem, A., Hamdy, E., Badr, A., Hassan, R.,(2014) Towards a Safer City: Sexual Harassment in Greater Cairo: Effectiveness of Crowdsourced Data. Cited 17 times.,HarassMap; Fedina, L., Holmes, J.L., Backes, B.L.,Campus Sexual Assault: A Systematic Review of Prevalence Research From 2000 to 2015,; Fitzgerald, L.,Unseen: the sexual harassment of low-income women in America,; Fitzgerald, L.F., Cortina, L.M.,Sexual harassment in work organizations: a view from the 21st century,(2018) APA Handbook of the Psychology of Women: Perspectives on Women's Private and Public Lives, 2, pp. 215-234. Cited 88 times.; Fitzgerald, L.F., Gelfand, M.J., Drasgow, F.,Measuring Sexual Harassment: Theoretical and Psychometric Advances,; Fitzgerald, L.F., Swan, S., Fischer, K.,Why didn't she just report him? The psychological and legal implications of women's responses to sexual harassment,(1995) Journal of Social Issues, 51 (1), pp. 117-138. Cited 262 times.; Fitzgerald, L.F., Swan, S., Magley, V.J.,But was it really sexual harassment? Legal, behavioural, and psychological definitions of the workplace victimization of women,(1997) Sexual Harassment: Theory, Research, and Treatment, pp. 5-28. Cited 243 times.; Fitzgerald, L.F., Drasgow, F., Hulin, C.L., Gelfand, M.J., Magley, V.J.,Antecedents and consequences of sexual harassment in organizations: A test of an integrated model,; Foster, P.J., Fullagar, C.J.,Why Don’t We Report Sexual Harassment? An Application of the Theory of Planned Behavior,; Gavin, J.H., Quick, J.C., Gavin, D.J.,(2021) Ending Sexual Violence in College: A Community-Focused Approach. Cited 2 times.,JHU Press; Glomb, T.M., Richman, W.L., Hulin, C.L., Drasgow, F., Schneider, K.T., Fitzgerald, L.F.,Ambient sexual harassment: An integrated model of antecedents and consequences,; Grosser, K., Tyler, M.,Sexual harassment, sexual violence and CSR: radical feminist theory and a human rights perspective,(2021) Journal of Business Ethics, pp. 1-16.; Grosvold, J., Rayton, B., Brammer, S.,Women on corporate boards: a comparative institutional analysis,(2015) Business and Society, pp. 1-40. Cited 4 times.; Hammad, H.,Sexual harassment in Egypt: an old plague in a new revolutionary order,(2017) GENDER–Zeitschrift für Geschlecht, Kultur und Gesellschaft, 9 (1), pp. 44-63. Cited 4 times.; Harsey, S., Freyd, J.J.,Deny, Attack, and Reverse Victim and Offender (DARVO): What Is the Influence on Perceived Perpetrator and Victim Credibility?,; Harvey, M., Treadway, D., Heames, J.T., Duke, A.,Bullying in the 21st century global organization: An ethical perspective,; Hassan, R., Shoukry, A., Komsan, N.A.,(2008) Clouds in Egypt's Sky: Sexual Harassment: From Verbal Harassment to Rape. Cited 26 times.,ECWR Report. (Arabic; Hassan, R., Roushdy, R., Sieverding, M.,(2019) An Application of the Ecological Model to Understanding and Preventing Sexual Harassment in Informal Areas of Cairo,Population Council, Cairo; Herrera, M.C., Herrera, A., Expósito, F.,Stop Harassment! Men's reactions to victims' confrontation (Open Access),; Herrera, A., Herrera, M.C., Expósito, F.,Is the beautiful always so good? Influence of physical attractiveness on the social perception of sexual harassment / ¿Es lo bello siempre tan bueno? Influencia del atractivo físico en la percepción social del acoso sexual,; Hershcovis, M.S., Vranjes, I., Berdahl, J.L., Cortina, L.M.,INTEGRATIVE CONCEPTUAL REVIEW,; (2020) Sexual harassment in the world of work,https://tinyurl.com/yghmjth4,  47; Kabat-Farr, D., Cortina, L.M.,Sex-based harassment in employment: New insights into gender and context,; Kachen, A., Krishen, A.S., Petrescu, M., Gill, R.D., Peter, P.C.,#MeToo, #MeThree, #MeFour: Twitter as community building across academic and corporate institutions (Open Access),; Klein, L.B., Martin, S.L.,Sexual Harassment of College and University Students: A Systematic Review (Open Access),; Kvale, S.,The Qualitative Research Interview: A Phenomenological and a Hermeneutical Mode of Understanidng,; Langone, A.,(2021) #MeToo and time's up founders explain the difference between the 2 movements,accessed, 17 July 2021; Lincoln, Y.S., Guba, E.G.,(1985) Naturalistic Inquiry. Cited 35676 times.,Sage, Beverly Hills, CA; Lonsway, K.A., Cortina, L.M., Magley, V.J.,Sexual harassment mythology: Definition, conceptualization, and measurement,; Loy, P.H., Stewart, L.P.,The extent and effects of the sexual harassment of working women,; Marshall, C., Dalyot, K., Galloway, S.,Sexual harassment in higher education: Re-framing the puzzle of its persistence,; Maxwell, J.A.,(1996) Qualitative Research Design: An Interactive Approach. Cited 7319 times.,Sage, Thousand Oaks, CA; Mcdonald, P.,Workplace Sexual Harassment 30 Years on: A Review of the Literature (Open Access),; Mcdonald, P., Charlesworth, S., Graham, T.,Developing a framework of effective prevention and response strategies in workplace sexual harassment,; McLaughlin, H., Uggen, C., Blackstone, A.,Sexual Harassment, Workplace Authority, and the Paradox of Power,; McLaughlin, H., Uggen, C., Blackstone, A.,The Economic and Career Effects of Sexual Harassment on Working Women,; Miller, G.J., Stanko, B.B., Landgraf, E.L.,Sexual harassment and public accounting: anecdotal evidence from the profession,(2010) Journal of Diversity Management (JDM), 5 (1), pp. 7-21. Cited 2 times.; Mitchell, M.S., Vogel, R.M., Folger, R.,Third parties' reactions to the abusive supervision of coworkers (Open Access),; Mousa, M.,Academia is racist: Barriers women faculty face in academic public contexts,; Mousa, M.,It is not a man's world: perceptions by male faculty of the status and representation of their female colleagues (Open Access),; Mousa, M.,From Intersectionality to Substantive Representation: Determinants of the Representation of Women Faculty in Academic Contexts: Voices of Egyptian Academic Leaders (Open Access),; Mousa, M.,How workplace fun is experienced in the banking sector? A qualitative study,; Mousa, M.,Winterizing the Egyptian spring: why might business schools fail to develop responsible leaders?,; Mousa, M., Alas, R.,Uncertainty and teachers' organizational commitment in Egyptian public schools,(2016) European Journal of Business and Management, 8 (20), pp. 38-47. Cited 12 times.; Mousa, M., Mahmood, M.,Mental Illness of Management Educators: Does Holding Multiple Academic Jobs Play a Role? A Qualitative Study,; Mousa, M., Samara, G.,Mental health of business academics within the COVID-19 era: can meaningful work help? A qualitative study,; Ngwane, K.S.,Workplace harassment and its impact on staff performance: a case study of a South African higher education institution,(2018) Journal of Management and Administration, 2018 (2), pp. 163-189. Cited 2 times.; O'Leary-Kelly, A.M., Bowes-Sperry, L., Bates, C.A., Lean, E.R.,Sexual harassment at work: A decade (Plus) of progress,; Peirce, E., Smolinski, C.A., Rosen, B.,Why sexual harassment complaints fall on deaf ears (Open Access),; Rosenthal, M.N., Smidt, A.M., Freyd, J.J.,Still Second Class: Sexual Harassment of Graduate Students,; Rosenthal, M., Smith, C.P., Freyd, J.J.,Behind closed doors: university employees as stakeholders in campus sexual violence,; Sadek, G.,(2016) Egypt: sexual violence against women,accessed, 28 June 2021; Schneider, K.T., Swan, S., Fitzgerald, L.F.,Job-related and psychological effects of sexual harassment in the workplace: Empirical evidence from two organizations,; Schultz, V.,Understanding sexual harassment law in action: what has gone wrong and what we can do about it,(2006) Thomas Jefferson Law Review, 29, pp. 1-53. Cited 18 times.; Sen, P.,(2021) #MeToo: headlines from a global movement | UN women digital library: publications,accessed, 17 July 2021</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1462,11 +1402,6 @@
       <c r="O13" t="inlineStr">
         <is>
           <t>10.1108/EDI-10-2021-0281</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>Varios Paises</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1446,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>García, R.,(2006) Sistemas Complejos: Conceptos, Métodos y Fundamentación Epistemológica de la Investigación Interdisciplinaria. Cited 181 times.,Gedisa Editorial S. A.: Barcelona, Spain; Jin, Z., Schmöcker, J.-D., Maadi, S.,On the interaction between public transport demand, service quality and fare for social welfare optimisation,; (1987) Our Common Future: The Report of the World Commission on Development. Cited 27327 times.,Oxford University Press: Oxford, UK,  4; Bolaños, I.K.,(2008) Manual de Operación para el Reaprovechamiento y la Redensificación de la Ciudad Interior,Ph.D. Thesis, Universidad Nacional Autónoma de México, Mexico City, Mexico; Guía para la Redensificación Habitacional en la Ciudad Interior,(accessed on 31 January 2021),http://cdam.unsis.edu.mx/files/Desarrollo%20Urbano%20y%20Ordenamiento%20Territorial/Otras%20disposiciones/Gu%C3%ADa%20para%20la%20Redensificaci%C3%B3n.pdf; Bolaños, I.C.K., Herrera, G.G.,Is metropolitan governance possible in Mexico? (Open Access),; Su, S., Zhang, H., Wang, M., Weng, M., Kang, M.,Transit-oriented development (TOD) typologies around metro station areas in urban China: A comparative analysis of five typical megacities for planning implications,; Macioszek, E., Kurek, A.,The analysis of the factors determining the choice of park and ride facility using a multinomial logit model (Open Access),; Kitthamkesorn, S., Chen, A., Opasanon, S., Jaita, S.,A p-hub location problem for determining park-and-ride facility locations with the weibit-based choice model (Open Access),; Macioszek, E., Kurek, A.,P&amp;R parking and bike-sharing system as solutions supporting transport accessibility of the city (Open Access),; Yin, L., Cheng, Q., Wang, Z., Shao, Z.,'Big data' for pedestrian volume: Exploring the use of Google Street View images for pedestrian counts,; Chen, L., Lu, Y., Sheng, Q., Ye, Y., Wang, R., Liu, Y.,Estimating pedestrian volume using Street View images: A large-scale validation test,; Dixon, J., Koukoura, S., Brand, C., Morgan, M., Bell, K.,Spatially disaggregated car ownership prediction using deep neural networks,(2021) Future Transp, 1, pp. 113-133. Cited 2 times.; Kim, S., Choo, S., Lee, G., Kim, S.,Predicting Demand for Shared E-Scooter Using Community Structure and Deep Learning Method (Open Access),; Hungness, D., Bridgelall, R.,Exploratory Spatial Data Analysis of Traffic Forecasting: A Case Study (Open Access),; Departamento de Medio Ambiente del Ayuntamiento de Vitoria-Gasteiz,(accessed on 31 January 2021),https://www.vitoria-gasteiz.org/docs/wb021/contenidosEstaticos/adjuntos/es/89/14/38914.pdf; Ahuja, R., Tiwari, G.,Evolving term “accessibility” in spatial systems: Contextual evaluation of indicators,; Luna, A.A.B., Kuri, G.H., Rodríguez-Reséndiz, J., Antuñano, M.A.Z., Corro, J.A.A., Paredes-Garcia, W.J.,Public space accessibility and machine learning tools for street vending spatial categorization,(2022) J. Maps, pp. 1-10. Cited 2 times.; Sofwan, M., Tanjung, M.H.,Evaluation Study of Walkability Index In Central Business District (CBD) Area, Pekanbaru City,(2020) J. Geosci. Eng. Environ. Technol, 5, pp. 175-185. Cited 3 times.; Carpio-Pinedo, J., Benito-Moreno, M., Lamíquiz-Daudén, P.J.,Beyond land use mix, walkable trips. An approach based on parcel-level land use data and network analysis (Open Access),; (2018) Pedestrians First: A Tool for Walkable Cities. Cited 7 times.,Institute for Transportation and Development Policy: New York, NY, USA,  23; de Querétaro, M.,(2018) Programas de Desarrollo Urbano del Municipio de Querétaro,Technical Report; Municipio de Querétaro: Querétaro, Mexico; Huang, X., Huang, J., Wen, D., Li, J.,An updated MODIS global urban extent product (MGUP) from 2001 to 2018 based on an automated mapping approach (Open Access),; de Jesús, G.G.T., Laura, B.N., Dario, H., Jimena, G., Itsi, A., Ricardo, A., Sergio, O.L.,Movilidad, Los Temas Pendientes. Foro Conversatorio Virtual,(2021) ; (2016) Plan Estratégico de Movilidad PEM 2026 para el Municipio de Querétaro; Municipio de Querétaro,(accessed on 25 January 2022),https://municipiodequeretaro.gob.mx/wp-content/uploads/2019/07/PlanEstrategicoMovilidad2026_abril2017.pdf; (2021) Gaceta Oficial del Municipio de QUERétaro,Technical Report. (accessed on 17 February 2022),https://municipiodequeretaro.gob.mx/gacetas/; (2018) Índice de Movilidad Urbana: Barrios Mejor Conectados Para Ciudades Más Incluyentes. Cited 2 times.,Technical Report. (accessed on 3 March 2022),https://imco.org.mx/wp-content/uploads/2019/11/Bolet%C3%ADn-%C3%8Dndice-de-Movilidad-Urbana.pdf; (2022) Construiran Banquetas en Av. Pirineos con Asesoría Británica en Movilidad,(accessed on 6 February 2022),https://amqueretaro.com/queretaro/2022/03/28/capital-intervendra-avenida-en-sinergia-con-re-activa-mx/; (2021) Minuta de Sesión Ordinaria 08; Technical Report,(accessed on 19 January 2022),https://municipiodequeretaro.gob.mx/minutas-consejo-tematico-de-urbanismo-2021/; (2021) Manual de Calles. Diseño Vial Para Ciudades Mexicanas,(accessed on 31 January 2021),https://www.gob.mx/sedatu/documentos/manual-de-calles-diseno-vial-para-ciudades-mexicanas#:~:text=El%20%E2%80%9CManual%20de%20calles%3A%20dise%C3%B1o,aquellos%20interesados%20en%20el%20dise%C3%B1o; Krambeck, H.V.,(2006) The Global Walkability Index. Cited 63 times.,Ph.D. Thesis, Massachusetts Institute of Technology, Cambridge, MA, USA; Boer, R., Zheng, Y., Overton, A., Ridgeway, G.K., Cohen, D.A.,Neighborhood Design and Walking Trips in Ten U.S. Metropolitan Areas (Open Access),; (2020) Censo de Población y Vivienda. Cited 1683 times.,Technical Report; INEGI: Aguascalientes, Mexico,  36; Barreda-Luna, A.A., Rodríguez-Reséndiz, J., Rangel, A.F., Rodríguez-Abreo, O.,Neural Network and Spatial Model to Estimate Sustainable Transport Demand in an Extensive Metropolitan Area (Open Access),; Singleton, P.A., Park, K., Lee, D.H.,Varying influences of the built environment on daily and hourly pedestrian crossing volumes at signalized intersections estimated from traffic signal controller event data,; Graells-Garrido, E., Serra-Burriel, F., Rowe, F., Cucchietti, F.M., Reyes, P.,A city of cities: Measuring how 15-minutes urban accessibility shapes human mobility in Barcelona (Open Access),; Jacobs, J.,(2016) The Death and Life of Great American Cities. Cited 12002 times.,Vintage: New York, NY, USA; Odry, A., Tadic, V.L., Odry, P.,A Stochastic Logic-Based Fuzzy Logic Controller: First Experimental Results of a Novel Architecture (Open Access),; Mustafidah, H.,Suwarsito. Correlation Analysis Between Error Rate of Output and Learning Rate in Backpropagation Network,(2018) Adv. Sci. Lett, 4, pp. 9182-9185. Cited 4 times.; Odry, Á., Fullér, R., Rudas, I.J., Odry, P.,Kalman filter for mobile-robot attitude estimation: Novel optimized and adaptive solutions,; Odry, Á.,An open-source test environment for effective development of marg-based algorithms (Open Access),</t>
+          <t>García, R.,(2006) Sistemas Complejos: Conceptos, Métodos y Fundamentación Epistemológica de la Investigación Interdisciplinaria. Cited 181 times.,Gedisa Editorial S. A.: Barcelona, Spain; Jin, Z., Schmöcker, J.-D., Maadi, S.,On the interaction between public transport demand, service quality and fare for social welfare optimisation,; (1987) Our Common Future: The Report of the World Commission on Development. Cited 27393 times.,Oxford University Press: Oxford, UK,  4; Bolaños, I.K.,(2008) Manual de Operación para el Reaprovechamiento y la Redensificación de la Ciudad Interior,Ph.D. Thesis, Universidad Nacional Autónoma de México, Mexico City, Mexico; Guía para la Redensificación Habitacional en la Ciudad Interior,(accessed on 31 January 2021),http://cdam.unsis.edu.mx/files/Desarrollo%20Urbano%20y%20Ordenamiento%20Territorial/Otras%20disposiciones/Gu%C3%ADa%20para%20la%20Redensificaci%C3%B3n.pdf; Bolaños, I.C.K., Herrera, G.G.,Is metropolitan governance possible in Mexico?,; Su, S., Zhang, H., Wang, M., Weng, M., Kang, M.,Transit-oriented development (TOD) typologies around metro station areas in urban China: A comparative analysis of five typical megacities for planning implications,; Macioszek, E., Kurek, A.,The analysis of the factors determining the choice of park and ride facility using a multinomial logit model,; Kitthamkesorn, S., Chen, A., Opasanon, S., Jaita, S.,A p-hub location problem for determining park-and-ride facility locations with the weibit-based choice model,; Macioszek, E., Kurek, A.,P&amp;R parking and bike-sharing system as solutions supporting transport accessibility of the city,; Yin, L., Cheng, Q., Wang, Z., Shao, Z.,'Big data' for pedestrian volume: Exploring the use of Google Street View images for pedestrian counts,; Chen, L., Lu, Y., Sheng, Q., Ye, Y., Wang, R., Liu, Y.,Estimating pedestrian volume using Street View images: A large-scale validation test,; Dixon, J., Koukoura, S., Brand, C., Morgan, M., Bell, K.,Spatially disaggregated car ownership prediction using deep neural networks,(2021) Future Transp, 1, pp. 113-133. Cited 2 times.; Kim, S., Choo, S., Lee, G., Kim, S.,Predicting Demand for Shared E-Scooter Using Community Structure and Deep Learning Method,; Hungness, D., Bridgelall, R.,Exploratory Spatial Data Analysis of Traffic Forecasting: A Case Study,; Departamento de Medio Ambiente del Ayuntamiento de Vitoria-Gasteiz,(accessed on 31 January 2021),https://www.vitoria-gasteiz.org/docs/wb021/contenidosEstaticos/adjuntos/es/89/14/38914.pdf; Ahuja, R., Tiwari, G.,Evolving term “accessibility” in spatial systems: Contextual evaluation of indicators,; Luna, A.A.B., Kuri, G.H., Rodríguez-Reséndiz, J., Antuñano, M.A.Z., Corro, J.A.A., Paredes-Garcia, W.J.,Public space accessibility and machine learning tools for street vending spatial categorization,(2022) J. Maps, pp. 1-10. Cited 2 times.; Sofwan, M., Tanjung, M.H.,Evaluation Study of Walkability Index In Central Business District (CBD) Area, Pekanbaru City,(2020) J. Geosci. Eng. Environ. Technol, 5, pp. 175-185. Cited 3 times.; Carpio-Pinedo, J., Benito-Moreno, M., Lamíquiz-Daudén, P.J.,Beyond land use mix, walkable trips. An approach based on parcel-level land use data and network analysis,; (2018) Pedestrians First: A Tool for Walkable Cities. Cited 7 times.,Institute for Transportation and Development Policy: New York, NY, USA,  23; de Querétaro, M.,(2018) Programas de Desarrollo Urbano del Municipio de Querétaro,Technical Report; Municipio de Querétaro: Querétaro, Mexico; Huang, X., Huang, J., Wen, D., Li, J.,An updated MODIS global urban extent product (MGUP) from 2001 to 2018 based on an automated mapping approach (Open Access),; de Jesús, G.G.T., Laura, B.N., Dario, H., Jimena, G., Itsi, A., Ricardo, A., Sergio, O.L.,Movilidad, Los Temas Pendientes. Foro Conversatorio Virtual,(2021) ; (2016) Plan Estratégico de Movilidad PEM 2026 para el Municipio de Querétaro; Municipio de Querétaro,(accessed on 25 January 2022),https://municipiodequeretaro.gob.mx/wp-content/uploads/2019/07/PlanEstrategicoMovilidad2026_abril2017.pdf; (2021) Gaceta Oficial del Municipio de QUERétaro,Technical Report. (accessed on 17 February 2022),https://municipiodequeretaro.gob.mx/gacetas/; (2018) Índice de Movilidad Urbana: Barrios Mejor Conectados Para Ciudades Más Incluyentes. Cited 2 times.,Technical Report. (accessed on 3 March 2022),https://imco.org.mx/wp-content/uploads/2019/11/Bolet%C3%ADn-%C3%8Dndice-de-Movilidad-Urbana.pdf; (2022) Construiran Banquetas en Av. Pirineos con Asesoría Británica en Movilidad,(accessed on 6 February 2022),https://amqueretaro.com/queretaro/2022/03/28/capital-intervendra-avenida-en-sinergia-con-re-activa-mx/; (2021) Minuta de Sesión Ordinaria 08; Technical Report,(accessed on 19 January 2022),https://municipiodequeretaro.gob.mx/minutas-consejo-tematico-de-urbanismo-2021/; (2021) Manual de Calles. Diseño Vial Para Ciudades Mexicanas,(accessed on 31 January 2021),https://www.gob.mx/sedatu/documentos/manual-de-calles-diseno-vial-para-ciudades-mexicanas#:~:text=El%20%E2%80%9CManual%20de%20calles%3A%20dise%C3%B1o,aquellos%20interesados%20en%20el%20dise%C3%B1o; Krambeck, H.V.,(2006) The Global Walkability Index. Cited 63 times.,Ph.D. Thesis, Massachusetts Institute of Technology, Cambridge, MA, USA; Boer, R., Zheng, Y., Overton, A., Ridgeway, G.K., Cohen, D.A.,Neighborhood Design and Walking Trips in Ten U.S. Metropolitan Areas (Open Access),; (2020) Censo de Población y Vivienda. Cited 1693 times.,Technical Report; INEGI: Aguascalientes, Mexico,  36; Barreda-Luna, A.A., Rodríguez-Reséndiz, J., Rangel, A.F., Rodríguez-Abreo, O.,Neural Network and Spatial Model to Estimate Sustainable Transport Demand in an Extensive Metropolitan Area,; Singleton, P.A., Park, K., Lee, D.H.,Varying influences of the built environment on daily and hourly pedestrian crossing volumes at signalized intersections estimated from traffic signal controller event data (Open Access),; Graells-Garrido, E., Serra-Burriel, F., Rowe, F., Cucchietti, F.M., Reyes, P.,A city of cities: Measuring how 15-minutes urban accessibility shapes human mobility in Barcelona,; Jacobs, J.,(2016) The Death and Life of Great American Cities. Cited 12031 times.,Vintage: New York, NY, USA; Odry, A., Tadic, V.L., Odry, P.,A Stochastic Logic-Based Fuzzy Logic Controller: First Experimental Results of a Novel Architecture,; Mustafidah, H.,Suwarsito. Correlation Analysis Between Error Rate of Output and Learning Rate in Backpropagation Network,(2018) Adv. Sci. Lett, 4, pp. 9182-9185. Cited 4 times.; Odry, Á., Fullér, R., Rudas, I.J., Odry, P.,Kalman filter for mobile-robot attitude estimation: Novel optimized and adaptive solutions (Open Access),; Odry, Á.,An open-source test environment for effective development of marg-based algorithms,</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1542,11 +1477,6 @@
       <c r="O14" t="inlineStr">
         <is>
           <t>10.3390/su14137796</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>Mexico</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1521,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Anselin, L.,Local Indicators of Spatial Association—LISA (Open Access),; Arriagada Luco, C, Simioni, D,(2001) Dinámica de valorización del suelo en el área metropolitana del Gran Santiago y desafiós del financiamiento urbano. Cited 12 times.,CEPAL, Santiago de Chile; Bohoslavsky, J, Fernandez, K, Smart, S,(2021) Pinochet's Economic Accomplices: An Unequal Country by Force. Cited 3 times.,  4; Cattaneo Pineda, R,(2011) Los fondos de inversión inmobiliaria y la producción privada de vivienda en Santiago de Chile: ¿Un nuevo paso hacia la financiarización de la ciudad?,  6; (2014) Política Nacional de Desarrollo Urbano. Cited 50 times.,Gobierno de Chile,  8; Hidalgo, R, Borsdof, A, Zunino, H, Alvarez, L,Tipologiás de expansión metropolitana en Santiago de Chile: Precariópolis estatal y privatópolis inmobiliaria,(2008) Scripta Nova: Revista Electrónica de Geografiá y Ciencias Sociales, 12 (270). Cited 22 times.; Moreno Sarmiento, E,Predicción con series de tiempo y regresión,(2013) Panorama, 2 (4), pp. 36-58. Cited 2 times.; (2021) IDE, Datasets,OCUC-UC,https://ideocuc-ocuc.hub.arcgis.com/datasets/97ae30fe071349e89d9d5ebd5dfa2aec; Razmilic, S,(2010) Property values, housing subsidies and incentives: Evidence from Chile's housing policies by Property values, housing subsidies and incentives evidence from Chile's housing policies. Cited 3 times.,https://dspace.mit.edu/bitstream/handle/1721.1/62112/708579235-MIT.pdf?sequence=2; Sugranyes, A, Rodriguez, A,(2005) Los con techo. Un desafió para la política de vivienda social. Cited 103 times.,  14; Trivelli, P,Reflexiones en torno a la política Nacional de Desarrollo Urbano,(1981) EURE: Revista Latinoamericana de Estudios Urbanos y Territoriales, 8 (22), pp. 43-64. Cited 12 times.; (2021) Housing,https://unhabitat.org/topic/housing,  17; Vergara- Perucich, J.F.,Prices and financialization: Empirical evidence of housing market in Greater Santiago (Open Access),</t>
+          <t>Anselin, L.,Local Indicators of Spatial Association—LISA,; Arriagada Luco, C, Simioni, D,(2001) Dinámica de valorización del suelo en el área metropolitana del Gran Santiago y desafiós del financiamiento urbano. Cited 12 times.,CEPAL, Santiago de Chile; Bohoslavsky, J, Fernandez, K, Smart, S,(2021) Pinochet's Economic Accomplices: An Unequal Country by Force. Cited 3 times.,  4; Cattaneo Pineda, R,(2011) Los fondos de inversión inmobiliaria y la producción privada de vivienda en Santiago de Chile: ¿Un nuevo paso hacia la financiarización de la ciudad?. Cited 2 times.,  6; (2014) Política Nacional de Desarrollo Urbano. Cited 50 times.,Gobierno de Chile,  8; Hidalgo, R, Borsdof, A, Zunino, H, Alvarez, L,Tipologiás de expansión metropolitana en Santiago de Chile: Precariópolis estatal y privatópolis inmobiliaria,(2008) Scripta Nova: Revista Electrónica de Geografiá y Ciencias Sociales, 12 (270). Cited 22 times.; Moreno Sarmiento, E,Predicción con series de tiempo y regresión,(2013) Panorama, 2 (4), pp. 36-58. Cited 2 times.; (2021) IDE, Datasets,OCUC-UC,https://ideocuc-ocuc.hub.arcgis.com/datasets/97ae30fe071349e89d9d5ebd5dfa2aec; Razmilic, S,(2010) Property values, housing subsidies and incentives: Evidence from Chile's housing policies by Property values, housing subsidies and incentives evidence from Chile's housing policies. Cited 3 times.,https://dspace.mit.edu/bitstream/handle/1721.1/62112/708579235-MIT.pdf?sequence=2; Sugranyes, A, Rodriguez, A,(2005) Los con techo. Un desafió para la política de vivienda social. Cited 103 times.,  14; Trivelli, P,Reflexiones en torno a la política Nacional de Desarrollo Urbano,(1981) EURE: Revista Latinoamericana de Estudios Urbanos y Territoriales, 8 (22), pp. 43-64. Cited 12 times.; (2021) Housing,https://unhabitat.org/topic/housing,  17; Vergara- Perucich, J.F.,Prices and financialization: Empirical evidence of housing market in Greater Santiago (Open Access),</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1622,11 +1552,6 @@
       <c r="O15" t="inlineStr">
         <is>
           <t>10.2478/geosc-2022-0005</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>Chile</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1596,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Aiello, M.,Repensando la evaluación y el aseguramiento de la calidad universitaria en la Argentina del siglo XXI,(2017) La Agenda Universitaria III: propuestas de Políticas y Acciones, pp. 203-231.; Austin, I., Jones, G.A.,(2016) Governance of Higher Education: Global Perspectives, Theories and Practices. Cited 45 times.,Routledge, New York, NY; Barsky, O., Dávila, M.,El sistema de posgrados en la Argentina: tendencias y problemas actuales,(2012) Revista Argentina de Educación Superior, 5, pp. 12-37. Cited 5 times.; Barzelay, M.,(2003) La Nueva Gerencia Pública: un Acercamiento a la Investigación y al Debate de Las Políticas Públicas. Cited 8 times.,Fondo de Cultura Económica, Ciudad de México; Barzelay, M., Armajani, B.J.,(1992) Breaking through the Bureaucracy: A New Vision for Managing Government. Cited 603 times.,University of CA Press, Berkeley; Bentancur Bernotti, V.,Reforma de la gestión pública y políticas universitarias,(2000) Nueva Sociedad, 165, pp. 58-72. Cited 2 times.; Bernasconi, A., Rodríguez-Ponce, E.,Exploratory analysis about the perceived leadership styles, academic climate and quality of undergraduates programs (Open Access),; Bleiklie, I.,Justifying the Evaluative State: New Public Management Ideals in Higher Education,; Bleiklie, I., Enders, J., Musselin, C.,La nueva gestión pública, la gobernanza en red y la universidad como organización profesional cambiante,(2012) La Nueva Gobernanza de Los Sistemas Universitarios, pp. 215-240. Cited 4 times.; Deem, R., Brehony, K.J.,Management as ideology: The case of 'new managerialism' in higher education,; Deem, R.,'New managerialism' and higher education: The management of performances and cultures in universities in the United Kingdom (Open Access),; Dill, D.,Evaluating the ‘evaluative state’: implications for research in higher education,(1998) European Journal of Education, 33 (3), pp. 361-377. Cited 32 times.; Fernández Lamarra, N., Aiello, M., Grandoli, E.,¿evaluación Para la mejora? La evaluación institucional en las universidades argentinas,(2013) Estudios de Política y Administración de la Educación. Cited 2 times.; García de Fanelli, A.M.,(1997) Las Nuevas Universidades Del Conurbano Bonaerense: misión, Demanda Externa y Construcción de un Mercado Académico. Cited 10 times.,CEDES, Bue Aires; Guaglianone, A.,Las políticas públicas de evaluación y acreditación de las carreras de grado en Argentina,(2012) Calidad en la Educación, 36, pp. 187-217.; Hernández Sampieri, R., Fernández Collado, C., Lucio, P.,(2014) Metodología de la Investigación. Cited 6043 times.,McGraw-Hill, México; Hood, C., Scott, C.,Bureaucratic regulation and new public management in the United Kingdom: Mirror-image developments?,; Kehm, B.M.,The influence of new higher education professionals on academic work (Open Access),; Klumpp, M., Teichler, U.,Between over-diversification and over-homogenization: five decades of search for a creative fabric of higher education,(2008) University, Rankings, and Diversity, and the New Landscape of Higher Education, pp. 151-181.; Lemaitre, M.J., Mena, R.,A Seguramiento de la calidad en américa latina: tendencias y desafíos,(2012) Aseguramiento de la Calidad en Iberoamérica: Educación Superior, Informe 2012, pp. 21-69. Cited 2 times.; Maassen, P.A.M., van Vught, F.A.,An intriguing Janus-head: the two faces of the new governmental strategy for higher education in The Netherlands,(1988) European Journal of Education, 23 (1-2), pp. 65-76. Cited 30 times.; Macfarlane, B.,The Morphing of Academic Practice: Unbundling and the Rise of the Para-academic,; Marquina, M., Polzella, Á.,El impacto de la nueva gestión pública en las universidades y la emergencia de nuevos roles,(2015) Revista Argentina de Educación Superior, 11, pp. 9-27.; Marquina, M.,(2017) Yo te Evalúo, tú Me Evalúas: Estado, Profesión Académica y Mercado en la Acreditación de Carreras en Argentina,EUDEBA, Bue Aires; Marquina, M.,Equilibrios y tensiones en dos décadas de acreditación universitaria en Argentina: Aportes Para un modelo conceptual,(2017) Revista Educación, 41 (2), pp. 33-55.; Marquina, M.,El aseguramiento de la calidad en la formación de profesionales universitarios en Argentina. Un largo recorrido de construcción política,(2020) Calidad Universitaria en América Del Sur: una Cuestión en Disputa, pp. 87-121.; Marquina, M., Centeno, C.P., Reznik, N.,Academic power and institutional control of academia in Argentine public universities within the context of a managerial governance model,; Marquis, C.,Dos décadas de evaluación universitaria en la Argentina,(2014) Evaluación y Acreditación Universitaria: actores y Políticas en Perspectiva, pp. 15-60.; Mendonça, M., Pérez Trento, N.S.,El devenir del sistema universitario público en la Argentina a través de sus olas expansivas: diferenciación en la formación de fuerza de trabajo y acumulación del Capital (1971-2015),(2020) Education Policy Analysis Archives, 28, pp. 436-491.; Musselin, C.,Redefinition of the relationships between academics and their university (Open Access),; (2021) Informe estadístico de evaluación y acreditación en Argentina 2020-2021,accessed 29 September 2021,www.coneau.gob.ar/coneau/informe-estadistico-de-evaluacion-y-acreditacion-universitaria-2020-2021/; Neave, G.,The evaluative state as policy in transition: a historical and anatomical study,(2009) International Handbook of Comparative Education Springer International Handbooks of Education, 22. Cited 71 times.; Neave, G.,The evaluative state,(2012) Institutional Autonomy and Re-Engineering Higher Education in Western Europe: The Prince and His Pleasure. Cited 120 times.; Nosiglia, M.C.,(2013) La Evaluación Universitaria: reflexiones Teóricas y Experiencias a Nivel Nacional e Internacional. Cited 2 times.,EUDEBA, Bue Aires; Paradeise, C., Reale, E., Goastellec, G.,A Comparative Approach to Higher Education Reforms in Western European Countries,; Pérez Rasetti, C.,(2014) La expansión de la educación universitaria: políticas y actores”, integración y conocimiento,2: accessed 11 February 2022; Pita Carranza, M., Durand, J.,Llevando un poco de luz a las cavernas universitarias,(2018) Debate Universitario, 6 (12), pp. 23-40.; Rowlands, J.,Academic boards: Less intellectual and more academic capital in higher education governance?,; Schneijderberg, C., Merkator, N.,The new higher education professionals,; Stubrin, A.,(2010) Calidad Universitaria: evaluación y Acreditación en la Educación Superior Latinoamericana. Cited 2 times.,Ediciones UNL EUDEBA, Bue Aires; Whitchurch, C.,Reconstructing identities in higher education: The rise of Third Space professionals,</t>
+          <t>Aiello, M.,Repensando la evaluación y el aseguramiento de la calidad universitaria en la Argentina del siglo XXI,(2017) La Agenda Universitaria III: propuestas de Políticas y Acciones, pp. 203-231.; Austin, I., Jones, G.A.,(2016) Governance of Higher Education: Global Perspectives, Theories and Practices. Cited 45 times.,Routledge, New York, NY; Barsky, O., Dávila, M.,El sistema de posgrados en la Argentina: tendencias y problemas actuales,(2012) Revista Argentina de Educación Superior, 5, pp. 12-37. Cited 5 times.; Barzelay, M.,(2003) La Nueva Gerencia Pública: un Acercamiento a la Investigación y al Debate de Las Políticas Públicas. Cited 8 times.,Fondo de Cultura Económica, Ciudad de México; Barzelay, M., Armajani, B.J.,(1992) Breaking through the Bureaucracy: A New Vision for Managing Government. Cited 604 times.,University of CA Press, Berkeley; Bentancur Bernotti, V.,Reforma de la gestión pública y políticas universitarias,(2000) Nueva Sociedad, 165, pp. 58-72. Cited 2 times.; Bernasconi, A., Rodríguez-Ponce, E.,Exploratory analysis about the perceived leadership styles, academic climate and quality of undergraduates programs,; Bleiklie, I.,Justifying the Evaluative State: New Public Management Ideals in Higher Education,; Bleiklie, I., Enders, J., Musselin, C.,La nueva gestión pública, la gobernanza en red y la universidad como organización profesional cambiante,(2012) La Nueva Gobernanza de Los Sistemas Universitarios, pp. 215-240. Cited 4 times.; Deem, R., Brehony, K.J.,Management as ideology: The case of 'new managerialism' in higher education,; Deem, R.,'New managerialism' and higher education: The management of performances and cultures in universities in the United Kingdom,; Dill, D.,Evaluating the ‘evaluative state’: implications for research in higher education,(1998) European Journal of Education, 33 (3), pp. 361-377. Cited 32 times.; Fernández Lamarra, N., Aiello, M., Grandoli, E.,¿evaluación Para la mejora? La evaluación institucional en las universidades argentinas,(2013) Estudios de Política y Administración de la Educación. Cited 2 times.; García de Fanelli, A.M.,(1997) Las Nuevas Universidades Del Conurbano Bonaerense: misión, Demanda Externa y Construcción de un Mercado Académico. Cited 10 times.,CEDES, Bue Aires; Guaglianone, A.,Las políticas públicas de evaluación y acreditación de las carreras de grado en Argentina,(2012) Calidad en la Educación, 36, pp. 187-217.; Hernández Sampieri, R., Fernández Collado, C., Lucio, P.,(2014) Metodología de la Investigación. Cited 6077 times.,McGraw-Hill, México; Hood, C., Scott, C.,Bureaucratic regulation and new public management in the United Kingdom: Mirror-image developments?,; Kehm, B.M.,The influence of new higher education professionals on academic work,; Klumpp, M., Teichler, U.,Between over-diversification and over-homogenization: five decades of search for a creative fabric of higher education,(2008) University, Rankings, and Diversity, and the New Landscape of Higher Education, pp. 151-181.; Lemaitre, M.J., Mena, R.,A Seguramiento de la calidad en américa latina: tendencias y desafíos,(2012) Aseguramiento de la Calidad en Iberoamérica: Educación Superior, Informe 2012, pp. 21-69. Cited 2 times.; Maassen, P.A.M., van Vught, F.A.,An intriguing Janus-head: the two faces of the new governmental strategy for higher education in The Netherlands,(1988) European Journal of Education, 23 (1-2), pp. 65-76. Cited 30 times.; Macfarlane, B.,The Morphing of Academic Practice: Unbundling and the Rise of the Para-academic,; Marquina, M., Polzella, Á.,El impacto de la nueva gestión pública en las universidades y la emergencia de nuevos roles,(2015) Revista Argentina de Educación Superior, 11, pp. 9-27.; Marquina, M.,(2017) Yo te Evalúo, tú Me Evalúas: Estado, Profesión Académica y Mercado en la Acreditación de Carreras en Argentina,EUDEBA, Bue Aires; Marquina, M.,Equilibrios y tensiones en dos décadas de acreditación universitaria en Argentina: Aportes Para un modelo conceptual,(2017) Revista Educación, 41 (2), pp. 33-55.; Marquina, M.,El aseguramiento de la calidad en la formación de profesionales universitarios en Argentina. Un largo recorrido de construcción política,(2020) Calidad Universitaria en América Del Sur: una Cuestión en Disputa, pp. 87-121.; Marquina, M., Centeno, C.P., Reznik, N.,Academic power and institutional control of academia in Argentine public universities within the context of a managerial governance model,; Marquis, C.,Dos décadas de evaluación universitaria en la Argentina,(2014) Evaluación y Acreditación Universitaria: actores y Políticas en Perspectiva, pp. 15-60.; Mendonça, M., Pérez Trento, N.S.,El devenir del sistema universitario público en la Argentina a través de sus olas expansivas: diferenciación en la formación de fuerza de trabajo y acumulación del Capital (1971-2015),(2020) Education Policy Analysis Archives, 28, pp. 436-491.; Musselin, C.,Redefinition of the relationships between academics and their university,; (2021) Informe estadístico de evaluación y acreditación en Argentina 2020-2021,accessed 29 September 2021,www.coneau.gob.ar/coneau/informe-estadistico-de-evaluacion-y-acreditacion-universitaria-2020-2021/; Neave, G.,The evaluative state as policy in transition: a historical and anatomical study,(2009) International Handbook of Comparative Education Springer International Handbooks of Education, 22. Cited 72 times.; Neave, G.,The evaluative state,(2012) Institutional Autonomy and Re-Engineering Higher Education in Western Europe: The Prince and His Pleasure. Cited 120 times.; Nosiglia, M.C.,(2013) La Evaluación Universitaria: reflexiones Teóricas y Experiencias a Nivel Nacional e Internacional. Cited 2 times.,EUDEBA, Bue Aires; Paradeise, C., Reale, E., Goastellec, G.,A Comparative Approach to Higher Education Reforms in Western European Countries,; Pérez Rasetti, C.,(2014) La expansión de la educación universitaria: políticas y actores”, integración y conocimiento,2: accessed 11 February 2022; Pita Carranza, M., Durand, J.,Llevando un poco de luz a las cavernas universitarias,(2018) Debate Universitario, 6 (12), pp. 23-40.; Rowlands, J.,Academic boards: Less intellectual and more academic capital in higher education governance?,; Schneijderberg, C., Merkator, N.,The new higher education professionals (Open Access),; Stubrin, A.,(2010) Calidad Universitaria: evaluación y Acreditación en la Educación Superior Latinoamericana. Cited 2 times.,Ediciones UNL EUDEBA, Bue Aires; Whitchurch, C.,Reconstructing identities in higher education: The rise of Third Space professionals,</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1702,11 +1627,6 @@
       <c r="O16" t="inlineStr">
         <is>
           <t>10.1108/QAE-10-2021-0160</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>Argentina</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1671,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Abadie, A., Athey, S., Imbens, G.W., Wooldridge, J.,(2017) When Should You Adjust Standard Errors for Clustering?. Cited 570 times.,w24003, National Bureau of Economic Research; Acemoglu, D., Robinson, J.A.,(2012) Why Nations Fail. Cited 4722 times.,Crown, Nueva York, NY; Acosta, A.,(2017) Descentralización, poderes locales y clientelismo : un estudio sobre la creación de nuevos municipios en el departamento del Magdalena,Tesis de Maestria en Estudios Politicos, Universidad Javeriana, Bogota; Bates, R.H., Greif, A., Levi, M., Rosenthal, J.-L., Weingast, B.R.,The analytic narrative project (Open Access),; Bertrand, M., Duflo, E., Mullainathan, S.,How much should we trust differences-in-differences estimates? (Open Access),; Blume, L.E., Easley, D., Kleinberg, J., Tardos, É.,Trading networks with price-setting agents,; Brancaccio, L.,Among leaders and territories: The political networks of the district councillors in Naples,; Cendales, A., Garza, N., Arroyo, S.,A model of public choice with clientelism and corruption: introducing the analytical,(2019) Analytical Narrative on Subnational Democracies in Colombia, pp. 65-83.; Revista Semana,(2019) Week Magazine,https://bit.ly/37CZKhzhttps://bit.ly/37CZKhz; Cutright, P., Rossi, P.,Grass roots politicians and the vote,(1958) American Sociological Review, 23 (2), pp. 171-179. Cited 36 times.; Diamond, L., Tsalik, S.,Size and democracy. The case for decentralization,(1999) Developing Democracy. Toward Consolidation, pp. 117-160. Cited 65 times.; Duque, J.,Democracia electoral fraudulenta. La trashumancia electoral como estrategia para ganar elecciones locales en Colombia,(2019) Estudios Políticos, 55, pp. 61-86.; Eaton, K.,The downside of decentralization: Armed clientelism in Colombia (Open Access),; Eaton, K., Chambers, C.,Teachers, mayors, and the transformation of clientelism in Colombia,(2014) Clientelism, Social Policy and the Quality od Democracy. Cited 8 times.; Eduardo, D., Muñloz, P.,Democracy against parties? Party system deinstitutionalization in Colombia,(2011) Journal of Politics in Latin America, 3 (2), pp. 43-71. Cited 38 times.; (2014) Anatomía de la compra de votos en Barranquilla,https://www.elheraldo.co/local/anatomia-de-la-compra-de-votos-en-barranquilla-136830,  17; Garza, N., Rodriguez, S.,Forced Displacement and Local Development in Colombia: Spatial Econometrics Analyses,; Griebeler, M.C., da Silva, A.R.,Signaling honesty: Institutional strength and voters' concern about corruption in a model of electoral competition (Open Access),; Jiménez, H.,Estudios sobre la distribución política de la inversión pública: una revisión desde Colombia,(2015) Reflexión Política, 17 (33), pp. 132-144.; Jones, L.E., Milligan, K.S., Stabile, M.,(2015) Child Cash Benefits and Family Expenditures: Evidence from the National Child Benefit. Cited 12 times.,w21101, National Bureau of Economic Research; (2015) Profesión ‘Puya Ojos,https://bit.ly/37wydOWhttps://bit.ly/37wydOW,  23; Mansour, S., Wallace, S., Sadiraj, V., Hassan, M.,How do electoral and voice accountability affect corruption? Experimental evidence from Egypt,; Mackinnon, J.G., Webb, M.D.,Wild Bootstrap Inference for Wildly Different Cluster Sizes (Open Access),; MacKinnon, J.G., Webb, M.D.,(2017) Pitfalls when estimating treatment effects using clustered data (No. 1387). Cited 4 times.,Queen’s Economics Department Working Pape Paper; Melendez, C.,(2014) Honduras Elecciones 2013: Compra de Votos y Democracia,National Democratic Institute and Centro de DocumentacioHonduras, Tegucigalpa; Nieva, R.,Corruption and paradoxes in alliances,; Oates, W.,(1972) Fiscal Federalism. Cited 3074 times.,Harcourt Brace Jovanovich, New York; Ocampo, G.,(2014) Poderes regionales: etnografías del poder y la política en Córdoba. Cited 25 times.,Regional powers: ethnographies of power and politicsCórdoba, (Colombia), Cinep, Bogotá; Pani, M.,Hold your nose and vote: Corruption and public decisions in a representative democracy,; Perez, C., Burbano, C., Londoño, H.,Regiones para vivir: Índice sintético de calidad de vida departamental,(2019) Revista de Economía del Caribe, 23, pp. 7-31.; Robinson, J.A.,The misery in Colombia (Open Access),; Robinson, J.A., Torvik, R., Verdier, T.,The political economy of public income volatility: With an application to the resource curse (Open Access),; Sabioni, L., Harumi, S.,Evidências do Impacto da Corrupção Sobre a Eficiência das Políticas de Saúde e Educação nos Estados Brasileiros,(2013) Planejamento e Politicas Publicas, 41, pp. 199-228. Cited 2 times.; Scott, J.C.,Corruption, Machine Politics, and Political Change,; Speck, B.,A compra de votos: uma aproximação empírica,(2003) Opinião Pública, 9 (1), pp. 148-169. Cited 8 times.; Stokes, S.C., Dunning, T., Nazareno, M., Brusco, V.,Brokers, voters, and clientelism: The puzzle of distributive politics,; Sun, X., Zhu, J., Wu, Y.,Organizational clientelism: An analysis of private entrepreneurs in Chinese local legislatures (Open Access),; Webb, M.D.,(2013) Reworking wild bootstrap based inference for clustered errors (No. 1315). Cited 101 times.,Queens Economics Department Working Paper; Zimmer, K.,The comparative failure of machine politics, administrative resources and fraud,; Acemoglu, D., García-Jimeno, C., Robinson, J.A.,State capacity and economic development: A network approach (Open Access),; Bonet, J., Ayala-García, J.,(2016) La brecha fiscal territorial en Colombia,Banco de la República-Economía Regional; (2019) Asymmetric Decentralization: Policy Implications in Colombia. Report Was Produced by the OECD Centre for Entrepreneurship, SMEs, Regions and Cities (CFE) Led by Lamia Kamal-Chaoui,Director, </t>
+          <t xml:space="preserve">Abadie, A., Athey, S., Imbens, G.W., Wooldridge, J.,(2017) When Should You Adjust Standard Errors for Clustering?. Cited 574 times.,w24003, National Bureau of Economic Research; Acemoglu, D., Robinson, J.A.,(2012) Why Nations Fail. Cited 4739 times.,Crown, Nueva York, NY; Acosta, A.,(2017) Descentralización, poderes locales y clientelismo : un estudio sobre la creación de nuevos municipios en el departamento del Magdalena,Tesis de Maestria en Estudios Politicos, Universidad Javeriana, Bogota; Bates, R.H., Greif, A., Levi, M., Rosenthal, J.-L., Weingast, B.R.,The analytic narrative project,; Bertrand, M., Duflo, E., Mullainathan, S.,How much should we trust differences-in-differences estimates?,; Blume, L.E., Easley, D., Kleinberg, J., Tardos, É.,Trading networks with price-setting agents,; Brancaccio, L.,Among leaders and territories: The political networks of the district councillors in Naples,; Cendales, A., Garza, N., Arroyo, S.,A model of public choice with clientelism and corruption: introducing the analytical,(2019) Analytical Narrative on Subnational Democracies in Colombia, pp. 65-83.; Revista Semana,(2019) Week Magazine,https://bit.ly/37CZKhzhttps://bit.ly/37CZKhz; Cutright, P., Rossi, P.,Grass roots politicians and the vote,(1958) American Sociological Review, 23 (2), pp. 171-179. Cited 36 times.; Diamond, L., Tsalik, S.,Size and democracy. The case for decentralization,(1999) Developing Democracy. Toward Consolidation, pp. 117-160. Cited 65 times.; Duque, J.,Democracia electoral fraudulenta. La trashumancia electoral como estrategia para ganar elecciones locales en Colombia,(2019) Estudios Políticos, 55, pp. 61-86.; Eaton, K.,The downside of decentralization: Armed clientelism in Colombia,; Eaton, K., Chambers, C.,Teachers, mayors, and the transformation of clientelism in Colombia,(2014) Clientelism, Social Policy and the Quality od Democracy. Cited 8 times.; Eduardo, D., Muñloz, P.,Democracy against parties? Party system deinstitutionalization in Colombia,(2011) Journal of Politics in Latin America, 3 (2), pp. 43-71. Cited 38 times.; (2014) Anatomía de la compra de votos en Barranquilla,https://www.elheraldo.co/local/anatomia-de-la-compra-de-votos-en-barranquilla-136830,  17; Garza, N., Rodriguez, S.,Forced Displacement and Local Development in Colombia: Spatial Econometrics Analyses,; Griebeler, M.C., da Silva, A.R.,Signaling honesty: Institutional strength and voters' concern about corruption in a model of electoral competition,; Jiménez, H.,Estudios sobre la distribución política de la inversión pública: una revisión desde Colombia,(2015) Reflexión Política, 17 (33), pp. 132-144.; Jones, L.E., Milligan, K.S., Stabile, M.,(2015) Child Cash Benefits and Family Expenditures: Evidence from the National Child Benefit. Cited 12 times.,w21101, National Bureau of Economic Research; (2015) Profesión ‘Puya Ojos,https://bit.ly/37wydOWhttps://bit.ly/37wydOW,  23; Mansour, S., Wallace, S., Sadiraj, V., Hassan, M.,How do electoral and voice accountability affect corruption? Experimental evidence from Egypt,; Mackinnon, J.G., Webb, M.D.,Wild Bootstrap Inference for Wildly Different Cluster Sizes,; MacKinnon, J.G., Webb, M.D.,(2017) Pitfalls when estimating treatment effects using clustered data (No. 1387). Cited 4 times.,Queen’s Economics Department Working Pape Paper; Melendez, C.,(2014) Honduras Elecciones 2013: Compra de Votos y Democracia,National Democratic Institute and Centro de DocumentacioHonduras, Tegucigalpa; Nieva, R.,Corruption and paradoxes in alliances (Open Access),; Oates, W.,(1972) Fiscal Federalism. Cited 3077 times.,Harcourt Brace Jovanovich, New York; Ocampo, G.,(2014) Poderes regionales: etnografías del poder y la política en Córdoba. Cited 25 times.,Regional powers: ethnographies of power and politicsCórdoba, (Colombia), Cinep, Bogotá; Pani, M.,Hold your nose and vote: Corruption and public decisions in a representative democracy,; Perez, C., Burbano, C., Londoño, H.,Regiones para vivir: Índice sintético de calidad de vida departamental,(2019) Revista de Economía del Caribe, 23, pp. 7-31.; Robinson, J.A.,The misery in Colombia (Open Access),; Robinson, J.A., Torvik, R., Verdier, T.,The political economy of public income volatility: With an application to the resource curse,; Sabioni, L., Harumi, S.,Evidências do Impacto da Corrupção Sobre a Eficiência das Políticas de Saúde e Educação nos Estados Brasileiros,(2013) Planejamento e Politicas Publicas, 41, pp. 199-228. Cited 2 times.; Scott, J.C.,Corruption, Machine Politics, and Political Change,; Speck, B.,A compra de votos: uma aproximação empírica,(2003) Opinião Pública, 9 (1), pp. 148-169. Cited 8 times.; Stokes, S.C., Dunning, T., Nazareno, M., Brusco, V.,Brokers, voters, and clientelism: The puzzle of distributive politics (Open Access),; Sun, X., Zhu, J., Wu, Y.,Organizational clientelism: An analysis of private entrepreneurs in Chinese local legislatures (Open Access),; Webb, M.D.,(2013) Reworking wild bootstrap based inference for clustered errors (No. 1315). Cited 103 times.,Queens Economics Department Working Paper; Zimmer, K.,The comparative failure of machine politics, administrative resources and fraud,; Acemoglu, D., García-Jimeno, C., Robinson, J.A.,State capacity and economic development: A network approach,; Bonet, J., Ayala-García, J.,(2016) La brecha fiscal territorial en Colombia,Banco de la República-Economía Regional; (2019) Asymmetric Decentralization: Policy Implications in Colombia. Report Was Produced by the OECD Centre for Entrepreneurship, SMEs, Regions and Cities (CFE) Led by Lamia Kamal-Chaoui,Director, </t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1782,11 +1702,6 @@
       <c r="O17" t="inlineStr">
         <is>
           <t>10.1108/JES-03-2021-0148</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>Varios Paises</t>
         </is>
       </c>
     </row>
@@ -1831,12 +1746,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>No Encontrado</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>No Encontrado</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1862,11 +1777,6 @@
       <c r="O18" t="inlineStr">
         <is>
           <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85134666242&amp;partnerID=40&amp;md5=40d8de0d3a978bfefc50a8f9e5c2312c</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>Varios Paises</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1821,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Acosta, A.,,(2015) Politica y Sociedad, 52 (2), pp. 299-330. Cited 42 times.; Adelantado, J., Noguera, J.A., Rambla, X., Sáez, L.,Las relaciones entre estructura y política sociales: una propuesta teórica,(1998) Revista Mexicana de Sociología, 60 (3), pp. 123-156. Cited 18 times.; Agosin, M., Ffrench-Davis, R.,(1994) La liberalización comercial en América Latina, pp. 41-62. Cited 29 times.,Revista de la CEPAL, CEPAL, Santiago de Chile; Aguilar, P., Minteguiaga, A.,Una renovada apelación al bienestar: entre el neoliberalismo y pandemia,(2020) Revista Cátedra Paralela, (17), pp. 17-37.; (2017) Migraciones internacionales. Alteridad y procesos sociopolíticos. Cited 2 times.,Aliaga, F. (Ed.), (, Ediciones USTA, Bogotá,  6; Andrade, P., Nicholls, E.,The relation between the state's capacity and authority: The construction of an 'Exceptionalist State' (Open Access),; Barba Solano, C.,(2003) El nuevo paradigma de bienestar residual y deslocalizado. Reforma de los regímenes de bienestar en la OCDE. Cited 11 times.,PhD dissertation, Universidad de Guadalajara, América Latina y México; Basualdo, E., Arceo, E.,(2006) Neoliberalismo y sectores dominantes. Tendencias globales y experiencias nacionales. Cited 13 times.,(comps.), CLACSO, Bue Aires; Cevallos Estarellas, P., Bramwell, D.,Ecuador, 2007–2014: attempting a radical educational transformation,(2015) Education in South America, pp. 329-361. Cited 10 times.; Chibber, V.,Bureaucratic rationality and the developmental state,; Coller, X.,(2005) Estudio de casos. Cited 145 times.,Cuader Metodológicos, 30, CIS, Madrid; Coronel, V., Stoessel, S., Guanche, J.C., Cadahia, M.L.,State capture and decorporatization of financial elites in Ecuador (Open Access),; Correa, R.,(2009) Ecuador: de Banana Republic a la No República. Cited 34 times.,Random House, Quito; Crespo Burgos, C.,(2017) Transformaciones educativas en Ecuador y Bolivia (2005–2013). Escenarios en disputa y nuevos sentidos para la educación (sumak kawsay/suma qamaña),Tesis Doctorado, Universidad Federal de Minas Gerais; De la Garza Toledo, E.,(2000) Reestructuración productiva, mercado de trabajo y sindicatos en América Latina. Cited 2 times.,(comp.), CLACSO, Bue Aires; De La Torre, P.,(2013) Los constructores del Estado Nacional 1830–2010. En el cerebro político del Ecuador,SENPLADES/El Telégrafo, Quito; De la Torre, A., Cueva, S., Castellanos-Vásconez, M.A.,The macroeconomics of the commodities boom in Ecuador: a comparative perspective,(2020) Assessing the Left Turn in Ecuador, pp. 163-213. Cited 4 times.; Esping-Andersen, G.,(1993) Los tres mundos del Estado del Bienestar. Cited 99 times.,Alfons el Magnànim, València; Evans, P.,,(1996) Desarrollo Economico, 35 (140), pp. 529-562. Cited 37 times.; Fernández, V.R., Puente, M.J.G.,,(2012) Perfiles Latinoamericanos, (40), pp. 35-61. Cited 2 times.; Ffrench-Davis, R.,Reformas para América Latina después del fundamentalismo neoliberal,(2005) Serie Economía. Cited 27 times.; Filgueira, F.,El nuevo modelo de prestaciones sociales en América Latina: eficiencia, residualismo y ciudadanía estratificada,(1998) Ciudadanía y Política Social, pp. 71-116. Cited 61 times.; Janoski, T., Hicks, A.M.,(1994) The Comparative Political Economy of Welfare State. Cited 79 times.,Cambridge University Press, Cambridge; Larrea, A.M.,(2012) Modo de desarrollo, organización territorial y cambio constituyente en el Ecuador. Cited 6 times.,SENPLADES, Quito; Mann, M.,The autonomous power of the state: Its origins, mechanisms and results,; Martínez Franzoni, J.,(2007) Regímenes de Bienestar en América Latina. Cited 31 times.,Fundación Carolina, Madrid; (2010) Programas Sociales 2010,MCDS, Quito,  29; Minteguiaga, A.,(2011) Reflexiones en torno a la violencia en y desde la escuela en Ecuador entre la invisibilización y el silencio institucional,EDNA-UNICEF, Quito; Minteguiaga, A.,Reformas curriculares en el Ecuador reciente (1980–2017): entre las influencias globales y los esfuerzos por un proyecto soberano,(2020) Reformas curriculares en educación básica en América Latina. El inicio del siglo XXI (1990–2015), pp. 237-350.; Minteguiaga, A., Robalino, I.,La dimensión estatal en los proyectos progresistas de Venezuela, Bolivia y Ecuador: Revisión sistemática de la literatura y agenda para futuras investigaciones,(2019) Ponencia XXXVII International Congress of the Latin American Studies Association (LASA); Ubasart-González, G., Minteguiaga, A.,Esping-Andersen in Latin America: The study of welfare regimes,; Minteguiaga, A., Ubasart-González, G.,(2013) Revolución ciudadana y régimen de bienestar en el Ecuador (2007–2012). Cited 6 times.,Informe Final de investigación, Repositorio CLACSO; Minteguiaga, A., Ubasart-González, G.,Menos mercado, igual familia,(2014) Revista Íconos, (50), pp. 77-96. Cited 8 times.; Minteguiaga, A., Ubasart-González, G.,Reviewing exclusionary welfare regimes: Andean countries (Bolivia, Ecuador, and Peru),; Morales, M.,A revolution with a female face? Gender debates and policies during Rafael Correa's government,(2020) Assessing the Left Turn in Ecuador, pp. 115-113. Cited 3 times.; Nieto, G.,(2018) Componentes weberianos de los burócratas cercanos al ciudadano y su incidencia en el desempeño institucional: el caso del Servicio de Rentas Internas (SRI) en el Ecuador entre 2014–2017,Public Management Master dissertation, Instituto de Altos Estudios Nacionales; O'Donnell, G.,Estado, Democratización y ciudadanía,(1993) Revista Nueva Sociedad, (128), pp. 62-87. Cited 30 times.; Ortiz, G.,La acción de los ‘forajidos’, desafío para los partidos politicos, La Tendencia,(2005) Revista de Análisis Político, (3), pp. 23-32.; O'Donnell, G.,Estado y Clases Sociales en América Latina (2),(1978) Revista Mexicana de Sociología, 40 (4), pp. 1157-1199.; Oszlak, O., O'Donnell, G.,Estado y políticas estatales en América Latina: hacia una estrategia de investigación,(2007) Lecturas sobre el Estado y las políticas públicas: Retomando el debate de ayer para fortalecer el actual, pp. 555-584. Cited 5 times.; Pérez Sáinz, J.,Industrialización y fuerza de trabajo en Ecuador,(1984) Boletín De Estudios Latinoamericanos y Del Caribe, (37), pp. 19-43. Cited 3 times.; Peña, A.,¿Hacia un Estado meritocrático? Las tensiones del cambio en el Ecuador de la Revolución Ciudadana,(2015) Nueva Sociedad, (257), pp. 107-120.; Peña, A.,(2019) Reforma estatal y capacidad institucional: Análisis de la atención primaria de salud en Ecuador (2008–2016). Cited 2 times.,PhD dissertation, Universitat Autònoma de Barcelona; Prada-Trigo, J.,Governance and Territorial Development in Ecuador: The Plan Nacional del Buen Vivir in Zaruma, Piñas and Portovelo,; Ramírez, F.,(2005) La insurrección de abril no fue solo una fiesta. Cited 16 times.,Taller el colectivo, Quito; Ramírez, F.,Mucho más que dos izquierdas,(2006) Nueva Sociedad, 205, pp. 30-44. Cited 39 times.; Ramírez, R.,(2017) La gran transición, en busca de nuevos sentidos communes. Cited 6 times.,CIESPAL-UNESCO, Quito; Ramírez, R.,(2019) La vida y el tiempo. Apuntes para una teoría ucrónica de la vida buena a partir de la historia reciente del Ecuador. Cited 3 times.,PhD dissertation, CIS-Universidade de Coimbra; (2014) Construcción de un Estado Democrático para el Buen Vivir: Análisis de las principales transformaciones del Estado ecuatoriano 2007–2012. Cited 3 times.,Recalde, E. (Ed.), (, SENPLADES, Quito,  52; Resina, J.,Estado, plurinacionalidad y pueblos indígenas en el Ecuador contemporáneo,(2012) Revista pueblos y fronteras digital, 7 (14), pp. 238-268.; Sánchez, J.,(2017) Política educativa y protección social: convergencia interna y etnicidad en el Ecuador, 2007–2014,PhD dissertation, Universitat Autònoma de Barcelona; Sader, E., Gentili, P.,(2003) La trama del neoliberalismo. Mercado, crisis y exclusión social. Cited 17 times.,(comps.), CLACSO, Bue Aires; Sánchez, F., Polga-Hecimovich, J.,The tools of institutional change under post-neoliberalism: Rafael Correa's Ecuador,; (2007) Plan Nacional de Desarrollo 2007–2010. Cited 234 times.,SENPLADES, Quito,  58; (2012) Reforma Democrática del Estado. Rediseño de la Función Ejecutiva: de las Carteras de Estado y su Modelo de Gestión, y de la Organización Territorial. Acercando el Estado a la Ciudadanía,SENPLADES, Quito,  60; (2013) Empresas públicas y planificación: Su rol en la transformación social y productive. Cited 3 times.,SENPLADES, Quito,  62; Uquillas, A.,(2007) El fracaso del neoliberalismo en el Ecuador y alternativas frente a la crisis,EDUMED, Quito; Uribe Gomez, M., Brachet-Márquez, V.,(2016) Estado y Sociedad en América Latina: acercamientos relacionales. Cited 3 times.,(coords.), COLMEX, México; Vanhulst, J., Beling, A.E.,Buen vivir: la irrupción de América Latina en el campo gravitacional del desarrollo sostenible,(2013) Revista Iberoamericana de Economía Ecológica, 21, pp. 1-14. Cited 16 times.; Villalobos, F.,(1987) La industrialización ecuatoriana y la utilización de los recursos productivos: 1976–1983,FLACSO-CIPAD, Quito; Waldmuller, J., Rodríguez, L.,Buen vivir and the rights of nature,(2018) Handbook of Development Ethics, pp. 234-247. Cited 2 times.; Weiss, L.,(2003) States in the Global Economy. Cited 319 times.,Cambridge University Press, Cambridge</t>
+          <t>Acosta, A.,,(2015) Politica y Sociedad, 52 (2), pp. 299-330. Cited 42 times.; Adelantado, J., Noguera, J.A., Rambla, X., Sáez, L.,Las relaciones entre estructura y política sociales: una propuesta teórica,(1998) Revista Mexicana de Sociología, 60 (3), pp. 123-156. Cited 18 times.; Agosin, M., Ffrench-Davis, R.,(1994) La liberalización comercial en América Latina, pp. 41-62. Cited 29 times.,Revista de la CEPAL, CEPAL, Santiago de Chile; Aguilar, P., Minteguiaga, A.,Una renovada apelación al bienestar: entre el neoliberalismo y pandemia,(2020) Revista Cátedra Paralela, (17), pp. 17-37.; (2017) Migraciones internacionales. Alteridad y procesos sociopolíticos. Cited 2 times.,Aliaga, F. (Ed.), (, Ediciones USTA, Bogotá,  6; Andrade, P., Nicholls, E.,The relation between the state's capacity and authority: The construction of an 'Exceptionalist State',; Barba Solano, C.,(2003) El nuevo paradigma de bienestar residual y deslocalizado. Reforma de los regímenes de bienestar en la OCDE. Cited 11 times.,PhD dissertation, Universidad de Guadalajara, América Latina y México; Basualdo, E., Arceo, E.,(2006) Neoliberalismo y sectores dominantes. Tendencias globales y experiencias nacionales. Cited 13 times.,(comps.), CLACSO, Bue Aires; Cevallos Estarellas, P., Bramwell, D.,Ecuador, 2007–2014: attempting a radical educational transformation,(2015) Education in South America, pp. 329-361. Cited 10 times.; Chibber, V.,Bureaucratic rationality and the developmental state,; Coller, X.,(2005) Estudio de casos. Cited 146 times.,Cuader Metodológicos, 30, CIS, Madrid; Coronel, V., Stoessel, S., Guanche, J.C., Cadahia, M.L.,State capture and decorporatization of financial elites in Ecuador,; Correa, R.,(2009) Ecuador: de Banana Republic a la No República. Cited 33 times.,Random House, Quito; Crespo Burgos, C.,(2017) Transformaciones educativas en Ecuador y Bolivia (2005–2013). Escenarios en disputa y nuevos sentidos para la educación (sumak kawsay/suma qamaña),Tesis Doctorado, Universidad Federal de Minas Gerais; De la Garza Toledo, E.,(2000) Reestructuración productiva, mercado de trabajo y sindicatos en América Latina. Cited 2 times.,(comp.), CLACSO, Bue Aires; De La Torre, P.,(2013) Los constructores del Estado Nacional 1830–2010. En el cerebro político del Ecuador,SENPLADES/El Telégrafo, Quito; De la Torre, A., Cueva, S., Castellanos-Vásconez, M.A.,The macroeconomics of the commodities boom in Ecuador: a comparative perspective,(2020) Assessing the Left Turn in Ecuador, pp. 163-213. Cited 4 times.; Esping-Andersen, G.,(1993) Los tres mundos del Estado del Bienestar. Cited 99 times.,Alfons el Magnànim, València; Evans, P.,,(1996) Desarrollo Economico, 35 (140), pp. 529-562. Cited 37 times.; Fernández, V.R., Puente, M.J.G.,,(2012) Perfiles Latinoamericanos, (40), pp. 35-61. Cited 2 times.; Ffrench-Davis, R.,Reformas para América Latina después del fundamentalismo neoliberal,(2005) Serie Economía. Cited 27 times.; Filgueira, F.,El nuevo modelo de prestaciones sociales en América Latina: eficiencia, residualismo y ciudadanía estratificada,(1998) Ciudadanía y Política Social, pp. 71-116. Cited 61 times.; Janoski, T., Hicks, A.M.,(1994) The Comparative Political Economy of Welfare State. Cited 79 times.,Cambridge University Press, Cambridge; Larrea, A.M.,(2012) Modo de desarrollo, organización territorial y cambio constituyente en el Ecuador. Cited 6 times.,SENPLADES, Quito; Mann, M.,The autonomous power of the state: Its origins, mechanisms and results,; Martínez Franzoni, J.,(2007) Regímenes de Bienestar en América Latina. Cited 31 times.,Fundación Carolina, Madrid; (2010) Programas Sociales 2010,MCDS, Quito,  29; Minteguiaga, A.,(2011) Reflexiones en torno a la violencia en y desde la escuela en Ecuador entre la invisibilización y el silencio institucional,EDNA-UNICEF, Quito; Minteguiaga, A.,Reformas curriculares en el Ecuador reciente (1980–2017): entre las influencias globales y los esfuerzos por un proyecto soberano,(2020) Reformas curriculares en educación básica en América Latina. El inicio del siglo XXI (1990–2015), pp. 237-350.; Minteguiaga, A., Robalino, I.,La dimensión estatal en los proyectos progresistas de Venezuela, Bolivia y Ecuador: Revisión sistemática de la literatura y agenda para futuras investigaciones,(2019) Ponencia XXXVII International Congress of the Latin American Studies Association (LASA); Ubasart-González, G., Minteguiaga, A.,Esping-Andersen in Latin America: The study of welfare regimes,; Minteguiaga, A., Ubasart-González, G.,(2013) Revolución ciudadana y régimen de bienestar en el Ecuador (2007–2012). Cited 6 times.,Informe Final de investigación, Repositorio CLACSO; Minteguiaga, A., Ubasart-González, G.,Menos mercado, igual familia,(2014) Revista Íconos, (50), pp. 77-96. Cited 8 times.; Minteguiaga, A., Ubasart-González, G.,Reviewing exclusionary welfare regimes: Andean countries (Bolivia, Ecuador, and Peru),; Morales, M.,A revolution with a female face? Gender debates and policies during Rafael Correa's government,(2020) Assessing the Left Turn in Ecuador, pp. 115-113. Cited 3 times.; Nieto, G.,(2018) Componentes weberianos de los burócratas cercanos al ciudadano y su incidencia en el desempeño institucional: el caso del Servicio de Rentas Internas (SRI) en el Ecuador entre 2014–2017,Public Management Master dissertation, Instituto de Altos Estudios Nacionales; O'Donnell, G.,Estado, Democratización y ciudadanía,(1993) Revista Nueva Sociedad, (128), pp. 62-87. Cited 30 times.; Ortiz, G.,La acción de los ‘forajidos’, desafío para los partidos politicos, La Tendencia,(2005) Revista de Análisis Político, (3), pp. 23-32.; O'Donnell, G.,Estado y Clases Sociales en América Latina (2),(1978) Revista Mexicana de Sociología, 40 (4), pp. 1157-1199.; Oszlak, O., O'Donnell, G.,Estado y políticas estatales en América Latina: hacia una estrategia de investigación,(2007) Lecturas sobre el Estado y las políticas públicas: Retomando el debate de ayer para fortalecer el actual, pp. 555-584. Cited 5 times.; Pérez Sáinz, J.,Industrialización y fuerza de trabajo en Ecuador,(1984) Boletín De Estudios Latinoamericanos y Del Caribe, (37), pp. 19-43. Cited 3 times.; Peña, A.,¿Hacia un Estado meritocrático? Las tensiones del cambio en el Ecuador de la Revolución Ciudadana,(2015) Nueva Sociedad, (257), pp. 107-120.; Peña, A.,(2019) Reforma estatal y capacidad institucional: Análisis de la atención primaria de salud en Ecuador (2008–2016). Cited 2 times.,PhD dissertation, Universitat Autònoma de Barcelona; Prada-Trigo, J.,Governance and Territorial Development in Ecuador: The Plan Nacional del Buen Vivir in Zaruma, Piñas and Portovelo,; Ramírez, F.,(2005) La insurrección de abril no fue solo una fiesta. Cited 16 times.,Taller el colectivo, Quito; Ramírez, F.,Mucho más que dos izquierdas,(2006) Nueva Sociedad, 205, pp. 30-44. Cited 39 times.; Ramírez, R.,(2017) La gran transición, en busca de nuevos sentidos communes. Cited 6 times.,CIESPAL-UNESCO, Quito; Ramírez, R.,(2019) La vida y el tiempo. Apuntes para una teoría ucrónica de la vida buena a partir de la historia reciente del Ecuador. Cited 3 times.,PhD dissertation, CIS-Universidade de Coimbra; (2014) Construcción de un Estado Democrático para el Buen Vivir: Análisis de las principales transformaciones del Estado ecuatoriano 2007–2012. Cited 3 times.,Recalde, E. (Ed.), (, SENPLADES, Quito,  52; Resina, J.,Estado, plurinacionalidad y pueblos indígenas en el Ecuador contemporáneo,(2012) Revista pueblos y fronteras digital, 7 (14), pp. 238-268.; Sánchez, J.,(2017) Política educativa y protección social: convergencia interna y etnicidad en el Ecuador, 2007–2014,PhD dissertation, Universitat Autònoma de Barcelona; Sader, E., Gentili, P.,(2003) La trama del neoliberalismo. Mercado, crisis y exclusión social. Cited 17 times.,(comps.), CLACSO, Bue Aires; Sánchez, F., Polga-Hecimovich, J.,The tools of institutional change under post-neoliberalism: Rafael Correa's Ecuador,; (2007) Plan Nacional de Desarrollo 2007–2010. Cited 234 times.,SENPLADES, Quito,  58; (2012) Reforma Democrática del Estado. Rediseño de la Función Ejecutiva: de las Carteras de Estado y su Modelo de Gestión, y de la Organización Territorial. Acercando el Estado a la Ciudadanía,SENPLADES, Quito,  60; (2013) Empresas públicas y planificación: Su rol en la transformación social y productive. Cited 3 times.,SENPLADES, Quito,  62; Uquillas, A.,(2007) El fracaso del neoliberalismo en el Ecuador y alternativas frente a la crisis,EDUMED, Quito; Uribe Gomez, M., Brachet-Márquez, V.,(2016) Estado y Sociedad en América Latina: acercamientos relacionales. Cited 3 times.,(coords.), COLMEX, México; Vanhulst, J., Beling, A.E.,Buen vivir: la irrupción de América Latina en el campo gravitacional del desarrollo sostenible,(2013) Revista Iberoamericana de Economía Ecológica, 21, pp. 1-14. Cited 16 times.; Villalobos, F.,(1987) La industrialización ecuatoriana y la utilización de los recursos productivos: 1976–1983,FLACSO-CIPAD, Quito; Waldmuller, J., Rodríguez, L.,Buen vivir and the rights of nature,(2018) Handbook of Development Ethics, pp. 234-247. Cited 2 times.; Weiss, L.,(2003) States in the Global Economy. Cited 319 times.,Cambridge University Press, Cambridge</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1942,11 +1852,6 @@
       <c r="O19" t="inlineStr">
         <is>
           <t>10.1108/IJSSP-10-2020-0484</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>Varios Paises</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1896,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Assaél, Jenny, Cornejo, Rodrigo,Work regulations and teacher subjectivity in a context of standardization and Accountability Policies in Chile,(2018) Education policies and the restructuring of the educational profession, pp. 245-257. Cited 4 times.; Ball, S.J.,Politics and policy making in education: Explorations in policy sociology,; Bellei, Cristian,El talón de Aquiles de la Reforma Educativa,(2001) Economía Política de las Reformas Educativas en América Latina, 2. Cited 16 times.; Bellei, Cristian,(2015) El Gran Experimento. Mercado y Privatización de la Educación Chilena. Cited 119 times.,Santiago: LOM; Colburn, F.D.,Everyday forms of peasant resistance,; Flick, Uwe,(2012) Introducción a la Investigación Cualitativa. Cited 956 times.,Madrid: Morata; Gadamer, Hans-Georg,(1990) Gesammelte Werke 1. Hermeneutik I: Wahrheit und Methode. Cited 2188 times.,Tübingen: Mohr; Gadamer, Hans-Georg,(1998) Texto e Interpretación. Cited 2 times.,Madrid: Universidad Autónoma de Madrid; Gibbs, Graham,(2012) El Análisis de Datos Cualitativos en Investigación Cualitativa. Cited 269 times.,Madrid, Morata; Kropotkin, Piotr,(1989) El apoyo mutuo. Cited 6 times.,Madrid: Madre Tierra; Kvale, Steinar,(2011) Las Entrevistas en Investigación Cualitativa. Cited 292 times.,Madrid: Morata; Núñez, Iván,(2004) La Identidad de los Docentes una Mirada Histórica. Cited 20 times.,Santiago: PIIE; Orellana, Víctor,In Chile, the Post-Neoliberal Future is Now,(2020) NACLA, Report on the Americas, 52 (1). Cited 9 times.; Assaél, Jenny, Pávez, Jorge,La Construcción E Implementación Del Sistema De Evaluación Del Desempeño Docente Chileno: Principales Tensiones Y Desafíos,(2008) Revista Iberoamericana de Evaluación Educativa, 1 (2), pp. 41-55. Cited 17 times.; Assaél, Jenny,Políticas educativas de estandarización y control: sus efectos en la gestión democrática y calidad de la enseñanza en Chile,(2009) III Congreso Interamericano / XXIV Simposium brasileño; Budnik, J.A., Chávez, R.C., López, G.J., Rojo, J.R., Edmonson, R.S., Morales, M.S.,The chilean education enterprise (Open Access),; Assaél, Jenny, Albornoz, Natalia, Caro, Miguel,Estandarización educativa en Chile: tensiones y consecuencias para el trabajo docente,(2018) Educação Unisinos, 22 (1), pp. 83-90. Cited 15 times.; Baines, D.,Caring for nothing: Work organization and unwaged labour in social services,; Biscarra, C., Giaconi, C., Assaél, J.,The teacher in the Chilean legislation on education (Open Access),; Braun, A., Ball, S.J., Maguire, M., Hoskins, K.,Taking context seriously: Towards explaining policy enactments in the secondary school,; Cáceres, Pablo,Análisis cualitativo de contenido: una alternativa metodológica alcanzable, Psicoperspectivas,(2008) Individuo y Sociedad, 2 (1), pp. 53-82. Cited 190 times.; Proyecto Ley 11780-04 que Modifica la ley 19.070 que Aprueba Estatuto de los Profesionales de la Educación, en diversas materias de orden laboral,(2021) Biblioteca del Congreso Nacional de Chile, pp. 1-5.,https://www.camara.cl/legislacion/ProyectosDeLey/tramitacion.aspx?prmID=12301&amp;prmBOLETIN=11780-04; (2017) Sistema de Carrera docente,Santiago: Mineduc,https://www.cpeip.cl/carrera-docente/; Dahl, H.M.,New Public Management, care and struggles about recognition,; Falabella, A.,The Seduction of Hyper-Surveillance: Standards, Testing, and Accountability,; Falabella, A.,The ethics of competition: accountability policy enactment in Chilean schools’ everyday life,; Fardella, Carla,Verdades sobre la docencia, efectos y consecuencias subjetivas de la evaluación docente en Chile,(2012) Revista de Psicología, 21 (1), pp. 209-227. Cited 12 times.; Fardella, C., Sisto, V.,,(2015) Psicologia e Sociedade, 27 (1), pp. 68-79. Cited 29 times.; Fardella, C., Sisto, V., Morales, K., Rivera, G., Soto, R.,Labor identities and ethics of public work in times of accountability (Open Access),; Gewirtz, S., Ball, S.,From 'Welfarism' to 'New Managerialism': Shifting discourses of school headship in the education marketplace,; Goodman, Leo,Snowball sampling,(1961) The annals of mathematical statistics, 32 (1), pp. 148-170. Cited 2244 times.; Jacovkis, Judith, Tarabini, Aina,COVID-19 y escuela a distancia: viejas y nuevas desigualdades,(2021) Revista de Sociología, 14, pp. 85-102. Cited 17 times.; Jones, R.E., Abdelfattah, K.R.,Virtual Interviews in the Era of COVID-19: A Primer for Applicants (Open Access),; Kurunmäki, L., Miller, P.,Regulatory hybrids: Partnerships, budgeting and modernising government,; Le Galès, P.,Performance measurement as a policy instrument,; Little, J.W., Bartlett, L.,Chapter 9: The teacher workforce and problems of educational equity,; López, V., Sisto, V., Baleriola, E., García, A., Carrasco, C., Núñez, C.G., Valdés, R.,A struggle for translation: An actor-network analysis of Chilean school violence and school climate policies,; (1997) Decreto con Fuerza de Ley 1 que Fija Texto Refundido, Coordinado Y Sistematizado de la Ley Nº19.070 que Aprobó El Estatuto de los Profesionales de la Educación, y de las Leyes Que La Complementan y Modifican,Biblioteca del Congreso Nacional de Chile,https://www.bcn.cl/leychile/navegar?idNorma=60439; (2001) Ley 19.715 Otorga Un Mejoramiento Especial De Remuneraciones Para Los Profesionales De La Educación. Cited 3 times.,https://www.bcn.cl/leychile/navegar?idNorma=180817,  40; (2004) Ley 19.961 Sobre Evaluación Docente. Cited 2 times.,Biblioteca del Congreso Nacional de Chile,https://www.bcn.cl/leychile/navegar?idNorma=228943; (2016) ,Ley 20.903, Crea el Sistema de Carrera Docente. Biblioteca del Congreso Nacional de Chile,https://www.bcn.cl/leychile/navegar?idNorma=1087343; Sistema de Desarrollo Profesional Docente, Una Mejora Transcendental para los Profesores,(2016) Revista de Educación, 374, pp. 1-48.,http://www.revistadeeducacion.cl/carrera-docente/; (2016) Ley 20.903 que Crea el Sistema de Carrera Docente. Cited 2 times.,Biblioteca del Congreso Nacional de Chile,https://www.bcn.cl/leychile/navegar?idNorma=1087343; (2017) Resolución Exenta Nº2638 Orientaciones Sistema de Desarrollo Profesional Docente. Cited 2 times.,Biblioteca del Congreso Nacional de Chile,https://docplayer.es/50225469-Orientacionessistema-de-desarrollo-profesional-docente.html; Aguayo, P.N., Vargas, P.R., Puigcercós, R.M.,The meaning of the school in chile. The creation of opposed paradigms from the discourse of the public policy, academia and educational research (Open Access),; O'Reilly, D., Reed, M.,The grit in the oyster: Professionalism, managerialism and leaderism as discourses of uk public services modernization (Open Access),; Maldonado, C.O., Chávez, R.C.,Teaching work and new public management in Chile: A review of the evidence (Open Access),; Oyarzún, Cristian, Soto, Rodolfo,The inadmissibility of standardizing the teaching work: An analysis from Chile,(2021) Alteridad, 16 (1), pp. 103-113. Cited 2 times.; Parcerisa, L., Villalobos, C.,Social movements and resistance to accountability in Chile: Discursive strategies, identity and actions of the Stop the SIMCE campaign,; Ranson, S.,The changing governance of education (Open Access),; Ramírez-Casas del Valle, Lorena, Baleriola, Enrique, Sisto, Vicente,Pedagogía en la Era de la Rendición de cuentas: Análisis del Portafolio Docente en Chile,(2019) Educação &amp; Sociedade, 40, pp. 1-20. Cited 5 times.; Ramírez-Casas del Valle, Lorena, Baleriola, Enrique, Sisto, Vicente, Aguilera, Felipe,Las Políticas de Evaluación y sus Efectos en el Quehacer Docente: Más Allá De La Organización Y La Gestión,(2019) Paulo Freire, 22, pp. 29-48. Cited 6 times.; Sisto, Vicente,Nuevo profesionalismo y profesores: una reflexión a partir del análisis de las actuales políticas de “profesionalización» para la educación en Chile,(2011) Signo y Pensamiento, 31 (59), pp. 178-192. Cited 28 times.; Sisto, V.,Challenged identities: Individualization, managerialism,and teaching work in Chile today (Open Access),; Sisto, Vicente, Fardella, Carla,El eclipse del profesionalismo en la era de la rendición de cuentas – modelando docentes en el contexto del nuevo management público,(2014) Cadernos de Educação, 14 (49), pp. 3-23. Cited 11 times.; Skourdoumbis, A.,Teacher Effectiveness: Making The Difference to Student Achievement?,; Ball, S.J.,The teacher's soul and the terrors of performativity,; Thomas, R., Davies, A.,Theorizing the micro-politics of resistance: New public management and managerial identities in the UK public services,; (2002) No Child Left Behind, pp. 1425-2094. Cited 691 times.,United States Department of Education,https://www2.ed.gov/nclb/landing.jhtml; Wittmann, E.,Align, don't necessarily follow,; Wrigley, T., Lingard, B., Thomson, P.,Pedagogies of transformation: Keeping hope alive in troubled times (Open Access),</t>
+          <t>Assaél, Jenny, Cornejo, Rodrigo,Work regulations and teacher subjectivity in a context of standardization and Accountability Policies in Chile,(2018) Education policies and the restructuring of the educational profession, pp. 245-257. Cited 4 times.; Ball, S.J.,Politics and policy making in education: Explorations in policy sociology,; Bellei, Cristian,El talón de Aquiles de la Reforma Educativa,(2001) Economía Política de las Reformas Educativas en América Latina, 2. Cited 16 times.; Bellei, Cristian,(2015) El Gran Experimento. Mercado y Privatización de la Educación Chilena. Cited 119 times.,Santiago: LOM; Colburn, F.D.,Everyday forms of peasant resistance,; Flick, Uwe,(2012) Introducción a la Investigación Cualitativa. Cited 962 times.,Madrid: Morata; Gadamer, Hans-Georg,(1990) Gesammelte Werke 1. Hermeneutik I: Wahrheit und Methode. Cited 2190 times.,Tübingen: Mohr; Gadamer, Hans-Georg,(1998) Texto e Interpretación. Cited 2 times.,Madrid: Universidad Autónoma de Madrid; Gibbs, Graham,(2012) El Análisis de Datos Cualitativos en Investigación Cualitativa. Cited 272 times.,Madrid, Morata; Kropotkin, Piotr,(1989) El apoyo mutuo. Cited 6 times.,Madrid: Madre Tierra; Kvale, Steinar,(2011) Las Entrevistas en Investigación Cualitativa. Cited 293 times.,Madrid: Morata; Núñez, Iván,(2004) La Identidad de los Docentes una Mirada Histórica. Cited 20 times.,Santiago: PIIE; Orellana, Víctor,In Chile, the Post-Neoliberal Future is Now,(2020) NACLA, Report on the Americas, 52 (1). Cited 8 times.; Assaél, Jenny, Pávez, Jorge,La Construcción E Implementación Del Sistema De Evaluación Del Desempeño Docente Chileno: Principales Tensiones Y Desafíos,(2008) Revista Iberoamericana de Evaluación Educativa, 1 (2), pp. 41-55. Cited 17 times.; Assaél, Jenny,Políticas educativas de estandarización y control: sus efectos en la gestión democrática y calidad de la enseñanza en Chile,(2009) III Congreso Interamericano / XXIV Simposium brasileño; Budnik, J.A., Chávez, R.C., López, G.J., Rojo, J.R., Edmonson, R.S., Morales, M.S.,The chilean education enterprise,; Assaél, Jenny, Albornoz, Natalia, Caro, Miguel,Estandarización educativa en Chile: tensiones y consecuencias para el trabajo docente,(2018) Educação Unisinos, 22 (1), pp. 83-90. Cited 16 times.; Baines, D.,Caring for nothing: Work organization and unwaged labour in social services,; Biscarra, C., Giaconi, C., Assaél, J.,The teacher in the Chilean legislation on education,; Braun, A., Ball, S.J., Maguire, M., Hoskins, K.,Taking context seriously: Towards explaining policy enactments in the secondary school,; Cáceres, Pablo,Análisis cualitativo de contenido: una alternativa metodológica alcanzable, Psicoperspectivas,(2008) Individuo y Sociedad, 2 (1), pp. 53-82. Cited 190 times.; Proyecto Ley 11780-04 que Modifica la ley 19.070 que Aprueba Estatuto de los Profesionales de la Educación, en diversas materias de orden laboral,(2021) Biblioteca del Congreso Nacional de Chile, pp. 1-5.,https://www.camara.cl/legislacion/ProyectosDeLey/tramitacion.aspx?prmID=12301&amp;prmBOLETIN=11780-04; (2017) Sistema de Carrera docente,Santiago: Mineduc,https://www.cpeip.cl/carrera-docente/; Dahl, H.M.,New Public Management, care and struggles about recognition,; Falabella, A.,The Seduction of Hyper-Surveillance: Standards, Testing, and Accountability,; Falabella, A.,The ethics of competition: accountability policy enactment in Chilean schools’ everyday life,; Fardella, Carla,Verdades sobre la docencia, efectos y consecuencias subjetivas de la evaluación docente en Chile,(2012) Revista de Psicología, 21 (1), pp. 209-227. Cited 12 times.; Fardella, C., Sisto, V.,,(2015) Psicologia e Sociedade, 27 (1), pp. 68-79. Cited 30 times.; Fardella, C., Sisto, V., Morales, K., Rivera, G., Soto, R.,Labor identities and ethics of public work in times of accountability,; Gewirtz, S., Ball, S.,From 'Welfarism' to 'New Managerialism': Shifting discourses of school headship in the education marketplace,; Goodman, Leo,Snowball sampling,(1961) The annals of mathematical statistics, 32 (1), pp. 148-170. Cited 2251 times.; Jacovkis, Judith, Tarabini, Aina,COVID-19 y escuela a distancia: viejas y nuevas desigualdades,(2021) Revista de Sociología, 14, pp. 85-102. Cited 17 times.; Jones, R.E., Abdelfattah, K.R.,Virtual Interviews in the Era of COVID-19: A Primer for Applicants,; Kurunmäki, L., Miller, P.,Regulatory hybrids: Partnerships, budgeting and modernising government,; Le Galès, P.,Performance measurement as a policy instrument,; Little, J.W., Bartlett, L.,Chapter 9: The teacher workforce and problems of educational equity,; López, V., Sisto, V., Baleriola, E., García, A., Carrasco, C., Núñez, C.G., Valdés, R.,A struggle for translation: An actor-network analysis of Chilean school violence and school climate policies,; (1997) Decreto con Fuerza de Ley 1 que Fija Texto Refundido, Coordinado Y Sistematizado de la Ley Nº19.070 que Aprobó El Estatuto de los Profesionales de la Educación, y de las Leyes Que La Complementan y Modifican,Biblioteca del Congreso Nacional de Chile,https://www.bcn.cl/leychile/navegar?idNorma=60439; (2001) Ley 19.715 Otorga Un Mejoramiento Especial De Remuneraciones Para Los Profesionales De La Educación. Cited 3 times.,https://www.bcn.cl/leychile/navegar?idNorma=180817,  40; (2004) Ley 19.961 Sobre Evaluación Docente. Cited 2 times.,Biblioteca del Congreso Nacional de Chile,https://www.bcn.cl/leychile/navegar?idNorma=228943; (2016) ,Ley 20.903, Crea el Sistema de Carrera Docente. Biblioteca del Congreso Nacional de Chile,https://www.bcn.cl/leychile/navegar?idNorma=1087343; Sistema de Desarrollo Profesional Docente, Una Mejora Transcendental para los Profesores,(2016) Revista de Educación, 374, pp. 1-48.,http://www.revistadeeducacion.cl/carrera-docente/; (2016) Ley 20.903 que Crea el Sistema de Carrera Docente,Biblioteca del Congreso Nacional de Chile,https://www.bcn.cl/leychile/navegar?idNorma=1087343; (2017) Resolución Exenta Nº2638 Orientaciones Sistema de Desarrollo Profesional Docente,Biblioteca del Congreso Nacional de Chile,https://docplayer.es/50225469-Orientacionessistema-de-desarrollo-profesional-docente.html; Aguayo, P.N., Vargas, P.R., Puigcercós, R.M.,The meaning of the school in chile. The creation of opposed paradigms from the discourse of the public policy, academia and educational research (Open Access),; O'Reilly, D., Reed, M.,The grit in the oyster: Professionalism, managerialism and leaderism as discourses of uk public services modernization (Open Access),; Maldonado, C.O., Chávez, R.C.,Teaching work and new public management in Chile: A review of the evidence (Open Access),; Oyarzún, Cristian, Soto, Rodolfo,The inadmissibility of standardizing the teaching work: An analysis from Chile,(2021) Alteridad, 16 (1), pp. 103-113.; Parcerisa, L., Villalobos, C.,Social movements and resistance to accountability in Chile: Discursive strategies, identity and actions of the Stop the SIMCE campaign,; Ranson, S.,The changing governance of education,; Ramírez-Casas del Valle, Lorena, Baleriola, Enrique, Sisto, Vicente,Pedagogía en la Era de la Rendición de cuentas: Análisis del Portafolio Docente en Chile,(2019) Educação &amp; Sociedade, 40, pp. 1-20. Cited 5 times.; Ramírez-Casas del Valle, Lorena, Baleriola, Enrique, Sisto, Vicente, Aguilera, Felipe,Las Políticas de Evaluación y sus Efectos en el Quehacer Docente: Más Allá De La Organización Y La Gestión,(2019) Paulo Freire, 22, pp. 29-48. Cited 6 times.; Sisto, Vicente,Nuevo profesionalismo y profesores: una reflexión a partir del análisis de las actuales políticas de “profesionalización» para la educación en Chile,(2011) Signo y Pensamiento, 31 (59), pp. 178-192. Cited 28 times.; Sisto, V.,Challenged identities: Individualization, managerialism,and teaching work in Chile today (Open Access),; Sisto, Vicente, Fardella, Carla,El eclipse del profesionalismo en la era de la rendición de cuentas – modelando docentes en el contexto del nuevo management público,(2014) Cadernos de Educação, 14 (49), pp. 3-23. Cited 11 times.; Skourdoumbis, A.,Teacher Effectiveness: Making The Difference to Student Achievement?,; Ball, S.J.,The teacher's soul and the terrors of performativity,; Thomas, R., Davies, A.,Theorizing the micro-politics of resistance: New public management and managerial identities in the UK public services,; (2002) No Child Left Behind, pp. 1425-2094. Cited 691 times.,United States Department of Education,https://www2.ed.gov/nclb/landing.jhtml; Wittmann, E.,Align, don't necessarily follow (Open Access),; Wrigley, T., Lingard, B., Thomson, P.,Pedagogies of transformation: Keeping hope alive in troubled times,</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2011,7 +1916,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>No Encontrado</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -2022,11 +1927,6 @@
       <c r="O20" t="inlineStr">
         <is>
           <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85127490836&amp;partnerID=40&amp;md5=6e2cf5930bad5f55702fed3e80a77318</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>Varios Paises</t>
         </is>
       </c>
     </row>
@@ -2071,7 +1971,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Aguilar, J. P.,(2009) Derechos de participación y derecho a participar,Universidad Andina Simón Bolivar; Ley Orgánica de Servicio Público,(2010) ,Registro Oficial Suplemento 294; (2008) Constitución de la República del Ecuador. Cited 483 times.,Registro Oficia 449,https://www.asambleanacional.gob.ec/sites/default/files/documents/old/constitucion_de_bolsillo.pdf; (2013) Plan Nacional de Prevención y Lucha Contra la Corrupción. Cited 2 times.,http://www.cpccs.gob.ec/wp-content/uploads/2016/02/lucha-contra-la-corrupcion.pdf,  5; (2021) ,Sitio oficial,https://portal.compraspublicas.gob.ec/sercop; Flores Trejo, E.,La promoción de la ética y la transparencia en la gestión pública. (Ponencia),(2005) X Congreso Internacional del CLAD sobre la Reforma del Estado y de la Administración Pública; Hernández Rodríguez, E., Moreno Martínez, C.,La transparencia pública en el escenario post-Covid,(2021) Revista Española de Transparencia, (13), pp. 131-171.; Iglesias Ramírez, C. P.,(2016) El control social en la contratación pública,(Tesis de maestría). Universidad Andina Simón Bolivar; Larrea, R.,(1998) Corrupción política: El caso del Ecuador,Foro Iberoamericano sobre el Combate a la Corrupción; Osorio-Sanabria, M. A., Barreto-Granada, P. L.,Transparencia pública: análisis de su evolución y aportes para el desarrollo del gobierno abierto,(2021) Innovar, 32 (83).; Queralt, M.,(2021) La transparencia como valor empresarial del siglo XXI: liderazgo, valorización de marca y reputación social,https://martinqueralt.com/la-transparencia-como-valor-empresarial-del-siglo-xxi-liderazgo-valorizacion-de-marca-y-reputacion-social/; Rodríguez, E., Rivera, C., Castillo, T.,Insatisfacción con el sistema nacional de contratación pública: una visión del contratista en ejecución de obras,(2018) Novasinergia, 1 (1), pp. 81-91. Cited 2 times.; Romeu Granados, J.,(2018) El principio de transparencia en la actividad contractual de la administración pública. Especial referencia a la administración local. Cited 2 times.,(Tesis doctoral). Universidad Complutense de Madrid; De Jubera Higuero, B.S.,Control of material transparency and notarial action according to jurisprudence and law 5/2019 of real estate credit contracts,; San Martín Mora, M. A.,(2013) La transparencia de la contratación pública,https://testingftp.square7.ch/WikiCONTRATACION/index.php?title=La_transparencia_en_la_contrataci%C3%B3n_p%C3%BAblica; Viteri Torres, C.,(2010) Los principios de trasnparencia y publicidad en los procesos licitatorios establecidos en la Ley Orgánica del Sistema Nacional de Contratación Pública,(Tesis de maestría). Universidad Andina Simón Bolivar</t>
+          <t>Aguilar, J. P.,(2009) Derechos de participación y derecho a participar,Universidad Andina Simón Bolivar; Ley Orgánica de Servicio Público,(2010) ,Registro Oficial Suplemento 294; (2008) Constitución de la República del Ecuador. Cited 489 times.,Registro Oficia 449,https://www.asambleanacional.gob.ec/sites/default/files/documents/old/constitucion_de_bolsillo.pdf; (2013) Plan Nacional de Prevención y Lucha Contra la Corrupción. Cited 2 times.,http://www.cpccs.gob.ec/wp-content/uploads/2016/02/lucha-contra-la-corrupcion.pdf,  5; (2021) ,Sitio oficial,https://portal.compraspublicas.gob.ec/sercop; Flores Trejo, E.,La promoción de la ética y la transparencia en la gestión pública. (Ponencia),(2005) X Congreso Internacional del CLAD sobre la Reforma del Estado y de la Administración Pública; Hernández Rodríguez, E., Moreno Martínez, C.,La transparencia pública en el escenario post-Covid,(2021) Revista Española de Transparencia, (13), pp. 131-171.; Iglesias Ramírez, C. P.,(2016) El control social en la contratación pública,(Tesis de maestría). Universidad Andina Simón Bolivar; Larrea, R.,(1998) Corrupción política: El caso del Ecuador,Foro Iberoamericano sobre el Combate a la Corrupción; Osorio-Sanabria, M. A., Barreto-Granada, P. L.,Transparencia pública: análisis de su evolución y aportes para el desarrollo del gobierno abierto,(2021) Innovar, 32 (83).; Queralt, M.,(2021) La transparencia como valor empresarial del siglo XXI: liderazgo, valorización de marca y reputación social,https://martinqueralt.com/la-transparencia-como-valor-empresarial-del-siglo-xxi-liderazgo-valorizacion-de-marca-y-reputacion-social/; Rodríguez, E., Rivera, C., Castillo, T.,Insatisfacción con el sistema nacional de contratación pública: una visión del contratista en ejecución de obras,(2018) Novasinergia, 1 (1), pp. 81-91.; Romeu Granados, J.,(2018) El principio de transparencia en la actividad contractual de la administración pública. Especial referencia a la administración local. Cited 2 times.,(Tesis doctoral). Universidad Complutense de Madrid; De Jubera Higuero, B.S.,Control of material transparency and notarial action according to jurisprudence and law 5/2019 of real estate credit contracts,; San Martín Mora, M. A.,(2013) La transparencia de la contratación pública,https://testingftp.square7.ch/WikiCONTRATACION/index.php?title=La_transparencia_en_la_contrataci%C3%B3n_p%C3%BAblica; Viteri Torres, C.,(2010) Los principios de trasnparencia y publicidad en los procesos licitatorios establecidos en la Ley Orgánica del Sistema Nacional de Contratación Pública,(Tesis de maestría). Universidad Andina Simón Bolivar</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -2102,11 +2002,6 @@
       <c r="O21" t="inlineStr">
         <is>
           <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85127217199&amp;partnerID=40&amp;md5=b7265e2f192e17da76ccaf1f2ab682c0</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2046,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Agamben, G.,(1998) Homo sacer: sovereign power and bare life. Cited 10420 times.,(D. Heller-Roazen, Trans, Stanford, CA, Stanford University Press, (Original work published 1995); Agamben, G.,(2005) State of exception (K. Attell, trans.). Cited 5226 times.,Chicago, IL, The University of Chicago Press, (Original work published 2003); Ahlberg, B.M., Hamed, S., Thapar-Björkert, S., Bradby, H.,Invisibility of Racism in the Global Neoliberal Era: Implications for Researching Racism in Healthcare (Open Access),; Ahmed, N.,(2018) Women in governing institutions in South Asia: parliament, Civil Service and Local Government. Cited 4 times.,(Ed.). (, Cham, Switzerland, Palgrave Macmillan; Ahmed, N.A., Jahan, F.,Balancing work and family: Women in Bangladesh civil service,; Alesina, A., Devleeschauwer, A., Easterly, W., Kurlat, S., Wacziarg, R.,Fractionalization,; Alkadry, M.G., Blessett, B.,Aloofness or dirty hands? Administrative culpability in the making of the second ghetto,(2010) Administrative Theory and Praxis, 32 (4), pp. 532-556. Cited 32 times.; Althaus, C.,Different paradigms of evidence and knowledge: Recognising, honouring, and celebrating Indigenous ways of knowing and being (Open Access),; (2021) Chile: responsabilidad penal por omisión de los mandos con ocasión de los crímenes cometidos durante el estallido social,London, UK, Amnesty International,https://www.amnesty.org/es/documents/amr22/4851/2021/es/; An, S.-H., Song, M., Meier, K.J.,Representative bureaucracy and the policy environment: Gender representation in Forty-Four countries,; Ansari, N.G.,Women in Pakistan Civil service,; (2021) Set the standard: report on the independent review into commonwealth parliamentary workplaces. Cited 4 times.,Canberra, Australian Human Rights Commission,https://humanrights.gov.au/sites/default/files/document/publication/ahrc_set_the_standard_2021.pdf; Ávila, M.C.,Estado de excepción y campos de concentración en Chile. Una aproximación biopolítica,(2013) Sociedad Hoy, 25, pp. 65-78. Cited 3 times.; Balfour, D.L., Adams, G.B., Nickels, A.E.,(2020) Unmasking administrative evil. Cited 331 times.,&amp;, 5th edition, New York, NY, Routledge; Bhagat, R.B.,Migration, gender and right to the city: The Indian context,; Bhattacharya, M.,(2011) New horizons of public administration. Cited 4 times.,New Delhi, Delhi, Jawahar Publishers &amp; Distributors; Blessett, B.,Rethinking the administrative state through an intersectional framework,(2018) Administrative Theory &amp; Praxis, 41 (1), pp. 1-5.; Blessett, B., Dodge, J., Edmond, B., Goerdel, H.T., Gooden, S.T., Headley, A.M., Riccucci, N.M., (...), Williams, B.N.,Social Equity in Public Administration: A Call to Action,; Blundo, G., Olivier de Sardan, J.P.,Everyday corruption in West Africa,(2006) Everyday corruption and the state: Citizens &amp; public officials in Africa, pp. 69-109. Cited 33 times.; Bonilla-Silva, E.,(2001) White supremacy &amp; racism in the post-civil rights era. Cited 811 times.,Boulder, CO, Lynne Reinner; Bonnefoy, P.,(2019) Mounting evidence of abuse by Chile's police leads to calls for reform. Cited 3 times.,Dec. 13), New York The New York Times; Carey, G., Dickinson, H., Cox, E.M.,Feminism, Gender, and Power Relations in Policy – Starting a New Conversation (Open Access),; Choi, S., Park, C.-O.,Glass ceiling in Korean civil service: Analyzing barriers to women's career advancement in the Korean government,; Christian, M.,A Global Critical Race and Racism Framework: Racial Entanglements and Deep and Malleable Whiteness (Open Access),; Colley, L., Williamson, S., Foley, M.,Understanding, ownership, or resistance: Explaining persistent gender inequality in public services,; Collins, P.H.,(2002) Black feminist thought: knowledge, consciousness, and the politics of empowerment. Cited 14533 times.,New York, NY, Routledge; Cooke, F.L.,Women's participation in employment in Asia: A comparative analysis of China, India, Japan and South Korea,; Cotrina Gulfo, Y.,Diversidad sexual en la historia jurídica colombiana (Sexual diversity in the Colombian legal history). Pensamiento Jurídico, No. 47, ISSN 0122-1108,(2017) ENERO-JUNIO, BOGOTÁ, 2018, pp. 149-165.; Crabb, A.,(2021) I spoke to women from all political parties. What shocked me was the one common experience most of them had,July 19), Sydney, NSW, ABC News; Crenshaw, K.,Mapping the margins: intersectionality, identity politics, and violence against women of color,(1991) Stanford Law Review, 43 (6), pp. 1241-1299. Cited 11861 times.; Cuadra, A.,Protesta Social en Chile, 2019-2020: fracaso de un modelo económico,(2020) Textos y Contextos (segunda época), 20, pp. 37-50. Cited 5 times.; Cubillos Vega, C.,Chile desperto,(2020) Cuadernos de Trabajo Social, 33 (2), pp. 433-436.; Cuchumbé Holguín, N.,Apertura constitucional de 1991, diversidad étnica y cultural y ordenamiento político: aproximación filosófica política,(2012) Universitas Humanística, 70 (74), pp. 57-74. Cited 2 times.; Daniels, J.P.,(2021) The pandemic's legacy will spur new protests in Latin America,Foreign Policy; Dasandi, N., Esteve, M.,The Politics–Bureaucracy Interface in Developing Countries (Open Access),; Dhungana, S.,Influence of Smriti texts to women leadership development in cooperatives,(2021) AMC Journal, 2 (1), pp. 89-108.; Durango Álvarez, G.,Las acciones afirmativas como mecanismos reivindicadores de la paridad de género en la participación política inclusiva: Ecuador, Bolivia, Costa Rica y Colombia,(2016) Revista de Derecho, 45, pp. 137-168. Cited 4 times.; Eagan, J.,Who are we dealing with? Re-visioning citizen subject from a feminist perspective,(2006) Administrative Theory &amp; Praxis., 28 (3), pp. 381-398. Cited 3 times.; Farrant, A., Mcphail, E., Berger, S.,Preventing the "Abuses" of Democracy: Hayek, the "Military Usurper" and Transitional Dictatorship in Chile? (Open Access),; Farrell, C., Hatcher, W., Diamond, J.,Reflecting on over 100 years of public administration education,; Gaynor, T.S.,Social Construction and the Criminalization of Identity: State-Sanctioned Oppression and an Unethical Administration,; (2021) Report,https://www.womenleadersindex.com/report/,  43; Gooden, S.T.,The politics of ready, aim…study more: implementing the “fire” in race and public policy research,(2008) The Journal of Race &amp; Policy, 4 (1), pp. 7-21. Cited 4 times.; Gooden, S.T.,(2014) Race and social equity: a nervous area of government. Cited 135 times.,Armonk, NY, M.E. Sharpe; Gooden, S.T.,(2020) Global equity in administration: nervous areas of government. Cited 3 times.,(Ed.). (, New York, Routledge; Gutiérrez Quevedo, M.,(2005) Derecho fundamental a la vida y multiculturalismo,Bogotá, Colombia Universidad Externado de Colombia; Guy, M.E., McCandless, S.A.,Social equity: Its legacy, its promise,; Guy, M.E., Newman, M.A.,Women's jobs, men's jobs: Sex segregation and emotional labor,; Hamad, R.,(2020) White tears/brown scars: how white feminism betrays women of color. Cited 34 times.,New York, NY, Catapult Press; Haque, M.S.,Citizen participation in governance through representation: Issue of gender in East Asia,; Haque, S.T.M.,Theories of governance: South Asian perspective,; Heurich, A., Coghlan, J.,The Canberra bubble: a toxic gender culture,(2021) M/C Journal, 24 (1).; Hourcade, S., Ghelfi, F., Palmás Zaldua, L., Perelman, M.,(2018) Comisiones de la Verdad de Chile: Verdad y reparaciones como política de estado. Cited 3 times.,&amp;, Bergen, Norway, Centro de Estudios Legales y Sociales (CELS); Ingram, H., Schneider, A.L., deLeon, P.,Social Construction and Policy Design,; (2019) Informe anual: Sobre la situación de los derechos humanos en Chile en el contexto de la crisis social. Cited 8 times.,Santiago, Chile,https://www.indh.cl/informe-de-ddhh-en-el-contexto-de-la-crisis-social/; Jenkins, K.,(2021) Launch of set the standard Report,https://humanrights.gov.au/about/news/speeches/launch-set-standard; Johansen, M.,(2019) Social equity in the Asia-Pacific region. Cited 7 times.,(Ed.). (, Cham, Palgrave Macmillan; Johnson, N.J., Svara, J.H.,Introduction,; Kabir, S.L.,Key Issues in Women's Representation in Bureaucracy: Lessons from South Asia,; Kang, W.C., Sheppard, J., Snagovsky, F., Biddle, N.,Candidate sex, partisanship and electoral context in Australia,; Kanter, R.M.,Women and the Structure of Organizations: Explorations in Theory and Behavior,; Kanter, R.M.,(1977) Men and women of the corporation. Cited 7824 times.,New York, Basic Books; Kayess, R., Sands, T., Fisher, K.R.,International power and local action - implications for the intersectionality of the rights of women with disability,; Kim, S.,Social equity and public sector employment in the Republic of Korea,(2019) Social equity in the Asia-Pacific region, pp. 177-186.; Kulich, C., Ryan, M.K.,The glass cliff,(2017) Oxford research encyclopedia of business and management. Cited 11 times.; Kuskoff, E.,From aims to actions: A critical analysis of government intervention in cultural drivers of domestic and family violence,; Laurent, M.,(2018) Multiculturalismo en Colombia: Veinticinco Años de Experiencia. Universidad de los Andes. Centro Mundial por el Pluralismo. Reflexiones sobre el cambio en sociedades plurales,  69; León, M., Holguín, J.,La Acción Afirmativa en la Universidad de los Andes: El Caso del Programa “Oportunidades para Talentos Nacionales”,(2004) Revista de Estudios Sociales, 19, pp. 57-60. Cited 5 times.; Liaw, H.,Women's land rights in rural China: transforming existing laws into a source of property rights,(2008) Pacific Rim Law &amp; Policy Journal, 17, pp. 237-264. Cited 14 times.; Littleton, C., Star, C., Fisher, M., Ward, P.R.,Policy actors' perceptions on applying a SDH approach in child health policy in Australia: A cross-disciplinary approach (public health and political science),; Martinez i Coma, F., McDonnell, D.,Australian parties, not voters, drive under-representation of women,(2021) Parliamentary Affairs, pp. 1-18. Cited 3 times.; Mato, D.,Educación Superior y pueblos indígenas y afrodescendientes en América Latina,(2017) Educación Superior y Sociedad (ESS) Nueva etapa Colección 25.° Aniversario, 20.; Mayol, A.,Protestas y Disrupción Política y Social en Chile 2019: Crisis de Legitimidad del Modelo Neoliberal y Posible Salida Política por Acuerdo de Cambio Constitucional,(2020) Asian Journal of Latin American Studies, 33 (2), pp. 85-98. Cited 3 times.; McSherry, J.P.,(2005) Predatory states: operation condor and covert war in Latin America. Cited 175 times.,Lanham, Maryland, Rowman &amp; Littlefield Publishers, Inc; McSherry, J.P.,Explaining the 2019 social rebellion in Chile,(2019) New Politics; Meier, K.J., Mastracci, S.H., Wilson, K.,Gender and emotional labor in public organizations: An empirical examination of the link to performance,; Moodley, L., Kuyoro, M., Holt, T., Leke, A., Madgavkar, A., Krishnan, M., Akintayo, F.,(2019) The power of parity: Advancing women’s equality in Africa. Cited 16 times.,New York, NY, The MicKinsey Global Institute; Moon, M.J., Hwang, C.,The State of Civil Service Systems in the Asia-Pacific Region: A Comparative Perspective,</t>
+          <t>Agamben, G.,(1998) Homo sacer: sovereign power and bare life. Cited 10441 times.,(D. Heller-Roazen, Trans, Stanford, CA, Stanford University Press, (Original work published 1995); Agamben, G.,(2005) State of exception (K. Attell, trans.). Cited 5237 times.,Chicago, IL, The University of Chicago Press, (Original work published 2003); Ahlberg, B.M., Hamed, S., Thapar-Björkert, S., Bradby, H.,Invisibility of Racism in the Global Neoliberal Era: Implications for Researching Racism in Healthcare,; Ahmed, N.,(2018) Women in governing institutions in South Asia: parliament, Civil Service and Local Government. Cited 4 times.,(Ed.). (, Cham, Switzerland, Palgrave Macmillan; Ahmed, N.A., Jahan, F.,Balancing work and family: Women in Bangladesh civil service,; Alesina, A., Devleeschauwer, A., Easterly, W., Kurlat, S., Wacziarg, R.,Fractionalization,; Alkadry, M.G., Blessett, B.,Aloofness or dirty hands? Administrative culpability in the making of the second ghetto,(2010) Administrative Theory and Praxis, 32 (4), pp. 532-556. Cited 32 times.; Althaus, C.,Different paradigms of evidence and knowledge: Recognising, honouring, and celebrating Indigenous ways of knowing and being,; (2021) Chile: responsabilidad penal por omisión de los mandos con ocasión de los crímenes cometidos durante el estallido social,London, UK, Amnesty International,https://www.amnesty.org/es/documents/amr22/4851/2021/es/; An, S.-H., Song, M., Meier, K.J.,Representative bureaucracy and the policy environment: Gender representation in Forty-Four countries,; Ansari, N.G.,Women in Pakistan Civil service,; (2021) Set the standard: report on the independent review into commonwealth parliamentary workplaces. Cited 4 times.,Canberra, Australian Human Rights Commission,https://humanrights.gov.au/sites/default/files/document/publication/ahrc_set_the_standard_2021.pdf; Ávila, M.C.,Estado de excepción y campos de concentración en Chile. Una aproximación biopolítica,(2013) Sociedad Hoy, 25, pp. 65-78. Cited 3 times.; Balfour, D.L., Adams, G.B., Nickels, A.E.,(2020) Unmasking administrative evil. Cited 332 times.,&amp;, 5th edition, New York, NY, Routledge; Bhagat, R.B.,Migration, gender and right to the city: The Indian context,; Bhattacharya, M.,(2011) New horizons of public administration. Cited 4 times.,New Delhi, Delhi, Jawahar Publishers &amp; Distributors; Blessett, B.,Rethinking the administrative state through an intersectional framework,(2018) Administrative Theory &amp; Praxis, 41 (1), pp. 1-5.; Blessett, B., Dodge, J., Edmond, B., Goerdel, H.T., Gooden, S.T., Headley, A.M., Riccucci, N.M., (...), Williams, B.N.,Social Equity in Public Administration: A Call to Action,; Blundo, G., Olivier de Sardan, J.P.,Everyday corruption in West Africa,(2006) Everyday corruption and the state: Citizens &amp; public officials in Africa, pp. 69-109. Cited 33 times.; Bonilla-Silva, E.,(2001) White supremacy &amp; racism in the post-civil rights era. Cited 812 times.,Boulder, CO, Lynne Reinner; Bonnefoy, P.,(2019) Mounting evidence of abuse by Chile's police leads to calls for reform. Cited 3 times.,Dec. 13), New York The New York Times; Carey, G., Dickinson, H., Cox, E.M.,Feminism, Gender, and Power Relations in Policy – Starting a New Conversation,; Choi, S., Park, C.-O.,Glass ceiling in Korean civil service: Analyzing barriers to women's career advancement in the Korean government,; Christian, M.,A Global Critical Race and Racism Framework: Racial Entanglements and Deep and Malleable Whiteness,; Colley, L., Williamson, S., Foley, M.,Understanding, ownership, or resistance: Explaining persistent gender inequality in public services,; Collins, P.H.,(2002) Black feminist thought: knowledge, consciousness, and the politics of empowerment. Cited 14612 times.,New York, NY, Routledge; Cooke, F.L.,Women's participation in employment in Asia: A comparative analysis of China, India, Japan and South Korea,; Cotrina Gulfo, Y.,Diversidad sexual en la historia jurídica colombiana (Sexual diversity in the Colombian legal history). Pensamiento Jurídico, No. 47, ISSN 0122-1108,(2017) ENERO-JUNIO, BOGOTÁ, 2018, pp. 149-165.; Crabb, A.,(2021) I spoke to women from all political parties. What shocked me was the one common experience most of them had,July 19), Sydney, NSW, ABC News; Crenshaw, K.,Mapping the margins: intersectionality, identity politics, and violence against women of color,(1991) Stanford Law Review, 43 (6), pp. 1241-1299. Cited 11979 times.; Cuadra, A.,Protesta Social en Chile, 2019-2020: fracaso de un modelo económico,(2020) Textos y Contextos (segunda época), 20, pp. 37-50. Cited 5 times.; Cubillos Vega, C.,Chile desperto,(2020) Cuadernos de Trabajo Social, 33 (2), pp. 433-436.; Cuchumbé Holguín, N.,Apertura constitucional de 1991, diversidad étnica y cultural y ordenamiento político: aproximación filosófica política,(2012) Universitas Humanística, 70 (74), pp. 57-74. Cited 2 times.; Daniels, J.P.,(2021) The pandemic's legacy will spur new protests in Latin America,Foreign Policy; Dasandi, N., Esteve, M.,The Politics–Bureaucracy Interface in Developing Countries,; Dhungana, S.,Influence of Smriti texts to women leadership development in cooperatives,(2021) AMC Journal, 2 (1), pp. 89-108.; Durango Álvarez, G.,Las acciones afirmativas como mecanismos reivindicadores de la paridad de género en la participación política inclusiva: Ecuador, Bolivia, Costa Rica y Colombia,(2016) Revista de Derecho, 45, pp. 137-168. Cited 4 times.; Eagan, J.,Who are we dealing with? Re-visioning citizen subject from a feminist perspective,(2006) Administrative Theory &amp; Praxis., 28 (3), pp. 381-398. Cited 3 times.; Farrant, A., Mcphail, E., Berger, S.,Preventing the "Abuses" of Democracy: Hayek, the "Military Usurper" and Transitional Dictatorship in Chile?,; Farrell, C., Hatcher, W., Diamond, J.,Reflecting on over 100 years of public administration education,; Gaynor, T.S.,Social Construction and the Criminalization of Identity: State-Sanctioned Oppression and an Unethical Administration,; (2021) Report,https://www.womenleadersindex.com/report/,  43; Gooden, S.T.,The politics of ready, aim…study more: implementing the “fire” in race and public policy research,(2008) The Journal of Race &amp; Policy, 4 (1), pp. 7-21. Cited 4 times.; Gooden, S.T.,(2014) Race and social equity: a nervous area of government. Cited 135 times.,Armonk, NY, M.E. Sharpe; Gooden, S.T.,(2020) Global equity in administration: nervous areas of government. Cited 3 times.,(Ed.). (, New York, Routledge; Gutiérrez Quevedo, M.,(2005) Derecho fundamental a la vida y multiculturalismo,Bogotá, Colombia Universidad Externado de Colombia; Guy, M.E., McCandless, S.A.,Social equity: Its legacy, its promise,; Guy, M.E., Newman, M.A.,Women's jobs, men's jobs: Sex segregation and emotional labor,; Hamad, R.,(2020) White tears/brown scars: how white feminism betrays women of color. Cited 36 times.,New York, NY, Catapult Press; Haque, M.S.,Citizen participation in governance through representation: Issue of gender in East Asia,; Haque, S.T.M.,Theories of governance: South Asian perspective,; Heurich, A., Coghlan, J.,The Canberra bubble: a toxic gender culture,(2021) M/C Journal, 24 (1).; Hourcade, S., Ghelfi, F., Palmás Zaldua, L., Perelman, M.,(2018) Comisiones de la Verdad de Chile: Verdad y reparaciones como política de estado. Cited 3 times.,&amp;, Bergen, Norway, Centro de Estudios Legales y Sociales (CELS); Ingram, H., Schneider, A.L., deLeon, P.,Social Construction and Policy Design,; (2019) Informe anual: Sobre la situación de los derechos humanos en Chile en el contexto de la crisis social. Cited 8 times.,Santiago, Chile,https://www.indh.cl/informe-de-ddhh-en-el-contexto-de-la-crisis-social/; Jenkins, K.,(2021) Launch of set the standard Report,https://humanrights.gov.au/about/news/speeches/launch-set-standard; Johansen, M.,(2019) Social equity in the Asia-Pacific region. Cited 7 times.,(Ed.). (, Cham, Palgrave Macmillan; Johnson, N.J., Svara, J.H.,Introduction,; Kabir, S.L.,Key Issues in Women's Representation in Bureaucracy: Lessons from South Asia,; Kang, W.C., Sheppard, J., Snagovsky, F., Biddle, N.,Candidate sex, partisanship and electoral context in Australia,; Kanter, R.M.,Women and the Structure of Organizations: Explorations in Theory and Behavior,; Kanter, R.M.,(1977) Men and women of the corporation. Cited 7833 times.,New York, Basic Books; Kayess, R., Sands, T., Fisher, K.R.,International power and local action - implications for the intersectionality of the rights of women with disability,; Kim, S.,Social equity and public sector employment in the Republic of Korea,(2019) Social equity in the Asia-Pacific region, pp. 177-186.; Kulich, C., Ryan, M.K.,The glass cliff,(2017) Oxford research encyclopedia of business and management. Cited 11 times.; Kuskoff, E.,From aims to actions: A critical analysis of government intervention in cultural drivers of domestic and family violence,; Laurent, M.,(2018) Multiculturalismo en Colombia: Veinticinco Años de Experiencia. Universidad de los Andes. Centro Mundial por el Pluralismo. Reflexiones sobre el cambio en sociedades plurales,  69; León, M., Holguín, J.,La Acción Afirmativa en la Universidad de los Andes: El Caso del Programa “Oportunidades para Talentos Nacionales”,(2004) Revista de Estudios Sociales, 19, pp. 57-60. Cited 5 times.; Liaw, H.,Women's land rights in rural China: transforming existing laws into a source of property rights,(2008) Pacific Rim Law &amp; Policy Journal, 17, pp. 237-264. Cited 14 times.; Littleton, C., Star, C., Fisher, M., Ward, P.R.,Policy actors' perceptions on applying a SDH approach in child health policy in Australia: A cross-disciplinary approach (public health and political science),; Martinez i Coma, F., McDonnell, D.,Australian parties, not voters, drive under-representation of women,(2021) Parliamentary Affairs, pp. 1-18. Cited 3 times.; Mato, D.,Educación Superior y pueblos indígenas y afrodescendientes en América Latina,(2017) Educación Superior y Sociedad (ESS) Nueva etapa Colección 25.° Aniversario, 20.; Mayol, A.,Protestas y Disrupción Política y Social en Chile 2019: Crisis de Legitimidad del Modelo Neoliberal y Posible Salida Política por Acuerdo de Cambio Constitucional,(2020) Asian Journal of Latin American Studies, 33 (2), pp. 85-98. Cited 3 times.; McSherry, J.P.,(2005) Predatory states: operation condor and covert war in Latin America. Cited 175 times.,Lanham, Maryland, Rowman &amp; Littlefield Publishers, Inc; McSherry, J.P.,Explaining the 2019 social rebellion in Chile,(2019) New Politics; Meier, K.J., Mastracci, S.H., Wilson, K.,Gender and emotional labor in public organizations: An empirical examination of the link to performance,; Moodley, L., Kuyoro, M., Holt, T., Leke, A., Madgavkar, A., Krishnan, M., Akintayo, F.,(2019) The power of parity: Advancing women’s equality in Africa. Cited 18 times.,New York, NY, The MicKinsey Global Institute; Moon, M.J., Hwang, C.,The State of Civil Service Systems in the Asia-Pacific Region: A Comparative Perspective,</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2182,11 +2077,6 @@
       <c r="O22" t="inlineStr">
         <is>
           <t>10.1111/padm.12830</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>Varios Paises</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2121,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Agranoff, R.,(2012) Collaborating to manage: a primer for the public sector. Cited 124 times.,Washington, DC, Georgetown University Press; Aldrich, D.P.,IT'S WHO YOU KNOW: FACTORS DRIVING RECOVERY FROM JAPAN'S 11 MARCH 2011 DISASTER,; Andrews, R., Johnston Miller, K.,Representative bureaucracy, gender, and policing: The case of domestic violence arrests in England (Open Access),; Baekkeskov, E.,SAME THREAT, DIFFERENT RESPONSES: EXPERTS STEERING POLITICIANS AND STAKEHOLDERS IN 2009 H1N1 VACCINATION POLICY-MAKING (Open Access),; Bartlett, C.A., Ghoshal, S.,(1989) Managing across borders: the transnational solution. Cited 4711 times.,&amp;, Boston, MA, Harvard Business School Press; Boin, A., Lodge, M.,DESIGNING RESILIENT INSTITUTIONS FOR TRANSBOUNDARY CRISIS MANAGEMENT: A TIME FOR PUBLIC ADMINISTRATION (Open Access),; Bozeman, B.,Public values and public interest: Counterbalancing economic individualism,; Braun, V., Clarke, V.,One size fits all? What counts as quality practice in (reflexive) thematic analysis?,; Brown, P.R., Head, B.W.,Navigating tensions in co-production: A missing link in leadership for public value,; Candler, G.G., Azevêdo, A., Albernaz, R.O.,Towards global scholarship in public affairs,; Caporaso, J.A.,Across the Great Divide: Integrating Comparative and International Politics (Open Access),; Cavusgil, S.T., Knight, G., Riesenberger, J.R.,(2020) International business: the new realities, global edition. Cited 176 times.,&amp;, 5th edition, Boston, Pearson Education; Chapman, R.A.,The demise of the Royal Institute of Public Administration (UK),(1992) Australian Journal of Public Administration, 51 (4), pp. 519-520. Cited 2 times.; Collyer, F.M.,Global patterns in the publishing of academic knowledge: Global North, global South,; Cooper, T.L.,(2006) The responsible administrator: an approach to ethics for the administrative role. Cited 398 times.,San Francisco, CA, Jossey-Bass; Dados, N., Connell, R.,The Global South,(2012) Contexts, 11 (1), pp. 12-13. Cited 272 times.; Doelle, M., Henschel, C., Smith, J., Tollefson, C., Wellstead, A.,New governance arrangements at the intersection of climate change and forest policy: Institutional, political and regulatory dimensions,; Elcock, H.,Public Administration: Why Are We in the Mess We're In?,; Finer, H.,Administrative responsibility in democratic government,(1941) Public Administration Review, 1 (4), pp. 335-350. Cited 412 times.; Finkelstein, L.S.,What is global governance?,(1995) Global Governance, 1 (3), pp. 367-372. Cited 244 times.; Friedrich, C.J.,Public policy and the nature of administrative responsibility,(1940) Public policy, pp. 3-24. Cited 424 times.; Fry, G.K.,More than 'counting manhole covers': The evolution of the British tradition of public administration,; Galaz, V., Moberg, F., Olsson, E.-K., Paglia, E., Parker, C.,Institutional and political leadership dimensions of cascading ecological crises,; Gilad, S., Dahan, M.,Representative bureaucracy and impartial policing,; Gorris, P., Glaser, M., Idrus, R., Yusuf, A.,The role of social structure for governing natural resources in decentralized political systems: Insights from governing a fishery in Indonesia,; Grieco, J., Ikenberry, G.J., Mastanduno, M.,(2015) Introduction to international relations: enduring questions and contemporary perspectives. Cited 15 times.,&amp;, London, Palgrave; Heclo, H.,Issue networks and the executive establishment,(1978) The new American political system, pp. 87-124. Cited 1236 times.; Jackson, R., Sørensen, G., Møller, J.,(2019) Introduction to international relations: theories and approaches. Cited 392 times.,&amp;, 7th edition, Oxford, Oxford University Press; Jilke, S.,Choice and equality: Are vulnerable citizens worse off after liberalization reforms? (Open Access),; Jordan, A., Wurzel, R., Zito, A.R., Brückner, L.,European governance and the transfer of 'New' Environmental Policy Instruments (NEPIs) in the European Union,; Beck Jørgensen, T.,The public sector in an in-between time: Searching for new public values,; Jørgensen, T.B., Bozeman, B.,Public values: An inventory,; Kapucu, N.,Public-nonprofit partnerships for collective action in dynamic contexts of emergencies,; Kelly, G., Mulgan, G., Muers, S.,(2002) Creating public value: an analytical framework for public service reform. Cited 432 times.,&amp;, London, UK Cabinet Office; Keohane, R.O., Victor, D.G.,The regime complex for climate change,; Kerley, R., Liddle, J., Dunning, P.T.,The routledge handbook of international local government (Open Access),; Kjær, A.A.,Choice and vulnerability in aging societies: Understanding the impact of age on user capacity,; LEE, J.M.,Editorial: Public Administration and Official History,; Li, M., Walker, R.,Need, justice and central–local relations: The case of social assistance in China (Open Access),; Li, Y., Koppenjan, J., Verweij, S.,GOVERNING ENVIRONMENTAL CONFLICTS IN CHINA: UNDER WHAT CONDITIONS DO LOCAL GOVERNMENTS COMPROMISE? (Open Access),; Marks, M.,Looking different, acting different: Struggles for equality within the south african police service,; McDonald, B.D.,A new era for Public Administration,; Meyer-Sahling, J., Mikkelsen, K.S., Schuster, C.,Merit recruitment, tenure protections and public service motivation: Evidence from a conjoint experiment with 7,300 public servants in Latin America, Africa and Eastern Europe (Open Access),; Moore, M.H.,(1995) Creating public value: strategic management in government. Cited 2656 times.,Cambridge, MA, Harvard University Press; NOTTAGE, R.,The Royal Institute of Public Administration 1939–1972,; NOTTAGE, R., STACK, F.,The Royal Institute of Public Administration 1922–1939,; Ostrom, E.,Governing the commons: the evolution of institutions for collective action,; Peeters, R., Gofen, A., Meza, O.,Gaming the system: Responses to dissatisfaction with public services beyond exit and voice,; Peng, M.W., Meyer, K.,(2013) International business. Cited 57 times.,&amp;, 2nd edition, London, Cengage Learning; Rhodes, R.A.W.,Policy Networks: A British Perspective,; Rhodes, R.A.W.,From Institutions to Dogma: Tradition, Eclecticism, and Ideology in the Study of British Public Administration,; Rhodes, R.A.W.,Editorial,(1999) Public Administration, 77 (1), pp. 1-6.; Rhodes, R.,Editorial,; Rhodes, R.A.W.,Editorial 2009,; Rhodes, R.A.W.,A long and winding road: 25 years as editor (Open Access),; RHODES, R.A.W., DARGIE, C., MELVILLE, A., TUTT, B.,THE STATE OF PUBLIC ADMINISTRATION: A PROFESSIONAL HISTORY, 1970–1995,; Ritz, A., Alfes, K.,Multicultural public administration: Effects of language diversity and dissimilarity on public employees' attachment to employment,; Rohr, J.A.,(1978) Ethics for bureaucrats: an essay on law and values. Cited 400 times.,New York, Marcel Dekker; SHELLEY, I.,WHAT HAPPENED TO THE RIPA?,; Stazyk, E.C., Davis, R.S., Portillo, S.,More dissimilar than alike? Public values preferences across US minority and white managers,; Stone, D.,Recycling bins, garbage cans or think tanks? Three myths regarding policy analysis institutes (Open Access),; Stone, D., Ladi, S.,Global public policy and transnational administration (Open Access),; TAYLOR, A.J.,ISSUE NETWORKS AND THE RESTRUCTURING OF THE BRITISH AND WEST GERMAN COAL INDUSTRIES IN THE 1980s,; Walker, R.M., Berry, F.S., Avellaneda, C.N.,Limits on innovativeness in local government: Examining capacity, complexity, and dynamism in organizational task environments,; Weale, A., Pridham, G., Williams, A., Porter, M.,Environmental administration in six European states: Secular convergence or national distinctiveness?,; Ysa, T., Sierra, V., Esteve, M.,Determinants of network outcomes: The impact of management strategies (Open Access),</t>
+          <t>Agranoff, R.,(2012) Collaborating to manage: a primer for the public sector. Cited 124 times.,Washington, DC, Georgetown University Press; Aldrich, D.P.,IT'S WHO YOU KNOW: FACTORS DRIVING RECOVERY FROM JAPAN'S 11 MARCH 2011 DISASTER,; Andrews, R., Johnston Miller, K.,Representative bureaucracy, gender, and policing: The case of domestic violence arrests in England,; Baekkeskov, E.,SAME THREAT, DIFFERENT RESPONSES: EXPERTS STEERING POLITICIANS AND STAKEHOLDERS IN 2009 H1N1 VACCINATION POLICY-MAKING,; Bartlett, C.A., Ghoshal, S.,(1989) Managing across borders: the transnational solution. Cited 4709 times.,&amp;, Boston, MA, Harvard Business School Press; Boin, A., Lodge, M.,DESIGNING RESILIENT INSTITUTIONS FOR TRANSBOUNDARY CRISIS MANAGEMENT: A TIME FOR PUBLIC ADMINISTRATION,; Bozeman, B.,Public values and public interest: Counterbalancing economic individualism,; Braun, V., Clarke, V.,One size fits all? What counts as quality practice in (reflexive) thematic analysis?,; Brown, P.R., Head, B.W.,Navigating tensions in co-production: A missing link in leadership for public value,; Candler, G.G., Azevêdo, A., Albernaz, R.O.,Towards global scholarship in public affairs,; Caporaso, J.A.,Across the Great Divide: Integrating Comparative and International Politics,; Cavusgil, S.T., Knight, G., Riesenberger, J.R.,(2020) International business: the new realities, global edition. Cited 177 times.,&amp;, 5th edition, Boston, Pearson Education; Chapman, R.A.,The demise of the Royal Institute of Public Administration (UK),(1992) Australian Journal of Public Administration, 51 (4), pp. 519-520. Cited 2 times.; Collyer, F.M.,Global patterns in the publishing of academic knowledge: Global North, global South,; Cooper, T.L.,(2006) The responsible administrator: an approach to ethics for the administrative role. Cited 399 times.,San Francisco, CA, Jossey-Bass; Dados, N., Connell, R.,The Global South,(2012) Contexts, 11 (1), pp. 12-13. Cited 273 times.; Doelle, M., Henschel, C., Smith, J., Tollefson, C., Wellstead, A.,New governance arrangements at the intersection of climate change and forest policy: Institutional, political and regulatory dimensions,; Elcock, H.,Public Administration: Why Are We in the Mess We're In?,; Finer, H.,Administrative responsibility in democratic government,(1941) Public Administration Review, 1 (4), pp. 335-350. Cited 412 times.; Finkelstein, L.S.,What is global governance?,(1995) Global Governance, 1 (3), pp. 367-372. Cited 245 times.; Friedrich, C.J.,Public policy and the nature of administrative responsibility,(1940) Public policy, pp. 3-24. Cited 424 times.; Fry, G.K.,More than 'counting manhole covers': The evolution of the British tradition of public administration,; Galaz, V., Moberg, F., Olsson, E.-K., Paglia, E., Parker, C.,Institutional and political leadership dimensions of cascading ecological crises,; Gilad, S., Dahan, M.,Representative bureaucracy and impartial policing,; Gorris, P., Glaser, M., Idrus, R., Yusuf, A.,The role of social structure for governing natural resources in decentralized political systems: Insights from governing a fishery in Indonesia (Open Access),; Grieco, J., Ikenberry, G.J., Mastanduno, M.,(2015) Introduction to international relations: enduring questions and contemporary perspectives. Cited 15 times.,&amp;, London, Palgrave; Heclo, H.,Issue networks and the executive establishment,(1978) The new American political system, pp. 87-124. Cited 1237 times.; Jackson, R., Sørensen, G., Møller, J.,(2019) Introduction to international relations: theories and approaches. Cited 394 times.,&amp;, 7th edition, Oxford, Oxford University Press; Jilke, S.,Choice and equality: Are vulnerable citizens worse off after liberalization reforms? (Open Access),; Jordan, A., Wurzel, R., Zito, A.R., Brückner, L.,European governance and the transfer of 'New' Environmental Policy Instruments (NEPIs) in the European Union,; Beck Jørgensen, T.,The public sector in an in-between time: Searching for new public values (Open Access),; Jørgensen, T.B., Bozeman, B.,Public values: An inventory (Open Access),; Kapucu, N.,Public-nonprofit partnerships for collective action in dynamic contexts of emergencies,; Kelly, G., Mulgan, G., Muers, S.,(2002) Creating public value: an analytical framework for public service reform. Cited 432 times.,&amp;, London, UK Cabinet Office; Keohane, R.O., Victor, D.G.,The regime complex for climate change,; Kerley, R., Liddle, J., Dunning, P.T.,The routledge handbook of international local government,; Kjær, A.A.,Choice and vulnerability in aging societies: Understanding the impact of age on user capacity,; LEE, J.M.,Editorial: Public Administration and Official History,; Li, M., Walker, R.,Need, justice and central–local relations: The case of social assistance in China (Open Access),; Li, Y., Koppenjan, J., Verweij, S.,GOVERNING ENVIRONMENTAL CONFLICTS IN CHINA: UNDER WHAT CONDITIONS DO LOCAL GOVERNMENTS COMPROMISE? (Open Access),; Marks, M.,Looking different, acting different: Struggles for equality within the south african police service (Open Access),; McDonald, B.D.,A new era for Public Administration,; Meyer-Sahling, J., Mikkelsen, K.S., Schuster, C.,Merit recruitment, tenure protections and public service motivation: Evidence from a conjoint experiment with 7,300 public servants in Latin America, Africa and Eastern Europe,; Moore, M.H.,(1995) Creating public value: strategic management in government. Cited 2661 times.,Cambridge, MA, Harvard University Press; NOTTAGE, R.,The Royal Institute of Public Administration 1939–1972,; NOTTAGE, R., STACK, F.,The Royal Institute of Public Administration 1922–1939 (Open Access),; Ostrom, E.,Governing the commons: the evolution of institutions for collective action,; Peeters, R., Gofen, A., Meza, O.,Gaming the system: Responses to dissatisfaction with public services beyond exit and voice (Open Access),; Peng, M.W., Meyer, K.,(2013) International business. Cited 57 times.,&amp;, 2nd edition, London, Cengage Learning; Rhodes, R.A.W.,Policy Networks: A British Perspective,; Rhodes, R.A.W.,From Institutions to Dogma: Tradition, Eclecticism, and Ideology in the Study of British Public Administration,; Rhodes, R.A.W.,Editorial,(1999) Public Administration, 77 (1), pp. 1-6.; Rhodes, R.,Editorial (Open Access),; Rhodes, R.A.W.,Editorial 2009,; Rhodes, R.A.W.,A long and winding road: 25 years as editor,; RHODES, R.A.W., DARGIE, C., MELVILLE, A., TUTT, B.,THE STATE OF PUBLIC ADMINISTRATION: A PROFESSIONAL HISTORY, 1970–1995,; Ritz, A., Alfes, K.,Multicultural public administration: Effects of language diversity and dissimilarity on public employees' attachment to employment,; Rohr, J.A.,(1978) Ethics for bureaucrats: an essay on law and values. Cited 400 times.,New York, Marcel Dekker; SHELLEY, I.,WHAT HAPPENED TO THE RIPA?,; Stazyk, E.C., Davis, R.S., Portillo, S.,More dissimilar than alike? Public values preferences across US minority and white managers,; Stone, D.,Recycling bins, garbage cans or think tanks? Three myths regarding policy analysis institutes,; Stone, D., Ladi, S.,Global public policy and transnational administration,; TAYLOR, A.J.,ISSUE NETWORKS AND THE RESTRUCTURING OF THE BRITISH AND WEST GERMAN COAL INDUSTRIES IN THE 1980s (Open Access),; Walker, R.M., Berry, F.S., Avellaneda, C.N.,Limits on innovativeness in local government: Examining capacity, complexity, and dynamism in organizational task environments (Open Access),; Weale, A., Pridham, G., Williams, A., Porter, M.,Environmental administration in six European states: Secular convergence or national distinctiveness? (Open Access),; Ysa, T., Sierra, V., Esteve, M.,Determinants of network outcomes: The impact of management strategies,</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2262,11 +2152,6 @@
       <c r="O23" t="inlineStr">
         <is>
           <t>10.1111/padm.12822</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>Varios Paises</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2196,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Aragón Reyes, M.,The future of constitucional justice (Open Access),; Corte, CE.,(2019) Caso No. 0011-13-CN (matrimonio igualitario),Sentencia 11-18-CN/19. 12 de junio de; Corte, CE.,(2013) Caso No. 0046-11-CN,Sentenci 003-13-SCN-CC. 28 de febrero de; Corte, CE.,(2013) Caso No. 0535-12-CN,Sentenci 001-13-SCN-CC. 8 de febrero de; Corte, CE.,(2013) Caso No. 0561-12-CN,Sentenci 034-13-SCN-CC. 26 de junio; Corte, ID.,Caso Gelman Vs. Uruguay, Excepciones Preliminares, Fondo, Reparaciones y Costas,Sentencia 24 de febrero de 2011. Serie 221; Corte, IDH.,(2006) Caso Almonacid Arellano y otros Vs. Chile. Excepciones Preliminares, Fondo, Reparaciones y Costas, p. 124. Cited 51 times.,Sentencia de 26 de septiembre de Serie 154, párr; Corte, IDH.,(2012) Caso Gudiel Álvarez Y Otros (“DIARIO MILITAR”) Vs. Guatemala. Excepciones Preliminares, Fondo, Reparaciones y Costas,Sentencia de 20 de noviembre de; Corte, IDH.,(2013) Caso Osorio Rivera y Familiares Vs. Perú. Excepciones Preliminares, Fondo, Reparaciones y Costas. Cited 32 times.,Sentencia de 26 de noviembre de; Dominique, C. M.,¿Es posible el control de convencionalidad en la Administración pública?,(2021) Derecho Administrativo. Revista de doctrina, jurisprudencia y legislación práctica, p. 267.; Silva, G.D.,From constitutional control to conventional control: First legal steps towards the consolidation of global governance institutions (Open Access),; (2009) Constitución de la Republica del Ecuador. Cited 5 times.,Registro Oficial 449,https://www.cec-epn.edu.ec/wp-content/uploads/2016/03/Constitucion.pdf; García Ramírez, S.,El Control de Convencionalidad: Construcciones y dilemas,(2013) Treinta años de jurisdicción constitucional en el Perú; Hitters, J. C.,(2021) El Control de convencionalidad en el sistema interamericano efectos, obligatoriedad, Constitución y Derechos,Instituto de Estudios Constitucionales del Estado de Querétaro México; Intriago Ceballos, A. T.,(2016) El control constitucional en Ecuador,Universidad Andina Simón Bolívar; Quintana, K. I.,(2017) El Control de convencionalidad: Un estudio del derecho interamericano de los derechos humanos y del derecho mexicano. Cited 2 times.,Universidad Autónoma de México, Programa de Pos Grado en Derecho, Instituto de Investigaciones Jurídicas; Sagües, N. P.,Control de constitucionalidad y control de convencionalidad: a propósito de la “onstitución convencionalizada.Parlamento y Constitusión,(2011) Anuario, 14, pp. 143-152. Cited 2 times.; Sammartino, P. M.,(2003) Principios constitucionales del amparo administrativo. El contencioso constitucional administrativo urgente,Editorial Lexis Nexis Abeledo Perrot</t>
+          <t>Aragón Reyes, M.,The future of constitucional justice,; Corte, CE.,(2019) Caso No. 0011-13-CN (matrimonio igualitario),Sentencia 11-18-CN/19. 12 de junio de; Corte, CE.,(2013) Caso No. 0046-11-CN,Sentenci 003-13-SCN-CC. 28 de febrero de; Corte, CE.,(2013) Caso No. 0535-12-CN,Sentenci 001-13-SCN-CC. 8 de febrero de; Corte, CE.,(2013) Caso No. 0561-12-CN,Sentenci 034-13-SCN-CC. 26 de junio; Corte, ID.,Caso Gelman Vs. Uruguay, Excepciones Preliminares, Fondo, Reparaciones y Costas,Sentencia 24 de febrero de 2011. Serie 221; Corte, IDH.,(2006) Caso Almonacid Arellano y otros Vs. Chile. Excepciones Preliminares, Fondo, Reparaciones y Costas, p. 124. Cited 51 times.,Sentencia de 26 de septiembre de Serie 154, párr; Corte, IDH.,(2012) Caso Gudiel Álvarez Y Otros (“DIARIO MILITAR”) Vs. Guatemala. Excepciones Preliminares, Fondo, Reparaciones y Costas,Sentencia de 20 de noviembre de; Corte, IDH.,(2013) Caso Osorio Rivera y Familiares Vs. Perú. Excepciones Preliminares, Fondo, Reparaciones y Costas. Cited 33 times.,Sentencia de 26 de noviembre de; Dominique, C. M.,¿Es posible el control de convencionalidad en la Administración pública?,(2021) Derecho Administrativo. Revista de doctrina, jurisprudencia y legislación práctica, p. 267.; Silva, G.D.,From constitutional control to conventional control: First legal steps towards the consolidation of global governance institutions,; (2009) Constitución de la Republica del Ecuador. Cited 5 times.,Registro Oficial 449,https://www.cec-epn.edu.ec/wp-content/uploads/2016/03/Constitucion.pdf; García Ramírez, S.,El Control de Convencionalidad: Construcciones y dilemas,(2013) Treinta años de jurisdicción constitucional en el Perú; Hitters, J. C.,(2021) El Control de convencionalidad en el sistema interamericano efectos, obligatoriedad, Constitución y Derechos,Instituto de Estudios Constitucionales del Estado de Querétaro México; Intriago Ceballos, A. T.,(2016) El control constitucional en Ecuador,Universidad Andina Simón Bolívar; Quintana, K. I.,(2017) El Control de convencionalidad: Un estudio del derecho interamericano de los derechos humanos y del derecho mexicano. Cited 2 times.,Universidad Autónoma de México, Programa de Pos Grado en Derecho, Instituto de Investigaciones Jurídicas; Sagües, N. P.,Control de constitucionalidad y control de convencionalidad: a propósito de la “onstitución convencionalizada.Parlamento y Constitusión,(2011) Anuario, 14, pp. 143-152. Cited 2 times.; Sammartino, P. M.,(2003) Principios constitucionales del amparo administrativo. El contencioso constitucional administrativo urgente,Editorial Lexis Nexis Abeledo Perrot</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2342,11 +2227,6 @@
       <c r="O24" t="inlineStr">
         <is>
           <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85134399704&amp;partnerID=40&amp;md5=b82d54f0cb5cb1e7b81955dbc8a41ab2</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2271,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Arellano-Gault, D., Castillo Salas, M.,(2019) La resbaladilla de la corrupción: Estudios sobre los procesos sociales y organizacionales de la corrupción colusiva en el sector público. Cited 4 times.,CIDE; Ashforth, B.E., Anand, V.,THE NORMALIZATION OF CORRUPTION IN ORGANIZATIONS,; Asthana, A.N.,Decentralisation and corruption revisited: Evidence from a natural experiment,; Banuri, S., Eckel, C.,(2012) Experiments in culture and corruption: A review (Impact Evaluation Series No. 56 No. 6064). Cited 28 times.,  5; Bozeman, B., Molina, A.L., Kaufmann, W.,Angling for Sharks, Not Pilot Fish: Deep Corruption, Venal Corruption, and Public Values Failure,; Brehm, J., Gates, S.,(1997) Working, shirking, and sabotage: Bureaucratic response to a democratic public. Cited 711 times.,University of Michigan Press; Brodkin, E.Z.,Street-level research: Policy at the front lines,(2003) Policy into action: Implementation research and welfare reform, pp. 145-164. Cited 41 times.; Bussell, J.,Typologies of corruption: A pragmatic approach (Open Access),; Carey, M., Foster, V.,Introducing 'deviant' social work: Contextualising the limits of radical social work whilst understanding (fragmented) resistance within the social work labour process,; Constantin, C.,Principal component analysis - a powerful tool in computing marketing information,(2014) Bulletin of the Transilvania University of Brasov. Series V: Economic Sciences, 7, pp. 25-30. Cited 37 times.; Creswell, J.W., Creswell, J.D.,(2017) Research design: Qualitative, quantitative, and mixed methods approaches. Cited 34794 times.,Sage Publications; Di Mascio, F., Piattoni, S.,Corruption control in the developed world (Open Access),; Doig, R.A., Watt, D., Williams, R.,Why do developing country anti-corruption commissions fail to deal with corruption? Understanding the three dilemmas of organisational development, performance expectation, and donor and government cycles,; Dussauge-Laguna, M.,Sobre la pertinencia del servicio profesional de Carrera en México,(2005) Foro Internacional, pp. 761-794. Cited 6 times.; Emerson, R.M., Fretz, R.I., Shaw, L.L.,(1995) Writing ethnographic fieldnotes. Cited 5396 times.,University of Chicago Press; Encuesta Nacional de Calidad e Impacto Gubernamental – National Survey on Quality and Governmental Impact,(2019) ENCIG-INEGI,  18; Fišar, M., Kubák, M., Špalek, J., Tremewan, J.,Gender differences in beliefs and actions in a framed corruption experiment,; Gofen, A.,Mind the Gap: Dimensions and influence of street-level divergence,; Gofen, A., Lotta, G.,Street-Level Bureaucrats at the Forefront of Pandemic Response: A Comparative Perspective (Open Access),; Gofen, A., Sella, S., Gassner, D.,Levels of analysis in street-level bureaucracy research,; Gong, T., Xiao, H.,Socially Embedded Anti-Corruption Governance: Evidence from Hong Kong (Open Access),; Gupta, A.,Narratives of corruption: Anthropological and fictional accounts of the Indian state,; Gupta, S., Davoodi, H., Alonso-Terme, R.,Does corruption affect income inequality and poverty?,(2002) Economics of Governance, 3 (1), pp. 23-45. Cited 550 times.; Harrits, G.S.,Stereotypes in Context: How and When Do Street-Level Bureaucrats Use Class Stereotypes? (Open Access),; Hauk, E., Saez-Marti, M.,On the cultural transmission of corruption (Open Access),; Hellman, J.S., Jones, G., Kaufmann, D.,Seize the state, seize the day: State capture and influence in transition economies,; Hill, C.J.,Casework job design and client outcomes in welfare-to-work offices (Open Access),; Hupe, P., Hill, M.,Street-level bureaucracy and public accountability,; Hutchinson, S.A.,Responsible subversion: a study of rule-bending among nurses.,; Jaber-López, T., García-Gallego, A., Perakakis, P., Georgantzis, N.,Physiological and behavioral patterns of corruption (Open Access),; Jancsics, D.,Corruption as Resource Transfer: An Interdisciplinary Synthesis,; Jancsics, D.,Law enforcement corruption along the U.S. borders,; Jancsics, D., Jávor, I.,Corrupt Governmental Networks,; Jávor, I., Jancsics, D.,The Role of Power in Organizational Corruption: An Empirical Study,; Kaptein, M., Van Reenen, P.,Integrity management of police organizations,; Kaufmann, D., Kraay, A., Mastruzzi, M.,(2005) Governance matters IV: Governance indicators for 1996-2004. Cited 2210 times.,The World Bank; Keiser, L.R.,Understanding street-level bureaucrats' decision making: Determining eligibility in the social security disability program,; Khan, M.H.,Determinants of corruption in developing countries: The limits of conventional economic analysis,; Khator, R., Ng, K., Chan, H.S.,Environmental management and street‐level regulators: A cultural trap?,; La Forgia, G., Raha, S., Shaik, S., Maheshwari, S.K., Ali, R.,Parallel Systems and Human Resource Management in India's Public Health Services: A View from the Front Lines (Open Access),; Lange, D.,A multidimensional conceptualization of organizational corruption control,; Lewis, B.D., Hendrawan, A.,The impact of public sector accounting reform on corruption: Causal evidence from subnational Indonesia,; Lipsky, M.,Street-level bureaucracy: Dilemmas of the individual in public services,; Lipsky, M.,Street-level bureaucracy: Dilemmas of the individual in public services,; Liu, C., Mikesell, J.L.,The impact of public officials' corruption on the size and allocation of U.S. state spending,; Lotta, G.S., Marques, E.C.,How social networks affect policy implementation: An analysis of street-level bureaucrats' performance regarding a health policy,; Loyens, K.,Networks as unit of analysis in street-level bureaucracy research,; Loyens, K., Maesschalck, J.,Toward a theoretical framework for ethical decision making of street-level bureaucracy: Existing models reconsidered (Open Access),; Lu, X.,Booty socialism, bureau-preneurs, and the state in transition: Organizational corruption in China,; Marquette, H., Peiffer, C.,Grappling with the “real politics” of systemic corruption: Theoretical debates versus “real-world” functions (Open Access),; Marquette, H., Peiffer, C.,Thinking politically about corruption as problem-solving: A reply to Persson, Rothstein, and Teorell (Open Access),; Mashali, B.,Analyzing the relationship between perceived grand corruption and petty corruption in developing countries: Case study of Iran,; May, P.J., Winter, S.C.,Politicians, managers, and street-level bureaucrats: Influences on policy implementation (Open Access),; Maynard-Moody, S., Musheno, M.,State Agent or Citizen Agent: Two Narratives of Discretion (Open Access),; Maynard-Moody, S.W., Musheno, M.C.,Cops, teachers, counselors: Stories from the front lines of public service,; McAllister, I.,Keeping them honest: Public and elite perceptions of ethical conduct among Australian legislators,; Meier, K.J., O'Toole Jr., L.J.,Political control versus bureaucratic values: Reframing the debate,; Meza, O.,Punctuated equilibrium in multilevel contexts: How federal and state level forces feedback into shaping the local policy agenda in Mexico,; Meza, O., Pérez-Chiqués, E.,Corruption consolidation in local governments: A grounded analytical framework,; Meza, O., Zizumbo, D.,(2019) Encuesta para la construcción del sistema de transparencia, rendición de cuentas y anti-corrupción,E-TRACC (database)., Colecciones Gobiernos Locales; Meza, O., Zizumbo-Colunga, D.,Constructions of noncompliance: narratives and contexts in the case of administrative corruption,; Møller, M.Ø., Stensöta, H.O.,Welfare State Regimes and Caseworkers’ Problem Explanation,; Mungiu-Pippidi, A.,Corruption: Diagnosis and treatment,; Nieto, M.F.,The legacy of the “sexennium of corruption”: The challenges of the national anti-corruption system,(2020) Foro Internacional, 60 (2), pp. 683-716. Cited 2 times.; Nieuwbeerta, P., De Geest, G., Siegers, J.,Street-level corruption in industrialized and developing countries,(2003) European Societies, 5 (2), pp. 139-165. Cited 15 times.; Oberfield, Z.W.,Rule following and discretion at Government's frontlines: Continuity and change during organization socialization (Open Access),; O'Leary, R.,Guerrilla employees: Should managers nurture, tolerate, or terminate them?,; Olsen, A.L., Hjorth, F., Harmon, N., Barfort, S.,Behavioral Dishonesty in the Public Sector (Open Access),; Parrado, S., Dahlström, C., Lapuente, V.,Mayors and Corruption in Spain: Same Rules, Different Outcomes,; Pérez-Chiqués, E., Meza, O.,Trust-based corruption networks: A comparative analysis of two municipal governments,; Persson, A., Rothstein, B., Teorell, J.,Getting the basic nature of systemic corruption right: A reply to Marquette and Peiffer,; Pierre, J., Peters, B.G.,The shirking bureaucrat: A theory in search of evidence?,; Raaphorst, N., Groeneveld, S.,Discrimination and representation in street-level bureaucracies,; Raaphorst, N., Loyens, K.,From Poker Games to Kitchen Tables: How Social Dynamics Affect Frontline Decision Making (Open Access),; Riccucci, N.M.,(2005) How management matters: Street-level bureaucrats and welfare reform. Cited 177 times.,Georgetown University Press; Rose-Ackerman, S.,(1999) Corruption and government: Causes, consequences, and reform. Cited 1982 times.,Cambridge University Press; Sandfort, J.R.,Moving Beyond Discretion and Outcomes: Examining Public Management from the Front Lines of the Welfare System (Open Access),; Stevens, B.,Hospitality ethics: Responses from human resource directors and students to seven ethical scenarios,</t>
+          <t>Arellano-Gault, D., Castillo Salas, M.,(2019) La resbaladilla de la corrupción: Estudios sobre los procesos sociales y organizacionales de la corrupción colusiva en el sector público. Cited 4 times.,CIDE; Ashforth, B.E., Anand, V.,THE NORMALIZATION OF CORRUPTION IN ORGANIZATIONS,; Asthana, A.N.,Decentralisation and corruption revisited: Evidence from a natural experiment,; Banuri, S., Eckel, C.,(2012) Experiments in culture and corruption: A review (Impact Evaluation Series No. 56 No. 6064). Cited 28 times.,  5; Bozeman, B., Molina, A.L., Kaufmann, W.,Angling for Sharks, Not Pilot Fish: Deep Corruption, Venal Corruption, and Public Values Failure,; Brehm, J., Gates, S.,(1997) Working, shirking, and sabotage: Bureaucratic response to a democratic public. Cited 711 times.,University of Michigan Press; Brodkin, E.Z.,Street-level research: Policy at the front lines,(2003) Policy into action: Implementation research and welfare reform, pp. 145-164. Cited 41 times.; Bussell, J.,Typologies of corruption: A pragmatic approach,; Carey, M., Foster, V.,Introducing 'deviant' social work: Contextualising the limits of radical social work whilst understanding (fragmented) resistance within the social work labour process,; Constantin, C.,Principal component analysis - a powerful tool in computing marketing information,(2014) Bulletin of the Transilvania University of Brasov. Series V: Economic Sciences, 7, pp. 25-30. Cited 37 times.; Creswell, J.W., Creswell, J.D.,(2017) Research design: Qualitative, quantitative, and mixed methods approaches. Cited 34968 times.,Sage Publications; Di Mascio, F., Piattoni, S.,Corruption control in the developed world,; Doig, R.A., Watt, D., Williams, R.,Why do developing country anti-corruption commissions fail to deal with corruption? Understanding the three dilemmas of organisational development, performance expectation, and donor and government cycles,; Dussauge-Laguna, M.,Sobre la pertinencia del servicio profesional de Carrera en México,(2005) Foro Internacional, pp. 761-794. Cited 6 times.; Emerson, R.M., Fretz, R.I., Shaw, L.L.,(1995) Writing ethnographic fieldnotes. Cited 5407 times.,University of Chicago Press; Encuesta Nacional de Calidad e Impacto Gubernamental – National Survey on Quality and Governmental Impact,(2019) ENCIG-INEGI,  18; Fišar, M., Kubák, M., Špalek, J., Tremewan, J.,Gender differences in beliefs and actions in a framed corruption experiment,; Gofen, A.,Mind the Gap: Dimensions and influence of street-level divergence,; Gofen, A., Lotta, G.,Street-Level Bureaucrats at the Forefront of Pandemic Response: A Comparative Perspective (Open Access),; Gofen, A., Sella, S., Gassner, D.,Levels of analysis in street-level bureaucracy research,; Gong, T., Xiao, H.,Socially Embedded Anti-Corruption Governance: Evidence from Hong Kong,; Gupta, A.,Narratives of corruption: Anthropological and fictional accounts of the Indian state,; Gupta, S., Davoodi, H., Alonso-Terme, R.,Does corruption affect income inequality and poverty?,(2002) Economics of Governance, 3 (1), pp. 23-45. Cited 552 times.; Harrits, G.S.,Stereotypes in Context: How and When Do Street-Level Bureaucrats Use Class Stereotypes? (Open Access),; Hauk, E., Saez-Marti, M.,On the cultural transmission of corruption (Open Access),; Hellman, J.S., Jones, G., Kaufmann, D.,Seize the state, seize the day: State capture and influence in transition economies,; Hill, C.J.,Casework job design and client outcomes in welfare-to-work offices,; Hupe, P., Hill, M.,Street-level bureaucracy and public accountability (Open Access),; Hutchinson, S.A.,Responsible subversion: a study of rule-bending among nurses. (Open Access),; Jaber-López, T., García-Gallego, A., Perakakis, P., Georgantzis, N.,Physiological and behavioral patterns of corruption (Open Access),; Jancsics, D.,Corruption as Resource Transfer: An Interdisciplinary Synthesis,; Jancsics, D.,Law enforcement corruption along the U.S. borders,; Jancsics, D., Jávor, I.,Corrupt Governmental Networks,; Jávor, I., Jancsics, D.,The Role of Power in Organizational Corruption: An Empirical Study,; Kaptein, M., Van Reenen, P.,Integrity management of police organizations,; Kaufmann, D., Kraay, A., Mastruzzi, M.,(2005) Governance matters IV: Governance indicators for 1996-2004. Cited 2209 times.,The World Bank; Keiser, L.R.,Understanding street-level bureaucrats' decision making: Determining eligibility in the social security disability program,; Khan, M.H.,Determinants of corruption in developing countries: The limits of conventional economic analysis,; Khator, R., Ng, K., Chan, H.S.,Environmental management and street‐level regulators: A cultural trap?,; La Forgia, G., Raha, S., Shaik, S., Maheshwari, S.K., Ali, R.,Parallel Systems and Human Resource Management in India's Public Health Services: A View from the Front Lines,; Lange, D.,A multidimensional conceptualization of organizational corruption control,; Lewis, B.D., Hendrawan, A.,The impact of public sector accounting reform on corruption: Causal evidence from subnational Indonesia,; Lipsky, M.,Street-level bureaucracy: Dilemmas of the individual in public services (Open Access),; Lipsky, M.,Street-level bureaucracy: Dilemmas of the individual in public services,; Liu, C., Mikesell, J.L.,The impact of public officials' corruption on the size and allocation of U.S. state spending (Open Access),; Lotta, G.S., Marques, E.C.,How social networks affect policy implementation: An analysis of street-level bureaucrats' performance regarding a health policy (Open Access),; Loyens, K.,Networks as unit of analysis in street-level bureaucracy research (Open Access),; Loyens, K., Maesschalck, J.,Toward a theoretical framework for ethical decision making of street-level bureaucracy: Existing models reconsidered,; Lu, X.,Booty socialism, bureau-preneurs, and the state in transition: Organizational corruption in China,; Marquette, H., Peiffer, C.,Grappling with the “real politics” of systemic corruption: Theoretical debates versus “real-world” functions,; Marquette, H., Peiffer, C.,Thinking politically about corruption as problem-solving: A reply to Persson, Rothstein, and Teorell (Open Access),; Mashali, B.,Analyzing the relationship between perceived grand corruption and petty corruption in developing countries: Case study of Iran,; May, P.J., Winter, S.C.,Politicians, managers, and street-level bureaucrats: Influences on policy implementation,; Maynard-Moody, S., Musheno, M.,State Agent or Citizen Agent: Two Narratives of Discretion,; Maynard-Moody, S.W., Musheno, M.C.,Cops, teachers, counselors: Stories from the front lines of public service,; McAllister, I.,Keeping them honest: Public and elite perceptions of ethical conduct among Australian legislators,; Meier, K.J., O'Toole Jr., L.J.,Political control versus bureaucratic values: Reframing the debate,; Meza, O.,Punctuated equilibrium in multilevel contexts: How federal and state level forces feedback into shaping the local policy agenda in Mexico,; Meza, O., Pérez-Chiqués, E.,Corruption consolidation in local governments: A grounded analytical framework,; Meza, O., Zizumbo, D.,(2019) Encuesta para la construcción del sistema de transparencia, rendición de cuentas y anti-corrupción,E-TRACC (database)., Colecciones Gobiernos Locales; Meza, O., Zizumbo-Colunga, D.,Constructions of noncompliance: narratives and contexts in the case of administrative corruption,; Møller, M.Ø., Stensöta, H.O.,Welfare State Regimes and Caseworkers’ Problem Explanation,; Mungiu-Pippidi, A.,Corruption: Diagnosis and treatment,; Nieto, M.F.,The legacy of the “sexennium of corruption”: The challenges of the national anti-corruption system,(2020) Foro Internacional, 60 (2), pp. 683-716. Cited 2 times.; Nieuwbeerta, P., De Geest, G., Siegers, J.,Street-level corruption in industrialized and developing countries,(2003) European Societies, 5 (2), pp. 139-165. Cited 15 times.; Oberfield, Z.W.,Rule following and discretion at Government's frontlines: Continuity and change during organization socialization,; O'Leary, R.,Guerrilla employees: Should managers nurture, tolerate, or terminate them?,; Olsen, A.L., Hjorth, F., Harmon, N., Barfort, S.,Behavioral Dishonesty in the Public Sector,; Parrado, S., Dahlström, C., Lapuente, V.,Mayors and Corruption in Spain: Same Rules, Different Outcomes,; Pérez-Chiqués, E., Meza, O.,Trust-based corruption networks: A comparative analysis of two municipal governments,; Persson, A., Rothstein, B., Teorell, J.,Getting the basic nature of systemic corruption right: A reply to Marquette and Peiffer,; Pierre, J., Peters, B.G.,The shirking bureaucrat: A theory in search of evidence?,; Raaphorst, N., Groeneveld, S.,Discrimination and representation in street-level bureaucracies (Open Access),; Raaphorst, N., Loyens, K.,From Poker Games to Kitchen Tables: How Social Dynamics Affect Frontline Decision Making (Open Access),; Riccucci, N.M.,(2005) How management matters: Street-level bureaucrats and welfare reform. Cited 177 times.,Georgetown University Press; Rose-Ackerman, S.,(1999) Corruption and government: Causes, consequences, and reform. Cited 1984 times.,Cambridge University Press; Sandfort, J.R.,Moving Beyond Discretion and Outcomes: Examining Public Management from the Front Lines of the Welfare System,; Stevens, B.,Hospitality ethics: Responses from human resource directors and students to seven ethical scenarios (Open Access),</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2422,11 +2302,6 @@
       <c r="O25" t="inlineStr">
         <is>
           <t>10.1002/pad.1970</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>Varios Paises</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2346,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Adato, M.,(2000) The impact of PROGRESA on community social relationships. Cited 105 times.,Washington, DC, International Food Policy Research Institute; Agudo Sanchíz, A.,(2012) The social production of conditional cash transfers' impacts, p. 172. Cited 2 times.,(p., International Policy Centre for Inclusive Growth; Ambort, M.L., Straschnoy, M.,Burocracias escolar y sanitaria, ¿Facilitadores u obstaculizadores del acceso a la Asignación Universal por Hijo y la Asignación por Embarazo para la Protección Social?,(2018) Horizontes Sociológicos, 6 (10), pp. 139-161. Cited 3 times.; Bevan, G., Hood, C.,What's measured is what matters: Targets and gaming in the English public health care system,; Bowen, G.A.,Naturalistic inquiry and the saturation concept: A research note,; Brinks, D.M., Levitsky, S., Murillo, M.V.,Understanding institutional weakness: Power and design in Latin American institutions,; Brodkin, E.Z.,Inside the welfare contract: Discretion and accountability in state welfare administration,(1997) Social Service Review, 71 (1), pp. 1-33. Cited 270 times.; Brodkin, E.Z.,Policy work: Street-level organizations under new managerialism,; Brodkin, E.Z.,Reflections on street-level bureaucracy: Past, present, and future,(2012) Public Administration Review, 72 (6), pp. 940-949. Cited 229 times.; Cerna, D., García, L., Puémape, L., Sosa, P., Rentería, M., Rozas, L.,(2017) Acá no hay ventanillas. La burocracia de la calle en los programas sociales. Cited 3 times.,Perú, Instituto de Estudios Peruanos; Chudnovsky, M., González, A., Hallak, J.C., Sidders, M., Tommasi, M.,State-capacity building: Examining design policies in Argentina,; Cohen, N.,How culture affects street-level bureaucrats’ bending the rules in the context of informal payments for health care: The Israeli case,; Cohen, N., Benish, A., Shamriz-Ilouz, A.,When the clients can choose: Dilemmas of street-level workers in choice-based social services,; (2014) Informe de la Evaluación Específica de Desempeño 2012-2013 del Programa de Desarrollo Humano Oportunidades,México, DF, CONEVAL,  15; Creswell, J.W.,(2014) Research design. Qualitative, quantitative, and mixed methods approaches. Cited 34794 times.,SAGE; Cunha, M.P.E.,(2005) Bricolage in organizations. FEUNL Working Paper No. 474. Cited 36 times.,https://doi.org/10.2139/ssrn.882784; DeLeon, P.,Public policy termination: An end and a beginning,(1978) Policy Analysis, 4 (3), pp. 369-392. Cited 78 times.; deLeon, P.,Afterward: the once and future state of policy termination,; Djuve, A.B., Kavli, H.C.,Facilitating user involvement in activation programmes: When carers and clerks meet pawns and queens (Open Access),; Dussauge Laguna, M.I.,¿Servicio civil de carrera o servicio civil de empleo? Una breve discusión conceptual,(2005) Revista Servicio Profesional de Carrera, 3, pp. 1-21.; Eiró, F.,The Vicious Cycle in the Bolsa Família Program’s Implementation: Discretionality and the Challenge of Social Rights Consolidation in Brazil (Open Access),; Emerson, R.M., Fretz, R.I., Shaw, L.L.,(2011) Writing ethnographic fieldnotes. Cited 5396 times.,University of Chicago Press; Evans, T.,Professionals, managers and discretion: Critiquing street-level bureaucracy (Open Access),; FitzPatrick, S.,The imaginary and improvisation in public administration,(2002) Administrative Theory and Praxis, 24 (4), pp. 635-654. Cited 7 times.; Folkman, S., Lazarus, R.S.,An analysis of coping in a middle-aged community sample,; Gibson, D.,The gaps in the gaze in South African hospitals,; Gofen, A.,Mind the Gap: Dimensions and influence of street-level divergence,; Heinrich, C.J., Knowles, M.T.,A fine predicament: Conditioning, compliance and consequences in a labeled cash transfer program,; Hernández, D.,(2008) Historia de Oportunidades. Inicio y cambios del programa. Cited 4 times.,FCE; Hill, M., Hupe, P.,(2009) Implementing public policy: An introduction to the study of operational governance. Cited 1137 times.,SAGE Publications; Holland, A.C.,Forbearance,; Hupe, P., Buffat, A.,A Public Service Gap: Capturing contexts in a comparative approach of street-level bureaucracy,; Hupe, P., Hill, M.,Street-level bureaucracy and public accountability,; Hupe, P., Van der Krogt, T.,Professionals dealing with pressures,(2013) Professionals under pressure: The reconfiguration of professional work in changing public services, pp. 55-72. Cited 28 times.; Jilke, S., Tummers, L.,Which clients are deserving of help? A theoretical model and experimental test (Open Access),; Kelly, G.,Patient agency and contested notions of disability in social assistance applications in South Africa,; Khator, R., Ng, K., Chan, H.S.,Environmental management and street‐level regulators: A cultural trap?,; Kuhlmann, S.,Dealing with cross-country variation in the comparative study of public administration and street-level bureaucracy,; Lavee, E.,Who Is in Charge? The Provision of Informal Personal Resources at the Street Level (Open Access),; Lazarus, R.S.,(1966) Psychological stress and the coping process. Cited 4467 times.,McGraw-Hill; Levy, S.,(2009) Pobreza y transición democrática en México. Cited 4 times.,México, DF, FCE; Lima, L.L., D’Ascenzi, L.,The role of street-level bureaucracy in the implementation and (Re)formulation of the health service’s humanization policy in porto alegre (rs) (Open Access),; Lipsky, M.,Street-level bureaucracy: Dilemmas of the individual in public services,; Lira, L.,Impacto del sistema de Alta Dirección pública en la gestión hospitalaria: un análisis empírico,(2013) Estudios Publicos, 131, pp. 61-102. Cited 4 times.; Lotta, G.S., Marques, E.C.,How social networks affect policy implementation: An analysis of street-level bureaucrats' performance regarding a health policy,; Marquette, H., Peiffer, C.,Grappling with the “real politics” of systemic corruption: Theoretical debates versus “real-world” functions (Open Access),; Masood, A., Nisar, M.A.,Crushed between two stones: Competing institutional logics in the implementation of maternity leave policies in Pakistan,; May, P.J., Winter, S.C.,Politicians, managers, and street-level bureaucrats: Influences on policy implementation (Open Access),; Maynard-Moody, S., Musheno, M.,State Agent or Citizen Agent: Two Narratives of Discretion (Open Access),; Maynard-Moody, S.W., Musheno, M.C.,Cops, teachers, counselors: Stories from the front lines of public service,; Maynard-Moody, S., Musheno, M.,Social equities and inequities in practice: Street-level workers as agents and pragmatists,; Meza, O.D., Moreno-Jaimes, C.,Taming the Beast: Managers’ Tactics to Change Frontline Workers’ Adversarial Interaction with Policy Targets,; Møller, M.Ø.,Street-level bureaucracy research and the specification of national culture,; Møller, M.Ø., Stensöta, H.O.,Welfare State Regimes and Caseworkers’ Problem Explanation,; Musheno, M., Maynard-Moody, S.,‘Playing the rules’: Discretion in social and policy context,; Nieto Morales, F., Heyse, L., del Carmen Pardo, M., Wittek, R.,Building enforcement capacity: Evidence from the mexican civil service reform (Open Access),; Nisar, M.A.,Overcoming resistance to resistance in public administration: Resistance strategies of marginalized publics in citizen-state interactions,; Nisar, M.A.,Phenomenology of the stop: street-level bureaucracy and everyday citizenship of marginalized groups,; Noordegraaf, M.,From "pure" to "hybrid" professionalism: Present-day professionalism in ambiguous public domains,; Noordegraaf, M.,Risky business: How professionals and professional fields (must) deal with organizational issues,; Orozco Corona, M.E., Gammage, S.,(2017) Cash transfer programmes, poverty reduction and women's economic empowerment: Experience from Mexico. Working Paper No. 1. Cited 3 times.,International Labour Office; Pardo, M.D.C.,El servicio profesional de carrera en México: de la tradición al cambio,(2005) Foro Internacional, 45 (4), pp. 599-634. Cited 13 times.; Peeters, R., Trujillo Jiménez, H., O'Connor, E., Ogarrio Rojas, P., González Galindo, M., Morales Tenorio, D.,Low-trust bureaucracy: Understanding the Mexican bureaucratic experience,; Perelmiter, L.,(2016) Burocracia plebeya. La trastienda de la asistencia social en el Estado Argentino. Cited 23 times.,UNSAM Edita; Petersen, M.B., Slothuus, R., Stubager, R., Togeby, L.,Deservingness versus values in public opinion on welfare: The automaticity of the deservingness heuristic,; (2017) Familias, Localidades Y Beneficiarios Del Programa Prospera En El Bimestre Operativo Mayo-Junio, p. 2017.,Prospera, México, DF, SEDESOL,  68; Ramírez, V.,CCTs through a wellbeing lens: The importance of the relationship between front-line officers and participants in the Oportunidades/Prospera programme in Mexico,; Ramírez, V.,Relationships in the Implementation of Conditional Cash Transfers: The Provision of Health in the Oportunidades-Prospera Programme in Puebla, Mexico,; Rodriguez, E.,Beating the odds: How progresa/oportunidades became mexico’s major poverty alleviation programme,; Rodríguez Loera, C.,(2019) Se manifiestan trabajadores de la salud en el congreso de Aguascalientes. La Jornada Aguascalientes,March 22); Saturno, P.J., Gutiérrez, J.P., Armendáriz, D.M., Armenta, N., Candia, E., Contreras, D., Fernández, M., (...), Wirtz, V.,(2014) Calidad del primer nivel de atención de los Servicios Estatales de Salud. Diagnóstico estratégico de la situación actual. Cited 10 times.,  74; Schott, C., van Kleef, D., Noordegraaf, M.,Confused Professionals?: Capacities to cope with pressures on professional work,; Sharkansky, I., Zalmanovitch, Y.,Improvisation in public administration and policy making in Israel,; Stanica, C.M., Balica, D., Henderson, A.C., Ţiclău, T.C.,The weight of service delivery: administrative and rules burdens in street-level bureaucracy,; Timmermans, S., Tavory, I.,Theory construction in qualitative research: From grounded theory to abductive analysis,; Tummers, L., Bekkers, V., Steijn, B.,Policy Alienation of Public Professionals: A Comparative Case Study of Insurance Physicians and Secondary School Teachers (Open Access),; Tummers, L.L.G., Bekkers, V., Vink, E., Musheno, M.,Coping during Public Service Delivery: A Conceptualization and Systematic Review of the Literature (Open Access),</t>
+          <t>Adato, M.,(2000) The impact of PROGRESA on community social relationships. Cited 106 times.,Washington, DC, International Food Policy Research Institute; Agudo Sanchíz, A.,(2012) The social production of conditional cash transfers' impacts, p. 172. Cited 2 times.,(p., International Policy Centre for Inclusive Growth; Ambort, M.L., Straschnoy, M.,Burocracias escolar y sanitaria, ¿Facilitadores u obstaculizadores del acceso a la Asignación Universal por Hijo y la Asignación por Embarazo para la Protección Social?,(2018) Horizontes Sociológicos, 6 (10), pp. 139-161. Cited 3 times.; Bevan, G., Hood, C.,What's measured is what matters: Targets and gaming in the English public health care system,; Bowen, G.A.,Naturalistic inquiry and the saturation concept: A research note,; Brinks, D.M., Levitsky, S., Murillo, M.V.,Understanding institutional weakness: Power and design in Latin American institutions,; Brodkin, E.Z.,Inside the welfare contract: Discretion and accountability in state welfare administration,(1997) Social Service Review, 71 (1), pp. 1-33. Cited 270 times.; Brodkin, E.Z.,Policy work: Street-level organizations under new managerialism,; Brodkin, E.Z.,Reflections on street-level bureaucracy: Past, present, and future,(2012) Public Administration Review, 72 (6), pp. 940-949. Cited 229 times.; Cerna, D., García, L., Puémape, L., Sosa, P., Rentería, M., Rozas, L.,(2017) Acá no hay ventanillas. La burocracia de la calle en los programas sociales. Cited 3 times.,Perú, Instituto de Estudios Peruanos; Chudnovsky, M., González, A., Hallak, J.C., Sidders, M., Tommasi, M.,State-capacity building: Examining design policies in Argentina,; Cohen, N.,How culture affects street-level bureaucrats’ bending the rules in the context of informal payments for health care: The Israeli case,; Cohen, N., Benish, A., Shamriz-Ilouz, A.,When the clients can choose: Dilemmas of street-level workers in choice-based social services,; (2014) Informe de la Evaluación Específica de Desempeño 2012-2013 del Programa de Desarrollo Humano Oportunidades,México, DF, CONEVAL,  15; Creswell, J.W.,(2014) Research design. Qualitative, quantitative, and mixed methods approaches. Cited 34968 times.,SAGE; Cunha, M.P.E.,(2005) Bricolage in organizations. FEUNL Working Paper No. 474. Cited 37 times.,https://doi.org/10.2139/ssrn.882784; DeLeon, P.,Public policy termination: An end and a beginning,(1978) Policy Analysis, 4 (3), pp. 369-392. Cited 78 times.; deLeon, P.,Afterward: the once and future state of policy termination,; Djuve, A.B., Kavli, H.C.,Facilitating user involvement in activation programmes: When carers and clerks meet pawns and queens,; Dussauge Laguna, M.I.,¿Servicio civil de carrera o servicio civil de empleo? Una breve discusión conceptual,(2005) Revista Servicio Profesional de Carrera, 3, pp. 1-21.; Eiró, F.,The Vicious Cycle in the Bolsa Família Program’s Implementation: Discretionality and the Challenge of Social Rights Consolidation in Brazil,; Emerson, R.M., Fretz, R.I., Shaw, L.L.,(2011) Writing ethnographic fieldnotes. Cited 5407 times.,University of Chicago Press; Evans, T.,Professionals, managers and discretion: Critiquing street-level bureaucracy,; FitzPatrick, S.,The imaginary and improvisation in public administration,(2002) Administrative Theory and Praxis, 24 (4), pp. 635-654. Cited 7 times.; Folkman, S., Lazarus, R.S.,An analysis of coping in a middle-aged community sample,; Gibson, D.,The gaps in the gaze in South African hospitals,; Gofen, A.,Mind the Gap: Dimensions and influence of street-level divergence,; Heinrich, C.J., Knowles, M.T.,A fine predicament: Conditioning, compliance and consequences in a labeled cash transfer program,; Hernández, D.,(2008) Historia de Oportunidades. Inicio y cambios del programa. Cited 4 times.,FCE; Hill, M., Hupe, P.,(2009) Implementing public policy: An introduction to the study of operational governance. Cited 1139 times.,SAGE Publications; Holland, A.C.,Forbearance,; Hupe, P., Buffat, A.,A Public Service Gap: Capturing contexts in a comparative approach of street-level bureaucracy,; Hupe, P., Hill, M.,Street-level bureaucracy and public accountability,; Hupe, P., Van der Krogt, T.,Professionals dealing with pressures,(2013) Professionals under pressure: The reconfiguration of professional work in changing public services, pp. 55-72. Cited 28 times.; Jilke, S., Tummers, L.,Which clients are deserving of help? A theoretical model and experimental test,; Kelly, G.,Patient agency and contested notions of disability in social assistance applications in South Africa,; Khator, R., Ng, K., Chan, H.S.,Environmental management and street‐level regulators: A cultural trap?,; Kuhlmann, S.,Dealing with cross-country variation in the comparative study of public administration and street-level bureaucracy (Open Access),; Lavee, E.,Who Is in Charge? The Provision of Informal Personal Resources at the Street Level,; Lazarus, R.S.,(1966) Psychological stress and the coping process. Cited 4472 times.,McGraw-Hill; Levy, S.,(2009) Pobreza y transición democrática en México. Cited 4 times.,México, DF, FCE; Lima, L.L., D’Ascenzi, L.,The role of street-level bureaucracy in the implementation and (Re)formulation of the health service’s humanization policy in porto alegre (rs),; Lipsky, M.,Street-level bureaucracy: Dilemmas of the individual in public services,; Lira, L.,Impacto del sistema de Alta Dirección pública en la gestión hospitalaria: un análisis empírico,(2013) Estudios Publicos, 131, pp. 61-102. Cited 4 times.; Lotta, G.S., Marques, E.C.,How social networks affect policy implementation: An analysis of street-level bureaucrats' performance regarding a health policy,; Marquette, H., Peiffer, C.,Grappling with the “real politics” of systemic corruption: Theoretical debates versus “real-world” functions,; Masood, A., Nisar, M.A.,Crushed between two stones: Competing institutional logics in the implementation of maternity leave policies in Pakistan (Open Access),; May, P.J., Winter, S.C.,Politicians, managers, and street-level bureaucrats: Influences on policy implementation (Open Access),; Maynard-Moody, S., Musheno, M.,State Agent or Citizen Agent: Two Narratives of Discretion (Open Access),; Maynard-Moody, S.W., Musheno, M.C.,Cops, teachers, counselors: Stories from the front lines of public service (Open Access),; Maynard-Moody, S., Musheno, M.,Social equities and inequities in practice: Street-level workers as agents and pragmatists,; Meza, O.D., Moreno-Jaimes, C.,Taming the Beast: Managers’ Tactics to Change Frontline Workers’ Adversarial Interaction with Policy Targets,; Møller, M.Ø.,Street-level bureaucracy research and the specification of national culture,; Møller, M.Ø., Stensöta, H.O.,Welfare State Regimes and Caseworkers’ Problem Explanation (Open Access),; Musheno, M., Maynard-Moody, S.,‘Playing the rules’: Discretion in social and policy context (Open Access),; Nieto Morales, F., Heyse, L., del Carmen Pardo, M., Wittek, R.,Building enforcement capacity: Evidence from the mexican civil service reform,; Nisar, M.A.,Overcoming resistance to resistance in public administration: Resistance strategies of marginalized publics in citizen-state interactions,; Nisar, M.A.,Phenomenology of the stop: street-level bureaucracy and everyday citizenship of marginalized groups,; Noordegraaf, M.,From "pure" to "hybrid" professionalism: Present-day professionalism in ambiguous public domains,; Noordegraaf, M.,Risky business: How professionals and professional fields (must) deal with organizational issues,; Orozco Corona, M.E., Gammage, S.,(2017) Cash transfer programmes, poverty reduction and women's economic empowerment: Experience from Mexico. Working Paper No. 1. Cited 3 times.,International Labour Office; Pardo, M.D.C.,El servicio profesional de carrera en México: de la tradición al cambio,(2005) Foro Internacional, 45 (4), pp. 599-634. Cited 13 times.; Peeters, R., Trujillo Jiménez, H., O'Connor, E., Ogarrio Rojas, P., González Galindo, M., Morales Tenorio, D.,Low-trust bureaucracy: Understanding the Mexican bureaucratic experience,; Perelmiter, L.,(2016) Burocracia plebeya. La trastienda de la asistencia social en el Estado Argentino. Cited 23 times.,UNSAM Edita; Petersen, M.B., Slothuus, R., Stubager, R., Togeby, L.,Deservingness versus values in public opinion on welfare: The automaticity of the deservingness heuristic,; (2017) Familias, Localidades Y Beneficiarios Del Programa Prospera En El Bimestre Operativo Mayo-Junio, p. 2017.,Prospera, México, DF, SEDESOL,  68; Ramírez, V.,CCTs through a wellbeing lens: The importance of the relationship between front-line officers and participants in the Oportunidades/Prospera programme in Mexico,; Ramírez, V.,Relationships in the Implementation of Conditional Cash Transfers: The Provision of Health in the Oportunidades-Prospera Programme in Puebla, Mexico,; Rodriguez, E.,Beating the odds: How progresa/oportunidades became mexico’s major poverty alleviation programme,; Rodríguez Loera, C.,(2019) Se manifiestan trabajadores de la salud en el congreso de Aguascalientes. La Jornada Aguascalientes,March 22); Saturno, P.J., Gutiérrez, J.P., Armendáriz, D.M., Armenta, N., Candia, E., Contreras, D., Fernández, M., (...), Wirtz, V.,(2014) Calidad del primer nivel de atención de los Servicios Estatales de Salud. Diagnóstico estratégico de la situación actual. Cited 10 times.,  74; Schott, C., van Kleef, D., Noordegraaf, M.,Confused Professionals?: Capacities to cope with pressures on professional work,; Sharkansky, I., Zalmanovitch, Y.,Improvisation in public administration and policy making in Israel,; Stanica, C.M., Balica, D., Henderson, A.C., Ţiclău, T.C.,The weight of service delivery: administrative and rules burdens in street-level bureaucracy,; Timmermans, S., Tavory, I.,Theory construction in qualitative research: From grounded theory to abductive analysis,; Tummers, L., Bekkers, V., Steijn, B.,Policy Alienation of Public Professionals: A Comparative Case Study of Insurance Physicians and Secondary School Teachers (Open Access),; Tummers, L.L.G., Bekkers, V., Vink, E., Musheno, M.,Coping during Public Service Delivery: A Conceptualization and Systematic Review of the Literature,</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2502,11 +2377,6 @@
       <c r="O26" t="inlineStr">
         <is>
           <t>10.1002/pad.1907</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>Mexico</t>
         </is>
       </c>
     </row>
@@ -2551,7 +2421,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Abusleme, Cesar,Why do governments further open data strategies? The cases of Mexico, Chile and Colombia,(2020) Revista estudios de políticas públicas, 6 (1), pp. 20-43. Cited 2 times.; Calderón, C.A.A., Botero, J.C., Bolaños, J.O., Martínez, R.R.,The Colombian healthcare system: 20 years of achievements and problems (Open Access),; Alloa, E., Thomä, D.,Transparency, society and subjectivity: Critical perspectives (Open Access),; Alt, J.E., Lassen, D.D.,Fiscal transparency, political parties, and debt in OECD countries,; Andersen, T.B.,E-Government as an anti-corruption strategy,; Aparici, R., García-Marín, D.,Prosumers and emirecs: Analysis of two confronted theories (Open Access),; Barredo-Ibáñez, Daniel,El análisis de contenido. Una introducción a la cuantificación de la realidad,(2015) Revista San Gregorio, 1, pp. 26-31. Cited 16 times.; Beltrán-Orenes, P., Martínez-Pastor, E.,Degree of compliance with the Laws of Transparency, access, and good governance and of the Reuse of procurement data from the Spanish central government (Open Access),; Berganza Conde, R.M., Arcila Calderón, C., Miguel Pascual, R.,Negativity in the political news in the Spanish news media (Open Access),; Bernal-Acevedo, O., Forero-Camacho, J.C.,Information systems in health sector in Colombia,; Bertot, J.C., Jaeger, P.T., Grimes, J.M.,Using ICTs to create a culture of transparency: E-government and social media as openness and anti-corruption tools for societies,; Bertot, J.C., Jaeger, P.T., Grimes, J.M.,Promoting transparency and accountability through ICTs, social media, and collaborative e-government,; Betancourt-Velázquez, Andrea-Carolina, Caviedes-Niño, Ivonne-Liliana,Metodología de correlación estadística de un sistema integrado de gestión de la calidad en el sector salud,(2018) Signos, 10 (2), pp. 119-139. Cited 4 times.; Binimelis-Espinoza, Helder, Veechi-Llanquile, Valentina,Transparencia y accesibilidad: evaluación del Servicio Nacional de Discapacidad en Chile desde la perspectiva de personas en situación de discapacidad visual,(2018) Revista uruguaya de ciencia política, 27 (2), pp. 57-74. Cited 3 times.; Borge-Bravo, Rosa,Nuevas tecnologías y regeneración de la democracia,(2007) Democracia, participación y voto a través de las nuevas tecnologías, pp. 25-34. Cited 5 times.; Buitrón-Vega, Miriam-Elena, Gea-Izquierdo, Enrique, García-Oquendo, María-Verónica,Tecnologías en información y comunicación sanitaria,(2016) Revista PUCE, 102, pp. 271-290. Cited 6 times.; Caamaño-Alegre, J., Lago-Peñas, S., Reyes-Santias, F., Santiago-Boubeta, A.,Budget Transparency in Local Governments: An Empirical Analysis (Open Access),; Calvo-Gutiérrez, Elvira,Comunicación política 2.0 y buen gobierno,(2013) Miradas a las pantallas en el bolsillo, pp. 70-80. Cited 10 times.; Cameron, W.,Public accountability: Effectiveness, equity, ethics,; Canel-Crespo, María-José, Luoma-aho, Vilma,(2019) Public sector communication. Closing gaps between citizens and public organizations,Hoboken, NJ: Wiley-Blackwell. ISBN: 978 1 119 13562 3; Carnicero, Javier, Rojas, David,(2010) Application of information and communication technologies for health systems in Belgium, Denmark, Spain, the United Kingdom and Sweden. Cited 5 times.,Santiago de Chile: United Nations. ISBN: 978 9 211 21746 9; Casadesús de Mingo, A., Cerrillo-i-Martínez, A.,Improving records management to promote transparency and prevent corruption (Open Access),; Charvel, S., Cobo, F., Larrea, S., Baglietto, J.,Challenges in Priority Setting from a Legal Perspective in Brazil, Costa Rica, Chile, and Mexico,; Cid, C., Uthoff, A.,The pending health reform in Chile: Reflections on a proposal to transform the system (Open Access),; Cuillier, D., Piotrowski, S.J.,Internet information-seeking and its relation to support for access to government records,; Cruz, N.F.D., Marques, R.C.,Scorecards for sustainable local governments (Open Access),; Del-Rey-Morató, Javier,(2007) Comunicación política, Internet y campañas electorales. De la Teledemocracia a la Ciberdemocracia. Cited 2 times.,Madrid: Tecnos. ISBN: 978 84 309 4506 1; Díaz, Leonardo,Administrando la comunicación de riesgos en una emergencia sanitaria, ‘El caso de la erupción del Volcán Calbuco’, Chile 2015,(2015) Revista española de comunicación en salud, 10 (1), pp. 94-101. Cited 3 times.; Etzioni, A.,Is Transparency the Best Disinfectant?,; Fenster, M.,Transparency in search of a theory,; Francescutti, Pablo, Saperas, Enric,Los gabinetes de prensa como fuente de información política en España,(2015) La trama de la comunicación, 19, pp. 265-282. Cited 4 times.; Gandía, J.L., Marrahí, L., Huguet, D.,Digital transparency and Web 2.0 in Spanish city councils,; García-Altés, A., Argimon, J.M.,Transparency in public health decision-making (Open Access),; García-García, J., Curto-Rodríguez, R.,Disclosure of public information of Spanish regional governments (2013-2017): Open data portals, transparency portals and institutional websites (Open Access),; García-García, J., Curto-Rodríguez, R.,Exercising accountability through open data portals in Spanish Autonomous Communities (Open Access),; Garriga-Portolà, M.,,(2011) Profesional de la Informacion, 20 (3), pp. 298-303. Cited 17 times.; González-Limón, M., Rodríguez-Ramos, A.,Review of compliance with Open Data by the Spanish City Councils in the Aporta initiative (Open Access),; Goyenechea, Matías,Estado subsidiario, segmentación y desigualdad en el sistema de salud chileno,(2019) Cuadernos médico sociales, 59 (2), pp. 7-12. Cited 5 times.; Grimmelikhuijsen, S.G., Welch, E.W.,Developing and Testing a Theoretical Framework for Computer-Mediated Transparency of Local Governments (Open Access),; Hänska, M., Bauchowitz, S.,Can social media facilitate a European public sphere? Transnational communication and the Europeanization of Twitter during the Eurozone crisis (Open Access),; Hernández-Bonivento, José,La forma y la esencia: efectos de las leyes de transparencia, acceso a la información y participación ciudadana en la gobernanza democrática local en Chile,(2020) Revista de gestión pública, 7 (2), pp. 143-169. Cited 6 times.; (2020) Human rights dimensions of Covid-19 response. Cited 46 times.,https://bit.ly/3qRe7II,  43; Jaeger, P.T., Bertot, J.C.,Transparency and technological change: Ensuring equal and sustained public access to government information,; Kim, S., Lee, J.,E-Participation, transparency, and trust in local government,; Lucio, R., Villacrés, N., Henríquez, R.,The health system of Ecuador,; Magallón-Rosa, R., Bolaños-Huertas, V., Anderica-Caffarena, V.,Changing civil society in Spain through transparency and civic technologies (Open Access),; Sánchez, J.L.M.,Indicators of transparency and good governance of Spanish municipalities online (Open Access),; Masud, M.A.K., Bae, S.M., Manzanares, J., Kim, J.D.,Board directors' expertise and corporate corruption disclosure: The moderating role of political connections (Open Access),; Medranda-Morales, Narcisa-Jessenia,(2017) Calidad y transparencia en la información y comunicación que se emite a través de las páginas webs de los municipios: comparación de caso Ecuador y España,Barcelona: Universitat Autònoma de Barcelona; (2016) Municipios saludables en el Ecuador [Health municipalities in Ecuador],Ministerio de Salud Pública Quito: Asociación de Municipalidades Ecuatorianas,  52; Molina Rodríguez-Navas, P., Medranda Morales, N.J.,The transparency of the Ecuadorian municipality websites: Methodology and results (Open Access),; Molina Rodríguez-Navas, P., Simelio Solà, N., Corcoy Rius, M.,Methodology for transparency evaluation: Procedures and problems (Open Access),; Molina-Rodríguez-Navas, Pedro, Simelio-Solà, Núria, Corcoy-Rius, Marta, Aguilar-Pérez, Antonio,Mapa Infoparticipa: cartografía interactiva para la mejora de la calidad y la transparencia de la comunicación pública local,(2015) Ar@ cne. Revista electrónica de recursos en internet sobre geografía y ciencias sociales, 202.; Moreno Sardà, A., Molina Rodríguez-Navas, P., Corcoy Rius, M.,The information published by local governments. The websites of Catalonia's municipal governments (Open Access),; Moreno-Sarda, A., Molina-Rodríguez-navas, P., Simelio-Solà, N.,The impact of legislation on the transparency in information published by local administrations (Open Access),; Lalinde, J.M., Rodríguez-Navas, P.M.,Methodology to evaluate the transparency on colombian town halls’ websites,; Alonso, M.O., Ibáñez, D.B.,Intermediate journalistic cultures. International comparative studies in journalism,; Orduña-Ortegón, Yeimi-Pilar,Avances en la construcción de un sistema de información en salud en Colombia,(2014) Ciencia y tecnología para la salud visual y ocular, 12 (2), pp. 73-86. Cited 2 times.; Patiño, José-Félix,The health system in Colombia: crisis without precedent,(2013) Revista de cirugía, 28 (4), pp. 259-261. Cited 8 times.; Pina, V., Torres, L., Royo, S.,Is e-government promoting convergence towards more accountable local governments?,; Rebolledo, Marta, Rodríguez-Virgili, Jordi, Zamora-Medina, Rocío,La comunicación pública y local: transparencia y participación. Análisis comparativo de las websites municipales de Navarra y Murcia,(2015) XII Congreso español de ciencia política y de la administración-AECPA. Cited 2 times.; Ramírez, C.R.,CONFLICT RESOLUTION IN THE HEALTH SYSTEM, MEDIATION AND ARBITRATION IN AN INSTITUTIONAL CONTEXT (Open Access),; Roberts, A.,Blacked out: Government secrecy in the information age,; Rotarou, E.S., Sakellariou, D.,Neoliberal reforms in health systems and the construction of long-lasting inequalities in health care: A case study from Chile (Open Access),; Sagiv, L., Roccas, S., Cieciuch, J., Schwartz, S.H.,Personal values in human life (Open Access),; Sanders, K., Crespo, M.J.C., Holtz-Bacha, C.,Communicating governments: A three-country comparison of how governments communicate with citizens,; Santos, P.M., Galindo, F., Rover, A.J.,Democratic access to information in Spanish government portals: A comparative analysis between 2013 and 2015,; Schmidthuber, L., Ingrams, A., Hilgers, D.,Government Openness and Public Trust: The Mediating Role of Democratic Capacity (Open Access),; Schudson, M.,The Shortcomings of Transparency for Democracy,; Skaržauskienė, A., Mačiulienė, M.,Mapping International Civic Technologies Platforms (Open Access),; Suárez-Rozo, L.F., Puerto-García, S., Rodríguez-Moreno, L.M., Ramírez-Moreno, J.,The crisis of the Colombian health system: An approach from legitimacy and regulation (Open Access),; Uvalle-Berrones, Ricardo,Gobernabilidad, transparencia y reconstrucción del Estado,(2007) Convergencia, 14 (45), pp. 47-74. Cited 6 times.; van Ruler, B.,Communication Theory: An Underrated Pillar on Which Strategic Communication Rests (Open Access),; Vargas-Arias, Luis-Humberto,(2019) Límites a la autonomía de los Gobiernos Autónomos Descentralizados,Estudio de los GAD parroquiales rurales. Ecuador: Universidad Andina Simón Bolívar; Vian, T.,Anti-corruption, transparency and accountability in health: concepts, frameworks, and approaches (Open Access),; Vu, H.T., Saldaña, M.,Chillin’ Effects of Fake News: Changes in Practices Related to Accountability and Transparency in American Newsrooms Under the Influence of Misinformation and Accusations Against the News Media,; (2020) Digital 2020: Global digital yearbook. Cited 430 times.,https://datareportal.com/reports/digital-2020-global-digital-yearbook,  80</t>
+          <t>Abusleme, Cesar,Why do governments further open data strategies? The cases of Mexico, Chile and Colombia,(2020) Revista estudios de políticas públicas, 6 (1), pp. 20-43. Cited 2 times.; Calderón, C.A.A., Botero, J.C., Bolaños, J.O., Martínez, R.R.,The Colombian healthcare system: 20 years of achievements and problems,; Alloa, E., Thomä, D.,Transparency, society and subjectivity: Critical perspectives,; Alt, J.E., Lassen, D.D.,Fiscal transparency, political parties, and debt in OECD countries,; Andersen, T.B.,E-Government as an anti-corruption strategy,; Aparici, R., García-Marín, D.,Prosumers and emirecs: Analysis of two confronted theories,; Barredo-Ibáñez, Daniel,El análisis de contenido. Una introducción a la cuantificación de la realidad,(2015) Revista San Gregorio, 1, pp. 26-31. Cited 16 times.; Beltrán-Orenes, P., Martínez-Pastor, E.,Degree of compliance with the Laws of Transparency, access, and good governance and of the Reuse of procurement data from the Spanish central government (Open Access),; Berganza Conde, R.M., Arcila Calderón, C., Miguel Pascual, R.,Negativity in the political news in the Spanish news media,; Bernal-Acevedo, O., Forero-Camacho, J.C.,Information systems in health sector in Colombia,; Bertot, J.C., Jaeger, P.T., Grimes, J.M.,Using ICTs to create a culture of transparency: E-government and social media as openness and anti-corruption tools for societies,; Bertot, J.C., Jaeger, P.T., Grimes, J.M.,Promoting transparency and accountability through ICTs, social media, and collaborative e-government,; Betancourt-Velázquez, Andrea-Carolina, Caviedes-Niño, Ivonne-Liliana,Metodología de correlación estadística de un sistema integrado de gestión de la calidad en el sector salud,(2018) Signos, 10 (2), pp. 119-139. Cited 4 times.; Binimelis-Espinoza, Helder, Veechi-Llanquile, Valentina,Transparencia y accesibilidad: evaluación del Servicio Nacional de Discapacidad en Chile desde la perspectiva de personas en situación de discapacidad visual,(2018) Revista uruguaya de ciencia política, 27 (2), pp. 57-74. Cited 2 times.; Borge-Bravo, Rosa,Nuevas tecnologías y regeneración de la democracia,(2007) Democracia, participación y voto a través de las nuevas tecnologías, pp. 25-34. Cited 5 times.; Buitrón-Vega, Miriam-Elena, Gea-Izquierdo, Enrique, García-Oquendo, María-Verónica,Tecnologías en información y comunicación sanitaria,(2016) Revista PUCE, 102, pp. 271-290. Cited 6 times.; Caamaño-Alegre, J., Lago-Peñas, S., Reyes-Santias, F., Santiago-Boubeta, A.,Budget Transparency in Local Governments: An Empirical Analysis,; Calvo-Gutiérrez, Elvira,Comunicación política 2.0 y buen gobierno,(2013) Miradas a las pantallas en el bolsillo, pp. 70-80. Cited 10 times.; Cameron, W.,Public accountability: Effectiveness, equity, ethics,; Canel-Crespo, María-José, Luoma-aho, Vilma,(2019) Public sector communication. Closing gaps between citizens and public organizations,Hoboken, NJ: Wiley-Blackwell. ISBN: 978 1 119 13562 3; Carnicero, Javier, Rojas, David,(2010) Application of information and communication technologies for health systems in Belgium, Denmark, Spain, the United Kingdom and Sweden. Cited 5 times.,Santiago de Chile: United Nations. ISBN: 978 9 211 21746 9; Casadesús de Mingo, A., Cerrillo-i-Martínez, A.,Improving records management to promote transparency and prevent corruption,; Charvel, S., Cobo, F., Larrea, S., Baglietto, J.,Challenges in Priority Setting from a Legal Perspective in Brazil, Costa Rica, Chile, and Mexico,; Cid, C., Uthoff, A.,The pending health reform in Chile: Reflections on a proposal to transform the system,; Cuillier, D., Piotrowski, S.J.,Internet information-seeking and its relation to support for access to government records,; Cruz, N.F.D., Marques, R.C.,Scorecards for sustainable local governments,; Del-Rey-Morató, Javier,(2007) Comunicación política, Internet y campañas electorales. De la Teledemocracia a la Ciberdemocracia. Cited 2 times.,Madrid: Tecnos. ISBN: 978 84 309 4506 1; Díaz, Leonardo,Administrando la comunicación de riesgos en una emergencia sanitaria, ‘El caso de la erupción del Volcán Calbuco’, Chile 2015,(2015) Revista española de comunicación en salud, 10 (1), pp. 94-101. Cited 3 times.; Etzioni, A.,Is Transparency the Best Disinfectant?,; Fenster, M.,Transparency in search of a theory,; Francescutti, Pablo, Saperas, Enric,Los gabinetes de prensa como fuente de información política en España,(2015) La trama de la comunicación, 19, pp. 265-282. Cited 4 times.; Gandía, J.L., Marrahí, L., Huguet, D.,Digital transparency and Web 2.0 in Spanish city councils,; García-Altés, A., Argimon, J.M.,Transparency in public health decision-making (Open Access),; García-García, J., Curto-Rodríguez, R.,Disclosure of public information of Spanish regional governments (2013-2017): Open data portals, transparency portals and institutional websites (Open Access),; García-García, J., Curto-Rodríguez, R.,Exercising accountability through open data portals in Spanish Autonomous Communities (Open Access),; Garriga-Portolà, M.,,(2011) Profesional de la Informacion, 20 (3), pp. 298-303. Cited 17 times.; González-Limón, M., Rodríguez-Ramos, A.,Review of compliance with Open Data by the Spanish City Councils in the Aporta initiative,; Goyenechea, Matías,Estado subsidiario, segmentación y desigualdad en el sistema de salud chileno,(2019) Cuadernos médico sociales, 59 (2), pp. 7-12. Cited 5 times.; Grimmelikhuijsen, S.G., Welch, E.W.,Developing and Testing a Theoretical Framework for Computer-Mediated Transparency of Local Governments (Open Access),; Hänska, M., Bauchowitz, S.,Can social media facilitate a European public sphere? Transnational communication and the Europeanization of Twitter during the Eurozone crisis (Open Access),; Hernández-Bonivento, José,La forma y la esencia: efectos de las leyes de transparencia, acceso a la información y participación ciudadana en la gobernanza democrática local en Chile,(2020) Revista de gestión pública, 7 (2), pp. 143-169. Cited 6 times.; (2020) Human rights dimensions of Covid-19 response. Cited 48 times.,https://bit.ly/3qRe7II,  43; Jaeger, P.T., Bertot, J.C.,Transparency and technological change: Ensuring equal and sustained public access to government information,; Kim, S., Lee, J.,E-Participation, transparency, and trust in local government (Open Access),; Lucio, R., Villacrés, N., Henríquez, R.,The health system of Ecuador (Open Access),; Magallón-Rosa, R., Bolaños-Huertas, V., Anderica-Caffarena, V.,Changing civil society in Spain through transparency and civic technologies,; Sánchez, J.L.M.,Indicators of transparency and good governance of Spanish municipalities online (Open Access),; Masud, M.A.K., Bae, S.M., Manzanares, J., Kim, J.D.,Board directors' expertise and corporate corruption disclosure: The moderating role of political connections (Open Access),; Medranda-Morales, Narcisa-Jessenia,(2017) Calidad y transparencia en la información y comunicación que se emite a través de las páginas webs de los municipios: comparación de caso Ecuador y España,Barcelona: Universitat Autònoma de Barcelona; (2016) Municipios saludables en el Ecuador [Health municipalities in Ecuador],Ministerio de Salud Pública Quito: Asociación de Municipalidades Ecuatorianas,  52; Molina Rodríguez-Navas, P., Medranda Morales, N.J.,The transparency of the Ecuadorian municipality websites: Methodology and results (Open Access),; Molina Rodríguez-Navas, P., Simelio Solà, N., Corcoy Rius, M.,Methodology for transparency evaluation: Procedures and problems (Open Access),; Molina-Rodríguez-Navas, Pedro, Simelio-Solà, Núria, Corcoy-Rius, Marta, Aguilar-Pérez, Antonio,Mapa Infoparticipa: cartografía interactiva para la mejora de la calidad y la transparencia de la comunicación pública local,(2015) Ar@ cne. Revista electrónica de recursos en internet sobre geografía y ciencias sociales, 202.; Moreno Sardà, A., Molina Rodríguez-Navas, P., Corcoy Rius, M.,The information published by local governments. The websites of Catalonia's municipal governments,; Moreno-Sarda, A., Molina-Rodríguez-navas, P., Simelio-Solà, N.,The impact of legislation on the transparency in information published by local administrations (Open Access),; Lalinde, J.M., Rodríguez-Navas, P.M.,Methodology to evaluate the transparency on colombian town halls’ websites,; Alonso, M.O., Ibáñez, D.B.,Intermediate journalistic cultures. International comparative studies in journalism,; Orduña-Ortegón, Yeimi-Pilar,Avances en la construcción de un sistema de información en salud en Colombia,(2014) Ciencia y tecnología para la salud visual y ocular, 12 (2), pp. 73-86. Cited 2 times.; Patiño, José-Félix,The health system in Colombia: crisis without precedent,(2013) Revista de cirugía, 28 (4), pp. 259-261. Cited 8 times.; Pina, V., Torres, L., Royo, S.,Is e-government promoting convergence towards more accountable local governments?,; Rebolledo, Marta, Rodríguez-Virgili, Jordi, Zamora-Medina, Rocío,La comunicación pública y local: transparencia y participación. Análisis comparativo de las websites municipales de Navarra y Murcia,(2015) XII Congreso español de ciencia política y de la administración-AECPA. Cited 2 times.; Ramírez, C.R.,CONFLICT RESOLUTION IN THE HEALTH SYSTEM, MEDIATION AND ARBITRATION IN AN INSTITUTIONAL CONTEXT,; Roberts, A.,Blacked out: Government secrecy in the information age,; Rotarou, E.S., Sakellariou, D.,Neoliberal reforms in health systems and the construction of long-lasting inequalities in health care: A case study from Chile (Open Access),; Sagiv, L., Roccas, S., Cieciuch, J., Schwartz, S.H.,Personal values in human life (Open Access),; Sanders, K., Crespo, M.J.C., Holtz-Bacha, C.,Communicating governments: A three-country comparison of how governments communicate with citizens (Open Access),; Santos, P.M., Galindo, F., Rover, A.J.,Democratic access to information in Spanish government portals: A comparative analysis between 2013 and 2015 (Open Access),; Schmidthuber, L., Ingrams, A., Hilgers, D.,Government Openness and Public Trust: The Mediating Role of Democratic Capacity,; Schudson, M.,The Shortcomings of Transparency for Democracy,; Skaržauskienė, A., Mačiulienė, M.,Mapping International Civic Technologies Platforms,; Suárez-Rozo, L.F., Puerto-García, S., Rodríguez-Moreno, L.M., Ramírez-Moreno, J.,The crisis of the Colombian health system: An approach from legitimacy and regulation,; Uvalle-Berrones, Ricardo,Gobernabilidad, transparencia y reconstrucción del Estado,(2007) Convergencia, 14 (45), pp. 47-74. Cited 6 times.; van Ruler, B.,Communication Theory: An Underrated Pillar on Which Strategic Communication Rests (Open Access),; Vargas-Arias, Luis-Humberto,(2019) Límites a la autonomía de los Gobiernos Autónomos Descentralizados,Estudio de los GAD parroquiales rurales. Ecuador: Universidad Andina Simón Bolívar; Vian, T.,Anti-corruption, transparency and accountability in health: concepts, frameworks, and approaches (Open Access),; Vu, H.T., Saldaña, M.,Chillin’ Effects of Fake News: Changes in Practices Related to Accountability and Transparency in American Newsrooms Under the Influence of Misinformation and Accusations Against the News Media,; (2020) Digital 2020: Global digital yearbook. Cited 431 times.,https://datareportal.com/reports/digital-2020-global-digital-yearbook,  80</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2582,11 +2452,6 @@
       <c r="O27" t="inlineStr">
         <is>
           <t>10.3145/epi.2022.ene.04</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>Varios Paises</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2496,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Alonso-Vidal, H.,(2020) Derecho administrativo y teoría del Derecho: Tres cuestiones fundamentales,Palestra Editores; Araujo, J.,(2017) Derecho Administrativo, Parte General,Ediciones Paredes; Chochowska, A.,Public administration as the service for the common good,(2019) Repozytorium Uniwersytetu Rzeszowskiego; de Juan-Mazuelas, A.I., Sánchez-Benito, M.C.,Considerations on the application of the administrative law penalties for aggression against health workers,; (2008) Constitución de la República del Ecuador. Cited 483 times.,Registro Oficial N. 449,https://www.defensa.gob.ec/wp-content/uploads/downloads/2021/02/Constitucion-de-la-Republica-del-Ecuador_act_ene-2021.pdf; (2011) Ley Orgánica de la Economía Popular y Solidaria. Cited 16 times.,Registro Oficial N. 444,https://www.oas.org/juridico/pdfs/mesicic4_ecu_econ.pdf; (2017) Código Orgánico Administrativo. Cited 7 times.,Registro Oficial Suplemento N. 31,https://www.gobiernoelectronico.gob.ec/wp-content/uploads/2020/11/COA.pdf; (2002) Ley Orgánica de la Contraloría General del Estado. Cited 4 times.,Registro Oficial Suplemento N. 595,https://www.oas.org/juridico/PDFs/mesicic5_ecu_ane_cge_23_ley_org_cge.pdf; (2019) Corte Nacional de Justicia,Proces 17811-2019-01846,http://esacc.cortecons-titucional.gob.ec/storage/api/v1/10_DWL_FL/e2NhcnBldGE6J3NvcnRlbycsIHV1aWQ6J2M4N-TEwNTYxLWJiMTktNGI2Mi05Yzg2LTBkYjA0O-GFhOTQ0Yy5wZGYnfQ==; Granda, R., Rivero, O.,(2017) Derecho administrativo,Quito: Universidad Andina. Corporación Editora Nacional; Moe, R. C., Gilmour, R. S.,Rediscovering principles of public administration: The neglected foundation of public law,(1995) Public Administration Review, 55 (2), pp. 135-146. Cited 168 times.; Moreta, A.,(2018) El Procedimiento Administrativo En Código Orgánico Administrativo,Tendencia Legal; Moreta, A.,(2019) Procedimiento Administrativo y Sancionador en el COA,Impugnaciones Administrativas. Ediciones Continente; Nuño, I.,(2016) Principios de la Potestad Sancionadora,Gabilex; Sturges, J.,What it Means to Succeed: Personal Conceptions of Career Success Held by Male and Female Managers at Different Ages,</t>
+          <t>Alonso-Vidal, H.,(2020) Derecho administrativo y teoría del Derecho: Tres cuestiones fundamentales,Palestra Editores; Araujo, J.,(2017) Derecho Administrativo, Parte General,Ediciones Paredes; Chochowska, A.,Public administration as the service for the common good,(2019) Repozytorium Uniwersytetu Rzeszowskiego; de Juan-Mazuelas, A.I., Sánchez-Benito, M.C.,Considerations on the application of the administrative law penalties for aggression against health workers,; (2008) Constitución de la República del Ecuador. Cited 489 times.,Registro Oficial N. 449,https://www.defensa.gob.ec/wp-content/uploads/downloads/2021/02/Constitucion-de-la-Republica-del-Ecuador_act_ene-2021.pdf; (2011) Ley Orgánica de la Economía Popular y Solidaria. Cited 16 times.,Registro Oficial N. 444,https://www.oas.org/juridico/pdfs/mesicic4_ecu_econ.pdf; (2017) Código Orgánico Administrativo. Cited 7 times.,Registro Oficial Suplemento N. 31,https://www.gobiernoelectronico.gob.ec/wp-content/uploads/2020/11/COA.pdf; (2002) Ley Orgánica de la Contraloría General del Estado. Cited 4 times.,Registro Oficial Suplemento N. 595,https://www.oas.org/juridico/PDFs/mesicic5_ecu_ane_cge_23_ley_org_cge.pdf; (2019) Corte Nacional de Justicia,Proces 17811-2019-01846,http://esacc.cortecons-titucional.gob.ec/storage/api/v1/10_DWL_FL/e2NhcnBldGE6J3NvcnRlbycsIHV1aWQ6J2M4N-TEwNTYxLWJiMTktNGI2Mi05Yzg2LTBkYjA0O-GFhOTQ0Yy5wZGYnfQ==; Granda, R., Rivero, O.,(2017) Derecho administrativo,Quito: Universidad Andina. Corporación Editora Nacional; Moe, R. C., Gilmour, R. S.,Rediscovering principles of public administration: The neglected foundation of public law,(1995) Public Administration Review, 55 (2), pp. 135-146. Cited 168 times.; Moreta, A.,(2018) El Procedimiento Administrativo En Código Orgánico Administrativo,Tendencia Legal; Moreta, A.,(2019) Procedimiento Administrativo y Sancionador en el COA,Impugnaciones Administrativas. Ediciones Continente; Nuño, I.,(2016) Principios de la Potestad Sancionadora,Gabilex; Sturges, J.,What it Means to Succeed: Personal Conceptions of Career Success Held by Male and Female Managers at Different Ages,</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2662,11 +2527,6 @@
       <c r="O28" t="inlineStr">
         <is>
           <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85143226328&amp;partnerID=40&amp;md5=47a79f74c632d969d08983a04370f6aa</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
         </is>
       </c>
     </row>
@@ -2711,7 +2571,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Adam, C., Steinebach, Y., Knill, C.,Neglected challenges to evidence-based policy-making: the problem of policy accumulation,; Adelle, C., Russel, D.,Climate Policy Integration: A Case of Déjà Vu?,; Agranoff, R.,(2018) Local Governments in Multilevel Governance: the Administrative Dimension. Cited 9 times.,Lexington Books; Alexiadou, D.,Ideologues, Partisans, and Loyalists: Cabinet Ministers and Social Welfare Reform in Parliamentary Democracies,; Angelova, M., BÄck, H., MÜller, W.C., Strobl, D.,Veto player theory and reform making in Western Europe (Open Access),; Ansell, C., Boin, A., Keller, A.,Managing Transboundary Crises: Identifying the Building Blocks of an Effective Response System,; Ansell, C., Sørensen, E., Torfing, J.,The COVID-19 pandemic as a game changer for public administration and leadership? The need for robust governance responses to turbulent problems (Open Access),; Bäck, H., Müller, W.C., Angelova, M., Strobl, D.,Ministerial Autonomy, Parliamentary Scrutiny and Government Reform Output in Parliamentary Democracies (Open Access),; Baumgartner, F.R., Jones, B.D.,(2010) Agendas and Instability in American Politics, Second Edition.. Cited 4699 times.,University of Chicago Press; Baumgartner, F.R., Breunig, C., Grossman, E.,(2019) Comparative policy agendas: Theory, tools. Cited 70 times.,(eds), Oxford University Press; Baumgartner, F., Jones, B.D., Mortensen, P., Weible, C.M., Sabatier, P.A.,(2018) Punctuated-equilibrium theory: Explaining stability and change in public policymaking, pp. 53-101.,Theories of the policy process, Routledge; Biesbroek, R., Candel, J.J.L.,Mechanisms for policy (dis)integration: explaining food policy and climate change adaptation policy in the Netherlands (Open Access),; Birkland, T.A.,Lessons of disaster: Policy change after catastrophic events,; Bolognesi, T., Metz, F., Nahrath, S.,Institutional complexity traps in policy integration processes: a long-term perspective on Swiss flood risk management (Open Access),; Bolognesi, T., Pflieger, G.,The coherence(s) of institutional resource regimes: Typology and assessments from the case of water supply management,; Brandenberger, L., Ingold, K., Fischer, M., Schläpfer, I., Leifeld, P.,Boundary Spanning Through Engagement of Policy Actors in Multiple Issues (Open Access),; (2017) Policy Integration for Complex Environmental Problems: The Example of Mediterranean Desertification,Routledge,  18; Cairney, P., Weible, C.M.,The new policy sciences: combining the cognitive science of choice, multiple theories of context, and basic and applied analysis (Open Access),; Candel, J.J.L.,Holy Grail or inflated expectations? The success and failure of integrated policy strategies (Open Access),; Candel, J.J.L.,The expediency of policy integration (Open Access),; Candel, J.J.L., Biesbroek, R.,Toward a processual understanding of policy integration (Open Access),; Cejudo, G.M., Michel, C.L.,Addressing fragmented government action: coordination, coherence, and integration,; Cejudo, G.M., Michel, C.L.,Instruments for Policy Integration: How Policy Mixes Work Together,; Culpepper, P.D.,Quiet politics and business power: Corporate control in Europe and Japan,; Daly, M.,Gender mainstreaming in theory and practice,; Dang, A.N., Jackson, B.M., Benavidez, R., Tomscha, S.A.,Review of ecosystem service assessments: Pathways for policy integration in Southeast Asia (Open Access),; de Wilde, P., Leupold, A., Schmidtke, H.,Introduction: the differentiated politicisation of European governance (Open Access),; Domorenok, E., Graziano, P., Polverari, L.,Policy integration, policy design and administrative capacities. Evidence from EU cohesion policy (Open Access),; Dupont, C., Jordan, A.,Policy integration,; Egeberg, M., Trondal, J.,WHY STRONG COORDINATION AT ONE LEVEL OF GOVERNMENT IS INCOMPATIBLE WITH STRONG COORDINATION ACROSS LEVELS (AND HOW TO LIVE WITH IT): THE CASE OF THE EUROPEAN UNION,; Faling, M., Biesbroek, R., Karlsson-Vinkhuyzen, S., Termeer, K.,Policy entrepreneurship across boundaries: A systematic literature review,; Anti-politics, depoliticization, and governance,(2017) In Anti-Politics, Depoliticization, and Governance.. Cited 98 times.,Oxford University Press; Feindt, P.H., Schwindenhammer, S., Tosun, J.,Politicization, Depoliticization and Policy Change: A Comparative Theoretical Perspective on Agri-food Policy (Open Access),; Fischer, F.,Politics, values, and public policy: The problem of methodology,; Fischer, M., Maag, S.,Why Are Cross-Sectoral Forums Important to Actors? Forum Contributions to Cooperation, Learning, and Resource Distribution (Open Access),; Frisch Aviram, N., Cohen, N., Beeri, I.,Wind(ow) of Change: A Systematic Review of Policy Entrepreneurship Characteristics and Strategies,; Gerber, J.-D., Knoepfel, P., Nahrath, S., Varone, F.,Institutional Resource Regimes: Towards sustainability through the combination of property-rights theory and policy analysis,; Gollata, J.A.M., Newig, J.,Policy implementation through multi-level governance: analysing practical implementation of EU air quality directives in Germany,; Hacker, J.S., Pierson, P.,Policy Feedback in an Age of Polarization,; Head, B.W., Alford, J.,Wicked Problems: Implications for Public Policy and Management,; Herweg, N., Huß, C., Zohlnhöfer, R.,Straightening the three streams: Theorising extensions of the multiple streams framework,; Hill, M., Varone, F.,The public policy process,; Honig, M.I.,Complexity and policy implementation: Challenges and opportunities for the field,(2006) New directions in education policy implementation: Confronting complexity, pp. 1-23. Cited 165 times.; Gaming in targetworld: The targets approach to managing british public services,,(2006) Public Administration Review, 66 (4), pp. 515-521. Cited 328 times.; Hoppe, R.,(2011) The governance of problems: Puzzling, powering. Cited 146 times.,Policy Press; Howlett, M.,Designing public policies: Principles and instruments,; Howlett, M., Cashore, B.,The Dependent Variable Problem in the Study of Policy Change: Understanding Policy Change as a Methodological Problem,; Howlett, M., How, Y.P., del Rio, P.,The parameters of policy portfolios: verticality and horizontality in design spaces and their consequences for policy mix formulation,; Handbook of policy formulation,(2017) Edward Elgar,  51; (2020) Studying Public Policy: Principles and Processes (Fourth Edition,Oxford University Press,  53; (2015) Understanding Street-Level Bureaucracy.. Cited 2 times.,Policy Press,  55; Ingold, K., Varone, F.,Treating policy brokers seriously: Evidence from the climate policy (Open Access),; Jenkins-Smith, H.C., Nohrstedt, D., Weible, C.M., Ingold, K.,The advocacy coalition framework: An overview of the research program,(2018) In Theories of the Policy Process (4Th Eds.), Westview Press, pp. 135-171. Cited 149 times.; Jochim, A.E., May, P.J.,Beyond subsystems: Policy regimes and governance,; Jones, B.D., Baumgartner, F.R.,The politics of attention: How government prioritizes problems,(2005) University of Chicago Press. Cited 4 times.; Jones, B.D., Baumgartner, F.R., Talbert, J.C.,The destruction of issue monopolies in Congress,; Jordan, A., Lenschow, A.,Policy paper environmental policy integration: A state of the art review,; Kickbusch, I., Buckett, K.,(2010) Implementing Health in All Policies. Cited 130 times.,Adelaide, Government of South Australia; Kingdon, J.,Agendas, Alternatives, and Public Policies (2nd edition),(2010) Pearson; Public policy: A new introduction,(2020) Red Globe Press,  65; Knill, C., Steinbacher, C., Steinebach, Y.,Balancing Trade-Offs between Policy Responsiveness and Effectiveness: The Impact of Vertical Policy-Process Integration on Policy Accumulation (Open Access),; Lasswell, H.D.,The emerging conception of the policy sciences,; Leong, C., Howlett, M.,Policy Learning, Policy Failure, and the Mitigation of Policy Risks: Re-Thinking the Lessons of Policy Success and Failure (Open Access),; Lidén, G., Nyhlén, J.,Policy integration and coordination in governance of swedish migration policy. The annual conference of the Swedish Political Association, [DIGITAL],(2021) September 29– October, 1, p. 2021.; Lipsky, M.,Street-level bureaucracy: Dilemmas of the individual in public services,(2010) Russel Sage Foundation. Cited 7 times.; Lowi, T.J.,Four systems of policy, politics, and choice,(1972) Public Administration Review, 32 (4), pp. 298-310. Cited 1077 times.; Lubell, M.,Governing institutional complexity: The ecology of games framework,; Maggetti, M., Gilardi, F.,Problems (and solutions) in the measurement of policy diffusion mechanisms,; Maor, M., Howlett, M.P.,Policy instrument interactions in policy mixes: Surveying the conceptual and methodological landscape (SSRN Scholarly Paper ID 3790007),(2021) Social Science Research Network. Cited 2 times.; Mavrot, C., Hadorn, S.,When politicians do not care for the policy: Street-level compliance in cross-agency contexts,(2021) Public Policy and Administration; May, P.J.,Policy Learning and Failure,; May, P.J.,Implementation failures revisited: Policy regime perspectives,; May, P.J., Jochim, A.E., Sapotichne, J.,Constructing Homeland Security: An Anemic Policy Regime,; McGee, Z.A., Jones, B.D.,Reconceptualizing the Policy Subsystem: Integration with Complexity Theory and Social Network Analysis,; Mettler, S., SoRelle, M.,(2018) Policy feedback theories, pp. 102-133.,Theories of the policy process, Routledge, Westview Press</t>
+          <t>Adam, C., Steinebach, Y., Knill, C.,Neglected challenges to evidence-based policy-making: the problem of policy accumulation,; Adelle, C., Russel, D.,Climate Policy Integration: A Case of Déjà Vu?,; Agranoff, R.,(2018) Local Governments in Multilevel Governance: the Administrative Dimension. Cited 9 times.,Lexington Books; Alexiadou, D.,Ideologues, Partisans, and Loyalists: Cabinet Ministers and Social Welfare Reform in Parliamentary Democracies,; Angelova, M., BÄck, H., MÜller, W.C., Strobl, D.,Veto player theory and reform making in Western Europe,; Ansell, C., Boin, A., Keller, A.,Managing Transboundary Crises: Identifying the Building Blocks of an Effective Response System,; Ansell, C., Sørensen, E., Torfing, J.,The COVID-19 pandemic as a game changer for public administration and leadership? The need for robust governance responses to turbulent problems,; Bäck, H., Müller, W.C., Angelova, M., Strobl, D.,Ministerial Autonomy, Parliamentary Scrutiny and Government Reform Output in Parliamentary Democracies,; Baumgartner, F.R., Jones, B.D.,(2010) Agendas and Instability in American Politics, Second Edition.. Cited 4704 times.,University of Chicago Press; Baumgartner, F.R., Breunig, C., Grossman, E.,(2019) Comparative policy agendas: Theory, tools. Cited 73 times.,(eds), Oxford University Press; Baumgartner, F., Jones, B.D., Mortensen, P., Weible, C.M., Sabatier, P.A.,(2018) Punctuated-equilibrium theory: Explaining stability and change in public policymaking, pp. 53-101.,Theories of the policy process, Routledge; Biesbroek, R., Candel, J.J.L.,Mechanisms for policy (dis)integration: explaining food policy and climate change adaptation policy in the Netherlands,; Birkland, T.A.,Lessons of disaster: Policy change after catastrophic events,; Bolognesi, T., Metz, F., Nahrath, S.,Institutional complexity traps in policy integration processes: a long-term perspective on Swiss flood risk management,; Bolognesi, T., Pflieger, G.,The coherence(s) of institutional resource regimes: Typology and assessments from the case of water supply management,; Brandenberger, L., Ingold, K., Fischer, M., Schläpfer, I., Leifeld, P.,Boundary Spanning Through Engagement of Policy Actors in Multiple Issues,; (2017) Policy Integration for Complex Environmental Problems: The Example of Mediterranean Desertification,Routledge,  18; Cairney, P., Weible, C.M.,The new policy sciences: combining the cognitive science of choice, multiple theories of context, and basic and applied analysis,; Candel, J.J.L.,Holy Grail or inflated expectations? The success and failure of integrated policy strategies,; Candel, J.J.L.,The expediency of policy integration,; Candel, J.J.L., Biesbroek, R.,Toward a processual understanding of policy integration,; Cejudo, G.M., Michel, C.L.,Addressing fragmented government action: coordination, coherence, and integration,; Cejudo, G.M., Michel, C.L.,Instruments for Policy Integration: How Policy Mixes Work Together,; Culpepper, P.D.,Quiet politics and business power: Corporate control in Europe and Japan,; Daly, M.,Gender mainstreaming in theory and practice,; Dang, A.N., Jackson, B.M., Benavidez, R., Tomscha, S.A.,Review of ecosystem service assessments: Pathways for policy integration in Southeast Asia,; de Wilde, P., Leupold, A., Schmidtke, H.,Introduction: the differentiated politicisation of European governance,; Domorenok, E., Graziano, P., Polverari, L.,Policy integration, policy design and administrative capacities. Evidence from EU cohesion policy,; Dupont, C., Jordan, A.,Policy integration,; Egeberg, M., Trondal, J.,WHY STRONG COORDINATION AT ONE LEVEL OF GOVERNMENT IS INCOMPATIBLE WITH STRONG COORDINATION ACROSS LEVELS (AND HOW TO LIVE WITH IT): THE CASE OF THE EUROPEAN UNION (Open Access),; Faling, M., Biesbroek, R., Karlsson-Vinkhuyzen, S., Termeer, K.,Policy entrepreneurship across boundaries: A systematic literature review (Open Access),; Anti-politics, depoliticization, and governance,(2017) In Anti-Politics, Depoliticization, and Governance.. Cited 100 times.,Oxford University Press; Feindt, P.H., Schwindenhammer, S., Tosun, J.,Politicization, Depoliticization and Policy Change: A Comparative Theoretical Perspective on Agri-food Policy (Open Access),; Fischer, F.,Politics, values, and public policy: The problem of methodology,; Fischer, M., Maag, S.,Why Are Cross-Sectoral Forums Important to Actors? Forum Contributions to Cooperation, Learning, and Resource Distribution,; Frisch Aviram, N., Cohen, N., Beeri, I.,Wind(ow) of Change: A Systematic Review of Policy Entrepreneurship Characteristics and Strategies,; Gerber, J.-D., Knoepfel, P., Nahrath, S., Varone, F.,Institutional Resource Regimes: Towards sustainability through the combination of property-rights theory and policy analysis,; Gollata, J.A.M., Newig, J.,Policy implementation through multi-level governance: analysing practical implementation of EU air quality directives in Germany,; Hacker, J.S., Pierson, P.,Policy Feedback in an Age of Polarization,; Head, B.W., Alford, J.,Wicked Problems: Implications for Public Policy and Management (Open Access),; Herweg, N., Huß, C., Zohlnhöfer, R.,Straightening the three streams: Theorising extensions of the multiple streams framework,; Hill, M., Varone, F.,The public policy process,; Honig, M.I.,Complexity and policy implementation: Challenges and opportunities for the field,(2006) New directions in education policy implementation: Confronting complexity, pp. 1-23. Cited 165 times.; Gaming in targetworld: The targets approach to managing british public services,,(2006) Public Administration Review, 66 (4), pp. 515-521. Cited 328 times.; Hoppe, R.,(2011) The governance of problems: Puzzling, powering. Cited 146 times.,Policy Press; Howlett, M.,Designing public policies: Principles and instruments,; Howlett, M., Cashore, B.,The Dependent Variable Problem in the Study of Policy Change: Understanding Policy Change as a Methodological Problem (Open Access),; Howlett, M., How, Y.P., del Rio, P.,The parameters of policy portfolios: verticality and horizontality in design spaces and their consequences for policy mix formulation,; Handbook of policy formulation,(2017) Edward Elgar,  51; (2020) Studying Public Policy: Principles and Processes (Fourth Edition,Oxford University Press,  53; (2015) Understanding Street-Level Bureaucracy.. Cited 2 times.,Policy Press,  55; Ingold, K., Varone, F.,Treating policy brokers seriously: Evidence from the climate policy,; Jenkins-Smith, H.C., Nohrstedt, D., Weible, C.M., Ingold, K.,The advocacy coalition framework: An overview of the research program,(2018) In Theories of the Policy Process (4Th Eds.), Westview Press, pp. 135-171. Cited 149 times.; Jochim, A.E., May, P.J.,Beyond subsystems: Policy regimes and governance (Open Access),; Jones, B.D., Baumgartner, F.R.,The politics of attention: How government prioritizes problems,(2005) University of Chicago Press. Cited 4 times.; Jones, B.D., Baumgartner, F.R., Talbert, J.C.,The destruction of issue monopolies in Congress (Open Access),; Jordan, A., Lenschow, A.,Policy paper environmental policy integration: A state of the art review,; Kickbusch, I., Buckett, K.,(2010) Implementing Health in All Policies. Cited 130 times.,Adelaide, Government of South Australia; Kingdon, J.,Agendas, Alternatives, and Public Policies (2nd edition),(2010) Pearson; Public policy: A new introduction,(2020) Red Globe Press,  65; Knill, C., Steinbacher, C., Steinebach, Y.,Balancing Trade-Offs between Policy Responsiveness and Effectiveness: The Impact of Vertical Policy-Process Integration on Policy Accumulation (Open Access),; Lasswell, H.D.,The emerging conception of the policy sciences (Open Access),; Leong, C., Howlett, M.,Policy Learning, Policy Failure, and the Mitigation of Policy Risks: Re-Thinking the Lessons of Policy Success and Failure (Open Access),; Lidén, G., Nyhlén, J.,Policy integration and coordination in governance of swedish migration policy. The annual conference of the Swedish Political Association, [DIGITAL],(2021) September 29– October, 1, p. 2021.; Lipsky, M.,Street-level bureaucracy: Dilemmas of the individual in public services,(2010) Russel Sage Foundation. Cited 7 times.; Lowi, T.J.,Four systems of policy, politics, and choice,(1972) Public Administration Review, 32 (4), pp. 298-310. Cited 1078 times.; Lubell, M.,Governing institutional complexity: The ecology of games framework (Open Access),; Maggetti, M., Gilardi, F.,Problems (and solutions) in the measurement of policy diffusion mechanisms,; Maor, M., Howlett, M.P.,Policy instrument interactions in policy mixes: Surveying the conceptual and methodological landscape (SSRN Scholarly Paper ID 3790007),(2021) Social Science Research Network. Cited 2 times.; Mavrot, C., Hadorn, S.,When politicians do not care for the policy: Street-level compliance in cross-agency contexts,(2021) Public Policy and Administration; May, P.J.,Policy Learning and Failure (Open Access),; May, P.J.,Implementation failures revisited: Policy regime perspectives,; May, P.J., Jochim, A.E., Sapotichne, J.,Constructing Homeland Security: An Anemic Policy Regime,; McGee, Z.A., Jones, B.D.,Reconceptualizing the Policy Subsystem: Integration with Complexity Theory and Social Network Analysis,; Mettler, S., SoRelle, M.,(2018) Policy feedback theories, pp. 102-133.,Theories of the policy process, Routledge, Westview Press</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2742,11 +2602,6 @@
       <c r="O29" t="inlineStr">
         <is>
           <t>10.1007/s11077-022-09483-1</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>Varios Paises</t>
         </is>
       </c>
     </row>
@@ -2791,7 +2646,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Acosta, L.,Capacidad de respuesta frente a la pandemia de Covid-19 en América Latina y el Caribe,(2020) Cepal, 1, pp. 1-15. Cited 2 times.; Aguilar, L. F.,(2007) Gobernanza y administración pública. Cited 5 times.,México: Fondo de Cultura Económica; Bakir, C.,The Turkish state’s responses to existential COVID-19 crisis (Open Access),; Béland, D., Cox, R.H.,Introduction: Ideas and Politics,; Bemelmans-Videc, M.-L.,Introduction: Policy Instrument Choice and Evaluation,; Blankart, C.B., Koester, G.B.,Political economics versus public choice: Two views of political economy in competition,; Buchanan, J., Tullock, G.,(1980) El cálculo del consenso. Cited 24 times.,Madrid: Espasa; Cairney, P.,(2015) Policy and policymaking in the UK. Cited 3 times.,Basingstoke: Palgrave; Cairney, P., Wellstead, A.,COVID-19: effective policymaking depends on trust in experts, politicians, and the public (Open Access),; Capano, G., Howlett, M., Jarvis, D.S.L., Ramesh, M., Goyal, N.,Mobilizing Policy (In)Capacity to Fight COVID-19: Understanding Variations in State Responses (Open Access),; (2020) Global Cases by Country. Cited 2 times.,CSSE, C. for S. S. and E. Johns Hopkins University,https://coronavirus.jhu.edu/map.html; (2020) Medidas y acciones a nivel nacional. Cited 3 times.,Observatorio Covid-19 CEPAL,https://www.cepal.org/es/temas/covid-19; Cerrillo I Martínez, A.,(2005) Gobernanza hoy,(Coord). Madrid: INAP; Del Tronco, J.,Las ideas y las políticas públicas,(2020) Enfoques teóricos de políticas públicas. Desarrollos contemporáneos en América Latina, pp. 25-54.; Filgueira, F.,Los regímenes de bienestar en el ocaso de la modernización conservadora. Posibilidades y límites de la ciudadanía social en América Latina,(2013) Revista Uruguaya de Ciencia Política, 22 (2), pp. 17-46. Cited 21 times.; Fischer, F.,Deliberative Policy Analysis as Practical Reason: Integrating Empiri-cal and Normative Arguments,(2007) Handbook of Public Policy Analysis. Theory, Politics and Methods, pp. 125-223. Cited 13 times.; Franco Vargas, M. H., Roldán Restrepo, D.,The instruments of public policy. A transdisciplinary look,(2019) Cuadernos de Administración (Universidad del Va-lle), 35 (63), pp. 101-113. Cited 8 times.; Haveri, A., Nyholm, I., Røiseland, A., Vabo, S. I.,Governing collaboration: practices of metagovernance in Finnish and Norwegian local governments,(2009) Local Government Studies, 35 (5), pp. 539-556. Cited 45 times.; Hood, C.,Exploring Government’s Toolshed,(1986) The Tools of Government, pp. 1-15.; Hood, C., Margetts, H.,Looking Ahead. The Tools of Government in the Digital Age,(2007) The Tools of Government in the Digital Age, pp. 184-203.; Howlett, M.,What is a policy instrument? Tools, mixes, and implementation styles,; Howlett, M.,Policy analytical capacity and evidence-based policy-making: Lessons from Canada,; Howlett, M,(2011) Designing Public Policies. Principles and Instruments. Cited 110 times.,Taylor &amp; Francis Group; Howlett, M.,The Policy Design Primer: Choosing the Right Tools for the Job,; Howlett, M.,Structural mechanisms affecting policy subsystems activity: beyond individual and group behavioral propensities in policy design and policy change (Open Access),; Howlett, M.,Qué es un instrumento de políticas. Herramientas, combinaciones y estilos de implementación,(2019) Los instrumentos de política pública, pp. 299-337.; Jordan, A., Wurzel, R.K.W., Zito, A.,The rise of 'new' policy instruments in comparative perspective: Has governance eclipsed government?,; Kjaer, A. M.,(2004) Governance. Cited 673 times.,Cambridge: Policy Press; Klijn, E.-H.,Trust in Governance Networks: Looking for Conditions for Innovative Solutions and Outcomes,; Knoepfel, P., Larrue, C., Varone, F., Hinojosa, M.,Hacia un modelo de políticas públicas operativo,(2007) Ciencia política, (3), pp. 6-29. Cited 4 times.; Kooiman, J.,Gobernar en gobernanza,(2005) Gober-nanza hoy, pp. 57-81. Cited 38 times.; Lascoumes, P., Legalés, P.,Comprensión de las políticas públicas a través de instrumentos. De la naturaleza de los instrumentos a la sociología de la instru-mentación en políticas públicas,(2019) Los instrumentos de política pública, pp. 211-242. Cited 2 times.; Lowi, T. J.,Four Systems of Politics, Policy and Choice,(1972) Public Administration Review, 32 (4), pp. 298-310. Cited 1077 times.; Marsh, D., Rhodes, R. A. W.,(1992) Policy networks in British government. Cited 1040 times.,(Eds). Oxford Clarendon Press; Majone, G.,(2008) Policies as Contracts: Public Policy and Globalization,Conferencia presentada en la apertura de Cursos del Centro de Investigación y Docencia Económicas; Migone, A.R.,Trust, but customize: federalism’s impact on the Canadian COVID-19 response (Open Access),; (2021) Data on COVID-19 (coronavirus). Cited 3 times.,github,https://github.com/owid/covid-19-data/tree/master/public/data; Paz-Gómez, D.M., Enríquez, M.C.S.,Policy (In) capacity in covid-19‘s times: Understanding the economic responses of Colombia and ecuador (Open Access),; Peters, G., Pierre, J.,¿Por qué ahora el interés por la gobernanza?,(2005) Gobernanza hoy, pp. 37-56. Cited 10 times.; Porras, F.,(2016) Gobernanza. Propuestas, límites y perspectivas. Cited 5 times.,México: Instituto de Investigaciones Dr. José Luis María Mora; Rhodes, R. A. W.,(1997) Understanding governance. Policy networks, governance, re-flexivity and accountability. Cited 3169 times.,Maidenhead: Open University Press; Roth-Deubel, A. N.,(2006) Políticas Públicas. Formulación, implementación y evaluación. Cited 2 times.,(5ta ed). Bogotá: Ediciones Aurora; Sabatier, P., Mazmanian, D.,The conditions of effective implementation: a guide to accomplishing policy objectives.,; Salamon, L.,The New Governance and the Tools of Public Action: An Introduc-tion,(2002) The Tools of Government. A Guide to the New Governance, pp. 1-47. Cited 399 times.; Subirats, J., Knoepfel, P., Larrue, C., Varone, F.,(2008) Análisis y gestión de políticas públicas. Cited 91 times.,Barcelona: Ariel; van Vught, F., de Boer, H.,Governance models and policy instruments,; Villarreal, E.,(2019) Los instrumentos de política pública. Cited 2 times.,México: Siglo XXI; Report of the WHO-China Joint Mission on Coronavirus Disease 2019 (COVID-19),(2020) . Cited 2323 times.,The WHO-China Joint Mission on Coronavirus Disease 2019 (Issue February); Wu, I.,Who regulates phones, television, and the internet? What makes a communications regulator independent and why it matters,; Wu, X., Ramesh, M., Howlett, M.,Policy capacity: A conceptual framework for understanding policy competences and capabilities,</t>
+          <t>Acosta, L.,Capacidad de respuesta frente a la pandemia de Covid-19 en América Latina y el Caribe,(2020) Cepal, 1, pp. 1-15. Cited 2 times.; Aguilar, L. F.,(2007) Gobernanza y administración pública. Cited 5 times.,México: Fondo de Cultura Económica; Bakir, C.,The Turkish state’s responses to existential COVID-19 crisis,; Béland, D., Cox, R.H.,Introduction: Ideas and Politics,; Bemelmans-Videc, M.-L.,Introduction: Policy Instrument Choice and Evaluation,; Blankart, C.B., Koester, G.B.,Political economics versus public choice: Two views of political economy in competition,; Buchanan, J., Tullock, G.,(1980) El cálculo del consenso. Cited 24 times.,Madrid: Espasa; Cairney, P.,(2015) Policy and policymaking in the UK. Cited 3 times.,Basingstoke: Palgrave; Cairney, P., Wellstead, A.,COVID-19: effective policymaking depends on trust in experts, politicians, and the public,; Capano, G., Howlett, M., Jarvis, D.S.L., Ramesh, M., Goyal, N.,Mobilizing Policy (In)Capacity to Fight COVID-19: Understanding Variations in State Responses,; (2020) Global Cases by Country. Cited 2 times.,CSSE, C. for S. S. and E. Johns Hopkins University,https://coronavirus.jhu.edu/map.html; (2020) Medidas y acciones a nivel nacional. Cited 3 times.,Observatorio Covid-19 CEPAL,https://www.cepal.org/es/temas/covid-19; Cerrillo I Martínez, A.,(2005) Gobernanza hoy,(Coord). Madrid: INAP; Del Tronco, J.,Las ideas y las políticas públicas,(2020) Enfoques teóricos de políticas públicas. Desarrollos contemporáneos en América Latina, pp. 25-54.; Filgueira, F.,Los regímenes de bienestar en el ocaso de la modernización conservadora. Posibilidades y límites de la ciudadanía social en América Latina,(2013) Revista Uruguaya de Ciencia Política, 22 (2), pp. 17-46. Cited 21 times.; Fischer, F.,Deliberative Policy Analysis as Practical Reason: Integrating Empiri-cal and Normative Arguments,(2007) Handbook of Public Policy Analysis. Theory, Politics and Methods, pp. 125-223. Cited 13 times.; Franco Vargas, M. H., Roldán Restrepo, D.,The instruments of public policy. A transdisciplinary look,(2019) Cuadernos de Administración (Universidad del Va-lle), 35 (63), pp. 101-113. Cited 8 times.; Haveri, A., Nyholm, I., Røiseland, A., Vabo, S. I.,Governing collaboration: practices of metagovernance in Finnish and Norwegian local governments,(2009) Local Government Studies, 35 (5), pp. 539-556. Cited 45 times.; Hood, C.,Exploring Government’s Toolshed,(1986) The Tools of Government, pp. 1-15.; Hood, C., Margetts, H.,Looking Ahead. The Tools of Government in the Digital Age,(2007) The Tools of Government in the Digital Age, pp. 184-203.; Howlett, M.,What is a policy instrument? Tools, mixes, and implementation styles,; Howlett, M.,Policy analytical capacity and evidence-based policy-making: Lessons from Canada,; Howlett, M,(2011) Designing Public Policies. Principles and Instruments. Cited 110 times.,Taylor &amp; Francis Group; Howlett, M.,The Policy Design Primer: Choosing the Right Tools for the Job,; Howlett, M.,Structural mechanisms affecting policy subsystems activity: beyond individual and group behavioral propensities in policy design and policy change,; Howlett, M.,Qué es un instrumento de políticas. Herramientas, combinaciones y estilos de implementación,(2019) Los instrumentos de política pública, pp. 299-337.; Jordan, A., Wurzel, R.K.W., Zito, A.,The rise of 'new' policy instruments in comparative perspective: Has governance eclipsed government?,; Kjaer, A. M.,(2004) Governance. Cited 676 times.,Cambridge: Policy Press; Klijn, E.-H.,Trust in Governance Networks: Looking for Conditions for Innovative Solutions and Outcomes,; Knoepfel, P., Larrue, C., Varone, F., Hinojosa, M.,Hacia un modelo de políticas públicas operativo,(2007) Ciencia política, (3), pp. 6-29. Cited 5 times.; Kooiman, J.,Gobernar en gobernanza,(2005) Gober-nanza hoy, pp. 57-81. Cited 38 times.; Lascoumes, P., Legalés, P.,Comprensión de las políticas públicas a través de instrumentos. De la naturaleza de los instrumentos a la sociología de la instru-mentación en políticas públicas,(2019) Los instrumentos de política pública, pp. 211-242. Cited 2 times.; Lowi, T. J.,Four Systems of Politics, Policy and Choice,(1972) Public Administration Review, 32 (4), pp. 298-310. Cited 1078 times.; Marsh, D., Rhodes, R. A. W.,(1992) Policy networks in British government. Cited 1040 times.,(Eds). Oxford Clarendon Press; Majone, G.,(2008) Policies as Contracts: Public Policy and Globalization,Conferencia presentada en la apertura de Cursos del Centro de Investigación y Docencia Económicas; Migone, A.R.,Trust, but customize: federalism’s impact on the Canadian COVID-19 response,; (2021) Data on COVID-19 (coronavirus). Cited 3 times.,github,https://github.com/owid/covid-19-data/tree/master/public/data; Paz-Gómez, D.M., Enríquez, M.C.S.,Policy (In) capacity in covid-19‘s times: Understanding the economic responses of Colombia and ecuador,; Peters, G., Pierre, J.,¿Por qué ahora el interés por la gobernanza?,(2005) Gobernanza hoy, pp. 37-56. Cited 11 times.; Porras, F.,(2016) Gobernanza. Propuestas, límites y perspectivas. Cited 5 times.,México: Instituto de Investigaciones Dr. José Luis María Mora; Rhodes, R. A. W.,(1997) Understanding governance. Policy networks, governance, re-flexivity and accountability. Cited 3173 times.,Maidenhead: Open University Press; Roth-Deubel, A. N.,(2006) Políticas Públicas. Formulación, implementación y evaluación. Cited 2 times.,(5ta ed). Bogotá: Ediciones Aurora; Sabatier, P., Mazmanian, D.,The conditions of effective implementation: a guide to accomplishing policy objectives. (Open Access),; Salamon, L.,The New Governance and the Tools of Public Action: An Introduc-tion,(2002) The Tools of Government. A Guide to the New Governance, pp. 1-47. Cited 399 times.; Subirats, J., Knoepfel, P., Larrue, C., Varone, F.,(2008) Análisis y gestión de políticas públicas. Cited 92 times.,Barcelona: Ariel; van Vught, F., de Boer, H.,Governance models and policy instruments,; Villarreal, E.,(2019) Los instrumentos de política pública. Cited 2 times.,México: Siglo XXI; Report of the WHO-China Joint Mission on Coronavirus Disease 2019 (COVID-19),(2020) . Cited 2330 times.,The WHO-China Joint Mission on Coronavirus Disease 2019 (Issue February); Wu, I.,Who regulates phones, television, and the internet? What makes a communications regulator independent and why it matters (Open Access),; Wu, X., Ramesh, M., Howlett, M.,Policy capacity: A conceptual framework for understanding policy competences and capabilities,</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2822,11 +2677,6 @@
       <c r="O30" t="inlineStr">
         <is>
           <t>10.17533/udea.esde.v78n171a10</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>Varios Paises</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2721,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>(2018) Claves para el mejoramiento escolar. Cited 3 times.,Agencia de calidad de la Educación,  2; Alarcón-Leiva, J., Gotelli-Alvial, C., Díaz-Yáñez, M.,Inclusion of migrant students: A challenge for school management (Open Access),; Aravena, O., Riquelme, P., Mellado, M.E., Villagra, C.,Inclusión de Estudiantes Migrantes en la Región de La Araucanía, Chile: Representaciones desde los Directivos Escolares,(2019) Revista latinoamericana de educación inclusiva, 13 (1), pp. 55-71. Cited 5 times.; Arlestig, H., Day, C., Johansson, O.,(2016) A Decade of Research on School Principals: Case Studies from 24 Countries. Cited 50 times.,Springer; Budnik, J.A., Chávez, R.C., López, G.J., Rojo, J.R., Edmonson, R.S., Morales, M.S.,The chilean education enterprise (Open Access),; Atkinson, P., Coffey, A,Revisiting the relationship between participant observation and interviewing,(2003) Inside interviewing: New lenses, new concerns, pp. 415-428. Cited 183 times.; Ball, S.J., Maguire, M., Braun, A., Hoskins, K.,Policy actors: Doing policy work in schools,; Bell, L., Stevenson, H.,Education policy: Process, themes and impact,; Bellei, C.,Educación para el siglo 21 en el siglo 21. ¿Tomamos el tren correcto?,(2020) Horizontes y propuestas para transformar el sistema educativo chileno, pp. 79-103.; Billig, M.,The dialogic unconscious: Psychoanalysis, discursive psychology and the nature of repression,; Bush, T.,Mejora escolar y modelos de liderazgo: hacia la comprensión de un liderazgo efectivo,(2016) Liderazgo educativo en la escuela, nueve miradas, pp. 19-44. Cited 6 times.; Calderón-Almendros, I., Ainscow, M., Bersanelli, S., Molina-Toledo, P.,Educational inclusion and equity in Latin America: An analysis of the challenges,; Campos, F., Valdés, R., Ascorra, P.,¿Líder pedagógico o gerente de escuela? Evolución del rol del director de escuela en Chile,(2019) Calidad en la educación, (51), pp. 53-84. Cited 10 times.; Cancino, V.C., Monrroy, L.V.,Education policies to strengthen directive leadership: Challenges for Chile in a comparative analysis with OECD countries (Open Access),; DeMatthews, D.,Making Sense of Social Justice Leadership: A Case Study of a Principal’s Experiences to Create a More Inclusive School,; Edwards, D., Potter, J.,(1992) Discursive Psychology. Cited 2285 times.,Sage; Escarbajal, A.,Educación inclusiva e intercultural,(2010) International Journal of Developmental and Educational Psychology, 3 (1), pp. 411-418. Cited 4 times.; Essomba, M. A.,(2006) Liderar escuelas interculturales e inclusivas: equipos directivos y profesorado ante la diversidad cultural y la inmigración. Cited 62 times.,Grao; Falabella, A.,The performing school: The effects of market &amp; accountability policies (Open Access),; Falabella, A.,The Seduction of Hyper-Surveillance: Standards, Testing, and Accountability,; Flessa, J.,La investigación reciente sobre liderazgo escolar en América Latina. El valor de un enfoque propio,(2019) Liderazgo en escuelas de alta complejidad sociocultural: diez miradas, pp. 317-342. Cited 3 times.; Flick, U.,(2015) El diseño de Investigación Cualitativa. Cited 222 times.,Ediciones Morata; Gewirtz, S., Ball, S.,From 'Welfarism' to 'New Managerialism': Shifting discourses of school headship in the education marketplace,; Gómez-Hurtado, I.,Dirección y gestión de la diversidad en la escuela: hacia un liderazgo inclusivo,(2013) Revista Fuentes, 14, pp. 61-84. Cited 14 times.; Gómez-Hurtado, I.,El Equipo directivo como promotor de buenas prácticas para la justicia social: hacia un liderazgo inclusivo,(2014) Revista Internacional de Educación para la Justicia Social, 3 (2), pp. 141-159. Cited 6 times.; Gómez-Hurtado, I., González-Falcón, I., Coronel, J.M.,Perceptions of secondary school principals on management of cultural diversity in Spain. The challenge of educational leadership,; Gómez‐hurtado, I., Valdés, R., González‐falcón, I., Vargas, F.J.,Inclusive leadership: Good managerial practices to address cultural diversity in schools (Open Access),; González-Falcón, I.,Atención a la diversidad cultural en el contexto educativo,(2021) Claves y desafíos para la escuela inclusiva. Cited 3 times.; Hall, D., McGinity, R.,Conceptualizing teacher professional identity in neoliberal times: Resistance, compliance and reform (Open Access),; Hall, D., McGinity, R.,Conceptualizing teacher professional identity in neoliberal times: Resistance, compliance and reform (Open Access),; Hernández-Luis, A., Carrasco, C., García-Guerra, S.,Sorting out chaos: Four methodological approaches to do research in public policy,; Hochman, E., Montero, M.,(2005) Investigación Documental: Técnicas y Procedimientos. Cited 8 times.,Panapo; HOOD, C.,A PUBLIC MANAGEMENT FOR ALL SEASONS?,; Ibáñez, T., Iñiguez, L.,Aspectos metodológicos de la Psicología Social aplicada,(1996) Psicología Social Aplicada, pp. 115-128. Cited 16 times.; Íñiguez, L., Antaki, Ch,El análisis del discurso en Psicología Social,(1994) Boletín de Psicología, 44, pp. 57-75. Cited 56 times.; Jiménez, F., Valdés, R.,Las Dimensiones no Reconocidas del Quehacer Educativo en Tiempos de Pandemia: El Cuidado y la Protección de las Minorías Extranjeras en Riesgo de Exclusión,(2020) Revista Internacional de Educación para la Justicia Social, 9 (3e). Cited 7 times.; Vargas, F.J.,Management models of cultural diversity for the schooling of immigrant students in chilean schools: Challenges for the current intercultural,; Jiménez, F., Valdivia, M.A., Morales, R.V., Yáñez, M.H.,Migration and school: Documentary analysis on the incorporation of immigrants into the Chilean educational system (Open Access),; Jiménez-Vargas, F., Morales, R.V., Hernández-Yáñez, M.-T., Fardella, C.,Linguistic devices for welcoming, expansive learning and interculturality: Contributions for the educational inclusion of foreign students (Open Access),; Koretz, D.,(2018) The testing charade: pretending to make schools better. Cited 117 times.,American Educator; León, M. J.,El liderazgo para y en la escuela inclusiva,(2012) Educatio Siglo XXI, 30 (1), pp. 133-160. Cited 24 times.; León, M.J., Crisol, E., Arrebola, R.M.,The task of the inclusive leader in educational centers in disadvantaged and favored areas (Open Access),; Lerena, B., Trejos, J.,Sobre la posibilidad de una educación inclusiva bajo el actual modelo de desarrollo económico y social chileno,(2015) Revista Latinoamericana de Educación Inclusiva, 9 (2), pp. 145-160. Cited 8 times.; (2015) Diario Oficial de la República de Chile. Cited 5 times.,Ley 20845. Santiago, Chile, 29 de mayo de,  46; (2018) Política nacional de estudiantes extranjeros 2018-2022. Cited 30 times.,(mayo),https://migrantes.mineduc.cl/wp-content/uploads/sites/88/2020/04/Pol%C3%ADtica-Nacional-Estud-Extranjeros.pdf; (2015) Manual Para La Buena Dirección y liderazgo escolar. Cited 39 times.,Ministerio de Educación. Mineduc,  49; Mora, M.L.,Política educativa para migrantes en Chile: un silencio elocuente,(2018) Polis, 17 (49), pp. 231-257. Cited 21 times.; Morrissey, B.,Theorising leadership for inclusion in the Irish context: A triadic typology within a distributed ecosystem,; Mundy, K., Menashy, F.,The world bank and private provision of schooling: A look through the lens of sociological theories of organizational hypocrisy,; Díaz, D.P., Kawada, F.H., Monzón, N.S., Stuardo, P.S.,A critical review of educational policies in the neoliberal era: The chilean case (Open Access),; Piñera, S.,(2010) Mensaje Presidencial 21 de mayo de 2010. Cited 5 times.,Cuenta pública sectorial; Melis, R.P.,Educational Policies and Migration in Latin America: Contributions for a comparative perspective (Open Access),; Pollitt, C.,Justification by Works or by Faith?: Evaluating the New Public Management,; Potter, J.,(1996) Representing Reality: Discourse, Rhetoric and Social Construction. Cited 2017 times.,Sage; Potter, J.,(1998) La representación social de la realidad. Cited 118 times.,Discurso, retórica y construcción social. Paidós; Potter, J., Wetherell, M.,(1987) Discourse and Social Psychology. Cited 5002 times.,Sage; Prior, L.,Repositioning documents in social research,; del Valle, L.R.-C., Baleriola, E., Sisto, V., López, V., Aguilera, F.,,(2020) Curriculo sem Fronteiras, 20 (3), pp. 950-970. Cited 6 times.; del Valle, L.R.-C., Valdés-Morales, R.,The case as a device of school practices (Open Access),; Rönnström, N., Skott, P.,Líderes escolares, maestros de la complejidad,(2019) Liderazgo en escuelas de alta complejidad sociocultural. Diez Miradas, pp. 111-152. Cited 3 times.; Ryan, J.,Un liderazgo inclusivo para las escuelas,(2016) Liderazgo educativo en la escuela: nueve miradas, pp. 179-204. Cited 12 times.; Sisto, V.,Challenged identities: Individualization, managerialism,and teaching work in Chile today (Open Access),; Sisto, V.,Inclusión “a la Chilena”. La Inclusión Escolar en un contexto de políticas neoliberales avanzadas,(2018) Education Policy Analysis Archives, 27 (23), pp. 1-20. Cited 12 times.; Sisto, V.,Managerialism versus local practices. The decolonization of the managerial discourse from within schools’life,; Aguilera, N.S.,A neoliberal revolution: The educational policy in Chile since the military dictatorship (Open Access),; Stefoni, C., Stang, F., Riedemann, A.,Educación e interculturalidad en Chile: un marco para el análisis,(2016) Estudios internacionales, 48 (185), pp. 153-182. Cited 48 times.; Tseng, C.-Y.,Changing headship, changing schools: how management discourse gives rise to the performative professionalism in England (1980s–2010s),; (2020) Towards Inclusion in education: status, trends and challenger. Cited 25 times.,The Unesco Salamanca Statement 25 years on. Unesco,  72; Morales, R.V., Vargas, F.J., Hernández-Yáñez, M.-T., Fardella, C.,Devices for welcoming foreign students as formative intervention platforms (Open Access),; Valdés, R., Gómez-Hurtado, I.,Competencias y prácticas de liderazgo escolar para la inclusión y la justicia social,(2019) Perspectiva Educacional, 58 (2), pp. 47-68. Cited 9 times.; Valdés, R.,Prácticas de Liderazgo en Escuelas con Alta y Baja Cultura Escolar Inclusiva,(2020) Revista latinoamericana de educación inclusiva, 14 (2), pp. 213-227. Cited 5 times.; Verger, A., Curran, M.,New public management as a global education policy: its adoption and re-contextualization in a Southern European setting (Open Access),; Verger, A., Normand, R.,New public management and education: Theoretical and conceptual elements for the study of a global education reform model (Open Access),; Verger, A., Parcerisa, L.,Test-based accountability and the rise of regulatory governance in education: A review of global drivers,(2018) Education governance and social theory: Interdisciplinary approaches to research, pp. 1-20. Cited 20 times.; Weinstein, J., Muñoz, G.,(2019) Liderazgo en escuelas de alta complejidad sociocultural: diez miradas. Cited 2 times.,Ediciones Diego Portales; Weinstein, J., Muñoz, G., Sembler, M., Rivero, R.,The opinion of Public and private school principals on educational policies in Chile (Open Access),</t>
+          <t>(2018) Claves para el mejoramiento escolar. Cited 3 times.,Agencia de calidad de la Educación,  2; Alarcón-Leiva, J., Gotelli-Alvial, C., Díaz-Yáñez, M.,Inclusion of migrant students: A challenge for school management,; Aravena, O., Riquelme, P., Mellado, M.E., Villagra, C.,Inclusión de Estudiantes Migrantes en la Región de La Araucanía, Chile: Representaciones desde los Directivos Escolares,(2019) Revista latinoamericana de educación inclusiva, 13 (1), pp. 55-71. Cited 5 times.; Arlestig, H., Day, C., Johansson, O.,(2016) A Decade of Research on School Principals: Case Studies from 24 Countries. Cited 50 times.,Springer; Budnik, J.A., Chávez, R.C., López, G.J., Rojo, J.R., Edmonson, R.S., Morales, M.S.,The chilean education enterprise,; Atkinson, P., Coffey, A,Revisiting the relationship between participant observation and interviewing,(2003) Inside interviewing: New lenses, new concerns, pp. 415-428. Cited 183 times.; Ball, S.J., Maguire, M., Braun, A., Hoskins, K.,Policy actors: Doing policy work in schools,; Bell, L., Stevenson, H.,Education policy: Process, themes and impact,; Bellei, C.,Educación para el siglo 21 en el siglo 21. ¿Tomamos el tren correcto?,(2020) Horizontes y propuestas para transformar el sistema educativo chileno, pp. 79-103.; Billig, M.,The dialogic unconscious: Psychoanalysis, discursive psychology and the nature of repression,; Bush, T.,Mejora escolar y modelos de liderazgo: hacia la comprensión de un liderazgo efectivo,(2016) Liderazgo educativo en la escuela, nueve miradas, pp. 19-44. Cited 6 times.; Calderón-Almendros, I., Ainscow, M., Bersanelli, S., Molina-Toledo, P.,Educational inclusion and equity in Latin America: An analysis of the challenges,; Campos, F., Valdés, R., Ascorra, P.,¿Líder pedagógico o gerente de escuela? Evolución del rol del director de escuela en Chile,(2019) Calidad en la educación, (51), pp. 53-84. Cited 10 times.; Cancino, V.C., Monrroy, L.V.,Education policies to strengthen directive leadership: Challenges for Chile in a comparative analysis with OECD countries,; DeMatthews, D.,Making Sense of Social Justice Leadership: A Case Study of a Principal’s Experiences to Create a More Inclusive School,; Edwards, D., Potter, J.,(1992) Discursive Psychology. Cited 2285 times.,Sage; Escarbajal, A.,Educación inclusiva e intercultural,(2010) International Journal of Developmental and Educational Psychology, 3 (1), pp. 411-418. Cited 4 times.; Essomba, M. A.,(2006) Liderar escuelas interculturales e inclusivas: equipos directivos y profesorado ante la diversidad cultural y la inmigración. Cited 62 times.,Grao; Falabella, A.,The performing school: The effects of market &amp; accountability policies,; Falabella, A.,The Seduction of Hyper-Surveillance: Standards, Testing, and Accountability,; Flessa, J.,La investigación reciente sobre liderazgo escolar en América Latina. El valor de un enfoque propio,(2019) Liderazgo en escuelas de alta complejidad sociocultural: diez miradas, pp. 317-342. Cited 3 times.; Flick, U.,(2015) El diseño de Investigación Cualitativa. Cited 223 times.,Ediciones Morata; Gewirtz, S., Ball, S.,From 'Welfarism' to 'New Managerialism': Shifting discourses of school headship in the education marketplace,; Gómez-Hurtado, I.,Dirección y gestión de la diversidad en la escuela: hacia un liderazgo inclusivo,(2013) Revista Fuentes, 14, pp. 61-84. Cited 14 times.; Gómez-Hurtado, I.,El Equipo directivo como promotor de buenas prácticas para la justicia social: hacia un liderazgo inclusivo,(2014) Revista Internacional de Educación para la Justicia Social, 3 (2), pp. 141-159. Cited 6 times.; Gómez-Hurtado, I., González-Falcón, I., Coronel, J.M.,Perceptions of secondary school principals on management of cultural diversity in Spain. The challenge of educational leadership,; Gómez‐hurtado, I., Valdés, R., González‐falcón, I., Vargas, F.J.,Inclusive leadership: Good managerial practices to address cultural diversity in schools,; González-Falcón, I.,Atención a la diversidad cultural en el contexto educativo,(2021) Claves y desafíos para la escuela inclusiva. Cited 3 times.; Hall, D., McGinity, R.,Conceptualizing teacher professional identity in neoliberal times: Resistance, compliance and reform,; Hall, D., McGinity, R.,Conceptualizing teacher professional identity in neoliberal times: Resistance, compliance and reform,; Hernández-Luis, A., Carrasco, C., García-Guerra, S.,Sorting out chaos: Four methodological approaches to do research in public policy,; Hochman, E., Montero, M.,(2005) Investigación Documental: Técnicas y Procedimientos. Cited 8 times.,Panapo; HOOD, C.,A PUBLIC MANAGEMENT FOR ALL SEASONS?,; Ibáñez, T., Iñiguez, L.,Aspectos metodológicos de la Psicología Social aplicada,(1996) Psicología Social Aplicada, pp. 115-128. Cited 16 times.; Íñiguez, L., Antaki, Ch,El análisis del discurso en Psicología Social,(1994) Boletín de Psicología, 44, pp. 57-75. Cited 56 times.; Jiménez, F., Valdés, R.,Las Dimensiones no Reconocidas del Quehacer Educativo en Tiempos de Pandemia: El Cuidado y la Protección de las Minorías Extranjeras en Riesgo de Exclusión,(2020) Revista Internacional de Educación para la Justicia Social, 9 (3e). Cited 8 times.; Vargas, F.J.,Management models of cultural diversity for the schooling of immigrant students in chilean schools: Challenges for the current intercultural,; Jiménez, F., Valdivia, M.A., Morales, R.V., Yáñez, M.H.,Migration and school: Documentary analysis on the incorporation of immigrants into the Chilean educational system,; Jiménez-Vargas, F., Morales, R.V., Hernández-Yáñez, M.-T., Fardella, C.,Linguistic devices for welcoming, expansive learning and interculturality: Contributions for the educational inclusion of foreign students,; Koretz, D.,(2018) The testing charade: pretending to make schools better. Cited 118 times.,American Educator; León, M. J.,El liderazgo para y en la escuela inclusiva,(2012) Educatio Siglo XXI, 30 (1), pp. 133-160. Cited 24 times.; León, M.J., Crisol, E., Arrebola, R.M.,The task of the inclusive leader in educational centers in disadvantaged and favored areas,; Lerena, B., Trejos, J.,Sobre la posibilidad de una educación inclusiva bajo el actual modelo de desarrollo económico y social chileno,(2015) Revista Latinoamericana de Educación Inclusiva, 9 (2), pp. 145-160. Cited 8 times.; (2015) Diario Oficial de la República de Chile. Cited 5 times.,Ley 20845. Santiago, Chile, 29 de mayo de,  46; (2018) Política nacional de estudiantes extranjeros 2018-2022. Cited 30 times.,(mayo),https://migrantes.mineduc.cl/wp-content/uploads/sites/88/2020/04/Pol%C3%ADtica-Nacional-Estud-Extranjeros.pdf; (2015) Manual Para La Buena Dirección y liderazgo escolar. Cited 39 times.,Ministerio de Educación. Mineduc,  49; Mora, M.L.,Política educativa para migrantes en Chile: un silencio elocuente,(2018) Polis, 17 (49), pp. 231-257. Cited 21 times.; Morrissey, B.,Theorising leadership for inclusion in the Irish context: A triadic typology within a distributed ecosystem,; Mundy, K., Menashy, F.,The world bank and private provision of schooling: A look through the lens of sociological theories of organizational hypocrisy,; Díaz, D.P., Kawada, F.H., Monzón, N.S., Stuardo, P.S.,A critical review of educational policies in the neoliberal era: The chilean case (Open Access),; Piñera, S.,(2010) Mensaje Presidencial 21 de mayo de 2010. Cited 5 times.,Cuenta pública sectorial; Melis, R.P.,Educational Policies and Migration in Latin America: Contributions for a comparative perspective,; Pollitt, C.,Justification by Works or by Faith?: Evaluating the New Public Management,; Potter, J.,(1996) Representing Reality: Discourse, Rhetoric and Social Construction. Cited 2019 times.,Sage; Potter, J.,(1998) La representación social de la realidad. Cited 119 times.,Discurso, retórica y construcción social. Paidós; Potter, J., Wetherell, M.,(1987) Discourse and Social Psychology. Cited 5006 times.,Sage; Prior, L.,Repositioning documents in social research (Open Access),; del Valle, L.R.-C., Baleriola, E., Sisto, V., López, V., Aguilera, F.,,(2020) Curriculo sem Fronteiras, 20 (3), pp. 950-970. Cited 6 times.; del Valle, L.R.-C., Valdés-Morales, R.,The case as a device of school practices (Open Access),; Rönnström, N., Skott, P.,Líderes escolares, maestros de la complejidad,(2019) Liderazgo en escuelas de alta complejidad sociocultural. Diez Miradas, pp. 111-152. Cited 3 times.; Ryan, J.,Un liderazgo inclusivo para las escuelas,(2016) Liderazgo educativo en la escuela: nueve miradas, pp. 179-204. Cited 12 times.; Sisto, V.,Challenged identities: Individualization, managerialism,and teaching work in Chile today (Open Access),; Sisto, V.,Inclusión “a la Chilena”. La Inclusión Escolar en un contexto de políticas neoliberales avanzadas,(2018) Education Policy Analysis Archives, 27 (23), pp. 1-20. Cited 12 times.; Sisto, V.,Managerialism versus local practices. The decolonization of the managerial discourse from within schools’life,; Aguilera, N.S.,A neoliberal revolution: The educational policy in Chile since the military dictatorship,; Stefoni, C., Stang, F., Riedemann, A.,Educación e interculturalidad en Chile: un marco para el análisis,(2016) Estudios internacionales, 48 (185), pp. 153-182. Cited 48 times.; Tseng, C.-Y.,Changing headship, changing schools: how management discourse gives rise to the performative professionalism in England (1980s–2010s) (Open Access),; (2020) Towards Inclusion in education: status, trends and challenger. Cited 25 times.,The Unesco Salamanca Statement 25 years on. Unesco,  72; Morales, R.V., Vargas, F.J., Hernández-Yáñez, M.-T., Fardella, C.,Devices for welcoming foreign students as formative intervention platforms (Open Access),; Valdés, R., Gómez-Hurtado, I.,Competencias y prácticas de liderazgo escolar para la inclusión y la justicia social,(2019) Perspectiva Educacional, 58 (2), pp. 47-68. Cited 9 times.; Valdés, R.,Prácticas de Liderazgo en Escuelas con Alta y Baja Cultura Escolar Inclusiva,(2020) Revista latinoamericana de educación inclusiva, 14 (2), pp. 213-227. Cited 5 times.; Verger, A., Curran, M.,New public management as a global education policy: its adoption and re-contextualization in a Southern European setting (Open Access),; Verger, A., Normand, R.,New public management and education: Theoretical and conceptual elements for the study of a global education reform model (Open Access),; Verger, A., Parcerisa, L.,Test-based accountability and the rise of regulatory governance in education: A review of global drivers,(2018) Education governance and social theory: Interdisciplinary approaches to research, pp. 1-20. Cited 20 times.; Weinstein, J., Muñoz, G.,(2019) Liderazgo en escuelas de alta complejidad sociocultural: diez miradas. Cited 2 times.,Ediciones Diego Portales; Weinstein, J., Muñoz, G., Sembler, M., Rivero, R.,The opinion of Public and private school principals on educational policies in Chile,</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2896,17 +2746,12 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>No Encontrado</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
           <t>10.11144/Javeriana.m15.leoi</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>Chile</t>
         </is>
       </c>
     </row>
@@ -2951,7 +2796,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Argelich, C.,El Derecho civil ante el Metaverso: hacia un Metalaw europeo y sus remedios en el Multiverso,(2022) Derecho Digital e Innovación. Digital Law and Innovation Review, (12), pp. 1-27.; Barrio, A.,Legal Tech: La Transformación Digital de la Abogacía,(2019) . Cited 3 times.; Becker, M.,Correa, indigenous movements, and the writing of a new constitution in Ecuador,; Bryan, J.,Rethinking Territory: Social Justice and Neoliberalism in Latin America's Territorial Turn,; (2003) Los caminos hacia una sociedad de la información en América Latina y el Caribe. Cited 21 times.,CEPAL,https://repositorio.cepal.org/bitstream/handle/11362/2354/2/S034237_es.pdf; (2008) Constitución de la República de Ecuador. Cited 483 times.,Registro Oficial N. 449,https://www.turismo.gob.ec/wp-content/uploads/2021/09/Constitucion-de-la-Republica.pdf; (2016) Código Orgánico de la Economía Social de los Conocimientos, Creatividad e innovación. Cited 8 times.,Registro Oficial Suplemento N. 899,https://lotaip.ikiam.edu.ec/ikiam2019/abril/anexos/Mat%20A2-Base_Legal/codigo_organico_de_la_economia%20social_de_los_conocimientos_creatividad_e_innovacion.pdf; (2017) Código Orgánico Administrativo. Cited 7 times.,Registro Oficial Suplemento N. 31,https://www.gobiernoelectronico.gob.ec/wp-content/uploads/2020/11/COA.pdf; (2018) Ley Orgánica para la Optimización y Eficiencia de Trámites Administrativos,Registro Oficial Suplemento N. 353,https://www.gobiernoelectronico.gob.ec/wp-content/uploads/2019/08/ley-de-optimizacio%CC%81n-detramites-administrativos.pdf; Quintero-Corzo, J., Munévar-Molina, R., MunévarQuintero, F.,Nuevas tecnologías, nuevas enfermedades en los entornos educativos,(2015) Hacia la Promoción de la Salud, 20 (2), pp. 13-26. Cited 6 times.; Ramírez, R.,(2022) Legal Tech aplicado a la gestión de litigios en despachos: transformación digital de procesos de trabajo de abogados y procuradores,(sitio web La Ley); Sacoto, M., Cordero, J.,E-justicia en Ecuador: inclusión de las TIC en la administración de justicia,(2021) FORO: Revista de Derecho, (35), pp. 91-110. Cited 2 times.; Tellechea, T.,(2018) El Gobierno Electrónico como Derecho y la brecha digital en Argentina,Instituto de Integración Latinoamericana; Vélez, M., Gómez Santamaría, C., Osorio Sanabria, M. A.,(2022) Conceptos fundamentales y uso responsable de la inteligencia artificial en el sector público,Informe 2. Corporación Andina de Fomento</t>
+          <t>Argelich, C.,El Derecho civil ante el Metaverso: hacia un Metalaw europeo y sus remedios en el Multiverso,(2022) Derecho Digital e Innovación. Digital Law and Innovation Review, (12), pp. 1-27.; Barrio, A.,Legal Tech: La Transformación Digital de la Abogacía,(2019) . Cited 3 times.; Becker, M.,Correa, indigenous movements, and the writing of a new constitution in Ecuador,; Bryan, J.,Rethinking Territory: Social Justice and Neoliberalism in Latin America's Territorial Turn,; (2003) Los caminos hacia una sociedad de la información en América Latina y el Caribe. Cited 21 times.,CEPAL,https://repositorio.cepal.org/bitstream/handle/11362/2354/2/S034237_es.pdf; (2008) Constitución de la República de Ecuador. Cited 489 times.,Registro Oficial N. 449,https://www.turismo.gob.ec/wp-content/uploads/2021/09/Constitucion-de-la-Republica.pdf; (2016) Código Orgánico de la Economía Social de los Conocimientos, Creatividad e innovación. Cited 8 times.,Registro Oficial Suplemento N. 899,https://lotaip.ikiam.edu.ec/ikiam2019/abril/anexos/Mat%20A2-Base_Legal/codigo_organico_de_la_economia%20social_de_los_conocimientos_creatividad_e_innovacion.pdf; (2017) Código Orgánico Administrativo. Cited 7 times.,Registro Oficial Suplemento N. 31,https://www.gobiernoelectronico.gob.ec/wp-content/uploads/2020/11/COA.pdf; (2018) Ley Orgánica para la Optimización y Eficiencia de Trámites Administrativos,Registro Oficial Suplemento N. 353,https://www.gobiernoelectronico.gob.ec/wp-content/uploads/2019/08/ley-de-optimizacio%CC%81n-detramites-administrativos.pdf; Quintero-Corzo, J., Munévar-Molina, R., MunévarQuintero, F.,Nuevas tecnologías, nuevas enfermedades en los entornos educativos,(2015) Hacia la Promoción de la Salud, 20 (2), pp. 13-26. Cited 6 times.; Ramírez, R.,(2022) Legal Tech aplicado a la gestión de litigios en despachos: transformación digital de procesos de trabajo de abogados y procuradores,(sitio web La Ley); Sacoto, M., Cordero, J.,E-justicia en Ecuador: inclusión de las TIC en la administración de justicia,(2021) FORO: Revista de Derecho, (35), pp. 91-110. Cited 2 times.; Tellechea, T.,(2018) El Gobierno Electrónico como Derecho y la brecha digital en Argentina,Instituto de Integración Latinoamericana; Vélez, M., Gómez Santamaría, C., Osorio Sanabria, M. A.,(2022) Conceptos fundamentales y uso responsable de la inteligencia artificial en el sector público,Informe 2. Corporación Andina de Fomento</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2982,11 +2827,6 @@
       <c r="O32" t="inlineStr">
         <is>
           <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85141385007&amp;partnerID=40&amp;md5=941a9047f5e8d5992e18e7b1336992b9</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
         </is>
       </c>
     </row>
@@ -3031,7 +2871,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Allan, J.,Foucault and special educational needs: A 'box of tools' for analysing children's experiences of mainstreaming,; Ascorra, P., Carrasco, C., López, V., Morales, M.,Policies for school climate in an era of accountability (Open Access),; Ascorra, P., López, V., Bilbao, M., Carrasco, C., Morales, M.,La convivencia escolar como práctica social,(2015) Nosotros sí podemos: Análisis de buenas prácticas en convivencia escolar, pp. 117-141. Cited 4 times.; Ball, S.,(1990) Politics and policy making in education: Explorations in policy sociology. Cited 1362 times.,Routledge; Ball, S.J.,Foucault and education: Disciplines and knowledge,; Ball, S.J.,Neoliberal education? Confronting the slouching beast (Open Access),; Ball, S.J., Maguire, M., Braun, A., Hoskins, K.,Policy actors: Doing policy work in schools,; Ball, S.J., Olmedo, A.,Care of the self, resistance and subjectivity under neoliberal governmentalities,; Bansel, P., Davies, B., Laws, C., Linnell, S.,Bullies, bullying and power in the contexts of schooling,; Beattie, L.,Educational leadership: Producing docile bodies? A Foucauldian perspective on Higher Education (Open Access),; Besley, T.A.C.,Governmentality of Youth: Managing risky subjects,; Braun, V., Clarke, V.,Using thematic analysis in psychology,; Bryman, A.,(2001) Social research methods. Cited 14486 times.,Oxford University Press; Canella, G.,The scientific discourse of education: Predetermining the lives of others - foucault, education, and children,(1999) Contemporary Issues in Early Childhood, 1 (1), pp. 36-44. Cited 39 times.; Colman, A.,School leadership, school inspection and the micropolitics of compliance and resistance: Examining the hyper-enactment of policy in an area of deprivation (Open Access),; Durkheim, E.,(1956) Education and Sociology. Cited 556 times.,Free Press; Elacqua, G.,The impact of school choice and public policy on segregation: Evidence from Chile,; Farrell, F., Lander, V.,“We’re not British values teachers are we?”: Muslim teachers’ subjectivity and the governmentality of unease (Open Access),; Floersch, J., Longhofer, J.L., Kranke, D., Townsend, L.,Integrating thematic, grounded theory and narrative analysis: A case study of adolescent psychotropic treatment,; Foucault, M.,(1977) Discipline and punish: The birth of the prison. Cited 34944 times.,Allen Lane; Foucault, M.,Technologies of self,(2003) The essential foucault: Selections from essential works of foucault, 1954–1984, pp. 145-169. Cited 327 times.; Foucault, M.,(2008) The birth of biopolitics: Lectures at the collège de France, 1978-1979. Cited 8148 times.,Palgrave Macmillan; Freie, C., Eppley, K.,Putting Foucault to Work: Understanding Power in a Rural School,; Galitz, T., Robert, D.,Governing bullying through the new public health model: A Foucaultian analysis of a school anti-bullying programme,; García-Huidobro, J.E., Bellei, C.,La subvención escolar preferencial ¿Remedio para la inequidad?,(2006) Revista Mensaje, 55 (547), pp. 40-48.; Gobby, B., Niesche, R.,Community empowerment? School autonomy, school boards and depoliticising governance (Open Access),; Horton, P.,Portraying monsters: framing school bullying through a macro lens,; Horton, P.,School bullying and bare life: Challenging the state of exception (Open Access),; Horton, P.,Reframing school bullying: The question of power and its analytical implications (Open Access),; López, V., Litichever, L., Valdés, R., Ceardi, A.,Translating policies on school climate: Analysis of sociotechnical devices in Argentina and Chile (Open Access),; López, V., Ramírez, L., Valdés, R., Ascorra, P., Carrasco-Aguilar, C.,Tensiones y nudos críticos en la implementación de la(s) política(s) de convivencia escolar en Chile,(2018) Calidad en la Educación, 48, pp. 96-129. Cited 13 times.; Lustick, H.,Administering discipline differently: A Foucauldian lens on restorative school discipline,(2017) International Journal of Leadership in Education, 20 (3), pp. 297-311. Cited 13 times.; MacLure, M.,(2003) Discourse in educational and social research. Cited 401 times.,Open University Press; Magendz, A.K., Toledo J., M.I., Gutiérrez, V.G.,Description and analysis of the Law on School Violence (N° 20.536): Two antagonistic paradigms (Open Access),; Matear, A.,Tensions between state and market in Chile: Educational policy and culture,(2007) European Review of Latin American and Caribbean Studies, 83, pp. 61-82. Cited 10 times.; McKay, J., Garratt, D.,Participation as governmentality? The effect of disciplinary technologies at the interface of service users and providers, families and the state,; McKinlay, A., Carter, C., Pezet, E.,Governmentality, power and organization,; Meyer, D.,The Gentle Neoliberalism of Modern Anti-bullying Texts: Surveillance, Intervention, and Bystanders in Contemporary Bullying Discourse,; Mifsud, D.,‘Decentralised’ neoliberalism and/or ‘masked’ re-centralisation? The policy to practice trajectory of Maltese school reform through the lens of neoliberalism and Foucault,; (2002) Política de convivencia escolar hacia una educación de calidad para todos. Cited 17 times.,https://bibliotecadigital.mineduc.cl/handle/20.500.12365/2100,  41; Perryman, J., Ball, S.J., Braun, A., Maguire, M.,Translating policy: governmentality and the reflective teacher (Open Access),; Piro, J.,Foucault and the architecture of surveillance: Creating regimes of power in schools, shrines, and society,(2008) Educational Studies, 44, pp. 30-46. Cited 33 times.; Ryan, A., Morgan, M.,Bullying in secondary schools: Through a discursive lens,(2011) Kotuitui: New Zealand Journal of Social Sciences, 6 (1-2), pp. 1-14. Cited 5 times.; Shutkin, D.,Neoliberalism, the technological sublime, and techniques of the self,(2005) Educational Technology, 45 (2), pp. 39-48.; (2013) Análisis del clima escolar: Poderoso factor que explica el aprendizaje en América Latina y el Caribe?. Cited 10 times.,Regional Office for Education Latin America and the Caribbean (OREALC/ UNESCO Santiago,  47; Walton, G.,Bullying and homophobia in canadian schools: The politics of policies, programs, and educational leadership,; Walton, G.,The notion of bullying through the lens of foucault and critical theory,; Walton, G.,Spinning our wheels: Reconceptualizing bullying beyond behaviour-focused approaches,</t>
+          <t>Allan, J.,Foucault and special educational needs: A 'box of tools' for analysing children's experiences of mainstreaming,; Ascorra, P., Carrasco, C., López, V., Morales, M.,Policies for school climate in an era of accountability,; Ascorra, P., López, V., Bilbao, M., Carrasco, C., Morales, M.,La convivencia escolar como práctica social,(2015) Nosotros sí podemos: Análisis de buenas prácticas en convivencia escolar, pp. 117-141. Cited 4 times.; Ball, S.,(1990) Politics and policy making in education: Explorations in policy sociology. Cited 1363 times.,Routledge; Ball, S.J.,Foucault and education: Disciplines and knowledge,; Ball, S.J.,Neoliberal education? Confronting the slouching beast,; Ball, S.J., Maguire, M., Braun, A., Hoskins, K.,Policy actors: Doing policy work in schools,; Ball, S.J., Olmedo, A.,Care of the self, resistance and subjectivity under neoliberal governmentalities,; Bansel, P., Davies, B., Laws, C., Linnell, S.,Bullies, bullying and power in the contexts of schooling,; Beattie, L.,Educational leadership: Producing docile bodies? A Foucauldian perspective on Higher Education,; Besley, T.A.C.,Governmentality of Youth: Managing risky subjects,; Braun, V., Clarke, V.,Using thematic analysis in psychology,; Bryman, A.,(2001) Social research methods. Cited 14554 times.,Oxford University Press; Canella, G.,The scientific discourse of education: Predetermining the lives of others - foucault, education, and children,(1999) Contemporary Issues in Early Childhood, 1 (1), pp. 36-44. Cited 39 times.; Colman, A.,School leadership, school inspection and the micropolitics of compliance and resistance: Examining the hyper-enactment of policy in an area of deprivation,; Durkheim, E.,(1956) Education and Sociology. Cited 557 times.,Free Press; Elacqua, G.,The impact of school choice and public policy on segregation: Evidence from Chile,; Farrell, F., Lander, V.,“We’re not British values teachers are we?”: Muslim teachers’ subjectivity and the governmentality of unease,; Floersch, J., Longhofer, J.L., Kranke, D., Townsend, L.,Integrating thematic, grounded theory and narrative analysis: A case study of adolescent psychotropic treatment,; Foucault, M.,(1977) Discipline and punish: The birth of the prison. Cited 35023 times.,Allen Lane; Foucault, M.,Technologies of self,(2003) The essential foucault: Selections from essential works of foucault, 1954–1984, pp. 145-169. Cited 327 times.; Foucault, M.,(2008) The birth of biopolitics: Lectures at the collège de France, 1978-1979. Cited 8172 times.,Palgrave Macmillan; Freie, C., Eppley, K.,Putting Foucault to Work: Understanding Power in a Rural School (Open Access),; Galitz, T., Robert, D.,Governing bullying through the new public health model: A Foucaultian analysis of a school anti-bullying programme (Open Access),; García-Huidobro, J.E., Bellei, C.,La subvención escolar preferencial ¿Remedio para la inequidad?,(2006) Revista Mensaje, 55 (547), pp. 40-48.; Gobby, B., Niesche, R.,Community empowerment? School autonomy, school boards and depoliticising governance,; Horton, P.,Portraying monsters: framing school bullying through a macro lens,; Horton, P.,School bullying and bare life: Challenging the state of exception (Open Access),; Horton, P.,Reframing school bullying: The question of power and its analytical implications,; López, V., Litichever, L., Valdés, R., Ceardi, A.,Translating policies on school climate: Analysis of sociotechnical devices in Argentina and Chile,; López, V., Ramírez, L., Valdés, R., Ascorra, P., Carrasco-Aguilar, C.,Tensiones y nudos críticos en la implementación de la(s) política(s) de convivencia escolar en Chile,(2018) Calidad en la Educación, 48, pp. 96-129. Cited 13 times.; Lustick, H.,Administering discipline differently: A Foucauldian lens on restorative school discipline,(2017) International Journal of Leadership in Education, 20 (3), pp. 297-311. Cited 13 times.; MacLure, M.,(2003) Discourse in educational and social research. Cited 402 times.,Open University Press; Magendz, A.K., Toledo J., M.I., Gutiérrez, V.G.,Description and analysis of the Law on School Violence (N° 20.536): Two antagonistic paradigms,; Matear, A.,Tensions between state and market in Chile: Educational policy and culture,(2007) European Review of Latin American and Caribbean Studies, 83, pp. 61-82. Cited 10 times.; McKay, J., Garratt, D.,Participation as governmentality? The effect of disciplinary technologies at the interface of service users and providers, families and the state,; McKinlay, A., Carter, C., Pezet, E.,Governmentality, power and organization,; Meyer, D.,The Gentle Neoliberalism of Modern Anti-bullying Texts: Surveillance, Intervention, and Bystanders in Contemporary Bullying Discourse (Open Access),; Mifsud, D.,‘Decentralised’ neoliberalism and/or ‘masked’ re-centralisation? The policy to practice trajectory of Maltese school reform through the lens of neoliberalism and Foucault (Open Access),; (2002) Política de convivencia escolar hacia una educación de calidad para todos. Cited 17 times.,https://bibliotecadigital.mineduc.cl/handle/20.500.12365/2100,  41; Perryman, J., Ball, S.J., Braun, A., Maguire, M.,Translating policy: governmentality and the reflective teacher,; Piro, J.,Foucault and the architecture of surveillance: Creating regimes of power in schools, shrines, and society,(2008) Educational Studies, 44, pp. 30-46. Cited 33 times.; Ryan, A., Morgan, M.,Bullying in secondary schools: Through a discursive lens,(2011) Kotuitui: New Zealand Journal of Social Sciences, 6 (1-2), pp. 1-14. Cited 5 times.; Shutkin, D.,Neoliberalism, the technological sublime, and techniques of the self,(2005) Educational Technology, 45 (2), pp. 39-48.; (2013) Análisis del clima escolar: Poderoso factor que explica el aprendizaje en América Latina y el Caribe?. Cited 10 times.,Regional Office for Education Latin America and the Caribbean (OREALC/ UNESCO Santiago,  47; Walton, G.,Bullying and homophobia in canadian schools: The politics of policies, programs, and educational leadership (Open Access),; Walton, G.,The notion of bullying through the lens of foucault and critical theory (Open Access),; Walton, G.,Spinning our wheels: Reconceptualizing bullying beyond behaviour-focused approaches (Open Access),</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -3051,22 +2891,17 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>No Encontrado</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>No Encontrado</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
           <t>10.1080/17508487.2022.2139276</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>Chile</t>
         </is>
       </c>
     </row>
@@ -3111,7 +2946,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Äijälä, K.,(2001) Public sector - An employer of choice? Report on the competitive public employer project. Cited 32 times.,https://www.oecd.org/austria/1937556.pdf; Alhmoud, A., Rjoub, H.,Does Generation Moderate the Effect of Total Rewards on Employee Retention? Evidence From Jordan (Open Access),; An, S.-H.,Employee Voluntary and Involuntary Turnover and Organizational Performance: Revisiting the Hypothesis from Classical Public Administration,; Arnold, J., Coombs, C., Wilkinson, A., Loan-Clarke, J., Park, J., Preston, D.,Corporate Images of the United Kingdom National Health Service: Implications for the Recruitment and Retention of Nursing and Allied Health Profession Staff (Open Access),; Bach, T., Jugl, M., Köhler, D., Wegrich, K.,Regulatory agencies, reputational threats, and communicative responses (Open Access),; Baker, W.E., Bulkley, N.,Paying it forward vs. rewarding reputation: Mechanisms of generalized reciprocity,; Ban, C., Drahnak-Faller, A., Towers, M.,Human Resource Challenges in Human Service and Community Development Organizations: Recruitment and Retention of Professional Staff,; Bankins, S., Waterhouse, J.,Organizational Identity, Image, and Reputation: Examining the Influence on Perceptions of Employer Attractiveness in Public Sector Organizations,; Blau, P.M.,(1964) Exchange and power in social life. Cited 14658 times.,John Wiley &amp; Sons Ltd; Blom-Hansen, J., Finke, D.,Reputation and organizational politics: Inside the EU commission (Open Access),; Bloom, M., Colbert, A.E.,An integration and extension of intrinsic motivation theories: the role of core affect,; Boon, J., Salomonsen, H.H., Verhoest, K.,A reputation for what, to whom, and in which task environment: A commentary,; Boon, J., Verhoest, K., Wynen, J.,What determines the audiences that public service organisations target for reputation management? (Open Access),; Bustos, E.O.,Organizational Reputation in the Public Administration: A Systematic Literature Review,; Busuioc, E.M.,Friend or foe? inter-agency cooperation, organizational reputation, and turf (Open Access),; Busuioc, M., Rimkutė, D.,Meeting expectations in the EU regulatory state? Regulatory communications amid conflicting institutional demands (Open Access),; Capelos, T., Provost, C., Parouti, M., Barnett, J., Chenoweth, J., Fife-Schaw, C., Kelay, T.,Ingredients of institutional reputations and citizen engagement with regulators (Open Access),; Cardy, R.L., Lengnick-Hall, M.L.,Will They Stay or Will They Go? Exploring a Customer-Oriented Approach To Employee Retention,; Carlstedt, E.,Ratings, rankings and managing numbers: Professionals' perspectives on user surveys in Swedish nursing home care (Open Access),; Carpenter, D., Krause, G.A.,Transactional authority and bureaucratic politics (Open Access),; Carpenter, D.P.,(2001) The forging of bureaucratic autonomy: Reputations, networks and policy innovation in Executive Agencies, 1862-1928. Cited 1239 times.,Princeton University Press; Carpenter, D.P.,The political economy of FDA drug review: Processing, politics, and lessons for policy,; Carpenter, D.,Reputation and power: Organizational image and pharmaceutical regulation at the FDA,; Carpenter, D.P., Krause, G.A.,Reputation and Public Administration (Open Access),; Chang, E., Hahn, J.,Does pay-for-performance enhance perceived distributive justice for collectivistic employees?,; Chen, C.-A., Bozeman, B.,Understanding Public and Nonprofit Managers' Motivation Through the Lens of Self-Determination Theory (Open Access),; Choi, S.,Flexible Work Arrangements and Employee Retention: A Longitudinal Analysis of the Federal Workforces,; Chordiya, R.,Are Federal Child Care Programs Sufficient for Employee Retention? Critical Examination From a Gendered Perspective,; Chordiya, R., Sabharwal, M., Goodman, D.,AFFECTIVE ORGANIZATIONAL COMMITMENT AND JOB SATISFACTION: A CROSS-NATIONAL COMPARATIVE STUDY,; Cho, Y.J., Perry, J.L.,Intrinsic Motivation and Employee Attitudes: Role of Managerial Trustworthiness, Goal Directedness, and Extrinsic Reward Expectancy,; Christensen, T., Gornitzka, Å.,Reputation Management in Public Agencies: The Relevance of Time, Sector, Audience, and Tasks (Open Access),; Christensen, T., Lodge, M.,Reputation management in societal security: A comparative study (Open Access),; Chun, R.,Corporate reputation: Meaning and measurement,; Coldwell, D.A., Billsberry, J., Van Meurs, N., Marsh, P.J.G.,The effects of person-organization ethical fit on employee attraction and retention: Towards a testable explanatory model,; Comrey, A.L., Lee, H.B.,(1992) A first course in factor analysis. Cited 4139 times.,2nd ed., Psychology Press; Dahle, D.Y.,Magic muzzles? The silencing of teachers through HRM, performance appraisal and reputation concern,; Dahle, D.Y., Urstad, S.S.,Mind anchors and heart grips: the role of HRM and LMX in internal branding,; Dalton, D.R., Johnson, J.L., Daily, C.M.,On the use of "intent to . . ." Variables in organizational research: An empirical and cautionary assessment,; Davis, R.S., Stazyk, E.C.,Developing and Testing a New Goal Taxonomy: Accounting for the Complexity of Ambiguity and Political Support,; DeCoster, J.,(1998) Overview of factor analysis. Cited 262 times.,September, 26, Retrieved, 2021, from; Dess, G.G., Robinson, R.B.,Measuring organizational performance in the absence of objective measures: The case of the privately‐held firm and conglomerate business unit,; Doering, H., Downe, J., Elraz, H., Martin, S.,Organizational identity threats and aspirations in reputation management (Open Access),; Dussauge-Laguna, M.I.,Doublespeak populism” and public administration: The Case of Mexico,(2021) Democratic backsliding and Public Administration, pp. 1-39. Cited 9 times.; Dussauge-Laguna, M.I., Casas, A.,Patronage in the Mexican public sector,(2021) Patronage in transition across Latin America, pp. 1-30.; Etienne, J.,The politics of detection in business regulation (Open Access),; Field, A., Miles, J., Field, Z.,(2012) Discovering Statistics Using R. Cited 32385 times.,SAGE; Fontaine, J.R.J.,Equivalence,; Gagné, M., Deci, E.L.,Self-determination theory and work motivation (Open Access),; Gevrek, D., Spencer, M., Hudgins, D., Chambers, V.,I can’t get no satisfaction: The power of perceived differences in employee intended retention and turnover,; Gilad, S.,Attention and Reputation: Linking Regulators’ Internal and External Worlds,(2012) Executive Politics in Times of Crisis, pp. 157-175. Cited 15 times.; Gilad, S., Ben-Nun Bloom, P., Assouline, M.,Bureaucrats’ processing of organizational reputation signals,(2018) Journal of Behavioral Public Administration, 1 (1), pp. 1-11. Cited 14 times.; Goffman, E.,(1959) The Presentation of Self in Everyday Life. Cited 29211 times.,Anchor Books; Gong, Y., Chang, S., Cheung, S.-Y.,High performance work system and collective OCB: A collective social exchange perspective,; Gould-Williams, J., Davies, F.,Using social exchange theory to predict the effects of HRM practice on employee outcomes: An analysis of public sector workers,; Grotto, A.R., Hyland, P.K., Caputo, A.W., Semedo, C.,Employee Turnover and Strategies for Retention,; Hair, J.F., Black, W.C., Babin, B.J., Anderson, R.E.,(2014) Multivariate Data Analysis. Cited 9666 times.,7th ed., Pearson Education Limited; Hancock, J.I., Allen, D.G., Bosco, F.A., McDaniel, K.R., Pierce, C.A.,Meta-Analytic Review of Employee Turnover as a Predictor of Firm Performance,; Harvey, W.S., Groutsis, D.,Reputation and talent mobility in the Asia Pacific (Open Access),; Hausknecht, J.P., Rodda, J., Howard, M.J.,Targeted employee retention: Performance-based and job-related differences in reported reasons for staying (Open Access),; Heger, B.K.,Linking the Employment Value Proposition (EVP) to employee engagement and business outcomes: Preliminary findings from a linkage research pilot study,; Hellevik, O.,Linear versus logistic regression when the dependent variable is a dichotomy,; Huang, K., Provan, K.G.,Resource tangibility and patterns of interaction in a publicly funded health and human services network (Open Access),; Hu, W., Huang, I.Y.-F., Yang, W.,Love or Bread? Public Service Motivation and Fringe Benefits in the Retention of Police Forces in Beijing City,; Jacobs, S., Boon, J., Wonneberger, A., Salomonsen, H.H.,Exploring Media-Covered Accountability of Public Agencies (Open Access),; Jakobsen, M., Jensen, R.,Common method bias in public management studies (Open Access),; Kolltveit, K., Karlsen, R., Askim, J.,Understanding reputational concerns within government agencies,; Krause, G.A., Douglas, J.W.,Institutional design versus reputational effects on bureaucratic performance: Evidence from U.S. government macroeconomic and fiscal projections,; Kreps, D.M.,Intrinsic Motivation and Extrinsic Incentives,; Kuenzler, J.,From zero to villain: Applying narrative analysis in research on organizational reputation (Open Access),; Langbein, L., Stazyk, E.C.,The Anatomy of Retention in the U.S. Federal Government: Exit, Voice, or Money?,; Larsen, C.A., Vesan, P.,Why public employment services always fail. Double-sided asymmetric information and the placement of low-skill workers in six european countries (Open Access),; Lee, D., Van Ryzin, G.G.,Measuring bureaucratic reputation: Scale development and validation (Open Access),; Lee, D., Van Ryzin, G.G.,Bureaucratic reputation in the eyes of citizens: an analysis of US federal agencies,; Lee, D., Zhang, Y.,The value of public organizations’ diversity reputation in women’s and minorities’ job choice decisions,; Lee, S.-Y., Whitford, A.B.,Assessing the effects of organizational resources on public agency performance: Evidence from the US federal government (Open Access),; Lévy-Garboua, L., Montmarquette, C.,Reported job satisfaction: What does it mean? (Open Access),; Lévy-Garboua, L., Montmarquette, C., Simonnet, V.,Job satisfaction and quits (Open Access),; Lewis, G.B., Durst, S.L.,Will locality Pay solve recruitment and retention problems in the Federal Civil Service?,(1995) Public Administration Review, 55 (4), p. 371. Cited 7 times.; Llorens, J.J., Klingner, D.E., Nalbandian, J.,(2018) Public Personnel Management. Cited 10 times.,Routledge, : Context and Strategies; Lockert, Å.S., Bjørnå, H., Krane, M.S.,Policy Transfer of Branding and Reputation Management: Motivations, Challenges, and Opportunities for a Small Rural Municipality (Open Access),</t>
+          <t>Äijälä, K.,(2001) Public sector - An employer of choice? Report on the competitive public employer project. Cited 32 times.,https://www.oecd.org/austria/1937556.pdf; Alhmoud, A., Rjoub, H.,Does Generation Moderate the Effect of Total Rewards on Employee Retention? Evidence From Jordan,; An, S.-H.,Employee Voluntary and Involuntary Turnover and Organizational Performance: Revisiting the Hypothesis from Classical Public Administration,; Arnold, J., Coombs, C., Wilkinson, A., Loan-Clarke, J., Park, J., Preston, D.,Corporate Images of the United Kingdom National Health Service: Implications for the Recruitment and Retention of Nursing and Allied Health Profession Staff,; Bach, T., Jugl, M., Köhler, D., Wegrich, K.,Regulatory agencies, reputational threats, and communicative responses,; Baker, W.E., Bulkley, N.,Paying it forward vs. rewarding reputation: Mechanisms of generalized reciprocity,; Ban, C., Drahnak-Faller, A., Towers, M.,Human Resource Challenges in Human Service and Community Development Organizations: Recruitment and Retention of Professional Staff,; Bankins, S., Waterhouse, J.,Organizational Identity, Image, and Reputation: Examining the Influence on Perceptions of Employer Attractiveness in Public Sector Organizations,; Blau, P.M.,(1964) Exchange and power in social life. Cited 14680 times.,John Wiley &amp; Sons Ltd; Blom-Hansen, J., Finke, D.,Reputation and organizational politics: Inside the EU commission,; Bloom, M., Colbert, A.E.,An integration and extension of intrinsic motivation theories: the role of core affect,; Boon, J., Salomonsen, H.H., Verhoest, K.,A reputation for what, to whom, and in which task environment: A commentary,; Boon, J., Verhoest, K., Wynen, J.,What determines the audiences that public service organisations target for reputation management?,; Bustos, E.O.,Organizational Reputation in the Public Administration: A Systematic Literature Review,; Busuioc, E.M.,Friend or foe? inter-agency cooperation, organizational reputation, and turf,; Busuioc, M., Rimkutė, D.,Meeting expectations in the EU regulatory state? Regulatory communications amid conflicting institutional demands,; Capelos, T., Provost, C., Parouti, M., Barnett, J., Chenoweth, J., Fife-Schaw, C., Kelay, T.,Ingredients of institutional reputations and citizen engagement with regulators,; Cardy, R.L., Lengnick-Hall, M.L.,Will They Stay or Will They Go? Exploring a Customer-Oriented Approach To Employee Retention,; Carlstedt, E.,Ratings, rankings and managing numbers: Professionals' perspectives on user surveys in Swedish nursing home care,; Carpenter, D., Krause, G.A.,Transactional authority and bureaucratic politics,; Carpenter, D.P.,(2001) The forging of bureaucratic autonomy: Reputations, networks and policy innovation in Executive Agencies, 1862-1928. Cited 1242 times.,Princeton University Press; Carpenter, D.P.,The political economy of FDA drug review: Processing, politics, and lessons for policy,; Carpenter, D.,Reputation and power: Organizational image and pharmaceutical regulation at the FDA,; Carpenter, D.P., Krause, G.A.,Reputation and Public Administration,; Chang, E., Hahn, J.,Does pay-for-performance enhance perceived distributive justice for collectivistic employees?,; Chen, C.-A., Bozeman, B.,Understanding Public and Nonprofit Managers' Motivation Through the Lens of Self-Determination Theory,; Choi, S.,Flexible Work Arrangements and Employee Retention: A Longitudinal Analysis of the Federal Workforces (Open Access),; Chordiya, R.,Are Federal Child Care Programs Sufficient for Employee Retention? Critical Examination From a Gendered Perspective,; Chordiya, R., Sabharwal, M., Goodman, D.,AFFECTIVE ORGANIZATIONAL COMMITMENT AND JOB SATISFACTION: A CROSS-NATIONAL COMPARATIVE STUDY,; Cho, Y.J., Perry, J.L.,Intrinsic Motivation and Employee Attitudes: Role of Managerial Trustworthiness, Goal Directedness, and Extrinsic Reward Expectancy,; Christensen, T., Gornitzka, Å.,Reputation Management in Public Agencies: The Relevance of Time, Sector, Audience, and Tasks (Open Access),; Christensen, T., Lodge, M.,Reputation management in societal security: A comparative study,; Chun, R.,Corporate reputation: Meaning and measurement,; Coldwell, D.A., Billsberry, J., Van Meurs, N., Marsh, P.J.G.,The effects of person-organization ethical fit on employee attraction and retention: Towards a testable explanatory model (Open Access),; Comrey, A.L., Lee, H.B.,(1992) A first course in factor analysis. Cited 4146 times.,2nd ed., Psychology Press; Dahle, D.Y.,Magic muzzles? The silencing of teachers through HRM, performance appraisal and reputation concern,; Dahle, D.Y., Urstad, S.S.,Mind anchors and heart grips: the role of HRM and LMX in internal branding,; Dalton, D.R., Johnson, J.L., Daily, C.M.,On the use of "intent to . . ." Variables in organizational research: An empirical and cautionary assessment,; Davis, R.S., Stazyk, E.C.,Developing and Testing a New Goal Taxonomy: Accounting for the Complexity of Ambiguity and Political Support (Open Access),; DeCoster, J.,(1998) Overview of factor analysis. Cited 262 times.,September, 26, Retrieved, 2021, from; Dess, G.G., Robinson, R.B.,Measuring organizational performance in the absence of objective measures: The case of the privately‐held firm and conglomerate business unit,; Doering, H., Downe, J., Elraz, H., Martin, S.,Organizational identity threats and aspirations in reputation management (Open Access),; Dussauge-Laguna, M.I.,Doublespeak populism” and public administration: The Case of Mexico,(2021) Democratic backsliding and Public Administration, pp. 1-39. Cited 8 times.; Dussauge-Laguna, M.I., Casas, A.,Patronage in the Mexican public sector,(2021) Patronage in transition across Latin America, pp. 1-30.; Etienne, J.,The politics of detection in business regulation (Open Access),; Field, A., Miles, J., Field, Z.,(2012) Discovering Statistics Using R. Cited 32499 times.,SAGE; Fontaine, J.R.J.,Equivalence,; Gagné, M., Deci, E.L.,Self-determination theory and work motivation (Open Access),; Gevrek, D., Spencer, M., Hudgins, D., Chambers, V.,I can’t get no satisfaction: The power of perceived differences in employee intended retention and turnover,; Gilad, S.,Attention and Reputation: Linking Regulators’ Internal and External Worlds,(2012) Executive Politics in Times of Crisis, pp. 157-175. Cited 15 times.; Gilad, S., Ben-Nun Bloom, P., Assouline, M.,Bureaucrats’ processing of organizational reputation signals,(2018) Journal of Behavioral Public Administration, 1 (1), pp. 1-11. Cited 14 times.; Goffman, E.,(1959) The Presentation of Self in Everyday Life. Cited 29272 times.,Anchor Books; Gong, Y., Chang, S., Cheung, S.-Y.,High performance work system and collective OCB: A collective social exchange perspective (Open Access),; Gould-Williams, J., Davies, F.,Using social exchange theory to predict the effects of HRM practice on employee outcomes: An analysis of public sector workers,; Grotto, A.R., Hyland, P.K., Caputo, A.W., Semedo, C.,Employee Turnover and Strategies for Retention (Open Access),; Hair, J.F., Black, W.C., Babin, B.J., Anderson, R.E.,(2014) Multivariate Data Analysis. Cited 9721 times.,7th ed., Pearson Education Limited; Hancock, J.I., Allen, D.G., Bosco, F.A., McDaniel, K.R., Pierce, C.A.,Meta-Analytic Review of Employee Turnover as a Predictor of Firm Performance (Open Access),; Harvey, W.S., Groutsis, D.,Reputation and talent mobility in the Asia Pacific,; Hausknecht, J.P., Rodda, J., Howard, M.J.,Targeted employee retention: Performance-based and job-related differences in reported reasons for staying (Open Access),; Heger, B.K.,Linking the Employment Value Proposition (EVP) to employee engagement and business outcomes: Preliminary findings from a linkage research pilot study (Open Access),; Hellevik, O.,Linear versus logistic regression when the dependent variable is a dichotomy,; Huang, K., Provan, K.G.,Resource tangibility and patterns of interaction in a publicly funded health and human services network,; Hu, W., Huang, I.Y.-F., Yang, W.,Love or Bread? Public Service Motivation and Fringe Benefits in the Retention of Police Forces in Beijing City (Open Access),; Jacobs, S., Boon, J., Wonneberger, A., Salomonsen, H.H.,Exploring Media-Covered Accountability of Public Agencies (Open Access),; Jakobsen, M., Jensen, R.,Common method bias in public management studies (Open Access),; Kolltveit, K., Karlsen, R., Askim, J.,Understanding reputational concerns within government agencies,; Krause, G.A., Douglas, J.W.,Institutional design versus reputational effects on bureaucratic performance: Evidence from U.S. government macroeconomic and fiscal projections (Open Access),; Kreps, D.M.,Intrinsic Motivation and Extrinsic Incentives,; Kuenzler, J.,From zero to villain: Applying narrative analysis in research on organizational reputation (Open Access),; Langbein, L., Stazyk, E.C.,The Anatomy of Retention in the U.S. Federal Government: Exit, Voice, or Money?,; Larsen, C.A., Vesan, P.,Why public employment services always fail. Double-sided asymmetric information and the placement of low-skill workers in six european countries (Open Access),; Lee, D., Van Ryzin, G.G.,Measuring bureaucratic reputation: Scale development and validation,; Lee, D., Van Ryzin, G.G.,Bureaucratic reputation in the eyes of citizens: an analysis of US federal agencies,; Lee, D., Zhang, Y.,The value of public organizations’ diversity reputation in women’s and minorities’ job choice decisions (Open Access),; Lee, S.-Y., Whitford, A.B.,Assessing the effects of organizational resources on public agency performance: Evidence from the US federal government,; Lévy-Garboua, L., Montmarquette, C.,Reported job satisfaction: What does it mean? (Open Access),; Lévy-Garboua, L., Montmarquette, C., Simonnet, V.,Job satisfaction and quits,; Lewis, G.B., Durst, S.L.,Will locality Pay solve recruitment and retention problems in the Federal Civil Service?,(1995) Public Administration Review, 55 (4), p. 371. Cited 7 times.; Llorens, J.J., Klingner, D.E., Nalbandian, J.,(2018) Public Personnel Management. Cited 10 times.,Routledge, : Context and Strategies; Lockert, Å.S., Bjørnå, H., Krane, M.S.,Policy Transfer of Branding and Reputation Management: Motivations, Challenges, and Opportunities for a Small Rural Municipality (Open Access),</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -3131,22 +2966,17 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>No Encontrado</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>No Encontrado</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
           <t>10.1177/0734371X221130973</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>Mexico</t>
         </is>
       </c>
     </row>
@@ -3191,7 +3021,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>(2019) Por medio del cual se reforma el régimen de control fiscal,Acto Legislativo 04 de Septiembre 18 de 2019,  2; Atehortúa, Suárez, D.,(1997) Modernización Fiscal, 3.,(7, 8, 9, 10 y 11). Control Fiscal; Barnes, J.,Tres generaciones del procedimiento administrativo,(2011) Derecho PUCP, 2 (67), pp. 77-108. Cited 3 times.; Bercholc, J.,(2014) Temas de Teoría del Estado. Cited 2 times.,La Ley: Argentina; Bevir, M.,(2010) The SAGE handbook of governance. Cited 41 times.,Sage; Börzel, T.A., Risse, T.,Governance without a state: Can it work? (Open Access),; Brugué, Gomá, Subirats,Gobernar ciudades y territorios en la sociedad de las redes,(2005) CLAD Reforma y Democracia, (32). Cited 9 times.; Cárdenas, J. C.,El control fiscal a las empresas prestadoras de servicios públi-cos domiciliarios en Colombia a partir de la Constitución Política de 1991,(2018) Nuevos Paradigmas de las Ciencias Sociales Latinoamericanas. En Línea, pp. 22-44.; Carmona, R., López, A.,(2018) El presupuesto participativo en la Argentina,Ediciones UNG: Buenos Aires, Argentina; Concejo Municipal de Medellín, Colombia. Actas 413 del 25/03/2014; 416 del 28/ 03/2014; 603 del 06/03/2015; 694 del 09/07/2015; 712 del 29/07/2015; 014 del 20/01/2016; 213 del 4/03/2017. Recuperado de CD.,  12,(2007) Acuerdo Municipal 43 de 2007: Por el cual se crea e institucionaliza la planeación local y el Presupues-to Participativo en el marco del Sistema Municipal de Planeación — Acuerdo 043 de 1996— y se modifican algunos de sus artículos; (2017) Acuerdo Municipal 28 de 2017: Por medio del cual se modifica el acuerdo 43 de 2007 y se actualiza el sistema municipal de planeación del municipio de Medellín,Concejo Municipal de Medellín, Colombia (diciembre 21),  14; (2019) Radicación de origen 201900003262,Contraloría General de Medellín. (noviembre del). 2019. Respuesta al PQRSD 425 de 2019,  16; (2012) Guía de Auditoría para las Contralorías Territoriales. Cited 2 times.,Bogotá,  18; Correa, R., Freddyur, L.,El Control Fiscal. Entre el Control Político y el Control Social,(2014) Perspectivas Internacionales, 10 (2), pp. 155-178.; Cotterrell, R., Del Mar, M.,Authority in Transnational Legal Theory: Theorising Across Disciplines,; Denzin, N. K., Lincoln, Y. S.,The discipline and practice of qualitative research,(2000) Handbook of qualitative research. Cited 16207 times.; Franco, M. H.,(2010) La Gestión Pública Local en el ámbito metropolitano,Medellín: Área Metropolitana; Franco, M. H., Ramírez, M. F.,Presupuesto participativo y gasto público en educación superior. El caso de Medellín,(2016) Reflexión Política, 18 (35), pp. 130-142.; Franco Vargas, M. H., Ramírez Brouchoud, M. F., Chinkousky Giraldo, M. A.,Los controles a la administración pública en Colombia. Una aproxima-ción al control social al presupuesto participativo en Medellín,(2019) Reflexión Política, 21 (41), pp. 50-63.; Genro, T., De Souza, U.,(1998) Presupuesto participativo: la experiencia de Porto Alegre. Cited 53 times.,Central de Trabajadores Argentinos, (CTA)/EUDEBA: Buenos Aires; Goldfrank, B.,,(2006) Revista de Ciencia Politica, 26 (2), pp. 3-28. Cited 48 times.; Gómez, E.,El presupuesto participativo entre democracia, pobreza y desarro-llo,(2007) Investigación y desarrollo, 15 (1), pp. 56-77. Cited 8 times.; Gutiérrez, A. L.,Programa de planeación local y presupuesto participativo en Medellín, Colombia: estrategia participativa para planear el desarrollo y democra-tizar la gestión pública,(2014) ; Hernández Sampieri, R., Fernández Collado, C., Baptista Lucio, P.,(2014) Metodolo-gía de la investigación. Cited 6043 times.,México: McGraw Hill Interamericana editores; Jessop, R.,Governance and meta-governance in the face of complexity: On the roles of requisite verity, reflexive observation, and romantic irony in participatory Governance,(2002) Participatory Governance in Multi-Level Context. Cited 94 times.; Kahler, M.,Global governance redefined,; Kooiman, J., Jentoft, S.,Meta-governance: Values, norms and principles, and the making of hard choices,; (1993) Sobre la organización del sistema de control fiscal financiero y los organismos que lo ejercen. Cited 2 times.,Ley 42 de Enero 27 de 1993. DO. N.º 40732,  34; (2012) Por la cual se dictan normas para modernizar la organización y el funcionamiento de los municipios. Cited 4 times.,Ley 1551 de Julio 6 de 2012. DO. N.º 48128,  36; Madison, J.,(1788) El Federalista. Cited 80 times.,Estados Unidos de América; O’Donnell, G.,Accountability horizontal: La institucionalización legal de la desconfianza política,(2004) Revista Española de Ciencia Política, (11), pp. 11-31. Cited 40 times.; Oszlak, O.,(2014) Teoría y práctica del gobierno abierto: Lecciones de la experiencia interna-cional. Cited 12 times.,Washington D. C: RedInpae; Pagliai, C., Montecinos, E.,(2006) Presupuestos participativos,Chile: Experiencias y aprendizajes. [en línea]. Recuperado de; Peters, G.,(2005) The Meta – Governance of Policy Networks: Steering at a Distance, but still Steering: Pensilvania. Cited 5 times.,University of Pittsburg; (2016) Acuerdo Final para la Terminación del Conflicto y la Construcción de una Paz Estable y Duradera. Cited 213 times.,Poder Legislativo, Colombia Junio de 2016, 26 junio 2016 [en línea]. Recuperado de,https://www.refworld.org.es/docid/5a8744d54.html; Pont Vidal, J.,Modelos Innovadores de Administración y Gestión Pública: Hacia la Emergencia de Nuevos Paradigmas,(2016) Gestión y Análisis de Políticas Públicas, (16). Cited 7 times.; Prats i Catalá, J.,(2005) De la burocracia al managment, del managment a la gobernanza. Cited 30 times.,España: Institut Internacional de Governabilitat de Catalunya; Ramió, C.,La Administración Pública del Futuro: La Administración «2050»,(2015) GIGAPP Estudios Working Papers, 3 (8), pp. 1-41.; Ramírez, M. F.,Transformaciones del Estado en el gobierno local: La nueva gestión pública en Medellín,(2012) Reflexión Política. Colombia, (14), pp. 82-95. Cited 4 times.; Rodríguez, L.,(2016) Estructura del poder público en Colombia. Cited 5 times.,Bogotá: Temis; Schillemans, T.,Accountability in the shadow of hierarchy: The horizontal accountability of agencies (Open Access),; Slaughter, A. M.,(2009) A new world order. Cited 2670 times.,Princeton: Princeton University Press; Urán, O. A.,La participación ciudadana en la planeación y financiamiento de la ciudad como institución democrática emergente. Los casos de Manchester, Medellín y Porto Alegre,(2007) Controversia, (189), pp. 173-211.</t>
+          <t>(2019) Por medio del cual se reforma el régimen de control fiscal,Acto Legislativo 04 de Septiembre 18 de 2019,  2; Atehortúa, Suárez, D.,(1997) Modernización Fiscal, 3.,(7, 8, 9, 10 y 11). Control Fiscal; Barnes, J.,Tres generaciones del procedimiento administrativo,(2011) Derecho PUCP, 2 (67), pp. 77-108. Cited 3 times.; Bercholc, J.,(2014) Temas de Teoría del Estado. Cited 2 times.,La Ley: Argentina; Bevir, M.,(2010) The SAGE handbook of governance. Cited 41 times.,Sage; Börzel, T.A., Risse, T.,Governance without a state: Can it work?,; Brugué, Gomá, Subirats,Gobernar ciudades y territorios en la sociedad de las redes,(2005) CLAD Reforma y Democracia, (32). Cited 9 times.; Cárdenas, J. C.,El control fiscal a las empresas prestadoras de servicios públi-cos domiciliarios en Colombia a partir de la Constitución Política de 1991,(2018) Nuevos Paradigmas de las Ciencias Sociales Latinoamericanas. En Línea, pp. 22-44.; Carmona, R., López, A.,(2018) El presupuesto participativo en la Argentina,Ediciones UNG: Buenos Aires, Argentina; Concejo Municipal de Medellín, Colombia. Actas 413 del 25/03/2014; 416 del 28/ 03/2014; 603 del 06/03/2015; 694 del 09/07/2015; 712 del 29/07/2015; 014 del 20/01/2016; 213 del 4/03/2017. Recuperado de CD.,  12,(2007) Acuerdo Municipal 43 de 2007: Por el cual se crea e institucionaliza la planeación local y el Presupues-to Participativo en el marco del Sistema Municipal de Planeación — Acuerdo 043 de 1996— y se modifican algunos de sus artículos; (2017) Acuerdo Municipal 28 de 2017: Por medio del cual se modifica el acuerdo 43 de 2007 y se actualiza el sistema municipal de planeación del municipio de Medellín,Concejo Municipal de Medellín, Colombia (diciembre 21),  14; (2019) Radicación de origen 201900003262,Contraloría General de Medellín. (noviembre del). 2019. Respuesta al PQRSD 425 de 2019,  16; (2012) Guía de Auditoría para las Contralorías Territoriales. Cited 2 times.,Bogotá,  18; Correa, R., Freddyur, L.,El Control Fiscal. Entre el Control Político y el Control Social,(2014) Perspectivas Internacionales, 10 (2), pp. 155-178.; Cotterrell, R., Del Mar, M.,Authority in Transnational Legal Theory: Theorising Across Disciplines,; Denzin, N. K., Lincoln, Y. S.,The discipline and practice of qualitative research,(2000) Handbook of qualitative research. Cited 16246 times.; Franco, M. H.,(2010) La Gestión Pública Local en el ámbito metropolitano,Medellín: Área Metropolitana; Franco, M. H., Ramírez, M. F.,Presupuesto participativo y gasto público en educación superior. El caso de Medellín,(2016) Reflexión Política, 18 (35), pp. 130-142.; Franco Vargas, M. H., Ramírez Brouchoud, M. F., Chinkousky Giraldo, M. A.,Los controles a la administración pública en Colombia. Una aproxima-ción al control social al presupuesto participativo en Medellín,(2019) Reflexión Política, 21 (41), pp. 50-63.; Genro, T., De Souza, U.,(1998) Presupuesto participativo: la experiencia de Porto Alegre. Cited 54 times.,Central de Trabajadores Argentinos, (CTA)/EUDEBA: Buenos Aires; Goldfrank, B.,,(2006) Revista de Ciencia Politica, 26 (2), pp. 3-28. Cited 48 times.; Gómez, E.,El presupuesto participativo entre democracia, pobreza y desarro-llo,(2007) Investigación y desarrollo, 15 (1), pp. 56-77. Cited 8 times.; Gutiérrez, A. L.,Programa de planeación local y presupuesto participativo en Medellín, Colombia: estrategia participativa para planear el desarrollo y democra-tizar la gestión pública,(2014) ; Hernández Sampieri, R., Fernández Collado, C., Baptista Lucio, P.,(2014) Metodolo-gía de la investigación. Cited 6077 times.,México: McGraw Hill Interamericana editores; Jessop, R.,Governance and meta-governance in the face of complexity: On the roles of requisite verity, reflexive observation, and romantic irony in participatory Governance,(2002) Participatory Governance in Multi-Level Context. Cited 94 times.; Kahler, M.,Global governance redefined,; Kooiman, J., Jentoft, S.,Meta-governance: Values, norms and principles, and the making of hard choices,; (1993) Sobre la organización del sistema de control fiscal financiero y los organismos que lo ejercen. Cited 2 times.,Ley 42 de Enero 27 de 1993. DO. N.º 40732,  34; (2012) Por la cual se dictan normas para modernizar la organización y el funcionamiento de los municipios. Cited 4 times.,Ley 1551 de Julio 6 de 2012. DO. N.º 48128,  36; Madison, J.,(1788) El Federalista. Cited 81 times.,Estados Unidos de América; O’Donnell, G.,Accountability horizontal: La institucionalización legal de la desconfianza política,(2004) Revista Española de Ciencia Política, (11), pp. 11-31. Cited 40 times.; Oszlak, O.,(2014) Teoría y práctica del gobierno abierto: Lecciones de la experiencia interna-cional. Cited 12 times.,Washington D. C: RedInpae; Pagliai, C., Montecinos, E.,(2006) Presupuestos participativos,Chile: Experiencias y aprendizajes. [en línea]. Recuperado de; Peters, G.,(2005) The Meta – Governance of Policy Networks: Steering at a Distance, but still Steering: Pensilvania. Cited 5 times.,University of Pittsburg; (2016) Acuerdo Final para la Terminación del Conflicto y la Construcción de una Paz Estable y Duradera. Cited 214 times.,Poder Legislativo, Colombia Junio de 2016, 26 junio 2016 [en línea]. Recuperado de,https://www.refworld.org.es/docid/5a8744d54.html; Pont Vidal, J.,Modelos Innovadores de Administración y Gestión Pública: Hacia la Emergencia de Nuevos Paradigmas,(2016) Gestión y Análisis de Políticas Públicas, (16). Cited 7 times.; Prats i Catalá, J.,(2005) De la burocracia al managment, del managment a la gobernanza. Cited 30 times.,España: Institut Internacional de Governabilitat de Catalunya; Ramió, C.,La Administración Pública del Futuro: La Administración «2050»,(2015) GIGAPP Estudios Working Papers, 3 (8), pp. 1-41.; Ramírez, M. F.,Transformaciones del Estado en el gobierno local: La nueva gestión pública en Medellín,(2012) Reflexión Política. Colombia, (14), pp. 82-95. Cited 4 times.; Rodríguez, L.,(2016) Estructura del poder público en Colombia. Cited 5 times.,Bogotá: Temis; Schillemans, T.,Accountability in the shadow of hierarchy: The horizontal accountability of agencies (Open Access),; Slaughter, A. M.,(2009) A new world order. Cited 2677 times.,Princeton: Princeton University Press; Urán, O. A.,La participación ciudadana en la planeación y financiamiento de la ciudad como institución democrática emergente. Los casos de Manchester, Medellín y Porto Alegre,(2007) Controversia, (189), pp. 173-211.</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -3222,11 +3052,6 @@
       <c r="O35" t="inlineStr">
         <is>
           <t>10.21017/Rev.Repub.2022.v32.a122</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>Colombia</t>
         </is>
       </c>
     </row>
@@ -3271,7 +3096,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Ahi, P., Searcy, C.,A comparative literature analysis of definitions for green and sustainable supply chain management,; Alhola, K., Ryding, S.O., Salmenperä, H., Busch, N.J.,Exploiting the Potential of Public Procurement: Opportunities for Circular Economy (Open Access),; (2016) 3105.0.65.001 - Australian historical population statistics, 2016. Cited 30 times.,Australian Government,  4; (2019) Data by region. Cited 8 times.,Australian Government,  6; (2020) Commonwealth procurement rules. Cited 2 times.,  8,(2019) End of year summary of inter national student data 2019. Cited 3 times.; (2020) Statistics on Australian government procurement contracts. Cited 2 times.,  10,(2019) Managing population and change in local government perspective; (2020) Facts and figures. Cited 106 times.,Australian Government,  12; Brammer, S., Walker, H.,Sustainable procurement in the public sector: An international comparative study,; Chicot, J., Matt, M.,Public procurement of innovation: A review of rationales, designs, and contributions to grand challenges,; Darnall, N., Jolley, G.J., Handfield, R.,Environmental management systems and green supply chain management: Complements for sustainability?,; Darnall, N., Stritch, J.M., Bretschneider, S., Hsueh, L., Duscha, M., Iles, J., No, W., (...), Burwell, C.,(2017) Advancing green purchasing in local governments. Cited 14 times.,Arizona State University, Center for Organization Research and Design, Sustainable Purchasing Research Initiative; Darnall, N., Stritch, J.M., Hsueh, L., Bretschneider, S.,A framework for understanding sustainable public purchasing,(2018) Academy of Management Proceedings, 1. Cited 3 times.; Dawkins, E., André, K., Axelsson, K., Benoist, L., Swartling, Å.G., Persson, Å.,Advancing sustainable consumption at the local government level: A literature review (Open Access),; Delmonico, D., Jabbour, C.J.C., Pereira, S.C.F., de Sousa Jabbour, A.B.L., Renwick, D.W.S., Thomé, A.M.T.,Unveiling barriers to sustainable public procurement in emerging economies: Evidence from a leading sustainable supply chain initiative in Latin America (Open Access),; Demircioglu, M.A., Vivona, R.,Positioning public procurement as a procedural tool for innovation: an empirical study (Open Access),; Edler, J., Georghiou, L.,Public procurement and innovation-Resurrecting the demand side,; Hsueh, L., Bretschneider, S., Stritch, J.M., Darnall, N.,Implementation of sustainable public procurement in local governments: a measurement approach,; (2019) An assessment of Australia’s future infrastructure needs. Cited 32 times.,Australian Government,  24; AlNuaimi, B.K., Khan, M.,Public-sector green procurement in the United Arab Emirates: Innovation capability and commitment to change,; Kristensen, H.S., Mosgaard, M.A., Remmen, A.,Circular public procurement practices in Danish municipalities,; Leal Filho, W., Skouloudis, A., Brandli, L.L., Salvia, A.L., Avila, L.V., Rayman-Bacchus, L.,Sustainability and procurement practices in higher education institutions: Barriers and drivers (Open Access),; Linton, J.D., Klassen, R., Jayaraman, V.,Sustainable supply chains: An introduction,; Liu, J., Xue, J., Yang, L., Shi, B.,Enhancing green public procurement practices in local governments: Chinese evidence based on a new research framework,; Mansi, M., Pandey, R.,Impact of demographic characteristics of procurement professionals on sustainable procurement practices: Evidence from Australia,; McDonald, P.,Migration and employment growth in Australia, 2011–2016,(2017) Australian Population Studies. International, 1 (1), pp. 3-12. Cited 4 times.; (2014) Local self-government in Japan. while Japan,Retrieved December18, 2019, from,https://www.soumu.go.jp/maincontent/000295099.pdf; (2016) NSW Council amalgamations and the waste contract pathway,Retrieved May16, 2020, from,https://blog.mraconsulting.com.au/2016/03/31/nsw-council-amalgamations-and-the-waste-contract-pathway/; de Oliveira, B.C.S.C.M., dos Santos, L.M.L.,Public procurement as a policy for sustainable development (Open Access),; (2018) Global material resources outlook to 2060. Cited 286 times.,Retrieved March24, 2019, from,https://www.oecd.org/environment/waste/highlights-global-material-resources-outlook-to-2060.pdf; Oruezabala, G., Rico, J.-C.,The impact of sustainable public procurement on supplier management - The case of French public hospitals,; Pacheco-Blanco, B., Bastante-Ceca, M.J.,Green public procurement as an initiative for sustainable consumption. An exploratory study of Spanish public universities,; (2018) Never waste a crisis: The waste and recycling industry in Australia / The Senate, environment and communications references committee. Cited 2 times.,Retrieved June15, 2020, from,https://www.aph.gov.au/Parliamentary_Business/Committees/Senate/Environment_and_Communications/WasteandRecycling/Report; Patrucco, A.S., Luzzini, D., Ronchi, S.,Evaluating the Effectiveness of Public Procurement Performance Management Systems in Local Governments (Open Access),; Preuss, L.,Addressing sustainable development through public procurement: The case of local government,; Rainville, A.,Standards in green public procurement – A framework to enhance innovation,; (2018) National Waste Report. Cited 122 times.,Retrieved March16, 2020, from,https://www.environmentonline.gov.au/system/files/resources/7381c1de-31d0-429b-912c91a6dbc83af7/files/national-waste-report-2018.pdf; Roman, A.V.,Institutionalizing sustainability: A structural equation model of sustainable procurement in US public agencies,; Smith, J., Andersson, G., Gourlay, R., Karner, S., Mikkelsen, B.E., Sonnino, R., Barling, D.,Balancing competing policy demands: The case of sustainable public sector food procurement (Open Access),; Sönnichsen, S.D., Clement, J.,Review of green and sustainable public procurement: Towards circular public procurement (Open Access),; (2018) Daily municipal solid waste generation per capita worldwide in 2018, by sele cted country (in kilograms),Retrieved November18, 2019, from,https://www.statista.com/statistics/689809/per-capital-msw-generation-by-country-worldwide/; (2019) The world’s worst electronic waste offenders,Retrieved June13, 2020, from,https://www.online.statista.com/chart/17175/e-waste-generated-per-inhabitant-in-selected-countries/; (2016) Giving local governments the reboot. Cited 4 times.,Retrieved June10, 2020, from,https://mckellinstitute.org.au/research/reports/giving-local-governments-the-re-boot/; (2018) What a waste 2.0: A global snapshot of solid waste management to 2050. Cited 2145 times.,Retrieved June22, 2020, from,https://siteresources.worldbank.org/; (2019) Doing business report. Cited 46 times.,Retrieved June26, 2020, from,https://www.doingbusiness.org/en/reports/global-reports/doing-business-2020; (2019) Population growth (annual %). Cited 103 times.,Retrieved June26, 2020, from,https://data.worldbank.org/indicator/SP.POP.GROW?end=2019%26start=2017; Thomson, J., Jackson, T.,Sustainable procurement in practice: Lessons from local government,; (2020) Market performance statistics,Retrieved June22, 2020, from,https://www.tourism.australia.com/en/markets-and-stats/tourism-statistics.html; (2017) World urbanization prospects 2018. Cited 41 times.,Retrieved June22, 2020, from,https://population.un.org/wup/; (2017) The sustainable development goals report 2017. Cited 1064 times.,Retrieved June22, 2020, from,http://www.undp.org/content/dam/undp/library/corporate/brochure/SDGs_Booklet_Web_En.pdf; (2017) Government units survey methodology,Retrieved July29, 2019, from,https://www.census.gov/programs-surveys/gus/technical-documentation/methodology.html; Walker, H., Brammer, S.,Sustainable procurement in the United Kingdom public sector (Open Access),; Witjes, S., Lozano, R.,Towards a more Circular Economy: Proposing a framework linking sustainable public procurement and sustainable business models (Open Access),; Young, S., Nagpal, S., Adams, C.A.,Sustainable Procurement in Australian and UK Universities (Open Access),; Zelenbabic, D.,Fostering innovation through innovation friendly procurement practices: a case study of Danish local government procurement,; Zeppel, H.,(2014) Green procurement by local government: A review of sustainability criteria. Cited 5 times.,Retrieved September27, 2020, from,. University of Southern Queensland; Zhu, Q., Cordeiro, J., Sarkis, J.,Institutional pressures, dynamic capabilities and environmental management systems: Investigating the ISO 9000 - Environmental management system implementation linkage,</t>
+          <t>Ahi, P., Searcy, C.,A comparative literature analysis of definitions for green and sustainable supply chain management,; Alhola, K., Ryding, S.O., Salmenperä, H., Busch, N.J.,Exploiting the Potential of Public Procurement: Opportunities for Circular Economy,; (2016) 3105.0.65.001 - Australian historical population statistics, 2016. Cited 30 times.,Australian Government,  4; (2019) Data by region. Cited 8 times.,Australian Government,  6; (2020) Commonwealth procurement rules. Cited 2 times.,  8,(2019) End of year summary of inter national student data 2019. Cited 3 times.; (2020) Statistics on Australian government procurement contracts. Cited 2 times.,  10,(2019) Managing population and change in local government perspective; (2020) Facts and figures. Cited 106 times.,Australian Government,  12; Brammer, S., Walker, H.,Sustainable procurement in the public sector: An international comparative study,; Chicot, J., Matt, M.,Public procurement of innovation: A review of rationales, designs, and contributions to grand challenges,; Darnall, N., Jolley, G.J., Handfield, R.,Environmental management systems and green supply chain management: Complements for sustainability?,; Darnall, N., Stritch, J.M., Bretschneider, S., Hsueh, L., Duscha, M., Iles, J., No, W., (...), Burwell, C.,(2017) Advancing green purchasing in local governments. Cited 14 times.,Arizona State University, Center for Organization Research and Design, Sustainable Purchasing Research Initiative; Darnall, N., Stritch, J.M., Hsueh, L., Bretschneider, S.,A framework for understanding sustainable public purchasing,(2018) Academy of Management Proceedings, 1. Cited 3 times.; Dawkins, E., André, K., Axelsson, K., Benoist, L., Swartling, Å.G., Persson, Å.,Advancing sustainable consumption at the local government level: A literature review,; Delmonico, D., Jabbour, C.J.C., Pereira, S.C.F., de Sousa Jabbour, A.B.L., Renwick, D.W.S., Thomé, A.M.T.,Unveiling barriers to sustainable public procurement in emerging economies: Evidence from a leading sustainable supply chain initiative in Latin America,; Demircioglu, M.A., Vivona, R.,Positioning public procurement as a procedural tool for innovation: an empirical study,; Edler, J., Georghiou, L.,Public procurement and innovation-Resurrecting the demand side,; Hsueh, L., Bretschneider, S., Stritch, J.M., Darnall, N.,Implementation of sustainable public procurement in local governments: a measurement approach,; (2019) An assessment of Australia’s future infrastructure needs. Cited 32 times.,Australian Government,  24; AlNuaimi, B.K., Khan, M.,Public-sector green procurement in the United Arab Emirates: Innovation capability and commitment to change,; Kristensen, H.S., Mosgaard, M.A., Remmen, A.,Circular public procurement practices in Danish municipalities,; Leal Filho, W., Skouloudis, A., Brandli, L.L., Salvia, A.L., Avila, L.V., Rayman-Bacchus, L.,Sustainability and procurement practices in higher education institutions: Barriers and drivers,; Linton, J.D., Klassen, R., Jayaraman, V.,Sustainable supply chains: An introduction,; Liu, J., Xue, J., Yang, L., Shi, B.,Enhancing green public procurement practices in local governments: Chinese evidence based on a new research framework,; Mansi, M., Pandey, R.,Impact of demographic characteristics of procurement professionals on sustainable procurement practices: Evidence from Australia,; McDonald, P.,Migration and employment growth in Australia, 2011–2016,(2017) Australian Population Studies. International, 1 (1), pp. 3-12. Cited 4 times.; (2014) Local self-government in Japan. while Japan,Retrieved December18, 2019, from,https://www.soumu.go.jp/maincontent/000295099.pdf; (2016) NSW Council amalgamations and the waste contract pathway,Retrieved May16, 2020, from,https://blog.mraconsulting.com.au/2016/03/31/nsw-council-amalgamations-and-the-waste-contract-pathway/; de Oliveira, B.C.S.C.M., dos Santos, L.M.L.,Public procurement as a policy for sustainable development (Open Access),; (2018) Global material resources outlook to 2060. Cited 289 times.,Retrieved March24, 2019, from,https://www.oecd.org/environment/waste/highlights-global-material-resources-outlook-to-2060.pdf; Oruezabala, G., Rico, J.-C.,The impact of sustainable public procurement on supplier management - The case of French public hospitals (Open Access),; Pacheco-Blanco, B., Bastante-Ceca, M.J.,Green public procurement as an initiative for sustainable consumption. An exploratory study of Spanish public universities,; (2018) Never waste a crisis: The waste and recycling industry in Australia / The Senate, environment and communications references committee. Cited 2 times.,Retrieved June15, 2020, from,https://www.aph.gov.au/Parliamentary_Business/Committees/Senate/Environment_and_Communications/WasteandRecycling/Report; Patrucco, A.S., Luzzini, D., Ronchi, S.,Evaluating the Effectiveness of Public Procurement Performance Management Systems in Local Governments,; Preuss, L.,Addressing sustainable development through public procurement: The case of local government (Open Access),; Rainville, A.,Standards in green public procurement – A framework to enhance innovation,; (2018) National Waste Report. Cited 122 times.,Retrieved March16, 2020, from,https://www.environmentonline.gov.au/system/files/resources/7381c1de-31d0-429b-912c91a6dbc83af7/files/national-waste-report-2018.pdf; Roman, A.V.,Institutionalizing sustainability: A structural equation model of sustainable procurement in US public agencies,; Smith, J., Andersson, G., Gourlay, R., Karner, S., Mikkelsen, B.E., Sonnino, R., Barling, D.,Balancing competing policy demands: The case of sustainable public sector food procurement,; Sönnichsen, S.D., Clement, J.,Review of green and sustainable public procurement: Towards circular public procurement,; (2018) Daily municipal solid waste generation per capita worldwide in 2018, by sele cted country (in kilograms),Retrieved November18, 2019, from,https://www.statista.com/statistics/689809/per-capital-msw-generation-by-country-worldwide/; (2019) The world’s worst electronic waste offenders,Retrieved June13, 2020, from,https://www.online.statista.com/chart/17175/e-waste-generated-per-inhabitant-in-selected-countries/; (2016) Giving local governments the reboot. Cited 4 times.,Retrieved June10, 2020, from,https://mckellinstitute.org.au/research/reports/giving-local-governments-the-re-boot/; (2018) What a waste 2.0: A global snapshot of solid waste management to 2050. Cited 2168 times.,Retrieved June22, 2020, from,https://siteresources.worldbank.org/; (2019) Doing business report. Cited 47 times.,Retrieved June26, 2020, from,https://www.doingbusiness.org/en/reports/global-reports/doing-business-2020; (2019) Population growth (annual %). Cited 103 times.,Retrieved June26, 2020, from,https://data.worldbank.org/indicator/SP.POP.GROW?end=2019%26start=2017; Thomson, J., Jackson, T.,Sustainable procurement in practice: Lessons from local government (Open Access),; (2020) Market performance statistics,Retrieved June22, 2020, from,https://www.tourism.australia.com/en/markets-and-stats/tourism-statistics.html; (2017) World urbanization prospects 2018. Cited 42 times.,Retrieved June22, 2020, from,https://population.un.org/wup/; (2017) The sustainable development goals report 2017. Cited 1069 times.,Retrieved June22, 2020, from,http://www.undp.org/content/dam/undp/library/corporate/brochure/SDGs_Booklet_Web_En.pdf; (2017) Government units survey methodology,Retrieved July29, 2019, from,https://www.census.gov/programs-surveys/gus/technical-documentation/methodology.html; Walker, H., Brammer, S.,Sustainable procurement in the United Kingdom public sector (Open Access),; Witjes, S., Lozano, R.,Towards a more Circular Economy: Proposing a framework linking sustainable public procurement and sustainable business models (Open Access),; Young, S., Nagpal, S., Adams, C.A.,Sustainable Procurement in Australian and UK Universities (Open Access),; Zelenbabic, D.,Fostering innovation through innovation friendly procurement practices: a case study of Danish local government procurement (Open Access),; Zeppel, H.,(2014) Green procurement by local government: A review of sustainability criteria. Cited 5 times.,Retrieved September27, 2020, from,. University of Southern Queensland; Zhu, Q., Cordeiro, J., Sarkis, J.,Institutional pressures, dynamic capabilities and environmental management systems: Investigating the ISO 9000 - Environmental management system implementation linkage,</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3291,22 +3116,17 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>No Encontrado</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>No Encontrado</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
           <t>10.1080/01900692.2022.2120002</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>Varios Paises</t>
         </is>
       </c>
     </row>
@@ -3351,7 +3171,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Ananiadou, K., Claro, M.,(2009) Century Skills and Competences for New Millennium Learners in OECD Countries. Cited 706 times.,OECD Education; Appe, S., Barragán, D.,Strategies Outside the Formal Classroom: Nonprofit Management Education in Transparency and Accountability (Open Access),; Appe, S., Rubaii, N., Castro, S.L.-D., Capobianco, S.,The concept and context of the engaged university in the Global South: Lessons from Latin America to guide a research Agenda,; Ayala-Valenzuela, R., Messing-Grube, H.B., Toro-Arévalo, S.,The didactic sense of "Problem-based learning" in medical education,; Benavides, A.D., Fierro-Villa, A.M., Aguayo, E.C.,Public Service and Good Governance vs. Corruption and Self-Promotion: MPA Programs in Mexico,; Bentancur, N.,Gobiernos, banco mundial y universidades: el legado de una década de políticas universitarias en América Latina,(2004) Pensamiento Educativo, 11, pp. 7-15. Cited 3 times.; Bentancur, N.,La enseñanza de políticas públicas por medio de un juego de rol. Análisis de experiencias en la facultad de ciencias sociales de la universidad de la república (Uruguay) 2010-2011,(2011) Estado, Gobierno, Gestión Pública Revista Chilena de Administración Pública, 18, pp. 125-145.; Bentancur, N., Mancebo, M.,Pensando lo público: los desarrollos de la ciencia política sobre estado y políticas públicas en uruguay (1987-2012),(2013) Revista Debates, 7 (3), pp. 9-30. Cited 7 times.; Bentancur, N., Bidegain, G., Martínez, R.,Public policy training in Latin America: Current status and challenges for political science (Open Access),; Bransford, J.D., Brown, A.L., Cocking, R.,How people learn: Brain, mind, experience, and school (expanded edition),(2000) Washington, DC: National Academy Press. Cited 63 times.; Busso, M., Cristia, J., Hincapié, D.,(2017) Aprender Mejor, Políticas Públicas Para el Desarrollo de Habilidades. Cited 6 times.,Banco Interamericano de Desarrollo; Casals, E., García, Y., Noguera, E.,(2005) Una experiencia de innovación y mejora de la docencia universitaria mediante la metodología de aprendizaje basado en problemas (ABP),Barcelona, Spain, V Congreso Internacional Virtual de Educación; Cardozo, N.,Estado, administración y políticas públicas en América Latina,(2020) Civilizar: Ciencias Sociales Y Humanas, 20 (39), pp. 11-34. Cited 2 times.; Cardozo, N.,(2021) El campo de las políticas públicas en América Latina: Balance y perspectivas,VII congreso uruguayo de ciencia política la ciencia política frente Al nuevo escenario global: repensando los márgenes de la democracia, Montevideo, Uruguay, August 4–6 2021, In; Careaga, M., Rubaii, N., Leyva, S.,Beyond the Case Method in Public Affairs Education: Unexpected Benefits of Student-Written Cases,; Careaga-Tagüeña, M., Sanabria-Pulido, P.,Use of active learning strategies in public affairs education: Advances and lessons from the scholarship and the practice,; (2020) Operacionalización de Criterios de Evaluación para la Acreditación de Programas de Postgrado,Chile, Comisión Nacional de Acreditación,https://www.cnachile.cl/Documentos%20de%20Paginas/Operacionalizaci%c3%b3n%20de%20criterios%20de%20Postgrado.pdf; Capobianco, S., Chen, X., Líppez-De Castro, S., Rubaii, N.,Enhancing global and intercultural competencies in Master of Public Administration classes: Assessing alternative approaches to incorporating cultures and languages,; Dávila, M., Soto, X.,¿De qué se habla cuándo se habla de políticas públicas? Estado de la discusión y actores en el Chile del bicentenario,(2011) Estado, Gobierno Y Gestión Pública, 17, pp. 5-33. Cited 2 times.; Diaz, C., Galano, N., Curti, G.,(2014) Miradas de políticas públicas: Cómo se enseña y aprende análisis de políticas públicas en América Latina. Cited 2 times.,Argentina, Política y Gestión, (eds; Duch, B., Groh, S., Allen, D.,(2001) The Power of Problem-Based Learning. Cited 603 times.,Virginia, VA, Stylus, (eds) (, a; Duch, B., Groh, S., Allen, D.,Why problem-based learning?: A case study of institutional change in undergraduate education,(2001) The Power of Problem-Based Learning, pp. 3-11. Cited 144 times.; El-Taliawi, O.G., Nair, S., Van der Wal, Z.,Public policy schools in the global south: a mapping and analysis of the emerging landscape (Open Access),; Engeli, I., Rothmayr, C.H.,(2014) Comparative Policy Studies. Cited 97 times.,Palgrave Macmillan; Farah, M.F.S.,An analysis of public policies in Brazil: From an unnamed practice to the institutionalization of the “public field” (Open Access),; Fontaine, G.,(2015) El análisis de las políticas públicas: Conceptos, teorías y métodos. Cited 22 times.,Anthropos; Gallagher, S.A.,Problem-based learning: Where did it come from, what does it do, and where is it going?,; Goodman, D.,Problem-based Learning in the MPA Curriculum,; Grindle, M.S.,(2010) Constructing, Deconstructing, and Reconstructing Career Civil Service Systems in Latin America. Cited 33 times.,Harvard University; Lam, D.,Problem-based learning: An integration of theory and field,; Méndez, J.L.,Evolution of policy analysis as a field of study in Mexico. In Jose Luis Mendez and Mauricio I. Dussauge-Laguna (eds.). Policy Analysis in Mexico,(2017) Policy Press, pp. 11-28.; Moallem, M., Hung, W., Dabbagh, N.,(2019) The Wiley Handbook of Problem‐based Learning. Cited 37 times.,Wiley, (eds; Mudida, R., Rubaii, N.,Providing Context and Inspiring Hope: Using the Case Method to Teach Public Policy in Developing Countries (Open Access),; Muller, P., Surel, Y.,(1998) L’Analyse de polítiques publiques. Cited 153 times.,Paris, Montchrestien; (2019) Accreditation Standards for Master’s Degree Programs. Cited 11 times.,NASPAA,https://www.naspaa.org/sites/default/files/docs/2019-11/NASPAA%20Accreditation%20Standards%20-%202019%20FINAL%20with%20rationale.pdf; Oliveira, F.B., Rubin, M.M.,Public Administration Education in Brazil: Evolution, Challenges, and Opportunities,; Pal, L.A., Clark, I.D.,Teaching public policy: Global convergence or difference?,; Pliscoff, C.,(2014) Enseñanza y aprendizaje de administración y políticas públicas en las Américas,Santiago, Ril Editores, (ed; Purón Cid, G.,A comparative analysis of public affairs master’s programs in the United States and the Latin American region,; Roth, A.-N.,Desarrollo y enseñanza en análisis de políticas públicas en América Latina,(2016) Estudios Políticos, 49, pp. 189-191. Cited 2 times.; Rubaii, N.M., Pliscoff, C.,Public Administration Education in Latin America—Understanding Teaching in Context: An Introduction to the Symposium (Open Access),; Rubaii, N.,Bringing the 21st-Century Governance Paradigm to Public Affairs Education: Reimagining How We Teach What We Teach (Open Access),; Rubaii, N.,(2016) Promoting Social Equity, Diversity, and Inclusion through Accreditation: Comparing National and International Standards for Public Affairs Programs in Latin America,Quality Assurance Education, (, b; Sanabria-Pulido, P., Rubaii, N., Purón, G.,Public affairs graduate education in Latin America: Emulation or identity?,; Savery, J.R.,Overview of problem-based learning: definitions and distinctions,(2006) Interdisciplinary Journal of Problem-Based Learning, 1 (1), pp. 9-20. Cited 1314 times.; Savery, J.R.,Comparative pedagogical models of problembased learning,(2019) The Wiley Handbook of Problem‐based Learning, pp. 81-104. Cited 25 times.; Schmidt, H.G., Rotgans, J.I., Yew, E.H.J.,Cognitive constructivist foundations of prolearning,(2019) The Wiley Handbook of Problem‐based Learning, pp. 25-50. Cited 10 times.; Schmidt, H.G.,A brief history of problem-based learning,; Servant-Miklos, V.F.C.,The Harvard Connection: How the Case Method Spawned Problem-Based Learning at McMaster University (Open Access),; Vaitsman, J., Ribeiro, J.M., Lobato, L.,Policy analysis in Brazil: The state of the art,; Wu, X., Ramesh, M., Howlett, M.,Policy capacity: A conceptual framework for understanding policy competences and capabilities,</t>
+          <t>Ananiadou, K., Claro, M.,(2009) Century Skills and Competences for New Millennium Learners in OECD Countries. Cited 709 times.,OECD Education; Appe, S., Barragán, D.,Strategies Outside the Formal Classroom: Nonprofit Management Education in Transparency and Accountability,; Appe, S., Rubaii, N., Castro, S.L.-D., Capobianco, S.,The concept and context of the engaged university in the Global South: Lessons from Latin America to guide a research Agenda,; Ayala-Valenzuela, R., Messing-Grube, H.B., Toro-Arévalo, S.,The didactic sense of "Problem-based learning" in medical education,; Benavides, A.D., Fierro-Villa, A.M., Aguayo, E.C.,Public Service and Good Governance vs. Corruption and Self-Promotion: MPA Programs in Mexico,; Bentancur, N.,Gobiernos, banco mundial y universidades: el legado de una década de políticas universitarias en América Latina,(2004) Pensamiento Educativo, 11, pp. 7-15. Cited 3 times.; Bentancur, N.,La enseñanza de políticas públicas por medio de un juego de rol. Análisis de experiencias en la facultad de ciencias sociales de la universidad de la república (Uruguay) 2010-2011,(2011) Estado, Gobierno, Gestión Pública Revista Chilena de Administración Pública, 18, pp. 125-145.; Bentancur, N., Mancebo, M.,Pensando lo público: los desarrollos de la ciencia política sobre estado y políticas públicas en uruguay (1987-2012),(2013) Revista Debates, 7 (3), pp. 9-30. Cited 7 times.; Bentancur, N., Bidegain, G., Martínez, R.,Public policy training in Latin America: Current status and challenges for political science,; Bransford, J.D., Brown, A.L., Cocking, R.,How people learn: Brain, mind, experience, and school (expanded edition),(2000) Washington, DC: National Academy Press. Cited 63 times.; Busso, M., Cristia, J., Hincapié, D.,(2017) Aprender Mejor, Políticas Públicas Para el Desarrollo de Habilidades. Cited 6 times.,Banco Interamericano de Desarrollo; Casals, E., García, Y., Noguera, E.,(2005) Una experiencia de innovación y mejora de la docencia universitaria mediante la metodología de aprendizaje basado en problemas (ABP),Barcelona, Spain, V Congreso Internacional Virtual de Educación; Cardozo, N.,Estado, administración y políticas públicas en América Latina,(2020) Civilizar: Ciencias Sociales Y Humanas, 20 (39), pp. 11-34.; Cardozo, N.,(2021) El campo de las políticas públicas en América Latina: Balance y perspectivas,VII congreso uruguayo de ciencia política la ciencia política frente Al nuevo escenario global: repensando los márgenes de la democracia, Montevideo, Uruguay, August 4–6 2021, In; Careaga, M., Rubaii, N., Leyva, S.,Beyond the Case Method in Public Affairs Education: Unexpected Benefits of Student-Written Cases,; Careaga-Tagüeña, M., Sanabria-Pulido, P.,Use of active learning strategies in public affairs education: Advances and lessons from the scholarship and the practice,; (2020) Operacionalización de Criterios de Evaluación para la Acreditación de Programas de Postgrado,Chile, Comisión Nacional de Acreditación,https://www.cnachile.cl/Documentos%20de%20Paginas/Operacionalizaci%c3%b3n%20de%20criterios%20de%20Postgrado.pdf; Capobianco, S., Chen, X., Líppez-De Castro, S., Rubaii, N.,Enhancing global and intercultural competencies in Master of Public Administration classes: Assessing alternative approaches to incorporating cultures and languages,; Dávila, M., Soto, X.,¿De qué se habla cuándo se habla de políticas públicas? Estado de la discusión y actores en el Chile del bicentenario,(2011) Estado, Gobierno Y Gestión Pública, 17, pp. 5-33. Cited 2 times.; Diaz, C., Galano, N., Curti, G.,(2014) Miradas de políticas públicas: Cómo se enseña y aprende análisis de políticas públicas en América Latina. Cited 2 times.,Argentina, Política y Gestión, (eds; Duch, B., Groh, S., Allen, D.,(2001) The Power of Problem-Based Learning. Cited 604 times.,Virginia, VA, Stylus, (eds) (, a; Duch, B., Groh, S., Allen, D.,Why problem-based learning?: A case study of institutional change in undergraduate education,(2001) The Power of Problem-Based Learning, pp. 3-11. Cited 144 times.; El-Taliawi, O.G., Nair, S., Van der Wal, Z.,Public policy schools in the global south: a mapping and analysis of the emerging landscape,; Engeli, I., Rothmayr, C.H.,(2014) Comparative Policy Studies. Cited 97 times.,Palgrave Macmillan; Farah, M.F.S.,An analysis of public policies in Brazil: From an unnamed practice to the institutionalization of the “public field”,; Fontaine, G.,(2015) El análisis de las políticas públicas: Conceptos, teorías y métodos. Cited 22 times.,Anthropos; Gallagher, S.A.,Problem-based learning: Where did it come from, what does it do, and where is it going?,; Goodman, D.,Problem-based Learning in the MPA Curriculum,; Grindle, M.S.,(2010) Constructing, Deconstructing, and Reconstructing Career Civil Service Systems in Latin America. Cited 33 times.,Harvard University; Lam, D.,Problem-based learning: An integration of theory and field,; Méndez, J.L.,Evolution of policy analysis as a field of study in Mexico. In Jose Luis Mendez and Mauricio I. Dussauge-Laguna (eds.). Policy Analysis in Mexico,(2017) Policy Press, pp. 11-28.; Moallem, M., Hung, W., Dabbagh, N.,(2019) The Wiley Handbook of Problem‐based Learning. Cited 38 times.,Wiley, (eds; Mudida, R., Rubaii, N.,Providing Context and Inspiring Hope: Using the Case Method to Teach Public Policy in Developing Countries,; Muller, P., Surel, Y.,(1998) L’Analyse de polítiques publiques. Cited 153 times.,Paris, Montchrestien; (2019) Accreditation Standards for Master’s Degree Programs. Cited 11 times.,NASPAA,https://www.naspaa.org/sites/default/files/docs/2019-11/NASPAA%20Accreditation%20Standards%20-%202019%20FINAL%20with%20rationale.pdf; Oliveira, F.B., Rubin, M.M.,Public Administration Education in Brazil: Evolution, Challenges, and Opportunities (Open Access),; Pal, L.A., Clark, I.D.,Teaching public policy: Global convergence or difference?,; Pliscoff, C.,(2014) Enseñanza y aprendizaje de administración y políticas públicas en las Américas,Santiago, Ril Editores, (ed; Purón Cid, G.,A comparative analysis of public affairs master’s programs in the United States and the Latin American region,; Roth, A.-N.,Desarrollo y enseñanza en análisis de políticas públicas en América Latina,(2016) Estudios Políticos, 49, pp. 189-191. Cited 2 times.; Rubaii, N.M., Pliscoff, C.,Public Administration Education in Latin America—Understanding Teaching in Context: An Introduction to the Symposium (Open Access),; Rubaii, N.,Bringing the 21st-Century Governance Paradigm to Public Affairs Education: Reimagining How We Teach What We Teach,; Rubaii, N.,(2016) Promoting Social Equity, Diversity, and Inclusion through Accreditation: Comparing National and International Standards for Public Affairs Programs in Latin America,Quality Assurance Education, (, b; Sanabria-Pulido, P., Rubaii, N., Purón, G.,Public affairs graduate education in Latin America: Emulation or identity? (Open Access),; Savery, J.R.,Overview of problem-based learning: definitions and distinctions,(2006) Interdisciplinary Journal of Problem-Based Learning, 1 (1), pp. 9-20. Cited 1316 times.; Savery, J.R.,Comparative pedagogical models of problembased learning,(2019) The Wiley Handbook of Problem‐based Learning, pp. 81-104. Cited 25 times.; Schmidt, H.G., Rotgans, J.I., Yew, E.H.J.,Cognitive constructivist foundations of prolearning,(2019) The Wiley Handbook of Problem‐based Learning, pp. 25-50. Cited 10 times.; Schmidt, H.G.,A brief history of problem-based learning (Open Access),; Servant-Miklos, V.F.C.,The Harvard Connection: How the Case Method Spawned Problem-Based Learning at McMaster University,; Vaitsman, J., Ribeiro, J.M., Lobato, L.,Policy analysis in Brazil: The state of the art,; Wu, X., Ramesh, M., Howlett, M.,Policy capacity: A conceptual framework for understanding policy competences and capabilities,</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3371,22 +3191,17 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>No Encontrado</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>No Encontrado</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
           <t>10.1177/01447394221124818</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>Chile</t>
         </is>
       </c>
     </row>
@@ -3431,7 +3246,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Aagaard, K., de Boer, H.,The Danish UNIK Initiative: An NPM-Inspired Mechanism to Steer Higher Education,; Amis, K.,(1960) ,Lone Voices: Views of the Fifties. Encounter, July 15; Arellano, J.P.,(2000) Reforma Educacional. Prioridad que se Consolida. Cited 9 times.,Santiago: Editorial Los Andes; Bernasconi, A.,University Autonomy and Academic Freedom: Contrasting Latin American and US Perspectives,(2021) Higher Education Governance and Policy, 2 (1), pp. 5-25. Cited 3 times.; Bernasconi, A., Rojas, F.,(2004) Informe Sobre la Educación Superior en Chile: 1980-2003. Cited 66 times.,Santiago: Editorial Universitaria; Bleikie, I.,Justifying the Evaluative State: New Public Management Ideals in Higher Education,(1998) European Journal of Education, 33, pp. 299-316. Cited 86 times.; Bleiklie, I., Enders, J., Lepori, B.,Setting the stage—theory and research questions,; Broucker, B., De Wit, K.,New public management in higher education,; Brunner, J.J.,La Educación Superior en Chile: 1960-1990. Evolución y Políticas,(1992) Estado, Mercado y Conocimiento: Políticas y Resultados en la Educación Superior Chilena 1960-1990, pp. 3-123. Cited 3 times.; Brunner, J.J.,El Lugar del Mercado en el Presente y el Futuro de la Educación Superior Chilena,(2010) Estudios Sociales, 188, pp. 11-63. Cited 3 times.; Canales, A., de los Ríos, D., Letelier, M.,(2008) Comprendiendo la Implementación de Innovaciones Educativas Derivadas de los Programas MECESUP y CNAP Para Ciencia y Tecnología. Cited 2 times.,Santiago: Universidad de Santiago de Chile; (2019) Financiamiento Público de la Educación Superior. Cited 3 times.,Santiago: CGR,  13; Daher, A., Moreno, D., Aninat, M.,Efectos Socioterritoriales en Chile del Súper Ciclo de los Commodities y su Término,(2017) Cuadernos Metrópole, 19 (38), pp. 127-155. Cited 6 times.; Deem, R., Brehony, K.J.,Management as ideology: The case of 'new managerialism' in higher education,; Desormeaux, J., Koljatic, M.,El Financiamiento de la Educación Superior Desde una Perspectiva Libertaria,(1990) Financiamiento de la Educación Superior: Antecedentes y Desafíos, pp. 79-129. Cited 5 times.; Donina, D., Paleari, S.,New public management: global reform script or conceptual stretching? Analysis of university governance structures in the Napoleonic administrative tradition,; Ewell, P.,The ‘Quality Game’: External Review and Institutional Reaction over Three Decades in the United States,; Ferlie, E., Musselin, C., Andresani, G.,The steering of higher education systems: A public management perspective,; Fernández, E.,La Implementación de Políticas de Educación Superior en Chile Frente a los Sectores Universitarios Público y Privado 1990-2010,(2010) El Conflicto de las Universidades: Entre lo Público y lo Privado, pp. 229-248. Cited 2 times.; Fernández, E., Stock, M.,Los Límites de la Gestión. Consideraciones Sociológicas Sobre la Gestión Universitaria en Chile y Alemania,(2007) Revista Universum, 22 (2), pp. 108-124. Cited 3 times.; García de Fanelli, A.,(1998) Gestión de las Universidades Públicas: La Experiencia Internacional,Bue Aires: Ministerio de Cultura y Educación de la República Argentina; de Fanelli, A.M.G.,Quality accreditation and funding: Promoting university change through non-competitive improvement funds,; Herbst, M.,(2007) Financing Public Universities: The Case of Performance Funding. Cited 81 times.,Dordrecht: Springer; Hibou, B.,(2015) The Bureaucratization of the World in the Neoliberal era. An International and Comparative Perspective. Cited 58 times.,London: Palgrave Macmillan; HOOD, C.,A PUBLIC MANAGEMENT FOR ALL SEASONS?,; Leihy, P., Salazar, J.M.,(2021) ,What’s Spanish for Development? Chilean Higher Education at an Impasse. Centre for Global Higher Education Working Papers, University of Oxford; Leihy, P., Salazar, J.M.,Academic careerism,; Magala, S., Zawadzki, M.,Performing academics: Return to meritocracy?,; Magalhaes, A., Santiago, R.,Public Management, New Governance Models and Changing Environments in Portuguese Higher Education,(2011) Public Vices, Private Virtues? Assessing the Effects of Marketization in Higher Education, pp. 177-192. Cited 4 times.; Meek, V.L.,(2003) Market Coordination, Research Management and the Future of Higher Education in the Post-industrial era. Cited 7 times.,Paris: UNESCO Forum Regional Committee for Asia and the Pacific, September; Méndez, J.C.,Análisis del Sistema de Financiamiento de la Educación Superior,(1996) Estudios Públicos, 61, pp. 309-346.; Merton, R.K.,The matthew effect in science,; (1997) Marco de Política de Educación Superior. Cited 5 times.,Santiago: Ministerio de Educación,  35; Neave, G.,The Evaluative State Reconsidered,(1998) European. Journal of Education, 33 (3), pp. 265-284. Cited 279 times.; Neave, G.,(2012) The Evaluative State, Institutional Autonomy and Higher Education in Western Europe. The Prince and his Pleasure. Cited 120 times.,London: Palgrave Macmillan; (2010) Performance-based Funding for Public Research in Tertiary Education Institutions. Workshop Proceedings,Paris: OECD Publishing,  39; Reich, R.,MECESUP Program in Chile. 15 Years Supporting Higher Education Quality Improvement,(2012) Harvard Review of Latin America, Fall, pp. 32-34. Cited 4 times.; Reich, R., Machuca, F., Stefoni, D.L., Prieto, J.P., Music, J., Rodríguez-Ponce, E., Yutronic, J.,Basis and challenges of the application of performance agreements in Chilean higher education (Open Access),; Rifo, M., Salazar, J.M., Leihy, P.,forthcoming, and,. Ganadores y perdedores del programa MECESUP en Chile,  43; Salas, V.,(2016) ,Análisis de la política pública en la educación superior chilena desde los presupuestos del estado, 2011 a 2016., Observatorio de Políticas Públicas en Educación Superior, Minuta 6,. Santiago: Universidad de Santiago de Chile; Salazar, J.M., Leihy, P.S.,The invisible handbook: Three decades of higher education policy in Chile (1980-2010),; Salazar, J.M., Rifo, M.,The pendulum of history swings again: Five decades of massification and reform in Chilean higher education (1967-2019),; Santos, J.,Saberes Académicos: De la Producción Textual a la Creación de Conocimiento,(2015) Literatura: Teoría, Historia, Crítica, 17 (2), pp. 97-112. Cited 7 times.; Silva, L., Carvajal, C., Salgado, L., Fonseca, R., Rojas, S.,(2012) Evolución de la Inversión y de la Gestión Pública en Educación Superior 1990-2011. Cited 4 times.,Santiago: Ministerio de Educación; Smelser, N.J.,Dynamics of the contemporary university: Growth, accretion, and conflict,; Strauss, A., Corbin, J.,(2015) Basics of Qualitative Research: Grounded Theory Procedures and Techniques. Cited 62065 times.,4th ed, London: Sage Publications; Tight, M.,The neoliberal turn in Higher Education,</t>
+          <t>Aagaard, K., de Boer, H.,The Danish UNIK Initiative: An NPM-Inspired Mechanism to Steer Higher Education,; Amis, K.,(1960) ,Lone Voices: Views of the Fifties. Encounter, July 15; Arellano, J.P.,(2000) Reforma Educacional. Prioridad que se Consolida. Cited 9 times.,Santiago: Editorial Los Andes; Bernasconi, A.,University Autonomy and Academic Freedom: Contrasting Latin American and US Perspectives,(2021) Higher Education Governance and Policy, 2 (1), pp. 5-25. Cited 3 times.; Bernasconi, A., Rojas, F.,(2004) Informe Sobre la Educación Superior en Chile: 1980-2003. Cited 66 times.,Santiago: Editorial Universitaria; Bleikie, I.,Justifying the Evaluative State: New Public Management Ideals in Higher Education,(1998) European Journal of Education, 33, pp. 299-316. Cited 86 times.; Bleiklie, I., Enders, J., Lepori, B.,Setting the stage—theory and research questions,; Broucker, B., De Wit, K.,New public management in higher education,; Brunner, J.J.,La Educación Superior en Chile: 1960-1990. Evolución y Políticas,(1992) Estado, Mercado y Conocimiento: Políticas y Resultados en la Educación Superior Chilena 1960-1990, pp. 3-123. Cited 3 times.; Brunner, J.J.,El Lugar del Mercado en el Presente y el Futuro de la Educación Superior Chilena,(2010) Estudios Sociales, 188, pp. 11-63. Cited 3 times.; Canales, A., de los Ríos, D., Letelier, M.,(2008) Comprendiendo la Implementación de Innovaciones Educativas Derivadas de los Programas MECESUP y CNAP Para Ciencia y Tecnología. Cited 2 times.,Santiago: Universidad de Santiago de Chile; (2019) Financiamiento Público de la Educación Superior. Cited 3 times.,Santiago: CGR,  13; Daher, A., Moreno, D., Aninat, M.,Efectos Socioterritoriales en Chile del Súper Ciclo de los Commodities y su Término,(2017) Cuadernos Metrópole, 19 (38), pp. 127-155. Cited 6 times.; Deem, R., Brehony, K.J.,Management as ideology: The case of 'new managerialism' in higher education,; Desormeaux, J., Koljatic, M.,El Financiamiento de la Educación Superior Desde una Perspectiva Libertaria,(1990) Financiamiento de la Educación Superior: Antecedentes y Desafíos, pp. 79-129. Cited 5 times.; Donina, D., Paleari, S.,New public management: global reform script or conceptual stretching? Analysis of university governance structures in the Napoleonic administrative tradition,; Ewell, P.,The ‘Quality Game’: External Review and Institutional Reaction over Three Decades in the United States,; Ferlie, E., Musselin, C., Andresani, G.,The steering of higher education systems: A public management perspective,; Fernández, E.,La Implementación de Políticas de Educación Superior en Chile Frente a los Sectores Universitarios Público y Privado 1990-2010,(2010) El Conflicto de las Universidades: Entre lo Público y lo Privado, pp. 229-248. Cited 2 times.; Fernández, E., Stock, M.,Los Límites de la Gestión. Consideraciones Sociológicas Sobre la Gestión Universitaria en Chile y Alemania,(2007) Revista Universum, 22 (2), pp. 108-124. Cited 3 times.; García de Fanelli, A.,(1998) Gestión de las Universidades Públicas: La Experiencia Internacional,Bue Aires: Ministerio de Cultura y Educación de la República Argentina; de Fanelli, A.M.G.,Quality accreditation and funding: Promoting university change through non-competitive improvement funds,; Herbst, M.,(2007) Financing Public Universities: The Case of Performance Funding. Cited 81 times.,Dordrecht: Springer; Hibou, B.,(2015) The Bureaucratization of the World in the Neoliberal era. An International and Comparative Perspective. Cited 58 times.,London: Palgrave Macmillan; HOOD, C.,A PUBLIC MANAGEMENT FOR ALL SEASONS?,; Leihy, P., Salazar, J.M.,(2021) ,What’s Spanish for Development? Chilean Higher Education at an Impasse. Centre for Global Higher Education Working Papers, University of Oxford; Leihy, P., Salazar, J.M.,Academic careerism,; Magala, S., Zawadzki, M.,Performing academics: Return to meritocracy?,; Magalhaes, A., Santiago, R.,Public Management, New Governance Models and Changing Environments in Portuguese Higher Education,(2011) Public Vices, Private Virtues? Assessing the Effects of Marketization in Higher Education, pp. 177-192. Cited 4 times.; Meek, V.L.,(2003) Market Coordination, Research Management and the Future of Higher Education in the Post-industrial era. Cited 7 times.,Paris: UNESCO Forum Regional Committee for Asia and the Pacific, September; Méndez, J.C.,Análisis del Sistema de Financiamiento de la Educación Superior,(1996) Estudios Públicos, 61, pp. 309-346.; Merton, R.K.,The matthew effect in science,; (1997) Marco de Política de Educación Superior. Cited 5 times.,Santiago: Ministerio de Educación,  35; Neave, G.,The Evaluative State Reconsidered,(1998) European. Journal of Education, 33 (3), pp. 265-284. Cited 279 times.; Neave, G.,(2012) The Evaluative State, Institutional Autonomy and Higher Education in Western Europe. The Prince and his Pleasure. Cited 120 times.,London: Palgrave Macmillan; (2010) Performance-based Funding for Public Research in Tertiary Education Institutions. Workshop Proceedings,Paris: OECD Publishing,  39; Reich, R.,MECESUP Program in Chile. 15 Years Supporting Higher Education Quality Improvement,(2012) Harvard Review of Latin America, Fall, pp. 32-34. Cited 4 times.; Reich, R., Machuca, F., Stefoni, D.L., Prieto, J.P., Music, J., Rodríguez-Ponce, E., Yutronic, J.,Basis and challenges of the application of performance agreements in Chilean higher education,; Rifo, M., Salazar, J.M., Leihy, P.,forthcoming, and,. Ganadores y perdedores del programa MECESUP en Chile,  43; Salas, V.,(2016) ,Análisis de la política pública en la educación superior chilena desde los presupuestos del estado, 2011 a 2016., Observatorio de Políticas Públicas en Educación Superior, Minuta 6,. Santiago: Universidad de Santiago de Chile; Salazar, J.M., Leihy, P.S.,The invisible handbook: Three decades of higher education policy in Chile (1980-2010),; Salazar, J.M., Rifo, M.,The pendulum of history swings again: Five decades of massification and reform in Chilean higher education (1967-2019),; Santos, J.,Saberes Académicos: De la Producción Textual a la Creación de Conocimiento,(2015) Literatura: Teoría, Historia, Crítica, 17 (2), pp. 97-112. Cited 7 times.; Silva, L., Carvajal, C., Salgado, L., Fonseca, R., Rojas, S.,(2012) Evolución de la Inversión y de la Gestión Pública en Educación Superior 1990-2011. Cited 4 times.,Santiago: Ministerio de Educación; Smelser, N.J.,Dynamics of the contemporary university: Growth, accretion, and conflict,; Strauss, A., Corbin, J.,(2015) Basics of Qualitative Research: Grounded Theory Procedures and Techniques. Cited 62220 times.,4th ed, London: Sage Publications; Tight, M.,The neoliberal turn in Higher Education,</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3462,11 +3277,6 @@
       <c r="O38" t="inlineStr">
         <is>
           <t>10.1080/23322969.2022.2072380</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>Chile</t>
         </is>
       </c>
     </row>
@@ -3511,7 +3321,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Ainscow, M., Sandill, A.,Developing inclusive education systems: The role of organisational cultures and leadership,; Allbright, T.N., Marsh, J.A.,Policy Narratives of Accountability and Social-Emotional Learning,; Mikelatou, A., Arvanitis, E.,Pluralistic and equitable education in the neoliberal era: paradoxes and contradictions,; Bellei, C.,(2015) El gran experimento: Mercado y privatización de la educación chilena. Cited 119 times.,LOM ediciones; Bellei, C.,Simce después del confinamiento: ¿servirá para algo? CiperChile,(2020) Recuperado de; Billig, M.,The dialogic unconscious: Psychoanalysis, discursive psychology and the nature of repression,; Booth, T.Y., Ainscow, M.,(2015) Guía para la educación inclusiva. Desarrollando el aprendizaje y la participación en los centros escolares (adaptación de la 3a. edición revisada del Index for Inclusion). Cited 143 times.,OEI; Bush, T.,Mejora escolar y modelos de liderazgo: Hacia la comprensión de un liderazgo efectivo,(2016) Liderazgo educativo en la escuela, nueve miradas. Cited 6 times.; Calderón-Almendros, I., Ainscow, M., Bersanelli, S., Molina-Toledo, P.,Educational inclusion and equity in Latin America: An analysis of the challenges,; Campos, F., Valdés, R., Ascorra, P.,¿Líder pedagógico o gerente de escuela? Evolución del rol del director de escuela en Chile,(2019) Calidad en la educación, 51 (51), pp. 53-84. Cited 10 times.; Daniëls, E., Hondeghem, A., Dochy, F.,A review on leadership and leadership development in educational settings (Open Access),; de Educación, M.,(2015) Orientaciones técnicas Plan de retención escolar Nivel de Educación media,Salesia Impresores S.A; Dougherty, S.M., Weiner, J.M.,The Rhode to Turnaround: The Impact of Waivers to No Child Left Behind on School Performance,; Edwards, D., Potter, J.,(1992) Discursive psychology. Cited 2285 times.,Sage; Essomba, M.A.,(2006) Liderar escuelas interculturales e inclusivas: Equipos directivos y profesorado ante la diversidad cultural y la inmigración. Cited 62 times.,Graó; Falabella, A.,The performing school: The effects of market &amp; accountability policies (Open Access),; Falabella, A.,The Seduction of Hyper-Surveillance: Standards, Testing, and Accountability,; Fardella, C.,Verdades sobre la docencia, efectos y consecuencias subjetivas de la evaluación docente en Chile,(2012) Revista de Psicología, 21 (1), pp. 209-227. Cited 12 times.; Fardella, C.,Everyday resistance practices on the institutionalization of the neoliberal model in educational policy: The case of Chilean teachers,; Flessa, J.,La investigación reciente sobre liderazgo escolar en América Latina. El valor de un enfoque propio,(2019) Liderazgo en escuelas de alta complejidad sociocultural: Diez miradas, pp. 317-342. Cited 3 times.; Flick, U.,(2015) El diseño de Investigación Cualitativa. Cited 222 times.,Ediciones Morata; Gewirtz, S., Ball, S.,From 'Welfarism' to 'New Managerialism': Shifting discourses of school headship in the education marketplace,; Gómez-Hurtado, I.,Dirección y gestión de la diversidad en la escuela: Hacia un liderazgo inclusivo,(2013) Revista Fuentes, 14, pp. 61-84. Cited 14 times.; Gómez-Hurtado, I.,El Equipo directivo como promotor de buenas prácticas para la justicia social: Hacia un liderazgo inclusivo,(2014) Revista Internacional de Educación para la Justicia Social, 3 (2), pp. 141-159. Cited 6 times.; Gómez-Hurtado, I., González-Falcón, I., Coronel, J.M.,Perceptions of secondary school principals on management of cultural diversity in Spain. The challenge of educational leadership,; Chapman, C.,Leadership in schools facing challenging circumstances,; Hochman, E., Montero, M.,(2005) Investigación Documental: Técnicas y Procedimientos. Cited 8 times.,Panapo; IBAÑEZ, T., ÍNIGUEZ, L.,(1997) Critical social psychology. Cited 90 times.,Londres: Sage, y, and, (Eds; Íñiguez, L.Y., Antaki, C.,El análisis del discurso en Psicología Social,(1994) Boletín de Psicología, 44, pp. 57-75. Cited 56 times.; Jerrim, J., Sims, S.,School accountability and teacher stress: international evidence from the OECD TALIS study (Open Access),; Koretz, D.,(2018) The testing charade: Pretending to make schools better. Cited 117 times.,American Educator; Kugelmass, J.W.,(2003) Inclusive Leadership; Leadership for Inclusion. Cited 27 times.,National College for School; León, M.J.,El liderazgo para y en la escuela inclusiva,(2012) Educatio Siglo XXI, 30 (1), pp. 133-160. Cited 24 times.; Lerena, B., Trejos, J.,Sobre la posibilidad de una educación inclusiva bajo el actual modelo de desarrollo económico y social chileno,(2015) Revista Latinoamericana de Educación Inclusiva, 9 (2), pp. 145-160. Cited 8 times.; Diario oficial de la república de,(2015) 29 de mayo de,  36; López, V., Julio, C., Morales, M., Rojas, C., Pérez, M.V.,Cultural barriers for inclusion: Integration policies and practices in Chile,; Manghi, D., Conejeros Solar, M.L., Bustos Ibarra, A., Aranda Godoy, I., Vega Córdova, V., Diaz Soto, K., Gómez, A.P.,Understanding inclusive education in Chile: An overview of policy and educational research (Open Access),; (2011) Orientaciones para dar respuestas educativas a la diversidad y a las necesidades educativas especiales. Cited 2 times.,Editorial Atenas Ltda,  40; (2015) Diversificación de la enseñanza. Decreto n°83/2015 Aprueba criterios y orientaciones de adecuación curricular para estudiantes con necesidades educativas especiales de educación parvularia y educación básica. Cited 23 times.,Unidad de educación especial,  42; (2016) Orientaciones para la construcción de comunidades educativas Inclusivas. Cited 7 times.,Mineduc,  44; (2017) Ordinario N° 608. Lineamientos internos para favorecer la inclusión de estudiantes extranjeros en el sistema educativo,Mineduc,  46; (2017) Orientaciones técnicas para la inclusión educativa de estudiantes extranjeros. Cited 20 times.,Mineduc,  48; (2019) ¿Cómo avanzar en la inclusión desde la diversidad cultural? (cartilla de convivencia escolar),Mineduc,  50; (2019) Mesa técnica por las Necesidades Educativas Especiales,Mineduc,  52; Actualización estándares indicativos de desempeño para los establecimientos educacionales y sus sostenedores,(2020) Unidad de Curriculum y evaluación,Ministerio de Educación; (2020) Herramientas para una educación más inclusiva,Mineduc,  55; Montecinos, C., Pino, M., Campos-Martinez, J., Domínguez, R., Carreño, C.,Master teachers as professional developers: Managing conflicting versions of professionalism,; Mor Barak, M.E., Luria, G., Brimhall, K.C.,INCLUSIVE LEADERSHIP, POLICY-PRACICE DECOUPLING, AND THE ANOMALY OF CLIMATE FOR INCLUSION,; Morrissey, B.,Theorising leadership for inclusion in the Irish context: A triadic typology within a distributed ecosystem,; Muijs, D., Ainscow, M., Dyson, A., Raffo, C., Goldrick, S., Kerr, K., Lennie, C., (...), Miles, S.,(2007) Every Child Matters. Leading under pressure: Leadership for social inclusion. Cited 6 times.,Nottingham: National College for School Leadership (NCSL; Murillo, F.J., Krichesky, G., Castro, A., Hernández-Castilla, R.,Liderazgo para la inclusión escolar y la Justicia Social. Aportaciones de la investigación,(2010) Revista Latinoamericana de Educación Inclusiva, 4 (1), pp. 169-186. Cited 24 times.; Piñera, S.,(2010) Presidential message speech May 21 of the President of the Republic,may,. Chile, Valparaiso; Pollitt, C.,Justification by Works or by Faith?: Evaluating the New Public Management,; Potter, J.,(1996) Representing reality: Discourse, rhetoric and social construction. Cited 2017 times.,Sage; Potter, J., Wetherell, M.,(1987) Discourse and social psychology. Cited 5002 times.,Sage; Prior, L.,Repositioning documents in social research,; Quiroga, M., Aravena, F.,La respuesta de directores escolares ante las políticas de inclusión escolar en Chile,(2018) Calidad en la educación, 49 (49), pp. 82-111. Cited 7 times.; del Valle, L.R.-C., Baleriola, E., Sisto, V., López, V., Aguilera, F.,,(2020) Curriculo sem Fronteiras, 20 (3), pp. 950-970. Cited 6 times.; del Valle, L.R.-C., Valdés-Morales, R.,The case as a device of school practices (Open Access),; Ryan, J.,Un liderazgo inclusivo para las escuelas,(2016) Liderazgo educativo en la escuela: Nueve miradas, pp. 179-204. Cited 12 times.; Sagrego, E.J., Careaga, M.P., Bizama, M.P.,Análisis crítico acerca de políticas públicas relacionadas con inclusión e integración escolar en Chile,(2020) Espacios, 41 (9).; Shannon, E.W., Saatcioglu, A.,School Characteristics and Teacher Policy Influence: Evidence From New York City,; Sisto, V.,Inclusión “a la Chilena”. La Inclusión Escolar en un contexto de políticas neoliberales avanzadas,(2018) Education Policy Analysis Archives, 27 (23), pp. 1-20. Cited 12 times.; Sisto, V.,Managerialism versus local practices. The decolonization of the managerial discourse from within schools’life,; Sisto, V.,The school abandoned to assessments and standards, confined to managerialism (Open Access),; Aguilera, N.S.,A neoliberal revolution: The educational policy in Chile since the military dictatorship (Open Access),; (2020) Towards Inclusion in education: Status, trends and challenger. Cited 25 times.,The UNESCO Salamanca Statement 25 years on,  77; Valdés, R.,Prácticas de Liderazgo en Escuelas con Alta y Baja Cultura Escolar Inclusiva,(2020) Revista latinoamericana de educación inclusiva, 14 (2), pp. 213-227. Cited 5 times.; Verger, A., Curran, M.,New public management as a global education policy: its adoption and re-contextualization in a Southern European setting (Open Access),; Verger, A., Fontdevila, C., Parcerisa, L.,Reforming governance through policy instruments: how and to what extent standards, tests and accountability in education spread worldwide (Open Access),</t>
+          <t>Ainscow, M., Sandill, A.,Developing inclusive education systems: The role of organisational cultures and leadership,; Allbright, T.N., Marsh, J.A.,Policy Narratives of Accountability and Social-Emotional Learning,; Mikelatou, A., Arvanitis, E.,Pluralistic and equitable education in the neoliberal era: paradoxes and contradictions,; Bellei, C.,(2015) El gran experimento: Mercado y privatización de la educación chilena. Cited 119 times.,LOM ediciones; Bellei, C.,Simce después del confinamiento: ¿servirá para algo? CiperChile,(2020) Recuperado de; Billig, M.,The dialogic unconscious: Psychoanalysis, discursive psychology and the nature of repression,; Booth, T.Y., Ainscow, M.,(2015) Guía para la educación inclusiva. Desarrollando el aprendizaje y la participación en los centros escolares (adaptación de la 3a. edición revisada del Index for Inclusion). Cited 143 times.,OEI; Bush, T.,Mejora escolar y modelos de liderazgo: Hacia la comprensión de un liderazgo efectivo,(2016) Liderazgo educativo en la escuela, nueve miradas. Cited 6 times.; Calderón-Almendros, I., Ainscow, M., Bersanelli, S., Molina-Toledo, P.,Educational inclusion and equity in Latin America: An analysis of the challenges,; Campos, F., Valdés, R., Ascorra, P.,¿Líder pedagógico o gerente de escuela? Evolución del rol del director de escuela en Chile,(2019) Calidad en la educación, 51 (51), pp. 53-84. Cited 10 times.; Daniëls, E., Hondeghem, A., Dochy, F.,A review on leadership and leadership development in educational settings,; de Educación, M.,(2015) Orientaciones técnicas Plan de retención escolar Nivel de Educación media,Salesia Impresores S.A; Dougherty, S.M., Weiner, J.M.,The Rhode to Turnaround: The Impact of Waivers to No Child Left Behind on School Performance,; Edwards, D., Potter, J.,(1992) Discursive psychology. Cited 2285 times.,Sage; Essomba, M.A.,(2006) Liderar escuelas interculturales e inclusivas: Equipos directivos y profesorado ante la diversidad cultural y la inmigración. Cited 62 times.,Graó; Falabella, A.,The performing school: The effects of market &amp; accountability policies,; Falabella, A.,The Seduction of Hyper-Surveillance: Standards, Testing, and Accountability,; Fardella, C.,Verdades sobre la docencia, efectos y consecuencias subjetivas de la evaluación docente en Chile,(2012) Revista de Psicología, 21 (1), pp. 209-227. Cited 12 times.; Fardella, C.,Everyday resistance practices on the institutionalization of the neoliberal model in educational policy: The case of Chilean teachers,; Flessa, J.,La investigación reciente sobre liderazgo escolar en América Latina. El valor de un enfoque propio,(2019) Liderazgo en escuelas de alta complejidad sociocultural: Diez miradas, pp. 317-342. Cited 3 times.; Flick, U.,(2015) El diseño de Investigación Cualitativa. Cited 223 times.,Ediciones Morata; Gewirtz, S., Ball, S.,From 'Welfarism' to 'New Managerialism': Shifting discourses of school headship in the education marketplace,; Gómez-Hurtado, I.,Dirección y gestión de la diversidad en la escuela: Hacia un liderazgo inclusivo,(2013) Revista Fuentes, 14, pp. 61-84. Cited 14 times.; Gómez-Hurtado, I.,El Equipo directivo como promotor de buenas prácticas para la justicia social: Hacia un liderazgo inclusivo,(2014) Revista Internacional de Educación para la Justicia Social, 3 (2), pp. 141-159. Cited 6 times.; Gómez-Hurtado, I., González-Falcón, I., Coronel, J.M.,Perceptions of secondary school principals on management of cultural diversity in Spain. The challenge of educational leadership,; Chapman, C.,Leadership in schools facing challenging circumstances,; Hochman, E., Montero, M.,(2005) Investigación Documental: Técnicas y Procedimientos. Cited 8 times.,Panapo; IBAÑEZ, T., ÍNIGUEZ, L.,(1997) Critical social psychology. Cited 90 times.,Londres: Sage, y, and, (Eds; Íñiguez, L.Y., Antaki, C.,El análisis del discurso en Psicología Social,(1994) Boletín de Psicología, 44, pp. 57-75. Cited 56 times.; Jerrim, J., Sims, S.,School accountability and teacher stress: international evidence from the OECD TALIS study,; Koretz, D.,(2018) The testing charade: Pretending to make schools better. Cited 118 times.,American Educator; Kugelmass, J.W.,(2003) Inclusive Leadership; Leadership for Inclusion. Cited 27 times.,National College for School; León, M.J.,El liderazgo para y en la escuela inclusiva,(2012) Educatio Siglo XXI, 30 (1), pp. 133-160. Cited 24 times.; Lerena, B., Trejos, J.,Sobre la posibilidad de una educación inclusiva bajo el actual modelo de desarrollo económico y social chileno,(2015) Revista Latinoamericana de Educación Inclusiva, 9 (2), pp. 145-160. Cited 8 times.; Diario oficial de la república de,(2015) 29 de mayo de,  36; López, V., Julio, C., Morales, M., Rojas, C., Pérez, M.V.,Cultural barriers for inclusion: Integration policies and practices in Chile,; Manghi, D., Conejeros Solar, M.L., Bustos Ibarra, A., Aranda Godoy, I., Vega Córdova, V., Diaz Soto, K., Gómez, A.P.,Understanding inclusive education in Chile: An overview of policy and educational research,; (2011) Orientaciones para dar respuestas educativas a la diversidad y a las necesidades educativas especiales. Cited 2 times.,Editorial Atenas Ltda,  40; (2015) Diversificación de la enseñanza. Decreto n°83/2015 Aprueba criterios y orientaciones de adecuación curricular para estudiantes con necesidades educativas especiales de educación parvularia y educación básica. Cited 23 times.,Unidad de educación especial,  42; (2016) Orientaciones para la construcción de comunidades educativas Inclusivas. Cited 7 times.,Mineduc,  44; (2017) Ordinario N° 608. Lineamientos internos para favorecer la inclusión de estudiantes extranjeros en el sistema educativo,Mineduc,  46; (2017) Orientaciones técnicas para la inclusión educativa de estudiantes extranjeros. Cited 20 times.,Mineduc,  48; (2019) ¿Cómo avanzar en la inclusión desde la diversidad cultural? (cartilla de convivencia escolar),Mineduc,  50; (2019) Mesa técnica por las Necesidades Educativas Especiales,Mineduc,  52; Actualización estándares indicativos de desempeño para los establecimientos educacionales y sus sostenedores,(2020) Unidad de Curriculum y evaluación,Ministerio de Educación; (2020) Herramientas para una educación más inclusiva,Mineduc,  55; Montecinos, C., Pino, M., Campos-Martinez, J., Domínguez, R., Carreño, C.,Master teachers as professional developers: Managing conflicting versions of professionalism (Open Access),; Mor Barak, M.E., Luria, G., Brimhall, K.C.,INCLUSIVE LEADERSHIP, POLICY-PRACICE DECOUPLING, AND THE ANOMALY OF CLIMATE FOR INCLUSION,; Morrissey, B.,Theorising leadership for inclusion in the Irish context: A triadic typology within a distributed ecosystem,; Muijs, D., Ainscow, M., Dyson, A., Raffo, C., Goldrick, S., Kerr, K., Lennie, C., (...), Miles, S.,(2007) Every Child Matters. Leading under pressure: Leadership for social inclusion. Cited 6 times.,Nottingham: National College for School Leadership (NCSL; Murillo, F.J., Krichesky, G., Castro, A., Hernández-Castilla, R.,Liderazgo para la inclusión escolar y la Justicia Social. Aportaciones de la investigación,(2010) Revista Latinoamericana de Educación Inclusiva, 4 (1), pp. 169-186. Cited 24 times.; Piñera, S.,(2010) Presidential message speech May 21 of the President of the Republic,may,. Chile, Valparaiso; Pollitt, C.,Justification by Works or by Faith?: Evaluating the New Public Management,; Potter, J.,(1996) Representing reality: Discourse, rhetoric and social construction. Cited 2019 times.,Sage; Potter, J., Wetherell, M.,(1987) Discourse and social psychology. Cited 5006 times.,Sage; Prior, L.,Repositioning documents in social research,; Quiroga, M., Aravena, F.,La respuesta de directores escolares ante las políticas de inclusión escolar en Chile,(2018) Calidad en la educación, 49 (49), pp. 82-111. Cited 7 times.; del Valle, L.R.-C., Baleriola, E., Sisto, V., López, V., Aguilera, F.,,(2020) Curriculo sem Fronteiras, 20 (3), pp. 950-970. Cited 6 times.; del Valle, L.R.-C., Valdés-Morales, R.,The case as a device of school practices,; Ryan, J.,Un liderazgo inclusivo para las escuelas,(2016) Liderazgo educativo en la escuela: Nueve miradas, pp. 179-204. Cited 12 times.; Sagrego, E.J., Careaga, M.P., Bizama, M.P.,Análisis crítico acerca de políticas públicas relacionadas con inclusión e integración escolar en Chile,(2020) Espacios, 41 (9).; Shannon, E.W., Saatcioglu, A.,School Characteristics and Teacher Policy Influence: Evidence From New York City (Open Access),; Sisto, V.,Inclusión “a la Chilena”. La Inclusión Escolar en un contexto de políticas neoliberales avanzadas,(2018) Education Policy Analysis Archives, 27 (23), pp. 1-20. Cited 12 times.; Sisto, V.,Managerialism versus local practices. The decolonization of the managerial discourse from within schools’life,; Sisto, V.,The school abandoned to assessments and standards, confined to managerialism,; Aguilera, N.S.,A neoliberal revolution: The educational policy in Chile since the military dictatorship (Open Access),; (2020) Towards Inclusion in education: Status, trends and challenger. Cited 25 times.,The UNESCO Salamanca Statement 25 years on,  77; Valdés, R.,Prácticas de Liderazgo en Escuelas con Alta y Baja Cultura Escolar Inclusiva,(2020) Revista latinoamericana de educación inclusiva, 14 (2), pp. 213-227. Cited 5 times.; Verger, A., Curran, M.,New public management as a global education policy: its adoption and re-contextualization in a Southern European setting (Open Access),; Verger, A., Fontdevila, C., Parcerisa, L.,Reforming governance through policy instruments: how and to what extent standards, tests and accountability in education spread worldwide (Open Access),</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3542,11 +3352,6 @@
       <c r="O39" t="inlineStr">
         <is>
           <t>10.1080/2331186X.2022.2112595</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>Chile</t>
         </is>
       </c>
     </row>
@@ -3581,7 +3386,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>No Encontrado</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -3591,7 +3396,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t xml:space="preserve">BERMÚDEZ SOTO, Jorge,(2014) Derecho administrativo general. Cited 80 times.,Thomson Reuters; CORDERO VEGA, Luis,(2015) Lecciones de derecho administrativo. Cited 89 times.,Thomson Reuters; DROMI, ROBERTO,(1999) El procedimiento administrativo. Cited 3 times.,Ciudad Argentina; GONZÁLEZ NAVARRO, Francisco,(1997) Derecho administrativo español. El acto y el procedimiento administrativo. Cited 5 times.,T III. Eunsa; GONZÁLEZ PÉREZ, Jesús,La Ley chilena de procedimiento administrativo,(2003) Revista de Administración Pública, (162), pp. 359-389. Cited 3 times.; SOTO KLOSS, Eduardo,(2012) Derecho Administrativo. Temas Fundamentales. Cited 62 times.,Abeledo Perrot; VERGARA BLANCO, Alejandro,La batalla contra las demoras excesivas en los procedimientos administrativos,(2017) El derecho administrativo y la protección de las personas. Libro homenaje a 30 años de docencia del profesor Ramiro Mendoza en la UC, pp. 167-187. Cited 2 times.; VERGARA BLANCO, Alejandro,El mito de la inexistencia de plazos fatales para la administración y el 'decaimiento' en los procedimientos administrativos,(2017) Estudios Públicos, (148), pp. 79-118. Cited 5 times.; Vergara Blanco, A.,Administrative law before the jurisprudence of the Supreme Court: Lines and vacillations. Twenty themes, ten years (2008-2018),; Blanco, A.V.,Administrative law before the jurisprudence of the Supreme Court, II: Lines and vacillations during 2019 (Open Access),; VERGARA BLANCO, Alejandro,El derecho administrativo ante la jurisprudencia de la Corte Suprema, III: Líneas y Vacilaciones durante 2020),(2021) Revista de Derecho Administrativo Económico, (33), pp. 299-344.; VERGARA BLANCO, Alejandro,Demoras excesivas en los procedimientos administrativos: Reinicio del zigzag, ¿fin del decaimiento? (Parte VIII),(9 de noviembre de 2021b). El Mercurio Legal; (2020) Corte Suprema. Cited 6 times.,SCHMIDT CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA 5 junio 2020 (Rol Nº24.827-2020). Tercera Sala. [Apelación Recurso de Protección],  14; (2021) Corte Suprema, 10 de noviembre de 2021 (Rol Nº85.960-2021),BOU ARAM CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  16; (2021) Corte Suprema, 10 de noviembre de 2021 (Rol Nº82.434-2021),BRITO CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  18; (2021) Corte Suprema, 10 de noviembre de 2021 (Rol Nº86.882-2021),CONDE CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  20; (2021) Corte Suprema, 10 de noviembre de 2021 (Rol Nº85.691-2021),DÍAZ CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  22; (2021) Corte Suprema, 10 de noviembre de 2021 (Rol Nº85.938-2021),FAGUNDEZ CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  24; (2021) Corte Suprema, 10 de noviembre de 2021 (Rol Nº84.623-2021),GUEVARA CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  26; (2021) Corte Suprema, 10 de noviembre de 2021 (Rol Nº81.337-2021),MACÍAS CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  28; (2021) Corte Suprema, 10 de noviembre de 2021 (Rol Nº81.212-2021),NIEBLES CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  30; (2021) Corte Suprema, 10 de noviembre de 2021 (Rol Nº81.295-2021),TOVAR CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  32; (2021) Corte Suprema, 10 de noviembre de 2021 (Rol Nº86.867-2021),VEGA CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  34; (2021) Corte Suprema, 10 de noviembre de 2021 (Rol Nº81.211-2021),VILLA CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  36; (2021) Corte Suprema, 1 de diciembre de 2021 (Rol Nº91.061-2021),BAPTISTA CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  38; (2021) Corte Suprema, 1 de diciembre de 2021 (Rol Nº91.568-2021),CÁRDENAS CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  40; (2021) Corte Suprema, 1 de diciembre de 2021 (Rol Nº92.011-2021),CHIRINOS CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  42; (2021) Corte Suprema, 1 de diciembre de 2021 (Rol Nº91.070-2021),FUENMAYOR CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  44; (2021) Corte Suprema, 1 de diciembre de 2021 (Rol Nº88.706-2021),GARCÍA CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala [Apelación recurso de protección],  46; (2021) Corte Suprema, 1 de diciembre de 2021 (Rol Nº87.385-2021),HERNÁNDEZ CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  48; (2021) Corte Suprema, 1 de diciembre de 2021,LOBO CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA (Rol Nº87.098-2021), Tercera Sala [Apelación recurso de protección],  50; (2021) Corte Suprema, 1 de diciembre de 2021 (Rol Nº87.382-2021),MARTÍNEZ CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  52; (2021) Corte Suprema, 1 de diciembre de 2021 (Rol Nº88.847-2021),MEJÍAS CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  54; (2021) Corte Suprema, 1 de diciembre de 2021 (Rol Nº90.899-2021),MELÉNDEZ CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  56; (2021) Corte Suprema, 1 de diciembre de 2021 (Rol Nº91.063-2021),NOGUERA CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  58; (2021) Corte Suprema, 1 de diciembre de 2021 (Rol Nº87.384-2021),RAMÍREZ CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  60; (2021) Corte Suprema, 1 de diciembre de 2021 (Rol Nº91.873-2021),RIERA CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  62; (2021) Corte Suprema, 1 de diciembre de 2021 (Rol Nº91.984-2021),RODRÍGUEZ CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  64; (2021) Corte Suprema, 1 de diciembre de 2021 (Rol Nº88.827-2021),SANDOVAL CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  66; (2021) Corte Suprema, 1 de diciembre de 2021 (Rol Nº91.574-2021),TARAZONA CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  68; (2021) Corte Suprema, 1 de diciembre de 2021 (Rol Nº87.386-2021),TORRES CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  70; (2021) Corte Suprema, 1 de diciembre de 2021 (Rol Nº91.569-2021),VÉLIZ CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  72; (2021) Corte Suprema, 1 de diciembre de 2021 (Rol Nº87.383-2021),YRAUSQUIN CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  74; (2021) Corte Suprema, 22 de diciembre de 2021 (Rol Nº92.241-2021),MEDINA CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  76; (2003) Establece bases de los procedimientos administrativos que rigen los actos de los órganos de la administración del Estado. Cited 17 times.,Ley Nº19.880 de 29 de mayo de 2003. D.O. Nº37.570, </t>
+          <t xml:space="preserve">BERMÚDEZ SOTO, Jorge,(2014) Derecho administrativo general. Cited 80 times.,Thomson Reuters; CORDERO VEGA, Luis,(2015) Lecciones de derecho administrativo. Cited 89 times.,Thomson Reuters; DROMI, ROBERTO,(1999) El procedimiento administrativo. Cited 3 times.,Ciudad Argentina; GONZÁLEZ NAVARRO, Francisco,(1997) Derecho administrativo español. El acto y el procedimiento administrativo. Cited 5 times.,T III. Eunsa; GONZÁLEZ PÉREZ, Jesús,La Ley chilena de procedimiento administrativo,(2003) Revista de Administración Pública, (162), pp. 359-389. Cited 3 times.; SOTO KLOSS, Eduardo,(2012) Derecho Administrativo. Temas Fundamentales. Cited 62 times.,Abeledo Perrot; VERGARA BLANCO, Alejandro,La batalla contra las demoras excesivas en los procedimientos administrativos,(2017) El derecho administrativo y la protección de las personas. Libro homenaje a 30 años de docencia del profesor Ramiro Mendoza en la UC, pp. 167-187. Cited 2 times.; VERGARA BLANCO, Alejandro,El mito de la inexistencia de plazos fatales para la administración y el 'decaimiento' en los procedimientos administrativos,(2017) Estudios Públicos, (148), pp. 79-118. Cited 5 times.; Vergara Blanco, A.,Administrative law before the jurisprudence of the Supreme Court: Lines and vacillations. Twenty themes, ten years (2008-2018),; Blanco, A.V.,Administrative law before the jurisprudence of the Supreme Court, II: Lines and vacillations during 2019,; VERGARA BLANCO, Alejandro,El derecho administrativo ante la jurisprudencia de la Corte Suprema, III: Líneas y Vacilaciones durante 2020),(2021) Revista de Derecho Administrativo Económico, (33), pp. 299-344.; VERGARA BLANCO, Alejandro,Demoras excesivas en los procedimientos administrativos: Reinicio del zigzag, ¿fin del decaimiento? (Parte VIII),(9 de noviembre de 2021b). El Mercurio Legal; (2020) Corte Suprema. Cited 6 times.,SCHMIDT CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA 5 junio 2020 (Rol Nº24.827-2020). Tercera Sala. [Apelación Recurso de Protección],  14; (2021) Corte Suprema, 10 de noviembre de 2021 (Rol Nº85.960-2021),BOU ARAM CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  16; (2021) Corte Suprema, 10 de noviembre de 2021 (Rol Nº82.434-2021),BRITO CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  18; (2021) Corte Suprema, 10 de noviembre de 2021 (Rol Nº86.882-2021),CONDE CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  20; (2021) Corte Suprema, 10 de noviembre de 2021 (Rol Nº85.691-2021),DÍAZ CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  22; (2021) Corte Suprema, 10 de noviembre de 2021 (Rol Nº85.938-2021),FAGUNDEZ CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  24; (2021) Corte Suprema, 10 de noviembre de 2021 (Rol Nº84.623-2021),GUEVARA CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  26; (2021) Corte Suprema, 10 de noviembre de 2021 (Rol Nº81.337-2021),MACÍAS CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  28; (2021) Corte Suprema, 10 de noviembre de 2021 (Rol Nº81.212-2021),NIEBLES CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  30; (2021) Corte Suprema, 10 de noviembre de 2021 (Rol Nº81.295-2021),TOVAR CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  32; (2021) Corte Suprema, 10 de noviembre de 2021 (Rol Nº86.867-2021),VEGA CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  34; (2021) Corte Suprema, 10 de noviembre de 2021 (Rol Nº81.211-2021),VILLA CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  36; (2021) Corte Suprema, 1 de diciembre de 2021 (Rol Nº91.061-2021),BAPTISTA CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  38; (2021) Corte Suprema, 1 de diciembre de 2021 (Rol Nº91.568-2021),CÁRDENAS CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  40; (2021) Corte Suprema, 1 de diciembre de 2021 (Rol Nº92.011-2021),CHIRINOS CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  42; (2021) Corte Suprema, 1 de diciembre de 2021 (Rol Nº91.070-2021),FUENMAYOR CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  44; (2021) Corte Suprema, 1 de diciembre de 2021 (Rol Nº88.706-2021),GARCÍA CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala [Apelación recurso de protección],  46; (2021) Corte Suprema, 1 de diciembre de 2021 (Rol Nº87.385-2021),HERNÁNDEZ CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  48; (2021) Corte Suprema, 1 de diciembre de 2021,LOBO CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA (Rol Nº87.098-2021), Tercera Sala [Apelación recurso de protección],  50; (2021) Corte Suprema, 1 de diciembre de 2021 (Rol Nº87.382-2021),MARTÍNEZ CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  52; (2021) Corte Suprema, 1 de diciembre de 2021 (Rol Nº88.847-2021),MEJÍAS CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  54; (2021) Corte Suprema, 1 de diciembre de 2021 (Rol Nº90.899-2021),MELÉNDEZ CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  56; (2021) Corte Suprema, 1 de diciembre de 2021 (Rol Nº91.063-2021),NOGUERA CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  58; (2021) Corte Suprema, 1 de diciembre de 2021 (Rol Nº87.384-2021),RAMÍREZ CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  60; (2021) Corte Suprema, 1 de diciembre de 2021 (Rol Nº91.873-2021),RIERA CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  62; (2021) Corte Suprema, 1 de diciembre de 2021 (Rol Nº91.984-2021),RODRÍGUEZ CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  64; (2021) Corte Suprema, 1 de diciembre de 2021 (Rol Nº88.827-2021),SANDOVAL CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  66; (2021) Corte Suprema, 1 de diciembre de 2021 (Rol Nº91.574-2021),TARAZONA CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  68; (2021) Corte Suprema, 1 de diciembre de 2021 (Rol Nº87.386-2021),TORRES CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  70; (2021) Corte Suprema, 1 de diciembre de 2021 (Rol Nº91.569-2021),VÉLIZ CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  72; (2021) Corte Suprema, 1 de diciembre de 2021 (Rol Nº87.383-2021),YRAUSQUIN CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  74; (2021) Corte Suprema, 22 de diciembre de 2021 (Rol Nº92.241-2021),MEDINA CON DEPARTAMENTO DE EXTRANJERÍA Y MIGRACIÓN DEL MINISTERIO DEL INTERIOR Y SEGURIDAD PÚBLICA Tercera Sala. [Apelación recurso de protección],  76; (2003) Establece bases de los procedimientos administrativos que rigen los actos de los órganos de la administración del Estado. Cited 18 times.,Ley Nº19.880 de 29 de mayo de 2003. D.O. Nº37.570, </t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3611,7 +3416,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>No Encontrado</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3622,11 +3427,6 @@
       <c r="O40" t="inlineStr">
         <is>
           <t>10.7764/redae.35.13</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>Varios Paises</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3471,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>RODRÍGUEZ ARANA-MUÑOZ, Jaime,La sociedad del conocimiento y la administración pública,(2012) Revista de Derecho Universidad de Montevideo, [Recurso en línea], 10 (19), pp. 85-91.; CORTÉS ABAB, Óscar,La Administración tras el Coronabreak. Políticas para ¿un nuevo paradigma administrativo?,(2020) , 24. Cited 2 times.; DELPIAZZO, Carlos,Noción y regulación del procedimiento y del acto administrativo electrónico,(2010) Estudios de Derecho Administrativo, (1), pp. 79-108.; DURÁN MARTÍNEZ, Augusto,Motivación del acto administrativo y buena administración,(2013) Revista de Direitos Fundamentais e Democracia, 13 (13), pp. 18-32.; RODRÍGUEZ ARANA-MUÑOZ, Jaime,El derecho fundamental a la buena administración en la Constitución española y en la Unión Europea,(2010) A&amp;C. Revista de Direito Administrativo &amp; Constitucional, Belo Horizonte, año, 10 (40), pp. 117-149. Cited 5 times.; SÁNCHEZ ACEVEDO, Marco,(2015) Derecho a la buena administración electrónica. Cited 4 times.,Universitat de Valencia. Disponible en la web: fecha de consulta: 25/01/2022; (2000) que en su artículo 41 contempla dentro de su Título V, sobre “ciudadanía”, el “derecho a una buena Administración”,  8,(2013) en relación con la Administración Pública, aprobada por la Comunidad de Estados Latinoamericanos y Caribeños (CELAC)</t>
+          <t>RODRÍGUEZ ARANA-MUÑOZ, Jaime,La sociedad del conocimiento y la administración pública,(2012) Revista de Derecho Universidad de Montevideo, [Recurso en línea], 10 (19), pp. 85-91.; CORTÉS ABAB, Óscar,La Administración tras el Coronabreak. Políticas para ¿un nuevo paradigma administrativo?,(2020) , 24. Cited 2 times.; DELPIAZZO, Carlos,Noción y regulación del procedimiento y del acto administrativo electrónico,(2010) Estudios de Derecho Administrativo, (1), pp. 79-108.; DURÁN MARTÍNEZ, Augusto,Motivación del acto administrativo y buena administración,(2013) Revista de Direitos Fundamentais e Democracia, 13 (13), pp. 18-32.; RODRÍGUEZ ARANA-MUÑOZ, Jaime,El derecho fundamental a la buena administración en la Constitución española y en la Unión Europea,(2010) A&amp;C. Revista de Direito Administrativo &amp; Constitucional, Belo Horizonte, año, 10 (40), pp. 117-149. Cited 5 times.; SÁNCHEZ ACEVEDO, Marco,(2015) Derecho a la buena administración electrónica. Cited 3 times.,Universitat de Valencia. Disponible en la web: fecha de consulta: 25/01/2022; (2000) que en su artículo 41 contempla dentro de su Título V, sobre “ciudadanía”, el “derecho a una buena Administración”,  8,(2013) en relación con la Administración Pública, aprobada por la Comunidad de Estados Latinoamericanos y Caribeños (CELAC)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3691,7 +3491,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>No Encontrado</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3702,11 +3502,6 @@
       <c r="O41" t="inlineStr">
         <is>
           <t>10.7764/redae.35.9</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>Varios Paises</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3546,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Aldrich, H.E., Waldinger, R.,Ethnicity and entrepreneurship,(1990) Annual Review of Sociology, 16 (1), pp. 111-135. Cited 868 times.; Alexandre-Leclair, L.,Diversity as a motive for entrepreneurship?: the case of gender, culture and ethnicity,(2014) Journal of Innovation Economics Management, 2 (1), pp. 157-175. Cited 11 times.; Amit, K.,Determinants of life satisfaction among immigrants from Western countries and from the FSU in Israel,; Azmat, F., Fujimoto, Y.,Family embeddedness and entrepreneurship experience: a study of Indian migrant women entrepreneurs in Australia (Open Access),; Baklanov, N., Rezaei, S., Vang, J., Dana, L.-P.,Migrant entrepreneurship, economic activity and export performance: Mapping the Danish trends,; Baycan-Levent, T., Kundak, S.,Motivation and driving forces of Turkish entrepreneurs in Switzerland,; Benzing, C., Chu, H.M., Kara, O.,Entrepreneurs in Turkey: A factor analysis of motivations, success factors, and problems,; Bhachu, P., Light, I.,Introduction: California immigrants in world perspective,(2017) Immigration and Entrepreneurship, pp. 1-24. Cited 8 times.; Bird, M., Wennberg, K.,Why family matters: The impact of family resources on immigrant entrepreneurs’ exit from entrepreneurship (Open Access),; Boldrini, J.-C., Schieb-Bienfait, N., Chéné, E.,Improving SMEs' guidance within public innovation supports (Open Access),; Bolívar-Cruz, A., Batista-Canino, R.M., Hormiga, E.,Differences in the perception and exploitation of entrepreneurial opportunities by immigrants,; Braojos-Gomez, J., Benitez-Amado, J., Llorens-Montes, F.J.,Impact of IT infrastructure on customer service performance: The role of micro-IT capabilities and online customer engagement,; Bruder, J., Neuberger, D., Räthke-Döppner, S.,Financial constraints of ethnic entrepreneurship: Evidence from Germany (Open Access),; Brzozowski, J.,Immigrant entrepreneurship and economic adaptation: A critical analysis (Open Access),; Brzozowski, J., Cucculelli, M., Surdej, A.,Transnational ties and performance of immigrant entrepreneurs: the role of home-country conditions,; Canedo, J.C., Stone, D.L., Black, S.L., Lukaszewski, K.M.,Individual factors affecting entrepreneurship in Hispanics,; Carlsson, B., Braunerhjelm, P., McKelvey, M., Olofsson, C., Persson, L., Ylinenpää, H.,The evolving domain of entrepreneurship research (Open Access),; Carter, S., Mwaura, S., Ram, M., Trehan, K., Jones, T.,Barriers to ethnic minority and women’s enterprise: Existing evidence, policy tensions and unsettled questions (Open Access),; Chin, W.W., Dibbern, J.,An introduction to a permutation based procedure for multi-group PLS analysis: results of tests of differences on simulated data and a cross cultural analysis of the sourcing of information system services between Germany and the USA,(2010) Handbook of Partial Least Squares, pp. 171-193. Cited 370 times.; Chinn, W.W.,The partial least squares approach to structural equation modeling,(1998) Modern Methods for Business Research, 295 (2), pp. 295-336. Cited 13192 times.; Chinn, W.W.,How to write up and report PLS analyses,(2010) Handbook of Partial Least Squares, pp. 655-690. Cited 3519 times.; Chittithaworn, C., Islam, A., Keawchana, T., Yusuf, D.H.M.,Factors affecting business success of small &amp; medium enterprises (SMEs) in Thailand (Open Access),; Chrysostome, E.,The success factors of necessity immigrant entrepreneurs: In search of a model,; Chung, H.F.-L.,An empirical investigation of immigrant effects: The experience of firms operating in the emerging markets,; Dana, L.-P.,The Origins of Self-Employment in Ethno-cultural Communities: Distinguishing between Orthodox Entrepreneurship and Reactionary Enterprise,; Dana, L.-P., Morris, M.,Towards a synthesis: A model of immigrant and ethnic entrepreneurship,; Davidsson, P., Honig, B.,The role of social and human capital among nascent entrepreneurs,; Deshpandé, R., Grinstein, A., Kim, S.-H., Ofek, E.,Achievement motivation, strategic orientations and business performance in entrepreneurial firms: How different are Japanese and American founders?,; Dimov, D.P., Shepherd, D.A.,Human capital theory and venture capital firms: Exploring "home runs" and "strike outs" (Open Access),; Eraydin, A., Tasan-Kok, T., Vranken, J.,Diversity matters: Immigrant entrepreneurship and contribution of different forms of social integration in economic performance of cities (Open Access),; Fairlie, R.W., Lofstrom, M.,Immigration and entrepreneurship (Open Access),; Fairlie, R.W., Woodruff, C.,Mexican entrepreneurship: a comparison of self-employment in Mexico and the United States,(2007) Mexican Immigration to the United States, pp. 123-158. Cited 15 times.; Fatoki, O.,Working capital management practices of immigrant entrepreneurs in South Africa (Open Access),; Fatoki, O.,The financing preferences of immigrant small business owners in South Africa (Open Access),; Fatoki, O., Oni, O.A.,The impact of managerial competencies on the performance of immigrant-owned enterprises in South Africa,(2015) Journal of Economics, 6 (3), pp. 219-225. Cited 4 times.; Fatoki, O., Patswawairi, T.,The motivations and obstacles to immigrant entrepreneurship in South Africa,(2012) Journal of Social Sciences, 32 (2), pp. 133-142. Cited 49 times.; Gill, A., Biger, N.,Barriers to small business growth in Canada,; Gracia, P., Vázquez-Quesada, L., Van de Werfhorst, H.G.,Ethnic penalties? The role of human capital and social origins in labour market outcomes of second-generation Moroccans and Turks in the Netherlands,; Hair, J., Black, W., Babin, B., Anderson, R., Tatham, R.,Canonical correlation: a supplement to multivariate data analysis,(2010) Multivariate Data Analysis: A Global Perspective, 7, pp. 629-686. Cited 992 times.; Hair, J.F., Sarstedt, M., Ringle, C.M., Gudergan, S.P.,(2017) Advanced Issues in Partial Least Squares Structural Equation Modeling. Cited 20446 times.,SAGE Publications, Thousand Oaks, CA; Hair, J.F., Black, W.C., Babin, B.J., Anderson, R.E., Tatham, R.L.,Multivariate data analysis 6th edition,(2006) Journal of Abnormal Psychology, 87, pp. 49-74. Cited 129 times.; Hair, J.F., Ringle, C.M., Sarstedt, M.,Partial Least Squares Structural Equation Modeling: Rigorous Applications, Better Results and Higher Acceptance,; Hamilton, R., Dana, L.P., Benfell, C.,Changing cultures: an international study of migrant entrepreneurs,(2008) Journal of Enterprising Culture, 16 (1), pp. 89-105. Cited 60 times.; Hatala, J.P.,Identifying barriers to self employment: the development and validation of the barriers to entrepreneurship success tool,(2005) Performance Improvement, 18 (4), pp. 50-70. Cited 19 times.; Heilbrunn, S., Kushnirovich, N.,The impact of policy on immigrant entrepreneurship and businesses practice in Israel,; Heilbrunn, S., Kushnirovich, N., Zeltzer-Zubida, A.,Barriers to immigrants' integration into the labor market: Modes and coping,; Henseler, J., Dijkstra, T.K., Sarstedt, M., Ringle, C.M., Diamantopoulos, A., Straub, D.W., Ketchen, D.J., (...), Calantone, R.J.,Common Beliefs and Reality About PLS: Comments on Rönkkö and Evermann (2013) (Open Access),; Henseler, J., Ringle, C.M., Sarstedt, M.,A new criterion for assessing discriminant validity in variance-based structural equation modeling (Open Access),; Hormiga, E., Bolívar-Cruz, A.,The relationship between the migration experience and risk perception: A factor in the decision to become an entrepreneur,; Ilhan-Nas, T., Sahin, K., Cilingir, Z.,International ethnic entrepreneurship: Antecedents, outcomes and environmental context,; Jarvis, C.B., Mackenzie, S.B., Podsakoff, P.M., Giliatt, N., Mee, J.F.,A Critical Review of Construct Indicators and Measurement Model Misspecification in Marketing and Consumer Research,; Jeon, B.N., Han, K.S., Lee, M.J.,Determining factors for the adoption of e-business: The case of SMEs in Korea,; Kanas, A., van Tubergen, F., van der Lippe, T.,Immigrant self-employment: Testing hypotheses about the role of origin- and host-country human capital and bonding and bridging social capital (Open Access),; Kellermanns, F.W., Eddleston, K.A.,Corporate entrepreneurship in family firms: A family perspective,; Kerr, W.R.,(2013) US High-Skilled Immigration, Innovation, and Entrepreneurship: Empirical Approaches and Evidence. Cited 75 times.,W19377, National Bureau of Economic Research; Koh, S.C.L., Demirbag, M., Bayraktar, E., Tatoglu, E., Zaim, S.,The impact of supply chain management practices on performance of SMEs,; Kremel, A., Yazdanfar, D., Abbasian, S.,Business networks at start-up: Swedish native-owned and immigrant-owned companies,; Kushnirovich, N.,Economic integration of immigrant entrepreneurs (Open Access),; Leal-Rodríguez, A.L., Roldán, J.L., Ariza-Montes, J.A., Leal-Millán, A.,From potential absorptive capacity to innovation outcomes in project teams: The conditional mediating role of the realized absorptive capacity in a relational learning context,; Lofstrom, M., Bates, T., Parker, S.C.,Why are some people more likely to become small-businesses owners than others: Entrepreneurship entry and industry-specific barriers,; Marvel, M.R., Davis, J.L., Sproul, C.R.,Human Capital and Entrepreneurship Research: A Critical Review and Future Directions,; Matricano, D., Sorrentino, M.,Ukrainian entrepreneurship in Italy: factors influencing the creation of ethnic ventures (Open Access),; McHenry, J.E.H., Welch, D.E.,Entrepreneurs and internationalization: A study of Western immigrants in an emerging market,; Miller, D., Le Breton-Miller, I.,Underdog Entrepreneurs: A Model of Challenge-Based Entrepreneurship (Open Access),; Mueller, E.,Entrepreneurs from low-skilled immigrant groups in knowledge-intensive industries: Company characteristics, survival and innovative performance (Open Access),; Nawaser, K., Khaksar, S.M.S., Shakhsian, F.,Motivational and legal barriers of entrepreneurship development,(2011) International Journal of Business and Management, 6 (11), pp. 112-118. Cited 30 times.; Nawaz, T.,Human capital development in socio-economic malaise: Evidence from the UK (Open Access),; Ndofor, H.A., Priem, R.L.,Immigrant entrepreneurs, the ethnic enclave strategy, and venture performance,; Ndoro, T.T.R., Louw, L., Kanyangale, M.,Practices in operating a small business in a host community: A social capital perspective of Chinese immigrant entrepreneurship within the South African business context,; Neumeyer, X., Santos, S.C., Caetano, A., Kalbfleisch, P.,Entrepreneurship ecosystems and women entrepreneurs: a social capital and network approach,(2018) Small Business Economics, 1 (1), pp. 1-15. Cited 13 times.; Neville, F., Orser, B., Riding, A., Jung, O.,Do young firms owned by recent immigrants outperform other young firms?,; Olawale, F., Garwe, D.,Obstacles to the growth of new SMEs in South Africa: a principal component analysis approach,(2010) African Journal of Business Management, 4 (5), pp. 729-738. Cited 273 times.; Pelinescu, E.,The impact of human capital on economic growth,(2015) Procedia Economics and Finance, 22 (1), pp. 184-190. Cited 142 times.; Perri, D.F., Chu, H.M.,Entrepreneurs in China and Vietnam: Motivations and problems,; Piperopoulos, P.,Ethnic minority businesses and immigrant entrepreneurship in Greece,; Quinn, Robert E., Rohrbaugh, John,SPATIAL MODEL OF EFFECTIVENESS CRITERIA: TOWARDS A COMPETING VALUES APPROACH TO ORGANIZATIONAL ANALYSIS.,; Lundberg, H., Rehnfors, A.,The immigrant effect from employer and employee perspectives in a Swedish context,; Rezaei, S., Goli, M., Dana, L.-P.,Informal opportunity among SMEs: An empirical study of Denmark's underground economy,; Ringle, C.M., Sarstedt, M., Straub, D.W.,A critical look at the use of PLS-SEM in MIS quarterly,; Ringle, C.M., Wende, S., Becker, J.M.,SmartPLS 3. Hamburg: SmartPLS,(2014) Academy of Management Review, 9, pp. 419-445. Cited 50 times.</t>
+          <t>Aldrich, H.E., Waldinger, R.,Ethnicity and entrepreneurship,(1990) Annual Review of Sociology, 16 (1), pp. 111-135. Cited 869 times.; Alexandre-Leclair, L.,Diversity as a motive for entrepreneurship?: the case of gender, culture and ethnicity,(2014) Journal of Innovation Economics Management, 2 (1), pp. 157-175. Cited 11 times.; Amit, K.,Determinants of life satisfaction among immigrants from Western countries and from the FSU in Israel,; Azmat, F., Fujimoto, Y.,Family embeddedness and entrepreneurship experience: a study of Indian migrant women entrepreneurs in Australia,; Baklanov, N., Rezaei, S., Vang, J., Dana, L.-P.,Migrant entrepreneurship, economic activity and export performance: Mapping the Danish trends,; Baycan-Levent, T., Kundak, S.,Motivation and driving forces of Turkish entrepreneurs in Switzerland,; Benzing, C., Chu, H.M., Kara, O.,Entrepreneurs in Turkey: A factor analysis of motivations, success factors, and problems,; Bhachu, P., Light, I.,Introduction: California immigrants in world perspective,(2017) Immigration and Entrepreneurship, pp. 1-24. Cited 7 times.; Bird, M., Wennberg, K.,Why family matters: The impact of family resources on immigrant entrepreneurs’ exit from entrepreneurship,; Boldrini, J.-C., Schieb-Bienfait, N., Chéné, E.,Improving SMEs' guidance within public innovation supports,; Bolívar-Cruz, A., Batista-Canino, R.M., Hormiga, E.,Differences in the perception and exploitation of entrepreneurial opportunities by immigrants,; Braojos-Gomez, J., Benitez-Amado, J., Llorens-Montes, F.J.,Impact of IT infrastructure on customer service performance: The role of micro-IT capabilities and online customer engagement,; Bruder, J., Neuberger, D., Räthke-Döppner, S.,Financial constraints of ethnic entrepreneurship: Evidence from Germany,; Brzozowski, J.,Immigrant entrepreneurship and economic adaptation: A critical analysis,; Brzozowski, J., Cucculelli, M., Surdej, A.,Transnational ties and performance of immigrant entrepreneurs: the role of home-country conditions,; Canedo, J.C., Stone, D.L., Black, S.L., Lukaszewski, K.M.,Individual factors affecting entrepreneurship in Hispanics,; Carlsson, B., Braunerhjelm, P., McKelvey, M., Olofsson, C., Persson, L., Ylinenpää, H.,The evolving domain of entrepreneurship research,; Carter, S., Mwaura, S., Ram, M., Trehan, K., Jones, T.,Barriers to ethnic minority and women’s enterprise: Existing evidence, policy tensions and unsettled questions,; Chin, W.W., Dibbern, J.,An introduction to a permutation based procedure for multi-group PLS analysis: results of tests of differences on simulated data and a cross cultural analysis of the sourcing of information system services between Germany and the USA,(2010) Handbook of Partial Least Squares, pp. 171-193. Cited 372 times.; Chinn, W.W.,The partial least squares approach to structural equation modeling,(1998) Modern Methods for Business Research, 295 (2), pp. 295-336. Cited 13222 times.; Chinn, W.W.,How to write up and report PLS analyses,(2010) Handbook of Partial Least Squares, pp. 655-690. Cited 3526 times.; Chittithaworn, C., Islam, A., Keawchana, T., Yusuf, D.H.M.,Factors affecting business success of small &amp; medium enterprises (SMEs) in Thailand,; Chrysostome, E.,The success factors of necessity immigrant entrepreneurs: In search of a model,; Chung, H.F.-L.,An empirical investigation of immigrant effects: The experience of firms operating in the emerging markets,; Dana, L.-P.,The Origins of Self-Employment in Ethno-cultural Communities: Distinguishing between Orthodox Entrepreneurship and Reactionary Enterprise,; Dana, L.-P., Morris, M.,Towards a synthesis: A model of immigrant and ethnic entrepreneurship,; Davidsson, P., Honig, B.,The role of social and human capital among nascent entrepreneurs,; Deshpandé, R., Grinstein, A., Kim, S.-H., Ofek, E.,Achievement motivation, strategic orientations and business performance in entrepreneurial firms: How different are Japanese and American founders? (Open Access),; Dimov, D.P., Shepherd, D.A.,Human capital theory and venture capital firms: Exploring "home runs" and "strike outs",; Eraydin, A., Tasan-Kok, T., Vranken, J.,Diversity matters: Immigrant entrepreneurship and contribution of different forms of social integration in economic performance of cities (Open Access),; Fairlie, R.W., Lofstrom, M.,Immigration and entrepreneurship (Open Access),; Fairlie, R.W., Woodruff, C.,Mexican entrepreneurship: a comparison of self-employment in Mexico and the United States,(2007) Mexican Immigration to the United States, pp. 123-158. Cited 15 times.; Fatoki, O.,Working capital management practices of immigrant entrepreneurs in South Africa,; Fatoki, O.,The financing preferences of immigrant small business owners in South Africa,; Fatoki, O., Oni, O.A.,The impact of managerial competencies on the performance of immigrant-owned enterprises in South Africa,(2015) Journal of Economics, 6 (3), pp. 219-225. Cited 4 times.; Fatoki, O., Patswawairi, T.,The motivations and obstacles to immigrant entrepreneurship in South Africa,(2012) Journal of Social Sciences, 32 (2), pp. 133-142. Cited 49 times.; Gill, A., Biger, N.,Barriers to small business growth in Canada,; Gracia, P., Vázquez-Quesada, L., Van de Werfhorst, H.G.,Ethnic penalties? The role of human capital and social origins in labour market outcomes of second-generation Moroccans and Turks in the Netherlands (Open Access),; Hair, J., Black, W., Babin, B., Anderson, R., Tatham, R.,Canonical correlation: a supplement to multivariate data analysis,(2010) Multivariate Data Analysis: A Global Perspective, 7, pp. 629-686. Cited 995 times.; Hair, J.F., Sarstedt, M., Ringle, C.M., Gudergan, S.P.,(2017) Advanced Issues in Partial Least Squares Structural Equation Modeling. Cited 20568 times.,SAGE Publications, Thousand Oaks, CA; Hair, J.F., Black, W.C., Babin, B.J., Anderson, R.E., Tatham, R.L.,Multivariate data analysis 6th edition,(2006) Journal of Abnormal Psychology, 87, pp. 49-74. Cited 129 times.; Hair, J.F., Ringle, C.M., Sarstedt, M.,Partial Least Squares Structural Equation Modeling: Rigorous Applications, Better Results and Higher Acceptance,; Hamilton, R., Dana, L.P., Benfell, C.,Changing cultures: an international study of migrant entrepreneurs,(2008) Journal of Enterprising Culture, 16 (1), pp. 89-105. Cited 60 times.; Hatala, J.P.,Identifying barriers to self employment: the development and validation of the barriers to entrepreneurship success tool,(2005) Performance Improvement, 18 (4), pp. 50-70. Cited 19 times.; Heilbrunn, S., Kushnirovich, N.,The impact of policy on immigrant entrepreneurship and businesses practice in Israel,; Heilbrunn, S., Kushnirovich, N., Zeltzer-Zubida, A.,Barriers to immigrants' integration into the labor market: Modes and coping (Open Access),; Henseler, J., Dijkstra, T.K., Sarstedt, M., Ringle, C.M., Diamantopoulos, A., Straub, D.W., Ketchen, D.J., (...), Calantone, R.J.,Common Beliefs and Reality About PLS: Comments on Rönkkö and Evermann (2013) (Open Access),; Henseler, J., Ringle, C.M., Sarstedt, M.,A new criterion for assessing discriminant validity in variance-based structural equation modeling,; Hormiga, E., Bolívar-Cruz, A.,The relationship between the migration experience and risk perception: A factor in the decision to become an entrepreneur,; Ilhan-Nas, T., Sahin, K., Cilingir, Z.,International ethnic entrepreneurship: Antecedents, outcomes and environmental context (Open Access),; Jarvis, C.B., Mackenzie, S.B., Podsakoff, P.M., Giliatt, N., Mee, J.F.,A Critical Review of Construct Indicators and Measurement Model Misspecification in Marketing and Consumer Research,; Jeon, B.N., Han, K.S., Lee, M.J.,Determining factors for the adoption of e-business: The case of SMEs in Korea,; Kanas, A., van Tubergen, F., van der Lippe, T.,Immigrant self-employment: Testing hypotheses about the role of origin- and host-country human capital and bonding and bridging social capital (Open Access),; Kellermanns, F.W., Eddleston, K.A.,Corporate entrepreneurship in family firms: A family perspective,; Kerr, W.R.,(2013) US High-Skilled Immigration, Innovation, and Entrepreneurship: Empirical Approaches and Evidence. Cited 75 times.,W19377, National Bureau of Economic Research; Koh, S.C.L., Demirbag, M., Bayraktar, E., Tatoglu, E., Zaim, S.,The impact of supply chain management practices on performance of SMEs,; Kremel, A., Yazdanfar, D., Abbasian, S.,Business networks at start-up: Swedish native-owned and immigrant-owned companies,; Kushnirovich, N.,Economic integration of immigrant entrepreneurs,; Leal-Rodríguez, A.L., Roldán, J.L., Ariza-Montes, J.A., Leal-Millán, A.,From potential absorptive capacity to innovation outcomes in project teams: The conditional mediating role of the realized absorptive capacity in a relational learning context,; Lofstrom, M., Bates, T., Parker, S.C.,Why are some people more likely to become small-businesses owners than others: Entrepreneurship entry and industry-specific barriers,; Marvel, M.R., Davis, J.L., Sproul, C.R.,Human Capital and Entrepreneurship Research: A Critical Review and Future Directions (Open Access),; Matricano, D., Sorrentino, M.,Ukrainian entrepreneurship in Italy: factors influencing the creation of ethnic ventures,; McHenry, J.E.H., Welch, D.E.,Entrepreneurs and internationalization: A study of Western immigrants in an emerging market,; Miller, D., Le Breton-Miller, I.,Underdog Entrepreneurs: A Model of Challenge-Based Entrepreneurship (Open Access),; Mueller, E.,Entrepreneurs from low-skilled immigrant groups in knowledge-intensive industries: Company characteristics, survival and innovative performance,; Nawaser, K., Khaksar, S.M.S., Shakhsian, F.,Motivational and legal barriers of entrepreneurship development,(2011) International Journal of Business and Management, 6 (11), pp. 112-118. Cited 30 times.; Nawaz, T.,Human capital development in socio-economic malaise: Evidence from the UK,; Ndofor, H.A., Priem, R.L.,Immigrant entrepreneurs, the ethnic enclave strategy, and venture performance,; Ndoro, T.T.R., Louw, L., Kanyangale, M.,Practices in operating a small business in a host community: A social capital perspective of Chinese immigrant entrepreneurship within the South African business context,; Neumeyer, X., Santos, S.C., Caetano, A., Kalbfleisch, P.,Entrepreneurship ecosystems and women entrepreneurs: a social capital and network approach,(2018) Small Business Economics, 1 (1), pp. 1-15. Cited 13 times.; Neville, F., Orser, B., Riding, A., Jung, O.,Do young firms owned by recent immigrants outperform other young firms? (Open Access),; Olawale, F., Garwe, D.,Obstacles to the growth of new SMEs in South Africa: a principal component analysis approach,(2010) African Journal of Business Management, 4 (5), pp. 729-738. Cited 274 times.; Pelinescu, E.,The impact of human capital on economic growth,(2015) Procedia Economics and Finance, 22 (1), pp. 184-190. Cited 144 times.; Perri, D.F., Chu, H.M.,Entrepreneurs in China and Vietnam: Motivations and problems,; Piperopoulos, P.,Ethnic minority businesses and immigrant entrepreneurship in Greece (Open Access),; Quinn, Robert E., Rohrbaugh, John,SPATIAL MODEL OF EFFECTIVENESS CRITERIA: TOWARDS A COMPETING VALUES APPROACH TO ORGANIZATIONAL ANALYSIS. (Open Access),; Lundberg, H., Rehnfors, A.,The immigrant effect from employer and employee perspectives in a Swedish context,; Rezaei, S., Goli, M., Dana, L.-P.,Informal opportunity among SMEs: An empirical study of Denmark's underground economy (Open Access),; Ringle, C.M., Sarstedt, M., Straub, D.W.,A critical look at the use of PLS-SEM in MIS quarterly,; Ringle, C.M., Wende, S., Becker, J.M.,SmartPLS 3. Hamburg: SmartPLS,(2014) Academy of Management Review, 9, pp. 419-445. Cited 50 times.</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3782,11 +3577,6 @@
       <c r="O42" t="inlineStr">
         <is>
           <t>10.1504/IJESB.2022.123987</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>Varios Paises</t>
         </is>
       </c>
     </row>
@@ -3831,7 +3621,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Arraiza, E.,(2016) Manual de gestión municipal,(1ra ed); Ayoví, J.,Trabajo en equipo: clave del éxito de las organizaciones,(2019) Ciencias Económicas y Empresariales, 4 (10), pp. 58-76.; Cardoso Espinosa, E.O.,Assessment of managerial competences in graduates of postgraduate courses in administration (Open Access),; Casani, F., Rodríguez-Pomeda, J.,Perceptions of high spanish univeristy officials regarding their training needs for directorial competences,; (2018) Competencias Laborales en el Sector Público. Cited 2 times.,Copyright,https://clad.org/wp-content/uploads/2021/02/ExperienciasEIAPP-2019-Competencias.pdf; Córdova, E.,Administración Pública en Venezuela: Aproximaciones a los cambios y transformaciones,(2009) Revista De Ciencias Sociales, 12 (3). Cited 4 times.; De La Garza Montemayor, D.J., Yllán Ramírez, E.R., Barredo Ibáñez, D.,Trends in modern public administration: The new public management in Mexico (Open Access),; Flores, C. A., Delgado, J. M.,Gestión por resultados para mejorar la calidad de atención en las entidades públicas,(2020) Ciencia Latina Revista Científica Multidisciplinar, 4 (2), pp. 1226-1240.; Flores, M., Vanoni, G.,Competencias directivas requeridas por los CEO ante la complejidad de las organizaciones del siglo XXI,(2016) Suma de Negocios, 7 (16), pp. 113-124. Cited 3 times.; Hahn, J.,(2012) Orientación a los resultados,Ajuste de la política de cohesión. Unión Europea; Meroño, S.J., Medero, R.S., Medero, G.S.,Institutes of public administration in Spain: Training programs for public employees (Open Access),; La Madriz, J., Parra, J.,Competencias personales y profesionales aplicadas por gerentes bajo escenarios de incertidumbre económica,(2016) Revista Negotium, (33), pp. 69-98. Cited 2 times.; Lafuente, M., Manning, N.,(2016) Liderazgo y desarrollo de capacidades de los directivos del sector público,Copyright Banco Interamericano de Desarrollo; Cortés, O.A.L.,Vocation of civil servant in Colombia and new ways of colonialism in the managerial logic,; Mamani, S.,(2018) Trabajo en equipo en la ejecución presupuestal de la unidad de gestión educativa local de Carabaya – Macusani 2017,[Tesis de maestría, Universidad Cesar Vallejo]. Archivo digital; Martínez, B.,Evaluación del uso de las competencias laborales en la industria de la construcción en el Distrito Federal,(2013) Economía Informal, 379, pp. 85-109. Cited 2 times.; Martínez, M., Hernández, M. C., Gómora, J. Y.,Modelo de competencias directivas en escenarios globales para las instituciones de educación superior,(2016) Revista Iberoamericana para la Investigación y el Desarrollo Educativo, 6 (12). Cited 3 times.; Mazurkiewicz, I.,Competencias gerenciales y gestión de proyectos en la pequeña y mediana empresa,(2020) Revista Negotium, (47), pp. 45-59. Cited 3 times.; Mendoza, T. R.,(2017) Liderazgo participativo y trabajo en equipo en la Municipalidad Distrital de Independencia-Huaraz, 2016 [Tesis de maestría, Universidad Cesar Vallejo],Archivo digital; Miraya, R. M.,(2017) Competencia laboral y la calidad del servicio en la atención a los ciudadanos en el Servicio de Administración Tributaria,Lima, 2017 [Tesis de maestría, Universidad Cesar Vallejo]. Archivo digital; Montaño, Y. A.,(2013) Habilidades gerenciales aplicadas a las instituciones públicas,https://repository.unimilitar.edu.co/bitstream/hand-le/10654/10798/MontanoGrana-dosYasidAlberto2013.pdf?sequen-ce=1&amp;isAllowed=y; Muñinco, A., Huayhuameza, E. M.,(2018) Competencias directivas y planeación estratégica en la Municipalidad Provincial de Huamanga, 2018,[Tesis de maestría, Universidad Cesar Vallejo]; Navarro, V. L.,(2017) Habilidades gerenciales y trabajo en equipo en los Gobiernos Regionales – Perú 2017 [Tesis de maestría, Universidad Cesar Vallejo],Archivo digital; Nercesian, I., Cassaglia, R.,Radiografía de los gabinetes ministeriales en Brasil y Perú (2016-2018). Un análisis comparativo,(2019) Revista Telos, 21 (2), pp. 372-400. Cited 2 times.; Núñez, L. V.,(2019) La vocación de servicio en la anticorrupción de los servidores públicos de la SUNAFIL, Intendencia Regional de Cajamarca – 2019,[Tesis de maestría, Universidad Cesar Vallejo]; Pérez, F.J.P., Santa Cruz, F.G., López-Guzmá, T.,An approximation to the managerial skills. Perspective from the regional administration in the province of Cordoba (Spain),; Pérez, F.J.P., Guzmán, T.L.-G., Cruz, F.G.S.,Management skills as competitive advantage. The case of public sector in Córdoba (Spain) (Open Access),; Puga, J., Martínez, L.,Competencias directivas en escenarios globales,(2008) Estudios Gerenciales, 24 (109), pp. 87-103. Cited 11 times.; Qquelcca, W.,(2019) Las habilidades directivas en los empleados públicos y su incidencia en la gestión municipal del distrito de Marangani-Cusco en el periodo 2017,[Tesis pregrado, Universidad Nacional del Altiplano]; Quezada, M.E., Vega-Valero, C.Z., Nava-Quiroz, C.,Assessment of generic competences of entrepreneurial behavior (Open Access),; Tovar, L.A.R., Flores, M.T., Vilchis, F.L., Chávez, A., Espejel, J.A.C.,Diagnosis of the professional career system and certification of managerial skills in Mexico (Open Access),; Sánchez, J. A.,(2018) Funciones, competencias y habilidades,Madrid: Escuela Nacional de Sanidad; Serrano, G.,Management skills and virtues: A road to excellence (Open Access),; (2017) Diccionario de competencias genéricas del grupo de directivos públicos,https://cdn.www.gob.pe/uploads/document/file/1346696/Resoluci%C3%B3n%20de%20Presidencia%20Ejecutiva.pdf,  35; Valdez, A.,Paradigmas emergentes en la gestión pública en América Latina,(2019) Revista Venezolana De Gerencia, 24 (86), pp. 325-339. Cited 3 times.; Vargas, A., García, P.,Competencias directivas, un reto para la educación superior,(2017) Revista Academia y Virtualidad, 10 (1), pp. 11-22. Cited 3 times.; Villarruel, J. J.,(2018) Competencias Profesionales y la Inserción Laboral del Personal Administrativo en el Área de Abastecimiento del Gobierno Regional de Madre de Dios – 2018 [Tesis de maestría, Universidad Cesar Vallejo],Archivo digital; Whetten, D. A., Cameron, K. S.,(2011) Desarrollo de habilidades directivas. Cited 10 times.,(8va ed). Pearson Educación; Yance, B.,(2018) Competencias directivas y desarrollo económico local en la Municipalidad Provincial de Vilcashuamán 2018,[Tesis de maestría, Universidad Cesar Vallejo]</t>
+          <t>Arraiza, E.,(2016) Manual de gestión municipal,(1ra ed); Ayoví, J.,Trabajo en equipo: clave del éxito de las organizaciones,(2019) Ciencias Económicas y Empresariales, 4 (10), pp. 58-76.; Cardoso Espinosa, E.O.,Assessment of managerial competences in graduates of postgraduate courses in administration,; Casani, F., Rodríguez-Pomeda, J.,Perceptions of high spanish univeristy officials regarding their training needs for directorial competences,; (2018) Competencias Laborales en el Sector Público. Cited 2 times.,Copyright,https://clad.org/wp-content/uploads/2021/02/ExperienciasEIAPP-2019-Competencias.pdf; Córdova, E.,Administración Pública en Venezuela: Aproximaciones a los cambios y transformaciones,(2009) Revista De Ciencias Sociales, 12 (3). Cited 4 times.; De La Garza Montemayor, D.J., Yllán Ramírez, E.R., Barredo Ibáñez, D.,Trends in modern public administration: The new public management in Mexico,; Flores, C. A., Delgado, J. M.,Gestión por resultados para mejorar la calidad de atención en las entidades públicas,(2020) Ciencia Latina Revista Científica Multidisciplinar, 4 (2), pp. 1226-1240.; Flores, M., Vanoni, G.,Competencias directivas requeridas por los CEO ante la complejidad de las organizaciones del siglo XXI,(2016) Suma de Negocios, 7 (16), pp. 113-124. Cited 3 times.; Hahn, J.,(2012) Orientación a los resultados,Ajuste de la política de cohesión. Unión Europea; Meroño, S.J., Medero, R.S., Medero, G.S.,Institutes of public administration in Spain: Training programs for public employees,; La Madriz, J., Parra, J.,Competencias personales y profesionales aplicadas por gerentes bajo escenarios de incertidumbre económica,(2016) Revista Negotium, (33), pp. 69-98. Cited 2 times.; Lafuente, M., Manning, N.,(2016) Liderazgo y desarrollo de capacidades de los directivos del sector público,Copyright Banco Interamericano de Desarrollo; Cortés, O.A.L.,Vocation of civil servant in Colombia and new ways of colonialism in the managerial logic,; Mamani, S.,(2018) Trabajo en equipo en la ejecución presupuestal de la unidad de gestión educativa local de Carabaya – Macusani 2017,[Tesis de maestría, Universidad Cesar Vallejo]. Archivo digital; Martínez, B.,Evaluación del uso de las competencias laborales en la industria de la construcción en el Distrito Federal,(2013) Economía Informal, 379, pp. 85-109. Cited 2 times.; Martínez, M., Hernández, M. C., Gómora, J. Y.,Modelo de competencias directivas en escenarios globales para las instituciones de educación superior,(2016) Revista Iberoamericana para la Investigación y el Desarrollo Educativo, 6 (12). Cited 3 times.; Mazurkiewicz, I.,Competencias gerenciales y gestión de proyectos en la pequeña y mediana empresa,(2020) Revista Negotium, (47), pp. 45-59. Cited 3 times.; Mendoza, T. R.,(2017) Liderazgo participativo y trabajo en equipo en la Municipalidad Distrital de Independencia-Huaraz, 2016 [Tesis de maestría, Universidad Cesar Vallejo],Archivo digital; Miraya, R. M.,(2017) Competencia laboral y la calidad del servicio en la atención a los ciudadanos en el Servicio de Administración Tributaria,Lima, 2017 [Tesis de maestría, Universidad Cesar Vallejo]. Archivo digital; Montaño, Y. A.,(2013) Habilidades gerenciales aplicadas a las instituciones públicas,https://repository.unimilitar.edu.co/bitstream/hand-le/10654/10798/MontanoGrana-dosYasidAlberto2013.pdf?sequen-ce=1&amp;isAllowed=y; Muñinco, A., Huayhuameza, E. M.,(2018) Competencias directivas y planeación estratégica en la Municipalidad Provincial de Huamanga, 2018,[Tesis de maestría, Universidad Cesar Vallejo]; Navarro, V. L.,(2017) Habilidades gerenciales y trabajo en equipo en los Gobiernos Regionales – Perú 2017 [Tesis de maestría, Universidad Cesar Vallejo],Archivo digital; Nercesian, I., Cassaglia, R.,Radiografía de los gabinetes ministeriales en Brasil y Perú (2016-2018). Un análisis comparativo,(2019) Revista Telos, 21 (2), pp. 372-400. Cited 2 times.; Núñez, L. V.,(2019) La vocación de servicio en la anticorrupción de los servidores públicos de la SUNAFIL, Intendencia Regional de Cajamarca – 2019,[Tesis de maestría, Universidad Cesar Vallejo]; Pérez, F.J.P., Santa Cruz, F.G., López-Guzmá, T.,An approximation to the managerial skills. Perspective from the regional administration in the province of Cordoba (Spain),; Pérez, F.J.P., Guzmán, T.L.-G., Cruz, F.G.S.,Management skills as competitive advantage. The case of public sector in Córdoba (Spain),; Puga, J., Martínez, L.,Competencias directivas en escenarios globales,(2008) Estudios Gerenciales, 24 (109), pp. 87-103. Cited 11 times.; Qquelcca, W.,(2019) Las habilidades directivas en los empleados públicos y su incidencia en la gestión municipal del distrito de Marangani-Cusco en el periodo 2017,[Tesis pregrado, Universidad Nacional del Altiplano]; Quezada, M.E., Vega-Valero, C.Z., Nava-Quiroz, C.,Assessment of generic competences of entrepreneurial behavior (Open Access),; Tovar, L.A.R., Flores, M.T., Vilchis, F.L., Chávez, A., Espejel, J.A.C.,Diagnosis of the professional career system and certification of managerial skills in Mexico (Open Access),; Sánchez, J. A.,(2018) Funciones, competencias y habilidades,Madrid: Escuela Nacional de Sanidad; Serrano, G.,Management skills and virtues: A road to excellence,; (2017) Diccionario de competencias genéricas del grupo de directivos públicos,https://cdn.www.gob.pe/uploads/document/file/1346696/Resoluci%C3%B3n%20de%20Presidencia%20Ejecutiva.pdf,  35; Valdez, A.,Paradigmas emergentes en la gestión pública en América Latina,(2019) Revista Venezolana De Gerencia, 24 (86), pp. 325-339. Cited 3 times.; Vargas, A., García, P.,Competencias directivas, un reto para la educación superior,(2017) Revista Academia y Virtualidad, 10 (1), pp. 11-22. Cited 3 times.; Villarruel, J. J.,(2018) Competencias Profesionales y la Inserción Laboral del Personal Administrativo en el Área de Abastecimiento del Gobierno Regional de Madre de Dios – 2018 [Tesis de maestría, Universidad Cesar Vallejo],Archivo digital; Whetten, D. A., Cameron, K. S.,(2011) Desarrollo de habilidades directivas. Cited 10 times.,(8va ed). Pearson Educación; Yance, B.,(2018) Competencias directivas y desarrollo económico local en la Municipalidad Provincial de Vilcashuamán 2018,[Tesis de maestría, Universidad Cesar Vallejo]</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3862,11 +3652,6 @@
       <c r="O43" t="inlineStr">
         <is>
           <t>10.52080/rvgluz.27.99.21</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>Peru</t>
         </is>
       </c>
     </row>
@@ -3911,7 +3696,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>López Hernández, Antonio M., Rodríguez, Domingo Ortiz,El control de la gestión económico-financiera de las administraciones públicas,(2005) La ciencia de la contabilidad; Informe sobre la calidad y eficiencia del control fiscal interno de las entidades y organismos del Estado,(2019) Vigencia, 2020.,https://www.contraloria.gov.co/documents/20181/1853952/informe_control_interno_vigencia_2019.pdf/bdf10753-46be-46ea-b0ea-3e28046a5536; (2002) Internal Control - Integrated Framework. Cited 217 times.,https://www.coso.org/documents/coso-crowe-coso-internal-control-integratedframework.pdf,  4; Albi, Emilio, González, José Manuel, López, Guillém,(1997) Gestión pública. Fundamentos, técnicas y casos. Cited 5 times.,(Ariel); (2020) El Modelo de las Tres Líneas del IIA 2020,https://na.theiia.org/translations/PublicDocuments/Three-Lines-Model-Updated-Spanish.pdf,  7; Sánchez, Jesús Antonio Serrano,(2016) El control interno de la administración pública: ¿elemento de estancamiento o de desarrollo organizacional?,(INAP, México); Roca, José María Giro,Control de gestión y gerencia pública,(1993) Revista Trimestre Fiscal no. 60, IV (2), Cuadernos de Actualidad; Alberto Restrepo Medina, Manuel,Articulación del sistema de control interno al modelo integrado de planeación y gestión en el caso colombiano,(2017) CLAD. Memorias del XXII Congreso Internacional del CLAD; Fol, Miguel Miaja,Presente y futuro del control interno en las administraciones públicas,(2019) ; Blanco, Samuel Alfonso Mantilla,(2008) Control interno de los nuevos instrumentos financieros,(Ed. Ecoe); (2021) Índice Internacional de Percepción de la Corrupción 2020,https://transparenciacolombia.org.co/wp-content/uploads/indice-de-percepcion-de-corrupcion-2020-1.pdf,  14</t>
+          <t>López Hernández, Antonio M., Rodríguez, Domingo Ortiz,El control de la gestión económico-financiera de las administraciones públicas,(2005) La ciencia de la contabilidad; Informe sobre la calidad y eficiencia del control fiscal interno de las entidades y organismos del Estado,(2019) Vigencia, 2020.,https://www.contraloria.gov.co/documents/20181/1853952/informe_control_interno_vigencia_2019.pdf/bdf10753-46be-46ea-b0ea-3e28046a5536; (2002) Internal Control - Integrated Framework. Cited 218 times.,https://www.coso.org/documents/coso-crowe-coso-internal-control-integratedframework.pdf,  4; Albi, Emilio, González, José Manuel, López, Guillém,(1997) Gestión pública. Fundamentos, técnicas y casos. Cited 5 times.,(Ariel); (2020) El Modelo de las Tres Líneas del IIA 2020,https://na.theiia.org/translations/PublicDocuments/Three-Lines-Model-Updated-Spanish.pdf,  7; Sánchez, Jesús Antonio Serrano,(2016) El control interno de la administración pública: ¿elemento de estancamiento o de desarrollo organizacional?,(INAP, México); Roca, José María Giro,Control de gestión y gerencia pública,(1993) Revista Trimestre Fiscal no. 60, IV (2), Cuadernos de Actualidad; Alberto Restrepo Medina, Manuel,Articulación del sistema de control interno al modelo integrado de planeación y gestión en el caso colombiano,(2017) CLAD. Memorias del XXII Congreso Internacional del CLAD; Fol, Miguel Miaja,Presente y futuro del control interno en las administraciones públicas,(2019) ; Blanco, Samuel Alfonso Mantilla,(2008) Control interno de los nuevos instrumentos financieros,(Ed. Ecoe); (2021) Índice Internacional de Percepción de la Corrupción 2020,https://transparenciacolombia.org.co/wp-content/uploads/indice-de-percepcion-de-corrupcion-2020-1.pdf,  14</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3936,17 +3721,12 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>No Encontrado</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
           <t>10.11144/Javeriana.vj71.cefp</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>Colombia</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3771,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Abner, G.B., Kim, S.Y., Perry, J.L.,Building Evidence for Public Human Resource Management: Using Middle Range Theory to Link Theory and Data,; Acharya, A.,Race and racism in the founding of the modern world order (Open Access),; Alatas, S.F.,Deparochialising the Canon: The Case of Sociological Theory,; Alkadry, M.G.,Reciting Colonial Scripts: Colonialism, Globalization and Democracy in the Decolonized Middle East,(2002) Administrative Theory &amp; Praxis, 24 (4), pp. 739-762. Cited 7 times.; Althaus, C.,Different paradigms of evidence and knowledge: Recognising, honouring, and celebrating Indigenous ways of knowing and being (Open Access),; Althaus, C.,Complementary Bureaucracy: Reimagining Weberian Impersonalism with Indigenous Relationality,; (2022) Global Census: What Race Would you Be Somewhere Else,Arlington, Virginia, American Anthropological Association, [accessed February 1, 2022],https://understandingrace.org/GlobalCensus; Cortés Describes Tenochtitlan from Cortés, Second Letter, pp. 110-114.,[accessed February 14, 2022],https://www.historians.org/teaching-and-learning/teaching-resources-for-historians/teaching-and-learning-in-the-digital-age/the-history-of-the-americas/the-conquest-of-mexico/letters-from-hernan-cortes/cortes-describes-tenochtitlan; Andrews, M.,The limits of institutional reform in development: Changing rules for realistic solutions,; Bhambra, G.K.,(2017) Why are the White Working Classes Still Being Held Responsible for Brexit and Trump? LSE Blog. Cited 4 times.,[accessed February 14, 2022]; Blessett, B., Gaynor, T.S., Witt, M., Alkadry, M.G.,Counternarratives as Critical Perspectives in Public Administration Curricula,(2016) Administrative Theory &amp; Praxis, 38 (4), pp. 267-284. Cited 41 times.; Canós-Donnay, S.,The Empire of Mali,(2019) Oxford Research Encyclopedia of African History; Danso, K., Aning, K.,African experiences and alternativity in International Relations theorizing about security,; Diamond, A.,(2019) Telling the History of the U.S. Through Its Territories. Smithsonian Magazine,  15; Drechsler, W.,Three paradigms of governance and administration: Chinese, Western and Islamic (Open Access),; Drewry, G., Butcher, T.,(1991) The Civil Service Today. Cited 85 times.,2nd ed., Oxford, Blackwells; Farazmand, A.,Administration of the Persian achaemenid world-state empire: implications for modern public administration,; FEMIA, J.V.,THE GRAMSCI PHENOMENON: SOME REFLECTIONS,; Feng, L.,Feudalism and Western Zhou China: A Criticism,(2003) Harvard Journal of Asiatic Studies, 63 (1), pp. 115-144. Cited 36 times.; Freire, P.,(2010) Pedagogy of the Oppressed. Cited 30797 times.,New York, Bloomsbury; Giroux, H.A.,Critical Pedagogy and the Resisting Intellectual Part II,(1985) Phenomenology + Pedagogy, 3 (2), pp. 84-97. Cited 7 times.; Gonzalez, F.,(1840) Elementos de ciencia administrativa. Cited 11 times.,Bogotá, Imprenta de la Enseñanza; Grindle, M.S.,(2012) Jobs for the Boys. Cited 152 times.,Cambridge, Harvard University Press; Gulrajani, N., Moloney, K.,Globalizing public administration: Today's research and tomorrow's agenda (Open Access),; Haque, M.S.,Questioning cross-cultural applicability of public administration knowledge: a critical Asian perspective,; Hooks, B.,(1981) Ain't I a Woman: Black Women and Feminism. Cited 2555 times.,London, United Kingdom, Pluto Press; Johansen, M.E.,(2019) Social Equity in the Asia-Pacific Region: Conceptualizations and Realities. Cited 7 times.,Cham, Switzerland Springer Nature; Johnson, H.N., Soeters, J.L.,Jamaican Dons, Italian godfathers and the chances of a 'reversible destiny' (Open Access),; Kim, S.,Confucian Humanitarian Intervention? Toward Democratic Theory,; Kingsley, J.D.,(1944) Representative Bureaucracy: An Interpretation of the British Civil Services. Cited 325 times.,Yellow Springs, OH, Antioch Press; Koujaenak, P.A.A.,Comparative Analysis of Buddhist Administration, Bureaucracy and New Public Administration,(2019) Journal of International Buddhist Studies, 10 (2), pp. 107-122.; Kumar, N.S., Rao, U.S.,Guidelines for value based management in Kautilya's arthashastra,; Kuru, A.T.,Secularism and state policies toward religion: The United States, France, and Turkey,; Laski, H.J.,THE COLONIAL CIVIL SERVICE,; Maizland, L.,(2020) India's Muslims: An Increasingly Marginalized Population. Backgrounder. Cited 3 times.,Washington DC, Council of Foreign Relations; Nicholson-Crotty, S., Nicholson-Crotty, J., Fernandez, S.,Will More Black Cops Matter? Officer Race and Police-Involved Homicides of Black Citizens,; Peters, B.G.,(2010) Politics of Bureaucracy. Cited 691 times.,New York, Routledge; Portillo, S., Humphrey, N., Bearfield, D.A.,Representative Bureaucracy Theory and the Implicit Embrace of Whiteness and Masculinity,; Roberts, A.,Bearing the White Man's Burden: American Empire and the Origin of Public Administration,; Said, E.W.,(1979) Orientalism. Cited 26454 times.,New York, Vintage Books; Santis, E.L.,Otherness: An unfinished project in public administration,; Teltumbde, A.,(2020) Dalits,London, Routledge India; Tummala, K.K.,(1996) Public Administration in India. Cited 24 times.,Mumbai, India, Allied Publishers; (2020) Dependencies and Areas of Special Sovereignty,Washington, DC, U.S. Department of State,  46; Yavuz, M.H., Ozturk, A.E.,Guest Editors’ Introduction: Islamism, Identity and Memory: Turkey Under Erdoğan (Open Access),</t>
+          <t>Abner, G.B., Kim, S.Y., Perry, J.L.,Building Evidence for Public Human Resource Management: Using Middle Range Theory to Link Theory and Data,; Acharya, A.,Race and racism in the founding of the modern world order,; Alatas, S.F.,Deparochialising the Canon: The Case of Sociological Theory,; Alkadry, M.G.,Reciting Colonial Scripts: Colonialism, Globalization and Democracy in the Decolonized Middle East,(2002) Administrative Theory &amp; Praxis, 24 (4), pp. 739-762. Cited 7 times.; Althaus, C.,Different paradigms of evidence and knowledge: Recognising, honouring, and celebrating Indigenous ways of knowing and being,; Althaus, C.,Complementary Bureaucracy: Reimagining Weberian Impersonalism with Indigenous Relationality,; (2022) Global Census: What Race Would you Be Somewhere Else,Arlington, Virginia, American Anthropological Association, [accessed February 1, 2022],https://understandingrace.org/GlobalCensus; Cortés Describes Tenochtitlan from Cortés, Second Letter, pp. 110-114.,[accessed February 14, 2022],https://www.historians.org/teaching-and-learning/teaching-resources-for-historians/teaching-and-learning-in-the-digital-age/the-history-of-the-americas/the-conquest-of-mexico/letters-from-hernan-cortes/cortes-describes-tenochtitlan; Andrews, M.,The limits of institutional reform in development: Changing rules for realistic solutions,; Bhambra, G.K.,(2017) Why are the White Working Classes Still Being Held Responsible for Brexit and Trump? LSE Blog. Cited 4 times.,[accessed February 14, 2022]; Blessett, B., Gaynor, T.S., Witt, M., Alkadry, M.G.,Counternarratives as Critical Perspectives in Public Administration Curricula,(2016) Administrative Theory &amp; Praxis, 38 (4), pp. 267-284. Cited 41 times.; Canós-Donnay, S.,The Empire of Mali,(2019) Oxford Research Encyclopedia of African History; Danso, K., Aning, K.,African experiences and alternativity in International Relations theorizing about security,; Diamond, A.,(2019) Telling the History of the U.S. Through Its Territories. Smithsonian Magazine,  15; Drechsler, W.,Three paradigms of governance and administration: Chinese, Western and Islamic,; Drewry, G., Butcher, T.,(1991) The Civil Service Today. Cited 85 times.,2nd ed., Oxford, Blackwells; Farazmand, A.,Administration of the Persian achaemenid world-state empire: implications for modern public administration,; FEMIA, J.V.,THE GRAMSCI PHENOMENON: SOME REFLECTIONS,; Feng, L.,Feudalism and Western Zhou China: A Criticism,(2003) Harvard Journal of Asiatic Studies, 63 (1), pp. 115-144. Cited 36 times.; Freire, P.,(2010) Pedagogy of the Oppressed. Cited 30939 times.,New York, Bloomsbury; Giroux, H.A.,Critical Pedagogy and the Resisting Intellectual Part II,(1985) Phenomenology + Pedagogy, 3 (2), pp. 84-97. Cited 7 times.; Gonzalez, F.,(1840) Elementos de ciencia administrativa. Cited 11 times.,Bogotá, Imprenta de la Enseñanza; Grindle, M.S.,(2012) Jobs for the Boys. Cited 152 times.,Cambridge, Harvard University Press; Gulrajani, N., Moloney, K.,Globalizing public administration: Today's research and tomorrow's agenda,; Haque, M.S.,Questioning cross-cultural applicability of public administration knowledge: a critical Asian perspective,; Hooks, B.,(1981) Ain't I a Woman: Black Women and Feminism. Cited 2565 times.,London, United Kingdom, Pluto Press; Johansen, M.E.,(2019) Social Equity in the Asia-Pacific Region: Conceptualizations and Realities. Cited 7 times.,Cham, Switzerland Springer Nature; Johnson, H.N., Soeters, J.L.,Jamaican Dons, Italian godfathers and the chances of a 'reversible destiny' (Open Access),; Kim, S.,Confucian Humanitarian Intervention? Toward Democratic Theory,; Kingsley, J.D.,(1944) Representative Bureaucracy: An Interpretation of the British Civil Services. Cited 326 times.,Yellow Springs, OH, Antioch Press; Koujaenak, P.A.A.,Comparative Analysis of Buddhist Administration, Bureaucracy and New Public Administration,(2019) Journal of International Buddhist Studies, 10 (2), pp. 107-122.; Kumar, N.S., Rao, U.S.,Guidelines for value based management in Kautilya's arthashastra,; Kuru, A.T.,Secularism and state policies toward religion: The United States, France, and Turkey,; Laski, H.J.,THE COLONIAL CIVIL SERVICE,; Maizland, L.,(2020) India's Muslims: An Increasingly Marginalized Population. Backgrounder. Cited 3 times.,Washington DC, Council of Foreign Relations; Nicholson-Crotty, S., Nicholson-Crotty, J., Fernandez, S.,Will More Black Cops Matter? Officer Race and Police-Involved Homicides of Black Citizens (Open Access),; Peters, B.G.,(2010) Politics of Bureaucracy. Cited 693 times.,New York, Routledge; Portillo, S., Humphrey, N., Bearfield, D.A.,Representative Bureaucracy Theory and the Implicit Embrace of Whiteness and Masculinity,; Roberts, A.,Bearing the White Man's Burden: American Empire and the Origin of Public Administration,; Said, E.W.,(1979) Orientalism. Cited 26505 times.,New York, Vintage Books; Santis, E.L.,Otherness: An unfinished project in public administration (Open Access),; Teltumbde, A.,(2020) Dalits,London, Routledge India; Tummala, K.K.,(1996) Public Administration in India. Cited 24 times.,Mumbai, India, Allied Publishers; (2020) Dependencies and Areas of Special Sovereignty,Washington, DC, U.S. Department of State,  46; Yavuz, M.H., Ozturk, A.E.,Guest Editors’ Introduction: Islamism, Identity and Memory: Turkey Under Erdoğan,</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -4022,11 +3802,6 @@
       <c r="O45" t="inlineStr">
         <is>
           <t>10.1111/puar.13512</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>Varios Paises</t>
         </is>
       </c>
     </row>
@@ -4071,7 +3846,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Abu-Shanab, E.A.,Reengineering the open government concept: An empirical support for a proposed model,; Armstrong, E.,Integrity, transparency and accountability in public administration: Recent trends, regional and international developments and emerging issues,(2005) United Nations, Department of Economic and Social Affairs, 1 (10). Cited 90 times.; Barendse, M.T., Oort, F.J., Timmerman, M.E.,Using Exploratory Factor Analysis to Determine the Dimensionality of Discrete Responses (Open Access),; Bartlett, L., Vavrus, F.,Comparative case studies: An innovative approach,(2017) Nordic Journal of Comparative and International Education (NJCIE), 1 (1), pp. 5-17. Cited 114 times.; Bonina, C., Eaton, B.,Cultivating open government data platform ecosystems through governance: Lessons from Buenos Aires, Mexico City and Montevideo (Open Access),; Brown, G., de Bie, K., Weber, D.,Identifying public land stakeholder perspectives for implementing place-based land management,; Carroll, J.B.,An analytical solution for approximating simple structure in factor analysis,; Cejudo, G.M.,New wine in old bottles: How new democracies deal with inherited bureaucratic apparatuses. The experiences of Mexico and Spain,(2007) Documento de Trabajo del CIDE, (190), pp. 1-27.; Ceron-Palma, I.,Strategies for sustainable urban systems: Introducing eco-innovation in buildings in Mexico and Spain,(2012) Doctoral dissertation. Cited 7 times.; Charron, N., Dahlström, C., Fazekas, M., Lapuente, V.,Careers, connections and corruption risks in Europe,(2016) The quality of Government Institute, pp. 343-374.; Criado, J.I., Sandoval-Almazan, R., Gil-Garcia, J.R.,Government innovation through social media,; Criado, J.I., Ruvalcaba-Gomez, E.A.,Perceptions of city managers about open government policies: Concepts, development, and implementation in the local level of government in Spain,; Criado, J.I., Ruvalcaba-Gómez, E.A., Valenzuela-Mendoza, R.,Revisiting the open government phenomenon. A meta-analysis of the international literature (Open Access),; Criado, J.I.,Digital public administration in Latin America: Digitalization, public innovation, and the future of technologies in the public sector,(2021) The Emerald handbook of public administration in Latin America, pp. 1-22.; Criado, J.I., Sandoval-Almazan, R., Valle-Cruz, D., Ruvalcaba-Gomez, E.A.,Chief information officers’ perceptions about artificial intelligence,(2021) First Monday, 26 (1). Cited 12 times.; Fedorowicz, J., Sawyer, S., Williams, C.B., Markus, M.L., Dias, M., Tyworth, M., Gantman, S., (...), Schrier, R.,Design observations for interagency collaboration,; Zanabria, V.M.F.,Open government in Mexico: Towards a realistic discussion of its feasibility (Open Access),; Ganapati, S., Reddick, C.G.,Open e-government in U.S. state governments: Survey evidence from Chief Information Officers,; Gascó, M.,(2014) Open government. Opportunities and challenges for public governance. Cited 9 times.,Springer; Goodrick, D.,(2020) Comparative case studies. Cited 12 times.,SAGE Publications Limited; Grimmelikhuijsen, S.G.,Transparency and trust. an experimental study of online disclosure and trust in government,(2012) Doctoral thesis. Cited 67 times.; Grimmelikhuijsen, S.G., Feeney, M.K.,Developing and Testing an Integrative Framework for Open Government Adoption in Local Governments (Open Access),; Ingrams, A.,Administrative Reform and the Quest for Openness: A Popperian Review of Open Government (Open Access),; Janssen, M., Charalabidis, Y., Zuiderwijk, A.,Benefits, Adoption Barriers and Myths of Open Data and Open Government (Open Access),; Jiménez, F., Villoria, M.,Party funding in Spain,(2018) SAGE Journals; Kahn, J.H.,Factor Analysis in Counseling Psychology Research, Training, and Practice: Principles, Advances, and Applications,; Kassen, M.,A promising phenomenon of open data: A case study of the Chicago open data project,; Khayyat, M., Bannister, F.,Open data licensing: More than meets the eye,; Lathrop, D., Ruma, L.,(2010) Open government: Collaboration, transparency, and participation in practice. Cited 302 times.,O’Reilly Media, Inc; Lee-Geiller, S., Lee, T.D.,Using government websites to enhance democratic E-governance: A conceptual model for evaluation,; Linders, D.,From e-government to we-government: Defining a typology for citizen coproduction in the age of social media,; Madrigal, R.,Residents' perceptions and the role of government,; Marsh, H.W., Morin, A.J.S., Parker, P.D., Kaur, G.,Exploratory structural equation modeling: An integration of the best features of exploratory and confirmatory factor analysis,; Matheus, R., Janssen, M.,A Systematic Literature Study to Unravel Transparency Enabled by Open Government Data: The Window Theory (Open Access),; Meijer, A.J., Curtin, D., Hillebrandt, M.,Open government: Connecting vision and voice (Open Access),; Nam, T.,Citizens' attitudes toward Open Government and Government 2.0,; Painter, M., Peters, B.G.,Administrative traditions in comparative perspective: Families, groups and hybrids,; Panagiotopoulos, P., Bigdeli, A.Z., Sams, S.,Citizen-government collaboration on social media: The case of Twitter in the 2011 riots in England,; Parks, W.,Open Government Principle: Applying the right to know under the Constitution,(1957) Geo. Wash. L. Rev, 26, p. 1. Cited 80 times.; Parrado, S., Dahlström, C., Lapuente, V.,Mayors and Corruption in Spain: Same Rules, Different Outcomes,; Pérez, E., Medrano, L.,Análisis factorial exploratorio: Bases conceptuales y metodológicas,(2010) Revista Argentina de Ciencias del Comportamiento, 2 (1), pp. 58-66. Cited 174 times.; Pérez-Gil, J.A., Chacón Moscoso, S., Moreno Rodríguez, R.,Construct validity: The use of factor analysis,; Peters, B.G.,Administrative traditions: Understanding the roots of contemporary administrative behavior,; Piotrowski, S., Rosenbloom, D.H., Kang, S., Ingrams, A.,Levels of Value Integration in Federal Agencies' Mission and Value Statements: Is Open Government a Performance Target of U.S. Federal Agencies?,; Gómez, E.A.R.,Perceptions about the concept and benefits of open government in local governments in Spain,; Gómez, E.A.R., Criado, J.I., Gil-Garcia, J.R.,Public managers' perceptions about open government: A factor analysis of concepts &amp; values,; Ruvalcaba-Gomez, E.A.,Open government and citizen participation: Perceptions between civil society organizations and government. (Open Access),; Ruvalcaba-Gomez, E.A., Sandoval-Almazan, R., Ignacio Criado, J., Valle-Cruz, D.,Understanding the perspectives of open government: Exploratory factor analysis in Spain and Mexico,; Ruvalcaba-Gomez, E.A., Criado, J.I., Gil-Garcia, J.R.,Analyzing open government policy adoption through the multiple streams framework: The roles of policy entrepreneurs in the case of Madrid,; Sandoval-Almazan, R., Gil-Garcia, J.R.,Towards an evaluation model for open government: A preliminary proposal (Open Access),; Sandoval-Almazan, R., Ruvalcaba-Gomez, E.A., Criado, J.I.,Municipal open government an exploratory research: Factor analysis for Mexican municipalities,; Sandoval-Almazan, R.,Open government and transparency in mexico: Longitudinal study 2015-2018 (Open Access),; Sandoval-Almazan, R.,Medición del Gobierno Abierto. en Gobierno Abierto,(2021) Innovación Pública y Colaboración Ciudadana, pp. 149-172.; Sandoval-Almazan, R.,Participación ciudadana y Datos colaborativos,(2021) en Gobierno Abierto en México Estudios de Caso en Gobiernos Subnacionales, 2, pp. 57-88.; Sandoval-Almazan, R., Valle Gonzalez, L., Millan Vargas, A.,Barriers for Open Government Implementation at Municipal Level: The Case of the State of Mexico,; Schmidthuber, L., Stütz, S., Hilgers, D.,Outcomes of open government: Does an online platform improve citizens’ perception of local government?,; Scholl, H.J., Kubicek, H., Cimander, R., Klischewski, R.,Process integration, information sharing, and system interoperation in government: A comparative case analysis,; Solleiro, J.L., Luna, R.C.K., Herrera, A., Montiel, M.,A comparative analysis of innovation policy in Mexico, Spain, Chile and Korea,; Vera-Martínez, M.C.,Los datos abiertos y el plan de acción de gobierno abierto en México 2013-2015,(2018) Nóesis: Revista de Ciencias Sociales y Humanidades, 27 (54), pp. 1-18. Cited 4 times.; Villoria, M., Jiménez, F., Revuelta, A.,Corruption perception and collective action,(2014) Corruption in the contemporary world, pp. 197-222. Cited 5 times.; Mendieta, M.V., Alonso, Á.I.,Developments in transparency in the spanish municipalities: An analytical revision of the last research,; Whitmore, A.,Using open government data to predict war: A case study of data and systems challenges,; Wijnhoven, F., Ehrenhard, M., Kuhn, J.,Open government objectives and participation motivations,; Williams, B., Onsman, A., Brown, T.,Exploratory factor analysis: A five-step guide for novices (Open Access),; Wirtz, B.W., Weyerer, J.C., Rösch, M.,Citizen and Open Government: An Empirical Analysis of Antecedents of Open Government Data,; Yang, T.-M., Pardo, T., Wu, Y.-J.,How is information shared across the boundaries of government agencies? An e-Government case study,; Zhao, Y., Fan, B.,Exploring open government data capacity of government agency: Based on the resource-based theory,; Zuiderwijk, A., Shinde, R., Janssen, M.,Investigating the attainment of open government data objectives: is there a mismatch between objectives and results? (Open Access),</t>
+          <t>Abu-Shanab, E.A.,Reengineering the open government concept: An empirical support for a proposed model,; Armstrong, E.,Integrity, transparency and accountability in public administration: Recent trends, regional and international developments and emerging issues,(2005) United Nations, Department of Economic and Social Affairs, 1 (10). Cited 91 times.; Barendse, M.T., Oort, F.J., Timmerman, M.E.,Using Exploratory Factor Analysis to Determine the Dimensionality of Discrete Responses,; Bartlett, L., Vavrus, F.,Comparative case studies: An innovative approach,(2017) Nordic Journal of Comparative and International Education (NJCIE), 1 (1), pp. 5-17. Cited 115 times.; Bonina, C., Eaton, B.,Cultivating open government data platform ecosystems through governance: Lessons from Buenos Aires, Mexico City and Montevideo,; Brown, G., de Bie, K., Weber, D.,Identifying public land stakeholder perspectives for implementing place-based land management,; Carroll, J.B.,An analytical solution for approximating simple structure in factor analysis,; Cejudo, G.M.,New wine in old bottles: How new democracies deal with inherited bureaucratic apparatuses. The experiences of Mexico and Spain,(2007) Documento de Trabajo del CIDE, (190), pp. 1-27.; Ceron-Palma, I.,Strategies for sustainable urban systems: Introducing eco-innovation in buildings in Mexico and Spain,(2012) Doctoral dissertation. Cited 7 times.; Charron, N., Dahlström, C., Fazekas, M., Lapuente, V.,Careers, connections and corruption risks in Europe,(2016) The quality of Government Institute, pp. 343-374.; Criado, J.I., Sandoval-Almazan, R., Gil-Garcia, J.R.,Government innovation through social media,; Criado, J.I., Ruvalcaba-Gomez, E.A.,Perceptions of city managers about open government policies: Concepts, development, and implementation in the local level of government in Spain,; Criado, J.I., Ruvalcaba-Gómez, E.A., Valenzuela-Mendoza, R.,Revisiting the open government phenomenon. A meta-analysis of the international literature,; Criado, J.I.,Digital public administration in Latin America: Digitalization, public innovation, and the future of technologies in the public sector,(2021) The Emerald handbook of public administration in Latin America, pp. 1-22.; Criado, J.I., Sandoval-Almazan, R., Valle-Cruz, D., Ruvalcaba-Gomez, E.A.,Chief information officers’ perceptions about artificial intelligence,(2021) First Monday, 26 (1). Cited 12 times.; Fedorowicz, J., Sawyer, S., Williams, C.B., Markus, M.L., Dias, M., Tyworth, M., Gantman, S., (...), Schrier, R.,Design observations for interagency collaboration,; Zanabria, V.M.F.,Open government in Mexico: Towards a realistic discussion of its feasibility,; Ganapati, S., Reddick, C.G.,Open e-government in U.S. state governments: Survey evidence from Chief Information Officers,; Gascó, M.,(2014) Open government. Opportunities and challenges for public governance. Cited 9 times.,Springer; Goodrick, D.,(2020) Comparative case studies. Cited 12 times.,SAGE Publications Limited; Grimmelikhuijsen, S.G.,Transparency and trust. an experimental study of online disclosure and trust in government,(2012) Doctoral thesis. Cited 67 times.; Grimmelikhuijsen, S.G., Feeney, M.K.,Developing and Testing an Integrative Framework for Open Government Adoption in Local Governments,; Ingrams, A.,Administrative Reform and the Quest for Openness: A Popperian Review of Open Government,; Janssen, M., Charalabidis, Y., Zuiderwijk, A.,Benefits, Adoption Barriers and Myths of Open Data and Open Government (Open Access),; Jiménez, F., Villoria, M.,Party funding in Spain,(2018) SAGE Journals; Kahn, J.H.,Factor Analysis in Counseling Psychology Research, Training, and Practice: Principles, Advances, and Applications,; Kassen, M.,A promising phenomenon of open data: A case study of the Chicago open data project,; Khayyat, M., Bannister, F.,Open data licensing: More than meets the eye,; Lathrop, D., Ruma, L.,(2010) Open government: Collaboration, transparency, and participation in practice. Cited 304 times.,O’Reilly Media, Inc; Lee-Geiller, S., Lee, T.D.,Using government websites to enhance democratic E-governance: A conceptual model for evaluation,; Linders, D.,From e-government to we-government: Defining a typology for citizen coproduction in the age of social media (Open Access),; Madrigal, R.,Residents' perceptions and the role of government,; Marsh, H.W., Morin, A.J.S., Parker, P.D., Kaur, G.,Exploratory structural equation modeling: An integration of the best features of exploratory and confirmatory factor analysis (Open Access),; Matheus, R., Janssen, M.,A Systematic Literature Study to Unravel Transparency Enabled by Open Government Data: The Window Theory (Open Access),; Meijer, A.J., Curtin, D., Hillebrandt, M.,Open government: Connecting vision and voice,; Nam, T.,Citizens' attitudes toward Open Government and Government 2.0,; Painter, M., Peters, B.G.,Administrative traditions in comparative perspective: Families, groups and hybrids (Open Access),; Panagiotopoulos, P., Bigdeli, A.Z., Sams, S.,Citizen-government collaboration on social media: The case of Twitter in the 2011 riots in England,; Parks, W.,Open Government Principle: Applying the right to know under the Constitution,(1957) Geo. Wash. L. Rev, 26, p. 1. Cited 80 times.; Parrado, S., Dahlström, C., Lapuente, V.,Mayors and Corruption in Spain: Same Rules, Different Outcomes,; Pérez, E., Medrano, L.,Análisis factorial exploratorio: Bases conceptuales y metodológicas,(2010) Revista Argentina de Ciencias del Comportamiento, 2 (1), pp. 58-66. Cited 174 times.; Pérez-Gil, J.A., Chacón Moscoso, S., Moreno Rodríguez, R.,Construct validity: The use of factor analysis (Open Access),; Peters, B.G.,Administrative traditions: Understanding the roots of contemporary administrative behavior,; Piotrowski, S., Rosenbloom, D.H., Kang, S., Ingrams, A.,Levels of Value Integration in Federal Agencies' Mission and Value Statements: Is Open Government a Performance Target of U.S. Federal Agencies?,; Gómez, E.A.R.,Perceptions about the concept and benefits of open government in local governments in Spain,; Gómez, E.A.R., Criado, J.I., Gil-Garcia, J.R.,Public managers' perceptions about open government: A factor analysis of concepts &amp; values,; Ruvalcaba-Gomez, E.A.,Open government and citizen participation: Perceptions between civil society organizations and government.,; Ruvalcaba-Gomez, E.A., Sandoval-Almazan, R., Ignacio Criado, J., Valle-Cruz, D.,Understanding the perspectives of open government: Exploratory factor analysis in Spain and Mexico,; Ruvalcaba-Gomez, E.A., Criado, J.I., Gil-Garcia, J.R.,Analyzing open government policy adoption through the multiple streams framework: The roles of policy entrepreneurs in the case of Madrid,; Sandoval-Almazan, R., Gil-Garcia, J.R.,Towards an evaluation model for open government: A preliminary proposal,; Sandoval-Almazan, R., Ruvalcaba-Gomez, E.A., Criado, J.I.,Municipal open government an exploratory research: Factor analysis for Mexican municipalities (Open Access),; Sandoval-Almazan, R.,Open government and transparency in mexico: Longitudinal study 2015-2018 (Open Access),; Sandoval-Almazan, R.,Medición del Gobierno Abierto. en Gobierno Abierto,(2021) Innovación Pública y Colaboración Ciudadana, pp. 149-172.; Sandoval-Almazan, R.,Participación ciudadana y Datos colaborativos,(2021) en Gobierno Abierto en México Estudios de Caso en Gobiernos Subnacionales, 2, pp. 57-88.; Sandoval-Almazan, R., Valle Gonzalez, L., Millan Vargas, A.,Barriers for Open Government Implementation at Municipal Level: The Case of the State of Mexico,; Schmidthuber, L., Stütz, S., Hilgers, D.,Outcomes of open government: Does an online platform improve citizens’ perception of local government?,; Scholl, H.J., Kubicek, H., Cimander, R., Klischewski, R.,Process integration, information sharing, and system interoperation in government: A comparative case analysis,; Solleiro, J.L., Luna, R.C.K., Herrera, A., Montiel, M.,A comparative analysis of innovation policy in Mexico, Spain, Chile and Korea,; Vera-Martínez, M.C.,Los datos abiertos y el plan de acción de gobierno abierto en México 2013-2015,(2018) Nóesis: Revista de Ciencias Sociales y Humanidades, 27 (54), pp. 1-18. Cited 4 times.; Villoria, M., Jiménez, F., Revuelta, A.,Corruption perception and collective action,(2014) Corruption in the contemporary world, pp. 197-222. Cited 5 times.; Mendieta, M.V., Alonso, Á.I.,Developments in transparency in the spanish municipalities: An analytical revision of the last research (Open Access),; Whitmore, A.,Using open government data to predict war: A case study of data and systems challenges,; Wijnhoven, F., Ehrenhard, M., Kuhn, J.,Open government objectives and participation motivations,; Williams, B., Onsman, A., Brown, T.,Exploratory factor analysis: A five-step guide for novices,; Wirtz, B.W., Weyerer, J.C., Rösch, M.,Citizen and Open Government: An Empirical Analysis of Antecedents of Open Government Data (Open Access),; Yang, T.-M., Pardo, T., Wu, Y.-J.,How is information shared across the boundaries of government agencies? An e-Government case study (Open Access),; Zhao, Y., Fan, B.,Exploring open government data capacity of government agency: Based on the resource-based theory (Open Access),; Zuiderwijk, A., Shinde, R., Janssen, M.,Investigating the attainment of open government data objectives: is there a mismatch between objectives and results?,</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -4091,22 +3866,17 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>No Encontrado</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>No Encontrado</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
           <t>10.1080/01900692.2022.2075383</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>Varios Paises</t>
         </is>
       </c>
     </row>
@@ -4151,7 +3921,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Arellano Gault, D.,Corruption as an organizational process: Understanding the logic of the denormalization of corruption (Open Access),; Ariely, G., Uslaner, E.M.,Corruption, fairness, and inequality,; Azcona, J.M., del Prado, C.,Institutional crisis in post-conflict Peru: 1992-2018 (Open Access),; Valenzuela, C.C., Neyra, Y.M.,International investment arbitration and the international fight against corruption (Open Access),; Chaparro, H., Espinosa, A., Páez, D.,Perception of efficacy in the control of corruption and its relation with socioemotional climate and Peruvian national identity: An experimental study (Open Access),; Cohaila, E.,Interpersonal trust and corruption in Peru: Structural equation modeling (Open Access),; Freundt-Thurne, Ú., Tomás-Rojas, A., Gallardo-Echenique, E.,Common behaviors related to corruption in lima university students,; Goldstein, D.M., Drybread, K.,The social life of corruption in Latin America (Open Access),; Gutiérrez-Magaña, H.M.,Trajectories and political context of grass-roots citizen organizations: The control of corruption in Ecuador (Open Access),; López-Cazar, I., Papyrakis, E., Pellegrini, L.,The Extractive Industries Transparency Initiative (EITI) and corruption in Latin America: Evidence from Colombia, Guatemala, Honduras, Peru, and Trinidad and Tobago (Open Access),; Mazuera-Arias, R., Albornoz-Arias, N., Biasoli-Alves, G., Ortiz, F.A.,Corruption and contraband across Norte of Santander Department (Colombia) and Táchira State (Venezuela) international border,; Meza, O., Pérez-Chiqués, E.,Corruption consolidation in local governments: A grounded analytical framework,; Alejandra, M.-L., Marcela, P., Gajindranath, M.,Transparencia y corrupción: Rol del habitus en las disputas por el poder (Open Access),; Paffarini, J.,The Lava Jato investigation and the political instability in Latin America: toward a new pattern of the parliamentary control over the Presidents? (Open Access),; Paredes, M., Encinas, D.,Perú 2019: Political crisis and institutional outcome,; Peeters, R., Dussauge Laguna, M.I.,Acting out or playing along: A typology of citizens' low trust responses to public organizations,; Viana, C.J.P., Ruiz, J.L.R., Ramírez, C.A., Camargo, J.L.R.,The joint effect of democracy and economic freedom on corruption (Open Access),; DE LEÓN, Z.P., Ayala, L.G.,Peru 2018: Political precariousness in the times of Lava Jato (Open Access),; Pozsgai-Alvarez, J.,The political cycle of fighting corruption: Peru’s experience with its first national anti-corruption commission (Open Access),; (2019) XI Encuesta nacional anual sobre percepciones de corrupción Informe especial preparado para Proética. Cited 2 times.,https://cdn01.pucp.education/idehpucp/wp-content/uploads/2021/02/15034723/PRO%C3%89TICA-2019.pdf,  21; Sánchez, C.M., Lehnert, K.,Firm-level trust in emerging markets: The moderating effect on the institutional strength- corruption relationship in Mexico and Peru (Open Access),; Soto-Cordova, M.M., León-Cárdenas, S., Huayhuas-Caripaza, K., Sotomayor-Parian, R.M.,Proposal for a software architecture as a tool for the fight against corruption in the regional governments of Peru (Open Access),; Useche, A.J., Reyes, G.E.,Corruption, competitiveness and economic growth: Evidence from Latin American and Caribbean countries 2004-2017 (Open Access),; Wood, T.,State responsibility for the acts of corrupt officials: Applying the 'reasonable foreign investor' standard,</t>
+          <t>Arellano Gault, D.,Corruption as an organizational process: Understanding the logic of the denormalization of corruption,; Ariely, G., Uslaner, E.M.,Corruption, fairness, and inequality,; Azcona, J.M., del Prado, C.,Institutional crisis in post-conflict Peru: 1992-2018,; Valenzuela, C.C., Neyra, Y.M.,International investment arbitration and the international fight against corruption,; Chaparro, H., Espinosa, A., Páez, D.,Perception of efficacy in the control of corruption and its relation with socioemotional climate and Peruvian national identity: An experimental study (Open Access),; Cohaila, E.,Interpersonal trust and corruption in Peru: Structural equation modeling (Open Access),; Freundt-Thurne, Ú., Tomás-Rojas, A., Gallardo-Echenique, E.,Common behaviors related to corruption in lima university students (Open Access),; Goldstein, D.M., Drybread, K.,The social life of corruption in Latin America (Open Access),; Gutiérrez-Magaña, H.M.,Trajectories and political context of grass-roots citizen organizations: The control of corruption in Ecuador (Open Access),; López-Cazar, I., Papyrakis, E., Pellegrini, L.,The Extractive Industries Transparency Initiative (EITI) and corruption in Latin America: Evidence from Colombia, Guatemala, Honduras, Peru, and Trinidad and Tobago (Open Access),; Mazuera-Arias, R., Albornoz-Arias, N., Biasoli-Alves, G., Ortiz, F.A.,Corruption and contraband across Norte of Santander Department (Colombia) and Táchira State (Venezuela) international border (Open Access),; Meza, O., Pérez-Chiqués, E.,Corruption consolidation in local governments: A grounded analytical framework (Open Access),; Alejandra, M.-L., Marcela, P., Gajindranath, M.,Transparencia y corrupción: Rol del habitus en las disputas por el poder,; Paffarini, J.,The Lava Jato investigation and the political instability in Latin America: toward a new pattern of the parliamentary control over the Presidents? (Open Access),; Paredes, M., Encinas, D.,Perú 2019: Political crisis and institutional outcome (Open Access),; Peeters, R., Dussauge Laguna, M.I.,Acting out or playing along: A typology of citizens' low trust responses to public organizations (Open Access),; Viana, C.J.P., Ruiz, J.L.R., Ramírez, C.A., Camargo, J.L.R.,The joint effect of democracy and economic freedom on corruption (Open Access),; DE LEÓN, Z.P., Ayala, L.G.,Peru 2018: Political precariousness in the times of Lava Jato (Open Access),; Pozsgai-Alvarez, J.,The political cycle of fighting corruption: Peru’s experience with its first national anti-corruption commission,; (2019) XI Encuesta nacional anual sobre percepciones de corrupción Informe especial preparado para Proética. Cited 2 times.,https://cdn01.pucp.education/idehpucp/wp-content/uploads/2021/02/15034723/PRO%C3%89TICA-2019.pdf,  21; Sánchez, C.M., Lehnert, K.,Firm-level trust in emerging markets: The moderating effect on the institutional strength- corruption relationship in Mexico and Peru,; Soto-Cordova, M.M., León-Cárdenas, S., Huayhuas-Caripaza, K., Sotomayor-Parian, R.M.,Proposal for a software architecture as a tool for the fight against corruption in the regional governments of Peru (Open Access),; Useche, A.J., Reyes, G.E.,Corruption, competitiveness and economic growth: Evidence from Latin American and Caribbean countries 2004-2017,; Wood, T.,State responsibility for the acts of corrupt officials: Applying the 'reasonable foreign investor' standard (Open Access),</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -4182,11 +3952,6 @@
       <c r="O47" t="inlineStr">
         <is>
           <t>10.31876/rcs.v28i.38162</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>Peru</t>
         </is>
       </c>
     </row>
@@ -4231,7 +3996,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Agyepong, I.A., Nagai, R.A.," We charge them; otherwise we cannot run the hospital" front line workers, clients and health financing policy implementation gaps in Ghana,; Amengual, M., Dargent, E.,The social determinants of enforcement: Integrating politics with limited state capacity,(2020) The Politics of Institutional Weakness in Latin America, pp. 161-182. Cited 8 times.; Aria, M., Cuccurullo, C.,bibliometrix: An R-tool for comprehensive science mapping analysis,; Ballvé, T.,Everyday state formation: Territory, decentralization, and the Narco Landgrab in Colombia (Open Access),; Lü, X.,Taxation without representation in contemporary rural China,; Bertelli, A.M., Hassan, M., Honig, D., Rogger, D., Williams, M.J.,An agenda for the study of Public Administration in Developing Countries (Open Access),; Bhavnani, R.R., Lee, A.,Local embeddedness and bureaucratic performance: Evidence from India,; biblioshiny. The shiny interface for bibliometrix,https://www.bibliometrix.org/Biblioshiny.html,  9; Brierley, S.,Unprincipled Principals: Co-opted Bureaucrats and Corruption in Ghana (Open Access),; Brinks, D.M., Levitsky, S., Murillo, M.V.,(2020) The Politics of Institutional Weakness in Latin America. Cited 29 times.,Cambridge University Press, (eds). Cambridge; Brodkin, E.Z.,Bureaucracy redux: Management reformism and the welfare state,; Brodkin, E.,Accountability in street-level organizations,; Bustos, E.O.,Organizational Reputation in the Public Administration: A Systematic Literature Review,; Campos, S.A., Peeters, R.,Policy improvisation: How frontline workers cope with public service gaps in developing countries—The case of Mexico's Prospera program,; Chudnovsky, M., Peeters, R.,The unequal distribution of administrative burden: A framework and an illustrative case study for understanding variation in people's experience of burdens,; Chudnovsky, M., Peeters, R.,A cascade of exclusion: administrative burdens and access to citizenship in the case of Argentina’s National Identity Document,; Cobo, M.J., López-Herrera, A.G., Herrera-Viedma, E., Herrera, F.,An approach for detecting, quantifying, and visualizing the evolution of a research field: A practical application to the Fuzzy Sets Theory field,; Dasandi, N., Esteve, M.,The Politics–Bureaucracy Interface in Developing Countries (Open Access),; Diarra, A., Ousseini, A.,The coping strategies of front-line health workers in the context of user fee exemptions in Niger (Open Access),; Ehrhardt, D.,Indigeneship, bureaucratic discretion, and institutional change in Northern Nigeria (Open Access),; Eiró, F.,The Vicious Cycle in the Bolsa Família Program’s Implementation: Discretionality and the Challenge of Social Rights Consolidation in Brazil (Open Access),; Evans, T.,Professionals, managers and discretion: Critiquing street-level bureaucracy (Open Access),; Gibson, D.,The gaps in the gaze in South African hospitals,; Harris, A.S., Meyer-Sahling, J.-H., Sass Mikkelsen, K.,Activating the ‘big man’: Social status, patronage networks and pro-social behavior in African bureaucracies,(2022) Journal of Public Administration Research and Theory; Holland, A.C.,Forbearance,; Holland, A.C.,The Distributive Politics of Enforcement,; Hupe, P., Buffat, A.,A Public Service Gap: Capturing contexts in a comparative approach of street-level bureaucracy,; Hupe, P., Hill, M.,Street-level bureaucracy and public accountability,; Jitta, J., Whyte, S.R., Nshakira, N.,The availability of drugs: What does it mean in Ugandan primary care,; Justesen, M.K., Bjørnskov, C.,Exploiting the Poor: Bureaucratic Corruption and Poverty in Africa,; Kelly, G.,Patient agency and contested notions of disability in social assistance applications in South Africa,; Lameck, W., Hulst, R.,Explaining coping strategies of agricultural extension officers in Tanzania: the role of the wider institutional context,; Lima, L.L., D’Ascenzi, L.,The role of street-level bureaucracy in the implementation and (Re)formulation of the health service’s humanization policy in porto alegre (rs) (Open Access),; Lipsky, M.,Street-level bureaucracy: Dilemmas of the individual in public services,; Lotta, G., Pires, R.,Street-level bureaucracy research and social inequality,; Mahler, A.G.,(2018) From the Tricontinental to the Global South: Race, Radicalism, and Transnational Solidarity. Cited 89 times.,Durham, NC, Duke University Press; Mangla, A.,Bureaucratic norms and state capacity in India: Implementing primary education in the Himalayan region,; Masood, A., Nisar, M.A.,Crushed between two stones: Competing institutional logics in the implementation of maternity leave policies in Pakistan,; Masood, A., Nisar, M.A.,Repairing the State: Policy Repair in the Frontline Bureaucracy,; McDonnell, E.M.,Patchwork Leviathan: How Pockets of Bureaucratic Governance Flourish within Institutionally Diverse Developing States,; Moher, D., Liberati, A., Tetzlaff, J., Altman, D.G., Antes, G., Atkins, D., Barbour, V., (...), Tugwell, P.,Preferred reporting items for systematic reviews and meta-analyses: The PRISMA statement,; Nichter, S.,Vote buying or turnout buying? Machine politics and the secret ballot,; Nieto Morales, F., Heyse, L., del Carmen Pardo, M., Wittek, R.,Building enforcement capacity: Evidence from the mexican civil service reform (Open Access),; Nisar, M.A.,Overcoming resistance to resistance in public administration: Resistance strategies of marginalized publics in citizen-state interactions,; Norman, D.,(2013) The Design of Everyday Things: Revised and Expanded Edition. Cited 6655 times.,New York, Basic Books; North, D.C.,(1990) Institutions, Institutional Change and Economic Performance. Cited 24901 times.,Cambridge, Cambridge University Press; O'Brien, K.J., Li, L.,Selective policy implementation in rural China (Open Access),; Ostrom, E.,Understanding institutional diversity,; Peeters, R., Dussauge Laguna, M.I.,Acting out or playing along: A typology of citizens' low trust responses to public organizations,; Peeters, R., Gofen, A., Meza, O.,Gaming the system: Responses to dissatisfaction with public services beyond exit and voice,; Peeters, R., Trujillo Jiménez, H., O'Connor, E., Ogarrio Rojas, P., González Galindo, M., Morales Tenorio, D.,Low-trust bureaucracy: Understanding the Mexican bureaucratic experience,; Pepinsky, T.B., Pierskalla, J.H., Sacks, A.,Bureaucracy and Service Delivery,; Perelmiter, L.,(2016) Burocracia plebeya: la trastienda de la asistencia social en el Estado argentino. Cited 23 times.,Buenos Aires, Argentina, UNSAM; Perelmiter, L.,“Fairness” in an unequal society: Welfare workers, labor inspectors and the embedded moralities of street-level bureaucracy in Argentina (Open Access),; Satyamurti, C.,(1981) Occupational Survival: The Case of the Local Authority Social Worker. Cited 91 times.,Oxford, Blackwell Publishing; Smith-Oka, V.,Managing Labor and Delivery among Impoverished Populations in Mexico: Cervical Examinations as Bureaucratic Practice,; SundstrÖm, A.,VIOLENCE AND THE COSTS OF HONESTY: RETHINKING BUREAUCRATS' CHOICES TO TAKE BRIBES,; Thomann, E.,Is output performance all about the resources? A fuzzy-set qualitative comparative analysis of street-level Bureaucrats In Switzerland (Open Access),; Tummers, L.L.G., Bekkers, V., Vink, E., Musheno, M.,Coping during Public Service Delivery: A Conceptualization and Systematic Review of the Literature (Open Access),; Usman, M., Ali, M., Mughal, F., Agyemang-Mintah, P.,Policy Alienation and Street-level Bureaucrats' Psychological Wellbeing: The Mediating Role of Alienative Commitment (Open Access),; Walker, L., Gilson, L.,'We are bitter but we are satisfied': Nurses as street-level bureaucrats in South Africa,; Williams, M.J.,Beyond state capacity: Bureaucratic performance, policy implementation and reform (Open Access),; (2020) ,https://worldjusticeproject.org/sites/default/files/documents/WJP-ROLI-2020-Online_0.pdf,  65</t>
+          <t>Agyepong, I.A., Nagai, R.A.," We charge them; otherwise we cannot run the hospital" front line workers, clients and health financing policy implementation gaps in Ghana,; Amengual, M., Dargent, E.,The social determinants of enforcement: Integrating politics with limited state capacity,(2020) The Politics of Institutional Weakness in Latin America, pp. 161-182. Cited 8 times.; Aria, M., Cuccurullo, C.,bibliometrix: An R-tool for comprehensive science mapping analysis,; Ballvé, T.,Everyday state formation: Territory, decentralization, and the Narco Landgrab in Colombia,; Lü, X.,Taxation without representation in contemporary rural China,; Bertelli, A.M., Hassan, M., Honig, D., Rogger, D., Williams, M.J.,An agenda for the study of Public Administration in Developing Countries,; Bhavnani, R.R., Lee, A.,Local embeddedness and bureaucratic performance: Evidence from India,; biblioshiny. The shiny interface for bibliometrix,https://www.bibliometrix.org/Biblioshiny.html,  9; Brierley, S.,Unprincipled Principals: Co-opted Bureaucrats and Corruption in Ghana,; Brinks, D.M., Levitsky, S., Murillo, M.V.,(2020) The Politics of Institutional Weakness in Latin America. Cited 29 times.,Cambridge University Press, (eds). Cambridge; Brodkin, E.Z.,Bureaucracy redux: Management reformism and the welfare state,; Brodkin, E.,Accountability in street-level organizations,; Bustos, E.O.,Organizational Reputation in the Public Administration: A Systematic Literature Review,; Campos, S.A., Peeters, R.,Policy improvisation: How frontline workers cope with public service gaps in developing countries—The case of Mexico's Prospera program,; Chudnovsky, M., Peeters, R.,The unequal distribution of administrative burden: A framework and an illustrative case study for understanding variation in people's experience of burdens,; Chudnovsky, M., Peeters, R.,A cascade of exclusion: administrative burdens and access to citizenship in the case of Argentina’s National Identity Document,; Cobo, M.J., López-Herrera, A.G., Herrera-Viedma, E., Herrera, F.,An approach for detecting, quantifying, and visualizing the evolution of a research field: A practical application to the Fuzzy Sets Theory field,; Dasandi, N., Esteve, M.,The Politics–Bureaucracy Interface in Developing Countries,; Diarra, A., Ousseini, A.,The coping strategies of front-line health workers in the context of user fee exemptions in Niger (Open Access),; Ehrhardt, D.,Indigeneship, bureaucratic discretion, and institutional change in Northern Nigeria (Open Access),; Eiró, F.,The Vicious Cycle in the Bolsa Família Program’s Implementation: Discretionality and the Challenge of Social Rights Consolidation in Brazil,; Evans, T.,Professionals, managers and discretion: Critiquing street-level bureaucracy,; Gibson, D.,The gaps in the gaze in South African hospitals,; Harris, A.S., Meyer-Sahling, J.-H., Sass Mikkelsen, K.,Activating the ‘big man’: Social status, patronage networks and pro-social behavior in African bureaucracies,(2022) Journal of Public Administration Research and Theory; Holland, A.C.,Forbearance,; Holland, A.C.,The Distributive Politics of Enforcement,; Hupe, P., Buffat, A.,A Public Service Gap: Capturing contexts in a comparative approach of street-level bureaucracy,; Hupe, P., Hill, M.,Street-level bureaucracy and public accountability (Open Access),; Jitta, J., Whyte, S.R., Nshakira, N.,The availability of drugs: What does it mean in Ugandan primary care (Open Access),; Justesen, M.K., Bjørnskov, C.,Exploiting the Poor: Bureaucratic Corruption and Poverty in Africa,; Kelly, G.,Patient agency and contested notions of disability in social assistance applications in South Africa,; Lameck, W., Hulst, R.,Explaining coping strategies of agricultural extension officers in Tanzania: the role of the wider institutional context,; Lima, L.L., D’Ascenzi, L.,The role of street-level bureaucracy in the implementation and (Re)formulation of the health service’s humanization policy in porto alegre (rs),; Lipsky, M.,Street-level bureaucracy: Dilemmas of the individual in public services,; Lotta, G., Pires, R.,Street-level bureaucracy research and social inequality,; Mahler, A.G.,(2018) From the Tricontinental to the Global South: Race, Radicalism, and Transnational Solidarity. Cited 90 times.,Durham, NC, Duke University Press; Mangla, A.,Bureaucratic norms and state capacity in India: Implementing primary education in the Himalayan region,; Masood, A., Nisar, M.A.,Crushed between two stones: Competing institutional logics in the implementation of maternity leave policies in Pakistan,; Masood, A., Nisar, M.A.,Repairing the State: Policy Repair in the Frontline Bureaucracy,; McDonnell, E.M.,Patchwork Leviathan: How Pockets of Bureaucratic Governance Flourish within Institutionally Diverse Developing States,; Moher, D., Liberati, A., Tetzlaff, J., Altman, D.G., Antes, G., Atkins, D., Barbour, V., (...), Tugwell, P.,Preferred reporting items for systematic reviews and meta-analyses: The PRISMA statement,; Nichter, S.,Vote buying or turnout buying? Machine politics and the secret ballot,; Nieto Morales, F., Heyse, L., del Carmen Pardo, M., Wittek, R.,Building enforcement capacity: Evidence from the mexican civil service reform (Open Access),; Nisar, M.A.,Overcoming resistance to resistance in public administration: Resistance strategies of marginalized publics in citizen-state interactions,; Norman, D.,(2013) The Design of Everyday Things: Revised and Expanded Edition. Cited 6690 times.,New York, Basic Books; North, D.C.,(1990) Institutions, Institutional Change and Economic Performance. Cited 24945 times.,Cambridge, Cambridge University Press; O'Brien, K.J., Li, L.,Selective policy implementation in rural China (Open Access),; Ostrom, E.,Understanding institutional diversity (Open Access),; Peeters, R., Dussauge Laguna, M.I.,Acting out or playing along: A typology of citizens' low trust responses to public organizations,; Peeters, R., Gofen, A., Meza, O.,Gaming the system: Responses to dissatisfaction with public services beyond exit and voice,; Peeters, R., Trujillo Jiménez, H., O'Connor, E., Ogarrio Rojas, P., González Galindo, M., Morales Tenorio, D.,Low-trust bureaucracy: Understanding the Mexican bureaucratic experience,; Pepinsky, T.B., Pierskalla, J.H., Sacks, A.,Bureaucracy and Service Delivery,; Perelmiter, L.,(2016) Burocracia plebeya: la trastienda de la asistencia social en el Estado argentino. Cited 23 times.,Buenos Aires, Argentina, UNSAM; Perelmiter, L.,“Fairness” in an unequal society: Welfare workers, labor inspectors and the embedded moralities of street-level bureaucracy in Argentina (Open Access),; Satyamurti, C.,(1981) Occupational Survival: The Case of the Local Authority Social Worker. Cited 91 times.,Oxford, Blackwell Publishing; Smith-Oka, V.,Managing Labor and Delivery among Impoverished Populations in Mexico: Cervical Examinations as Bureaucratic Practice (Open Access),; SundstrÖm, A.,VIOLENCE AND THE COSTS OF HONESTY: RETHINKING BUREAUCRATS' CHOICES TO TAKE BRIBES (Open Access),; Thomann, E.,Is output performance all about the resources? A fuzzy-set qualitative comparative analysis of street-level Bureaucrats In Switzerland (Open Access),; Tummers, L.L.G., Bekkers, V., Vink, E., Musheno, M.,Coping during Public Service Delivery: A Conceptualization and Systematic Review of the Literature (Open Access),; Usman, M., Ali, M., Mughal, F., Agyemang-Mintah, P.,Policy Alienation and Street-level Bureaucrats' Psychological Wellbeing: The Mediating Role of Alienative Commitment (Open Access),; Walker, L., Gilson, L.,'We are bitter but we are satisfied': Nurses as street-level bureaucrats in South Africa (Open Access),; Williams, M.J.,Beyond state capacity: Bureaucratic performance, policy implementation and reform,; (2020) ,https://worldjusticeproject.org/sites/default/files/documents/WJP-ROLI-2020-Online_0.pdf,  65</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -4251,22 +4016,17 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>No Encontrado</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>No Encontrado</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
           <t>10.1177/00208523221103196</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>Mexico</t>
         </is>
       </c>
     </row>
@@ -4311,7 +4071,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Arnaboldi, M., Azzone, G., Palermo, T.,Managerial innovations in central government: Not wrong, but hard to explain,; Andersen, S.C., Jakobsen, M.L.,Political Pressure, Conformity Pressure, and Performance Information as Drivers of Public Sector Innovation Adoption (Open Access),; Carassus, D., Favoreu, C., Gardey, D.,Factors that Determine or Influence Managerial Innovation in Public Contexts: The Case of Local Performance Management (Open Access),; Damanpour, F., Schneider, M.,Characteristics of innovation and innovation adoption in public organizations: Assessing the role of managers,; Dawson, G.S., Denford, J.S., Desouza, K.C.,Governing innovation in U.S. state government: An ecosystem perspective,; De Vries, H., Bekkers, V., Tummers, L.,Innovation in the public sector: A systematic review and future research agenda (Open Access),; Eisenhardt, K.M.,Building theories from case study research,(1989) The Academy of Management Review, 14 (4), pp. 532-550. Cited 26474 times.; El-Haddadeh, R.,Digital Innovation Dynamics Influence on Organisational Adoption: The Case of Cloud Computing Services (Open Access),; Ghaleb, E.A.A., Dominic, P.D.D., Fati, S.M., Muneer, A., Ali, R.F.,The assessment of big data adoption readiness with a technology–organization–environment framework: A perspective towards healthcare employees (Open Access),; Gil-Garcia, J.R., Flores-Zúñiga, M.Á.,Towards a comprehensive understanding of digital government success: Integrating implementation and adoption factors,; Guest, G., Bunce, A., Johnson, L.,How Many Interviews Are Enough?: An Experiment with Data Saturation and Variability,; Hjort-Madsen, K.,Institutional patterns of enterprise architecture adoption in government,; Iacovou, C.L., Benbasat, I., Dexter, A.S.,Electronic data interchange and small organizations: Adoption and impact of technology,; Jørgensen, T.B., Bozeman, B.,Public values: An inventory,; Kim, S.E., Lee, J.W.,The impact of management capacity on government innovation in Korea: An empirical study,; Liang, Y., Qi, G., Zhang, X., Li, G.,The effects of e-Government cloud assimilation on public value creation: An empirical study of China (Open Access),; Luna-Reyes, L.F., Gil-Garcia, J.R., Estrada-Marroquín, M.,The impact of institutions on interorganizational IT projects in the Mexican federal government,; Marshall, B., Cardon, P., Poddar, A., Fontenot, R.,Does sample size matter in qualitative research?: A review of qualitative interviews in is research,; Moore, M.H.,(2013) Recognizing Public Value. Cited 288 times.,Harvard University Press, Cambridge, MA; Oliveira, T., Martins, M.F.,Literature review of information technology adoption models at firm level,(2011) Electronic Journal of Information Systems Evaluation, 14 (1), pp. 110-121. Cited 826 times.; Ongaro, E., Gong, T., Jing, Y.,Public administration, context and innovation: A framework of analysis,; Palmer, R., Gupta, M., Brandt, J.,Implementing card technology in government: different approaches, different outcomes,; Panagiotopoulos, P., Klievink, B., Cordella, A.,Public value creation in digital government (Open Access),; Pang, M.S., Lee, G., DeLone, W.H.,IT resources, organizational capabilities, and value creation in public-sector organizations: a public-value management perspective,(2014) Journal of Information Technology, 29 (3), pp. 87-205. Cited 3 times.; Qasem, Y.A.M., Abdullah, R., Yah, Y., Atan, R., Al-Sharafi, M.A., Al-Emran, M.,Towards the Development of a Comprehensive Theoretical Model for Examining the Cloud Computing Adoption at the Organizational Level,; Qi, Y., Che Azmi, A.,Factors affecting electronic invoice adoption and tax compliance process efficiency,; Tornatzky, L.G., Fleischer, M., Chakrabarti, A.K.,(1990) The Processes of Technological Innovation. Cited 2432 times.,Lexington Books, MA; Townsend, W.,Innovations and the perception of risk in the public sector,(2013) International Journal of Organizational Innovation, 5 (3), pp. 21-34. Cited 13 times.; Wang, H.-J., Lo, J.,Adoption of open government data among government agencies,; Yin, R.K.,(1984) Case Study Research: Design and Methods. Cited 81642 times.,SAGE Publications, Thousand Oaks, CA; Zhang, N., Zhao, X., Zhang, Z., Meng, Q., Tan, H.,What factors drive open innovation in China's public sector? A case study of official document exchange via microblogging (ODEM) in Haining,</t>
+          <t>Arnaboldi, M., Azzone, G., Palermo, T.,Managerial innovations in central government: Not wrong, but hard to explain,; Andersen, S.C., Jakobsen, M.L.,Political Pressure, Conformity Pressure, and Performance Information as Drivers of Public Sector Innovation Adoption,; Carassus, D., Favoreu, C., Gardey, D.,Factors that Determine or Influence Managerial Innovation in Public Contexts: The Case of Local Performance Management,; Damanpour, F., Schneider, M.,Characteristics of innovation and innovation adoption in public organizations: Assessing the role of managers,; Dawson, G.S., Denford, J.S., Desouza, K.C.,Governing innovation in U.S. state government: An ecosystem perspective,; De Vries, H., Bekkers, V., Tummers, L.,Innovation in the public sector: A systematic review and future research agenda,; Eisenhardt, K.M.,Building theories from case study research,(1989) The Academy of Management Review, 14 (4), pp. 532-550. Cited 26521 times.; El-Haddadeh, R.,Digital Innovation Dynamics Influence on Organisational Adoption: The Case of Cloud Computing Services,; Ghaleb, E.A.A., Dominic, P.D.D., Fati, S.M., Muneer, A., Ali, R.F.,The assessment of big data adoption readiness with a technology–organization–environment framework: A perspective towards healthcare employees,; Gil-Garcia, J.R., Flores-Zúñiga, M.Á.,Towards a comprehensive understanding of digital government success: Integrating implementation and adoption factors,; Guest, G., Bunce, A., Johnson, L.,How Many Interviews Are Enough?: An Experiment with Data Saturation and Variability,; Hjort-Madsen, K.,Institutional patterns of enterprise architecture adoption in government,; Iacovou, C.L., Benbasat, I., Dexter, A.S.,Electronic data interchange and small organizations: Adoption and impact of technology,; Jørgensen, T.B., Bozeman, B.,Public values: An inventory (Open Access),; Kim, S.E., Lee, J.W.,The impact of management capacity on government innovation in Korea: An empirical study,; Liang, Y., Qi, G., Zhang, X., Li, G.,The effects of e-Government cloud assimilation on public value creation: An empirical study of China,; Luna-Reyes, L.F., Gil-Garcia, J.R., Estrada-Marroquín, M.,The impact of institutions on interorganizational IT projects in the Mexican federal government,; Marshall, B., Cardon, P., Poddar, A., Fontenot, R.,Does sample size matter in qualitative research?: A review of qualitative interviews in is research (Open Access),; Moore, M.H.,(2013) Recognizing Public Value. Cited 288 times.,Harvard University Press, Cambridge, MA; Oliveira, T., Martins, M.F.,Literature review of information technology adoption models at firm level,(2011) Electronic Journal of Information Systems Evaluation, 14 (1), pp. 110-121. Cited 833 times.; Ongaro, E., Gong, T., Jing, Y.,Public administration, context and innovation: A framework of analysis,; Palmer, R., Gupta, M., Brandt, J.,Implementing card technology in government: different approaches, different outcomes (Open Access),; Panagiotopoulos, P., Klievink, B., Cordella, A.,Public value creation in digital government,; Pang, M.S., Lee, G., DeLone, W.H.,IT resources, organizational capabilities, and value creation in public-sector organizations: a public-value management perspective,(2014) Journal of Information Technology, 29 (3), pp. 87-205. Cited 3 times.; Qasem, Y.A.M., Abdullah, R., Yah, Y., Atan, R., Al-Sharafi, M.A., Al-Emran, M.,Towards the Development of a Comprehensive Theoretical Model for Examining the Cloud Computing Adoption at the Organizational Level,; Qi, Y., Che Azmi, A.,Factors affecting electronic invoice adoption and tax compliance process efficiency (Open Access),; Tornatzky, L.G., Fleischer, M., Chakrabarti, A.K.,(1990) The Processes of Technological Innovation. Cited 2442 times.,Lexington Books, MA; Townsend, W.,Innovations and the perception of risk in the public sector,(2013) International Journal of Organizational Innovation, 5 (3), pp. 21-34. Cited 13 times.; Wang, H.-J., Lo, J.,Adoption of open government data among government agencies,; Yin, R.K.,(1984) Case Study Research: Design and Methods. Cited 81797 times.,SAGE Publications, Thousand Oaks, CA; Zhang, N., Zhao, X., Zhang, Z., Meng, Q., Tan, H.,What factors drive open innovation in China's public sector? A case study of official document exchange via microblogging (ODEM) in Haining (Open Access),</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -4342,11 +4102,6 @@
       <c r="O49" t="inlineStr">
         <is>
           <t>10.1108/TG-10-2021-0159</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>Mexico</t>
         </is>
       </c>
     </row>
@@ -4391,7 +4146,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Adams, G., Balfour, D.,(2010) Market-based government and the decline of organizational ethics. Administration &amp; Society, 42(6),615-637,  2; Barzelay, M.,(1992) Breaking through bureaucracy: A new vision for managing in government. Cited 603 times.,Univ of California Press; Benington, J., Moore, M.H.,(2011) Public value in complex and changing times. Public value: Theory and practice, 1. Cited 115 times.,  5; Box, R.C.,Running government like a business: Implications for public administration theory and practice,; Bozeman, B.,Public values and public interest: Counterbalancing economic individualism,; Bozeman, B.,Public values: citizens’ perspective,; Brusca, I., Gómez-villegas, M., Montesinos, V.,Public Financial Management Reforms: The Role of Ipsas in Latin-America (Open Access),; Cejudo, G.M., Michel, C.L.,Addressing fragmented government action: coordination, coherence, and integration,; Ibero-American charter of the public service,(2003) Fifth Ibero-American Conference of Ministers of Public Administration and State Reform. Santa Cruz de la Sierra,Bolivia: 26 and 27June 2003; Corbin, J., Strauss, A.,(2014) Basics of qualitative research: Techniques and procedures for developing grounded theory. Cited 62065 times.,Sage publications; Culebro, J., Méndez, B., Cruz, P.,Coordination and regulation in crisis management. Response of the health sector to disasters. The case of the 2017 earthquake in Mexico City,(2019) International Public Management Review, 19 (2), pp. 47-64.; Denhardt, J.V., Denhardt, R.B.,(2007) The new public service. Cited 642 times.,ME Sharpe. Inc; Donadelli, F., Cunha, B.Q., Dussauge-Laguna, M.I.,‘Post-NPM’ by force or fiat? A comparison of administrative reform trajectories in Brazil and Mexico1,; Dussauge, M., Sanabria, P., Gantus, D.,Public administration reforms in Latin America: Building bridges between theory and practice. Cited 2 times.,Forthcoming; Figueroa-Huencho, V.D.L., Pliscoff-Varas, C.H., Araya-Orellana, J.P.,Challenges in the formative process of public managers in 21st century,; Fukumoto, E., Bozeman, B.,Public Values Theory: What Is Missing?,; Furneaux, C.W., Brown, K., Allan, D.,Public values embedded in Australian public works procurement,; Georgellis, Y., Iossa, E., Tabvuma, V.,Crowding out intrinsic motivation in the public sector (Open Access),; González, F.,(1840) Elementos de ciencia administrativa. Cited 11 times.,Imprenta de la Enseñanza; Heintzman, R.,Public-service values and ethics: Dead end or strong foundation?,; HOOD, C.,A PUBLIC MANAGEMENT FOR ALL SEASONS?,; Jaspers, S., Steen, T.,Realizing public values: enhancement or obstruction? Exploring value tensions and coping strategies in the co-production of social care,; Jørgensen, T.B., Bozeman, B.,Public values: An inventory,; Jørgensen, T.B., Rutgers, M.R.,Public Values: Core or Confusion? Introduction to the Centrality and Puzzlement of Public Values Research (Open Access),; Kaufman, H.,Emerging conflicts in the doctrines of public administration,; Kurtz, M.J.,Latin American state building in comparative perspective: Social foundations of institutional order,; Langbein, L., Sanabria, P.,Independent Professional Bureaucracies and Street-Level Bribery: Comparing Changes in Civil Service Law and Implementation in Latin America,; Lapuente, V., Van de Walle, S.,The effects of new public management on the quality of public services (Open Access),; Longo, F.,Comparative institutional diagnosis of civil service systems: Summary of 17 country evaluations,(2003) Working Paper Inter-American Development Bank. Regional Policy Dialogue. December 2003; Maesschalck, J.,The impact of new public management reforms on public servants' ethics: Towards a theory (Open Access),; Méndez, J.-L.,The Management of Public Personnel in Latin America: Scope and Limits of a Modern Civil Service,; Moore, M.H.,(1995) Creating public value: Strategic management in government. Cited 2656 times.,Harvard university press; Mussagulova, A., van der Wal, Z.,“All still quiet on the non-Western front?” Non-Western public service motivation scholarship: 2015–2020 (Open Access),; Nabatchi, T.,Public Values Frames in Administration and Governance,; Newman, J., Clarke, J.,Publics, politics and power: Remaking the public in public services (Open Access),; Oszlak, O.,(2003) El Servicio Civil en América Latina y el Caribe: Situación y Retos Futuros. En: Echebarria, K. 2003. Red de Gestión y Transparencia de la Política Pública. Servicio Civil: Temas para un Diálogo,Inter-American Development Bank. Regional Policy Dialogue; Ott, J.S., Dicke, L.,Challenges facing public sector management in an era of downsizing, devolution, dispersion and empowerment—and accountability?,(2001) Public Organization Review, 1 (3), pp. 321-339. Cited 12 times.; Perry, J.L., Wise, L.R.,The motivational bases of public service,(1990) Public Administration Review, 50 (3), pp. 367-373. Cited 1605 times.; Perry, J.L.,Measuring public service motivation: An assessment of construct reliability and validity (Open Access),; Persson, A., Goldkuhl, G.,Government value paradigms-bureaucracy, new public management, and e-government (Open Access),; Pinzón, C.,(1847) Principios sobre Administración Pública. Cited 3 times.,Imprenta de J.A. Cualla; Pliscoff, C.,(2009) New public management in Chile (1990-2008): Exploring its impact on public employees. Cited 5 times.,Ph.D. Dissertation. School of Policy, Planning and Development, University of Southern California; Pliscoff, C., Araya, J.,Las alianzas público-privadas como gatilladoras de innovación en las organizaciones públicas: Reflexiones a partir de la situación chilena,(2012) Estado, Gobierno y Gestión Pública, 19. Cited 4 times.; Pliscoff, C.,Alta Dirección Pública: Elementos teóricos y reflexiones a partir del caso chileno,(2016) Manual de Administración Pública, pp. 383-401. Cited 2 times.; Pliscoff, C.,Implementando la nueva gestión pública: Problemas y desafíos a la ética pública,(2017) El Caso Chileno. Convergencia, 24 (73), pp. 141-164.; Pliscoff, C.,Ethics and public administration in Latin America,(2019) Global encyclopedia of public administration, public policy, and governance, pp. 1-12. Cited 666 times.; Polidano, C.,The new public management in developing countries,(1999) IDPM Public Policy and Management Working Paper # 13. Cited 90 times.; Polidano, C.,(2001) Why civil services reforms fail. IDPM public policy and management paper # 16. Cited 20 times.,University of Manchester, Manchester, UK; Pollitt, C., Bouckaert, G.,(2017) Public management reform: A comparative analysis-into the age of austerity. Cited 4916 times.,Oxford University Press; Ramió, C.,Problemas de la implantación de la nueva gestión pública en las administraciones públicas latinas: Modelo de Estado y cultura institucional,(2001) Reforma y Democracia, 21, pp. 77-116. Cited 36 times.; Rayner, J., Williams, H.M., Lawton, A., Allinson, C.W.,Public service ethos: Developing a generic measure (Open Access),; Reynaers, A.-M., De Graaf, G.,Public Values in Public-Private Partnerships,; Reynaers, A.-M., Paanakker, H.,To Privatize or Not? Addressing Public Values in a Semiprivatized Prison System,; Rodas-Gaiter, A., Sanabria-Pulido, P.,Management, goal alignment, and performance assessment legitimacy: Evidence from the Colombian public sector (Open Access),; Rosenbloom, D.H.,Public administrative theory and the separation of powers,(1983) Public Administration Review, 43 (3), pp. 219-227. Cited 244 times.; Rosenbloom, D.,(2017) ,Beyond efficiency: Value frameworks for public administration. Chinese Public Administration Review, 8(1),37-46; Rutgers, M.,Sorting out public values? On the contingency of value classifications in public administration,(2008) Administrative Theory &amp; Praxis, 30 (1), pp. 92-113. Cited 69 times.; Samaratunge, R., Wijewardena, N.,The changing nature of public values in developing countries,; Sanabria-Pulido, P.,Dos pasos hacia adelante y uno hacia atrás- Colombia y la configuración de un servicio civil profesional y meritocrático,(2010) Boletín Política Hoy Departamento Nacional de Planeación, 7, pp. 4-8. Cited 4 times.; Sanabria-Pulido, P., Avellaneda, C.,(2014) Colombia - The training of senior civil servants in Colombia,Van Wart M., Hondeghem A., Schwella E., Nice V.E., (eds), Springer, &amp;, (Eds.), Leadership and culture: Comparative models of top civil servant training; Sanabria, P., Pliscoff, C., Gomes, R.,E-government practices in South American countries: Echoing a global trend or really improving governance? The experiences of Colombia, Chile, and Brazil,; Sanabria-Pulido, P., Telch, F., Rodas, A., Astudillo, M., Estrada, S.,(2015) ,Lineamientos para Una Política de Talento Humano en el Sector Público. Para Servir Mejor al País:¿Cómo Hacer Estratégica la Gestión del Talento Humano en las Organizaciones Públicas Colombianas?. Gestión estratégica del talento humano en el sector público: estado del arte, diagnóstico y recomendaciones para el caso colombiano 195-340. Ediciones Uniandes; Sanabria-Pulido, P.,Public Service Motivation and Job Sector Choice: Evidence from a Developing Country,; Sanabria-Pulido, P.,(2018) Marco Conceptual para la Gestión en Valores Públicos del Talento Humano en Bogotá - Veeduría Distrital,Veeduría Distrital: Veeduría Distrital de Bogota; Sanabria-Pulido, P., Bello-Gómez, R.A.,Public Sector Reform and Perceptions of Public Servants: An International Longitudinal Review,; Sanabria-Pulido, P., Velasquez-Ospina, M.,Public Administration, Institutional Capacity and Internal Conflict in Colombia: An Intertwined Relationship,; Sanabria-Pulido, P., Leyva, S.,A patchwork quilt of public administration models without early weberianism? Public management reforms in Colombia since the 1980s (Open Access),; Stebbins, R.A.,(2001) Exploratory research in the social sciences, 48. Cited 862 times.,Sage; Telch, F., Sanabria-Pulido, P.,Analysis of the perceptions about the organizational environment in Colombia’s public sector,(2018) Gobernar, 2 (2), pp. 15-32.; van der Wal, Z., van Hout, E.Th.J.,Is public value pluralism paramount? The intrinsic multiplicity and hybridity of public values,; van der Wal, Z., de Graaf, G., Lawton, A.,Competing values in public management introduction to the symposium issue (Open Access),; Van der Wal, Z.,Elite Ethics: Comparing Public Values Prioritization Between Administrative Elites and Political Elites,; Van der Wal, Z.,“All quiet on the non-Western front?” A review of public service motivation scholarship in non-Western contexts,; Van der Wal, Z., Nabatchi, T., De Graaf, G.,From Galaxies to Universe: A Cross-Disciplinary Review and Analysis of Public Values Publications From 1969 to 2012,; Van der Wal, Z., &amp; Huberts, L. (2008). Value solidity in government and business: Results of an empirical study on public and private sector organizational values. The American Review of Public Administration, 38(3), 264–285,  78,Walker, R.M., Brewer, G.A., Boyne, G.A., Avellaneda, C.N.; Yin, R.K.,(2018) Case study research and applications: Design and methods. Cited 5515 times.,Sage</t>
+          <t>Adams, G., Balfour, D.,(2010) Market-based government and the decline of organizational ethics. Administration &amp; Society, 42(6),615-637,  2; Barzelay, M.,(1992) Breaking through bureaucracy: A new vision for managing in government. Cited 604 times.,Univ of California Press; Benington, J., Moore, M.H.,(2011) Public value in complex and changing times. Public value: Theory and practice, 1. Cited 115 times.,  5; Box, R.C.,Running government like a business: Implications for public administration theory and practice,; Bozeman, B.,Public values and public interest: Counterbalancing economic individualism,; Bozeman, B.,Public values: citizens’ perspective,; Brusca, I., Gómez-villegas, M., Montesinos, V.,Public Financial Management Reforms: The Role of Ipsas in Latin-America,; Cejudo, G.M., Michel, C.L.,Addressing fragmented government action: coordination, coherence, and integration,; Ibero-American charter of the public service,(2003) Fifth Ibero-American Conference of Ministers of Public Administration and State Reform. Santa Cruz de la Sierra,Bolivia: 26 and 27June 2003; Corbin, J., Strauss, A.,(2014) Basics of qualitative research: Techniques and procedures for developing grounded theory. Cited 62220 times.,Sage publications; Culebro, J., Méndez, B., Cruz, P.,Coordination and regulation in crisis management. Response of the health sector to disasters. The case of the 2017 earthquake in Mexico City,(2019) International Public Management Review, 19 (2), pp. 47-64.; Denhardt, J.V., Denhardt, R.B.,(2007) The new public service. Cited 642 times.,ME Sharpe. Inc; Donadelli, F., Cunha, B.Q., Dussauge-Laguna, M.I.,‘Post-NPM’ by force or fiat? A comparison of administrative reform trajectories in Brazil and Mexico1,; Dussauge, M., Sanabria, P., Gantus, D.,Public administration reforms in Latin America: Building bridges between theory and practice. Cited 2 times.,Forthcoming; Figueroa-Huencho, V.D.L., Pliscoff-Varas, C.H., Araya-Orellana, J.P.,Challenges in the formative process of public managers in 21st century,; Fukumoto, E., Bozeman, B.,Public Values Theory: What Is Missing?,; Furneaux, C.W., Brown, K., Allan, D.,Public values embedded in Australian public works procurement,; Georgellis, Y., Iossa, E., Tabvuma, V.,Crowding out intrinsic motivation in the public sector,; González, F.,(1840) Elementos de ciencia administrativa. Cited 11 times.,Imprenta de la Enseñanza; Heintzman, R.,Public-service values and ethics: Dead end or strong foundation?,; HOOD, C.,A PUBLIC MANAGEMENT FOR ALL SEASONS?,; Jaspers, S., Steen, T.,Realizing public values: enhancement or obstruction? Exploring value tensions and coping strategies in the co-production of social care,; Jørgensen, T.B., Bozeman, B.,Public values: An inventory,; Jørgensen, T.B., Rutgers, M.R.,Public Values: Core or Confusion? Introduction to the Centrality and Puzzlement of Public Values Research,; Kaufman, H.,Emerging conflicts in the doctrines of public administration,; Kurtz, M.J.,Latin American state building in comparative perspective: Social foundations of institutional order,; Langbein, L., Sanabria, P.,Independent Professional Bureaucracies and Street-Level Bribery: Comparing Changes in Civil Service Law and Implementation in Latin America,; Lapuente, V., Van de Walle, S.,The effects of new public management on the quality of public services,; Longo, F.,Comparative institutional diagnosis of civil service systems: Summary of 17 country evaluations,(2003) Working Paper Inter-American Development Bank. Regional Policy Dialogue. December 2003; Maesschalck, J.,The impact of new public management reforms on public servants' ethics: Towards a theory,; Méndez, J.-L.,The Management of Public Personnel in Latin America: Scope and Limits of a Modern Civil Service,; Moore, M.H.,(1995) Creating public value: Strategic management in government. Cited 2661 times.,Harvard university press; Mussagulova, A., van der Wal, Z.,“All still quiet on the non-Western front?” Non-Western public service motivation scholarship: 2015–2020,; Nabatchi, T.,Public Values Frames in Administration and Governance,; Newman, J., Clarke, J.,Publics, politics and power: Remaking the public in public services,; Oszlak, O.,(2003) El Servicio Civil en América Latina y el Caribe: Situación y Retos Futuros. En: Echebarria, K. 2003. Red de Gestión y Transparencia de la Política Pública. Servicio Civil: Temas para un Diálogo,Inter-American Development Bank. Regional Policy Dialogue; Ott, J.S., Dicke, L.,Challenges facing public sector management in an era of downsizing, devolution, dispersion and empowerment—and accountability?,(2001) Public Organization Review, 1 (3), pp. 321-339. Cited 12 times.; Perry, J.L., Wise, L.R.,The motivational bases of public service,(1990) Public Administration Review, 50 (3), pp. 367-373. Cited 1606 times.; Perry, J.L.,Measuring public service motivation: An assessment of construct reliability and validity (Open Access),; Persson, A., Goldkuhl, G.,Government value paradigms-bureaucracy, new public management, and e-government (Open Access),; Pinzón, C.,(1847) Principios sobre Administración Pública. Cited 3 times.,Imprenta de J.A. Cualla; Pliscoff, C.,(2009) New public management in Chile (1990-2008): Exploring its impact on public employees. Cited 5 times.,Ph.D. Dissertation. School of Policy, Planning and Development, University of Southern California; Pliscoff, C., Araya, J.,Las alianzas público-privadas como gatilladoras de innovación en las organizaciones públicas: Reflexiones a partir de la situación chilena,(2012) Estado, Gobierno y Gestión Pública, 19. Cited 4 times.; Pliscoff, C.,Alta Dirección Pública: Elementos teóricos y reflexiones a partir del caso chileno,(2016) Manual de Administración Pública, pp. 383-401.; Pliscoff, C.,Implementando la nueva gestión pública: Problemas y desafíos a la ética pública,(2017) El Caso Chileno. Convergencia, 24 (73), pp. 141-164.; Pliscoff, C.,Ethics and public administration in Latin America,(2019) Global encyclopedia of public administration, public policy, and governance, pp. 1-12. Cited 672 times.; Polidano, C.,The new public management in developing countries,(1999) IDPM Public Policy and Management Working Paper # 13. Cited 90 times.; Polidano, C.,(2001) Why civil services reforms fail. IDPM public policy and management paper # 16. Cited 20 times.,University of Manchester, Manchester, UK; Pollitt, C., Bouckaert, G.,(2017) Public management reform: A comparative analysis-into the age of austerity. Cited 4922 times.,Oxford University Press; Ramió, C.,Problemas de la implantación de la nueva gestión pública en las administraciones públicas latinas: Modelo de Estado y cultura institucional,(2001) Reforma y Democracia, 21, pp. 77-116. Cited 36 times.; Rayner, J., Williams, H.M., Lawton, A., Allinson, C.W.,Public service ethos: Developing a generic measure,; Reynaers, A.-M., De Graaf, G.,Public Values in Public-Private Partnerships,; Reynaers, A.-M., Paanakker, H.,To Privatize or Not? Addressing Public Values in a Semiprivatized Prison System,; Rodas-Gaiter, A., Sanabria-Pulido, P.,Management, goal alignment, and performance assessment legitimacy: Evidence from the Colombian public sector (Open Access),; Rosenbloom, D.H.,Public administrative theory and the separation of powers,(1983) Public Administration Review, 43 (3), pp. 219-227. Cited 244 times.; Rosenbloom, D.,(2017) ,Beyond efficiency: Value frameworks for public administration. Chinese Public Administration Review, 8(1),37-46; Rutgers, M.,Sorting out public values? On the contingency of value classifications in public administration,(2008) Administrative Theory &amp; Praxis, 30 (1), pp. 92-113. Cited 69 times.; Samaratunge, R., Wijewardena, N.,The changing nature of public values in developing countries (Open Access),; Sanabria-Pulido, P.,Dos pasos hacia adelante y uno hacia atrás- Colombia y la configuración de un servicio civil profesional y meritocrático,(2010) Boletín Política Hoy Departamento Nacional de Planeación, 7, pp. 4-8. Cited 4 times.; Sanabria-Pulido, P., Avellaneda, C.,(2014) Colombia - The training of senior civil servants in Colombia,Van Wart M., Hondeghem A., Schwella E., Nice V.E., (eds), Springer, &amp;, (Eds.), Leadership and culture: Comparative models of top civil servant training; Sanabria, P., Pliscoff, C., Gomes, R.,E-government practices in South American countries: Echoing a global trend or really improving governance? The experiences of Colombia, Chile, and Brazil,; Sanabria-Pulido, P., Telch, F., Rodas, A., Astudillo, M., Estrada, S.,(2015) ,Lineamientos para Una Política de Talento Humano en el Sector Público. Para Servir Mejor al País:¿Cómo Hacer Estratégica la Gestión del Talento Humano en las Organizaciones Públicas Colombianas?. Gestión estratégica del talento humano en el sector público: estado del arte, diagnóstico y recomendaciones para el caso colombiano 195-340. Ediciones Uniandes; Sanabria-Pulido, P.,Public Service Motivation and Job Sector Choice: Evidence from a Developing Country,; Sanabria-Pulido, P.,(2018) Marco Conceptual para la Gestión en Valores Públicos del Talento Humano en Bogotá - Veeduría Distrital,Veeduría Distrital: Veeduría Distrital de Bogota; Sanabria-Pulido, P., Bello-Gómez, R.A.,Public Sector Reform and Perceptions of Public Servants: An International Longitudinal Review,; Sanabria-Pulido, P., Velasquez-Ospina, M.,Public Administration, Institutional Capacity and Internal Conflict in Colombia: An Intertwined Relationship,; Sanabria-Pulido, P., Leyva, S.,A patchwork quilt of public administration models without early weberianism? Public management reforms in Colombia since the 1980s,; Stebbins, R.A.,(2001) Exploratory research in the social sciences, 48. Cited 868 times.,Sage; Telch, F., Sanabria-Pulido, P.,Analysis of the perceptions about the organizational environment in Colombia’s public sector,(2018) Gobernar, 2 (2), pp. 15-32.; van der Wal, Z., van Hout, E.Th.J.,Is public value pluralism paramount? The intrinsic multiplicity and hybridity of public values (Open Access),; van der Wal, Z., de Graaf, G., Lawton, A.,Competing values in public management introduction to the symposium issue (Open Access),; Van der Wal, Z.,Elite Ethics: Comparing Public Values Prioritization Between Administrative Elites and Political Elites,; Van der Wal, Z.,“All quiet on the non-Western front?” A review of public service motivation scholarship in non-Western contexts,; Van der Wal, Z., Nabatchi, T., De Graaf, G.,From Galaxies to Universe: A Cross-Disciplinary Review and Analysis of Public Values Publications From 1969 to 2012 (Open Access),; Van der Wal, Z., &amp; Huberts, L. (2008). Value solidity in government and business: Results of an empirical study on public and private sector organizational values. The American Review of Public Administration, 38(3), 264–285,  78,Walker, R.M., Brewer, G.A., Boyne, G.A., Avellaneda, C.N.; Yin, R.K.,(2018) Case study research and applications: Design and methods. Cited 5569 times.,Sage</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -4422,11 +4177,6 @@
       <c r="O50" t="inlineStr">
         <is>
           <t>10.1080/23276665.2022.2076135</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>Varios Paises</t>
         </is>
       </c>
     </row>
@@ -4471,7 +4221,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Ruz, F.R.,Professional teaching work incentives and their relation to assessment and individual economic incentive policies (Open Access),; Acuña, F., Assaél, J., Contreras, P., Peralta, B.,Translating discourses of educational policy into the daily life of two Chilean municipal schools: Using the medical metaphor as a means for the analysis,; Ahn, I., Chiu, M.M., Patrick, H.,Connecting teacher and student motivation: Student-perceived teacher need-supportive practices and student need satisfaction,; Ainley, J., Carstens, R.,(2018) Teaching and Learning International Survey (TALIS) 2018 Conceptual Framework. Cited 75 times.,No. 187; OECD Working Papers, OECD Publishing; Assaél, J., Sisto, V., Corbalán, F.,(2012) Ley SEP en escuelas municipales emergentes: ¿Cambios en la identidad docente?,http://bibliotecadigital.academia.cl/handle/123456789/1963?locale-attribute=es; Au, W.,High-stakes testing and curricular control: a qualitative metasynthesis,(2007) Educational Researcher, 36 (5), pp. 258-267. Cited 643 times.; AUCOIN, P.,Administrative Reform in Public Management: Paradigms, Principles, Paradoxes and Pendulums,; Avalos, B.,Teacher regulatory forces and accountability policies in chile: From public servants to accountable professionals,; Avalos-Bevan, B.,Teacher evaluation in Chile: highlights and complexities in 13 years of experience,; Batson, C.D.,(1987) ,Prosocial motivation: Is it ever truly altruistic? In: Berkowitz L (Ed) (. 20,. 65–122). New York: Academic Press; Bogler, R.,The influence of leadership style on teacher job satisfaction,; Brookhart, S.M., Freeman, D.J.,Characteristics of Entering Teacher Candidates,; Brouwers, A., Tomic, W.,A longitudinal study of teacher burnout and perceived self-efficacy in classroom management,; Carnoy, M., Brodziak, I., Molina, A.,The limitations of teacher pay incentive programs based on inter-cohort comparisons: the case of Chile’s SNED,(2007) Education Finance and Policy, 2 (3), pp. 189-227. Cited 10 times.; Contreras, D., Flores, L., Lobato, F.,(2003) Monetary Incentives for Teachers and School Performance: The Evidence for Chile. Cited 2 times.,Mimeo, Departamento de Economía, Universidad de Chile; Contreras, D., Rau, T.,Tournament incentives for teachers: Evidence from a scaled-up intervention in Chile,; Demirtaş, Z.,Teacher's job satisfaction levels (Open Access),; Denhardt, R.B., Denhardt, J.V.,The new public service: Serving rather than steering,; Dunleavy, P., Margetts, H., Bastow, S., Tinkler, J.,New public management is dead - Long live digital-era governance (Open Access),; Eisenhardt, K.M.,Agency theory: an assessment and review,(1989) The Academy of Management Review, 14 (1), pp. 57-74. Cited 6663 times.; Elacqua, G., Treviño, E., Place, K.,(2014) Los efectos de las presiones de accountability sobre las políticas y prácticas pedagógicas en escuelas de bajo desempeño: El caso de Chile (The effects of accountability pressure on policies and pedagogical practices in low-performing schools: The case of Chile),Programa de Promoción de la Reforma Educativa en América Latina y el Caribe (PREAL; Falabella, A.,(2013) Accountability Policy Effects within School Markets: A Study in Three Chilean Municipalities. Cited 10 times.,Institute of Education (University of London; Falabella, A., de la Vega, L.F.,School accountability policies: A debate based on international literature and the Chilean situation (Open Access),; Falabella, A., Opazo, C.,(2014) Sistema de aseguramiento de la calidad y procesos de mejoramiento: Una mirada desde la gestión educativa. Cited 16 times.,http://www.researchgate.net/profile/Alejandra_Falabella/publication/278036312_Estudio_Politicas_de_accountability_en_Chile/links/557b079908aeb61eae21c4cf.pdf; Fehr, E., Gintis, H.,Human motivation and social cooperation: Experimental and analytical foundations (Open Access),; Frey, B.S., Homberg, F., Osterloh, M.,Organizational Control Systems and Pay-for-Performance in the Public Service (Open Access),; Friedland, R., Alford, R.R.,(1991) ,Bringing society back in: Symbols, practices and institutional contradictions. In: Powell W and DiMaggio P (eds). The University of Chicago Press; Fuhrman, S., Elmore, R.F.,(2004) Redesigning Accountability Systems for Education, 38. Cited 11 times.,USA, Teachers College Press; Fullan, M.,(1993) Change Forces: Probing the Depths of Educational Reform. Cited 1492 times.,England, UK, RoutledgeFalmer; Fuller, B., Wood, K., Rapoport, T., Dornbusch, S.M.,The Organizational Context of Individual Efficacy,; García, L.Y., Cerda, A.A., Donoso-Díaz, S.,Determinants of teacher quality: Pedagogical excellence accreditation program,; Gil-Flores, J.,The Role of Personal Characteristics and School Characteristics in Explaining Teacher Job Satisfaction,; Goe, L.,(2007) ,The Link Between Teacher Quality and Student Outcomes: A Research Synthesis, National Comprehensive Center for Teacher Quality, Washington, DC; Goldhaber, D., De Armond, M., De Burgomaster, S.,Teacher attitudes about compensation reform: Implications for reform implementation (Open Access),; Grant, A.M.,Relational job design and the motivation to make a prosocial difference (Open Access),; Grant, A.M.,(2013) Give and Take: Why Helping Others Drives Our Success. Cited 95 times.,UK, Penguin; Guskey, T.R., Passaro, P.D.,Teacher efficacy: a study of construct dimensions,(1994) American Educational Research Journal, 31 (3), pp. 627-643. Cited 346 times.; Hanushek, E.A., Rivkin, S.G.,Chapter 18 Teacher Quality,; Henry, K.L., Muthen, B.,Multilevel latent class analysis: An application of adolescent smoking typologies with individual and contextual predictors (Open Access),; HOOD, C.,A PUBLIC MANAGEMENT FOR ALL SEASONS?,; Hood, C.,The "new public management" in the 1980s: Variations on a theme,; Hout, M., Elliott, S.W.,Incentives and test-based accountability in education,; Ingersoll, R.M.,(2003) Who Controls Teachers’ Work? Power and Accountability in America’s Schools. Cited 395 times.,Cambridge, USA, Harvard University Press; Jensen, M.C., Meckling, W.H.,Theory of the firm: Managerial behavior, agency costs and ownership structure,; Kankaras, M., Vermunt, J.K.,Simultaneous latent class analysis across groups,(2014) Encyclopedia of Quality of Life and Well-Being Research, pp. 5969-5974. Cited 4 times.; Keselman, H.J., Cribbie, R., Holland, B.,Controlling the rate of Type I error over a large set of statistical tests (Open Access),; Kokkinos, C.M.,Job stressors, personality and burnout in primary school teachers,; Lazear, E.P.,Teacher incentives,(2003) Swedish Economic Policy Review, 10 (2), pp. 179-214. Cited 100 times.; Kreps, D.M.,Intrinsic Motivation and Extrinsic Incentives,; Le Grand, J.,Motivation, Agency, and Public Policy: Of Knights and Knaves, Pawns and Queens,; Levačić, R.,Teacher incentives and performance: An application of principal-agent theory,; Lipsky, M.,Street-level bureaucracy: Dilemmas of the individual in public services,; Lortie, D.C.,(1975) Schoolteacher: A Sociological Study. Cited 4470 times.,Chicago, University of Chicago Press; Louis, K.S.,Effects of Teacher Quality of Work Life in Secondary Schools on Commitment and Sense of Efficacy,; Mair, P.,(2018) . Cited 101 times.,Path Analysis and Structural Equation Models. (. 63–93; Manzi, J., González, R., Sun, Y.,(2011) La evaluación docente en Chile. Cited 39 times.,Centro UC Medición - MIDE; Masyn, K.E.,25 Latent class analysis and finite mixture modeling,(2013) The Oxford Handbook of Quantitative Methods, p. 551. Cited 909 times.; Mintrop, H.,(2004) Schools on Probation: How Accountability Works (And Doesn’t Work). Cited 94 times.,USA, Teachers College Press; Mintrop, R., Ordenes, M.,Teacher work motivation in the era of extrinsic incentives: Performance goals and pro-social commitments in the service of equity (Open Access),; Mintrop, H., Sunderman, G.L.,Predictable failure of federal sanctions-driven accountability for school improvement-and why we may retain it anyway,; Mintrop, H., Sunderman, G.L.,The paradoxes of data-driven school reform: Learning from two generations of centralized accountability systems in the United States,(2013) The Infrastructure of Accountability: Data Use and the Transformation of American Education, pp. 23-39. Cited 11 times.; Mizala, A., Romaguera, P.,Evaluación del desempeño e incentivos en la educación Chilena,(2002) Cuadernos de Economía, 39 (118), pp. 353-394. Cited 15 times.; Mizala, A., Romaguera, P.,School and teacher performance incentives: The Latin American experience,; Mizala, A., Schneider, B.R.,Negotiating Education Reform: Teacher Evaluations and Incentives in Chile (1990-2010) (Open Access),; Mizala, A., Torche, F.,(2013) ¿Logra la subvención escolar preferencial igualar los resultados educativos? [Documento de Referencia]. Cited 9 times.,Espacio Público; Montecinos, C., Madrid, R., Fernández, M.B., Ahumada, L.,A goal orientation analysis of teachers’ motivations to participate in the school self-assessment processes of a quality assurance system in Chile,; Muthén, L.K., Muthén, B.,(2017) Mplus User’s Guide: Statistical Analysis with Latent Variables, User’s Guide. Cited 4761 times.,Los Angeles, Muthén &amp; Muthén; Neilson, C.,(2013) Targeted Vouchers, Competition Among Schools, and the Academic Achievement of Poor Students, 1-62.,Job Market Paper; Nias, J.,‘Commitment’ and Motivation in Primary School Teachers,; (2013) Teachers for the 21st Century: Using Evaluation to Improve Teaching. Cited 123 times.,OECD,https://doi.org/10.1787/9789264193864-en; (2019) TALIS 2018 Technical Report. Cited 190 times.,OECD Publishing, (, a,https://www.oecd.org/education/talis/TALIS_2018_Technical_Report.pdf; (2019) Working and Learning Together: Rethinking Human Resource Policies for Schools. Cited 14 times.,OECD Publishing, (, b,https://doi.org/10.1787/b7aaf050-en; Perry, J.L.,Measuring public service motivation: An assessment of construct reliability and validity (Open Access),; Perry, J.L., Hondeghem, A.,(2008) Motivation in Public Management: The Call of Public Service. Cited 417 times.,Oxford, Oxford University Press, (eds; Pianta, R., Hamre, B., Mintz, S.,CLASS: Classroom assessment scoring system CLASS,(2011) Upper elementary manual. Cited 43 times.; Pollitt, C.,Is the emperor in his underwear?,(2000) Public Management Review, 2 (2), pp. 181-200. Cited 166 times.; Pollitt, C., Bouckaert, G.,(2011) Public Management Reform: A Comparative Analysis-New Public Management, Governance, and the Neo-Weberian State. Cited 4916 times.,Oxford, Oxford University Press; Pollitt, C., van Thiel, S., Homburg, V.,(2007) ,New public management Europe. Basingstoke: Palgrave, (Eds; Puffer, S.M., Meindl, J.R.,The congruence of motives and incentives in a voluntary organization,; Richardson, P.W., Watt, H.M.G.,'I've decided to become a teacher': Influences on career change,</t>
+          <t>Ruz, F.R.,Professional teaching work incentives and their relation to assessment and individual economic incentive policies,; Acuña, F., Assaél, J., Contreras, P., Peralta, B.,Translating discourses of educational policy into the daily life of two Chilean municipal schools: Using the medical metaphor as a means for the analysis,; Ahn, I., Chiu, M.M., Patrick, H.,Connecting teacher and student motivation: Student-perceived teacher need-supportive practices and student need satisfaction,; Ainley, J., Carstens, R.,(2018) Teaching and Learning International Survey (TALIS) 2018 Conceptual Framework. Cited 76 times.,No. 187; OECD Working Papers, OECD Publishing; Assaél, J., Sisto, V., Corbalán, F.,(2012) Ley SEP en escuelas municipales emergentes: ¿Cambios en la identidad docente?,http://bibliotecadigital.academia.cl/handle/123456789/1963?locale-attribute=es; Au, W.,High-stakes testing and curricular control: a qualitative metasynthesis,(2007) Educational Researcher, 36 (5), pp. 258-267. Cited 646 times.; AUCOIN, P.,Administrative Reform in Public Management: Paradigms, Principles, Paradoxes and Pendulums,; Avalos, B.,Teacher regulatory forces and accountability policies in chile: From public servants to accountable professionals,; Avalos-Bevan, B.,Teacher evaluation in Chile: highlights and complexities in 13 years of experience,; Batson, C.D.,(1987) ,Prosocial motivation: Is it ever truly altruistic? In: Berkowitz L (Ed) (. 20,. 65–122). New York: Academic Press; Bogler, R.,The influence of leadership style on teacher job satisfaction,; Brookhart, S.M., Freeman, D.J.,Characteristics of Entering Teacher Candidates,; Brouwers, A., Tomic, W.,A longitudinal study of teacher burnout and perceived self-efficacy in classroom management,; Carnoy, M., Brodziak, I., Molina, A.,The limitations of teacher pay incentive programs based on inter-cohort comparisons: the case of Chile’s SNED,(2007) Education Finance and Policy, 2 (3), pp. 189-227. Cited 10 times.; Contreras, D., Flores, L., Lobato, F.,(2003) Monetary Incentives for Teachers and School Performance: The Evidence for Chile. Cited 2 times.,Mimeo, Departamento de Economía, Universidad de Chile; Contreras, D., Rau, T.,Tournament incentives for teachers: Evidence from a scaled-up intervention in Chile,; Demirtaş, Z.,Teacher's job satisfaction levels,; Denhardt, R.B., Denhardt, J.V.,The new public service: Serving rather than steering,; Dunleavy, P., Margetts, H., Bastow, S., Tinkler, J.,New public management is dead - Long live digital-era governance,; Eisenhardt, K.M.,Agency theory: an assessment and review,(1989) The Academy of Management Review, 14 (1), pp. 57-74. Cited 6673 times.; Elacqua, G., Treviño, E., Place, K.,(2014) Los efectos de las presiones de accountability sobre las políticas y prácticas pedagógicas en escuelas de bajo desempeño: El caso de Chile (The effects of accountability pressure on policies and pedagogical practices in low-performing schools: The case of Chile),Programa de Promoción de la Reforma Educativa en América Latina y el Caribe (PREAL; Falabella, A.,(2013) Accountability Policy Effects within School Markets: A Study in Three Chilean Municipalities. Cited 10 times.,Institute of Education (University of London; Falabella, A., de la Vega, L.F.,School accountability policies: A debate based on international literature and the Chilean situation,; Falabella, A., Opazo, C.,(2014) Sistema de aseguramiento de la calidad y procesos de mejoramiento: Una mirada desde la gestión educativa. Cited 16 times.,http://www.researchgate.net/profile/Alejandra_Falabella/publication/278036312_Estudio_Politicas_de_accountability_en_Chile/links/557b079908aeb61eae21c4cf.pdf; Fehr, E., Gintis, H.,Human motivation and social cooperation: Experimental and analytical foundations,; Frey, B.S., Homberg, F., Osterloh, M.,Organizational Control Systems and Pay-for-Performance in the Public Service,; Friedland, R., Alford, R.R.,(1991) ,Bringing society back in: Symbols, practices and institutional contradictions. In: Powell W and DiMaggio P (eds). The University of Chicago Press; Fuhrman, S., Elmore, R.F.,(2004) Redesigning Accountability Systems for Education, 38. Cited 11 times.,USA, Teachers College Press; Fullan, M.,(1993) Change Forces: Probing the Depths of Educational Reform. Cited 1494 times.,England, UK, RoutledgeFalmer; Fuller, B., Wood, K., Rapoport, T., Dornbusch, S.M.,The Organizational Context of Individual Efficacy,; García, L.Y., Cerda, A.A., Donoso-Díaz, S.,Determinants of teacher quality: Pedagogical excellence accreditation program,; Gil-Flores, J.,The Role of Personal Characteristics and School Characteristics in Explaining Teacher Job Satisfaction,; Goe, L.,(2007) ,The Link Between Teacher Quality and Student Outcomes: A Research Synthesis, National Comprehensive Center for Teacher Quality, Washington, DC; Goldhaber, D., De Armond, M., De Burgomaster, S.,Teacher attitudes about compensation reform: Implications for reform implementation,; Grant, A.M.,Relational job design and the motivation to make a prosocial difference,; Grant, A.M.,(2013) Give and Take: Why Helping Others Drives Our Success. Cited 95 times.,UK, Penguin; Guskey, T.R., Passaro, P.D.,Teacher efficacy: a study of construct dimensions,(1994) American Educational Research Journal, 31 (3), pp. 627-643. Cited 347 times.; Hanushek, E.A., Rivkin, S.G.,Chapter 18 Teacher Quality,; Henry, K.L., Muthen, B.,Multilevel latent class analysis: An application of adolescent smoking typologies with individual and contextual predictors,; HOOD, C.,A PUBLIC MANAGEMENT FOR ALL SEASONS?,; Hood, C.,The "new public management" in the 1980s: Variations on a theme,; Hout, M., Elliott, S.W.,Incentives and test-based accountability in education,; Ingersoll, R.M.,(2003) Who Controls Teachers’ Work? Power and Accountability in America’s Schools. Cited 396 times.,Cambridge, USA, Harvard University Press; Jensen, M.C., Meckling, W.H.,Theory of the firm: Managerial behavior, agency costs and ownership structure,; Kankaras, M., Vermunt, J.K.,Simultaneous latent class analysis across groups,(2014) Encyclopedia of Quality of Life and Well-Being Research, pp. 5969-5974. Cited 4 times.; Keselman, H.J., Cribbie, R., Holland, B.,Controlling the rate of Type I error over a large set of statistical tests,; Kokkinos, C.M.,Job stressors, personality and burnout in primary school teachers,; Lazear, E.P.,Teacher incentives,(2003) Swedish Economic Policy Review, 10 (2), pp. 179-214. Cited 100 times.; Kreps, D.M.,Intrinsic Motivation and Extrinsic Incentives,; Le Grand, J.,Motivation, Agency, and Public Policy: Of Knights and Knaves, Pawns and Queens (Open Access),; Levačić, R.,Teacher incentives and performance: An application of principal-agent theory,; Lipsky, M.,Street-level bureaucracy: Dilemmas of the individual in public services,; Lortie, D.C.,(1975) Schoolteacher: A Sociological Study. Cited 4469 times.,Chicago, University of Chicago Press; Louis, K.S.,Effects of Teacher Quality of Work Life in Secondary Schools on Commitment and Sense of Efficacy,; Mair, P.,(2018) . Cited 102 times.,Path Analysis and Structural Equation Models. (. 63–93; Manzi, J., González, R., Sun, Y.,(2011) La evaluación docente en Chile. Cited 39 times.,Centro UC Medición - MIDE; Masyn, K.E.,25 Latent class analysis and finite mixture modeling,(2013) The Oxford Handbook of Quantitative Methods, p. 551. Cited 924 times.; Mintrop, H.,(2004) Schools on Probation: How Accountability Works (And Doesn’t Work). Cited 93 times.,USA, Teachers College Press; Mintrop, R., Ordenes, M.,Teacher work motivation in the era of extrinsic incentives: Performance goals and pro-social commitments in the service of equity (Open Access),; Mintrop, H., Sunderman, G.L.,Predictable failure of federal sanctions-driven accountability for school improvement-and why we may retain it anyway,; Mintrop, H., Sunderman, G.L.,The paradoxes of data-driven school reform: Learning from two generations of centralized accountability systems in the United States,(2013) The Infrastructure of Accountability: Data Use and the Transformation of American Education, pp. 23-39. Cited 11 times.; Mizala, A., Romaguera, P.,Evaluación del desempeño e incentivos en la educación Chilena,(2002) Cuadernos de Economía, 39 (118), pp. 353-394. Cited 15 times.; Mizala, A., Romaguera, P.,School and teacher performance incentives: The Latin American experience (Open Access),; Mizala, A., Schneider, B.R.,Negotiating Education Reform: Teacher Evaluations and Incentives in Chile (1990-2010),; Mizala, A., Torche, F.,(2013) ¿Logra la subvención escolar preferencial igualar los resultados educativos? [Documento de Referencia]. Cited 9 times.,Espacio Público; Montecinos, C., Madrid, R., Fernández, M.B., Ahumada, L.,A goal orientation analysis of teachers’ motivations to participate in the school self-assessment processes of a quality assurance system in Chile,; Muthén, L.K., Muthén, B.,(2017) Mplus User’s Guide: Statistical Analysis with Latent Variables, User’s Guide. Cited 4769 times.,Los Angeles, Muthén &amp; Muthén; Neilson, C.,(2013) Targeted Vouchers, Competition Among Schools, and the Academic Achievement of Poor Students, 1-62.,Job Market Paper; Nias, J.,‘Commitment’ and Motivation in Primary School Teachers,; (2013) Teachers for the 21st Century: Using Evaluation to Improve Teaching. Cited 124 times.,OECD,https://doi.org/10.1787/9789264193864-en; (2019) TALIS 2018 Technical Report. Cited 193 times.,OECD Publishing, (, a,https://www.oecd.org/education/talis/TALIS_2018_Technical_Report.pdf; (2019) Working and Learning Together: Rethinking Human Resource Policies for Schools. Cited 14 times.,OECD Publishing, (, b,https://doi.org/10.1787/b7aaf050-en; Perry, J.L.,Measuring public service motivation: An assessment of construct reliability and validity,; Perry, J.L., Hondeghem, A.,(2008) Motivation in Public Management: The Call of Public Service. Cited 418 times.,Oxford, Oxford University Press, (eds; Pianta, R., Hamre, B., Mintz, S.,CLASS: Classroom assessment scoring system CLASS,(2011) Upper elementary manual. Cited 43 times.; Pollitt, C.,Is the emperor in his underwear?,(2000) Public Management Review, 2 (2), pp. 181-200. Cited 166 times.; Pollitt, C., Bouckaert, G.,(2011) Public Management Reform: A Comparative Analysis-New Public Management, Governance, and the Neo-Weberian State. Cited 4922 times.,Oxford, Oxford University Press; Pollitt, C., van Thiel, S., Homburg, V.,(2007) ,New public management Europe. Basingstoke: Palgrave, (Eds; Puffer, S.M., Meindl, J.R.,The congruence of motives and incentives in a voluntary organization,; Richardson, P.W., Watt, H.M.G.,'I've decided to become a teacher': Influences on career change,</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -4491,22 +4241,17 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>No Encontrado</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>No Encontrado</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
           <t>10.1177/00345237221090541</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>Chile</t>
         </is>
       </c>
     </row>
@@ -4551,7 +4296,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Allcott, H., Gentzkow, M., Yu, C.,Trends in the diffusion of misinformation on social media (Open Access),; Alon-Barkat, S.,Can government public communications elicit undue trust? Exploring the interaction between symbols and substantive information in communications (Open Access),; BÁEZ, I.,Disfunciones de la democracia directa en la Unión Europea: corporativismo y ausencia de ciudadanía,(2016) RDUNED, 18, pp. 151-189.; Balaguer-Coll, M.T., Brun-Martos, M.I.,The effects of the political environment on transparency: evidence from Spanish local governments,; Becerra, J., Velandia, J., León, I.,A model to implment the transparency law in Colombia: The transparenc@ software,; Calvo, D., Campos-Domínguez, E.,Participation and topics of discussion of Spaniards in the digital public sphere (Open Access),; Calvo, M.-Á.,Tools for virtual citizen participation and its development in the websites of the Andalusia Public Health System (Open Access),; Sebastián, M.C., Cardama, S.M.,Government and open parliament: Citizens participation in the treatment and visualization of the public information,; CHAMORRO, M.,Participación ciudadana en américa del sur: institucionalidad y acciones ciudadanas tras la dictadura en Argentina y Brasil,(2016) CES Derecho, 7 (1), pp. 27-38. Cited 3 times.; Christensen, H.S.,Boosting political trust with direct democracy? The case of the finnish citizens’ initiative (Open Access),; Clabo, N., Ramos-Vielba, I.,The re-use of open data in the Spanish public administration and the application of public copyright licenses (Open Access),; Delamaza, G., Thayer, L.E.,Political perceptions and participation practices as a tool for territorial governance. A comparative analysis of territorial scales in the macroregion of southern Chile (Open Access),; ECKHARD, S.,Bridging the citizen gap: Bureaucratic representation and knowledge linkage in (international) public administration,(2020) Governance, early view, 34 (2), pp. 1-20. Cited 2 times.; Ferrer-Sapena, A., Peset, F., Aleixandre-Benavent, R.,,(2011) Profesional de la Informacion, 20 (3), pp. 260-269. Cited 35 times.; Flyverbom, M., Christensen, L.T., Hansen, H.K.,The transparency-power nexus: Observational and regularizing control,; Fuchs, D., Roller, E.,Conceptualizing and measuring the quality of democracy: The citizens’ perspective (Open Access),; Grabe, M.E., Myrick, J.G.,Informed Citizenship in a Media-Centric Way of Life,; Grimmelikhuijsen, S., Porumbescu, G., Hong, B., Im, T.,The effect of transparency on trust in government: A cross-national comparative experiment (Open Access),; Hänska, M., Bauchowitz, S.,Can social media facilitate a European public sphere? Transnational communication and the Europeanization of Twitter during the Eurozone crisis (Open Access),; Ingrams, A.,Democratic transition and transparency reform: An fsQCA analysis of access to information laws in twenty-three countries,; Kelm, O., Dohle, M., Bernhard, U.,Politicians’ Self-Reported Social Media Activities and Perceptions: Results From Four Surveys Among German Parliamentarians (Open Access),; KITCHIN, R.,(2014) The data revolution: Big data, open data, data infrastructures &amp; their consequences. Cited 1356 times.,London: SAGE; Koc-Michalska, K., Lilleker, D.G., Vedel, T.,Civic political engagement and social change in the new digital age (Open Access),; König, P.D.,Communicating austerity measures during times of crisis: A comparative empirical analysis of four heads of government,; Laurent, V.,Elites and indigenousness in Colombia: Challenges of democracy in a context of multiculturalism (Open Access),; LISTON‐HEYES, C, JUILLET, L.,Burdens of transparency: An analysis of public sector internal auditing,(2020) Public Administration, pp. 1-16.; Maleki, A., Hendriks, F.,Contestation and participation: Operationalizing and mapping democratic models for 80 electoral democracies, 1990-2009,; Manfredi Sánchez, J.L., Herranz de la Casa, J.M., Calvo Rubio, L.M.,Transparency and Diplomacy: New social demands and professional routines (Open Access),; Molina Rodríguez-Navas, P., Medranda Morales, N.J.,The transparency of the Ecuadorian municipality websites: Methodology and results (Open Access),; Molina Rodríguez-Navas, P., Simelio Solà, N., Corcoy Rius, M.,Methodology for transparency evaluation: Procedures and problems (Open Access),; Moreno-Sarda, A., Molina-Rodríguez-navas, P., Simelio-Solà, N.,The impact of legislation on the transparency in information published by local administrations (Open Access),; Moreno Sardà, A., Molina Rodríguez-Navas, P., Corcoy Rius, M.,The information published by local governments. The websites of Catalonia's municipal governments (Open Access),; Mossberger, K., Tolbert, C.J., Anderson, C.,The mobile Internet and digital citizenship in African-American and Latino communities,; MUÑOZ, P.,El liderazgo escolar como instrumento para fomentar la democracia participativa,(2016) Dominio de las Ciencias, 2, pp. 17-29.; Ohme, J.,Updating citizenship? The effects of digital media use on citizenship understanding and political participation,; ORTÍZ, D., ORDÓNEZ, S.,Buena Administración, Transparencia y Eficiencia: Evidencia de los Municipios de Colombia,(2019) Revista Digital de Derecho Administrativo, (21), pp. 179-199. Cited 6 times.; Pacios, A.R., La Torre Merino, J.L.,Spanish historic archives’ use of websites as a management transparency vehicle (Open Access),; PARDO, G., ABELLÁN, M.,La integración necesaria entre los enfoques de gestión pública y los procesos participativos democráticos. El caso de #ontinyentparticipa,(2016) Enfoques, 14 (24), pp. 67-90.; Parmelee, J.H., Roman, N.,Insta-Politicos: Motivations for Following Political Leaders on Instagram (Open Access),; Porlezza, C.,From Participatory Culture to Participatory Fatigue: The Problem With the Public (Open Access),; Pozen, D.E.,Seeing Transparency More Clearly (Open Access),; REPAK, D.,Is the communist ghost still alive? Participative democracy in Eastern Europe after the fall of Berlin wall. The case of post-conflict Yugoslavia and East-Central Europe,(2016) European Quarterly of Political Attitudes and Mentalities, 5 (3), pp. 1-16.; RODRÍGUEZ, R.,Tributación participativa. El caso del IRPF y la investigación científica,(2017) Nómadas, 50 (1), pp. 121-142.; Rodríguez Bolívar, M.P., Pérez, C.C., López Hernández, A.M.,Cultural contexts and governmental digital reporting,; Sabag Ben-Porat, C., Lehman-Wilzig, S.,Political “Postwriting” on Facebook: Public Perceptions About Parliamentarians’ (Un)Real SNS Involvement (Open Access),; Sandoval-Almazán, R.,Open government and transparency: Building a conceptual framework,; SANYAL, P., RAO, V.,(2018) Oral democracy. Cited 4 times.,Cambridge: Cambridge University Press; Sim, J.B.-Y., Krishnasamy, M.,Building a democratic society: exploring Singapore students ' understandings of democracy,; STOHL, C., STOHL, M., LEONARDI, P.,Digital Age | Managing Opacity: Information Visibility and the Paradox of Transparency in the Digital Age,(2016) International Journal Of Communication, 10 (15), pp. 137-137.; Stoycheff, E., Burgess, G.S., Martucci, M.C.,Online censorship and digital surveillance: the relationship between suppression technologies and democratization across countries,; Taylor-Smith, E., Smith, C.F.,Investigating the online and offline contexts of day-to-day democracy as participation spaces (Open Access),; Tebaldi, M., Calaresu, M.,“Democra-city”: bringing the city back into democratic theory for the 21st century? (Open Access),; Tejedo-Romero, F., Araujo, J.F.F.E.,E-government-enabled transparency: The effect of electoral aspects and citizen’s access to Internet on information disclosure (Open Access),; Veljković, N., Bogdanović-Dinić, S., Stoimenov, L.,Benchmarking open government: An open data perspective,; Washington, A.L.,Government information policy in the era of big data,; YU, H., ROBINSON, D.,The new ambiguity of open government,(2012) UCLA Law Review Discourse, (178), pp. 177-208. Cited 216 times.</t>
+          <t>Allcott, H., Gentzkow, M., Yu, C.,Trends in the diffusion of misinformation on social media,; Alon-Barkat, S.,Can government public communications elicit undue trust? Exploring the interaction between symbols and substantive information in communications,; BÁEZ, I.,Disfunciones de la democracia directa en la Unión Europea: corporativismo y ausencia de ciudadanía,(2016) RDUNED, 18, pp. 151-189.; Balaguer-Coll, M.T., Brun-Martos, M.I.,The effects of the political environment on transparency: evidence from Spanish local governments,; Becerra, J., Velandia, J., León, I.,A model to implment the transparency law in Colombia: The transparenc@ software,; Calvo, D., Campos-Domínguez, E.,Participation and topics of discussion of Spaniards in the digital public sphere,; Calvo, M.-Á.,Tools for virtual citizen participation and its development in the websites of the Andalusia Public Health System,; Sebastián, M.C., Cardama, S.M.,Government and open parliament: Citizens participation in the treatment and visualization of the public information,; CHAMORRO, M.,Participación ciudadana en américa del sur: institucionalidad y acciones ciudadanas tras la dictadura en Argentina y Brasil,(2016) CES Derecho, 7 (1), pp. 27-38. Cited 3 times.; Christensen, H.S.,Boosting political trust with direct democracy? The case of the finnish citizens’ initiative,; Clabo, N., Ramos-Vielba, I.,The re-use of open data in the Spanish public administration and the application of public copyright licenses,; Delamaza, G., Thayer, L.E.,Political perceptions and participation practices as a tool for territorial governance. A comparative analysis of territorial scales in the macroregion of southern Chile,; ECKHARD, S.,Bridging the citizen gap: Bureaucratic representation and knowledge linkage in (international) public administration,(2020) Governance, early view, 34 (2), pp. 1-20. Cited 2 times.; Ferrer-Sapena, A., Peset, F., Aleixandre-Benavent, R.,,(2011) Profesional de la Informacion, 20 (3), pp. 260-269. Cited 35 times.; Flyverbom, M., Christensen, L.T., Hansen, H.K.,The transparency-power nexus: Observational and regularizing control (Open Access),; Fuchs, D., Roller, E.,Conceptualizing and measuring the quality of democracy: The citizens’ perspective (Open Access),; Grabe, M.E., Myrick, J.G.,Informed Citizenship in a Media-Centric Way of Life,; Grimmelikhuijsen, S., Porumbescu, G., Hong, B., Im, T.,The effect of transparency on trust in government: A cross-national comparative experiment,; Hänska, M., Bauchowitz, S.,Can social media facilitate a European public sphere? Transnational communication and the Europeanization of Twitter during the Eurozone crisis,; Ingrams, A.,Democratic transition and transparency reform: An fsQCA analysis of access to information laws in twenty-three countries (Open Access),; Kelm, O., Dohle, M., Bernhard, U.,Politicians’ Self-Reported Social Media Activities and Perceptions: Results From Four Surveys Among German Parliamentarians (Open Access),; KITCHIN, R.,(2014) The data revolution: Big data, open data, data infrastructures &amp; their consequences. Cited 1359 times.,London: SAGE; Koc-Michalska, K., Lilleker, D.G., Vedel, T.,Civic political engagement and social change in the new digital age (Open Access),; König, P.D.,Communicating austerity measures during times of crisis: A comparative empirical analysis of four heads of government (Open Access),; Laurent, V.,Elites and indigenousness in Colombia: Challenges of democracy in a context of multiculturalism (Open Access),; LISTON‐HEYES, C, JUILLET, L.,Burdens of transparency: An analysis of public sector internal auditing,(2020) Public Administration, pp. 1-16.; Maleki, A., Hendriks, F.,Contestation and participation: Operationalizing and mapping democratic models for 80 electoral democracies, 1990-2009 (Open Access),; Manfredi Sánchez, J.L., Herranz de la Casa, J.M., Calvo Rubio, L.M.,Transparency and Diplomacy: New social demands and professional routines (Open Access),; Molina Rodríguez-Navas, P., Medranda Morales, N.J.,The transparency of the Ecuadorian municipality websites: Methodology and results,; Molina Rodríguez-Navas, P., Simelio Solà, N., Corcoy Rius, M.,Methodology for transparency evaluation: Procedures and problems (Open Access),; Moreno-Sarda, A., Molina-Rodríguez-navas, P., Simelio-Solà, N.,The impact of legislation on the transparency in information published by local administrations (Open Access),; Moreno Sardà, A., Molina Rodríguez-Navas, P., Corcoy Rius, M.,The information published by local governments. The websites of Catalonia's municipal governments (Open Access),; Mossberger, K., Tolbert, C.J., Anderson, C.,The mobile Internet and digital citizenship in African-American and Latino communities (Open Access),; MUÑOZ, P.,El liderazgo escolar como instrumento para fomentar la democracia participativa,(2016) Dominio de las Ciencias, 2, pp. 17-29.; Ohme, J.,Updating citizenship? The effects of digital media use on citizenship understanding and political participation (Open Access),; ORTÍZ, D., ORDÓNEZ, S.,Buena Administración, Transparencia y Eficiencia: Evidencia de los Municipios de Colombia,(2019) Revista Digital de Derecho Administrativo, (21), pp. 179-199. Cited 6 times.; Pacios, A.R., La Torre Merino, J.L.,Spanish historic archives’ use of websites as a management transparency vehicle (Open Access),; PARDO, G., ABELLÁN, M.,La integración necesaria entre los enfoques de gestión pública y los procesos participativos democráticos. El caso de #ontinyentparticipa,(2016) Enfoques, 14 (24), pp. 67-90.; Parmelee, J.H., Roman, N.,Insta-Politicos: Motivations for Following Political Leaders on Instagram,; Porlezza, C.,From Participatory Culture to Participatory Fatigue: The Problem With the Public,; Pozen, D.E.,Seeing Transparency More Clearly (Open Access),; REPAK, D.,Is the communist ghost still alive? Participative democracy in Eastern Europe after the fall of Berlin wall. The case of post-conflict Yugoslavia and East-Central Europe,(2016) European Quarterly of Political Attitudes and Mentalities, 5 (3), pp. 1-16.; RODRÍGUEZ, R.,Tributación participativa. El caso del IRPF y la investigación científica,(2017) Nómadas, 50 (1), pp. 121-142.; Rodríguez Bolívar, M.P., Pérez, C.C., López Hernández, A.M.,Cultural contexts and governmental digital reporting,; Sabag Ben-Porat, C., Lehman-Wilzig, S.,Political “Postwriting” on Facebook: Public Perceptions About Parliamentarians’ (Un)Real SNS Involvement,; Sandoval-Almazán, R.,Open government and transparency: Building a conceptual framework,; SANYAL, P., RAO, V.,(2018) Oral democracy. Cited 4 times.,Cambridge: Cambridge University Press; Sim, J.B.-Y., Krishnasamy, M.,Building a democratic society: exploring Singapore students ' understandings of democracy,; STOHL, C., STOHL, M., LEONARDI, P.,Digital Age | Managing Opacity: Information Visibility and the Paradox of Transparency in the Digital Age,(2016) International Journal Of Communication, 10 (15), pp. 137-137.; Stoycheff, E., Burgess, G.S., Martucci, M.C.,Online censorship and digital surveillance: the relationship between suppression technologies and democratization across countries (Open Access),; Taylor-Smith, E., Smith, C.F.,Investigating the online and offline contexts of day-to-day democracy as participation spaces (Open Access),; Tebaldi, M., Calaresu, M.,“Democra-city”: bringing the city back into democratic theory for the 21st century? (Open Access),; Tejedo-Romero, F., Araujo, J.F.F.E.,E-government-enabled transparency: The effect of electoral aspects and citizen’s access to Internet on information disclosure (Open Access),; Veljković, N., Bogdanović-Dinić, S., Stoimenov, L.,Benchmarking open government: An open data perspective (Open Access),; Washington, A.L.,Government information policy in the era of big data (Open Access),; YU, H., ROBINSON, D.,The new ambiguity of open government,(2012) UCLA Law Review Discourse, (178), pp. 177-208. Cited 217 times.</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -4571,7 +4316,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>No Encontrado</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -4582,11 +4327,6 @@
       <c r="O52" t="inlineStr">
         <is>
           <t>10.51915/ret.190</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>Colombia</t>
         </is>
       </c>
     </row>
@@ -4631,7 +4371,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Asmat, S. N., Borja, C. A., Bernuy, L. A., Lizarzaburu, D. A., Morillo, J.,Estudio bibliométrico de la producción científica sobre TIC en Perú (2010-2017),(2019) Propósitos y Representaciones, 7 (2), pp. 196-209. Cited 3 times.; Baiget, T.,(2020) Manual SCImago de revistas científicas. Creación, gestión y publicación. Cited 6 times.,Ediciones Profesionales de la Información; Bom-Camargo, Y.I.,Towards social responsibility as a sustainability strategy in business management,; Bradford, S.C.,Classic paper in the management of library collections sources of information on specific subjects,; De Bakker, F.G.A., Groenewegen, P., Den Hond, F.,A bibliometric analysis of 30 years of research and theory on corporate social responsibility and corporate social performance (Open Access),; Duque, P., Cervantes-Cervantes, L.-S.,University social responsibility: A systematic review and a bibliometric analysis (Open Access),; Enríquez, J. F., Cuarán, M. S., Torres, O. X.,La investigación sobre responsabilidad social empresarial en las universidades ecuatorianas. Un estudio bibliométrico,(2020) Revista Dilemas Contemporáneos: Educación, Política y Valores, VIII (1), p. 59.; Hernández, R., Fernández, C., Baptista, M. D. P.,(2014) Metodología de la Investigación. Cited 6043 times.,McGraw-Hill Interamericana Editores S.A. de C.V; Luque, A., Ordoñez, J. L., Ruales, V Z.,(2017) La responsabilidad social en las asociaciones de la Economía Popular y Solidaria [Ponencia],(18 de octubre de). II Congreso: Ciencia, Sociedad e Investigación Universitaria. Ambato, Ecuador; Vargas, G.M., Solarte, M.G., Rodríguez, A.R.A.,Corporate social responsibility, institutional and organizational change of the Colombian oil sector (Open Access),; (2015) Transformar nuestro mundo: La Agenda 2030 para el Desarrollo Sostenible. Cited 234 times.,Naciones Unidas,https://www.un.org/ga/search/viewdoc.asp?symbol=A/70/L.1&amp;Lang=S; Ormaza, J., Ochoa, J., Ramírez, F., Quevedo, J.,Responsabilidad social empresarial en el Ecuador: Abordaje desde la Agenda 2030,(2020) Revista de Ciencias Sociales (Ve), XXVI (3), p. 175193. Cited 8 times.; Pacenza, M. I., Silva, Y. F,Análisis bibliométrico sobre responsabilidad social universitaria,(2013) Psychology, Society, &amp; Education, 5 (2), p. 125138. Cited 12 times.; Quintas-Froufe, N.,Quality Indicators for Scientific Publications in the Social Sciences in Spain: A Comparative Analysis between Evaluation Agencies (Open Access),; Restrepo-Arango, C., Urbizagástegui-Alvarado, R.,Co-words network in Mexican bibliometrics (Open Access),; Ronda-Pupo, G.A.,Productivity and citation impact of the latin american and the caribbean science system in domestic journals (Open Access),; Ryder, G.,Guy Rider: “Todavía hay tiempo para que la globalización funcione para todos”,(2017) Organización Internacional del Trabajo; Scarpellini, S., Marín-Vinuesa, L.M., Aranda-Usón, A., Portillo-Tarragona, P.,Dynamic capabilities and environmental accounting for the circular economy in businesses (Open Access),; Spinak, E.,(1996) Diccionario enciclopédico de Bibliometría, Cienciometría e Informetría. Cited 125 times.,UNESCO; Urbizagástegui-Alvarado, R.,Synchronic study of literature obsolescence: The case of Lotka's Law (Open Access),; Alvarado, R.U.,Growth of Literature on Bradford's Law (Open Access),; Witter, G.,(1997) Produgdo científica,(Org) Editora Átomo; Zárate Rueda, R., Becerra Ardila, L.E., Fuentes Suárez, F.L.,State of scientific production of Social Responsibility in Colombia,</t>
+          <t>Asmat, S. N., Borja, C. A., Bernuy, L. A., Lizarzaburu, D. A., Morillo, J.,Estudio bibliométrico de la producción científica sobre TIC en Perú (2010-2017),(2019) Propósitos y Representaciones, 7 (2), pp. 196-209. Cited 3 times.; Baiget, T.,(2020) Manual SCImago de revistas científicas. Creación, gestión y publicación. Cited 6 times.,Ediciones Profesionales de la Información; Bom-Camargo, Y.I.,Towards social responsibility as a sustainability strategy in business management,; Bradford, S.C.,Classic paper in the management of library collections sources of information on specific subjects,; De Bakker, F.G.A., Groenewegen, P., Den Hond, F.,A bibliometric analysis of 30 years of research and theory on corporate social responsibility and corporate social performance,; Duque, P., Cervantes-Cervantes, L.-S.,University social responsibility: A systematic review and a bibliometric analysis,; Enríquez, J. F., Cuarán, M. S., Torres, O. X.,La investigación sobre responsabilidad social empresarial en las universidades ecuatorianas. Un estudio bibliométrico,(2020) Revista Dilemas Contemporáneos: Educación, Política y Valores, VIII (1), p. 59.; Hernández, R., Fernández, C., Baptista, M. D. P.,(2014) Metodología de la Investigación. Cited 6077 times.,McGraw-Hill Interamericana Editores S.A. de C.V; Luque, A., Ordoñez, J. L., Ruales, V Z.,(2017) La responsabilidad social en las asociaciones de la Economía Popular y Solidaria [Ponencia],(18 de octubre de). II Congreso: Ciencia, Sociedad e Investigación Universitaria. Ambato, Ecuador; Vargas, G.M., Solarte, M.G., Rodríguez, A.R.A.,Corporate social responsibility, institutional and organizational change of the Colombian oil sector,; (2015) Transformar nuestro mundo: La Agenda 2030 para el Desarrollo Sostenible. Cited 238 times.,Naciones Unidas,https://www.un.org/ga/search/viewdoc.asp?symbol=A/70/L.1&amp;Lang=S; Ormaza, J., Ochoa, J., Ramírez, F., Quevedo, J.,Responsabilidad social empresarial en el Ecuador: Abordaje desde la Agenda 2030,(2020) Revista de Ciencias Sociales (Ve), XXVI (3), p. 175193. Cited 8 times.; Pacenza, M. I., Silva, Y. F,Análisis bibliométrico sobre responsabilidad social universitaria,(2013) Psychology, Society, &amp; Education, 5 (2), p. 125138. Cited 12 times.; Quintas-Froufe, N.,Quality Indicators for Scientific Publications in the Social Sciences in Spain: A Comparative Analysis between Evaluation Agencies (Open Access),; Restrepo-Arango, C., Urbizagástegui-Alvarado, R.,Co-words network in Mexican bibliometrics (Open Access),; Ronda-Pupo, G.A.,Productivity and citation impact of the latin american and the caribbean science system in domestic journals (Open Access),; Ryder, G.,Guy Rider: “Todavía hay tiempo para que la globalización funcione para todos”,(2017) Organización Internacional del Trabajo; Scarpellini, S., Marín-Vinuesa, L.M., Aranda-Usón, A., Portillo-Tarragona, P.,Dynamic capabilities and environmental accounting for the circular economy in businesses,; Spinak, E.,(1996) Diccionario enciclopédico de Bibliometría, Cienciometría e Informetría. Cited 125 times.,UNESCO; Urbizagástegui-Alvarado, R.,Synchronic study of literature obsolescence: The case of Lotka's Law (Open Access),; Alvarado, R.U.,Growth of Literature on Bradford's Law (Open Access),; Witter, G.,(1997) Produgdo científica,(Org) Editora Átomo; Zárate Rueda, R., Becerra Ardila, L.E., Fuentes Suárez, F.L.,State of scientific production of Social Responsibility in Colombia (Open Access),</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -4662,11 +4402,6 @@
       <c r="O53" t="inlineStr">
         <is>
           <t>10.31876/rcs.v28i2.37937</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
         </is>
       </c>
     </row>
@@ -4711,7 +4446,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Almeida Prado Cestari, J.M., Loures, E.D.F.R., Santos, E.A.P., Panetto, H.,A capability model for public administration interoperability (Open Access),; Al-Qutaish, R.,Quality models in software engineering literature: An analytical and comparative study,(2010) Journal of American Science, 6 (3), pp. 166-175. Cited 71 times.; (2005) Deliverable DA1.4: Framework for the establishment and management methodology,ATHENA,http://mossec.org/html/ATHENA/Deliverables/Deliverables%20provided%20to%20EC%202nd%206%20months/050314AthenaDA141V10.pdf; (2019) El ABC de la interoperabilidad de los servicios sociales: Marco conceptual y metodológico,BID,http://dx.doi.org/10.18235/0001834; Camara, M.S., Ducq, Y., Dupas, R.,A methodology for the evaluation of interoperability improvements in inter-enterprises collaboration based on causal performance measurement models,; Cantillo Campo, N., Pedraza Reyes, C.J., Suarez Barros, H.,Formation of social entrepreneurship: Commitment of the University of La Guajira in Colombia,; Chen, D.,Framework for enterprise interoperability,; Clark, T., Jones, R.,Organisational interoperability maturity model for C2,(1999) Proceedings of the Command &amp; Control Research &amp; Technology Symposium (CCRTS). Cited 96 times.; (1998) Levels of Information Systems Interoperability (LISI). Cited 154 times.,https://www.defense.gov/,  10; Eisenhardt, K. M.,Building theories from case study research,(1989) The Academy of Management Review, 14 (4), p. 532550. Cited 26474 times.; Escorcia Guzmán, J., Barros Arrieta, D.,Knowledge management in higher education institutions: Characterization from a theoretical reflection,; Fontanella, C.,(2020) The best 10 qualitative data analysis software in 2020. Cited 3 times.,HubSpot; García-Peñalvo, F. J.,La universidad de la próxima década: La universidad digital,(2011) Universidad y desarrollo social de la web, p. 181197. Cited 13 times.; Guédria, W., Naudet, Y., Chen, D.,Maturity model for enterprise interoperability,; (2017) Interoperability. EITBOK,http://eitbokwiki.org/Interoperability,  17; Komka, A., Daunoravicius, J.,(2001) Information system of University: Goals and problems, pp. 46-51. Cited 3 times.,Vilnius Gediminas Technical University; Leal, G.S.S., Guedria, W., Panetto, H., Lezoche, M.,Towards a comparative analysis of interoperability assessment approaches for collaborative enterprise systems,; da Silva Serapião Leal, G., Guédria, W., Panetto, H.,Interoperability assessment: A systematic literature review (Open Access),; López, M. C.,Impacto de las tecnologías de la información y la comunicación (TIC) en el docente universitario. El caso de la Universidad de Guadalajara,(2013) Perspectiva Educacional, 52 (2), pp. 4-34. Cited 12 times.; Loukis, E.N., Charalabidis, Y.K.,An empirical investigation of information systems interoperability business value in European firms,; Ralyté, J., Jeusfeld, M.A., Backlund, P., Kühn, H., Arni-Bloch, N.,A knowledge-based approach to manage information systems interoperability,; Saillard, E. K.,Systematic versus interpretive analysis with two CAQDAS packages: NVivo and MAXQDA,(2011) Forum: Qualitative Social Research, 12 (1). Cited 65 times.; Olga, S.C., Jenica, L.C.M., Nelson, M.G.J., Rafael, D.D.J.,Teacher resilience in public schools in Metropolitan Lima – Peru (Open Access),; Sheth, A. P.,Changing focus on interoperability in information systems: From system, syntax, structure to semantics,(2015) Interoperating Geographic Information Systems, pp. 5-29. Cited 342 times.; Shih, T., Huang, Y.-Y.,A case study on technology entrepreneurship education at a Taiwanese research university (Open Access),; García-Peñalvo, F. J.,La universidad de la próxima década: La universidad digital,(2011) Universidad y desarrollo social de la web, p. 181197. Cited 13 times.; Guédria, W., Naudet, Y., Chen, D.,Maturity model for enterprise interoperability,; (2017) Interoperability. EITBOK,http://eitbokwiki.org/Interoperability,  31; Komka, A., Daunoravicius, J.,(2001) Information system of University: Goals and problems, pp. 46-51. Cited 3 times.,Vilnius Gediminas Technical University; Leal, G.S.S., Guedria, W., Panetto, H., Lezoche, M.,Towards a comparative analysis of interoperability assessment approaches for collaborative enterprise systems,; da Silva Serapião Leal, G., Guédria, W., Panetto, H.,Interoperability assessment: A systematic literature review (Open Access),; López, M. C.,Impacto de las tecnologías de la información y la comunicación (TIC) en el docente universitario. El caso de la Universidad de Guadalajara,(2013) Perspectiva Educacional, 52 (2), pp. 4-34. Cited 12 times.; Loukis, E.N., Charalabidis, Y.K.,An empirical investigation of information systems interoperability business value in European firms,; Ralyté, J., Jeusfeld, M.A., Backlund, P., Kühn, H., Arni-Bloch, N.,A knowledge-based approach to manage information systems interoperability,; Saillard, E. K.,Systematic versus interpretive analysis with two CAQDAS packages: NVivo and MAXQDA,(2011) Forum: Qualitative Social Research, 12 (1). Cited 65 times.; Olga, S.C., Jenica, L.C.M., Nelson, M.G.J., Rafael, D.D.J.,Teacher resilience in public schools in Metropolitan Lima – Peru (Open Access),; Sheth, A. P.,Changing focus on interoperability in information systems: From system, syntax,structure to semantics,(2015) Interoperating Geographic Information Systems, pp. 5-29. Cited 342 times.; Shih, T., Huang, Y.-Y.,A case study on technology entrepreneurship education at a Taiwanese research university (Open Access),</t>
+          <t>Almeida Prado Cestari, J.M., Loures, E.D.F.R., Santos, E.A.P., Panetto, H.,A capability model for public administration interoperability,; Al-Qutaish, R.,Quality models in software engineering literature: An analytical and comparative study,(2010) Journal of American Science, 6 (3), pp. 166-175. Cited 71 times.; (2005) Deliverable DA1.4: Framework for the establishment and management methodology,ATHENA,http://mossec.org/html/ATHENA/Deliverables/Deliverables%20provided%20to%20EC%202nd%206%20months/050314AthenaDA141V10.pdf; (2019) El ABC de la interoperabilidad de los servicios sociales: Marco conceptual y metodológico,BID,http://dx.doi.org/10.18235/0001834; Camara, M.S., Ducq, Y., Dupas, R.,A methodology for the evaluation of interoperability improvements in inter-enterprises collaboration based on causal performance measurement models,; Cantillo Campo, N., Pedraza Reyes, C.J., Suarez Barros, H.,Formation of social entrepreneurship: Commitment of the University of La Guajira in Colombia,; Chen, D.,Framework for enterprise interoperability,; Clark, T., Jones, R.,Organisational interoperability maturity model for C2,(1999) Proceedings of the Command &amp; Control Research &amp; Technology Symposium (CCRTS). Cited 96 times.; (1998) Levels of Information Systems Interoperability (LISI). Cited 154 times.,https://www.defense.gov/,  10; Eisenhardt, K. M.,Building theories from case study research,(1989) The Academy of Management Review, 14 (4), p. 532550. Cited 26521 times.; Escorcia Guzmán, J., Barros Arrieta, D.,Knowledge management in higher education institutions: Characterization from a theoretical reflection (Open Access),; Fontanella, C.,(2020) The best 10 qualitative data analysis software in 2020. Cited 3 times.,HubSpot; García-Peñalvo, F. J.,La universidad de la próxima década: La universidad digital,(2011) Universidad y desarrollo social de la web, p. 181197. Cited 13 times.; Guédria, W., Naudet, Y., Chen, D.,Maturity model for enterprise interoperability (Open Access),; (2017) Interoperability. EITBOK,http://eitbokwiki.org/Interoperability,  17; Komka, A., Daunoravicius, J.,(2001) Information system of University: Goals and problems, pp. 46-51. Cited 3 times.,Vilnius Gediminas Technical University; Leal, G.S.S., Guedria, W., Panetto, H., Lezoche, M.,Towards a comparative analysis of interoperability assessment approaches for collaborative enterprise systems,; da Silva Serapião Leal, G., Guédria, W., Panetto, H.,Interoperability assessment: A systematic literature review,; López, M. C.,Impacto de las tecnologías de la información y la comunicación (TIC) en el docente universitario. El caso de la Universidad de Guadalajara,(2013) Perspectiva Educacional, 52 (2), pp. 4-34. Cited 12 times.; Loukis, E.N., Charalabidis, Y.K.,An empirical investigation of information systems interoperability business value in European firms,; Ralyté, J., Jeusfeld, M.A., Backlund, P., Kühn, H., Arni-Bloch, N.,A knowledge-based approach to manage information systems interoperability,; Saillard, E. K.,Systematic versus interpretive analysis with two CAQDAS packages: NVivo and MAXQDA,(2011) Forum: Qualitative Social Research, 12 (1). Cited 65 times.; Olga, S.C., Jenica, L.C.M., Nelson, M.G.J., Rafael, D.D.J.,Teacher resilience in public schools in Metropolitan Lima – Peru,; Sheth, A. P.,Changing focus on interoperability in information systems: From system, syntax, structure to semantics,(2015) Interoperating Geographic Information Systems, pp. 5-29. Cited 342 times.; Shih, T., Huang, Y.-Y.,A case study on technology entrepreneurship education at a Taiwanese research university,; García-Peñalvo, F. J.,La universidad de la próxima década: La universidad digital,(2011) Universidad y desarrollo social de la web, p. 181197. Cited 13 times.; Guédria, W., Naudet, Y., Chen, D.,Maturity model for enterprise interoperability,; (2017) Interoperability. EITBOK,http://eitbokwiki.org/Interoperability,  31; Komka, A., Daunoravicius, J.,(2001) Information system of University: Goals and problems, pp. 46-51. Cited 3 times.,Vilnius Gediminas Technical University; Leal, G.S.S., Guedria, W., Panetto, H., Lezoche, M.,Towards a comparative analysis of interoperability assessment approaches for collaborative enterprise systems,; da Silva Serapião Leal, G., Guédria, W., Panetto, H.,Interoperability assessment: A systematic literature review,; López, M. C.,Impacto de las tecnologías de la información y la comunicación (TIC) en el docente universitario. El caso de la Universidad de Guadalajara,(2013) Perspectiva Educacional, 52 (2), pp. 4-34. Cited 12 times.; Loukis, E.N., Charalabidis, Y.K.,An empirical investigation of information systems interoperability business value in European firms,; Ralyté, J., Jeusfeld, M.A., Backlund, P., Kühn, H., Arni-Bloch, N.,A knowledge-based approach to manage information systems interoperability,; Saillard, E. K.,Systematic versus interpretive analysis with two CAQDAS packages: NVivo and MAXQDA,(2011) Forum: Qualitative Social Research, 12 (1). Cited 65 times.; Olga, S.C., Jenica, L.C.M., Nelson, M.G.J., Rafael, D.D.J.,Teacher resilience in public schools in Metropolitan Lima – Peru,; Sheth, A. P.,Changing focus on interoperability in information systems: From system, syntax,structure to semantics,(2015) Interoperating Geographic Information Systems, pp. 5-29. Cited 342 times.; Shih, T., Huang, Y.-Y.,A case study on technology entrepreneurship education at a Taiwanese research university,</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -4742,11 +4477,6 @@
       <c r="O54" t="inlineStr">
         <is>
           <t>10.31876/rcs.v28i2.37924</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>Mexico</t>
         </is>
       </c>
     </row>
@@ -4791,7 +4521,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>PINOCHET UGARTE, A.,(1977) Discurso en Cerro Chacarillas, con ocasión del día de la juventud. Cited 3 times.,Véase: Santiago, sin editor; GUERRERO BÉCAR, J. L.,(2018) La Constitución Económica Chilena, p. 64. Cited 4 times.,Santiago, Chile, Der Ediciones; FERNÁNDEZ FREDES, F.,La Constitución Chilena de 1980: enclaves autoritarios y cerrojos institucionales,(2002) Sistema representativo y democracia semidirecta, memoria del VII Congreso Iberoamericano de Derecho Constitucional, Hugo Concha Cantú coord, p. 195. Cited 2 times.; GUERRERO BÉCAR, J. L.,(2018) La Constitución Económica Chilena, p. 66. Cited 4 times.,Santiago, Der Ediciones; GUERRERO BÉCAR, J. L.,(2018) La Constitución Económica Chilena, p. 66. Cited 4 times.,Santiago, Der Ediciones; GUERRERO BÉCAR, J. L.,(2018) La Constitución Económica Chilena, p. 78. Cited 4 times.,Santiago, Chile, Der Ediciones; DE LA FUENTE, G., MLYNARZ, D.,(2020) El pueblo en movimiento,Y, Véanse, entre otros: Del malestar al estallido, Santiago, Editorial Catalonia; JOIGNANT, A., GARRETÓN, M., SOMMA, N., CAMPOS, T.,(2020) Informe Anual Observatorio de Conflictos 2020. Cited 10 times.,Y, Santiago, Chile: COES; GARRETÓN, M. A.,(2016) La gran ruptura. Institucionalidad política y actores sociales en el Chile del siglo XXI. Cited 19 times.,Santiago, LOM; Zúñiga Urbina, F.,New constitution and constituent operation. Some notes concerning the constitutional reform and of the Constitutional Assembly (Open Access),; CRISAFULLI, V.,Sobre la eficacia normativa de las disposiciones de principio en la Constitución» (trad. Mario Cerda Medina),(1967) Revista de Derecho Público de la Universidad de Chile, (7), p. 41.; ZÚÑIGA URBINA, F.,Constitución y “cláusulas económicas y sociales”. Algunas notas acerca de la operatividad de las normas constitucionales», Cuestiones Constitucionales,(2009) Revista mexicana de Derecho Constitucional, 21.; ZÚÑIGA URBINA, F.,Constitución económica y Estado empresario,(2001) Revista de Derecho Público, (63), p. 343. Cited 3 times.; GARCÍA PELAYO, M.,(1991) Obras Completas, p. 2857. Cited 546 times.,Madrid: Centro de Estudios Constitucionales; ZÚÑIGA URBINA, F.,Constitución económica y Estado empresario,(2001) Revista de Derecho Público, (63), p. 345. Cited 3 times.; ZÚÑIGA URBINA, F.,Constitución económica y Estado empresario,(2001) Revista de Derecho Público, (63), pp. 345-346. Cited 3 times.; FERMANDOIS VÖHRINGER, A.,(2002) Derecho Constitucional Económico, p. 85. Cited 55 times.,tomo I, Santiago, Ediciones Pontificia Universidad Católica, especialmente 117 y 218; VILLAR EZCURRA, J. L.,(1999) Derecho Administrativo Especial. Administración pública y actividad de los particulares, p. 21. Cited 4 times.,Madrid, España, Editorial Civitas, y ss; LEAL VÁSQUEZ, B.,La potestad de inspección de la Administración del Estado,(2015) Cuadernos del Tribunal Constitucional, (56), p. 24.; VILLAR EZCURRA, J. L.,(1999) Derecho Administrativo Especial. Administración pública y actividad de los particulares, p. 24. Cited 4 times.,Madrid, España, Editorial Civitas; VILLAR EZCURRA, J. L.,(1999) Derecho Administrativo Especial. Administración pública y actividad de los particulares, p. 24. Cited 4 times.,Madrid, España, Editorial Civitas; DUGUIT, L.,(1928) Traité de Droit Constitutionnel, p. 59. Cited 105 times.,Cfr. Paris, Fontemoing &amp; Cie. Éditeurs; JORDANA DE POZAS, L.,Ensayo de una teoría del fomento en el Derecho Administrativo,(1949) Revista de Estudios Políticos. Cited 15 times.; NAVARRO BELTRÁN, E.,(2016) La Constitución Económica chilena ante los Tribunales de Justicia, p. 66. Cited 6 times.,Santiago, ediciones Universidad Finis Terrae; NAVARRO BELTRÁN, E.,(2016) La Constitución Económica chilena ante los Tribunales de Justicia, pp. 68-69. Cited 6 times.,Santiago, ediciones Universidad Finis Terrae; Acta de la Sesión N°65 de 13 de marzo de 1979,(2008) Actas del Consejo de Estado en Chile (1976-1990), p. 386.,Consejo de Estado. En: ARANCIBIA MAT-TAR, J., BRAHM GARCÍA, E. e IRARRÁZAVAL GOMIEN, A., editores, tomo I, Santiago, ediciones Centro de Estudios Bicentenario; NAVARRO BELTRÁN, E.,(2016) La Constitución Económica chilena ante los Tribunales de Justicia, pp. 69-71. Cited 6 times.,Santiago, ediciones Universidad Finis Terrae; ZÚÑIGA URBINA, F.,Constitución económica y Estado empresario,(2001) Revista de Derecho Público, (63), p. 353. Cited 3 times.; ZÚÑIGA URBINA, F.,Constitución económica y Estado empresario,(2001) Revista de Derecho Público, (63), pp. 360-361. Cited 3 times.; GUERRERO BÉCAR, J. L.,(2018) La Constitución Económica Chilena, pp. 333-334. Cited 4 times.,Santiago, Chile, Der Ediciones; GUERRERO BÉCAR, J. L.,(2018) La Constitución Económica Chilena, p. 334. Cited 4 times.,Véase: Santiago, Chile, Der Ediciones; GUERRERO BÉCAR, J. L.,(2018) La Constitución Económica Chilena, pp. 335-336. Cited 4 times.,Véase: Santiago, Chile, Der Ediciones; PIERRY ARRAU, P.,Algunos aspectos de la actividad empresarial del Estado,(1985) Revista de Derecho Público, (37-38), pp. 222-223.; VON LOEBENSTEIN WEIL, B.,(2018) Empresas Públicas, sus características, naturaleza jurídica, marco normativo, régimen jurídico y su vinculación con la Administración del Estado, pp. 33-35.,Santiago, Chile: Editorial Hammurabi; LATORRE VIVAR, P.,Las sociedades estatales en el ordenamiento jurídico chileno: naturaleza, límites y control de sus actividades,(2008) Revista de Derecho de la Pontificia Universidad Católica de Valparaíso Nº30, p. 223. Cited 4 times.; PIERRY ARRAU, P.,Algunos aspectos de la actividad empresarial del Estado,(1985) Revista de Derecho Público, (37-38), pp. 224-231.; LATORRE VIVAR, P.,Las sociedades estatales en el ordenamiento jurídico chileno: naturaleza, límites y control de sus actividades,(2008) Revista de Derecho de la Pontificia Universidad Católica de Valparaíso Nº30, pp. 225-226. Cited 4 times.; VON LOEBENSTEIN WEIL, B.,(2018) Empresas Públicas, sus características, naturaleza jurídica, marco normativo, régimen jurídico y su vinculación con la Administración del Estado, pp. 37-38.,Santiago, Chile: Editorial Hammurabi; (1998) Informe de la Comisión Especial Investigadora de la administración que hace la Empresa Metropolitana de Residuos Sólidos (Emeres) del vertedero ubicado en el Fundo Lepanto, en la comuna de San Bernardo, y otras materias afines, creada por acuerdo de la Cámara de Diputados, adoptado el 15 de octubre de 1997, pp. 4-5.,Valparaíso, Chile: Cámara de Diputados de Chile, 1998,https://www.bcn.cl/laborparlamentaria/wsgi/consulta/verParticipacion.py?idParticipacion=1351615&amp;idPersona=2574&amp;idDocumento=666244&amp;idAkn=entityE6ZN2ZF6; WILLIAM GARCÍA,Una gran conversación por Chile,(2015) ; PALMA GONZÁLEZ, E.,Sobre la intervención del Poder Judicial en Chile luego del 11 de septiembre de 1973,(1998) Jueces para la democracia, (32), pp. 89-92. Cited 3 times.; ZÚÑIGA URBINA, F.,Nueva Constitución y constitucionalismo en el bicentenario,(2014) Revista de Derecho Público; FERMANDOIS VÖHRINGER, A.,(2002) Derecho Constitucional Económico, pp. 218-219. Cited 55 times.,tomo I, Santiago, Ediciones Pontificia Universidad Católica; MARIENHOFF, M. S.,(1982) Tratado de Derecho Administrativo, p. 162. Cited 24 times.,Tomo I. Teoría General, Buenos Aires: Abeledo Perrot, 1982, tercera edición actualizada; PAREJO, L.,Estado social y Administración Pública,(1983) Los postulados constitucionales de la reforma administrativa, pp. 21-22. Cited 7 times.; DIEZ-PICAZO GIMÉNEZ, L. M.,(1990) La derogación de las leyes, p. 285. Cited 11 times.,Véase: Madrid, Editorial Civitas, S. A., y ss; ZÚÑIGA URBINA, F., PEROTI DÍAZ, F.,(2020) Bases y fundamentos de una propuesta constitucional progresista, p. 17. Cited 2 times.,Véanse, entre otras: coordinadores Santiago, Convergencia Progresista, y ss; (2021) Bases constitucionales de la DC para la nueva Constitución, pp. 11-12.,Santiago, PDC,https://www.diarioconstitucional.cl/wp-content/uploads/2021/01/Bases-Constitucionales-de-la-DCpara-la-Nueva-Constitucio%CC%81n-2021.pdf; (2021) Programa Convencionales Constituyentes, p. 11.,Santiago, Revolución Democrática,https://revoluciondemocratica.cl/programa-constituyente-rd/; (2020) Evolución Constitucional. Bases conceptuales y propuestas para pensar la nueva Constitución, p. 34.,Con matices y ambigüedad, véase: HORIZONTAL Santiago, Horizontal,https://www.horizontalchile.cl/wp-content/uploads/2020/10/ECV3.pdf; (2014) Nueva Constitución y momento constituyente,Santiago, Editorial Thomson Reuters,  52; (2015) Propuestas para una nueva Constitución (originada en democracia),VV.AA. Instituto Igualdad, Friedrich Ebert Stiftung y Facultad de Derecho de la Universidad de Chile; en el proyecto de reforma constitucional iniciado por mensaje 407-365 de la Presidenta Michelle Bachelet (boletín N 11.617-07, de 2018); entre otras,  54</t>
+          <t>PINOCHET UGARTE, A.,(1977) Discurso en Cerro Chacarillas, con ocasión del día de la juventud. Cited 3 times.,Véase: Santiago, sin editor; GUERRERO BÉCAR, J. L.,(2018) La Constitución Económica Chilena, p. 64. Cited 4 times.,Santiago, Chile, Der Ediciones; FERNÁNDEZ FREDES, F.,La Constitución Chilena de 1980: enclaves autoritarios y cerrojos institucionales,(2002) Sistema representativo y democracia semidirecta, memoria del VII Congreso Iberoamericano de Derecho Constitucional, Hugo Concha Cantú coord, p. 195. Cited 2 times.; GUERRERO BÉCAR, J. L.,(2018) La Constitución Económica Chilena, p. 66. Cited 4 times.,Santiago, Der Ediciones; GUERRERO BÉCAR, J. L.,(2018) La Constitución Económica Chilena, p. 66. Cited 4 times.,Santiago, Der Ediciones; GUERRERO BÉCAR, J. L.,(2018) La Constitución Económica Chilena, p. 78. Cited 4 times.,Santiago, Chile, Der Ediciones; DE LA FUENTE, G., MLYNARZ, D.,(2020) El pueblo en movimiento,Y, Véanse, entre otros: Del malestar al estallido, Santiago, Editorial Catalonia; JOIGNANT, A., GARRETÓN, M., SOMMA, N., CAMPOS, T.,(2020) Informe Anual Observatorio de Conflictos 2020. Cited 10 times.,Y, Santiago, Chile: COES; GARRETÓN, M. A.,(2016) La gran ruptura. Institucionalidad política y actores sociales en el Chile del siglo XXI. Cited 19 times.,Santiago, LOM; Zúñiga Urbina, F.,New constitution and constituent operation. Some notes concerning the constitutional reform and of the Constitutional Assembly,; CRISAFULLI, V.,Sobre la eficacia normativa de las disposiciones de principio en la Constitución» (trad. Mario Cerda Medina),(1967) Revista de Derecho Público de la Universidad de Chile, (7), p. 41.; ZÚÑIGA URBINA, F.,Constitución y “cláusulas económicas y sociales”. Algunas notas acerca de la operatividad de las normas constitucionales», Cuestiones Constitucionales,(2009) Revista mexicana de Derecho Constitucional, 21.; ZÚÑIGA URBINA, F.,Constitución económica y Estado empresario,(2001) Revista de Derecho Público, (63), p. 343. Cited 3 times.; GARCÍA PELAYO, M.,(1991) Obras Completas, p. 2857. Cited 548 times.,Madrid: Centro de Estudios Constitucionales; ZÚÑIGA URBINA, F.,Constitución económica y Estado empresario,(2001) Revista de Derecho Público, (63), p. 345. Cited 3 times.; ZÚÑIGA URBINA, F.,Constitución económica y Estado empresario,(2001) Revista de Derecho Público, (63), pp. 345-346. Cited 3 times.; FERMANDOIS VÖHRINGER, A.,(2002) Derecho Constitucional Económico, p. 85. Cited 55 times.,tomo I, Santiago, Ediciones Pontificia Universidad Católica, especialmente 117 y 218; VILLAR EZCURRA, J. L.,(1999) Derecho Administrativo Especial. Administración pública y actividad de los particulares, p. 21. Cited 4 times.,Madrid, España, Editorial Civitas, y ss; LEAL VÁSQUEZ, B.,La potestad de inspección de la Administración del Estado,(2015) Cuadernos del Tribunal Constitucional, (56), p. 24.; VILLAR EZCURRA, J. L.,(1999) Derecho Administrativo Especial. Administración pública y actividad de los particulares, p. 24. Cited 4 times.,Madrid, España, Editorial Civitas; VILLAR EZCURRA, J. L.,(1999) Derecho Administrativo Especial. Administración pública y actividad de los particulares, p. 24. Cited 4 times.,Madrid, España, Editorial Civitas; DUGUIT, L.,(1928) Traité de Droit Constitutionnel, p. 59. Cited 105 times.,Cfr. Paris, Fontemoing &amp; Cie. Éditeurs; JORDANA DE POZAS, L.,Ensayo de una teoría del fomento en el Derecho Administrativo,(1949) Revista de Estudios Políticos. Cited 15 times.; NAVARRO BELTRÁN, E.,(2016) La Constitución Económica chilena ante los Tribunales de Justicia, p. 66. Cited 6 times.,Santiago, ediciones Universidad Finis Terrae; NAVARRO BELTRÁN, E.,(2016) La Constitución Económica chilena ante los Tribunales de Justicia, pp. 68-69. Cited 6 times.,Santiago, ediciones Universidad Finis Terrae; Acta de la Sesión N°65 de 13 de marzo de 1979,(2008) Actas del Consejo de Estado en Chile (1976-1990), p. 386.,Consejo de Estado. En: ARANCIBIA MAT-TAR, J., BRAHM GARCÍA, E. e IRARRÁZAVAL GOMIEN, A., editores, tomo I, Santiago, ediciones Centro de Estudios Bicentenario; NAVARRO BELTRÁN, E.,(2016) La Constitución Económica chilena ante los Tribunales de Justicia, pp. 69-71. Cited 6 times.,Santiago, ediciones Universidad Finis Terrae; ZÚÑIGA URBINA, F.,Constitución económica y Estado empresario,(2001) Revista de Derecho Público, (63), p. 353. Cited 3 times.; ZÚÑIGA URBINA, F.,Constitución económica y Estado empresario,(2001) Revista de Derecho Público, (63), pp. 360-361. Cited 3 times.; GUERRERO BÉCAR, J. L.,(2018) La Constitución Económica Chilena, pp. 333-334. Cited 4 times.,Santiago, Chile, Der Ediciones; GUERRERO BÉCAR, J. L.,(2018) La Constitución Económica Chilena, p. 334. Cited 4 times.,Véase: Santiago, Chile, Der Ediciones; GUERRERO BÉCAR, J. L.,(2018) La Constitución Económica Chilena, pp. 335-336. Cited 4 times.,Véase: Santiago, Chile, Der Ediciones; PIERRY ARRAU, P.,Algunos aspectos de la actividad empresarial del Estado,(1985) Revista de Derecho Público, (37-38), pp. 222-223.; VON LOEBENSTEIN WEIL, B.,(2018) Empresas Públicas, sus características, naturaleza jurídica, marco normativo, régimen jurídico y su vinculación con la Administración del Estado, pp. 33-35.,Santiago, Chile: Editorial Hammurabi; LATORRE VIVAR, P.,Las sociedades estatales en el ordenamiento jurídico chileno: naturaleza, límites y control de sus actividades,(2008) Revista de Derecho de la Pontificia Universidad Católica de Valparaíso Nº30, p. 223. Cited 4 times.; PIERRY ARRAU, P.,Algunos aspectos de la actividad empresarial del Estado,(1985) Revista de Derecho Público, (37-38), pp. 224-231.; LATORRE VIVAR, P.,Las sociedades estatales en el ordenamiento jurídico chileno: naturaleza, límites y control de sus actividades,(2008) Revista de Derecho de la Pontificia Universidad Católica de Valparaíso Nº30, pp. 225-226. Cited 4 times.; VON LOEBENSTEIN WEIL, B.,(2018) Empresas Públicas, sus características, naturaleza jurídica, marco normativo, régimen jurídico y su vinculación con la Administración del Estado, pp. 37-38.,Santiago, Chile: Editorial Hammurabi; (1998) Informe de la Comisión Especial Investigadora de la administración que hace la Empresa Metropolitana de Residuos Sólidos (Emeres) del vertedero ubicado en el Fundo Lepanto, en la comuna de San Bernardo, y otras materias afines, creada por acuerdo de la Cámara de Diputados, adoptado el 15 de octubre de 1997, pp. 4-5.,Valparaíso, Chile: Cámara de Diputados de Chile, 1998,https://www.bcn.cl/laborparlamentaria/wsgi/consulta/verParticipacion.py?idParticipacion=1351615&amp;idPersona=2574&amp;idDocumento=666244&amp;idAkn=entityE6ZN2ZF6; WILLIAM GARCÍA,Una gran conversación por Chile,(2015) ; PALMA GONZÁLEZ, E.,Sobre la intervención del Poder Judicial en Chile luego del 11 de septiembre de 1973,(1998) Jueces para la democracia, (32), pp. 89-92. Cited 3 times.; ZÚÑIGA URBINA, F.,Nueva Constitución y constitucionalismo en el bicentenario,(2014) Revista de Derecho Público; FERMANDOIS VÖHRINGER, A.,(2002) Derecho Constitucional Económico, pp. 218-219. Cited 55 times.,tomo I, Santiago, Ediciones Pontificia Universidad Católica; MARIENHOFF, M. S.,(1982) Tratado de Derecho Administrativo, p. 162. Cited 24 times.,Tomo I. Teoría General, Buenos Aires: Abeledo Perrot, 1982, tercera edición actualizada; PAREJO, L.,Estado social y Administración Pública,(1983) Los postulados constitucionales de la reforma administrativa, pp. 21-22. Cited 7 times.; DIEZ-PICAZO GIMÉNEZ, L. M.,(1990) La derogación de las leyes, p. 285. Cited 11 times.,Véase: Madrid, Editorial Civitas, S. A., y ss; ZÚÑIGA URBINA, F., PEROTI DÍAZ, F.,(2020) Bases y fundamentos de una propuesta constitucional progresista, p. 17. Cited 2 times.,Véanse, entre otras: coordinadores Santiago, Convergencia Progresista, y ss; (2021) Bases constitucionales de la DC para la nueva Constitución, pp. 11-12.,Santiago, PDC,https://www.diarioconstitucional.cl/wp-content/uploads/2021/01/Bases-Constitucionales-de-la-DCpara-la-Nueva-Constitucio%CC%81n-2021.pdf; (2021) Programa Convencionales Constituyentes, p. 11.,Santiago, Revolución Democrática,https://revoluciondemocratica.cl/programa-constituyente-rd/; (2020) Evolución Constitucional. Bases conceptuales y propuestas para pensar la nueva Constitución, p. 34.,Con matices y ambigüedad, véase: HORIZONTAL Santiago, Horizontal,https://www.horizontalchile.cl/wp-content/uploads/2020/10/ECV3.pdf; (2014) Nueva Constitución y momento constituyente,Santiago, Editorial Thomson Reuters,  52; (2015) Propuestas para una nueva Constitución (originada en democracia),VV.AA. Instituto Igualdad, Friedrich Ebert Stiftung y Facultad de Derecho de la Universidad de Chile; en el proyecto de reforma constitucional iniciado por mensaje 407-365 de la Presidenta Michelle Bachelet (boletín N 11.617-07, de 2018); entre otras,  54</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -4811,7 +4541,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>No Encontrado</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4822,11 +4552,6 @@
       <c r="O55" t="inlineStr">
         <is>
           <t>10.5944/rdp.113.2022.33574</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>Chile</t>
         </is>
       </c>
     </row>
@@ -4871,7 +4596,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Agudelo, C. Q.,Planeación participativa y asentamientos informales en Medellín,(2007) Revista de la Facultad de Trabajo Social, 23 (23), pp. 110-118.; Alarcón Robles, D. E.,(2011) Influencia de la formulación del Plan de Desarrollo bajo el modelo de Planeación Participativa, en la construcción de ciudadanía y gobernabilidad, en el Municipio de Zipaquirá, periodo 2008 2011,(Doctoral dissertation, Universidad del Rosario); Alcántara, Ó. J. G., González, I. F., Saldaña, M. Á. M., Insa, C. M.,El Libro Blanco de la RSE en España: la gestión de empresas desde la Responsabilidad Social,(2007) XI Congreso de Ingeniería de Organización, pp. 1545-1556.; Andrade, H.,(2018) La cartografía social para la planeación participativa: experiencias de planeación con grupos étnicos en Colombia,  5; Blaser, M.,(2010) Storytelling Globalization from the Chaco and Beyond. Cited 163 times.,Duke University Press; Callon, M.,Some Elements of a Sociology of Translation Domestication of the Scallops and the Fishermen of St Brieux Bay,(1986) Power, Action and Belief A New Sociology of Knowledge?, 1986, pp. 196-229. Cited 4607 times.; Canyelles, J. M.,Responsabilidad social de las administraciones públicas,(2011) Revista de contabilidad y dirección, 13 (7), pp. 77-104. Cited 19 times.; Ceballos Povedano, R.,Thomas Piketty: una propuesta de responsabilidad social ante la desigualdad económica,(2018) Gestión y Estrategia, (53).; Cepeda, G., Martin, D.,A review of case studies publishing in Management Decision 2003-2004. Guides and criteria for achieving quality in qualitative research,; Chamorro, V.A.P., de Perea, J.G.A., Balsells, M.A.C.,The development of Social Responsibility GRI reports by Spanish public and mixed water supply and sanitation entities,; Cueto, C.,(2010) La Responsabilidad Corporativa de los gobiernos y administraciones públicas: fundamentos y soluciones innovadoras desde el sector público local,  13; Dávalos, P.,(2005) Pueblos indígenas, estado y democracia. Cited 17 times.,Clacso; De Castro, E. V.,Perspectival Anthropology and the Method of Controlled Equivocation,(2004) Tipití: Journal of the Society for the Anthropology of Lowland South America, 2 (1), p. 1. Cited 644 times.; Del Popolo, F., Jaspers, D., CEPAL, N.,Los pueblos indígenas en América Latina,(2014) Avances en el último decenio y retos pendientes para la garantía de sus derechos. Cited 75 times.; Del Valle Prados, R.,(2016) Responsabilidad social corporativa: el rol del Estado como prescriptor,(Doctoral dissertation, Universidad Complutense de Madrid); Denzin, N. K., Lincoln, Y. S.,(2008) Collecting and interpreting qualitative materials, 3. Cited 1704 times.,Sage; (2018) Bases del plan nacional de desarrollo 2018- 2022, pacto por Colombia pactor por la equidad,Departamento Nacional de Planeación,  20; Europee, C. D. C.,(2001) Libro verde. Promuovere un quadro europeo per la responsabilità sociale delle imprese, p. 18. Cited 14 times.,  22; (2016) Plan Departamental de Desarrollo 2016-2019. Cited 2 times.,  24,Hernández, E. G.; Klein, H.K., Myers, M.D.,A set of principles for conducting and evaluating interpretive field studies in information systems,; Langley, A., Royer, I.,Perspectives on doing case study research in organizations (Open Access),; Latour, B.,(2005) Reassembling the Social. An Introduction to Actor-Network Theory. Cited 16197 times.,Oxford University Press; Law, J.,Actor network theory and material semiotics,; Marín, L. G.,Sociedad civil y planeación participativa: El Caso de los municipios del Departamento del Quindío,(2011) Revista Gestión y Región, (11), pp. 7-22.; Martner, R., Mattar, J.,(2012) la planeación del desarrollo en América Latina y el Caribe desarrollo en América Latina y el Caribe Textos seleccionados del ILPES. Cited 2 times.,  31; Solarte-Pazos, L.,(2016) Management y gestión de contradicciones,(E. Univalle, Ed). Cali Colombia; Stake, R. E.,(1995) The art of case study research. Cited 10896 times.,sage; Terrones-Cordero, A.,Planeación participativa para elaborar un plan de desarrollo municipal: el caso de Acaxochitlán, Hidalgo,(2013) Economía, sociedad y territorio, 13 (42), pp. 521-559.; Velásquez, F. C.,(2010) La planeación territorial en Colombia: contexto, trayectoria y experiencias, Cuadernos descentralistas No. 25, Grupo Propuesta ciudadana,Lima, Perú; Yule, M., Vitonas, C.,Pees Kupx Fxi'zenxi"La metamorfosis de la vida. Pensar, mirar y vivir desde el corazón de la tierra,(2010) . Cited 2 times.; Las políticas públicas vistas desde la organización social: el caso indígena en Colombia. Observatorio Indígena de Seguimiento a Políticas Públicas y Derechos Étnicos,(2007) ,En CECOIN (Centro de Cooperación Indigena), y Organización Indígena de Antioquia. (2007). Indígenas sin derechos: situación de los derechos humanos de los pueblos indígenas. Cecoin</t>
+          <t>Agudelo, C. Q.,Planeación participativa y asentamientos informales en Medellín,(2007) Revista de la Facultad de Trabajo Social, 23 (23), pp. 110-118.; Alarcón Robles, D. E.,(2011) Influencia de la formulación del Plan de Desarrollo bajo el modelo de Planeación Participativa, en la construcción de ciudadanía y gobernabilidad, en el Municipio de Zipaquirá, periodo 2008 2011,(Doctoral dissertation, Universidad del Rosario); Alcántara, Ó. J. G., González, I. F., Saldaña, M. Á. M., Insa, C. M.,El Libro Blanco de la RSE en España: la gestión de empresas desde la Responsabilidad Social,(2007) XI Congreso de Ingeniería de Organización, pp. 1545-1556.; Andrade, H.,(2018) La cartografía social para la planeación participativa: experiencias de planeación con grupos étnicos en Colombia,  5; Blaser, M.,(2010) Storytelling Globalization from the Chaco and Beyond. Cited 163 times.,Duke University Press; Callon, M.,Some Elements of a Sociology of Translation Domestication of the Scallops and the Fishermen of St Brieux Bay,(1986) Power, Action and Belief A New Sociology of Knowledge?, 1986, pp. 196-229. Cited 4615 times.; Canyelles, J. M.,Responsabilidad social de las administraciones públicas,(2011) Revista de contabilidad y dirección, 13 (7), pp. 77-104. Cited 20 times.; Ceballos Povedano, R.,Thomas Piketty: una propuesta de responsabilidad social ante la desigualdad económica,(2018) Gestión y Estrategia, (53).; Cepeda, G., Martin, D.,A review of case studies publishing in Management Decision 2003-2004. Guides and criteria for achieving quality in qualitative research,; Chamorro, V.A.P., de Perea, J.G.A., Balsells, M.A.C.,The development of Social Responsibility GRI reports by Spanish public and mixed water supply and sanitation entities,; Cueto, C.,(2010) La Responsabilidad Corporativa de los gobiernos y administraciones públicas: fundamentos y soluciones innovadoras desde el sector público local,  13; Dávalos, P.,(2005) Pueblos indígenas, estado y democracia. Cited 17 times.,Clacso; De Castro, E. V.,Perspectival Anthropology and the Method of Controlled Equivocation,(2004) Tipití: Journal of the Society for the Anthropology of Lowland South America, 2 (1), p. 1. Cited 647 times.; Del Popolo, F., Jaspers, D., CEPAL, N.,Los pueblos indígenas en América Latina,(2014) Avances en el último decenio y retos pendientes para la garantía de sus derechos. Cited 76 times.; Del Valle Prados, R.,(2016) Responsabilidad social corporativa: el rol del Estado como prescriptor,(Doctoral dissertation, Universidad Complutense de Madrid); Denzin, N. K., Lincoln, Y. S.,(2008) Collecting and interpreting qualitative materials, 3. Cited 1711 times.,Sage; (2018) Bases del plan nacional de desarrollo 2018- 2022, pacto por Colombia pactor por la equidad,Departamento Nacional de Planeación,  20; Europee, C. D. C.,(2001) Libro verde. Promuovere un quadro europeo per la responsabilità sociale delle imprese, p. 18. Cited 14 times.,  22; (2016) Plan Departamental de Desarrollo 2016-2019. Cited 2 times.,  24,Hernández, E. G.; Klein, H.K., Myers, M.D.,A set of principles for conducting and evaluating interpretive field studies in information systems,; Langley, A., Royer, I.,Perspectives on doing case study research in organizations,; Latour, B.,(2005) Reassembling the Social. An Introduction to Actor-Network Theory. Cited 16246 times.,Oxford University Press; Law, J.,Actor network theory and material semiotics,; Marín, L. G.,Sociedad civil y planeación participativa: El Caso de los municipios del Departamento del Quindío,(2011) Revista Gestión y Región, (11), pp. 7-22.; Martner, R., Mattar, J.,(2012) la planeación del desarrollo en América Latina y el Caribe desarrollo en América Latina y el Caribe Textos seleccionados del ILPES,  31; Solarte-Pazos, L.,(2016) Management y gestión de contradicciones,(E. Univalle, Ed). Cali Colombia; Stake, R. E.,(1995) The art of case study research. Cited 10914 times.,sage; Terrones-Cordero, A.,Planeación participativa para elaborar un plan de desarrollo municipal: el caso de Acaxochitlán, Hidalgo,(2013) Economía, sociedad y territorio, 13 (42), pp. 521-559.; Velásquez, F. C.,(2010) La planeación territorial en Colombia: contexto, trayectoria y experiencias, Cuadernos descentralistas No. 25, Grupo Propuesta ciudadana,Lima, Perú; Yule, M., Vitonas, C.,Pees Kupx Fxi'zenxi"La metamorfosis de la vida. Pensar, mirar y vivir desde el corazón de la tierra,(2010) . Cited 2 times.; Las políticas públicas vistas desde la organización social: el caso indígena en Colombia. Observatorio Indígena de Seguimiento a Políticas Públicas y Derechos Étnicos,(2007) ,En CECOIN (Centro de Cooperación Indigena), y Organización Indígena de Antioquia. (2007). Indígenas sin derechos: situación de los derechos humanos de los pueblos indígenas. Cecoin</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4896,17 +4621,12 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>No Encontrado</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
           <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85128142688&amp;partnerID=40&amp;md5=29fefbd4529b90b3f9b13a7e2736d4c1</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>Colombia</t>
         </is>
       </c>
     </row>
@@ -4951,7 +4671,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Álvarez, A., Guiot-Isaac, A.M., Hurtado, J.,Becoming a pragmatic technocrat. The beginnings of professional training of colombian economists (Open Access),; Buchely, L.,Más allá del modelo weberiano: El debate sobre las burocracias y el Estado,(2014) Las burocracias. Una aproximación distinta a la manera en la que pensamos el Estado, pp. 11-95. Cited 7 times.; Camargo, F., Mendoza, R.,Balance de la carrera administrativa en Colombia,(2015) XX Congreso Internacional del CLAD sobre la Reforma del Estado y de la Administración Pública; Collazos, A.,(2008) La historia del sistema de mérito y la aplicación de la carrera administrativa en Colombia,Bogotá: Escuela Superior de Administración Pública; Cortázar Velarde, J.C., Lafuente, M., Sanginés, M.,(2014) Al Servicio del Ciudadano: Una Década de Reformas del Servicio Civil en América Latina (2004-2013). Cited 11 times.,Washington DC: IDB Publications; Dugas, J.C.,Drugs, Lies, and Audiotape: The Samper Crisis in Colombia (Open Access),; Dunn, W.N., Miller, D.Y.,A critique of the New Public Management and the Neo-Weberian State: Advancing a critical theory of administrative reform,; González, E.,La Carrera Administrativa: Experiencias y perspectivas,(2004) Revista Administración y Desarrollo. Escuela Superior de Administración Pública, 42, pp. 6-29.; Holmes, J.S., Amin Gutiérrez de Piñeres, S.,Violence and the state: Lessons from Colombia,; Isaza, C.,El fracaso de la lucha contra la corrupción en Colombia,(2012) Revista Opera, 11, pp. 22-239.; Isaza, C.,Disfuncionalidades del servicio civil en Colombia,(2014) Reflexión política, 16 (32), pp. 6-19. Cited 2 times.; Langbein, L., Sanabria, P.,Independent Professional Bureaucracies and Street-Level Bribery: Comparing Changes in Civil Service Law and Implementation in Latin America,; Leyva, S.,(2018) Un paso adelante y medio atrás. El cambio del Estado en Colombia desde la perspectiva de la administración pública (1957-2017),Bogotá: Departamento Administrativo de Función Pública (DAFP; Leyva, S., Sanabria-Pulido, P.,La evolución de la administración pública y las reformas del Estado en Colombia: Un Estado en permanente reforma y sin conocimiento sistemático?,El Estado del Estado; OECD Public Governance Scan Colombia,  16,Pachón, M., Muñoz, M.; Panizza, F., Philip, G.,Second Generation Reform in Latin America: Reforming the public sector in Uruguay and Mexico,; Pollitt, C., Bouckaert, G.,(2017) Public Management Reform: A Comparative Analysis-into the Age of Austerity. Cited 4916 times.,Oxford, UK: Oxford University Press; Ramírez, F.,Las reformas del Estado y la administración pública en América Latina y los intentos de aplicación del New Public Management,(2009) Estudios Políticos, 34, pp. 115-141. Cited 19 times.; Ramírez, F., Isaza, C.,Policy Análisis, Bureaucratic Capacity and Public Administration Reforms,(2020) Policy Analysis in Colombia; Robinson, J.A.,Colombia: Another 100 years of solitude?,; Sanabria-Pulido, P.,Dos Pasos Hacia Adelante y Uno Hacia Atrás: Colombia y la configuración de un servicio civil profesional y meritocrático,(2010) Boletín Política Pública Hoy No. 7 Agosto-2010; Sanabria-Pulido, P.,(2015) Gestión del Talento Humano en el Sector Público: Estado del Arte, Diagnóstico y Recomendaciones para el Caso Colombiano,Bogotá: Ediciones Uniandes; Sanabria-Pulido, P.,Modernización de la Gestión Pública en Colombia: Coyunturas Críticas y Dependencia del Sendero en un Proceso No Lineal,El Estado del Estado. Cited 3 times.; Sanabria-Pulido, P., Rubaii, N., Guzmán-Botero, A.,The Policy Analysis Movement in Colombia: The State of the Art,(2020) Policy Analysis in Colombia, pp. 11-31. Cited 2 times.; Sanabria-Pulido, P., Velasquez-Ospina, M.,Public Administration, Institutional Capacity and Internal Conflict in Colombia: An Intertwined Relationship,; Uricoechea, F.,(1986) Estado y burocracia en Colombia. Cited 9 times.,Colombia: Universidad Nacional de Colombia,. edited by Bogota D.C; Villaveces-Niño, M.J., Caballero-Argáez, C.,Technocracy, Decision Making and Economic Policy in Colombia,(2020) Policy Analysis in Colombia, pp. 203-222.; Younes, D.,(2014) Las reformas del Estado y de la administración pública. Cited 4 times.,Bogotá: Instituto de Estudios del Ministerio Públi</t>
+          <t>Álvarez, A., Guiot-Isaac, A.M., Hurtado, J.,Becoming a pragmatic technocrat. The beginnings of professional training of colombian economists,; Buchely, L.,Más allá del modelo weberiano: El debate sobre las burocracias y el Estado,(2014) Las burocracias. Una aproximación distinta a la manera en la que pensamos el Estado, pp. 11-95. Cited 7 times.; Camargo, F., Mendoza, R.,Balance de la carrera administrativa en Colombia,(2015) XX Congreso Internacional del CLAD sobre la Reforma del Estado y de la Administración Pública; Collazos, A.,(2008) La historia del sistema de mérito y la aplicación de la carrera administrativa en Colombia,Bogotá: Escuela Superior de Administración Pública; Cortázar Velarde, J.C., Lafuente, M., Sanginés, M.,(2014) Al Servicio del Ciudadano: Una Década de Reformas del Servicio Civil en América Latina (2004-2013). Cited 11 times.,Washington DC: IDB Publications; Dugas, J.C.,Drugs, Lies, and Audiotape: The Samper Crisis in Colombia,; Dunn, W.N., Miller, D.Y.,A critique of the New Public Management and the Neo-Weberian State: Advancing a critical theory of administrative reform,; González, E.,La Carrera Administrativa: Experiencias y perspectivas,(2004) Revista Administración y Desarrollo. Escuela Superior de Administración Pública, 42, pp. 6-29.; Holmes, J.S., Amin Gutiérrez de Piñeres, S.,Violence and the state: Lessons from Colombia,; Isaza, C.,El fracaso de la lucha contra la corrupción en Colombia,(2012) Revista Opera, 11, pp. 22-239.; Isaza, C.,Disfuncionalidades del servicio civil en Colombia,(2014) Reflexión política, 16 (32), pp. 6-19. Cited 2 times.; Langbein, L., Sanabria, P.,Independent Professional Bureaucracies and Street-Level Bribery: Comparing Changes in Civil Service Law and Implementation in Latin America,; Leyva, S.,(2018) Un paso adelante y medio atrás. El cambio del Estado en Colombia desde la perspectiva de la administración pública (1957-2017),Bogotá: Departamento Administrativo de Función Pública (DAFP; Leyva, S., Sanabria-Pulido, P.,La evolución de la administración pública y las reformas del Estado en Colombia: Un Estado en permanente reforma y sin conocimiento sistemático?,El Estado del Estado; OECD Public Governance Scan Colombia,  16,Pachón, M., Muñoz, M.; Panizza, F., Philip, G.,Second Generation Reform in Latin America: Reforming the public sector in Uruguay and Mexico,; Pollitt, C., Bouckaert, G.,(2017) Public Management Reform: A Comparative Analysis-into the Age of Austerity. Cited 4922 times.,Oxford, UK: Oxford University Press; Ramírez, F.,Las reformas del Estado y la administración pública en América Latina y los intentos de aplicación del New Public Management,(2009) Estudios Políticos, 34, pp. 115-141. Cited 19 times.; Ramírez, F., Isaza, C.,Policy Análisis, Bureaucratic Capacity and Public Administration Reforms,(2020) Policy Analysis in Colombia; Robinson, J.A.,Colombia: Another 100 years of solitude?,; Sanabria-Pulido, P.,Dos Pasos Hacia Adelante y Uno Hacia Atrás: Colombia y la configuración de un servicio civil profesional y meritocrático,(2010) Boletín Política Pública Hoy No. 7 Agosto-2010; Sanabria-Pulido, P.,(2015) Gestión del Talento Humano en el Sector Público: Estado del Arte, Diagnóstico y Recomendaciones para el Caso Colombiano,Bogotá: Ediciones Uniandes; Sanabria-Pulido, P.,Modernización de la Gestión Pública en Colombia: Coyunturas Críticas y Dependencia del Sendero en un Proceso No Lineal,El Estado del Estado. Cited 3 times.; Sanabria-Pulido, P., Rubaii, N., Guzmán-Botero, A.,The Policy Analysis Movement in Colombia: The State of the Art,(2020) Policy Analysis in Colombia, pp. 11-31. Cited 2 times.; Sanabria-Pulido, P., Velasquez-Ospina, M.,Public Administration, Institutional Capacity and Internal Conflict in Colombia: An Intertwined Relationship (Open Access),; Uricoechea, F.,(1986) Estado y burocracia en Colombia. Cited 9 times.,Colombia: Universidad Nacional de Colombia,. edited by Bogota D.C; Villaveces-Niño, M.J., Caballero-Argáez, C.,Technocracy, Decision Making and Economic Policy in Colombia,(2020) Policy Analysis in Colombia, pp. 203-222.; Younes, D.,(2014) Las reformas del Estado y de la administración pública. Cited 4 times.,Bogotá: Instituto de Estudios del Ministerio Públi</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -4971,22 +4691,17 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>No Encontrado</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>No Encontrado</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
           <t>10.1080/14719037.2022.2054227</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>Varios Paises</t>
         </is>
       </c>
     </row>
@@ -5031,7 +4746,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>(2010) Fundación de la asociación Las Damas de la Caridad,AIC-USA,https://aic.ladiesofcharity.us/files/2010/02/Spanish-History-Book.pdf; Albala-Bertrand, J.M.,Natural disaster situations and growth: A macroeconomic model for sudden disaster impacts,; Albala-Bertrand, J.M.,(2014) Disasters and the Networked Economy,A Book Summary. Working Paper No. 718. Queen Mary University of London; Amorim, H.,El fin de las clases sociales,(2015) Estudios Latinoamericanos, 35, pp. 15-37. Cited 3 times.; (2020) ,História. Banco Mundial,https://www.bancomundial.org/es/about/history; (2019) Comunicado de Prensa. Cited 6 times.,(11 de julio),https://www.bancomundial.org/es/news/press-release/2019/07/11/world-bank-group-financing-development-challenges-60-billion-fiscal-year-2019.print; BATES, F.L., DYNES, R.R., QUARANTELLI, E.L.,The Importance of the Social Sciences to the International Decade for Natural Disaster Reduction,; Borda, S.,Estados Unidos o el último Estado hegemónico,(2013) Nueva Sociedad, p. 246.; Cabane, L., Revet, S.,,(2015) Politix, 111 (3), pp. 47-67. Cited 9 times.; (2002) Natural Hazard Risk Management in the Caribbean: revisiting the challenge. Cited 14 times.,Private Sector &amp; Infrastructure Department. Latin America and the Caribbean Region. The World Bank,http://www.oas.org/cdmp/riskmatrix/RM_CGCED.DOC; Christensen, C.,Popper on Marx on History,(2019) Philosophy Now, p. 131.; Dussel, E.,Hipótesis para el estudio de Latinoamérica en la historia universal,(1966) CLACSO; Dynes, R.R.,Community Emergency Planning: False Assumptions and Innapropiate Analogies,(1994) International Journal of Mass Emergencies and Disasters, 12 (1), pp. 5-24. Cited 244 times.; (2009) Oferta académica de Instituciones de Educación Superior (IES), relacionada directamente con la temática de Reducción del Riesgo de Desastres (RRD), en los países de América Latina en lengua española,Estrategia Internacional para la Reducción de Desastres REDULAC. Unidad Regional para las Américas,http://www.redulac.net/oferta_academica/images_oferta_academica/Informe_oferta-academica.pdf; (2016) Emergency and Disaster Management Programs in Other Countries,Emergency Management Institute,https://training.fema.gov/hiedu/collegelist/othercountries/; (2019) Las dictaduras en América Latina desde 1945,El Orden Mundial,https://elordenmundial.com/mapas/dictaduras-en-america-latina/; Freeman, P.K., Martin, L.A., Linnerooth-Bayer, J., Warner, K., Pflug, G.,Sistemas Nacionales para la Gestión Integral del Riesgo de Desastres,(2002) Estrategias Financieras para la Reconstrucción en Caso de Desastres Naturales; Garzón Real, B.,(2016) Operación Cóndor. 40 años después. Centro Internacional para la Promoción de los Derechos Humanos (CIPDH),https://www.cipdh.gob.ar/promocion/libro-operacion-condor-40-anos-despues/; (2014) Natural Disaster Risk Management,GFDRR,https://www.preventionweb.net/files/39526_ndrmpprogrambrochure.pdf; Gram-Skjoldager, K.,Eric Drummond and his Legacies. The League of Nations and the Beginnings of Global Governance, written by David Macfadyen, Michael Davies, Marilyn Carr and John Burley,(2019) Diplomatica, 1 (2), pp. 308-310.; Hallegatte, S., Vogt-Schilb, A., Bangalore, M., Rozenberg, J.,(2017) Unbreakable: Building the Resilience of the Poor in the Face of Natural Disasters. Cited 219 times.,International Bank for Reconstruction and Development &amp; The World Bank; Henderson, L.J.,Emergency and Disaster: Pervasive Risk and Public Bureaucracy in Developing Nations,(2004) Public Organization Review, 4, pp. 103-119. Cited 39 times.; Huffman, J.L.,Government Liability and Natural Hazard Mitigation in Japan, The Soviet Union, China, New Zeland and the United States,(1983) International Journal of Mass Emergencies and Disasters, 1 (3), pp. 379-398.; (2016) El FMI y el Banco Mundial,Ficha Técnica. IMF,https://www.imf.org/es/About/Factsheets/Sheets/2016/07/27/15/31/IMF-World-Bank; Jassir, M.,(2015) Poder blando y diplomacia cultural: Elementos claves de políticas exteriores en transformaciones,Editorial Universidad del Rosario; Kagarlitsky, B.,Marxism in the Post-Globalization Era,(2015) , p. 13. Cited 2 times.; Kapucu, N.,Developing Competency-Based Emergency Management Degree Programs in Public Affairs and Administration,; Lavell, A.,La gestión local del riesgo. Nociones y precisiones en torno al concepto y la práctica,(2003) . Cited 38 times.; Lara, A., Concha, M., González, S., Bucci, A.,(2014) Generación de una base de datos sobre la Oferta Académica en las áreas de Gestión del Riesgo de Desastres en América Latina y el Caribe. Cited 2 times.,F F. UNESCO; Lara San Martín, A.,Educación superior en América Latina y el Caribe para la Gestión y Reducción del Riesgo de Desastres: ¿Estamos preparando a nuestra población?,(2016) Revista de Estudios y Experiencias en Educación, 15 (29), pp. 49-63. Cited 5 times.; Macías Chávez, K.C.,El Neocolonialismo en Nuestros Días: La Perspectiva de Leopoldo Zea,(2015) Universitas Philosophica, 32 (65), pp. 81-106. Cited 3 times.; Macías, J.M.,(2016) Los modelos gubernamentales para enfrentar los problemas del riesgo-desastre (Defensa Civil, Protección Civil, Manejo de Emergencias). Cited 2 times.,México. CIESAS-México; Macías, J.M.,El incremento de desastres y el rol del concepto de resiliencia,(2020) Resistencias sociales y alternativas de sustentabilidad. Un análisis multidimensional, pp. 187-212.; Macías, J.M.,La ambigüedad de la Gestión Integral del Riesgo de Desastres,(2020) El desastre y sus fronteras. Perspectivas locales, pp. 19-44.; Marks, C.A.,(2005) Professional Competencies for the Master’s Level Emergency Manager. Knowledge Systems Necessary for the Emergency Manager of the 21st Century. Cited 6 times.,Federal Emergency Management Agency FEMA; McClory, J.,(2017) Soft Power y Latinoamérica. Cited 2 times.,Foreign Affairs Latinoamérica; Martínez-Méndez, F.-J., López-Carreño, R.,,(2011) Profesional de la Informacion, 20 (6), pp. 621-626. Cited 3 times.; Menéndez, E.L.,(2018) Colonialismo, neocolonialismo y racismo. El papel de la ideología y de la ciencia en las estrategias de control y dominación. Cited 2 times.,UNAM; Mizutori, M., Guha-Sapir, D.,(2020) The human cost of disasters: an overview of the last 20 years (2000-2019). Cited 248 times.,CRED-EM-DAT &amp; UNDRR; Morales, D.,(2017) El fin del ciclo hegemónico de Estados Unidos,Foreign Affairs Latinoamérica; Narváez, L., Lavell, A., Pérez Ortega, G.,La gestión del riesgo de desastres: un enfoque basado en procesos,(2009) PREDECAN; Newman, A.,(2013) World Bank Insider Blows Whistle on Corruption. Cited 2 times.,Federal; The New American. Cited 2 times.,https://thenewamerican.com/world-bank-insider-blows-whistle-on-corruption-federal-reserve/,  44; Ornelas, R.,América Latina: territorio de construcción de la hegemonía,(2003) Revista Venezolana de Economía y Ciencias Sociales, 9 (2), pp. 117-135. Cited 2 times.; Parenti, S.,(2011) Neocolonialism construction and solutions,University of Central Florida; Tim, P., Roth, F.,Global Disaster Politics Post Sendai,(2015) CSS Analyses in Security Policy, p. 173.; Quijano, A.,Colonialidad y Modernidad/Racionalidad,(1992) Perú Indígena, 13 (29), pp. 11-20. Cited 320 times.; Quijano, A.,Colonialidad del poder, eurocentrismo y América Latina,(2014) Cuestiones y horizontes: De la dependencia histórico-estructural a la colonialidad/descolonialidad del Poder, pp. 777-832. Cited 231 times.; Rajamoorthy, T.,Bretton Woods y el triunfo de la hegemonía de Estados Unidos,(2004) Third World Resurgence. Revista del Sur, pp. 155-156.; Dasgupta, R.,(2018) The demise of the nation state: After decades of globalization, our political system has become obsolete – and spasms of resurgent nationalism are a sign of its irreversible decline. Cited 31 times.,(5 de abril). The Guardian (UK); Rapoport, M.,La globalización económica: Ideologías, realidad, historia,(1997) Ciclos, 7 (2), pp. 3-42. Cited 2 times.; Revet, S.,The international world of natural disasters,; Revet, S.,Vivre dans un monde plus sûr,(2011) Cultures &amp; Conflits, 75, pp. 33-51. Cited 13 times.; Ríos, J.L.,Tres etapas del golpe “blando” en Brasil. Hacia una rearticulación social del capital,(2018) Revista de Ciencias Sociales, DS-FCS, 31 (43), pp. 183-204.; Romano, S.M.,La “Nueva Alianza” de Obama para América Latina: poder blando y poder duro en acción,(2017) Universidad de La Habana, 283, pp. 59-78.; Sánchez-Mejorada, M.C.,El Distrito Federal frente a la Segunda Guerra Mundial medidas e implicaciones,(2001) Relaciones, Estudios de historia y sociedad, 22 (86).; Schemper, L.,Science Diplomacy and the Making of the United Nations International Decade for Natural Disaster Reduction,(2019) Diplomatica, 1 (2), pp. 243-267. Cited 4 times.; Sharp, G.,(2011) De la dictadura a la democracia. Un Sistema Conceptual para la Liberación. Cited 4 times.,The Albert Einstein Institution; Stiglitz, J.,(2019) El fin del neoliberalismo y el renacimiento de la historia,Nueva Sociedad; Victoriano Serrano, F.,Estado, golpes de estado y militarización en américa latina: una reflexión histórico política,(2010) Argumentos (México), 23 (64), pp. 175-193. Cited 12 times.; Tanzi, V.,(1998) The Demise of the Nation State?. Cited 7 times.,IMF Working paper; Toussaint, E.,(2007) Banco Mundial, el golpe de Estado permanente. Cited 10 times.,La agenda oculta del Consenso de Washington. El Viejo Topo; Toussaint, E.,Domination of the United States on the World Bank. Series: 1944-2020, 76 years of interference from the World Bank and the IMF,(2020) ; Victoriano, F.,Estado. Golpes de Estado y militarización en América Latina,(2010) Argumentos (México), 23 (64), pp. 175-193. Cited 12 times.; Van Niekerk, D., Nemakonde, L., Kruger, L., Genade, K.,Community-based Disaster Risk Management,(2017) Handbook of Disaster Research. Cited 61 times.; Verbeek, M.,The Evolving Roles of Emergency Managers,(2011) . Cited 3 times.; Vitali, S., Glattfelder, J.B., Battiston, S.,(2011) The Network of Global Corporate. Cited 39 times.,  69; World Bank/Wharton Conference on Innovations in Managing Catastrophic Risks: How Can They Help the Poor?,(2000) Risk Management Review,  71; Zabalo, P.,(2002) Banco Mundial. Diccionario de Acción Humanitaria y Cooperación para el Desarrollo,Universidad del País Vasco; Zapata, R.,(2011) Experiencias exitosas en la transferencia del riesgo en América Latina y el Caribe,EIRD</t>
+          <t>(2010) Fundación de la asociación Las Damas de la Caridad,AIC-USA,https://aic.ladiesofcharity.us/files/2010/02/Spanish-History-Book.pdf; Albala-Bertrand, J.M.,Natural disaster situations and growth: A macroeconomic model for sudden disaster impacts,; Albala-Bertrand, J.M.,(2014) Disasters and the Networked Economy,A Book Summary. Working Paper No. 718. Queen Mary University of London; Amorim, H.,El fin de las clases sociales,(2015) Estudios Latinoamericanos, 35, pp. 15-37. Cited 3 times.; (2020) ,História. Banco Mundial,https://www.bancomundial.org/es/about/history; (2019) Comunicado de Prensa. Cited 6 times.,(11 de julio),https://www.bancomundial.org/es/news/press-release/2019/07/11/world-bank-group-financing-development-challenges-60-billion-fiscal-year-2019.print; BATES, F.L., DYNES, R.R., QUARANTELLI, E.L.,The Importance of the Social Sciences to the International Decade for Natural Disaster Reduction,; Borda, S.,Estados Unidos o el último Estado hegemónico,(2013) Nueva Sociedad, p. 246.; Cabane, L., Revet, S.,,(2015) Politix, 111 (3), pp. 47-67. Cited 9 times.; (2002) Natural Hazard Risk Management in the Caribbean: revisiting the challenge. Cited 14 times.,Private Sector &amp; Infrastructure Department. Latin America and the Caribbean Region. The World Bank,http://www.oas.org/cdmp/riskmatrix/RM_CGCED.DOC; Christensen, C.,Popper on Marx on History,(2019) Philosophy Now, p. 131.; Dussel, E.,Hipótesis para el estudio de Latinoamérica en la historia universal,(1966) CLACSO; Dynes, R.R.,Community Emergency Planning: False Assumptions and Innapropiate Analogies,(1994) International Journal of Mass Emergencies and Disasters, 12 (1), pp. 5-24. Cited 244 times.; (2009) Oferta académica de Instituciones de Educación Superior (IES), relacionada directamente con la temática de Reducción del Riesgo de Desastres (RRD), en los países de América Latina en lengua española,Estrategia Internacional para la Reducción de Desastres REDULAC. Unidad Regional para las Américas,http://www.redulac.net/oferta_academica/images_oferta_academica/Informe_oferta-academica.pdf; (2016) Emergency and Disaster Management Programs in Other Countries,Emergency Management Institute,https://training.fema.gov/hiedu/collegelist/othercountries/; (2019) Las dictaduras en América Latina desde 1945,El Orden Mundial,https://elordenmundial.com/mapas/dictaduras-en-america-latina/; Freeman, P.K., Martin, L.A., Linnerooth-Bayer, J., Warner, K., Pflug, G.,Sistemas Nacionales para la Gestión Integral del Riesgo de Desastres,(2002) Estrategias Financieras para la Reconstrucción en Caso de Desastres Naturales; Garzón Real, B.,(2016) Operación Cóndor. 40 años después. Centro Internacional para la Promoción de los Derechos Humanos (CIPDH),https://www.cipdh.gob.ar/promocion/libro-operacion-condor-40-anos-despues/; (2014) Natural Disaster Risk Management,GFDRR,https://www.preventionweb.net/files/39526_ndrmpprogrambrochure.pdf; Gram-Skjoldager, K.,Eric Drummond and his Legacies. The League of Nations and the Beginnings of Global Governance, written by David Macfadyen, Michael Davies, Marilyn Carr and John Burley,(2019) Diplomatica, 1 (2), pp. 308-310.; Hallegatte, S., Vogt-Schilb, A., Bangalore, M., Rozenberg, J.,(2017) Unbreakable: Building the Resilience of the Poor in the Face of Natural Disasters. Cited 223 times.,International Bank for Reconstruction and Development &amp; The World Bank; Henderson, L.J.,Emergency and Disaster: Pervasive Risk and Public Bureaucracy in Developing Nations,(2004) Public Organization Review, 4, pp. 103-119. Cited 39 times.; Huffman, J.L.,Government Liability and Natural Hazard Mitigation in Japan, The Soviet Union, China, New Zeland and the United States,(1983) International Journal of Mass Emergencies and Disasters, 1 (3), pp. 379-398.; (2016) El FMI y el Banco Mundial,Ficha Técnica. IMF,https://www.imf.org/es/About/Factsheets/Sheets/2016/07/27/15/31/IMF-World-Bank; Jassir, M.,(2015) Poder blando y diplomacia cultural: Elementos claves de políticas exteriores en transformaciones,Editorial Universidad del Rosario; Kagarlitsky, B.,Marxism in the Post-Globalization Era,(2015) , p. 13. Cited 2 times.; Kapucu, N.,Developing Competency-Based Emergency Management Degree Programs in Public Affairs and Administration,; Lavell, A.,La gestión local del riesgo. Nociones y precisiones en torno al concepto y la práctica,(2003) . Cited 38 times.; Lara, A., Concha, M., González, S., Bucci, A.,(2014) Generación de una base de datos sobre la Oferta Académica en las áreas de Gestión del Riesgo de Desastres en América Latina y el Caribe. Cited 2 times.,F F. UNESCO; Lara San Martín, A.,Educación superior en América Latina y el Caribe para la Gestión y Reducción del Riesgo de Desastres: ¿Estamos preparando a nuestra población?,(2016) Revista de Estudios y Experiencias en Educación, 15 (29), pp. 49-63. Cited 5 times.; Macías Chávez, K.C.,El Neocolonialismo en Nuestros Días: La Perspectiva de Leopoldo Zea,(2015) Universitas Philosophica, 32 (65), pp. 81-106. Cited 3 times.; Macías, J.M.,(2016) Los modelos gubernamentales para enfrentar los problemas del riesgo-desastre (Defensa Civil, Protección Civil, Manejo de Emergencias). Cited 2 times.,México. CIESAS-México; Macías, J.M.,El incremento de desastres y el rol del concepto de resiliencia,(2020) Resistencias sociales y alternativas de sustentabilidad. Un análisis multidimensional, pp. 187-212.; Macías, J.M.,La ambigüedad de la Gestión Integral del Riesgo de Desastres,(2020) El desastre y sus fronteras. Perspectivas locales, pp. 19-44.; Marks, C.A.,(2005) Professional Competencies for the Master’s Level Emergency Manager. Knowledge Systems Necessary for the Emergency Manager of the 21st Century. Cited 6 times.,Federal Emergency Management Agency FEMA; McClory, J.,(2017) Soft Power y Latinoamérica. Cited 2 times.,Foreign Affairs Latinoamérica; Martínez-Méndez, F.-J., López-Carreño, R.,,(2011) Profesional de la Informacion, 20 (6), pp. 621-626. Cited 3 times.; Menéndez, E.L.,(2018) Colonialismo, neocolonialismo y racismo. El papel de la ideología y de la ciencia en las estrategias de control y dominación. Cited 2 times.,UNAM; Mizutori, M., Guha-Sapir, D.,(2020) The human cost of disasters: an overview of the last 20 years (2000-2019). Cited 251 times.,CRED-EM-DAT &amp; UNDRR; Morales, D.,(2017) El fin del ciclo hegemónico de Estados Unidos,Foreign Affairs Latinoamérica; Narváez, L., Lavell, A., Pérez Ortega, G.,La gestión del riesgo de desastres: un enfoque basado en procesos,(2009) PREDECAN; Newman, A.,(2013) World Bank Insider Blows Whistle on Corruption. Cited 2 times.,Federal; The New American. Cited 2 times.,https://thenewamerican.com/world-bank-insider-blows-whistle-on-corruption-federal-reserve/,  44; Ornelas, R.,América Latina: territorio de construcción de la hegemonía,(2003) Revista Venezolana de Economía y Ciencias Sociales, 9 (2), pp. 117-135. Cited 2 times.; Parenti, S.,(2011) Neocolonialism construction and solutions,University of Central Florida; Tim, P., Roth, F.,Global Disaster Politics Post Sendai,(2015) CSS Analyses in Security Policy, p. 173.; Quijano, A.,Colonialidad y Modernidad/Racionalidad,(1992) Perú Indígena, 13 (29), pp. 11-20. Cited 323 times.; Quijano, A.,Colonialidad del poder, eurocentrismo y América Latina,(2014) Cuestiones y horizontes: De la dependencia histórico-estructural a la colonialidad/descolonialidad del Poder, pp. 777-832. Cited 233 times.; Rajamoorthy, T.,Bretton Woods y el triunfo de la hegemonía de Estados Unidos,(2004) Third World Resurgence. Revista del Sur, pp. 155-156.; Dasgupta, R.,(2018) The demise of the nation state: After decades of globalization, our political system has become obsolete – and spasms of resurgent nationalism are a sign of its irreversible decline. Cited 31 times.,(5 de abril). The Guardian (UK); Rapoport, M.,La globalización económica: Ideologías, realidad, historia,(1997) Ciclos, 7 (2), pp. 3-42. Cited 2 times.; Revet, S.,The international world of natural disasters,; Revet, S.,Vivre dans un monde plus sûr,(2011) Cultures &amp; Conflits, 75, pp. 33-51. Cited 13 times.; Ríos, J.L.,Tres etapas del golpe “blando” en Brasil. Hacia una rearticulación social del capital,(2018) Revista de Ciencias Sociales, DS-FCS, 31 (43), pp. 183-204.; Romano, S.M.,La “Nueva Alianza” de Obama para América Latina: poder blando y poder duro en acción,(2017) Universidad de La Habana, 283, pp. 59-78.; Sánchez-Mejorada, M.C.,El Distrito Federal frente a la Segunda Guerra Mundial medidas e implicaciones,(2001) Relaciones, Estudios de historia y sociedad, 22 (86).; Schemper, L.,Science Diplomacy and the Making of the United Nations International Decade for Natural Disaster Reduction,(2019) Diplomatica, 1 (2), pp. 243-267. Cited 4 times.; Sharp, G.,(2011) De la dictadura a la democracia. Un Sistema Conceptual para la Liberación. Cited 4 times.,The Albert Einstein Institution; Stiglitz, J.,(2019) El fin del neoliberalismo y el renacimiento de la historia,Nueva Sociedad; Victoriano Serrano, F.,Estado, golpes de estado y militarización en américa latina: una reflexión histórico política,(2010) Argumentos (México), 23 (64), pp. 175-193. Cited 12 times.; Tanzi, V.,(1998) The Demise of the Nation State?. Cited 7 times.,IMF Working paper; Toussaint, E.,(2007) Banco Mundial, el golpe de Estado permanente. Cited 10 times.,La agenda oculta del Consenso de Washington. El Viejo Topo; Toussaint, E.,Domination of the United States on the World Bank. Series: 1944-2020, 76 years of interference from the World Bank and the IMF,(2020) ; Victoriano, F.,Estado. Golpes de Estado y militarización en América Latina,(2010) Argumentos (México), 23 (64), pp. 175-193. Cited 12 times.; Van Niekerk, D., Nemakonde, L., Kruger, L., Genade, K.,Community-based Disaster Risk Management,(2017) Handbook of Disaster Research. Cited 61 times.; Verbeek, M.,The Evolving Roles of Emergency Managers,(2011) . Cited 3 times.; Vitali, S., Glattfelder, J.B., Battiston, S.,(2011) The Network of Global Corporate. Cited 39 times.,  69; World Bank/Wharton Conference on Innovations in Managing Catastrophic Risks: How Can They Help the Poor?,(2000) Risk Management Review,  71; Zabalo, P.,(2002) Banco Mundial. Diccionario de Acción Humanitaria y Cooperación para el Desarrollo,Universidad del País Vasco; Zapata, R.,(2011) Experiencias exitosas en la transferencia del riesgo en América Latina y el Caribe,EIRD</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -5062,11 +4777,6 @@
       <c r="O58" t="inlineStr">
         <is>
           <t>10.55467/reder.v6i1.81</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>Mexico</t>
         </is>
       </c>
     </row>
@@ -5111,7 +4821,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Acuña Llamas, Francisco,(2002) El contenido esencial de las normas referentes a derechos humanos en la constitución mexicana,Miguel Carbonell (Coordinador); Memoria del VII Congreso Iberoamericano de Derecho Constitucional. Cited 2 times.,Instituto de Investigaciones Jurídicas, Serie Doctrina Jurídica 96. México, Ciudad de México,  3; Alexy, Robert,Teoría de los derechos fundamentales,(1993) Título original: “Theorie Der Griindrechte. Suhrkamp-Verlag. Cited 396 times.; (2011) Declaración de Gobierno Abierto del 11 de septiembre de 2011,Alianza para el Gobierno Abierto Disponible en: [fecha de consulta: 20 noviembre 2020],Https://www.opengovpartnership.org; Arenas, Mónica,Transparencia, acceso a la información pública y democracia: Elementos inseparables,(2016) Revista Transparencia y Sociedad, 4, pp. 113-131.; Bernasconi Ramírez, A.,The scientific character of legal theory,; Birskyte, L.,Determinants of Budget Transparency in Lithuanian Municipalities,; Bobbio, Norberto,(2013) Democracia y Secreto, p. 76. Cited 11 times.,(trad. de Ariella Aureli, José Fernandez Santillan. Fondo Cultura Económica. México); Bovens, M.,Information rights: Citizenship in the information society,; Cea-Egaña, José,Tercera regla de oro del Derecho Público,(2009) Revista de Derecho y Ciencias Penales, 13, pp. 23-45. Cited 2 times.; Concha, Gonzalo, Naser, Alejandra,El desafío hacia el gobierno abierto en la hora de la igualdad,(2012) Comisión Económica para América Latina y el Caribe. Proyecto @LIS2 del Programa Sociedad de la Información liderado por la División de Desarrollo Productivo y Empresarial de la Comisión Económica para América Latina y el Caribe (CEPAL), p. 134. Cited 2 times.; Cotino-Hueso, Lorenzo,Derecho y Gobierno Abierto: La regulación de la transparencia y la participación y su ejercicio a través del uso de las nuevas tecnologías y las redes sociales por las administraciones públicas. Propuestas concretas,(2013) Revista Aragonesa de Administración Pública, 14, pp. 51-92. Cited 6 times.; Hueso, L.C.,The recognition and international content of access to public information as a fundamental right,; Cousido, María del Pilar, Said-Hung, Elías, Moreno, Ignacio,La universidad española más transparente Informe 2020,(2020) Revista Derecom, 29, pp. 1-27.; Criado, J.I., Ruvalcaba-Gómez, E.A., Valenzuela-Mendoza, R.,Revisiting the open government phenomenon. A meta-analysis of the international literature (Open Access),; Cucciniello, M., Porumbescu, G.A., Grimmelikhuijsen, S.,25 Years of Transparency Research: Evidence and Future Directions (Open Access),; Diamond, L., Morlino, L.,An overview,; Diamond, Larry, Morlino, Leonardo,(2005) Assessing the quality of democracy. Cited 377 times.,Baltimore: Johns Hopkins University Press; Duque-Daza, José,Guillermo O'Donnell y la democracia de Latinoamérica,(2014) Revista de estudios Latinoamericanos, 58, pp. 113-144. Cited 4 times.; Lorayne, Finol-Romero,Aproximación teórica al gobierno abierto,(2018) Revista Cuestiones Políticas, 34 (60), pp. 69-91. Cited 2 times.; Finol-Romero, Lorayne,Evaluación de la regulación de la transparencia en América Latina: ¿Es suficiente una legislación?, ponencia presentada en el Seminario Internacional sobre Transparencia, Rendición de Cuentas y Combate a la Corrupción, celebrada el jueves 04 de junio de 2021,(2021) ; Finol-Romero, Lorayne, Galdames Paredes, Ana, González Jeria, Cecilia,Contextualización de la Transparencia de la función pública en Iberoamérica: Una revisión del concepto,(2021) Revista Rumbos TS. Un Espacio Crítico Para La Reflexión En Ciencias Sociales, 25, pp. 105-144. Cited 3 times.; Fischer, Carolina, Kraus, Sascha,Transparencia digital,(2020) Manual de digitalización en el estado y la administración, pp. 159-170.; Giménez-Chornet, Vincent,Buen Gobierno. Criterios innovadores de la Generalitat Valenciana,(2018) Revista de la Facultad de Derecho, 45, pp. 163-184.; Guichot, Emilio,(2014) Transparencia, acceso a la información pública y buen gobierno: Estudio de la Ley 19/2013, de 9 de diciembre, p. 382. Cited 24 times.,(Ed. Tecnos Madrid), págs; Guichot, Emilio, Barrero Rodríguez, Concepción,(2021) El Derecho de Acceso a la Información Pública, p. 872. Cited 7 times.,Tirant lo Blanch, págs; Johnston, M.,Making transparency real? Accounting and popular participation in corruption control,; Kant, Inmanuel,(1957) Lo bello y lo sublime: La paz perpetua, p. 159.,(Editorial Espasa-Calpe Argentina); Lara-Ortiz, María,El derecho a la buena administración en el marco de la protección de los derechos humanos,(2019) Cuadernos Electrónicos de Filosofía del Derecho, Actas I Congreso Internacional 70 Aniversario Declaración Universal de Derechos Humanos, 39, pp. 340-355.; Larenz, Karl,(2001) Metodología de la ciencia del Derecho, p. 192. Cited 76 times.,Segunda edición. (Ariel Barcelona Editores); Mariñez, Freddy,La dimensión relacional del gobierno abierto y el liderazgo colaborativo,(2016) Revista Espiral, 23 (65), pp. 47-87. Cited 3 times.; Matheus, Ricardo, Janssen, Marijin,Un estudio sistemático de literatura para desentrañar la transparencia habilitado por los datos de gobierno abierto: The Window Theory,(2019) Public Performance &amp; Management Review, 43 (3), pp. 1-33. Cited 2 times.; Meijer, A.,Understanding modern transparency,; Meijer, A., ’t Hart, P., Worthy, B.,Assessing Government Transparency: An Interpretive Framework (Open Access),; Moscoso Moreno, A., Villavicencio Mancero, M.,Autonomous constitutional bodies and the quality of democracy in ecuador (Open Access),; Morlino, Leonardo,Calidad democrática entre líderes y partidos,(2016) Calidad democrática entre líderes y partidos. La calidad del liderazgo político en los países andinos, pp. 1-102.; Navarro, Enrique,Bases constitucionales del principio de transparencia,(2013) Revista de Derecho Universidad Finis Terrae, 1, pp. 143-171. Cited 2 times.; Noveck, Beth,Rights-Based and Tech-Driven: Open Data, Freedom of Information, and the Future of Government Transparency,(2017) Yale Hum. Rts. &amp; Dev. L.J, 19 (1), pp. 1-46. Cited 21 times.; Neuman, Laura, Calland, Richard,Hacer que la ley funcione: Los desafíos de la implementación,(2007) El derecho a saber: Transparencia para un mundo abierto; Ortiz-Rodriguez, D., Alcaide-Muñoz, L., Flórez-Parra, J.M., López-Hernández, A.M.,Transparency in Latin American and Caribbean supreme auditing institutions,; Palomares-Herrera, Manuel,Estudio comparativo sobre transparencia y derecho de acceso en el ámbito internacional y su influencia en España,(2017) Ius Humani. Law Journal, 6, pp. 123-153. Cited 8 times.; Pallarés Domínguez, Daniel,Gobierno abierto: Una concepción ética para la educación democrática,(2019) Revista del CLAD Reforma y Democracia, 73, p. 81. Cited 2 times.; De Las Heras, B.P.,The better regulation agenda as a key tool of democratic governance in the european union: impact and possibilities forthe sub-state entities,; Pérez Luño, Enrique,(2001) Derechos Humanos: Estado de Derecho y Constitución. Cited 71 times.,(2001), Tecnos, 7ma ed. Madrid, España; Subirats, Joan,(2013) Prólogo de la obra “La promesa del gobierno abierto,editado por: Ramírez Alujas, Álvaro, Andrés Hofmann, y José Bojórquez-Coordinadores; Rumbul, R.,Developing transparency through digital means? Examining institutional responses to civic technology in Latin America (Open Access),; Rajevic, Enrique,Derecho de Acceso a la Información y Libertad de Expresión,(2018) Informe Anual Sobre Derechos Humanos, pp. 267-295.; Roelofs, P.,Transparency and mistrust: Who or what should be made transparent? (Open Access),; Ruijer, E., Meijer, A.,National Transparency Regimes: Rules or Principles? A Comparative Analysis of the United States and The Netherlands (Open Access),; Ruiz, C.R.-R.,Comparative analysis of iberoamerican legislation on transparency and access to public information (Open Access),; Ruvalcaba Gómez, E.A.,Open data (Open Access),; Safarov, I.,Institutional Dimensions of Open Government Data Implementation: Evidence from the Netherlands, Sweden, and the UK (Open Access),; Safarov, I., Meijer, A., Grimmelikhuijsen, S.,Utilization of open government data: A systematic literature review of types, conditions, effects and users (Open Access),; Salazar, G.,Transparency in Politics and the Media: Accountability and Open Government,(2015) Gestión y política pública, 24 (1), pp. 275-283.; Sandoval-Almazán, R.,Open government and transparency: Building a conceptual framework,; Sandoval-Almazan, R.,Open government and transparency in mexico: Longitudinal study 2015-2018 (Open Access),; Sandoval-Ballesteros, Irma,Hacia un proyecto democrático-expansivo de transparencia,(2013) Revista mexicana de ciencias políticas y sociales, 58 (219), pp. 103-134. Cited 7 times.; Tole-Martínez, Julián,La teoría de la doble dimensión de los derechos fundamentales en Colombia. El estado de las cosas inconstitucionales, un ejemplo de su aplicación,(2006) Revista Derecho del Estado, 15, pp. 99-144.; (2020) Corruption Perceptions Index ‘IPC’. Cited 235 times.,Recuperado de,Https://www.transparency.org/en/news/cpi-2020-americas; Uvalle-Berrones, Ricardo,Análisis multifacético del gobierno abierto en los procesos de la sociedad contemporánea,(2018) Revista Especializada en Investigación Jurídica, 2 (3), pp. 33-67. Cited 2 times.; Worthy, B.,The impact of open data in the Uk: Complex, unpredictable, and political (Open Access),; (2000) Diario Oficial. Cited 129 times.,NORMAS CITADAS Carta de los Derechos Fundamentales de la Unión Europea. (/C 364/01 y C364/19),  64; (2000) Declaración de Principios sobre libertad de expresión, de la Relatoría para la Libertad de Expresión de la Comisión Interamericana de Derechos Humanos, aprobada durante su 108 período ordinario de sesiones en octubre del año 2000,CIDH Disponible en: [fecha de consulta: 15 de enero de 2019],Https://www.cidh.oas.org/basicos/declaracion.htm; (2010) Informe de la Relatoría especial de libertad de expresión (RELE), aprobada por la Comisión Interamericana de los Derechos Humanos,OEA/RELE/INF.1/09, aprobada el 30 de diciembre de 2009. Disponible en: [fecha de consulta: 20 agosto de 2018],Http://www.oas.org/es/cidh/expresion/docs/publicaciones/pdf; (1969) Pacto de San José, suscrita en la Conferencia Especializada Interamericana sobre Derechos Humanos San José, Costa Rica 7 al 22 de noviembre de 1969,Convención Americana sobre Derechos Humanos Disponible en: [fecha de consulta: 14 de junio de 2021],Https://www.oas.org/dil/esp/.htm; Declaración de Principios sobre el derecho de acceso a la información. Adoptados en su 73a Sesión Regular el 7 de agosto de 2008 en Río de Janeiro,Comité Jurídico Interamericano, Brasil, OAS/Ser.Q, CJI RES.147 (LXXIII-O/08).[fecha de consulta: 14 de junio de 2021],  69; (2014) Ley de Transparencia y del Derecho de Acceso a la Información Pública Nacional. Cited 4 times.,Congreso de la República de Colombia. Diario Oficia 49.084 de 6 de marzo de Disponible en: [fecha de consulta: 14 de marzo de 2021],Http://suin.gov.co/Leyes/1687091; Congreso de la Nación de Argentina, publicada a los catorce días del mes de septiembre de 2016,Disponible en: [fecha de consulta: 14 de marzo de 2021],Http://servicios.infoleg.gob.ar/infolegInternet; Ley de acceso a la información No. 21-2002, aprobada por la Excelentísima Majestad de la Reina y con el consejo y consentimiento del Senado y la Cámara de Representantes de Jamaica, de fecha 22 de julio de 2002,Disponible en: [fecha de consulta: 14 de marzo de 2021],Https://moj.gov.jm/content/access-information-act-2002; (2008) Ley de Acceso a la Información Pública de Guatemala, aprobada por el Congreso de la República de Guatemala,Decreto N 57-2008, de fecha 23 de octubre de Disponible en: [fecha de consulta: 14 de marzo de 2021],Https://www.minfin.gob.gt/images/archivos/decreto_5708.pdf; (2011) Ley de Acceso a la Información Pública. Cited 2 times.,Decret 534, Asamblea Legislativa de la República de El Salvador, Decreto N 70/391 de fecha publicación 08 de abril de Disponible en: [fecha de consulta: 14 de marzo de 2021],Https://www.iaip.gob.sv/; Ley de Transparencia y Acceso a la Información Pública, aprobada por Decreto Legislativo No. 170 - 2006 del congreso Nacional de Honduras en Tegucigalpa, de fecha 26 de noviembre de 2006,Disponible en: [fecha de consulta: 14 de marzo de 2021],Https://www.tsc.gob.hn/web/leyes/Ref_reglamento_LTAIP.pdf; (2014) ,Ley del Libre Acceso Ciudadano a la Información Pública y Transparencia Gubernamental, Ley N 5290, aprobada por el Congreso de la Nación Paraguaya, aprobada el 26 de junio de Disponible en: [fecha de consulta: 14 de marzo de 2021],Https://www.pj.gov.py/descargas/ID1-335_ley_2014_5282.pdf; (2005) Ley General de Libre Acceso a la Información Pública,200-04, aprobada por el Congreso Nacional de la República Dominicana, en fecha 25 de febrero de Disponible en: [fecha de consulta: 14 de marzo de 2021],Https://itla.edu.do/transparencia/archivos; (2016) Congreso General de los Estados Unidos Mexicanos,Ley General de Transparencia y Acceso a la Información Pública. Diario Oficial de la Federación el 9 de mayo de Disponible en: [fecha de consulta: 14 de marzo de 2021],Http://www.diputados.gob.mx/LeyesBiblio.pdf; Ley Modelo Interamericana sobre acceso a la información 2.0. Aprobada durante el Nonagésimo Sexto período ordinario de sesiones OEA, realizada en la Asamblea General llevada a cabo entre el 2 y 6 de marzo de 2020,en Río de Janeiro, Brasil. Disponible en: [fecha de consulta: 14 de marzo de 2021],Http://www.oas.org/es/sla.asp; (2010) Aprobado por la Asamblea General de la OEA el 14 de junio de 2016,Ley Modelo Interamericana sobre Acceso a la Información Resolución AG/RES. 2885 (46-O/16). Disponible en: [fecha de consulta: 14 de marzo de 2021],Http://www.oas.org/AG-RES_2885_XLVI-O-16.pdf</t>
+          <t>Acuña Llamas, Francisco,(2002) El contenido esencial de las normas referentes a derechos humanos en la constitución mexicana,Miguel Carbonell (Coordinador); Memoria del VII Congreso Iberoamericano de Derecho Constitucional. Cited 2 times.,Instituto de Investigaciones Jurídicas, Serie Doctrina Jurídica 96. México, Ciudad de México,  3; Alexy, Robert,Teoría de los derechos fundamentales,(1993) Título original: “Theorie Der Griindrechte. Suhrkamp-Verlag. Cited 400 times.; (2011) Declaración de Gobierno Abierto del 11 de septiembre de 2011,Alianza para el Gobierno Abierto Disponible en: [fecha de consulta: 20 noviembre 2020],Https://www.opengovpartnership.org; Arenas, Mónica,Transparencia, acceso a la información pública y democracia: Elementos inseparables,(2016) Revista Transparencia y Sociedad, 4, pp. 113-131.; Bernasconi Ramírez, A.,The scientific character of legal theory,; Birskyte, L.,Determinants of Budget Transparency in Lithuanian Municipalities,; Bobbio, Norberto,(2013) Democracia y Secreto, p. 76. Cited 11 times.,(trad. de Ariella Aureli, José Fernandez Santillan. Fondo Cultura Económica. México); Bovens, M.,Information rights: Citizenship in the information society,; Cea-Egaña, José,Tercera regla de oro del Derecho Público,(2009) Revista de Derecho y Ciencias Penales, 13, pp. 23-45. Cited 2 times.; Concha, Gonzalo, Naser, Alejandra,El desafío hacia el gobierno abierto en la hora de la igualdad,(2012) Comisión Económica para América Latina y el Caribe. Proyecto @LIS2 del Programa Sociedad de la Información liderado por la División de Desarrollo Productivo y Empresarial de la Comisión Económica para América Latina y el Caribe (CEPAL), p. 134. Cited 2 times.; Cotino-Hueso, Lorenzo,Derecho y Gobierno Abierto: La regulación de la transparencia y la participación y su ejercicio a través del uso de las nuevas tecnologías y las redes sociales por las administraciones públicas. Propuestas concretas,(2013) Revista Aragonesa de Administración Pública, 14, pp. 51-92. Cited 6 times.; Hueso, L.C.,The recognition and international content of access to public information as a fundamental right,; Cousido, María del Pilar, Said-Hung, Elías, Moreno, Ignacio,La universidad española más transparente Informe 2020,(2020) Revista Derecom, 29, pp. 1-27.; Criado, J.I., Ruvalcaba-Gómez, E.A., Valenzuela-Mendoza, R.,Revisiting the open government phenomenon. A meta-analysis of the international literature,; Cucciniello, M., Porumbescu, G.A., Grimmelikhuijsen, S.,25 Years of Transparency Research: Evidence and Future Directions,; Diamond, L., Morlino, L.,An overview,; Diamond, Larry, Morlino, Leonardo,(2005) Assessing the quality of democracy. Cited 377 times.,Baltimore: Johns Hopkins University Press; Duque-Daza, José,Guillermo O'Donnell y la democracia de Latinoamérica,(2014) Revista de estudios Latinoamericanos, 58, pp. 113-144. Cited 4 times.; Lorayne, Finol-Romero,Aproximación teórica al gobierno abierto,(2018) Revista Cuestiones Políticas, 34 (60), pp. 69-91. Cited 2 times.; Finol-Romero, Lorayne,Evaluación de la regulación de la transparencia en América Latina: ¿Es suficiente una legislación?, ponencia presentada en el Seminario Internacional sobre Transparencia, Rendición de Cuentas y Combate a la Corrupción, celebrada el jueves 04 de junio de 2021,(2021) ; Finol-Romero, Lorayne, Galdames Paredes, Ana, González Jeria, Cecilia,Contextualización de la Transparencia de la función pública en Iberoamérica: Una revisión del concepto,(2021) Revista Rumbos TS. Un Espacio Crítico Para La Reflexión En Ciencias Sociales, 25, pp. 105-144. Cited 3 times.; Fischer, Carolina, Kraus, Sascha,Transparencia digital,(2020) Manual de digitalización en el estado y la administración, pp. 159-170.; Giménez-Chornet, Vincent,Buen Gobierno. Criterios innovadores de la Generalitat Valenciana,(2018) Revista de la Facultad de Derecho, 45, pp. 163-184.; Guichot, Emilio,(2014) Transparencia, acceso a la información pública y buen gobierno: Estudio de la Ley 19/2013, de 9 de diciembre, p. 382. Cited 24 times.,(Ed. Tecnos Madrid), págs; Guichot, Emilio, Barrero Rodríguez, Concepción,(2021) El Derecho de Acceso a la Información Pública, p. 872. Cited 7 times.,Tirant lo Blanch, págs; Johnston, M.,Making transparency real? Accounting and popular participation in corruption control,; Kant, Inmanuel,(1957) Lo bello y lo sublime: La paz perpetua, p. 159.,(Editorial Espasa-Calpe Argentina); Lara-Ortiz, María,El derecho a la buena administración en el marco de la protección de los derechos humanos,(2019) Cuadernos Electrónicos de Filosofía del Derecho, Actas I Congreso Internacional 70 Aniversario Declaración Universal de Derechos Humanos, 39, pp. 340-355.; Larenz, Karl,(2001) Metodología de la ciencia del Derecho, p. 192. Cited 77 times.,Segunda edición. (Ariel Barcelona Editores); Mariñez, Freddy,La dimensión relacional del gobierno abierto y el liderazgo colaborativo,(2016) Revista Espiral, 23 (65), pp. 47-87. Cited 3 times.; Matheus, Ricardo, Janssen, Marijin,Un estudio sistemático de literatura para desentrañar la transparencia habilitado por los datos de gobierno abierto: The Window Theory,(2019) Public Performance &amp; Management Review, 43 (3), pp. 1-33. Cited 2 times.; Meijer, A.,Understanding modern transparency,; Meijer, A., ’t Hart, P., Worthy, B.,Assessing Government Transparency: An Interpretive Framework,; Moscoso Moreno, A., Villavicencio Mancero, M.,Autonomous constitutional bodies and the quality of democracy in ecuador,; Morlino, Leonardo,Calidad democrática entre líderes y partidos,(2016) Calidad democrática entre líderes y partidos. La calidad del liderazgo político en los países andinos, pp. 1-102.; Navarro, Enrique,Bases constitucionales del principio de transparencia,(2013) Revista de Derecho Universidad Finis Terrae, 1, pp. 143-171. Cited 2 times.; Noveck, Beth,Rights-Based and Tech-Driven: Open Data, Freedom of Information, and the Future of Government Transparency,(2017) Yale Hum. Rts. &amp; Dev. L.J, 19 (1), pp. 1-46. Cited 21 times.; Neuman, Laura, Calland, Richard,Hacer que la ley funcione: Los desafíos de la implementación,(2007) El derecho a saber: Transparencia para un mundo abierto; Ortiz-Rodriguez, D., Alcaide-Muñoz, L., Flórez-Parra, J.M., López-Hernández, A.M.,Transparency in Latin American and Caribbean supreme auditing institutions,; Palomares-Herrera, Manuel,Estudio comparativo sobre transparencia y derecho de acceso en el ámbito internacional y su influencia en España,(2017) Ius Humani. Law Journal, 6, pp. 123-153. Cited 8 times.; Pallarés Domínguez, Daniel,Gobierno abierto: Una concepción ética para la educación democrática,(2019) Revista del CLAD Reforma y Democracia, 73, p. 81. Cited 2 times.; De Las Heras, B.P.,The better regulation agenda as a key tool of democratic governance in the european union: impact and possibilities forthe sub-state entities,; Pérez Luño, Enrique,(2001) Derechos Humanos: Estado de Derecho y Constitución. Cited 71 times.,(2001), Tecnos, 7ma ed. Madrid, España; Subirats, Joan,(2013) Prólogo de la obra “La promesa del gobierno abierto,editado por: Ramírez Alujas, Álvaro, Andrés Hofmann, y José Bojórquez-Coordinadores; Rumbul, R.,Developing transparency through digital means? Examining institutional responses to civic technology in Latin America,; Rajevic, Enrique,Derecho de Acceso a la Información y Libertad de Expresión,(2018) Informe Anual Sobre Derechos Humanos, pp. 267-295.; Roelofs, P.,Transparency and mistrust: Who or what should be made transparent?,; Ruijer, E., Meijer, A.,National Transparency Regimes: Rules or Principles? A Comparative Analysis of the United States and The Netherlands,; Ruiz, C.R.-R.,Comparative analysis of iberoamerican legislation on transparency and access to public information,; Ruvalcaba Gómez, E.A.,Open data,; Safarov, I.,Institutional Dimensions of Open Government Data Implementation: Evidence from the Netherlands, Sweden, and the UK,; Safarov, I., Meijer, A., Grimmelikhuijsen, S.,Utilization of open government data: A systematic literature review of types, conditions, effects and users,; Salazar, G.,Transparency in Politics and the Media: Accountability and Open Government,(2015) Gestión y política pública, 24 (1), pp. 275-283.; Sandoval-Almazán, R.,Open government and transparency: Building a conceptual framework,; Sandoval-Almazan, R.,Open government and transparency in mexico: Longitudinal study 2015-2018,; Sandoval-Ballesteros, Irma,Hacia un proyecto democrático-expansivo de transparencia,(2013) Revista mexicana de ciencias políticas y sociales, 58 (219), pp. 103-134. Cited 7 times.; Tole-Martínez, Julián,La teoría de la doble dimensión de los derechos fundamentales en Colombia. El estado de las cosas inconstitucionales, un ejemplo de su aplicación,(2006) Revista Derecho del Estado, 15, pp. 99-144.; (2020) Corruption Perceptions Index ‘IPC’. Cited 237 times.,Recuperado de,Https://www.transparency.org/en/news/cpi-2020-americas; Uvalle-Berrones, Ricardo,Análisis multifacético del gobierno abierto en los procesos de la sociedad contemporánea,(2018) Revista Especializada en Investigación Jurídica, 2 (3), pp. 33-67. Cited 2 times.; Worthy, B.,The impact of open data in the Uk: Complex, unpredictable, and political,; (2000) Diario Oficial. Cited 129 times.,NORMAS CITADAS Carta de los Derechos Fundamentales de la Unión Europea. (/C 364/01 y C364/19),  64; (2000) Declaración de Principios sobre libertad de expresión, de la Relatoría para la Libertad de Expresión de la Comisión Interamericana de Derechos Humanos, aprobada durante su 108 período ordinario de sesiones en octubre del año 2000,CIDH Disponible en: [fecha de consulta: 15 de enero de 2019],Https://www.cidh.oas.org/basicos/declaracion.htm; (2010) Informe de la Relatoría especial de libertad de expresión (RELE), aprobada por la Comisión Interamericana de los Derechos Humanos,OEA/RELE/INF.1/09, aprobada el 30 de diciembre de 2009. Disponible en: [fecha de consulta: 20 agosto de 2018],Http://www.oas.org/es/cidh/expresion/docs/publicaciones/pdf; (1969) Pacto de San José, suscrita en la Conferencia Especializada Interamericana sobre Derechos Humanos San José, Costa Rica 7 al 22 de noviembre de 1969,Convención Americana sobre Derechos Humanos Disponible en: [fecha de consulta: 14 de junio de 2021],Https://www.oas.org/dil/esp/.htm; Declaración de Principios sobre el derecho de acceso a la información. Adoptados en su 73a Sesión Regular el 7 de agosto de 2008 en Río de Janeiro,Comité Jurídico Interamericano, Brasil, OAS/Ser.Q, CJI RES.147 (LXXIII-O/08).[fecha de consulta: 14 de junio de 2021],  69; (2014) Ley de Transparencia y del Derecho de Acceso a la Información Pública Nacional. Cited 4 times.,Congreso de la República de Colombia. Diario Oficia 49.084 de 6 de marzo de Disponible en: [fecha de consulta: 14 de marzo de 2021],Http://suin.gov.co/Leyes/1687091; Congreso de la Nación de Argentina, publicada a los catorce días del mes de septiembre de 2016,Disponible en: [fecha de consulta: 14 de marzo de 2021],Http://servicios.infoleg.gob.ar/infolegInternet; Ley de acceso a la información No. 21-2002, aprobada por la Excelentísima Majestad de la Reina y con el consejo y consentimiento del Senado y la Cámara de Representantes de Jamaica, de fecha 22 de julio de 2002,Disponible en: [fecha de consulta: 14 de marzo de 2021],Https://moj.gov.jm/content/access-information-act-2002; (2008) Ley de Acceso a la Información Pública de Guatemala, aprobada por el Congreso de la República de Guatemala,Decreto N 57-2008, de fecha 23 de octubre de Disponible en: [fecha de consulta: 14 de marzo de 2021],Https://www.minfin.gob.gt/images/archivos/decreto_5708.pdf; (2011) Ley de Acceso a la Información Pública. Cited 2 times.,Decret 534, Asamblea Legislativa de la República de El Salvador, Decreto N 70/391 de fecha publicación 08 de abril de Disponible en: [fecha de consulta: 14 de marzo de 2021],Https://www.iaip.gob.sv/; Ley de Transparencia y Acceso a la Información Pública, aprobada por Decreto Legislativo No. 170 - 2006 del congreso Nacional de Honduras en Tegucigalpa, de fecha 26 de noviembre de 2006,Disponible en: [fecha de consulta: 14 de marzo de 2021],Https://www.tsc.gob.hn/web/leyes/Ref_reglamento_LTAIP.pdf; (2014) ,Ley del Libre Acceso Ciudadano a la Información Pública y Transparencia Gubernamental, Ley N 5290, aprobada por el Congreso de la Nación Paraguaya, aprobada el 26 de junio de Disponible en: [fecha de consulta: 14 de marzo de 2021],Https://www.pj.gov.py/descargas/ID1-335_ley_2014_5282.pdf; (2005) Ley General de Libre Acceso a la Información Pública,200-04, aprobada por el Congreso Nacional de la República Dominicana, en fecha 25 de febrero de Disponible en: [fecha de consulta: 14 de marzo de 2021],Https://itla.edu.do/transparencia/archivos; (2016) Congreso General de los Estados Unidos Mexicanos,Ley General de Transparencia y Acceso a la Información Pública. Diario Oficial de la Federación el 9 de mayo de Disponible en: [fecha de consulta: 14 de marzo de 2021],Http://www.diputados.gob.mx/LeyesBiblio.pdf; Ley Modelo Interamericana sobre acceso a la información 2.0. Aprobada durante el Nonagésimo Sexto período ordinario de sesiones OEA, realizada en la Asamblea General llevada a cabo entre el 2 y 6 de marzo de 2020,en Río de Janeiro, Brasil. Disponible en: [fecha de consulta: 14 de marzo de 2021],Http://www.oas.org/es/sla.asp; (2010) Aprobado por la Asamblea General de la OEA el 14 de junio de 2016,Ley Modelo Interamericana sobre Acceso a la Información Resolución AG/RES. 2885 (46-O/16). Disponible en: [fecha de consulta: 14 de marzo de 2021],Http://www.oas.org/AG-RES_2885_XLVI-O-16.pdf</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -5136,17 +4846,12 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>No Encontrado</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
           <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85124965466&amp;partnerID=40&amp;md5=4572e3d8304d8b4f20a43af644f8af17</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>Chile</t>
         </is>
       </c>
     </row>
@@ -5191,7 +4896,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Amadasun, S.,Social work and COVID-19 pandemic: An action call (Open Access),; Araujo, K.,(2019) Hilos tensados, Para leer el Octubre Chileno. Cited 34 times.,Santiago, Chile, Editorial USACH; Banks, S., Cai, T., de Jonge, E., Shears, J., Shum, M., Sobočan, A.M., Strom, K., (...), Weinberg, M.,Practising ethically during COVID-19: Social work challenges and responses (Open Access),; Benítez, M.A., Velasco, C., Sequeira, A.R., Henríquez, J., Menezes, F.M., Paolucci, F.,Responses to COVID-19 in five Latin American countries (Open Access),; (2020) Resolución exenta nº862/2020, 13 de marzo, Por la cual se establecen los procedimientos de intervención durante pandemia COVID-19,Santiago, Chile, Oficina de Partes,https://www.sename.cl/web/wp-content/uploads/2020/03/Rex-862-Aprueba-modificacion-Instructivo-Intervencion.pdf; Born, G., Haworth, C.,Mixing it: Digital ethnography and online research methods – A tale of two global digital music genres,(2017) The Routledge Companion to Digital Ethnography, pp. 70-86. Cited 9 times.; Carvajal, C.,‘Una farsa’: Trabajadores subcontratados del Sename acusan que nuevo servicio es más de lo mismo,(2020) diarioUchile; Cerna, T.,Defensora de la Niñez acusa ‘abandono’ del Minsal en residencias del SENAME ante el Covid-19,(2020) EMOL; Charmaz, K.,(2007) Constructing Grounded Theory. Cited 26740 times.,London, SAGE; (2020) Muñoz por Servicio de Protección de la Niñez: ‘Esto no es un cambio estructural y queda mucho por hacer’,29, October,https://www.cnnchile.com/lodijeronencnn/munoz-servicio-proteccion-ninez-cambio-estructural_20201029/; Cromby, J.,Feeling the Way: Qualitative Clinical Research and the Affective Turn,; Davies, B., Gannon, S.,(2006) Doing Collective Biography. Cited 256 times.,London, Open University Press; Denzin, N.K.,The reflexive interview and a performative social science,; (2020) Protocolo de Actuación frente a la Alerta Sanitaria por Coronavirus Covid-19 en Centros de Cuidado Alternativo Residencial y FAE de Administración Directa,(, a,https://www.sename.cl/web/wp-content/uploads/2021/05/Protocolo-Actuacion-COVID-19-Centros-Residencias-AADD-V9.pdf; (2020) Protocolo de actuación frente a la alerta sanitaria por coronavirus covid-19 en Organismos Colaboradores Residenciales y Ambulatorios,(, b,https://www.sename.cl/web/wp-content/uploads/2021/05/Protocolo-Actuacion-COVID-19-Centros-Residenciales-OCAS-V9.pdf; (2020) Dictamen n°3610/2020, 17 de marzo, Sobre las medidas de gestión que pueden optar los órganos de la administración del Estado a propósito del brote de COVID-19,Santiago, Chile, Contraloría de Chile, Dictamen Oficial de la Contraloría General de la República,https://www.ssvq.cl/ssvq/site/artic/20201103/asocfile/20201103115520/covid_19_dictamen_3610_medidas_de_gesti__n_interna.pdf; Enciso, G.,(2015) Una travesía de las emociones al afecto en las prácticas del poliamor. Cited 4 times.,Universitat Autonoma de Barcelona, Barcelona, PhD Thesis; Fardella, C., Sisto, V., Morales, K., Rivera, G., Soto, R.,Labor identities and ethics of public work in times of accountability (Open Access),; Flick, U.,(2004) Introducción a la investigación cualitativa. Cited 956 times.,Madrid, Morata; Gherardi, S.,How to Conduct a Practice-based Study: Problems and Methods,; Holstein, J., Gubrium, J.,(1995) The Active Interview. Cited 1681 times.,Thousand Oaks, CA, SAGE; HOOD, C.,A PUBLIC MANAGEMENT FOR ALL SEASONS?,; Jentsch, B., Schnock, B.,Child welfare in the midst of the coronavirus pandemic—Emerging evidence from Germany (Open Access),; Kast, M.,Política económica y desarrollo social en Chile,(1984) Estudios Públicos, 13, pp. 199-209. Cited 3 times.; Merkens, H.,Selection procedures, sampling, case construction,(2004) A Companion to Qualitative Research, pp. 165-171. Cited 49 times.; Muñoz Arce, G.,The neoliberal turn in Chilean social work: frontline struggles against individualism and fragmentation,; Pavez, J.,(2018) Significados y prácticas de la precariedad en trabajadores y trabajadoras de un programa social de infancia en la región de Valparaíso. Cited 5 times.,Pontificia Universidad Católica de Valparaíso, Valparaíso, Chile, PhD Thesis; Pavez, J., Herrera-Soto, Y., Molina-Johannes, J.,El permanente conflicto entre Estado e instituciones colaboradoras a partir de su marco normativo,(2019) Athenea Digital, 19 (1), pp. 1-24. Cited 2 times.; Pereira, J.M.M.,Continuity, rupture or recycling? An analysis of the political agenda of the world bank after the Washington consensus (Open Access),; Pink, S., Horst, H., Postill, J.,(2019) Etnografía digital. Principios y practices. Cited 22 times.,Madrid, Morata; Ravetllat, I., Lobos, P., Maldonado, P.,Hoy termina SENAME ¿O solo cambia el nombre? [Columna de opinión],(2020) CIPER Académico. Cited 2 times.; Rojas, C.,(2020) Abandonados: vida y muerte al interior del SENAME. Cited 2 times.,Santiago, Chile, Penguin; Ruthrof, H.,(1997) Semantics and the Body. Cited 50 times.,University of Toronto Press; Schwab-Reese, L.M., Drury, I., Allan, H., Matz, K.,“Oh, this is actually okay“: Understanding how one state child welfare training system adapted to the COVID-19 pandemic (Open Access),; (2020) Nuevo Servicio de Protección a la Niñez y Adolescencia a tercer trámite,https://www.senado.cl/nuevo-servicio-de-proteccion-a-la-ninez-y-adolescencia-a-tercer-tramite/senado/2020-05-05/123220.html,  36; Shamir, R.,The age of responsibilization: On market-embedded morality,; Cohen, R.I.S., Bosk, E.A.,Vulnerable youth and the COVID-19 pandemic,; (2021) Solicita priorización en la administración de vacunas contra el SARS-CoV-2 para trabajadores/as de la red SENAME ambulatoria,26, January, Valparaíso, Chile, Sintrasub, Oficio N° 003/2021,https://radio.uchile.cl/wp-content/uploads/2021/02/OFICIO-N%C2%B0003-SUBSECRETARIA-DE-SALUD.docx; (2005) Chile. Ley 20.032/2005, July 11, Establece sistema de atención a la niñez y adolescencia a través de la red de colaboradores del SENAME, y su régimen de subvención,https://siteal.iiep.unesco.org/sites/default/files/sit_accion_files/siteal_chile_0594.pdf,  41; Lagos, R.A.S., Adasme, J.M.M., Muñoz, C.G.N., Campos, V.M.S., Cisternas, C.F.,Between the effectivity and affectivity: New teachers in times of new public management (Open Access),; (2019) Balance de gestión integral año 2018. Cited 4 times.,https://www.sename.cl/web/wp-content/uploads/2015/10/BGI-2018-SENAME-2018.pdf,  44; (2015) Observaciones finales sobre los informes periódicos cuarto y quinto combinados de Chile. Cited 6 times.,New York, UN, Report of the Committee on the Rights of the Child, Report CRC/C/CHL/4-5,  46; (2020) Impact of COVID-19 on children and families in Latin America and the Caribbean. Cited 2 times.,Report, UNICEF, Latin America and Caribbean Regional Office, Panama, Republic of Panama, July,  48; Vokes, R., Atukunda, G.,Fieldwork through the zoomiverse sensing uganda in a time of immobility (Open Access),</t>
+          <t>Amadasun, S.,Social work and COVID-19 pandemic: An action call,; Araujo, K.,(2019) Hilos tensados, Para leer el Octubre Chileno. Cited 34 times.,Santiago, Chile, Editorial USACH; Banks, S., Cai, T., de Jonge, E., Shears, J., Shum, M., Sobočan, A.M., Strom, K., (...), Weinberg, M.,Practising ethically during COVID-19: Social work challenges and responses,; Benítez, M.A., Velasco, C., Sequeira, A.R., Henríquez, J., Menezes, F.M., Paolucci, F.,Responses to COVID-19 in five Latin American countries,; (2020) Resolución exenta nº862/2020, 13 de marzo, Por la cual se establecen los procedimientos de intervención durante pandemia COVID-19,Santiago, Chile, Oficina de Partes,https://www.sename.cl/web/wp-content/uploads/2020/03/Rex-862-Aprueba-modificacion-Instructivo-Intervencion.pdf; Born, G., Haworth, C.,Mixing it: Digital ethnography and online research methods – A tale of two global digital music genres,(2017) The Routledge Companion to Digital Ethnography, pp. 70-86. Cited 9 times.; Carvajal, C.,‘Una farsa’: Trabajadores subcontratados del Sename acusan que nuevo servicio es más de lo mismo,(2020) diarioUchile; Cerna, T.,Defensora de la Niñez acusa ‘abandono’ del Minsal en residencias del SENAME ante el Covid-19,(2020) EMOL; Charmaz, K.,(2007) Constructing Grounded Theory. Cited 26862 times.,London, SAGE; (2020) Muñoz por Servicio de Protección de la Niñez: ‘Esto no es un cambio estructural y queda mucho por hacer’,29, October,https://www.cnnchile.com/lodijeronencnn/munoz-servicio-proteccion-ninez-cambio-estructural_20201029/; Cromby, J.,Feeling the Way: Qualitative Clinical Research and the Affective Turn,; Davies, B., Gannon, S.,(2006) Doing Collective Biography. Cited 256 times.,London, Open University Press; Denzin, N.K.,The reflexive interview and a performative social science,; (2020) Protocolo de Actuación frente a la Alerta Sanitaria por Coronavirus Covid-19 en Centros de Cuidado Alternativo Residencial y FAE de Administración Directa,(, a,https://www.sename.cl/web/wp-content/uploads/2021/05/Protocolo-Actuacion-COVID-19-Centros-Residencias-AADD-V9.pdf; (2020) Protocolo de actuación frente a la alerta sanitaria por coronavirus covid-19 en Organismos Colaboradores Residenciales y Ambulatorios,(, b,https://www.sename.cl/web/wp-content/uploads/2021/05/Protocolo-Actuacion-COVID-19-Centros-Residenciales-OCAS-V9.pdf; (2020) Dictamen n°3610/2020, 17 de marzo, Sobre las medidas de gestión que pueden optar los órganos de la administración del Estado a propósito del brote de COVID-19,Santiago, Chile, Contraloría de Chile, Dictamen Oficial de la Contraloría General de la República,https://www.ssvq.cl/ssvq/site/artic/20201103/asocfile/20201103115520/covid_19_dictamen_3610_medidas_de_gesti__n_interna.pdf; Enciso, G.,(2015) Una travesía de las emociones al afecto en las prácticas del poliamor. Cited 4 times.,Universitat Autonoma de Barcelona, Barcelona, PhD Thesis; Fardella, C., Sisto, V., Morales, K., Rivera, G., Soto, R.,Labor identities and ethics of public work in times of accountability,; Flick, U.,(2004) Introducción a la investigación cualitativa. Cited 962 times.,Madrid, Morata; Gherardi, S.,How to Conduct a Practice-based Study: Problems and Methods,; Holstein, J., Gubrium, J.,(1995) The Active Interview. Cited 1684 times.,Thousand Oaks, CA, SAGE; HOOD, C.,A PUBLIC MANAGEMENT FOR ALL SEASONS?,; Jentsch, B., Schnock, B.,Child welfare in the midst of the coronavirus pandemic—Emerging evidence from Germany,; Kast, M.,Política económica y desarrollo social en Chile,(1984) Estudios Públicos, 13, pp. 199-209. Cited 3 times.; Merkens, H.,Selection procedures, sampling, case construction,(2004) A Companion to Qualitative Research, pp. 165-171. Cited 49 times.; Muñoz Arce, G.,The neoliberal turn in Chilean social work: frontline struggles against individualism and fragmentation,; Pavez, J.,(2018) Significados y prácticas de la precariedad en trabajadores y trabajadoras de un programa social de infancia en la región de Valparaíso. Cited 5 times.,Pontificia Universidad Católica de Valparaíso, Valparaíso, Chile, PhD Thesis; Pavez, J., Herrera-Soto, Y., Molina-Johannes, J.,El permanente conflicto entre Estado e instituciones colaboradoras a partir de su marco normativo,(2019) Athenea Digital, 19 (1), pp. 1-24. Cited 2 times.; Pereira, J.M.M.,Continuity, rupture or recycling? An analysis of the political agenda of the world bank after the Washington consensus,; Pink, S., Horst, H., Postill, J.,(2019) Etnografía digital. Principios y practices. Cited 22 times.,Madrid, Morata; Ravetllat, I., Lobos, P., Maldonado, P.,Hoy termina SENAME ¿O solo cambia el nombre? [Columna de opinión],(2020) CIPER Académico. Cited 2 times.; Rojas, C.,(2020) Abandonados: vida y muerte al interior del SENAME. Cited 2 times.,Santiago, Chile, Penguin; Ruthrof, H.,(1997) Semantics and the Body. Cited 50 times.,University of Toronto Press; Schwab-Reese, L.M., Drury, I., Allan, H., Matz, K.,“Oh, this is actually okay“: Understanding how one state child welfare training system adapted to the COVID-19 pandemic,; (2020) Nuevo Servicio de Protección a la Niñez y Adolescencia a tercer trámite,https://www.senado.cl/nuevo-servicio-de-proteccion-a-la-ninez-y-adolescencia-a-tercer-tramite/senado/2020-05-05/123220.html,  36; Shamir, R.,The age of responsibilization: On market-embedded morality (Open Access),; Cohen, R.I.S., Bosk, E.A.,Vulnerable youth and the COVID-19 pandemic,; (2021) Solicita priorización en la administración de vacunas contra el SARS-CoV-2 para trabajadores/as de la red SENAME ambulatoria,26, January, Valparaíso, Chile, Sintrasub, Oficio N° 003/2021,https://radio.uchile.cl/wp-content/uploads/2021/02/OFICIO-N%C2%B0003-SUBSECRETARIA-DE-SALUD.docx; (2005) Chile. Ley 20.032/2005, July 11, Establece sistema de atención a la niñez y adolescencia a través de la red de colaboradores del SENAME, y su régimen de subvención,https://siteal.iiep.unesco.org/sites/default/files/sit_accion_files/siteal_chile_0594.pdf,  41; Lagos, R.A.S., Adasme, J.M.M., Muñoz, C.G.N., Campos, V.M.S., Cisternas, C.F.,Between the effectivity and affectivity: New teachers in times of new public management (Open Access),; (2019) Balance de gestión integral año 2018. Cited 4 times.,https://www.sename.cl/web/wp-content/uploads/2015/10/BGI-2018-SENAME-2018.pdf,  44; (2015) Observaciones finales sobre los informes periódicos cuarto y quinto combinados de Chile. Cited 6 times.,New York, UN, Report of the Committee on the Rights of the Child, Report CRC/C/CHL/4-5,  46; (2020) Impact of COVID-19 on children and families in Latin America and the Caribbean. Cited 2 times.,Report, UNICEF, Latin America and Caribbean Regional Office, Panama, Republic of Panama, July,  48; Vokes, R., Atukunda, G.,Fieldwork through the zoomiverse sensing uganda in a time of immobility,</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -5222,11 +4927,6 @@
       <c r="O60" t="inlineStr">
         <is>
           <t>10.1177/00208728211073649</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>Chile</t>
         </is>
       </c>
     </row>
@@ -5271,7 +4971,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Abramowicz, M.,Trial by market: A thought experiment,(2004) American University Law Review, 229 (49), pp. 1-22.; Aven, T.,Risk assessment and risk management: Review of recent advances on their foundation (Open Access),; Baldwing, R., Black, J.,Really responsive regulation,(2008) The Modern Law Review, 71 (1), pp. 59-99. Cited 297 times.; Burgess, S., Ratto, M.,The role of incentives in the public sector: Issues and evidence (Open Access),; Caplan, B.,The myth of the rational voter: Why democracies choose bad policies,; del Pilar Castillo, M.P., Balbinotto N., G.,A model of desertion. From a principal-agent theory perspective (Open Access),; Coase, R.,The problem of social cost,(1960) Journal of Law and Economics, 3 (1), pp. 1-44. Cited 9475 times.; Coloma, G.,(1999) Apuntes para El Análisis Económico del Derecho Privado Argentine. Cited 3 times.,Universidad del CEMA; (2013) INDECOPI,Resolutio 317-2013-INDECOPI/COD, 24 April,  10; (1991) Framework Law for the Growth of Private Investment,Legislative Decret 757,  12; (1997) The Organic Law of Elections, p. 194.,La 26859, Art,  14; (2002) Transparency and Access to Public Information Law,Law 27806,  16; (2004) Law that Regulates the Access and Shared Use of Infrastructure for Public Use for the Provision of Public Telecommunications Services,Law 28295,  18; (2007) Organization and Functions Law of Instituto Nacional de Defensa de la Competencia y de la Protección de la Propiedad Intelectual (INDECOPI), p. 1033.,Legislative Decree,  20; (2013) Law Amending Various Laws to Facilitate Investment, Boost Development Productive, and Business Growth,La 30056,  22; (2015) Administrative Silence Law,Law 29060,  24; (2017) The Law on General Administrative Procedure,Law 2777,  26; (2003) Judgment Exp No. 0008-2003-AI/TC,11 November,  28; Dunlop, T.,Mind the gap: A social sciences review of energy efficiency (Open Access),; Freudenberg, N.,Commentary: Reducing inequalities in child obesity in developed nations: What do we know? What can we do? (Open Access),; Friel, D.,Understanding institutions: Different paradigms, different conclusions,(2017) Rev. Adm, 52 (2), pp. 112-114. Cited 15 times.; Fuchs, D., Roller, E.,Conceptualizing and measuring the quality of democracy: The citizens’ perspective (Open Access),; Galvin, R., Healy, N.,The Green New Deal in the United States: What it is and how to pay for it (Open Access),; García Sánchez, I.,La nueva gestión pública. Evolución y tendencias,(2007) Presupuesto y Gasto Público, 47 (1), pp. 37-64. Cited 42 times.; Ghasem, S., Pour Mohammad, P.,The legal nature and the effects of privatization of public companies in Iranian law,(2017) Revista Administração em Diálogo, 19 (1), pp. 25-38.; Gómez-Pomar Rodríguez, J.,(2007) ¿Se Puede Medir la Eficiencia de las Administraciones Públicas?, pp. 125-145. Cited 2 times.,(La Administración Pública que España Necesita, Círculo de Empresarios); Gómez-Pomar Rodríguez, L.,(2007) ¿Se Puede Medir la Eficiencia de las Administraciones Públicas?, pp. 125-145. Cited 2 times.,(La Administración Pública que España Necesita, Círculo de Empresarios); Holahan, R., Kashwan, P.,Disentangling the rhetoric of public goods from their externalities: The case of climate engineering (Open Access),; Kjelstrup, S., Magnanelli, E.,Efficiency in the process industry: Three thermodynamic tools for better resource use (Open Access),; Klein, P.,New Institutional Economics,(1999) The Encyclopedia of Law and Economics, pp. 456-489. Cited 106 times.; Loewe, M., Zintl, T., Houdret, A.,The social contract as a tool of analysis: Introduction to the special issue on “Framing the evolution of new social contracts in Middle Eastern and North African countries” (Open Access),; Longo, F., Ysa, T.,(2008) Los Escenarios de la Gestión Pública en el Siglo XXI. Cited 4 times.,Generalitat de Catalunya, Barcelona; Mateos de Cabo, R., Terjesen, S., Escot, L., Gimeno, R.,Do ‘soft law’ board gender quotas work? Evidence from a natural experiment (Open Access),; Meuleman, L.,Public administration and governance for the sdgs: Navigating between change and stability (Open Access),; Mises, L.,(1980) La Acción Humana. Cited 51 times.,Madrid, Unión Editorial; (2011) Justification Regulations and Electoral Dispensation,National Jury of Elections Resolutio 703-2011-JNE, 7 September,  47; (2015) Regulation of Publicity, Propaganda, and Neutrality,National Jury of Elections Resolutio 304-2015-JNE, 21 October,  49; Payne, M., Carrillo, F., Allamand, A., Zovatto, D.,(2002) Democracies in Development: Politics and Reform in Latin América. Cited 161 times.,BID/International IDEA, Nueva York; (2009) ,Resolutio 759-2009-JNE,  52; Petoft, A.,The concept and instances of general principles of administrative law: Towards a global administrative law (Open Access),; (1993) Const.,  55,(2013) ; (1992) Law of Organization and Functions of Instituto Nacional de Defensa de la Competencia y de la Protección de la Propiedad Intelectual (INDECOPI),Executive Order 25868,  57; (2018) Contractual Law of the State No. 30225,Supreme Decre 350-2015-EF,  59; Rojas, R., Schenone, O., Stordeur, E.,(2012) Nociones de Análisis Económico de Derecho Privado, pp. 26-36. Cited 2 times.,Mayaprin, Guatemala; Rose-Ackerman, S.,Reforming public bureaucracy through economic incentives?,; Rose-Ackerman, S.,Consensus versus incentives: A skeptical look at regulatory negotiation,(1994) Duke Law Journal, 43 (6), pp. 1206-1220. Cited 41 times.; Somin, I.,(2013) Democracy and Political Ignorance: Why Smaller Government it is Smarter. Cited 281 times.,Stanford, Stanford University Press; Watts, J.D., Tacconi, L., Hapsari, N., Irawan, S., Sloan, S., Widiastomo, T.,Incentivizing compliance: Evaluating the effectiveness of targeted village incentives for reducing burning in Indonesia (Open Access),; Wood, B., Williams, O., Baker, P., Nagarajan, V., Sacks, G.,The influence of corporate market power on health: exploring the structure-conduct-performance model from a public health perspective (Open Access),; Yang, L.,Public Administration as a Dynamic Balance and Integrative Science Across Politics, Management, and Law: Rosenbloom’s Framework and Chinese Experiences,</t>
+          <t>Abramowicz, M.,Trial by market: A thought experiment,(2004) American University Law Review, 229 (49), pp. 1-22.; Aven, T.,Risk assessment and risk management: Review of recent advances on their foundation,; Baldwing, R., Black, J.,Really responsive regulation,(2008) The Modern Law Review, 71 (1), pp. 59-99. Cited 297 times.; Burgess, S., Ratto, M.,The role of incentives in the public sector: Issues and evidence,; Caplan, B.,The myth of the rational voter: Why democracies choose bad policies,; del Pilar Castillo, M.P., Balbinotto N., G.,A model of desertion. From a principal-agent theory perspective,; Coase, R.,The problem of social cost,(1960) Journal of Law and Economics, 3 (1), pp. 1-44. Cited 9490 times.; Coloma, G.,(1999) Apuntes para El Análisis Económico del Derecho Privado Argentine. Cited 3 times.,Universidad del CEMA; (2013) INDECOPI,Resolutio 317-2013-INDECOPI/COD, 24 April,  10; (1991) Framework Law for the Growth of Private Investment,Legislative Decret 757,  12; (1997) The Organic Law of Elections, p. 194.,La 26859, Art,  14; (2002) Transparency and Access to Public Information Law,Law 27806,  16; (2004) Law that Regulates the Access and Shared Use of Infrastructure for Public Use for the Provision of Public Telecommunications Services,Law 28295,  18; (2007) Organization and Functions Law of Instituto Nacional de Defensa de la Competencia y de la Protección de la Propiedad Intelectual (INDECOPI), p. 1033.,Legislative Decree,  20; (2013) Law Amending Various Laws to Facilitate Investment, Boost Development Productive, and Business Growth,La 30056,  22; (2015) Administrative Silence Law,Law 29060,  24; (2017) The Law on General Administrative Procedure,Law 2777,  26; (2003) Judgment Exp No. 0008-2003-AI/TC,11 November,  28; Dunlop, T.,Mind the gap: A social sciences review of energy efficiency,; Freudenberg, N.,Commentary: Reducing inequalities in child obesity in developed nations: What do we know? What can we do?,; Friel, D.,Understanding institutions: Different paradigms, different conclusions,(2017) Rev. Adm, 52 (2), pp. 112-114. Cited 15 times.; Fuchs, D., Roller, E.,Conceptualizing and measuring the quality of democracy: The citizens’ perspective,; Galvin, R., Healy, N.,The Green New Deal in the United States: What it is and how to pay for it,; García Sánchez, I.,La nueva gestión pública. Evolución y tendencias,(2007) Presupuesto y Gasto Público, 47 (1), pp. 37-64. Cited 42 times.; Ghasem, S., Pour Mohammad, P.,The legal nature and the effects of privatization of public companies in Iranian law,(2017) Revista Administração em Diálogo, 19 (1), pp. 25-38.; Gómez-Pomar Rodríguez, J.,(2007) ¿Se Puede Medir la Eficiencia de las Administraciones Públicas?, pp. 125-145. Cited 2 times.,(La Administración Pública que España Necesita, Círculo de Empresarios); Gómez-Pomar Rodríguez, L.,(2007) ¿Se Puede Medir la Eficiencia de las Administraciones Públicas?, pp. 125-145. Cited 2 times.,(La Administración Pública que España Necesita, Círculo de Empresarios); Holahan, R., Kashwan, P.,Disentangling the rhetoric of public goods from their externalities: The case of climate engineering,; Kjelstrup, S., Magnanelli, E.,Efficiency in the process industry: Three thermodynamic tools for better resource use,; Klein, P.,New Institutional Economics,(1999) The Encyclopedia of Law and Economics, pp. 456-489. Cited 106 times.; Loewe, M., Zintl, T., Houdret, A.,The social contract as a tool of analysis: Introduction to the special issue on “Framing the evolution of new social contracts in Middle Eastern and North African countries”,; Longo, F., Ysa, T.,(2008) Los Escenarios de la Gestión Pública en el Siglo XXI. Cited 4 times.,Generalitat de Catalunya, Barcelona; Mateos de Cabo, R., Terjesen, S., Escot, L., Gimeno, R.,Do ‘soft law’ board gender quotas work? Evidence from a natural experiment,; Meuleman, L.,Public administration and governance for the sdgs: Navigating between change and stability,; Mises, L.,(1980) La Acción Humana. Cited 52 times.,Madrid, Unión Editorial; (2011) Justification Regulations and Electoral Dispensation,National Jury of Elections Resolutio 703-2011-JNE, 7 September,  47; (2015) Regulation of Publicity, Propaganda, and Neutrality,National Jury of Elections Resolutio 304-2015-JNE, 21 October,  49; Payne, M., Carrillo, F., Allamand, A., Zovatto, D.,(2002) Democracies in Development: Politics and Reform in Latin América. Cited 161 times.,BID/International IDEA, Nueva York; (2009) ,Resolutio 759-2009-JNE,  52; Petoft, A.,The concept and instances of general principles of administrative law: Towards a global administrative law (Open Access),; (1993) Const.,  55,(2013) ; (1992) Law of Organization and Functions of Instituto Nacional de Defensa de la Competencia y de la Protección de la Propiedad Intelectual (INDECOPI),Executive Order 25868,  57; (2018) Contractual Law of the State No. 30225,Supreme Decre 350-2015-EF,  59; Rojas, R., Schenone, O., Stordeur, E.,(2012) Nociones de Análisis Económico de Derecho Privado, pp. 26-36. Cited 2 times.,Mayaprin, Guatemala; Rose-Ackerman, S.,Reforming public bureaucracy through economic incentives? (Open Access),; Rose-Ackerman, S.,Consensus versus incentives: A skeptical look at regulatory negotiation,(1994) Duke Law Journal, 43 (6), pp. 1206-1220. Cited 41 times.; Somin, I.,(2013) Democracy and Political Ignorance: Why Smaller Government it is Smarter. Cited 281 times.,Stanford, Stanford University Press; Watts, J.D., Tacconi, L., Hapsari, N., Irawan, S., Sloan, S., Widiastomo, T.,Incentivizing compliance: Evaluating the effectiveness of targeted village incentives for reducing burning in Indonesia (Open Access),; Wood, B., Williams, O., Baker, P., Nagarajan, V., Sacks, G.,The influence of corporate market power on health: exploring the structure-conduct-performance model from a public health perspective (Open Access),; Yang, L.,Public Administration as a Dynamic Balance and Integrative Science Across Politics, Management, and Law: Rosenbloom’s Framework and Chinese Experiences,</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -5302,11 +5002,6 @@
       <c r="O61" t="inlineStr">
         <is>
           <t>10.1504/IJPLAP.2022.120662</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>Varios Paises</t>
         </is>
       </c>
     </row>
@@ -5351,7 +5046,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Alonso-Muñoz, L., Casero-Ripollés, A.,Transparency and political monitoring in the digital environment. Towards a typology of citizen-driven platforms (Open Access),; Araújo, A.C., Reis, L., Sampaio, R.C.,Do transparency and open data walk together? An analysis of initiatives in five brazilian capitals (Open Access),; Bearfield, D.A., Bowman, A.O.M.,Can You Find It on the Web? An Assessment of Municipal E-Government Transparency,; Capuano, E.A.,Business intelligence systems as management, accountability and transparency tools for the government: The case of platform aquarius,; Casalino, N., Buonocore, F., Rossignoli, C., Ricciardi, F.,Transparency, openness and knowledge sharing for rebuilding and strengthening government institutions,; (2016) Carta Iberoamericana de Gobierno Abierto. CLAD. Cited 9 times.,https://www.funcionpublica.gov.co/eva/admon/files/empresas/ZW1wcmVzYV83Ng==/archivos/1470417708_350c543cc190276e5a10618fd50a3245.pdf,  7; Concha, G., Naser, A.,(2012) El desafío hacia el gobierno abierto en la hora de la igualdad. Cited 17 times.,(Eds). CEPAL; Naciones Unidas; Corrêa, A.S., Corrêa, P.L.P., Da Silva, F.S.C.,Transparency portals versus open government data. An assessment of openness in Brazilian municipalities,; Cucciniello, M., Porumbescu, G.A., Grimmelikhuijsen, S.,25 Years of Transparency Research: Evidence and Future Directions (Open Access),; da Silva Craveiro, G., Albano, C.,Open data intermediaries: coproduction in budget transparency,; Dawes, S.S.,Stewardship and usefulness: Policy principles for information-based transparency,; Dawes, S.S., Helbig, N.,Information strategies for open government: Challenges and prospects for deriving public value from government transparency (Open Access),; Dos Santos Brito, K., Dos Santos Neto, M., Da Silva Costa, M.A., Garcia, V.C., De Lemos Meira, S.R.,Using parliamentary Brazilian open data to improve transparency and public participation in Brazil,; Dos Santos Brito, K., Costa, M.A.S., Garcia, V.C., De Lemos Meira, S.R.,Experiences integrating heterogeneous Government open data sources to deliver services and promote transparency in Brazil,; Fenster, M.,Transparency in search of a theory,; Fox, J., Haight, L., Palmer-Rubin, B.,Delivering transparency: To what degree does the Mexican government respond to public information requests?,; (2013) Las TIC en el gobierno abierto: Transpa-rencia, participación y colaboración. Cited 2 times.,Ariel,http://www.fundacion.telefonica.com/es/arte_cultura/publicaciones/detalle/211; Fung, A.,Infotopia: Unleashing the democratic power of transparency,; Ganapati, S., Reddick, C.G.,Open e-government in U.S. state governments: Survey evidence from Chief Information Officers,; Ganapati, S., Reddick, C.G.,The use of ICT for open government in U.S. municipalities: Perceptions of chief administrative officers,; García Garcís, J.,Open government: Transparency, Participation and collaboration in public administration (Open Access),; Ginsberg, W. R.,(2011) The Obama administration’s open government initiative: Issues for Congress [Reporte preparado para los miem-bros y comités del Congreso],Congress Research Sevice; Groff, J., Baker, M., Détienne, F.,Aligning public administrators and citizens on and around open data: An activity theory approach,; Gunawong, P.,Open Government and Social Media: A Focus on Transparency,; Harrison, T.M., Guerrero, S., Burke, G.B., Cook, M., Cresswell, A., Helbig, N., Hrdinova, J., (...), Pardo, T.,Open government and e-government: Democratic challenges from a public value perspective,; Harrison, T.M., Sayogo, D.S.,Open budgets and open government: Beyond disclosure in pursuit of transparency, participation and accountability,; Harrison, T.M., Sayogo, D.S.,Transparency, participation, and accountability practices in open government: A comparative study (Open Access),; Hernández, R., Fernández, C., Baptista, P.,(2014) Metodología de la investigación. Cited 6043 times.,(6 Ed). McGrawHill Education; Janssen, M., van den Hoven, J.,Big and Open Linked Data (BOLD) in government: A challenge to transparency and privacy?,; Kassen, M.,Understanding transparency of government from a Nordic perspective: open government and open data movement as a multidimensional collaborative phenomenon in Sweden,; Kimball, M.B.,Mandated state-level open government training programs,; Kitchenham, B., Charters, S., Budgen, D., Brereton, P., Turner, M., Linkman, S., Visaggio, G.,(2007) Guidelines for performing Systematic Literature Reviews in Software Engineering [Reporte técnico, EBSE]. Cited 5437 times.,School of Computer Science and Mathematics, Keele University; Department of Computer Science, University of Durham; Lee, G., Kwak, Y.H.,An Open Government Maturity Model for social media-based public engagement,; Liu, A.C.,Two Faces of Transparency: The Regulations of People’s Republic of China on Open Government Information,; Lourenço, R.P.,Open government portals assessment: A transparency for accountability perspective (Open Access),; Lourenço, R.P.,An analysis of open government portals: A perspective of transparency for accountability,; Lourenço, R.P., Jorge, S., Rolas, H.,Towards a transparency ontology in the context of open government,; Lux Wigand, F.D.,Gov 2.0 and beyond: Using social media for transparency, participation and collaboration,; Machado, V., Mantini, G., Viterbo, J., Bernardini, F., Barcellos, R.,An instrument for evaluating open data portals: A case study in Brazilian cities,; Manfredi Sánchez, J.L., Herranz de la Casa, J.M., Calvo Rubio, L.M.,Transparency and Diplomacy: New social demands and professional routines (Open Access),; Marino, P.B.L.P., Silva Sucupira, G.I.C., de Siqueira, W.R., de Souza Bermejo, P.H.,Public transparency in the brazilian context: An integrative review,; Marjanovic, O., Cecez-Kecmanovic, D.,Exploring the tension between transparency and datification effects of open government IS through the lens of Complex Adaptive Systems,; Martínez-Rolán, X., Piñeiro-Otero, T., Baamonde-Silva, X.M.,,(2016) Observatorio, 10 (4), pp. 35-55. Cited 8 times.; McDermott, P.,Building open government,; Meijer, A.J., Curtin, D., Hillebrandt, M.,Open government: Connecting vision and voice (Open Access),; Mendoza, G.Q.,Open government in Latin America limited to transparency, and access to information,; Montero, G.,Del gobierno abierto al Estado abierto: la mirada del Centro Latinoamericano de Administración para el Desa-rrollo,(2017) Desde el gobierno abierto al Estado abierto en América Latina y el Ca-ribe, pp. 53-81. Cited 3 times.; Moore, S.,Towards a Sociology of Institutional Transparency: Openness, Deception and the Problem of Public Trust (Open Access),; Mora-Rodriguez, M., Atemezing, G.A., Preist, C.,Adopting semantic technologies for effective corporate transparency (Open Access),; Murillo, M.J.,Evaluating the role of online data availability: The case of economic and institutional transparency in sixteen Latin American nations,; Naser, A., Ramírez-Alujas, Á.,(2017) Plan de gobierno abierto. Una hoja de ruta para los gobiernos de la región. Cited 15 times.,CEPAL; ECLAC; Naser, A., Ramírez-Alujas, Á., Rosales, D.,(2017) Desde el go-bierno abierto al Estado abierto en América Latina y el Caribe. Cited 12 times.,(Eds). CEPAL; Naciones Unidas; O’Donovan, P., Leahy, K., Bruton, K., O’Sullivan, D.T.J.,Big data in manufacturing: a systematic mapping study (Open Access),; The international open data charter,(2015) . Cited 24 times.,ODC. Con-sultado noviembre 30, 2017, en; (2019) Open Government Partnership Informe Global,Open Government Partnership,https://www.opengovpartnership.org/wp-content/uploads/2019/08/Global-Report_Volume-1_ES.pdf; (2017) The Open Data Handbook. Open Data Handbook,http://opendatahandbook.org/,  58; Oztoprak, A.A., Ruijer, E.,Variants of transparency: an analysis of the English Local Government Transparency Code 2015,; Palmirani, M., Martoni, M., Girardi, D.,Open government data beyond transparency,; Patiño, J. A.,(2014) Datos abiertos y ciudades inteligentes en América Latina. Cited 4 times.,(Comp) Estudios de caso. CEPAL; Patiño, J. A., Poveda, L., Martínez, A. L.,(2018) Monitoreo de la Agenda Digital para América Latina y el Caribe eLAC2018. Cited 7 times.,CEPAL; CETIC.br; NIC.br; GIZ; Petersen, K., Feldt, R., Mujtaba, S., Mattsson, M.,Systematic mapping studies in software engineering (Open Access),; Piotrowski, S.J.,The “Open Government Reform” Movement: The Case of the Open Government Partnership and U.S. Transparency Policies*,; Ramírez-Alujas, Á.,Gobierno abierto es la respuesta: ¿Cuál era la pregunta?,(2012) Más Poder Local, 12, pp. 14-22. Cited 10 times.; Reddick, C.G., Chatfield, A.T., Puron-Cid, G.,Online budget transparency innovation in government: A case study of the U.S. state governments,; Reggi, L., Dawes, S.,Open government data ecosystems: Linking transparency for innovation with transparency for participation and accountability (Open Access),; (Erna) Ruijer, H.J.M.,Proactive Transparency in the United States and the Netherlands: The Role of Government Communication Officials (Open Access),; Sadiq, S., Indulska, M.,Open data: Quality over quantity,; Sandoval-Almazán, R.,Open government and transparency: Building a conceptual framework,; Sayogo, D.S., Harrison, T.,Effects of the internet and sociocultural factors on budget transparency and accountability,; Scholl, H.J., Luna-Reyes, L.F.,Transparency and openness in government: A system dynamics perspective,; Trenovski, B., Mangova, I., Levkov, N.,The level of fiscal transparency and accountability of budget users - Evidence from Macedonia,; Trigo, M. F., Álvarez, V.,Gestión pública, gobierno abierto y for-talecimiento de la democracia en América,(2017) Desde el gobierno abierto al Estado abierto en América Latina y el Caribe, pp. 33-52.; Mendieta, M.V., Alonso, Á.I.,Developments in transparency in the spanish municipalities: An analytical revision of the last research,; Yavuz, N., Welch, E.W.,Factors affecting openness of local government websites: Examining the differences across planning, finance and police departments,</t>
+          <t>Alonso-Muñoz, L., Casero-Ripollés, A.,Transparency and political monitoring in the digital environment. Towards a typology of citizen-driven platforms,; Araújo, A.C., Reis, L., Sampaio, R.C.,Do transparency and open data walk together? An analysis of initiatives in five brazilian capitals,; Bearfield, D.A., Bowman, A.O.M.,Can You Find It on the Web? An Assessment of Municipal E-Government Transparency,; Capuano, E.A.,Business intelligence systems as management, accountability and transparency tools for the government: The case of platform aquarius,; Casalino, N., Buonocore, F., Rossignoli, C., Ricciardi, F.,Transparency, openness and knowledge sharing for rebuilding and strengthening government institutions,; (2016) Carta Iberoamericana de Gobierno Abierto. CLAD. Cited 9 times.,https://www.funcionpublica.gov.co/eva/admon/files/empresas/ZW1wcmVzYV83Ng==/archivos/1470417708_350c543cc190276e5a10618fd50a3245.pdf,  7; Concha, G., Naser, A.,(2012) El desafío hacia el gobierno abierto en la hora de la igualdad. Cited 17 times.,(Eds). CEPAL; Naciones Unidas; Corrêa, A.S., Corrêa, P.L.P., Da Silva, F.S.C.,Transparency portals versus open government data. An assessment of openness in Brazilian municipalities,; Cucciniello, M., Porumbescu, G.A., Grimmelikhuijsen, S.,25 Years of Transparency Research: Evidence and Future Directions,; da Silva Craveiro, G., Albano, C.,Open data intermediaries: coproduction in budget transparency,; Dawes, S.S.,Stewardship and usefulness: Policy principles for information-based transparency,; Dawes, S.S., Helbig, N.,Information strategies for open government: Challenges and prospects for deriving public value from government transparency,; Dos Santos Brito, K., Dos Santos Neto, M., Da Silva Costa, M.A., Garcia, V.C., De Lemos Meira, S.R.,Using parliamentary Brazilian open data to improve transparency and public participation in Brazil,; Dos Santos Brito, K., Costa, M.A.S., Garcia, V.C., De Lemos Meira, S.R.,Experiences integrating heterogeneous Government open data sources to deliver services and promote transparency in Brazil,; Fenster, M.,Transparency in search of a theory,; Fox, J., Haight, L., Palmer-Rubin, B.,Delivering transparency: To what degree does the Mexican government respond to public information requests?,; (2013) Las TIC en el gobierno abierto: Transpa-rencia, participación y colaboración. Cited 2 times.,Ariel,http://www.fundacion.telefonica.com/es/arte_cultura/publicaciones/detalle/211; Fung, A.,Infotopia: Unleashing the democratic power of transparency,; Ganapati, S., Reddick, C.G.,Open e-government in U.S. state governments: Survey evidence from Chief Information Officers (Open Access),; Ganapati, S., Reddick, C.G.,The use of ICT for open government in U.S. municipalities: Perceptions of chief administrative officers,; García Garcís, J.,Open government: Transparency, Participation and collaboration in public administration (Open Access),; Ginsberg, W. R.,(2011) The Obama administration’s open government initiative: Issues for Congress [Reporte preparado para los miem-bros y comités del Congreso],Congress Research Sevice; Groff, J., Baker, M., Détienne, F.,Aligning public administrators and citizens on and around open data: An activity theory approach,; Gunawong, P.,Open Government and Social Media: A Focus on Transparency,; Harrison, T.M., Guerrero, S., Burke, G.B., Cook, M., Cresswell, A., Helbig, N., Hrdinova, J., (...), Pardo, T.,Open government and e-government: Democratic challenges from a public value perspective,; Harrison, T.M., Sayogo, D.S.,Open budgets and open government: Beyond disclosure in pursuit of transparency, participation and accountability,; Harrison, T.M., Sayogo, D.S.,Transparency, participation, and accountability practices in open government: A comparative study (Open Access),; Hernández, R., Fernández, C., Baptista, P.,(2014) Metodología de la investigación. Cited 6077 times.,(6 Ed). McGrawHill Education; Janssen, M., van den Hoven, J.,Big and Open Linked Data (BOLD) in government: A challenge to transparency and privacy?,; Kassen, M.,Understanding transparency of government from a Nordic perspective: open government and open data movement as a multidimensional collaborative phenomenon in Sweden,; Kimball, M.B.,Mandated state-level open government training programs,; Kitchenham, B., Charters, S., Budgen, D., Brereton, P., Turner, M., Linkman, S., Visaggio, G.,(2007) Guidelines for performing Systematic Literature Reviews in Software Engineering [Reporte técnico, EBSE]. Cited 5466 times.,School of Computer Science and Mathematics, Keele University; Department of Computer Science, University of Durham; Lee, G., Kwak, Y.H.,An Open Government Maturity Model for social media-based public engagement (Open Access),; Liu, A.C.,Two Faces of Transparency: The Regulations of People’s Republic of China on Open Government Information,; Lourenço, R.P.,Open government portals assessment: A transparency for accountability perspective,; Lourenço, R.P.,An analysis of open government portals: A perspective of transparency for accountability,; Lourenço, R.P., Jorge, S., Rolas, H.,Towards a transparency ontology in the context of open government,; Lux Wigand, F.D.,Gov 2.0 and beyond: Using social media for transparency, participation and collaboration,; Machado, V., Mantini, G., Viterbo, J., Bernardini, F., Barcellos, R.,An instrument for evaluating open data portals: A case study in Brazilian cities (Open Access),; Manfredi Sánchez, J.L., Herranz de la Casa, J.M., Calvo Rubio, L.M.,Transparency and Diplomacy: New social demands and professional routines,; Marino, P.B.L.P., Silva Sucupira, G.I.C., de Siqueira, W.R., de Souza Bermejo, P.H.,Public transparency in the brazilian context: An integrative review,; Marjanovic, O., Cecez-Kecmanovic, D.,Exploring the tension between transparency and datification effects of open government IS through the lens of Complex Adaptive Systems,; Martínez-Rolán, X., Piñeiro-Otero, T., Baamonde-Silva, X.M.,,(2016) Observatorio, 10 (4), pp. 35-55. Cited 8 times.; McDermott, P.,Building open government,; Meijer, A.J., Curtin, D., Hillebrandt, M.,Open government: Connecting vision and voice,; Mendoza, G.Q.,Open government in Latin America limited to transparency, and access to information (Open Access),; Montero, G.,Del gobierno abierto al Estado abierto: la mirada del Centro Latinoamericano de Administración para el Desa-rrollo,(2017) Desde el gobierno abierto al Estado abierto en América Latina y el Ca-ribe, pp. 53-81. Cited 3 times.; Moore, S.,Towards a Sociology of Institutional Transparency: Openness, Deception and the Problem of Public Trust,; Mora-Rodriguez, M., Atemezing, G.A., Preist, C.,Adopting semantic technologies for effective corporate transparency,; Murillo, M.J.,Evaluating the role of online data availability: The case of economic and institutional transparency in sixteen Latin American nations,; Naser, A., Ramírez-Alujas, Á.,(2017) Plan de gobierno abierto. Una hoja de ruta para los gobiernos de la región. Cited 15 times.,CEPAL; ECLAC; Naser, A., Ramírez-Alujas, Á., Rosales, D.,(2017) Desde el go-bierno abierto al Estado abierto en América Latina y el Caribe. Cited 12 times.,(Eds). CEPAL; Naciones Unidas; O’Donovan, P., Leahy, K., Bruton, K., O’Sullivan, D.T.J.,Big data in manufacturing: a systematic mapping study (Open Access),; The international open data charter,(2015) . Cited 24 times.,ODC. Con-sultado noviembre 30, 2017, en; (2019) Open Government Partnership Informe Global,Open Government Partnership,https://www.opengovpartnership.org/wp-content/uploads/2019/08/Global-Report_Volume-1_ES.pdf; (2017) The Open Data Handbook. Open Data Handbook,http://opendatahandbook.org/,  58; Oztoprak, A.A., Ruijer, E.,Variants of transparency: an analysis of the English Local Government Transparency Code 2015,; Palmirani, M., Martoni, M., Girardi, D.,Open government data beyond transparency (Open Access),; Patiño, J. A.,(2014) Datos abiertos y ciudades inteligentes en América Latina. Cited 4 times.,(Comp) Estudios de caso. CEPAL; Patiño, J. A., Poveda, L., Martínez, A. L.,(2018) Monitoreo de la Agenda Digital para América Latina y el Caribe eLAC2018. Cited 7 times.,CEPAL; CETIC.br; NIC.br; GIZ; Petersen, K., Feldt, R., Mujtaba, S., Mattsson, M.,Systematic mapping studies in software engineering,; Piotrowski, S.J.,The “Open Government Reform” Movement: The Case of the Open Government Partnership and U.S. Transparency Policies*,; Ramírez-Alujas, Á.,Gobierno abierto es la respuesta: ¿Cuál era la pregunta?,(2012) Más Poder Local, 12, pp. 14-22. Cited 10 times.; Reddick, C.G., Chatfield, A.T., Puron-Cid, G.,Online budget transparency innovation in government: A case study of the U.S. state governments,; Reggi, L., Dawes, S.,Open government data ecosystems: Linking transparency for innovation with transparency for participation and accountability,; (Erna) Ruijer, H.J.M.,Proactive Transparency in the United States and the Netherlands: The Role of Government Communication Officials,; Sadiq, S., Indulska, M.,Open data: Quality over quantity,; Sandoval-Almazán, R.,Open government and transparency: Building a conceptual framework,; Sayogo, D.S., Harrison, T.,Effects of the internet and sociocultural factors on budget transparency and accountability,; Scholl, H.J., Luna-Reyes, L.F.,Transparency and openness in government: A system dynamics perspective,; Trenovski, B., Mangova, I., Levkov, N.,The level of fiscal transparency and accountability of budget users - Evidence from Macedonia,; Trigo, M. F., Álvarez, V.,Gestión pública, gobierno abierto y for-talecimiento de la democracia en América,(2017) Desde el gobierno abierto al Estado abierto en América Latina y el Caribe, pp. 33-52.; Mendieta, M.V., Alonso, Á.I.,Developments in transparency in the spanish municipalities: An analytical revision of the last research (Open Access),; Yavuz, N., Welch, E.W.,Factors affecting openness of local government websites: Examining the differences across planning, finance and police departments (Open Access),</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -5382,11 +5077,6 @@
       <c r="O62" t="inlineStr">
         <is>
           <t>10.15446/innovar.v32n83.99884</t>
-        </is>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>Colombia</t>
         </is>
       </c>
     </row>
@@ -5431,7 +5121,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Ahmed, S.,(2017) La política cultural de las emociones. Cited 128 times.,Universidad Autónoma de México; Albaek, A.U., Kinn, L.G., Milde, A.M.,Walking Children Through a Minefield: How Professionals Experience Exploring Adverse Childhood Experiences (Open Access),; Araujo, K.,(2019) Hilos tensados: para leer el Octubre Chileno. Cited 34 times.,Editorial Usach; Ashcraft, K.L.,‘Submission’ to the rule of excellence: Ordinary affect and precarious resistance in the labor of organization and management studies,; Bealer, T.,Consider the dementor: Discipline, punishment, and magical citizenship in Harry Potter,(2019) Dialogue, 6 (3), pp. 36-47. Cited 2 times.; Cena, R.B.,Social policies, bodies and emotions in the early XIX century in Argentina,; Charmaz, K.,(2007) Constructing grounded theory. Cited 26740 times.,Sage; Chen, M. Y.,(2012) Animacies. Cited 21 times.,Duke University Press; Cromby, J.,Feeling the Way: Qualitative Clinical Research and the Affective Turn,; Cubillos-Celis, P.,Childhood in Chile 1973-2013: 40 years of neoliberal tensions and inflections (Open Access),; Davies, B., Gannon, S.,(2006) Doing collective biography. Cited 256 times.,Open University Press; Deleuze, G., Guattari, F.,(2015) Mil mesetas: capitalismo y esquizofrenia. Cited 604 times.,Pre-Textos; Denzin, N.K.,The reflexive interview and a performative social science,; Enciso, G.,(2015) Una travesía de las emociones al afecto en las prácticas del poliamor [Tesis de Doctorado]. Cited 4 times.,Universitat Autonoma de Barcelona; Errázuriz, V.,Becoming “Hijas de la Lucha”: Political subjectification, affective intensities, and historical narratives in a Chilean all-girls high school,; Fardella, C., Sisto, V., Morales, K., Rivera, G., Soto, R.,Labor identities and ethics of public work in times of accountability (Open Access),; Cisternas, C.F., García-Meneses, J., Roy, Á.S., Corvalán-Navia, A.,Exacerbated. Academic identities and the transformation of chilean higher education (Open Access),; Flick, U.,(2004) Introducción a la investigación cualitativa. Cited 956 times.,Morata; Flyvbjerg, B.,Case study,(2011) The Sage handbook of qualitative research, pp. 301-316. Cited 838 times.; Foucault, M.,(2008) The birth of biopolitics: Lectures at the Collège de France, 1978-1979. Cited 8148 times.,Palgrave Mcmillan; Fox, N.J., Alldred, P.,The sexuality-assemblage: Desire, affect, anti-humanism,; Gherardi, S., Murgia, A., Bellè, E., Miele, F., Carreri, A.,Tracking the sociomaterial traces of affect at the crossroads of affect and practice theories (Open Access),; Gherardi, S., Laasch, O.,Responsible management-as-practice: Mobilizing a posthumanist approach,(2021) Journal of Business Ethics. Cited 2 times.; Glinsner, B., Sauer, B., Gaitsch, M., Penz, O., Hofbauer, J.,Doing gender in public services: Affective labour of employment agents (Open Access),; Villar, A.G.,The banishment: The place inhabited for the precarious lives (Open Access),; Holstein, J., Gubrium, J.,(1995) The active interview. Cited 1681 times.,Sage; HOOD, C.,A PUBLIC MANAGEMENT FOR ALL SEASONS?,; Hunter, S.,Power, politics and the emotions: Impossible governance?,; Jupp, E., Pykett, J., Smith, F.M.,Emotional states: Sites and spaces of affective governance (Open Access),; Katila, S., Laine, P.-M., Parkkari, P.,Sociomateriality and Affect in Institutional Work: Constructing the Identity of Start-Up Entrepreneurs (Open Access),; Knudsen, B.T., Stage, C.,Introduction: Affective Methodologies,; de Mattos, C.B.M., Schlindwein, V.L.C.,"Excellence and productivity": New management imperatives in public service (Open Access),; Massumi, B.,The autonomy of affect,(1995) Cultural Critique, 13 (31), pp. 83-109. Cited 751 times.; McKenzie, M.,Affect theory and policy mobility: challenges and possibilities for critical policy research,; Nishida, A.,Relating through differences: Disability, affective relationality, and the U.S. public healthcare assemblage (Open Access),; (2005) Modernising government: The way forward. Cited 110 times.,https://bit.ly/3d6KG0s,  37; Pavez, J., Herrera-Soto, Y., Molina-Johannes, J., Ortúzar-Flores, H., Zamora-Bugueño, C.,El permanente con'icto entre Estado e instituciones colaboradoras a partir de su marco normativo,(2019) Athenea Digital, 19 (1), pp. 1-24. Cited 2 times.; Penz, O., Sauer, B.,Neoliberal technologies of social protection: affects and policy implementation (Open Access),; Penz, O., Sauer, B., Gaitsch, M., Hofbauer, J., Glinsner, B.,Post-bureaucratic encounters: Affective labour in public employment services,; Pereira, J.M.M.,Continuity, rupture or recycling? An analysis of the political agenda of the world bank after the Washington consensus (Open Access),; Pink, S., Horst, H., Postill, J., Hjorth, L., Lewis, T., Tacchi, J.,(2016) Etnografía digital. Cited 22 times.,Morata; Pitton, V.O., McKenzie, M.,What moves us also moves policy: the role of affect in mobilizing education policy on sustainability,; Rojas, C.,Afecto y cuidado: pilar de la política social neoliberal,(2018) Polis, 17 (49), pp. 127-149. Cited 7 times.; Ruthrof, H.,(1997) Semantics and the body. Cited 50 times.,University of Toronto Press; Schaefer, D.,(2019) The evolution of affect theory. Cited 33 times.,Cambridge University Press; Schöngut-Grollmus, N.,The socio-technical assemblages for producing psychosocial interventions in Chile's National Children Service program (Open Access),; Seigworth, G., Gregg, M.,An inventory of shimmers,(2010) The affect theory reader, pp. 1-25. Cited 893 times.; Sellar, S.,A feel for numbers: affect, data and education policy,; (2019) Balance de gestión integral año 2018. Cited 4 times.,Ministerio de Justicia y Derechos Humanos de Chile,https://bit.ly/3rpc2aG; Sisto, V.,Overwhelmed: Accountability and work intensification in the neo-liberal university. The case of chile (Open Access),; Sisto, V., Núñez-Parra, L., Rivera-Aguilera, G.,Between managerialism and nostalgia: The dispute for the future of the University and Academic Work (Open Access),; Sisto, V., Zelaya, V.,The etnography of devices as an analysis tool and study of managerialism as local practice,; Lagos, R.A.S., Adasme, J.M.M., Muñoz, C.G.N., Campos, V.M.S., Cisternas, C.F.,Between the effectivity and affectivity: New teachers in times of new public management (Open Access),; Varas, A., Carrasco, A., Gutiérrez, D., Bascuñán, A.,Exploitation in the «social area». A reading of labor precariousness of the third sector in Chile from Marx's Capital (Open Access),; Vivero-Arriagada, L.,Trabajo Social entre el sentido común, hegemonía y praxis: un análisis basado en Gramsci,(2017) Revista Latinoamericana de Ciencias Sociales, Niñez y Juventud, 15 (1), pp. 547-563. Cited 4 times.</t>
+          <t>Ahmed, S.,(2017) La política cultural de las emociones. Cited 131 times.,Universidad Autónoma de México; Albaek, A.U., Kinn, L.G., Milde, A.M.,Walking Children Through a Minefield: How Professionals Experience Exploring Adverse Childhood Experiences,; Araujo, K.,(2019) Hilos tensados: para leer el Octubre Chileno. Cited 34 times.,Editorial Usach; Ashcraft, K.L.,‘Submission’ to the rule of excellence: Ordinary affect and precarious resistance in the labor of organization and management studies,; Bealer, T.,Consider the dementor: Discipline, punishment, and magical citizenship in Harry Potter,(2019) Dialogue, 6 (3), pp. 36-47. Cited 2 times.; Cena, R.B.,Social policies, bodies and emotions in the early XIX century in Argentina,; Charmaz, K.,(2007) Constructing grounded theory. Cited 26862 times.,Sage; Chen, M. Y.,(2012) Animacies. Cited 21 times.,Duke University Press; Cromby, J.,Feeling the Way: Qualitative Clinical Research and the Affective Turn,; Cubillos-Celis, P.,Childhood in Chile 1973-2013: 40 years of neoliberal tensions and inflections,; Davies, B., Gannon, S.,(2006) Doing collective biography. Cited 256 times.,Open University Press; Deleuze, G., Guattari, F.,(2015) Mil mesetas: capitalismo y esquizofrenia. Cited 613 times.,Pre-Textos; Denzin, N.K.,The reflexive interview and a performative social science,; Enciso, G.,(2015) Una travesía de las emociones al afecto en las prácticas del poliamor [Tesis de Doctorado]. Cited 4 times.,Universitat Autonoma de Barcelona; Errázuriz, V.,Becoming “Hijas de la Lucha”: Political subjectification, affective intensities, and historical narratives in a Chilean all-girls high school,; Fardella, C., Sisto, V., Morales, K., Rivera, G., Soto, R.,Labor identities and ethics of public work in times of accountability,; Cisternas, C.F., García-Meneses, J., Roy, Á.S., Corvalán-Navia, A.,Exacerbated. Academic identities and the transformation of chilean higher education,; Flick, U.,(2004) Introducción a la investigación cualitativa. Cited 962 times.,Morata; Flyvbjerg, B.,Case study,(2011) The Sage handbook of qualitative research, pp. 301-316. Cited 845 times.; Foucault, M.,(2008) The birth of biopolitics: Lectures at the Collège de France, 1978-1979. Cited 8172 times.,Palgrave Mcmillan; Fox, N.J., Alldred, P.,The sexuality-assemblage: Desire, affect, anti-humanism,; Gherardi, S., Murgia, A., Bellè, E., Miele, F., Carreri, A.,Tracking the sociomaterial traces of affect at the crossroads of affect and practice theories,; Gherardi, S., Laasch, O.,Responsible management-as-practice: Mobilizing a posthumanist approach,(2021) Journal of Business Ethics. Cited 2 times.; Glinsner, B., Sauer, B., Gaitsch, M., Penz, O., Hofbauer, J.,Doing gender in public services: Affective labour of employment agents,; Villar, A.G.,The banishment: The place inhabited for the precarious lives,; Holstein, J., Gubrium, J.,(1995) The active interview. Cited 1684 times.,Sage; HOOD, C.,A PUBLIC MANAGEMENT FOR ALL SEASONS? (Open Access),; Hunter, S.,Power, politics and the emotions: Impossible governance? (Open Access),; Jupp, E., Pykett, J., Smith, F.M.,Emotional states: Sites and spaces of affective governance,; Katila, S., Laine, P.-M., Parkkari, P.,Sociomateriality and Affect in Institutional Work: Constructing the Identity of Start-Up Entrepreneurs (Open Access),; Knudsen, B.T., Stage, C.,Introduction: Affective Methodologies,; de Mattos, C.B.M., Schlindwein, V.L.C.,"Excellence and productivity": New management imperatives in public service,; Massumi, B.,The autonomy of affect,(1995) Cultural Critique, 13 (31), pp. 83-109. Cited 753 times.; McKenzie, M.,Affect theory and policy mobility: challenges and possibilities for critical policy research,; Nishida, A.,Relating through differences: Disability, affective relationality, and the U.S. public healthcare assemblage,; (2005) Modernising government: The way forward. Cited 110 times.,https://bit.ly/3d6KG0s,  37; Pavez, J., Herrera-Soto, Y., Molina-Johannes, J., Ortúzar-Flores, H., Zamora-Bugueño, C.,El permanente con'icto entre Estado e instituciones colaboradoras a partir de su marco normativo,(2019) Athenea Digital, 19 (1), pp. 1-24. Cited 2 times.; Penz, O., Sauer, B.,Neoliberal technologies of social protection: affects and policy implementation,; Penz, O., Sauer, B., Gaitsch, M., Hofbauer, J., Glinsner, B.,Post-bureaucratic encounters: Affective labour in public employment services (Open Access),; Pereira, J.M.M.,Continuity, rupture or recycling? An analysis of the political agenda of the world bank after the Washington consensus,; Pink, S., Horst, H., Postill, J., Hjorth, L., Lewis, T., Tacchi, J.,(2016) Etnografía digital. Cited 22 times.,Morata; Pitton, V.O., McKenzie, M.,What moves us also moves policy: the role of affect in mobilizing education policy on sustainability (Open Access),; Rojas, C.,Afecto y cuidado: pilar de la política social neoliberal,(2018) Polis, 17 (49), pp. 127-149. Cited 7 times.; Ruthrof, H.,(1997) Semantics and the body. Cited 50 times.,University of Toronto Press; Schaefer, D.,(2019) The evolution of affect theory. Cited 33 times.,Cambridge University Press; Schöngut-Grollmus, N.,The socio-technical assemblages for producing psychosocial interventions in Chile's National Children Service program (Open Access),; Seigworth, G., Gregg, M.,An inventory of shimmers,(2010) The affect theory reader, pp. 1-25. Cited 897 times.; Sellar, S.,A feel for numbers: affect, data and education policy,; (2019) Balance de gestión integral año 2018. Cited 4 times.,Ministerio de Justicia y Derechos Humanos de Chile,https://bit.ly/3rpc2aG; Sisto, V.,Overwhelmed: Accountability and work intensification in the neo-liberal university. The case of chile,; Sisto, V., Núñez-Parra, L., Rivera-Aguilera, G.,Between managerialism and nostalgia: The dispute for the future of the University and Academic Work (Open Access),; Sisto, V., Zelaya, V.,The etnography of devices as an analysis tool and study of managerialism as local practice (Open Access),; Lagos, R.A.S., Adasme, J.M.M., Muñoz, C.G.N., Campos, V.M.S., Cisternas, C.F.,Between the effectivity and affectivity: New teachers in times of new public management (Open Access),; Varas, A., Carrasco, A., Gutiérrez, D., Bascuñán, A.,Exploitation in the «social area». A reading of labor precariousness of the third sector in Chile from Marx's Capital (Open Access),; Vivero-Arriagada, L.,Trabajo Social entre el sentido común, hegemonía y praxis: un análisis basado en Gramsci,(2017) Revista Latinoamericana de Ciencias Sociales, Niñez y Juventud, 15 (1), pp. 547-563. Cited 4 times.</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -5462,11 +5152,6 @@
       <c r="O63" t="inlineStr">
         <is>
           <t>10.11600/RLCSNJ.20.1.5144</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>Chile</t>
         </is>
       </c>
     </row>
@@ -5511,7 +5196,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Acosta, O.L., Rozas, P., Silva, A.,(2008) Desarrollo vial e impacto fiscal del sistema de concesiones en Colombia. Cited 2 times.,Serie Recursos Naturales e Infraestructura N° 138. CEPAL; Ahmad, E., Bhattacharya, A., Vinella, A., Kezhou, X.,(2017) Involving the private sector and PPPs in financing public investments: Some opportunities and challenges. Cited 2 times.,https://link.springer.com/content/pdf/10.1007%2F978-981-10-6286-5_6.pdf; Bitran, E., Nieto-Parra, S., Robledo, J.S.,(2013) Opening the black box of contract renegotiations: An analysis of road concessions in Chile, Colombia and Perú. Cited 25 times.,OECD Development Centre Working Papers, 317; Bonifaz, J.L., Urrunaga, R., Wakeham, J.,(2001) Financiamiento privado e impuestos: El caso de las redes viales en el Perú,Consorcio de investigación económica y social; (2013) Acuerdo pronto o caducará concesión,http://www.ccpasto.org.co/index.php/noticias/item/41-acuerdo-pronto-o-caducar%C3%A1-concesi%C3%B3n,  6; Engel, E., Fisher, R., Galetovic, A.,Privatizing highways in Latin America: Fixing what went wrong,(2003) Economia, 4 (1), pp. 129-158. Cited 52 times.; Espinoza, J.,Tutela administrativa de los consumidores de servicios de infraestructura de transporte de uso público,(2013) Foro Jurídico, 12, pp. 240-253.; Estache, A., Gines de Rus,(2003) Privatización y regulación de infraestructuras de transporte: Una guía para reguladores. Cited 2 times.,Banco Mundial y Alfaomega; Fayard, A.,Analysis of Highway Concession in Europe,; Forrer, J., Kee, J.E., Newcomer, K.E., Boyer, E.,Public-private partnerships and the public accountability question,; Frederickson, H.G., Smith, K.B.,(2003) The public administration theory primer. Cited 423 times.,Westview Press; Greve, C., Hodge, G.,Public-private partnerships and public governance challenges,; Grossman, S., Hart, O.,The cost and benefits of ownership: A theory of vertical and lateral integration,(1986) Journal of Political Economy, 94 (4), pp. 691-719. Cited 4378 times.; Guasch, J.L., Laffont, J.-J., Straub, S.,Concessions of infrastructure in Latin America: Government-led renegotiation (Open Access),; Hodge, G.A., Greve, C.,Public-private partnerships: An international performance review,; Kettl, D.F.,The transformation of governance: Globalization, devolution, and the role of government,; Kilby, C.,The political economy of conditionality: An empirical analysis of World Bank loan disbursements,; Le Galès, P.,Regulations and governance in European cities,; McCubbins, M., Schwartz, T.,Congressional oversight overlooked: Police patrols versus fire alarms,(1984) American Journal of Political Science, 28 (1), pp. 16-79. Cited 1702 times.; Ménard, C.,Is public-private partnership obsolete?: Assessing the obstacles and shortcomings of PPP,; Mendiola, A., Alvarado, F., Chocano, Z., Cotrado, A., García, L., Aguirre, C.,(2011) Factores críticos de éxito en concesiones viales en el Perú,ESAN; Merino, B., Gallardo, M.,(2017) Informe de clasificación Norvial S.A,https://www.smv.gob.pe/ConsultasP8/temp/Norvial%20(clasificacion%20de%20riesgo)%20050517.pdf; Moore, M.,(1995) Creating public value: Strategic management in government. Cited 2656 times.,Harvard University Press; (2009) Memoria Anual 2009. Cited 9 times.,http://www.norvial.com.pe/con_descripcion.htm,  26; (2013) Informe de desempeño de la concesión de la red vialN°5,https://www.ositran.gob.pe/anterior/wp-content/uploads/2017/12/INFDESEM_COVISOL_20131.pdf,  28; Peters, B.G.,Institutional design and good governance, chap. 6,(2010) The good cause: Theoretical perspectives on corruption, pp. 83-97. Cited 4 times.; (2013) Reporte Willaqniki # 10: Las diferencias, controversias y conflictos sociales gestionados por la ONDS,https://cdn.www.gob.pe/uploads/document/file/187121/WILLAQNIKI_10.pdf,  31; Skelcher, C.,Public-private partnerships and hybridity,(2007) The Oxford handbook of public management, pp. 347-370. Cited 194 times.; Spiller, P.T.,An institutional theory of public contracts: Regulatory implications,; Teisman, G.R., Klijn, E.-H.,Partnership arrangements: Governmental rhetoric or governance scheme? (Open Access),; Verhoest, K., Petersen, O.H., Scherrer, W., Soecipto, R.M.,How Do Governments Support the Development of Public Private Partnerships? Measuring and Comparing PPP Governmental Support in 20 European Countries (Open Access),; Williamson, O.,(1985) The economic institutions of capitalism. Cited 19028 times.,The Free Press; Zverev, A.,(2007) PPP regime in central and Eastern Europe: Status and challenges. Cited 2 times.,https://www.imf.org/external/np/seminars/eng/2007/ppp/pdf/az_p.pdf</t>
+          <t>Acosta, O.L., Rozas, P., Silva, A.,(2008) Desarrollo vial e impacto fiscal del sistema de concesiones en Colombia. Cited 2 times.,Serie Recursos Naturales e Infraestructura N° 138. CEPAL; Ahmad, E., Bhattacharya, A., Vinella, A., Kezhou, X.,(2017) Involving the private sector and PPPs in financing public investments: Some opportunities and challenges. Cited 2 times.,https://link.springer.com/content/pdf/10.1007%2F978-981-10-6286-5_6.pdf; Bitran, E., Nieto-Parra, S., Robledo, J.S.,(2013) Opening the black box of contract renegotiations: An analysis of road concessions in Chile, Colombia and Perú. Cited 25 times.,OECD Development Centre Working Papers, 317; Bonifaz, J.L., Urrunaga, R., Wakeham, J.,(2001) Financiamiento privado e impuestos: El caso de las redes viales en el Perú,Consorcio de investigación económica y social; (2013) Acuerdo pronto o caducará concesión,http://www.ccpasto.org.co/index.php/noticias/item/41-acuerdo-pronto-o-caducar%C3%A1-concesi%C3%B3n,  6; Engel, E., Fisher, R., Galetovic, A.,Privatizing highways in Latin America: Fixing what went wrong,(2003) Economia, 4 (1), pp. 129-158. Cited 52 times.; Espinoza, J.,Tutela administrativa de los consumidores de servicios de infraestructura de transporte de uso público,(2013) Foro Jurídico, 12, pp. 240-253.; Estache, A., Gines de Rus,(2003) Privatización y regulación de infraestructuras de transporte: Una guía para reguladores. Cited 2 times.,Banco Mundial y Alfaomega; Fayard, A.,Analysis of Highway Concession in Europe,; Forrer, J., Kee, J.E., Newcomer, K.E., Boyer, E.,Public-private partnerships and the public accountability question,; Frederickson, H.G., Smith, K.B.,(2003) The public administration theory primer. Cited 426 times.,Westview Press; Greve, C., Hodge, G.,Public-private partnerships and public governance challenges,; Grossman, S., Hart, O.,The cost and benefits of ownership: A theory of vertical and lateral integration,(1986) Journal of Political Economy, 94 (4), pp. 691-719. Cited 4382 times.; Guasch, J.L., Laffont, J.-J., Straub, S.,Concessions of infrastructure in Latin America: Government-led renegotiation,; Hodge, G.A., Greve, C.,Public-private partnerships: An international performance review,; Kettl, D.F.,The transformation of governance: Globalization, devolution, and the role of government,; Kilby, C.,The political economy of conditionality: An empirical analysis of World Bank loan disbursements,; Le Galès, P.,Regulations and governance in European cities,; McCubbins, M., Schwartz, T.,Congressional oversight overlooked: Police patrols versus fire alarms,(1984) American Journal of Political Science, 28 (1), pp. 16-79. Cited 1705 times.; Ménard, C.,Is public-private partnership obsolete?: Assessing the obstacles and shortcomings of PPP,; Mendiola, A., Alvarado, F., Chocano, Z., Cotrado, A., García, L., Aguirre, C.,(2011) Factores críticos de éxito en concesiones viales en el Perú,ESAN; Merino, B., Gallardo, M.,(2017) Informe de clasificación Norvial S.A,https://www.smv.gob.pe/ConsultasP8/temp/Norvial%20(clasificacion%20de%20riesgo)%20050517.pdf; Moore, M.,(1995) Creating public value: Strategic management in government. Cited 2661 times.,Harvard University Press; (2009) Memoria Anual 2009. Cited 9 times.,http://www.norvial.com.pe/con_descripcion.htm,  26; (2013) Informe de desempeño de la concesión de la red vialN°5,https://www.ositran.gob.pe/anterior/wp-content/uploads/2017/12/INFDESEM_COVISOL_20131.pdf,  28; Peters, B.G.,Institutional design and good governance, chap. 6,(2010) The good cause: Theoretical perspectives on corruption, pp. 83-97. Cited 4 times.; (2013) Reporte Willaqniki # 10: Las diferencias, controversias y conflictos sociales gestionados por la ONDS,https://cdn.www.gob.pe/uploads/document/file/187121/WILLAQNIKI_10.pdf,  31; Skelcher, C.,Public-private partnerships and hybridity,(2007) The Oxford handbook of public management, pp. 347-370. Cited 194 times.; Spiller, P.T.,An institutional theory of public contracts: Regulatory implications (Open Access),; Teisman, G.R., Klijn, E.-H.,Partnership arrangements: Governmental rhetoric or governance scheme?,; Verhoest, K., Petersen, O.H., Scherrer, W., Soecipto, R.M.,How Do Governments Support the Development of Public Private Partnerships? Measuring and Comparing PPP Governmental Support in 20 European Countries,; Williamson, O.,(1985) The economic institutions of capitalism. Cited 19043 times.,The Free Press; Zverev, A.,(2007) PPP regime in central and Eastern Europe: Status and challenges. Cited 2 times.,https://www.imf.org/external/np/seminars/eng/2007/ppp/pdf/az_p.pdf</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -5542,11 +5227,6 @@
       <c r="O64" t="inlineStr">
         <is>
           <t>10.1080/01900692.2021.2008961</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>Colombia</t>
         </is>
       </c>
     </row>
@@ -5591,7 +5271,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Alenezi, H., Tarhini, A., Sharma, S.K.,Development of quantitative model to investigate the strategic relationship between information quality and e-government benefits,; Alon-Barkat, S., Gilad, S.,Compensating for poor performance with promotional symbols: Evidence from a survey experiment,; Andrade, C.,Internal, external, and ecological validity in research design, conduct, and evaluation (Open Access),; August, T., Reinecke, K.,Pay attention, please: Formal language improves attention in volunteer and paid online experiments (Open Access),; Avellaneda, C.N.,Mayoral decision-making: Issue salience, decision context, and choice constraint? An experimental study with 120 Latin American mayors,; Baekgaard, M.,Performance Information and Citizen Service Attitudes: Do Cost Information and Service Use Affect the Relationship? (Open Access),; Baekgaard, M., Belle, N., Serritzlew, S., Sicilia, M., Steccolini, I.,Performance Information in Politics: How Framing, Format, and Rhetoric Matter to Politicians’ Preferences,(2019) Journal of Behavioral Public Administration, 2 (2), pp. 1-12. Cited 12 times.; Baekgaard, M., Serritzlew, S.,Those Who Understand It will not be Persuaded: A Performance Information Paradox (Open Access),; Brewer, G.A., Neubauer, B.J., Geiselhart, K.,Designing and implementing E-government systems: Critical implications for public administration and democracy,; Card, S.K., Mackinlay, J.D., Sheinderman, B.,(1999) Readings in Information Visualization: Using Vision to Think. Cited 2895 times.,San Diego, CA: Academic Press; Charbonneau, É., Van Ryzin, G.G.,Benchmarks and Citizen Judgments of Local Government Performance: Findings from a survey experiment,; (1988) ,Statistical Power Analysis for the Behavioral Sciences,. 2nd ed. Routledge,  13; Danziger, J.N., Andersen, K.V.,The impacts of information technology on public administration: An analysis of empirical research from the “golden age” of transformation[1],; Dilla, W., Janvrin, D.J., Raschke, R.,Interactive data visualization: New directions for accounting information systems research,; Fierro, A.E., Gil-Garcia, J.,(2012) Transparency Websites as Tools for Decision Making in a Democratic Government,Utrecht, Netherlands: Utrecht University, and,. Paper Presented at the Transatlantic Conference on Transparency Research; Gil-Garcia, J.R., Dawes, S.S., Pardo, T.A.,Digital government and public management research: finding the crossroads (Open Access),; Graves, A., Hendler, J.,Visualization tools for Open Government Data,; Hauser, D.J., Schwarz, N.,Attentive Turkers: MTurk participants perform better on online attention checks than do subject pool participants (Open Access),; Hibbard, J.H., Peters, E.,Supporting informed consumer health care decisions: Data presentation approaches that facilitate the use of information in choice,; Hibbard, J.H., Slovic, P., Peters, E., Finucane, M.L.,Strategies for reporting health plan performance information to consumers: Evidence from controlled studies (Open Access),; Hu, Q., Kapucu, N.,Information Communication Technology Utilization for Effective Emergency Management Networks,; Jacobsen, R., Snyder, J.W., Saultz, A.,Informing or shaping public opinion? The influence of school accountability data format on public perceptions of school quality,; Jakobsen, M., James, O., Moynihan, D., Nabatchi, T.,JPART Virtual Issue on Citizen-State Interactions in Public Administration Research (Open Access),; James, O.,Performance measures and democracy: Information effects on citizens in field and laboratory experiments,; James, O., Jilke, S.R., Van Ryzin, G.G.,Behavioural and experimental public administration: Emerging contributions and new directions,; James, O., Petersen, C.,International rankings of government performance and source credibility for citizens: experiments about e-government rankings in the UK and the Netherlands,; James, O., Van Ryzin, G.G.,Motivated reasoning about public performance: An experimental study of how citizens judge the affordable care act (Open Access),; Janssen, M., Charalabidis, Y., Zuiderwijk, A.,Benefits, Adoption Barriers and Myths of Open Data and Open Government (Open Access),; Janssen, M., Matheus, R., Longo, J., Weerakkody, V.,Transparency-by-design as a foundation for open government (Open Access),; Janvrin, D.J., Raschke, R.L., Dilla, W.N.,Making sense of complex data using interactive data visualization,; Lips, A.M.B., Taylor, J.A., Organ, J.,Managing citizen identity information in e-government service relationships in the UK: The emergence of a surveillance state or a service state?,; Moon, M.J., Lee, J., Roh, C.-Y.,The Evolution of Internal IT Applications and e-Government Studies in Public Administration: Research Themes and Methods,; Moynihan, D.P.,The dynamics of performance management: Constructing information and reform,; Myrick, J.G.,Using Mturk (and Online Survey Software) for Mass Communication Research. Cited 2 times.,http://www.emotionsandmedia.com/wp-content/uploads/2014/06/MTurkPrimer.pdf; Olsen, A.L.,Human Interest or Hard Numbers? Experiments on Citizens’ Selection, Exposure, and Recall of Performance Information (Open Access),; Oppenheimer, D.M., Meyvis, T., Davidenko, N.,Instructional manipulation checks: Detecting satisficing to increase statistical power,; Orlikowski, W.J., Iacono, C.S.,Research Commentary: Desperately Seeking the "IT" in IT Research - A Call to Theorizing the IT Artifact,; Pandey, S.K., Bretschneider, S.I.,The impact of red tape's administrative delay on public organizations' interest in new information technologies (Open Access),; Piehler, R., Wirtz, B.W., Daiser, P.,An Analysis of Continuity Intentions of eGovernment Portal Users,; Piotrowski, S., Grimmelikhuijsen, S., Deat, F.,Numbers over Narratives? How Government Message Strategies Affect Citizens’ Attitudes (Open Access),; Porumbescu, G.,Not All Bad News After All? Exploring the Relationship Between Citizens’ Use of Online Mass Media for Government Information and Trust in Government,; Scherer, N., Curry, B.,Does descriptive race representation enhance institutional legitimacy? the case of the U.S. courts,; Schmuckler, M.A.,What is Ecological Validity? A Dimensional Analysis,; Sheehan, K.B., Pittman, M.,(2016) Amazon’s Mechanical Turk for Academics. Cited 128 times.,Irvine, CA: Melvin &amp; Leigh, Publishers; Simon, H.A.,Information-processing theory of human problem solving,; Spence, R.,(2007) Information Visualization: Design for Interaction. Cited 606 times.,Harlow, UK: Prentice-Hall Inc; Stritch, J.M., Pedersen, M.J., Taggart, G.,The Opportunities and Limitations of Using Mechanical Turk (MTURK) in Public Administration and Management Scholarship (Open Access),; Valle-Cruz, D., Sandoval-Almazan, R., Gil-Garcia, J.R.,Citizens' perceptions of the impact of information technology use on transparency, efficiency and corruption in local governments,; Vessey, I.,Cognitive Fit: A Theory‐Based Analysis of the Graphs Versus Tables Literature,; Vessey, I.,The effect of information presentation on decision making: A cost-benefit analysis,; Vessey, I., Galletta, D.,Cognitive fit: An empirical study of information acquisition,; Yi, J.S., Kang, Y.A., Stasko, J.T., Jacko, J.A.,Toward a deeper understanding of the role of interaction in information visualization (Open Access),</t>
+          <t>Alenezi, H., Tarhini, A., Sharma, S.K.,Development of quantitative model to investigate the strategic relationship between information quality and e-government benefits,; Alon-Barkat, S., Gilad, S.,Compensating for poor performance with promotional symbols: Evidence from a survey experiment,; Andrade, C.,Internal, external, and ecological validity in research design, conduct, and evaluation,; August, T., Reinecke, K.,Pay attention, please: Formal language improves attention in volunteer and paid online experiments,; Avellaneda, C.N.,Mayoral decision-making: Issue salience, decision context, and choice constraint? An experimental study with 120 Latin American mayors,; Baekgaard, M.,Performance Information and Citizen Service Attitudes: Do Cost Information and Service Use Affect the Relationship?,; Baekgaard, M., Belle, N., Serritzlew, S., Sicilia, M., Steccolini, I.,Performance Information in Politics: How Framing, Format, and Rhetoric Matter to Politicians’ Preferences,(2019) Journal of Behavioral Public Administration, 2 (2), pp. 1-12. Cited 12 times.; Baekgaard, M., Serritzlew, S.,Those Who Understand It will not be Persuaded: A Performance Information Paradox,; Brewer, G.A., Neubauer, B.J., Geiselhart, K.,Designing and implementing E-government systems: Critical implications for public administration and democracy (Open Access),; Card, S.K., Mackinlay, J.D., Sheinderman, B.,(1999) Readings in Information Visualization: Using Vision to Think. Cited 2904 times.,San Diego, CA: Academic Press; Charbonneau, É., Van Ryzin, G.G.,Benchmarks and Citizen Judgments of Local Government Performance: Findings from a survey experiment,; (1988) ,Statistical Power Analysis for the Behavioral Sciences,. 2nd ed. Routledge,  13; Danziger, J.N., Andersen, K.V.,The impacts of information technology on public administration: An analysis of empirical research from the “golden age” of transformation[1],; Dilla, W., Janvrin, D.J., Raschke, R.,Interactive data visualization: New directions for accounting information systems research (Open Access),; Fierro, A.E., Gil-Garcia, J.,(2012) Transparency Websites as Tools for Decision Making in a Democratic Government,Utrecht, Netherlands: Utrecht University, and,. Paper Presented at the Transatlantic Conference on Transparency Research; Gil-Garcia, J.R., Dawes, S.S., Pardo, T.A.,Digital government and public management research: finding the crossroads,; Graves, A., Hendler, J.,Visualization tools for Open Government Data (Open Access),; Hauser, D.J., Schwarz, N.,Attentive Turkers: MTurk participants perform better on online attention checks than do subject pool participants (Open Access),; Hibbard, J.H., Peters, E.,Supporting informed consumer health care decisions: Data presentation approaches that facilitate the use of information in choice,; Hibbard, J.H., Slovic, P., Peters, E., Finucane, M.L.,Strategies for reporting health plan performance information to consumers: Evidence from controlled studies,; Hu, Q., Kapucu, N.,Information Communication Technology Utilization for Effective Emergency Management Networks (Open Access),; Jacobsen, R., Snyder, J.W., Saultz, A.,Informing or shaping public opinion? The influence of school accountability data format on public perceptions of school quality (Open Access),; Jakobsen, M., James, O., Moynihan, D., Nabatchi, T.,JPART Virtual Issue on Citizen-State Interactions in Public Administration Research (Open Access),; James, O.,Performance measures and democracy: Information effects on citizens in field and laboratory experiments,; James, O., Jilke, S.R., Van Ryzin, G.G.,Behavioural and experimental public administration: Emerging contributions and new directions,; James, O., Petersen, C.,International rankings of government performance and source credibility for citizens: experiments about e-government rankings in the UK and the Netherlands,; James, O., Van Ryzin, G.G.,Motivated reasoning about public performance: An experimental study of how citizens judge the affordable care act,; Janssen, M., Charalabidis, Y., Zuiderwijk, A.,Benefits, Adoption Barriers and Myths of Open Data and Open Government,; Janssen, M., Matheus, R., Longo, J., Weerakkody, V.,Transparency-by-design as a foundation for open government,; Janvrin, D.J., Raschke, R.L., Dilla, W.N.,Making sense of complex data using interactive data visualization,; Lips, A.M.B., Taylor, J.A., Organ, J.,Managing citizen identity information in e-government service relationships in the UK: The emergence of a surveillance state or a service state? (Open Access),; Moon, M.J., Lee, J., Roh, C.-Y.,The Evolution of Internal IT Applications and e-Government Studies in Public Administration: Research Themes and Methods,; Moynihan, D.P.,The dynamics of performance management: Constructing information and reform,; Myrick, J.G.,Using Mturk (and Online Survey Software) for Mass Communication Research. Cited 2 times.,http://www.emotionsandmedia.com/wp-content/uploads/2014/06/MTurkPrimer.pdf; Olsen, A.L.,Human Interest or Hard Numbers? Experiments on Citizens’ Selection, Exposure, and Recall of Performance Information (Open Access),; Oppenheimer, D.M., Meyvis, T., Davidenko, N.,Instructional manipulation checks: Detecting satisficing to increase statistical power (Open Access),; Orlikowski, W.J., Iacono, C.S.,Research Commentary: Desperately Seeking the "IT" in IT Research - A Call to Theorizing the IT Artifact,; Pandey, S.K., Bretschneider, S.I.,The impact of red tape's administrative delay on public organizations' interest in new information technologies (Open Access),; Piehler, R., Wirtz, B.W., Daiser, P.,An Analysis of Continuity Intentions of eGovernment Portal Users,; Piotrowski, S., Grimmelikhuijsen, S., Deat, F.,Numbers over Narratives? How Government Message Strategies Affect Citizens’ Attitudes,; Porumbescu, G.,Not All Bad News After All? Exploring the Relationship Between Citizens’ Use of Online Mass Media for Government Information and Trust in Government,; Scherer, N., Curry, B.,Does descriptive race representation enhance institutional legitimacy? the case of the U.S. courts,; Schmuckler, M.A.,What is Ecological Validity? A Dimensional Analysis (Open Access),; Sheehan, K.B., Pittman, M.,(2016) Amazon’s Mechanical Turk for Academics. Cited 129 times.,Irvine, CA: Melvin &amp; Leigh, Publishers; Simon, H.A.,Information-processing theory of human problem solving,; Spence, R.,(2007) Information Visualization: Design for Interaction. Cited 607 times.,Harlow, UK: Prentice-Hall Inc; Stritch, J.M., Pedersen, M.J., Taggart, G.,The Opportunities and Limitations of Using Mechanical Turk (MTURK) in Public Administration and Management Scholarship,; Valle-Cruz, D., Sandoval-Almazan, R., Gil-Garcia, J.R.,Citizens' perceptions of the impact of information technology use on transparency, efficiency and corruption in local governments,; Vessey, I.,Cognitive Fit: A Theory‐Based Analysis of the Graphs Versus Tables Literature (Open Access),; Vessey, I.,The effect of information presentation on decision making: A cost-benefit analysis,; Vessey, I., Galletta, D.,Cognitive fit: An empirical study of information acquisition,; Yi, J.S., Kang, Y.A., Stasko, J.T., Jacko, J.A.,Toward a deeper understanding of the role of interaction in information visualization,</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -5622,11 +5302,6 @@
       <c r="O65" t="inlineStr">
         <is>
           <t>10.1080/10967494.2021.1913459</t>
-        </is>
-      </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>Varios Paises</t>
         </is>
       </c>
     </row>
@@ -5671,7 +5346,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>AGUILAR, E., VARGAS, J.,Generación de una cultura de transparencia desde la niñez,(2016) Primer Congreso Nacional de Finanzas Públicas. Las Finanzas Públicas y la Visión del Ciudadano (CNFPyVC), pp. 107-114.; ALT, J.,Twenty years of transparency research,(2018) Public Sector Economics 2018 - Fiscal openness: transparency, participation and accountability in fiscal policies; ARENAS, N., GÓMEZ, L.,El régimen populista en Venezuela ¿avance o peligro para la democracia?,(2006) Revista Internacional de Filosofía Política, (28), pp. 5-45. Cited 3 times.; BASTIDA, F.,(2018) Transparency and government trust,Organized by the Institute of Public Finance, International Budget Partnership and Friedrich-Ebert-Stiftung. Zagreb; DESIATO, M.,(2019) Del humanismo retrógrado al humanismo sensato,El Nacional. Disponible; DRECHSLER, W.,(2008) Pathfinder: e-Estonia as the β-version,Disponible en; (2019) Exploring Digital Government transformation in the EU. Cited 34 times.,EUROPEAN COMMISION,  8; JEREZ, D., NOROÑA, M., PUENTE, E., REMACHE, A.,Estudio sobre el Acceso y Protección de la Información (GIS) y Documentos Confidenciales,(2018) INNOVA Research Journal 2018, 3 (11), pp. 1-15.; LEYS, C.,What is the problem about corruption?,(1993) Political Corruption - A Handbook, pp. 51-66. Cited 18 times.; Lindgren, I., Van Veenstra, A.F.,Digital government transformation: A case illustrating public e-service development as part of public sector transformation (Open Access),; MATHEUS, M.,Una visión normativa de la descentralización en Venezuela,(1996) Cuestiones Políticas. Facultad de Ciencias Jurídicas y Políticas, (16), pp. 173-193.; MATHEUS, M., ROMERO, M.,Del Federalismo incongruente a la Estructura Unicameral en Venezuela,(2001) Revista Venezolana de Ciencia Política, (19), pp. 91-105.; PEROZO, M.,Bolívar y el ideal democrático,(1986) Biblioteca Venezolana de Historia, (31).; Buenas prácticas de transparencia y participación ciudadana en los poderes legislativos de las américas,(2018) ,PNUD. Programa de Naciones Unidas para el Desarrollo y PalAmericas. Disponible en; OLÍAS DE LIMA, B.,Servicios públicos y gobernanza,(2005) Sistema: revista de Ciencias Políticas, pp. 125-140. Cited 2 times.; ORDOÑEZ, S., ORTÍZ, D.,Buena administración, transparencia y eficiencia: evidencia de los municipios de Colombia,(2019) Revista digital de Derecho Administrativo, pp. 179-199. Cited 6 times.; RACHADELL, M.,(1990) Una Propuesta para la Descentralización,COPRE-ILDIS, Caracas; RACHADELL, M.,La centralización del poder en Venezuela,(2006) Provincia, (16), pp. 199-282. Cited 3 times.; RAMIO, C.,Los problemas de la implantación de la nueva gestión pública en las administraciones publicas latinas: Modelo de Estado y Cultura Institucional,(2001) Revista del CLAD: Reforma y Democracia, (21). Cited 36 times.; RINCÓN, C.,La Administración pública venezolana, una retrospectiva del período democrático,(2017) Novagob. Cited 2 times.; RÍOS, M.,(2014) En busca de una definición de Gobierno Electrónico. Cited 2 times.,Novagob. Disponible en; SCARBAY, L.,El capital social de las organizaciones del tercer sector,(2005) Revista Venezolana de Ciencia Política, (28), pp. 59-90.; SHAW, EMILY,Skipping Ahead to the Good Part: The Role of Civic Technology in Achieving the Promise of E-Government,(2018) JeDEM, 10 (2), pp. 74-96. Cited 2 times.; SHENOY, A., JEONG, D., ZIMMERMANN, L.,Are Transparency and Accountability Enough? Open Corruption and Why it Exists,(2018) Economics; Silcock, R.,What is e-Government?,; (2021) Percepción de la Corrupción 2020,TRANSPARENCY INTERNATIONAL. Transparency International. Disponible en,https://bit.ly/3q1EMn6; (2011) Manual de Aplicación,TRANSPARENCIA VENEZUELA. Indicadores de Transparencia en las Gobernaciones (ITG), Transparencia Venezuela. Disponible en,https://bit.ly/3gwvn3M; (2012) Estado venezolano propicia la censura y limita el acceso a la información,TRANSPARENCIA VENEZUELA. Transparencia Venezuela. Disponible en,https://bit.ly/3xrSzpu; (2012) Transparencia Venezuela entrega informe con Denuncias y Recomendaciones al CNE,TRANSPARENCIA VENEZUELA. Transparencia Venezuela. Disponible en,https://bit.ly/35DWEe9; (2015) En Venezuela se legaliza la opacidad dentro de la administración pública,TRANSPARENCIA VENEZUELA. Transparencia Venezuela. Disponible en,https://bit.ly/35L8weN; 12 leyes contemplan el acceso a la información pública en Venezuela,(2016) ,TRANSPARENCIA VENEZUELA. Transparencia Venezuela. Disponible en; (2016) El silencio del CNE y TSJ afecta la transparencia de los procesos electorales,TRANSPARENCIA VENEZUELA. a. Transparencia Venezuela. Disponible en,https://bit.ly/3wBcrXl; (2016) Exigen respuesta al CNE ante denuncias introducidas,TRANSPARENCIA VENEZUELA. b. Transparencia Venezuela. Disponible en,https://bit.ly/3vKqpF7; (2017) 44 ONG: CNE es corresponsable de violaciones DDHH ocurridas desde 01 de abril,TRANSPARENCIA VENEZUELA. Transparencia Venezuela. Disponible en,https://bit.ly/3gCmXHW; (2021) Fonden, una estrategia política para gastar sin control. Cited 2 times.,TRANSPARENCIA VENEZUELA. Transparencia Venezuela. Disponible en,http://bit.ly/Fondengastosincontrol; (2014) Instructivo de transparencia activa versión 1.0-2014. Unidad de acceso a la información pública,UNIDAD DE ACCESO A LA INFORMACIÓN PÚBLICA. Gobierno de la República Oriental del Uruguay. Disponible en,https://bit.ly/3gArWJf</t>
+          <t>AGUILAR, E., VARGAS, J.,Generación de una cultura de transparencia desde la niñez,(2016) Primer Congreso Nacional de Finanzas Públicas. Las Finanzas Públicas y la Visión del Ciudadano (CNFPyVC), pp. 107-114.; ALT, J.,Twenty years of transparency research,(2018) Public Sector Economics 2018 - Fiscal openness: transparency, participation and accountability in fiscal policies; ARENAS, N., GÓMEZ, L.,El régimen populista en Venezuela ¿avance o peligro para la democracia?,(2006) Revista Internacional de Filosofía Política, (28), pp. 5-45. Cited 3 times.; BASTIDA, F.,(2018) Transparency and government trust,Organized by the Institute of Public Finance, International Budget Partnership and Friedrich-Ebert-Stiftung. Zagreb; DESIATO, M.,(2019) Del humanismo retrógrado al humanismo sensato,El Nacional. Disponible; DRECHSLER, W.,(2008) Pathfinder: e-Estonia as the β-version,Disponible en; (2019) Exploring Digital Government transformation in the EU. Cited 36 times.,EUROPEAN COMMISION,  8; JEREZ, D., NOROÑA, M., PUENTE, E., REMACHE, A.,Estudio sobre el Acceso y Protección de la Información (GIS) y Documentos Confidenciales,(2018) INNOVA Research Journal 2018, 3 (11), pp. 1-15.; LEYS, C.,What is the problem about corruption?,(1993) Political Corruption - A Handbook, pp. 51-66. Cited 18 times.; Lindgren, I., Van Veenstra, A.F.,Digital government transformation: A case illustrating public e-service development as part of public sector transformation,; MATHEUS, M.,Una visión normativa de la descentralización en Venezuela,(1996) Cuestiones Políticas. Facultad de Ciencias Jurídicas y Políticas, (16), pp. 173-193.; MATHEUS, M., ROMERO, M.,Del Federalismo incongruente a la Estructura Unicameral en Venezuela,(2001) Revista Venezolana de Ciencia Política, (19), pp. 91-105.; PEROZO, M.,Bolívar y el ideal democrático,(1986) Biblioteca Venezolana de Historia, (31).; Buenas prácticas de transparencia y participación ciudadana en los poderes legislativos de las américas,(2018) ,PNUD. Programa de Naciones Unidas para el Desarrollo y PalAmericas. Disponible en; OLÍAS DE LIMA, B.,Servicios públicos y gobernanza,(2005) Sistema: revista de Ciencias Políticas, pp. 125-140. Cited 2 times.; ORDOÑEZ, S., ORTÍZ, D.,Buena administración, transparencia y eficiencia: evidencia de los municipios de Colombia,(2019) Revista digital de Derecho Administrativo, pp. 179-199. Cited 6 times.; RACHADELL, M.,(1990) Una Propuesta para la Descentralización,COPRE-ILDIS, Caracas; RACHADELL, M.,La centralización del poder en Venezuela,(2006) Provincia, (16), pp. 199-282. Cited 3 times.; RAMIO, C.,Los problemas de la implantación de la nueva gestión pública en las administraciones publicas latinas: Modelo de Estado y Cultura Institucional,(2001) Revista del CLAD: Reforma y Democracia, (21). Cited 36 times.; RINCÓN, C.,La Administración pública venezolana, una retrospectiva del período democrático,(2017) Novagob. Cited 2 times.; RÍOS, M.,(2014) En busca de una definición de Gobierno Electrónico. Cited 2 times.,Novagob. Disponible en; SCARBAY, L.,El capital social de las organizaciones del tercer sector,(2005) Revista Venezolana de Ciencia Política, (28), pp. 59-90.; SHAW, EMILY,Skipping Ahead to the Good Part: The Role of Civic Technology in Achieving the Promise of E-Government,(2018) JeDEM, 10 (2), pp. 74-96. Cited 2 times.; SHENOY, A., JEONG, D., ZIMMERMANN, L.,Are Transparency and Accountability Enough? Open Corruption and Why it Exists,(2018) Economics; Silcock, R.,What is e-Government?,; (2021) Percepción de la Corrupción 2020,TRANSPARENCY INTERNATIONAL. Transparency International. Disponible en,https://bit.ly/3q1EMn6; (2011) Manual de Aplicación,TRANSPARENCIA VENEZUELA. Indicadores de Transparencia en las Gobernaciones (ITG), Transparencia Venezuela. Disponible en,https://bit.ly/3gwvn3M; (2012) Estado venezolano propicia la censura y limita el acceso a la información,TRANSPARENCIA VENEZUELA. Transparencia Venezuela. Disponible en,https://bit.ly/3xrSzpu; (2012) Transparencia Venezuela entrega informe con Denuncias y Recomendaciones al CNE,TRANSPARENCIA VENEZUELA. Transparencia Venezuela. Disponible en,https://bit.ly/35DWEe9; (2015) En Venezuela se legaliza la opacidad dentro de la administración pública,TRANSPARENCIA VENEZUELA. Transparencia Venezuela. Disponible en,https://bit.ly/35L8weN; 12 leyes contemplan el acceso a la información pública en Venezuela,(2016) ,TRANSPARENCIA VENEZUELA. Transparencia Venezuela. Disponible en; (2016) El silencio del CNE y TSJ afecta la transparencia de los procesos electorales,TRANSPARENCIA VENEZUELA. a. Transparencia Venezuela. Disponible en,https://bit.ly/3wBcrXl; (2016) Exigen respuesta al CNE ante denuncias introducidas,TRANSPARENCIA VENEZUELA. b. Transparencia Venezuela. Disponible en,https://bit.ly/3vKqpF7; (2017) 44 ONG: CNE es corresponsable de violaciones DDHH ocurridas desde 01 de abril,TRANSPARENCIA VENEZUELA. Transparencia Venezuela. Disponible en,https://bit.ly/3gCmXHW; (2021) Fonden, una estrategia política para gastar sin control. Cited 2 times.,TRANSPARENCIA VENEZUELA. Transparencia Venezuela. Disponible en,http://bit.ly/Fondengastosincontrol; (2014) Instructivo de transparencia activa versión 1.0-2014. Unidad de acceso a la información pública,UNIDAD DE ACCESO A LA INFORMACIÓN PÚBLICA. Gobierno de la República Oriental del Uruguay. Disponible en,https://bit.ly/3gArWJf</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -5691,7 +5366,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>No Encontrado</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -5702,11 +5377,6 @@
       <c r="O66" t="inlineStr">
         <is>
           <t>10.51915/RET.186</t>
-        </is>
-      </c>
-      <c r="P66" t="inlineStr">
-        <is>
-          <t>Venezuela</t>
         </is>
       </c>
     </row>
@@ -5751,7 +5421,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Acciai, C., Capano, G.,Policy instruments at work: A meta-analysis of their applications,; Andrew, J., Baker, M., Guthrie, J., Martin-Sardesai, A.,Australia's COVID-19 public budgeting response: the straitjacket of neoliberalism,; Baines, D.,Caring for nothing: Work organization and unwaged labour in social services,; Broadbent, J.,The response to Covid-19 in England: political accountability and loss of trust,; Capano, G., Howlett, M.,The Knowns and Unknowns of Policy Instrument Analysis: Policy Tools and the Current Research Agenda on Policy Mixes (Open Access),; Connell, R., Fawcett, B., Meagher, G.,Neoliberalism, new public management and the human service professions: Introduction to the special issue,; Dahl, H.M.,New Public Management, care and struggles about recognition,; Falabella, A.,School markets in chile and the emergence of the new public management: The fabric of policies between a neoliberal dictatorship regime and center-left democratic governments (1979-2009) (Open Access),; Fardella, C., Sisto, V., Morales, K., Rivera, G., Soto, R.,Labor identities and ethics of public work in times of accountability (Open Access),; Francesco, F.D., Guaschino, E.,Reframing knowledge: A comparison of OECD and World Bank discourse on public governance reform (Open Access),; Gubrium, J.F., Holstein, J.A.,Narrative practice and the coherence of personal stories,; Henman, P.,Performing the state: the socio-political dimensions of performance measurement in policy and public services,; Hood, C., Dixon, R.,What We Have to Show for 30 Years of New Public Management: Higher Costs, More Complaints,; Keevers, L., Treleaven, L., Sykes, C., Darcy, M.,Made to measure: Taming practices with results-based accountability (Open Access),; Kim, P.S.,South Korea’s fast response to coronavirus disease: implications on public policy and public management theory,; Lapuente, V., Van de Walle, S.,The effects of new public management on the quality of public services (Open Access),; Le Galès, P.,Performance measurement as a policy instrument,; Little, J.W., Bartlett, L.,Chapter 9: The teacher workforce and problems of educational equity,; Malmmose, M.,Management accounting versus medical profession discourse: Hegemony in a public health care debate - A case from Denmark,; Osborne, D., Gabler, T.,(1992) Reinventing government. Cited 5797 times.,Penguin Press; Pavez, J.,(2018) Significados y prácticas de la precariedad en trabajadores y trabajadoras de un programa social de infancia en la región de Valparaíso (tesis de posgrado). Cited 5 times.,Pontificia Universidad Católica de Valparaíso, Valparaíso, Chile; Piñera, J.,(1990) La revolución laboral en Chile. Cited 23 times.,Zig-Zag; Reynolds, J., Wetherell, M., Taylor, S.,Choice and chance: Negotiating agency in narratives of singleness (Open Access),; Sandall, J., Benoit, C., Wrede, S., Murray, S.F., Van Teijlingen, E.R., Westfall, R.,Social service professional or market expert?: Maternity care relations under neoliberal healthcare reform,; Sanfuente, M., Espinoza, T.,Crisis del SENAME en Chile: Una mirada desde adentro,(2017) Notas CEOS de Política Pública, 2, pp. 1-9.; Schöngut-Grollmus, N.,The socio-technical assemblages for producing psychosocial interventions in Chile's National Children Service program (Open Access),; Sisto, V.,Challenged identities: Individualization, managerialism,and teaching work in Chile today (Open Access),; Sisto, V.,Governed by numbers: Financing as a form of government of the university in Chile (Open Access),; Sisto, V.,Managerialism versus local practices. The decolonization of the managerial discourse from within schools’life,; Sisto, V.,The school abandoned to assessments and standards, confined to managerialism (Open Access),; Sisto, V., Fardella, C.,Narrative control and governmentality: Coherence production in identity narratives. The case of young adult professionals working under flexible employability in Chile,; Sisto, V., Fardella, C.,Studying the contemporary transformations of work from a psychosocial perspective (Open Access),; Sisto, V., Montecinos, C., Figueroa, L.A.,Disputes about meaning and identity: The local construction of teachers' work in the context of evaluation and performance incentive policies in chile (Open Access),; Taylor, S., Littleton, K.,Biographies in talk: A narrative-discursive research approach,(2006) Qualitative Sociology Review, 2 (1), pp. 22-38. Cited 127 times.; Thomas, R., Davies, A.,Theorizing the micro-politics of resistance: New public management and managerial identities in the UK public services,; Verbeeten, F.H.M., Speklé, R.F.,Management Control, Results-Oriented Culture and Public Sector Performance: Empirical Evidence on New Public Management,; Wetherell, M.,A step too far: Discursive psychology, linguistic ethnography and questions of identity,; Wilkins, A., Collet-Sabé, J., Gobby, B., Hangartner, J.,Translations of new public management: a decentred approach to school governance in four OECD countries (Open Access),; Young, S.L., Wiley, K.K., Searing, E.A.M.,“Squandered in Real Time”: How Public Management Theory Underestimated the Public Administration–Politics Dichotomy (Open Access),</t>
+          <t>Acciai, C., Capano, G.,Policy instruments at work: A meta-analysis of their applications,; Andrew, J., Baker, M., Guthrie, J., Martin-Sardesai, A.,Australia's COVID-19 public budgeting response: the straitjacket of neoliberalism,; Baines, D.,Caring for nothing: Work organization and unwaged labour in social services,; Broadbent, J.,The response to Covid-19 in England: political accountability and loss of trust,; Capano, G., Howlett, M.,The Knowns and Unknowns of Policy Instrument Analysis: Policy Tools and the Current Research Agenda on Policy Mixes,; Connell, R., Fawcett, B., Meagher, G.,Neoliberalism, new public management and the human service professions: Introduction to the special issue,; Dahl, H.M.,New Public Management, care and struggles about recognition,; Falabella, A.,School markets in chile and the emergence of the new public management: The fabric of policies between a neoliberal dictatorship regime and center-left democratic governments (1979-2009),; Fardella, C., Sisto, V., Morales, K., Rivera, G., Soto, R.,Labor identities and ethics of public work in times of accountability (Open Access),; Francesco, F.D., Guaschino, E.,Reframing knowledge: A comparison of OECD and World Bank discourse on public governance reform (Open Access),; Gubrium, J.F., Holstein, J.A.,Narrative practice and the coherence of personal stories,; Henman, P.,Performing the state: the socio-political dimensions of performance measurement in policy and public services,; Hood, C., Dixon, R.,What We Have to Show for 30 Years of New Public Management: Higher Costs, More Complaints,; Keevers, L., Treleaven, L., Sykes, C., Darcy, M.,Made to measure: Taming practices with results-based accountability,; Kim, P.S.,South Korea’s fast response to coronavirus disease: implications on public policy and public management theory,; Lapuente, V., Van de Walle, S.,The effects of new public management on the quality of public services (Open Access),; Le Galès, P.,Performance measurement as a policy instrument (Open Access),; Little, J.W., Bartlett, L.,Chapter 9: The teacher workforce and problems of educational equity (Open Access),; Malmmose, M.,Management accounting versus medical profession discourse: Hegemony in a public health care debate - A case from Denmark (Open Access),; Osborne, D., Gabler, T.,(1992) Reinventing government. Cited 5800 times.,Penguin Press; Pavez, J.,(2018) Significados y prácticas de la precariedad en trabajadores y trabajadoras de un programa social de infancia en la región de Valparaíso (tesis de posgrado). Cited 5 times.,Pontificia Universidad Católica de Valparaíso, Valparaíso, Chile; Piñera, J.,(1990) La revolución laboral en Chile. Cited 23 times.,Zig-Zag; Reynolds, J., Wetherell, M., Taylor, S.,Choice and chance: Negotiating agency in narratives of singleness,; Sandall, J., Benoit, C., Wrede, S., Murray, S.F., Van Teijlingen, E.R., Westfall, R.,Social service professional or market expert?: Maternity care relations under neoliberal healthcare reform,; Sanfuente, M., Espinoza, T.,Crisis del SENAME en Chile: Una mirada desde adentro,(2017) Notas CEOS de Política Pública, 2, pp. 1-9.; Schöngut-Grollmus, N.,The socio-technical assemblages for producing psychosocial interventions in Chile's National Children Service program,; Sisto, V.,Challenged identities: Individualization, managerialism,and teaching work in Chile today,; Sisto, V.,Governed by numbers: Financing as a form of government of the university in Chile (Open Access),; Sisto, V.,Managerialism versus local practices. The decolonization of the managerial discourse from within schools’life,; Sisto, V.,The school abandoned to assessments and standards, confined to managerialism (Open Access),; Sisto, V., Fardella, C.,Narrative control and governmentality: Coherence production in identity narratives. The case of young adult professionals working under flexible employability in Chile,; Sisto, V., Fardella, C.,Studying the contemporary transformations of work from a psychosocial perspective,; Sisto, V., Montecinos, C., Figueroa, L.A.,Disputes about meaning and identity: The local construction of teachers' work in the context of evaluation and performance incentive policies in chile (Open Access),; Taylor, S., Littleton, K.,Biographies in talk: A narrative-discursive research approach,(2006) Qualitative Sociology Review, 2 (1), pp. 22-38. Cited 127 times.; Thomas, R., Davies, A.,Theorizing the micro-politics of resistance: New public management and managerial identities in the UK public services (Open Access),; Verbeeten, F.H.M., Speklé, R.F.,Management Control, Results-Oriented Culture and Public Sector Performance: Empirical Evidence on New Public Management,; Wetherell, M.,A step too far: Discursive psychology, linguistic ethnography and questions of identity (Open Access),; Wilkins, A., Collet-Sabé, J., Gobby, B., Hangartner, J.,Translations of new public management: a decentred approach to school governance in four OECD countries (Open Access),; Young, S.L., Wiley, K.K., Searing, E.A.M.,“Squandered in Real Time”: How Public Management Theory Underestimated the Public Administration–Politics Dichotomy,</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -5782,11 +5452,6 @@
       <c r="O67" t="inlineStr">
         <is>
           <t>10.5027/psicoperspectivas-vol20-issue3-fulltext-2443</t>
-        </is>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>Chile</t>
         </is>
       </c>
     </row>
@@ -5831,7 +5496,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Perceval, J.M.,(2015) Historia Mundial de la Comunicación, p. 124. Cited 10 times.,Cátedra: Madrid, Spain; Buisseret, D.,(2004) La Revolución Cartográfica en Europa. La Representación de Nuevos Mundos en la Europa del Renacimiento, pp. 1400-1800. Cited 15 times.,Paidos: Barcelona, Spain; Monmonier, M.S.,(1995) Drawing the Line: Tales of Maps and Cartocontroversy. Cited 81 times.,Henry Holt: New York, NY, USA; Koyre, A.,(1979) Del Mundo Cerrado al Universo Infinito. Cited 32 times.,Siglo XXI: Madrid, Spain; Todorov, T.,(1989) Nous et les Autres. Cited 339 times.,Seuil: Paris, France; Harley, J.B.,Hacia una deconstrucción del Mapa,(2005) La Nueva Naturaleza de los Mapas, pp. 185-207. Cited 6 times.; Mezzadra, S., Neilson, B.,(2017) La Frontera Como Método. Cited 79 times.,Traficantes de sueños: Madrid, Spain; Tamayo, J.J.,Neofascismo y Religión. Los Predficadores del Odio,(2019) Neofascismo. La Liberal, pp. 189-204.; López Borrego, R.,(2020) Estética del Viaje. Reflexiones en Torno al arte y el Nomadismo Global,Amarante: Salamanca, Spain; Castro Flórez, F.,(2015) Mierda y Catástrofe. Síndromes Culturales del Arte Contemporáneo. Cited 7 times.,Fórcola: Madrid, Spain; Mapa Infoparticipa. Cited 2 times.,LabComPublica. Laboratorio de Periodismo y Comunicación para la Ciudadanía Plural (n.d). (accessed on 1 July 2021),https://www.mapainfoparticipa.com/index/mapa; Ciutadanía Plural,LabComPublica. Laboratorio de Periodismo y Comunicación para la Ciudadanía Plural (n.d). (accessed on 1 July 2021),http://www.ciutadaniaplural.com/#/home; Link, E., Henke, J., Möhring, W.,Credibility and Enjoyment through Data? Effects of Statistical Information and Data Visualizations on Message Credibility and Reading Experience,; Reyna, J., Hanham, J., Meier, P.,The Internet explosion, digital media principles and implications to communicate effectively in the digital space (Open Access),; Valero, J.L.,(2001) La Infografía. Técnicas, Análisis y Usos Periodísticos. Cited 11 times.,Universitat de València: Valencia, Spain; Sarın, P., Gtekin, N.U.,Analyzing newspaper maps for earthquake news through cartographic approach (Open Access),; López Linares, C.,¿Cómo pueden los mapas ayudar a los periodistas a narrar mejor sus historias?,(2021) ; Canter, L.,It’s Not All Cat Videos: Moving beyond legacy media and tackling the challenges of mapping news values on digital native websites (Open Access),; Gutiérrez, M., Rodríguez, M.P., de Guereñu, J.M.D.,Journalism in the age of hybridization: Los vagabundos de la chatarra – Comics journalism, data, maps and advocacy,; Ureta, A.L., Rodríguez, E.M.F.,The potential of investigative data journalism to reshape professional culture and values. A study of bellwether transnational projects (Open Access),; Tong, J., Zuo, L.,The Inapplicability of Objectivity: Understanding the Work of Data Journalism,; Stalph, F.,Classifying Data Journalism: A content analysis of daily data-driven stories,; Aparici, R., García-Marín, D.,Prosumers and emirecs: Analysis of two confronted theories (Open Access),; Sánchez Duarte, J.M., Bolaños Huertas, M.V., Magallón Rosa, R., Anderica Caffarena, V.,The role of civic technologies in the redefinition of the public sphere,; Roth, R.E.,Cartographic Design as Visual Storytelling: Synthesis and Review of Map-Based Narratives, Genres, and Tropes (Open Access),; Cobo, C.,Intercreatividad y Web 2.0. La construcción de un cerebro digital planetario,Planeta Web 2.0. Inteligencia Colectiva o Medios Fast Food, pp. 43-60.; Moon, M.J.,The evolution of E-government among municipalities: Rhetoric or reality?,; Welch, E.W., Hinnant, C.C., Moon, M.J.,Linking citizen satisfaction with e-government and trust in government (Open Access),; Rodríguez Mellado, J.A., Torres Manjón, J.,Redes geosociales: Una Web cercana, cartográfica y de sensaciones, realizada por todos y basada en el geoconocimiento colectivo,(2010) Tecnologías de la Información geográfica: La Información Geográfica al Servicio de los Ciudadanos, pp. 1369-1378.; Haraway, D.,(1991) Simians, Cyborgs and Women: The Reinvention of Nature. Cited 8712 times.,Routledge: New York, NY, USA; Buzai, G.D.,Geografía y tecnologías digitales del siglo XXI: Una aproximación a las nuevas visiones del mundo y sus impactos científicos-tecnológicos,(2004) Scr. Nova, 8, p. 170. Cited 3 times.; Capel, H.,Geografía en red a comienzos del Tercer Milenio. Por una ciencia solidaria y en colaboración,(2010) Scr. Nova. Rev. Electrónica De Geogr. Y Cienc. Soc, XIV, p. 313.; Bates, D.,The political theology of entropy: A Katechon for the cybernetic age (Open Access),; Afanador, M.J.,Tecnología al servicio de las humanidades,(2019) Telos, 112, pp. 66-71.; Vinck, D.,(2018) Humanidades Digitales: La Cultura Frente a Las Nuevas Tecnologías. Cited 8 times.,Gedisa: Barcelona, Spain, (accessed on 1 July 2021); Oropesa Serrano, M.C., Rodríguez Roche, S.,Digital Humanities: Analysis of Research carried out in the Faculty of Communication in the Period 1993–2016,(2017) Cienc. De La Inf, 48, pp. 9-14.; Thomas, W.G.,Computing and the Historical Imagination,; Rosenzweig, R.,Scarcity or Abundance? Preserving the Past in a Digital Era,(2003) Am. Hist. Rev, 108, pp. 735-762. Cited 136 times.; Darnton, R.,The New Age of the Book,(1999) New York Rev. Books, 46, pp. 5-7. Cited 51 times.; Del Río, G.,La mirada humana, la mirada crítica,(2019) Telos, 112, pp. 50-55.; Rodríguez Ortega, N.,Humanidades digitales, poshumanidad y neohumnismo,(2019) Telos, 112, pp. 58-65. Cited 2 times.; Los Angeles and the Problem of Urban Historical Knowledge,(2000) Am. Hist. Rev, 105, p. 1667. Cited 17 times.,Ethington., P.J. (accessed on 1 July 2021); Habegger, S., Mancila, I.,El Poder de la Cartografía Social en las Prácticas Contrahegemónicas o la Cartografía Social Como estrate-gia Para Diagnosticar Nuestro Territorio. Cited 5 times.,(accessed on 1 July 2021); Klonner, C., Hartmann, M., Dischl, R., Djami, L., Anderson, L., Raifer, M., Lima-Silva, F., (...), De Albuquerque, J.P.,The sketch map tool facilitates the assessment of openstreetmap data for participatory mapping (Open Access),; Müller, J.,Evaluation methods for citizen design science studies: How do planners and citizens obtain relevant information from map-based e-participation tools? (Open Access),; Kampermann, A., Opdenakker, R., Van der Heijden, B., Bücker, J.,Intercultural competencies for fostering technology-mediated collaboration in developing countries (Open Access),; Radil, S.M., Anderson, M.B.,Rethinking PGIS: Participatory or (post)political GIS?,; Parker, B.,Constructing community through maps? Power and praxis in community mapping,; Ghose, R.,Public-participation GIS,(2017) The International Encyclopedia of Geography. Cited 4 times.; Radil, S.M., Jiao, J.,Public Participatory GIS and the Geography of Inclusion,; Pfeffer, K., Baud, I., Denis, E., Scott, D., Sydenstricker-Neto, J.,PARTICIPATORY SPATIAL KNOWLEDGE MANAGEMENT TOOLS: Empowerment and upscaling or exclusion?,; Brown, G.,Public participation GIS (PPGIS) for regional and environmental planning: Reflections on a decade of empirical research,; Zhang, S.,Public participation in the Geoweb era: Defining a typology for geo-participation in local governments,; Sieber, R.E., Robinson, P.J., Johnson, P.A., Corbett, J.M.,Doing Public Participation on the Geospatial Web,; Clark, B.Y., Brudney, J.L., Jakobsen, M., Andersen, S.C.,Coproduction of government services and the new information technology: Investigating the distributional biases,(2013) Public Ad-Minist. Rev, 73, pp. 704-713. Cited 2 times.; Foster, A., Dunham, I.M.,Volunteered geographic information, urban forests, &amp; environmental justice,; Brabham, D.C.,Crowdsourcing the public participation process for planning projects,; Brown, G., Kyttä, M.,Key issues and research priorities for public participation GIS (PPGIS): A synthesis based on empirical research,; Wellman, B.,Little boxes, glocalization, and networked individualism,; Moreno Sardà, A.,(1986) El Arquetipo Viril Protagonista de la Historia. Ejercicios de Lectura No-androcéntrica. Cited 18 times.,LaSal: Barcelona, Spain; Moreno Sardà, A.,La Otra ‘Política’ de Aristóteles,(1988) Cultura de Masas y Divulgación del Arquetipo Viril. Cited 11 times.; Moreno Sardà, A.,(2007) De qué Hablamos cuando Hablamos del Hombre. Treinta Años de Crítica y Alternativas al Pensamiento Androcéntrico. Cited 10 times.,Icaria: Barcelona, Spain; Esteve, A., Zueras, P.,El equipo del Explorador Social. Explorador Social: El dato hecho realidad,(2021) Perspect. Demogr, 23, pp. 1-4.; Moreno Sardà, A., Molina Rodríguez-Navas, P., Simelio Solà, N.,CiudadaniaPlural.com: From digital humanities to plural humanism (Open Access),; Berners, T., Fischetti, M.,(2000) Weaving the Web: The Original Design and Ultimate Destiny of the World Wide Web by Its Inventor. Cited 15 times.,Texere: London, UK; Vilanova, M.,Trabajos por hacer: Cuatro conjeturas,(2008) Hist. Antropol. Y Fuentes Orales, 39, pp. 73-80.; Moreno Sardá, A., Molina Rodríguez-Navas, P., Corcoy Rius, M., Aguilar Pérez, A., Borràs Farran, M.,Infoparticip@: Journalism for citizen participation in the democratic control. Criteria, methodologies and tools (Open Access),; Skaržauskienė, A., Mačiulienė, M.,Mapping International Civic Technologies Platforms (Open Access),; Moreno-Sarda, A., Molina-Rodríguez-navas, P., Simelio-Solà, N.,The impact of legislation on the transparency in information published by local administrations (Open Access),; Rodríguez-Navas, P.M., Morales, N.J.M.,The Transparency of Ecuadorians municipal websites: Methodology and results [La transparencia de los municipios de Ecuador en sus sitios web: Metodología y resultados],(2018) Am. Lat. Hoy, 80, pp. 143-169.; López-López, P.C., Márquez-Domínguez, C., Molina Rodríguez-Navas, P., Ramos-Gil, Y.T.,Transparency and public information in Ecuadorian television corporations: The case of Ecuavisa and TC Televisión (Open Access),; Steudt, W.-R., Medranda Morales, N., Sánchez Montoya, R.,Evaluation of transparency of public information on Canadian mining projects in Ecuador (Open Access),; Flórez, J.A.M.,Digital history: Memory in the infinite archive,</t>
+          <t>Perceval, J.M.,(2015) Historia Mundial de la Comunicación, p. 124. Cited 10 times.,Cátedra: Madrid, Spain; Buisseret, D.,(2004) La Revolución Cartográfica en Europa. La Representación de Nuevos Mundos en la Europa del Renacimiento, pp. 1400-1800. Cited 15 times.,Paidos: Barcelona, Spain; Monmonier, M.S.,(1995) Drawing the Line: Tales of Maps and Cartocontroversy. Cited 81 times.,Henry Holt: New York, NY, USA; Koyre, A.,(1979) Del Mundo Cerrado al Universo Infinito. Cited 33 times.,Siglo XXI: Madrid, Spain; Todorov, T.,(1989) Nous et les Autres. Cited 339 times.,Seuil: Paris, France; Harley, J.B.,Hacia una deconstrucción del Mapa,(2005) La Nueva Naturaleza de los Mapas, pp. 185-207. Cited 6 times.; Mezzadra, S., Neilson, B.,(2017) La Frontera Como Método. Cited 80 times.,Traficantes de sueños: Madrid, Spain; Tamayo, J.J.,Neofascismo y Religión. Los Predficadores del Odio,(2019) Neofascismo. La Liberal, pp. 189-204.; López Borrego, R.,(2020) Estética del Viaje. Reflexiones en Torno al arte y el Nomadismo Global,Amarante: Salamanca, Spain; Castro Flórez, F.,(2015) Mierda y Catástrofe. Síndromes Culturales del Arte Contemporáneo. Cited 7 times.,Fórcola: Madrid, Spain; Mapa Infoparticipa. Cited 2 times.,LabComPublica. Laboratorio de Periodismo y Comunicación para la Ciudadanía Plural (n.d). (accessed on 1 July 2021),https://www.mapainfoparticipa.com/index/mapa; Ciutadanía Plural,LabComPublica. Laboratorio de Periodismo y Comunicación para la Ciudadanía Plural (n.d). (accessed on 1 July 2021),http://www.ciutadaniaplural.com/#/home; Link, E., Henke, J., Möhring, W.,Credibility and Enjoyment through Data? Effects of Statistical Information and Data Visualizations on Message Credibility and Reading Experience,; Reyna, J., Hanham, J., Meier, P.,The Internet explosion, digital media principles and implications to communicate effectively in the digital space,; Valero, J.L.,(2001) La Infografía. Técnicas, Análisis y Usos Periodísticos. Cited 11 times.,Universitat de València: Valencia, Spain; Sarın, P., Gtekin, N.U.,Analyzing newspaper maps for earthquake news through cartographic approach,; López Linares, C.,¿Cómo pueden los mapas ayudar a los periodistas a narrar mejor sus historias?,(2021) ; Canter, L.,It’s Not All Cat Videos: Moving beyond legacy media and tackling the challenges of mapping news values on digital native websites,; Gutiérrez, M., Rodríguez, M.P., de Guereñu, J.M.D.,Journalism in the age of hybridization: Los vagabundos de la chatarra – Comics journalism, data, maps and advocacy,; Ureta, A.L., Rodríguez, E.M.F.,The potential of investigative data journalism to reshape professional culture and values. A study of bellwether transnational projects,; Tong, J., Zuo, L.,The Inapplicability of Objectivity: Understanding the Work of Data Journalism,; Stalph, F.,Classifying Data Journalism: A content analysis of daily data-driven stories,; Aparici, R., García-Marín, D.,Prosumers and emirecs: Analysis of two confronted theories,; Sánchez Duarte, J.M., Bolaños Huertas, M.V., Magallón Rosa, R., Anderica Caffarena, V.,The role of civic technologies in the redefinition of the public sphere,; Roth, R.E.,Cartographic Design as Visual Storytelling: Synthesis and Review of Map-Based Narratives, Genres, and Tropes,; Cobo, C.,Intercreatividad y Web 2.0. La construcción de un cerebro digital planetario,Planeta Web 2.0. Inteligencia Colectiva o Medios Fast Food, pp. 43-60.; Moon, M.J.,The evolution of E-government among municipalities: Rhetoric or reality?,; Welch, E.W., Hinnant, C.C., Moon, M.J.,Linking citizen satisfaction with e-government and trust in government,; Rodríguez Mellado, J.A., Torres Manjón, J.,Redes geosociales: Una Web cercana, cartográfica y de sensaciones, realizada por todos y basada en el geoconocimiento colectivo,(2010) Tecnologías de la Información geográfica: La Información Geográfica al Servicio de los Ciudadanos, pp. 1369-1378.; Haraway, D.,(1991) Simians, Cyborgs and Women: The Reinvention of Nature. Cited 8722 times.,Routledge: New York, NY, USA; Buzai, G.D.,Geografía y tecnologías digitales del siglo XXI: Una aproximación a las nuevas visiones del mundo y sus impactos científicos-tecnológicos,(2004) Scr. Nova, 8, p. 170. Cited 3 times.; Capel, H.,Geografía en red a comienzos del Tercer Milenio. Por una ciencia solidaria y en colaboración,(2010) Scr. Nova. Rev. Electrónica De Geogr. Y Cienc. Soc, XIV, p. 313.; Bates, D.,The political theology of entropy: A Katechon for the cybernetic age,; Afanador, M.J.,Tecnología al servicio de las humanidades,(2019) Telos, 112, pp. 66-71.; Vinck, D.,(2018) Humanidades Digitales: La Cultura Frente a Las Nuevas Tecnologías. Cited 8 times.,Gedisa: Barcelona, Spain, (accessed on 1 July 2021); Oropesa Serrano, M.C., Rodríguez Roche, S.,Digital Humanities: Analysis of Research carried out in the Faculty of Communication in the Period 1993–2016,(2017) Cienc. De La Inf, 48, pp. 9-14.; Thomas, W.G.,Computing and the Historical Imagination,; Rosenzweig, R.,Scarcity or Abundance? Preserving the Past in a Digital Era,(2003) Am. Hist. Rev, 108, pp. 735-762. Cited 136 times.; Darnton, R.,The New Age of the Book,(1999) New York Rev. Books, 46, pp. 5-7. Cited 51 times.; Del Río, G.,La mirada humana, la mirada crítica,(2019) Telos, 112, pp. 50-55.; Rodríguez Ortega, N.,Humanidades digitales, poshumanidad y neohumnismo,(2019) Telos, 112, pp. 58-65. Cited 2 times.; Los Angeles and the Problem of Urban Historical Knowledge,(2000) Am. Hist. Rev, 105, p. 1667. Cited 17 times.,Ethington., P.J. (accessed on 1 July 2021); Habegger, S., Mancila, I.,El Poder de la Cartografía Social en las Prácticas Contrahegemónicas o la Cartografía Social Como estrate-gia Para Diagnosticar Nuestro Territorio. Cited 5 times.,(accessed on 1 July 2021); Klonner, C., Hartmann, M., Dischl, R., Djami, L., Anderson, L., Raifer, M., Lima-Silva, F., (...), De Albuquerque, J.P.,The sketch map tool facilitates the assessment of openstreetmap data for participatory mapping (Open Access),; Müller, J.,Evaluation methods for citizen design science studies: How do planners and citizens obtain relevant information from map-based e-participation tools?,; Kampermann, A., Opdenakker, R., Van der Heijden, B., Bücker, J.,Intercultural competencies for fostering technology-mediated collaboration in developing countries (Open Access),; Radil, S.M., Anderson, M.B.,Rethinking PGIS: Participatory or (post)political GIS?,; Parker, B.,Constructing community through maps? Power and praxis in community mapping (Open Access),; Ghose, R.,Public-participation GIS,(2017) The International Encyclopedia of Geography. Cited 4 times.; Radil, S.M., Jiao, J.,Public Participatory GIS and the Geography of Inclusion (Open Access),; Pfeffer, K., Baud, I., Denis, E., Scott, D., Sydenstricker-Neto, J.,PARTICIPATORY SPATIAL KNOWLEDGE MANAGEMENT TOOLS: Empowerment and upscaling or exclusion?,; Brown, G.,Public participation GIS (PPGIS) for regional and environmental planning: Reflections on a decade of empirical research,; Zhang, S.,Public participation in the Geoweb era: Defining a typology for geo-participation in local governments (Open Access),; Sieber, R.E., Robinson, P.J., Johnson, P.A., Corbett, J.M.,Doing Public Participation on the Geospatial Web (Open Access),; Clark, B.Y., Brudney, J.L., Jakobsen, M., Andersen, S.C.,Coproduction of government services and the new information technology: Investigating the distributional biases,(2013) Public Ad-Minist. Rev, 73, pp. 704-713. Cited 2 times.; Foster, A., Dunham, I.M.,Volunteered geographic information, urban forests, &amp; environmental justice,; Brabham, D.C.,Crowdsourcing the public participation process for planning projects,; Brown, G., Kyttä, M.,Key issues and research priorities for public participation GIS (PPGIS): A synthesis based on empirical research (Open Access),; Wellman, B.,Little boxes, glocalization, and networked individualism,; Moreno Sardà, A.,(1986) El Arquetipo Viril Protagonista de la Historia. Ejercicios de Lectura No-androcéntrica. Cited 18 times.,LaSal: Barcelona, Spain; Moreno Sardà, A.,La Otra ‘Política’ de Aristóteles,(1988) Cultura de Masas y Divulgación del Arquetipo Viril. Cited 11 times.; Moreno Sardà, A.,(2007) De qué Hablamos cuando Hablamos del Hombre. Treinta Años de Crítica y Alternativas al Pensamiento Androcéntrico. Cited 10 times.,Icaria: Barcelona, Spain; Esteve, A., Zueras, P.,El equipo del Explorador Social. Explorador Social: El dato hecho realidad,(2021) Perspect. Demogr, 23, pp. 1-4.; Moreno Sardà, A., Molina Rodríguez-Navas, P., Simelio Solà, N.,CiudadaniaPlural.com: From digital humanities to plural humanism,; Berners, T., Fischetti, M.,(2000) Weaving the Web: The Original Design and Ultimate Destiny of the World Wide Web by Its Inventor. Cited 15 times.,Texere: London, UK; Vilanova, M.,Trabajos por hacer: Cuatro conjeturas,(2008) Hist. Antropol. Y Fuentes Orales, 39, pp. 73-80.; Moreno Sardá, A., Molina Rodríguez-Navas, P., Corcoy Rius, M., Aguilar Pérez, A., Borràs Farran, M.,Infoparticip@: Journalism for citizen participation in the democratic control. Criteria, methodologies and tools,; Skaržauskienė, A., Mačiulienė, M.,Mapping International Civic Technologies Platforms,; Moreno-Sarda, A., Molina-Rodríguez-navas, P., Simelio-Solà, N.,The impact of legislation on the transparency in information published by local administrations (Open Access),; Rodríguez-Navas, P.M., Morales, N.J.M.,The Transparency of Ecuadorians municipal websites: Methodology and results [La transparencia de los municipios de Ecuador en sus sitios web: Metodología y resultados],(2018) Am. Lat. Hoy, 80, pp. 143-169.; López-López, P.C., Márquez-Domínguez, C., Molina Rodríguez-Navas, P., Ramos-Gil, Y.T.,Transparency and public information in Ecuadorian television corporations: The case of Ecuavisa and TC Televisión (Open Access),; Steudt, W.-R., Medranda Morales, N., Sánchez Montoya, R.,Evaluation of transparency of public information on Canadian mining projects in Ecuador (Open Access),; Flórez, J.A.M.,Digital history: Memory in the infinite archive (Open Access),</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -5862,11 +5527,6 @@
       <c r="O68" t="inlineStr">
         <is>
           <t>10.3390/ijgi10110722</t>
-        </is>
-      </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>Varios Paises</t>
         </is>
       </c>
     </row>
@@ -5911,7 +5571,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Aguayo, C.,(1999) El Sentido de la Investigacion en Trabajo Social: Desafíos Epistemicos y Políticos de la Accion Social,Santiago, ALAETS; Aguayo, C.,La investigacion etica y moral con migrantes en salud primaria en Chile: desafíos interculturales,(2014) Trabajo social e Investigacion, pp. 19-36.; Aguayo, C, Lopez, T., Cornejo, R.,(2018) Luces y sombras del trabajo social chi-leno: memoria desde finales de la decada del 1950 al 2000,Buenos Aires, Espacio; Andreoni, L., Rochetti, N., Weber, C., Zucherino, L.,Debates en torno a la investigacion en Trabajo Social,(2014) La actitud investigativa como aporte profesional; Arancibia, L.,Disputas en la construccion del Trabajo Social reconceptuali-zado en la Universidad Catolica de Valparaíso (1966-1973),(2017) Em Pauta, 40 (15), pp. 102-117.; Aylwin, N.,Evolucion Historica del Trabajo Social,(1999) Antología del Trabajo Social chileno, pp. 43-64.; Aylwin, N., Matus, T., Forttes, A.,La reinvencion de la memoria,(2004) Indagación sobre el proceso de profesionalizacion del Trabajo Social chileno; Beddoe, L.,Investing in the future: Social workers talk about research,; Braun, V., Clarke, V.,Using thematic analysis in psychology,; Bueno, A. M.,Produccion de conocimiento sobre investigacion en Trabajo Social,(2013) Revista Trabajo Social, 15, pp. 125-141. Cited 2 times.; Cantwell, B., Kauppinen, I.,(2014) Academic Capitalism in Theory and Research. Cited 18 times.,Baltimore, MD, Johns Hopkins University Press; Castaneda, P., Salame, A.,Trabajo social chileno y dictadura militar,(2014) Rumbos TS, 9 (9), pp. 8-25. Cited 5 times.; Castaneda, P., Salame, A.,De la investigacion social a la generacion de conocimientos en trabajo social. Ampliando las Fronteras,(2015) Rumbos TS, 10 (12), pp. 10-19.; (2019) Panorama de investigacion financiada por Conicyt,CONICYT (Comision Nacional de Ciencia y Tecnología) (a) Working Paper 2, Red de Investigadores en Trabajo Social,  15; Coughlan, M., Cronin, P., Ryan, F.,(2013) Doing a Literature Review in Nursing, Health and Social Care. Cited 99 times.,London, SAGE Publications; Danani, C.,Notas sobre el lugar de la investigacion en la formacion y el ejerci-cio profesional,(1994) Revista Universidad Abierta, 2, pp. 1-8.; D'Cruz, H., Jones, M.,(2004) Social Work Research. Ethical and Political Contexts. Cited 103 times.,London, Sage; DeFraia, G.S.,Knowledge Consumption to Knowledge Generation: Traveling the Road of Practitioner-Conducted Research,; Del Villar, M.,(2018) Las Asistentes Sociales de la Vicaría de la Solidaridad. Una his-toria profesional (1973-1983). Cited 9 times.,Santiago, Alberto Hurtado; Efrat, S., Ravid, R.,(2019) Writing the Literature Review: A Practical Guide. Cited 32 times.,New York, NY, Guilford; Erbay, E.,Importance of Research in Social Work Practice: A Pilot Study From Turkey,; Falla, U.,Reflexiones sobre la investigacion social y el Trabajo Social,(2009) Tabula Rasa, 10, pp. 309-325.; Falla, U.,(2014) La investigacion en el trabajo social contemporáneo,Bogota, Colegio Mayor de Cudinamarca; Falla, U.,Investigacion social e intervencion profesional: categorías centrales en la praxis del trabajo social,(2019) Tabula Rasa, 31 (31), pp. 271-288.; Fardella, C., Corvalan, A., Zavala, R.,El academico cuantificado. La ges-tion performativa a traves de los instrumentos de medicion en la ciencia,(2019) Psicología, Conocimiento y Sociedad, 9 (2), pp. 77-103. Cited 9 times.; Figueroa, Y., Chamblas, I., Rubilar, G.,La generacion de conocimiento en Trabajo Social,(2018) Cuadernos Trabajo Social, 31 (2), pp. 407-416.; Forsberg, H., Kuronen, M., Ritala-Koskinen, A.,The Academic Identity and Boundaries of the Discipline of Social Work: Reflections of Social Work Professors on the Recruitment and Research of Doctoral Students in Finland (Open Access),; Gambrill, E.,Integrating Research and Practice: Distractions, Controversies, and Options for Moving Forward,; Gibbs, A.,The changing nature and context of social work research,; Gonzalez, M.,Los trabajadores sociales quieren andar solos. Reconceptualizacion y Guerra fría, complejidades de la intervencion social,(2013) Trabajo Social, 84, pp. 47-54. Cited 3 times.; Gonzalez, M.,(2010) Historias del trabajo social en Chile 1925-2008. Contribucion Para nuevos relatos. Cited 4 times.,Santiago, Universidad Santo Tomas; Gonzalez, M.,Conocer, luchar, ensenar. Avances pioneros de la investigacion y la produccion intelectual desde el trabajo social,(2016) Trabajo social en Chile. Un siglo de trayectoria. Cited 4 times.; Grassi, E.,Problemas de realismo y teoricismo en la investigacion social y en el Trabajo Social,(2007) Revista Katálysis, 10, pp. 26-36. Cited 3 times.; Gray, M., Sharland, E., Heinsch, M., Schubert, L.,Connecting Research to Action: Perspectives on Research Utilisation (Open Access),; Heinsch, M., Cribb, A.,'Just Knowledge': Can Social Work's 'Guilty Knowledge' Help Build a More Inclusive Knowledge Society? (Open Access),; Henríquez, P.,iQue se ensena y como se ensena investigacion en las escuelas de Trabajo Social?,(2016) Trabajo Social, 90, pp. 3-16.; Hernandez, N.,Investigacion en contextos contemporaneos del Trabajo Social, una clave Para las transformaciones complejas,(2014) Trabajo social e Investigacion, pp. 73-82.; Hozven, R., Rubio, V., Munoz, M.,Derivas identitarias en la ley de exclu-sividad universitaria del trabajo social chileno,(2019) Reflexiones, 99 (1), pp. 1-13.; (2014) Global definition of social work. Cited 510 times.,IASSW-IFSW at: (accessed August 6, 2020),https://www.iassw-aiets.org/global-definition-of-social-work-review-of-the-global-definition/; Joubert, L.,Academic-practice partnerships in practice research: A cultural shift for health social workers,; Joubert, L., Hocking, A.,Academic Practitioner Partnerships: A Model for Collaborative Practice Research in Social Work,; Lima, L.,Metodologismo: estallido de una epoca,(1977) Accion Crítica, 2, pp. 15-21. Cited 3 times.; Lizana, R.,(2014) Trabajo social e investigacion,Buenos Aires, Espacio; Lyons, K.,The place of research in social work education,; Macfarlane, B.,The neoliberal academic: Illustrating shifting academic norms in an age of hyper-performativity (Open Access),; MacIntyre, G., Paul, S.,Teaching research in social work: Capacity and challenge,; Matus, T.,(1993) El dilema de la produccion de conocimientos en trabajo social,Santiago de Chile, IAF; Matus, T.,Propuestas contemporáneas en trabajo social,(1999) Hacia una intervencion polifonica. Cited 3 times.; Miranda, M.,(2003) Pragmatismo, Interaccionismo Simbolico y Trabajo Social. De como la caridad y la filantropía se hicieron científicas. Cited 4 times.,Tarragona, Mira; Molina, L.,(2012) Hacia una Intervencion Profesional Crítica en Trabajo Social,Buenos Aires, Espacio; Moore, P., Robinson, A.,The quantified self: What counts in the neoliberal workplace (Open Access),; Munoz, G., Hernandez, N., Veliz, C.,La relacion entre investigacion e intervencion social: voces desde el trabajo social chileno,(2017) Journal of Social Intervention Research, 7 (12), pp. 3-24.; Muñoz Arce, G.,The neoliberal turn in Chilean social work: frontline struggles against individualism and fragmentation,; Muñoz Arce, G., Pantazis, C.,Social exclusion, neoliberalism and resistance: The role of social workers in implementing social policies in Chile (Open Access),; (2014) Codigo de Etica Profesional. Cited 34 times.,National Association of Social Workers Santiago, CTSCH,  57; Nurius, P.S., Kemp, S.P., Köngeter, S., Gehlert, S.,Next generation social work research education: fostering transdisciplinary readiness,; Olssen, M., Peters, M.A.,Neoliberalism, higher education and the knowledge economy: From the free market to knowledge capitalism,; Pain, H.,Practice research: What it is and its place in the social work profession,; Pappe, S., Luna, M.,(2001) Historiografia critica. Una reflexion teorica. Cited 4 times.,Mexico, DF, Unam; Phillips, J., MacGiollaRi, D., Callaghan, S.,Encouraging Research in Social Work: Narrative as the Thread Integrating Education and Research in Social Work,; Poch, A., Villanelo, F.,(2016) Ciencia sin alma: la impronta neoliberal en la investigacion científica chilena,Santiago, Ciper; Ponce, J., Perez, A.,La revitalizacion de la historiografía política chilena,(2014) Polis, 12 (36), pp. 453-476. Cited 7 times.; Powell, J.,The Changing Conditions of Social Work Research,; Powell, J., Orme, J.,Increasing the confidence and competence of social work researchers: What works?,; Quiroz, M.,(1998) Antología del Trabajo Social chileno. Cited 2 times.,Concepcion, Universidad de Concepcion; Reid, W.J.,The Role of Science in Social Work: The Perennial Debate,; Ridgway, A.,The past-present dialectic: A new methodological tool for seeing the historical dynamic in cultural-historical research,(2015) Visual Methodologies and Digital Tools for Researching with Young Children; Rolando, R., Salamanca, J., Aliaga, M.,(2010) Evolucion de la Matrícula Educacion Superior de Chile, periodo 1990-2009. Cited 14 times.,Informe SIES, Santiago, Mineduc; Rubilar, G.,Como hacen investigacion los trabajadores sociales? Una primera aproximacion a las experiencias de investigacion de profesionales chilenos,(2009) Revista de Trabajo Social, 76, pp. 17-34. Cited 4 times.; Rubilar, G.,Social work research techniques, testimonies, and analysis: A narrative-biographical approach,(2013) Forum Qualitative Sozialforschung/Forum: Qualitative Social Research, 14 (2), p. 2. Cited 3 times.; Donoso, G.R.,Practices of memory and the construction of research testimonies. A methodological reflection about self-interviewing, testimonies, and social workers’ accounts of their research,; Ruz, O.,Reorientacion y Reconceptualizacion del trabajo social en Chile,(2016) Trabajo Social en Chile. Un siglo de trayectoria. Cited 2 times.; Salmi, J.,(2009) The Challenge of Establishing World-class Universities. Cited 604 times.,Washington, D.C., The World Bank; Saravia, F.,La formacion de los trabajadores sociales en Chile: un asunto de oferta y demanda?,(2015) Cuadernos de Trabajo Social, 28 (1), pp. 69-81. Cited 4 times.; Sepú lveda, L.,Algunas reflexiones sobre el ejercicio profesional durante la dic-tadura militar,(2016) Trabajo Social en Chile. Un siglo de trayectoria; Shaw, I.,Practitioner research: Evidence or critique?,; Shaw, I.F., Arksey, H., Mullender, A.,Recognizing social work,; Teater, B.,Social Work Research and Its Relevance to Practice: “The Gap Between Research and Practice Continues to be Wide”,</t>
+          <t>Aguayo, C.,(1999) El Sentido de la Investigacion en Trabajo Social: Desafíos Epistemicos y Políticos de la Accion Social,Santiago, ALAETS; Aguayo, C.,La investigacion etica y moral con migrantes en salud primaria en Chile: desafíos interculturales,(2014) Trabajo social e Investigacion, pp. 19-36.; Aguayo, C, Lopez, T., Cornejo, R.,(2018) Luces y sombras del trabajo social chi-leno: memoria desde finales de la decada del 1950 al 2000,Buenos Aires, Espacio; Andreoni, L., Rochetti, N., Weber, C., Zucherino, L.,Debates en torno a la investigacion en Trabajo Social,(2014) La actitud investigativa como aporte profesional; Arancibia, L.,Disputas en la construccion del Trabajo Social reconceptuali-zado en la Universidad Catolica de Valparaíso (1966-1973),(2017) Em Pauta, 40 (15), pp. 102-117.; Aylwin, N.,Evolucion Historica del Trabajo Social,(1999) Antología del Trabajo Social chileno, pp. 43-64.; Aylwin, N., Matus, T., Forttes, A.,La reinvencion de la memoria,(2004) Indagación sobre el proceso de profesionalizacion del Trabajo Social chileno; Beddoe, L.,Investing in the future: Social workers talk about research,; Braun, V., Clarke, V.,Using thematic analysis in psychology,; Bueno, A. M.,Produccion de conocimiento sobre investigacion en Trabajo Social,(2013) Revista Trabajo Social, 15, pp. 125-141. Cited 2 times.; Cantwell, B., Kauppinen, I.,(2014) Academic Capitalism in Theory and Research. Cited 18 times.,Baltimore, MD, Johns Hopkins University Press; Castaneda, P., Salame, A.,Trabajo social chileno y dictadura militar,(2014) Rumbos TS, 9 (9), pp. 8-25. Cited 5 times.; Castaneda, P., Salame, A.,De la investigacion social a la generacion de conocimientos en trabajo social. Ampliando las Fronteras,(2015) Rumbos TS, 10 (12), pp. 10-19.; (2019) Panorama de investigacion financiada por Conicyt,CONICYT (Comision Nacional de Ciencia y Tecnología) (a) Working Paper 2, Red de Investigadores en Trabajo Social,  15; Coughlan, M., Cronin, P., Ryan, F.,(2013) Doing a Literature Review in Nursing, Health and Social Care. Cited 99 times.,London, SAGE Publications; Danani, C.,Notas sobre el lugar de la investigacion en la formacion y el ejerci-cio profesional,(1994) Revista Universidad Abierta, 2, pp. 1-8.; D'Cruz, H., Jones, M.,(2004) Social Work Research. Ethical and Political Contexts. Cited 104 times.,London, Sage; DeFraia, G.S.,Knowledge Consumption to Knowledge Generation: Traveling the Road of Practitioner-Conducted Research,; Del Villar, M.,(2018) Las Asistentes Sociales de la Vicaría de la Solidaridad. Una his-toria profesional (1973-1983). Cited 9 times.,Santiago, Alberto Hurtado; Efrat, S., Ravid, R.,(2019) Writing the Literature Review: A Practical Guide. Cited 32 times.,New York, NY, Guilford; Erbay, E.,Importance of Research in Social Work Practice: A Pilot Study From Turkey,; Falla, U.,Reflexiones sobre la investigacion social y el Trabajo Social,(2009) Tabula Rasa, 10, pp. 309-325.; Falla, U.,(2014) La investigacion en el trabajo social contemporáneo,Bogota, Colegio Mayor de Cudinamarca; Falla, U.,Investigacion social e intervencion profesional: categorías centrales en la praxis del trabajo social,(2019) Tabula Rasa, 31 (31), pp. 271-288.; Fardella, C., Corvalan, A., Zavala, R.,El academico cuantificado. La ges-tion performativa a traves de los instrumentos de medicion en la ciencia,(2019) Psicología, Conocimiento y Sociedad, 9 (2), pp. 77-103. Cited 9 times.; Figueroa, Y., Chamblas, I., Rubilar, G.,La generacion de conocimiento en Trabajo Social,(2018) Cuadernos Trabajo Social, 31 (2), pp. 407-416.; Forsberg, H., Kuronen, M., Ritala-Koskinen, A.,The Academic Identity and Boundaries of the Discipline of Social Work: Reflections of Social Work Professors on the Recruitment and Research of Doctoral Students in Finland,; Gambrill, E.,Integrating Research and Practice: Distractions, Controversies, and Options for Moving Forward,; Gibbs, A.,The changing nature and context of social work research,; Gonzalez, M.,Los trabajadores sociales quieren andar solos. Reconceptualizacion y Guerra fría, complejidades de la intervencion social,(2013) Trabajo Social, 84, pp. 47-54. Cited 3 times.; Gonzalez, M.,(2010) Historias del trabajo social en Chile 1925-2008. Contribucion Para nuevos relatos. Cited 4 times.,Santiago, Universidad Santo Tomas; Gonzalez, M.,Conocer, luchar, ensenar. Avances pioneros de la investigacion y la produccion intelectual desde el trabajo social,(2016) Trabajo social en Chile. Un siglo de trayectoria. Cited 4 times.; Grassi, E.,Problemas de realismo y teoricismo en la investigacion social y en el Trabajo Social,(2007) Revista Katálysis, 10, pp. 26-36. Cited 3 times.; Gray, M., Sharland, E., Heinsch, M., Schubert, L.,Connecting Research to Action: Perspectives on Research Utilisation,; Heinsch, M., Cribb, A.,'Just Knowledge': Can Social Work's 'Guilty Knowledge' Help Build a More Inclusive Knowledge Society?,; Henríquez, P.,iQue se ensena y como se ensena investigacion en las escuelas de Trabajo Social?,(2016) Trabajo Social, 90, pp. 3-16.; Hernandez, N.,Investigacion en contextos contemporaneos del Trabajo Social, una clave Para las transformaciones complejas,(2014) Trabajo social e Investigacion, pp. 73-82.; Hozven, R., Rubio, V., Munoz, M.,Derivas identitarias en la ley de exclu-sividad universitaria del trabajo social chileno,(2019) Reflexiones, 99 (1), pp. 1-13.; (2014) Global definition of social work. Cited 515 times.,IASSW-IFSW at: (accessed August 6, 2020),https://www.iassw-aiets.org/global-definition-of-social-work-review-of-the-global-definition/; Joubert, L.,Academic-practice partnerships in practice research: A cultural shift for health social workers,; Joubert, L., Hocking, A.,Academic Practitioner Partnerships: A Model for Collaborative Practice Research in Social Work,; Lima, L.,Metodologismo: estallido de una epoca,(1977) Accion Crítica, 2, pp. 15-21. Cited 3 times.; Lizana, R.,(2014) Trabajo social e investigacion,Buenos Aires, Espacio; Lyons, K.,The place of research in social work education,; Macfarlane, B.,The neoliberal academic: Illustrating shifting academic norms in an age of hyper-performativity,; MacIntyre, G., Paul, S.,Teaching research in social work: Capacity and challenge,; Matus, T.,(1993) El dilema de la produccion de conocimientos en trabajo social,Santiago de Chile, IAF; Matus, T.,Propuestas contemporáneas en trabajo social,(1999) Hacia una intervencion polifonica. Cited 3 times.; Miranda, M.,(2003) Pragmatismo, Interaccionismo Simbolico y Trabajo Social. De como la caridad y la filantropía se hicieron científicas. Cited 4 times.,Tarragona, Mira; Molina, L.,(2012) Hacia una Intervencion Profesional Crítica en Trabajo Social,Buenos Aires, Espacio; Moore, P., Robinson, A.,The quantified self: What counts in the neoliberal workplace,; Munoz, G., Hernandez, N., Veliz, C.,La relacion entre investigacion e intervencion social: voces desde el trabajo social chileno,(2017) Journal of Social Intervention Research, 7 (12), pp. 3-24.; Muñoz Arce, G.,The neoliberal turn in Chilean social work: frontline struggles against individualism and fragmentation,; Muñoz Arce, G., Pantazis, C.,Social exclusion, neoliberalism and resistance: The role of social workers in implementing social policies in Chile,; (2014) Codigo de Etica Profesional. Cited 34 times.,National Association of Social Workers Santiago, CTSCH,  57; Nurius, P.S., Kemp, S.P., Köngeter, S., Gehlert, S.,Next generation social work research education: fostering transdisciplinary readiness,; Olssen, M., Peters, M.A.,Neoliberalism, higher education and the knowledge economy: From the free market to knowledge capitalism,; Pain, H.,Practice research: What it is and its place in the social work profession,; Pappe, S., Luna, M.,(2001) Historiografia critica. Una reflexion teorica. Cited 4 times.,Mexico, DF, Unam; Phillips, J., MacGiollaRi, D., Callaghan, S.,Encouraging Research in Social Work: Narrative as the Thread Integrating Education and Research in Social Work,; Poch, A., Villanelo, F.,(2016) Ciencia sin alma: la impronta neoliberal en la investigacion científica chilena,Santiago, Ciper; Ponce, J., Perez, A.,La revitalizacion de la historiografía política chilena,(2014) Polis, 12 (36), pp. 453-476. Cited 7 times.; Powell, J.,The Changing Conditions of Social Work Research,; Powell, J., Orme, J.,Increasing the confidence and competence of social work researchers: What works?,; Quiroz, M.,(1998) Antología del Trabajo Social chileno,Concepcion, Universidad de Concepcion; Reid, W.J.,The Role of Science in Social Work: The Perennial Debate (Open Access),; Ridgway, A.,The past-present dialectic: A new methodological tool for seeing the historical dynamic in cultural-historical research,(2015) Visual Methodologies and Digital Tools for Researching with Young Children; Rolando, R., Salamanca, J., Aliaga, M.,(2010) Evolucion de la Matrícula Educacion Superior de Chile, periodo 1990-2009. Cited 14 times.,Informe SIES, Santiago, Mineduc; Rubilar, G.,Como hacen investigacion los trabajadores sociales? Una primera aproximacion a las experiencias de investigacion de profesionales chilenos,(2009) Revista de Trabajo Social, 76, pp. 17-34. Cited 4 times.; Rubilar, G.,Social work research techniques, testimonies, and analysis: A narrative-biographical approach,(2013) Forum Qualitative Sozialforschung/Forum: Qualitative Social Research, 14 (2), p. 2. Cited 3 times.; Donoso, G.R.,Practices of memory and the construction of research testimonies. A methodological reflection about self-interviewing, testimonies, and social workers’ accounts of their research,; Ruz, O.,Reorientacion y Reconceptualizacion del trabajo social en Chile,(2016) Trabajo Social en Chile. Un siglo de trayectoria. Cited 2 times.; Salmi, J.,(2009) The Challenge of Establishing World-class Universities. Cited 609 times.,Washington, D.C., The World Bank; Saravia, F.,La formacion de los trabajadores sociales en Chile: un asunto de oferta y demanda?,(2015) Cuadernos de Trabajo Social, 28 (1), pp. 69-81. Cited 4 times.; Sepú lveda, L.,Algunas reflexiones sobre el ejercicio profesional durante la dic-tadura militar,(2016) Trabajo Social en Chile. Un siglo de trayectoria; Shaw, I.,Practitioner research: Evidence or critique? (Open Access),; Shaw, I.F., Arksey, H., Mullender, A.,Recognizing social work,; Teater, B.,Social Work Research and Its Relevance to Practice: “The Gap Between Research and Practice Continues to be Wide”,</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -5942,11 +5602,6 @@
       <c r="O69" t="inlineStr">
         <is>
           <t>10.1093/bjsw/bcaa132</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>Chile</t>
         </is>
       </c>
     </row>
@@ -5991,7 +5646,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Alexy, R.,(1993) Centro de Estudios Constitucionales,  2; Thury Cornejo, V.,Judicial injunctions and the new role of judges in the formulation of public policies (Open Access),; Del Ecuador, A. C.,Constitución de la República del Ecuador. Quito: Tribunal Constitucional del Ecuador,(2008) Registro oficial Nro, 449, pp. 79-93. Cited 10 times.; Fonseca, B.B., Mar Cornelio, O., Pupo, I.P.,Linguistic Summarization of Data in Decision-Making on Performance Evaluation,; García, E. O.,El régimen de los cementerios públicos: tras la dicotomía entre lo público y lo privado,(2019) Misión Jurídica, 12 (17).; Gordillo, A.,(1975) Tratado de derecho administrativo-Tomo, 2.,1): Agustín Gordillo; Giner Inchausti, B.,Institutions and conflicts of interests in the international accounting regulation: The Spanish financial industry case (Open Access),; Ricardo, J.E., Rosado, Z.M.M., Pataron, E.K.C., Vargas, V.Y.V.,Measuring Legal and Socioeconomic Effect of the Declared Debtors Usign The AHP Technique in a Neutrosophic Framework,; Leyva-Vázquez, M., Pérez-Teruel, K., John, R.I.,A model for enterprise architecture scenario analysis based on fuzzy cognitive maps and OWA operators,; Leyva-Vázquez, M., Quiroz-Martínez, M.A., Portilla-Castell, Y., Hechavarría-Hernández, J.R., González-Caballero, E.,A New Model for the Selection of Information Technology Project in a Neutrosophic Environment,; Marienhoff, M.,Tratado de derecho administrativo,(1974) Revista de Derecho Público, (16), pp. 171-182. Cited 2 times.; Porras-Povedano, M., Santacruz-Hamer, V., Muñoz-Collado, E., Ramírez-Pulido, R.,Ethical aspects of specific precautions programs in patients infected or colonised by multidrug-resistant microorganisms in a hospital setting,; Ricardo, J.E., Menéndez, J.J.D., Arias, I.F.B., Bermúdez, J.M.M., Lemus, N.M.,Neutrosophic K-means for the analysis of earthquake data in Ecuador,; Solís, J. I. C.,Las normas de responsabilidad social. Su dimensión en el ámbito laboral de las empresas,(2015) Revista latinoamericana de derecho social, 20, pp. 3-29. Cited 12 times.; Tapia, R.A.H.,The right to an administrative due process in the general administrative procedure act of Peru (Open Access),; Vázquez, M. L., Estupiñan, J., Smarandache, F.,Neutrosofía en Latinoamérica, avances y perspectivas,(2020) Revista Asociación Latinoamericana de Ciencias Neutrosóficas, 14, pp. 01-08. Cited 16 times.</t>
+          <t>Alexy, R.,(1993) Centro de Estudios Constitucionales,  2; Thury Cornejo, V.,Judicial injunctions and the new role of judges in the formulation of public policies,; Del Ecuador, A. C.,Constitución de la República del Ecuador. Quito: Tribunal Constitucional del Ecuador,(2008) Registro oficial Nro, 449, pp. 79-93. Cited 10 times.; Fonseca, B.B., Mar Cornelio, O., Pupo, I.P.,Linguistic Summarization of Data in Decision-Making on Performance Evaluation,; García, E. O.,El régimen de los cementerios públicos: tras la dicotomía entre lo público y lo privado,(2019) Misión Jurídica, 12 (17).; Gordillo, A.,(1975) Tratado de derecho administrativo-Tomo, 2.,1): Agustín Gordillo; Giner Inchausti, B.,Institutions and conflicts of interests in the international accounting regulation: The Spanish financial industry case (Open Access),; Ricardo, J.E., Rosado, Z.M.M., Pataron, E.K.C., Vargas, V.Y.V.,Measuring Legal and Socioeconomic Effect of the Declared Debtors Usign The AHP Technique in a Neutrosophic Framework,; Leyva-Vázquez, M., Pérez-Teruel, K., John, R.I.,A model for enterprise architecture scenario analysis based on fuzzy cognitive maps and OWA operators,; Leyva-Vázquez, M., Quiroz-Martínez, M.A., Portilla-Castell, Y., Hechavarría-Hernández, J.R., González-Caballero, E.,A New Model for the Selection of Information Technology Project in a Neutrosophic Environment (Open Access),; Marienhoff, M.,Tratado de derecho administrativo,(1974) Revista de Derecho Público, (16), pp. 171-182. Cited 2 times.; Porras-Povedano, M., Santacruz-Hamer, V., Muñoz-Collado, E., Ramírez-Pulido, R.,Ethical aspects of specific precautions programs in patients infected or colonised by multidrug-resistant microorganisms in a hospital setting (Open Access),; Ricardo, J.E., Menéndez, J.J.D., Arias, I.F.B., Bermúdez, J.M.M., Lemus, N.M.,Neutrosophic K-means for the analysis of earthquake data in Ecuador,; Solís, J. I. C.,Las normas de responsabilidad social. Su dimensión en el ámbito laboral de las empresas,(2015) Revista latinoamericana de derecho social, 20, pp. 3-29. Cited 12 times.; Tapia, R.A.H.,The right to an administrative due process in the general administrative procedure act of Peru,; Vázquez, M. L., Estupiñan, J., Smarandache, F.,Neutrosofía en Latinoamérica, avances y perspectivas,(2020) Revista Asociación Latinoamericana de Ciencias Neutrosóficas, 14, pp. 01-08. Cited 16 times.</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -6022,11 +5677,6 @@
       <c r="O70" t="inlineStr">
         <is>
           <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85118350069&amp;partnerID=40&amp;md5=8708e0edc4f640ce261151c757a72743</t>
-        </is>
-      </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
         </is>
       </c>
     </row>
@@ -6071,7 +5721,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Cacho-Elizondo, S., Álvarez, J.-D.L., Garcia, V.-E.,The emerging esport market: Analyzing the impact of virtual and augmented reality,(2020) Chin. Bus. Rev, 19, pp. 37-54. Cited 3 times.; Newzoo Global Esports &amp; Live Streaming Market Report. Cited 4 times.,(accessed on 9 March 2021),https://newzoo.com/insights/trend-reports/newzoos-global-esports-live-streaming-market-report-2021-free-version/; Kelly, S.J., Van der Leij, D.,A new frontier: alcohol sponsorship activation through esports,; Hamari, J., Sjöblom, M.,What is eSports and why do people watch it? (Open Access),; Cranmer, E.E., Han, D.-I.D., van Gisbergen, M., Jung, T.,Esports matrix: Structuring the esports research agenda (Open Access),; Finch, D.J., O’Reilly, N., Abeza, G., Clark, B., Legg, D.,(2020) Implications and Impacts of eSports on Business and Society. Cited 5 times.,1st ed.; Advances in E-Business Research; IGI Global: Hershey, PA, SUA, ISBN: 9781799815389; Merwin, C., Masura, S., Piyush, M., Toschiya, H., Terry, H., Alexander, D.,The World of Games: eSports: From Wild West to Mainstream,(accessed on 18 March 2021); Lee, D., Schoenstedt, L.J.,Comparison of eSports and traditional sports consumption motives, ICHPER-SD,(2011) ICHPER-SD J. Res, 6, pp. 39-44. Cited 109 times.; It’s Game on for eSports in Education,CDW.com. (accessed on 20 January 2021),https://cdw-prod.adobecqms.net/content/dam/cdw/on-domain-cdw/tech-solutions-library/electronics/mkt38244-esports-wp.pdf; Tjønndal, A., Skauge, M.,Youth sport 2.0? The development of eSports in Norway from 2016 to 2019,; GGTech Entertainment Arranca su Expansión en América Latina con Delegaciones en México y Argentina,Esports Bureau. (accessed on 21 June 2020),https://esportsbureau.com/ggtech-entertainment-expansion-en-america-latina/; Brady, M., Fellenz, M.R., Brookes, R.,Researching the role of information and communications technology (ICT) in contemporary marketing practices,; Chen, H., Chiang, R.H.L., Storey, V.C.,Business intelligence and analytics: From big data to big impact (Open Access),; Davenport, T.H.,Analytics 3.0,; Stone, M.D., Woodcock, N.D.,Interactive, direct and digital marketing: A future that depends on better use of business intelligence,; Fisher, T.,ROI in social media: A look at the arguments (Open Access),; Leskovec, J., Rajaraman, A., Ullman, J.D.,(2020) Mining of Massive Datasets. Cited 478 times.,3rd ed.; Cambridge University Press: Cambridge, UK, ISBN: 9781108476348; Encuesta de Población Activa. Últimos Datos. Cited 395 times.,INE. (accessed on 1 May 2021),https://www.ine.es/dyngs/INEbase/es/operacion.htm?c=Estadistica_C&amp;cid=1254736176918&amp;menu=ultiDatos&amp;idp=1254735976595; Chaves, F.Q.,The springboard network: multinationals in Latin America,; Villar, C., Pla-Barber, J., Domingo, L.S., Madhok, A.,How can multinationals improve inter-regional expansion? The case of springboard subsidiaries for Latin America,; Prabhudesai, R.S., Prasad, C.V.V.S.N.V., Ang, B.C.,Exploring Emerging Latin America: Implications for German Companies Using Spain as a Springboard Country,; Arzubiaga, U., Castillo-Apraiz, J., Palma-Ruiz, J.M.,Organisational learning as a mediator in the host-home country similarity–international firm performance link: the role of exploration and exploitation,; Pla-Barber, J., Camps, J.,Springboarding: A new geographical landscape for European foreign investment in Latin America,; Magomedova, N., Achcaoucaou, F., Miravitlles, P.,Chapter 20: Reducing psychic distance through springboard subsidiaries: An exploratory case study,; García, F.,Riot Games y GGTech Latam Anuncian UNIVERSITY Esports e IESports para Estudiantes de Latinoamérica,(accessed on 15 October 2020); 17 National Teams to Participate in Inaugural FIBA Esports Open 2020,FIBA Basketball. (accessed on 12 June 2020),https://www.fiba.basketball/news/17-national-teams-to-participate-in-inaugural-fiba-esports-open-2020; Fiore, R., Zampaglione, D., Murazzi, E., Bucchieri, F., Cappello, F., Fucarino, A.,The eSports conundrum: Is the sports sciences community ready to face them? A perspective,; Block, F., Hodge, V., Hobson, S., Sephton, N., Devlin, S., Ursu, M.F., Drachen, A., (...), Cowling, P.I.,Narrative bytes: Data-driven content production in esports (Open Access),; Qian, T.Y., Wang, J.J., Zhang, J.J., Lu, L.Z.,It is in the game: dimensions of esports online spectator motivation and development of a scale,; Qian, T.Y., Zhang, J.J., Wang, J.J., Hulland, J.,Beyond the Game: Dimensions of Esports Online Spectator Demand,; Howard, M.J.,(2018) Esport: Professional League of Legends as a Cultural History. Cited 2 times.,Master’s Thesis, University of Houston, Houston, TX, USA; Chikish, Y., Carreras, M., García, J.,eSports: ¿Una nueva era para el sector del deporte y un nuevo impulso a la investigación sobre Economía del Deporte?,(2019) Pap. Econ. Española, 159, pp. 294-313.; Holden, J.T., Rodenberg, R.M., Kaburakis, A.,Esports corruption: Gambling, doping, and global governance,(2017) Maryl. J. Int. Law, 32, pp. 236-273. Cited 41 times.; Saiz-Álvarez, J.M.,(2004) Economía Audiovisual. Claves para la Venta y Distribución de Una Película,Libros en Red: Buenos Aires, Argentina; Pérez-Pérez, M., López-Férnandez, M.C., Obeso, M.,Knowledge, renewal and flexibility: Exploratory research in family firms (Open Access),; Serrano-Bedia, A.M., López-Fernández, M.C., Garcia-Piqueres, G.,Analysis of the relationship between sources of knowledge and innovation performance in family firms,; Alavi, M., Leidner, D.E.,Review: Knowledge management and knowledge management systems: Conceptual foundations and research issues,; Donate, M.J., Sánchez de Pablo, J.D.,The role of knowledge-oriented leadership in knowledge management practices and innovation,; García-Piqueres, G., Serrano-Bedia, A.-M., Pérez-Pérez, M.,Knowledge management practices and innovation outcomes: The moderating role of risk-taking and proactiveness (Open Access),; Nonaka, I., Von Krogh, G., Voelpel, S.,Organizational knowledge creation theory: Evolutionary paths and future advances,; Barros-Contreras, I., Palma-Ruiz, J.M.,Knowledge Accumulation and Its Effects on Organizational Effectiveness in Family Firms,; Barros-Contreras, I., Palma-Ruiz, J.M., Torres-Toukoumidis, A.,Organizational capabilities for family firm sustainability: The role of knowledge accumulation and family essence (Open Access),; Raisch, S., Birkinshaw, J.,Organizational ambidexterity: Antecedents, outcomes, and moderators,; La Industria del Videojuego en España,AEVI. (accessed on 12 February 2021),http://www.eldiario.es/juegoreviews/noticias/industria-videojuego-Espana-crecido-ano-pasado_0_369563649.html; Vasilyeva, O.A.,Influence of Digitalization on Cognitive and Social Orientations of Generation Z,; López Peláez, A., Erro-Garcés, A., Gómez-Ciriano, E.J.,Young people, social workers and social work education: the role of digital skills (Open Access),; Kravchenko, S.A.,Digital risks, metamorphoses and centrifugal trends among the young people,; Telefónica, S.A.,Telefónica Promotes eSports Talents in Spain with the Creation of the Movistar Riders Academy,(accessed on 18 March 2021); Hennings, N.,Everything You Need to Know about eSports. Cited 36 times.,(accessed on 1 July 2021); Valentin, E.K.,Swot analysis from a resource-based view,(2001) J. Mark. Theory Pract, 9, pp. 54-69. Cited 117 times.; Maymin, P.Z.,Smart kills and worthless deaths: ESports analytics for League of Legends (Open Access),; Ohno, S.,The Link Between Battle Royale Games and Aggressive Feelings, Addiction, and Sense of Underachievement: Exploring eSports-Related Genres,; Dickmeis, A., Roe, K.,Genres matter: Video games as predictors of physical aggression among adolescents (Open Access),; Cho, H., Lee, S.-K., Choi, J.-S., Choi, S.-W., Kim, D.-J.,An exploratory study on association between Internet game contents and aggression in Korean adolescents,; Chung, T., Sum, S., Chan, M., Lai, E., Cheng, N.,Will esports result in a higher prevalence of problematic gaming? A review of the global situation (Open Access),; Zhao, Y., Zhu, Y.,Identity transformation, stigma power, and mental wellbeing of Chinese eSports professional players (Open Access),; Saiz-Álvarez, J.M., Palma-Ruiz, J.M.,Entrepreneurship in the Solidarity Economy: A Valuation of Models Based on the Quadruple Helix and Civil Society,; Palma-Ruiz, J.M., Castillo-Apraiz, J., Gómez-Martínez, R.,Socially responsible investing as a competitive strategy for trading companies in times of upheaval amid covid-19: Evidence from spain (Open Access),; Chávez, G.,El Mercado Negro del Gaming Suma ya 1.000 Millones de Dólares,(accessed on 31 Augst 2020); Conroy, E., Kowal, M., Toth, A.J., Campbell, M.J.,Boosting: Rank and skill deception in esports (Open Access),; Romeijn, O.,Games Market Estimates Methodology. Cited 2 times.,(accessed on 3 June 2021); Jenny, S.E., Manning, R.D., Keiper, M.C., Olrich, T.W.,Virtual(ly) Athletes: Where eSports Fit Within the Definition of “Sport”,; Lu, B., Fa, H., Yang, Y.,Beijing E-Sports industry development based on SWOT analysis,(2010) Proceedings of the International Innovation Design and Management Forum, pp. 105-109. Cited 2 times.; Miroff, M.,Tiebreaker: An antitrust analysis of eSports,; Kim, Y.H., Nauright, J., Suveatwatanakul, C.,The rise of E-Sports and potential for Post-COVID continued growth (Open Access),</t>
+          <t>Cacho-Elizondo, S., Álvarez, J.-D.L., Garcia, V.-E.,The emerging esport market: Analyzing the impact of virtual and augmented reality,(2020) Chin. Bus. Rev, 19, pp. 37-54. Cited 3 times.; Newzoo Global Esports &amp; Live Streaming Market Report. Cited 4 times.,(accessed on 9 March 2021),https://newzoo.com/insights/trend-reports/newzoos-global-esports-live-streaming-market-report-2021-free-version/; Kelly, S.J., Van der Leij, D.,A new frontier: alcohol sponsorship activation through esports,; Hamari, J., Sjöblom, M.,What is eSports and why do people watch it?,; Cranmer, E.E., Han, D.-I.D., van Gisbergen, M., Jung, T.,Esports matrix: Structuring the esports research agenda,; Finch, D.J., O’Reilly, N., Abeza, G., Clark, B., Legg, D.,(2020) Implications and Impacts of eSports on Business and Society. Cited 5 times.,1st ed.; Advances in E-Business Research; IGI Global: Hershey, PA, SUA, ISBN: 9781799815389; Merwin, C., Masura, S., Piyush, M., Toschiya, H., Terry, H., Alexander, D.,The World of Games: eSports: From Wild West to Mainstream,(accessed on 18 March 2021); Lee, D., Schoenstedt, L.J.,Comparison of eSports and traditional sports consumption motives, ICHPER-SD,(2011) ICHPER-SD J. Res, 6, pp. 39-44. Cited 111 times.; It’s Game on for eSports in Education,CDW.com. (accessed on 20 January 2021),https://cdw-prod.adobecqms.net/content/dam/cdw/on-domain-cdw/tech-solutions-library/electronics/mkt38244-esports-wp.pdf; Tjønndal, A., Skauge, M.,Youth sport 2.0? The development of eSports in Norway from 2016 to 2019,; GGTech Entertainment Arranca su Expansión en América Latina con Delegaciones en México y Argentina,Esports Bureau. (accessed on 21 June 2020),https://esportsbureau.com/ggtech-entertainment-expansion-en-america-latina/; Brady, M., Fellenz, M.R., Brookes, R.,Researching the role of information and communications technology (ICT) in contemporary marketing practices,; Chen, H., Chiang, R.H.L., Storey, V.C.,Business intelligence and analytics: From big data to big impact,; Davenport, T.H.,Analytics 3.0,; Stone, M.D., Woodcock, N.D.,Interactive, direct and digital marketing: A future that depends on better use of business intelligence,; Fisher, T.,ROI in social media: A look at the arguments,; Leskovec, J., Rajaraman, A., Ullman, J.D.,(2020) Mining of Massive Datasets. Cited 483 times.,3rd ed.; Cambridge University Press: Cambridge, UK, ISBN: 9781108476348; Encuesta de Población Activa. Últimos Datos. Cited 395 times.,INE. (accessed on 1 May 2021),https://www.ine.es/dyngs/INEbase/es/operacion.htm?c=Estadistica_C&amp;cid=1254736176918&amp;menu=ultiDatos&amp;idp=1254735976595; Chaves, F.Q.,The springboard network: multinationals in Latin America,; Villar, C., Pla-Barber, J., Domingo, L.S., Madhok, A.,How can multinationals improve inter-regional expansion? The case of springboard subsidiaries for Latin America,; Prabhudesai, R.S., Prasad, C.V.V.S.N.V., Ang, B.C.,Exploring Emerging Latin America: Implications for German Companies Using Spain as a Springboard Country,; Arzubiaga, U., Castillo-Apraiz, J., Palma-Ruiz, J.M.,Organisational learning as a mediator in the host-home country similarity–international firm performance link: the role of exploration and exploitation,; Pla-Barber, J., Camps, J.,Springboarding: A new geographical landscape for European foreign investment in Latin America,; Magomedova, N., Achcaoucaou, F., Miravitlles, P.,Chapter 20: Reducing psychic distance through springboard subsidiaries: An exploratory case study,; García, F.,Riot Games y GGTech Latam Anuncian UNIVERSITY Esports e IESports para Estudiantes de Latinoamérica,(accessed on 15 October 2020); 17 National Teams to Participate in Inaugural FIBA Esports Open 2020,FIBA Basketball. (accessed on 12 June 2020),https://www.fiba.basketball/news/17-national-teams-to-participate-in-inaugural-fiba-esports-open-2020; Fiore, R., Zampaglione, D., Murazzi, E., Bucchieri, F., Cappello, F., Fucarino, A.,The eSports conundrum: Is the sports sciences community ready to face them? A perspective (Open Access),; Block, F., Hodge, V., Hobson, S., Sephton, N., Devlin, S., Ursu, M.F., Drachen, A., (...), Cowling, P.I.,Narrative bytes: Data-driven content production in esports,; Qian, T.Y., Wang, J.J., Zhang, J.J., Lu, L.Z.,It is in the game: dimensions of esports online spectator motivation and development of a scale,; Qian, T.Y., Zhang, J.J., Wang, J.J., Hulland, J.,Beyond the Game: Dimensions of Esports Online Spectator Demand,; Howard, M.J.,(2018) Esport: Professional League of Legends as a Cultural History. Cited 2 times.,Master’s Thesis, University of Houston, Houston, TX, USA; Chikish, Y., Carreras, M., García, J.,eSports: ¿Una nueva era para el sector del deporte y un nuevo impulso a la investigación sobre Economía del Deporte?,(2019) Pap. Econ. Española, 159, pp. 294-313.; Holden, J.T., Rodenberg, R.M., Kaburakis, A.,Esports corruption: Gambling, doping, and global governance,(2017) Maryl. J. Int. Law, 32, pp. 236-273. Cited 41 times.; Saiz-Álvarez, J.M.,(2004) Economía Audiovisual. Claves para la Venta y Distribución de Una Película,Libros en Red: Buenos Aires, Argentina; Pérez-Pérez, M., López-Férnandez, M.C., Obeso, M.,Knowledge, renewal and flexibility: Exploratory research in family firms,; Serrano-Bedia, A.M., López-Fernández, M.C., Garcia-Piqueres, G.,Analysis of the relationship between sources of knowledge and innovation performance in family firms (Open Access),; Alavi, M., Leidner, D.E.,Review: Knowledge management and knowledge management systems: Conceptual foundations and research issues,; Donate, M.J., Sánchez de Pablo, J.D.,The role of knowledge-oriented leadership in knowledge management practices and innovation,; García-Piqueres, G., Serrano-Bedia, A.-M., Pérez-Pérez, M.,Knowledge management practices and innovation outcomes: The moderating role of risk-taking and proactiveness (Open Access),; Nonaka, I., Von Krogh, G., Voelpel, S.,Organizational knowledge creation theory: Evolutionary paths and future advances,; Barros-Contreras, I., Palma-Ruiz, J.M.,Knowledge Accumulation and Its Effects on Organizational Effectiveness in Family Firms,; Barros-Contreras, I., Palma-Ruiz, J.M., Torres-Toukoumidis, A.,Organizational capabilities for family firm sustainability: The role of knowledge accumulation and family essence,; Raisch, S., Birkinshaw, J.,Organizational ambidexterity: Antecedents, outcomes, and moderators,; La Industria del Videojuego en España,AEVI. (accessed on 12 February 2021),http://www.eldiario.es/juegoreviews/noticias/industria-videojuego-Espana-crecido-ano-pasado_0_369563649.html; Vasilyeva, O.A.,Influence of Digitalization on Cognitive and Social Orientations of Generation Z (Open Access),; López Peláez, A., Erro-Garcés, A., Gómez-Ciriano, E.J.,Young people, social workers and social work education: the role of digital skills (Open Access),; Kravchenko, S.A.,Digital risks, metamorphoses and centrifugal trends among the young people,; Telefónica, S.A.,Telefónica Promotes eSports Talents in Spain with the Creation of the Movistar Riders Academy,(accessed on 18 March 2021); Hennings, N.,Everything You Need to Know about eSports. Cited 36 times.,(accessed on 1 July 2021); Valentin, E.K.,Swot analysis from a resource-based view,(2001) J. Mark. Theory Pract, 9, pp. 54-69. Cited 118 times.; Maymin, P.Z.,Smart kills and worthless deaths: ESports analytics for League of Legends (Open Access),; Ohno, S.,The Link Between Battle Royale Games and Aggressive Feelings, Addiction, and Sense of Underachievement: Exploring eSports-Related Genres,; Dickmeis, A., Roe, K.,Genres matter: Video games as predictors of physical aggression among adolescents,; Cho, H., Lee, S.-K., Choi, J.-S., Choi, S.-W., Kim, D.-J.,An exploratory study on association between Internet game contents and aggression in Korean adolescents,; Chung, T., Sum, S., Chan, M., Lai, E., Cheng, N.,Will esports result in a higher prevalence of problematic gaming? A review of the global situation (Open Access),; Zhao, Y., Zhu, Y.,Identity transformation, stigma power, and mental wellbeing of Chinese eSports professional players,; Saiz-Álvarez, J.M., Palma-Ruiz, J.M.,Entrepreneurship in the Solidarity Economy: A Valuation of Models Based on the Quadruple Helix and Civil Society,; Palma-Ruiz, J.M., Castillo-Apraiz, J., Gómez-Martínez, R.,Socially responsible investing as a competitive strategy for trading companies in times of upheaval amid covid-19: Evidence from spain,; Chávez, G.,El Mercado Negro del Gaming Suma ya 1.000 Millones de Dólares,(accessed on 31 Augst 2020); Conroy, E., Kowal, M., Toth, A.J., Campbell, M.J.,Boosting: Rank and skill deception in esports (Open Access),; Romeijn, O.,Games Market Estimates Methodology. Cited 2 times.,(accessed on 3 June 2021); Jenny, S.E., Manning, R.D., Keiper, M.C., Olrich, T.W.,Virtual(ly) Athletes: Where eSports Fit Within the Definition of “Sport” (Open Access),; Lu, B., Fa, H., Yang, Y.,Beijing E-Sports industry development based on SWOT analysis,(2010) Proceedings of the International Innovation Design and Management Forum, pp. 105-109. Cited 2 times.; Miroff, M.,Tiebreaker: An antitrust analysis of eSports (Open Access),; Kim, Y.H., Nauright, J., Suveatwatanakul, C.,The rise of E-Sports and potential for Post-COVID continued growth (Open Access),</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -6102,11 +5752,6 @@
       <c r="O71" t="inlineStr">
         <is>
           <t>10.3390/su131910890</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>Varios Paises</t>
         </is>
       </c>
     </row>
@@ -6151,7 +5796,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Akrich, Madelaine,(1992) The D-Scrption of Technical Objects. Shaping technology/building society. Cited 28 times.,Cambridge MA: MIT Press; Akrich, Madeleine, Callon, Michel, Latour, Bruno, Monaghan, Adrian,The key to success in innovation part II: The art of choosing good spokespersons,(2002) International journal of innovation management, 6 (2), pp. 207-225. Cited 424 times.; Akrich, Madelaine, Latour, Bruno,A summary of a convenient vocabulary for the semiotics of human and non-human assemblies,(1992) Shaping Technology/ Building Society. Cited 633 times.; Appel, Hannah, Anand, Nikhil, Gupta, Akhil,(2018) The Promise of Infrastructure. Cited 425 times.,Durham: Duke University Press; Arancibia, Patricia, Balart, Rodrigo,(2007) Sergio de Castro: El arquitecto del modelo económico chileno. Cited 12 times.,Editorial Biblioteca Americana; Barry, A.,Material Politics: Disputes Along the Pipeline,; Best, Steven,(1995) The Politics of Historical Vision Marx, Foucault, Habermas. Cited 73 times.,Nueva York: Guilford; Bridge, G., Özkaynak, B., Turhan, E.,Energy infrastructure and the fate of the nation: Introduction to special issue (Open Access),; Bowker, Geoffrey, Star, Susan,(2000) Sorting things out: Classification and its consequences. Cited 5943 times.,Cambridge, MA: MIT Press; Callon, Michel,An essay on framing and overflowing: economic externalities revisited by sociology,(1998) The Sociological Review, 46, pp. 244-269. Cited 687 times.; Cass, N., Shove, E.,Standards? Whose standards? (Open Access),; Broto, V.C.,Energy landscapes and urban trajectories towards sustainability (Open Access),; Cavallo, Ascanio, Sepúlveda, Oscar, Salazar, Manuel,(1989) La Historia Oculta del Régimen Militar: Chile 1973-1988. Cited 96 times.,Santiago: Editorial Antártica; (1992) El Ladrillo: bases de la política económica del gobierno militar chileno. Cited 63 times.,Centro de Estudios Públicos Santiago, Chile: Centro de Estudios Públicos,  15; Dean, M.,Rethinking neoliberalism,; Dewey, John,(1991) The Public and Its Problems. Cited 4149 times.,Athens, OH: Swallow Press/Ohio University Press; Estache, Antonio, Martimort, David,Transaction costs, politics, regulatory institutions and regulatory outcomes,(2000) Regulatory Policy in Latin America: Post-Privatization Realities, pp. 49-82. Cited 10 times.; Graham, Steve, Marvin, Simon,(2001) Splintering Urbanism: Networked Infrastructures, Technological Mobilities, and the Urban Condition. Cited 3181 times.,London, New York: Routledge; Farías, I.,Urban assemblages: ANT and the examination of the city (Open Access),; Fischer, Karin,The Influence of Neoliberals in Chile before, during, and after Pinochet,(2009) The road from Mont Pèlerin: The making of the neoliberal thought collective, with a new preface. Cited 107 times.; Fischer, Ronald, Serra, Pablo,(2007) Efectos de la privatización de servicios públicos en Chile. Cited 7 times.,Washington DC: Banco Interamericano de Desarrollo; Flyvbjerg, Bent, Murillo, Lorena,Habermas y Foucault: ¿pensadores de la sociedad civil?,(2019) Estudios Sociológicos, 19 (56), pp. 295-324.; Foucault, Michel,(1977) Language, Counter-Memory, Practice. Cited 2316 times.,Ithaca, NY: Cornell University Press; Ffrench-Davis, Ricardo,Entre el neoliberalismo y el crecimiento con equidad,(2003) Tres décadas de política económica en Chile. Cited 137 times.; Gárate, Manuel,(2012) La revolución capitalista de Chile (1973-2003). Cited 156 times.,Santiago: Ediciones Universidad Alberto Hurtado; Harvey, Penny, Knox, Hannah,(2015) Roads: An anthropology of infrastructure and expertise. Cited 296 times.,Ithaca, NY: Cornell University Press; Hetherington, K., Campbell, J.M.,Nature, infrastructure, and the state: Rethinking development in Latin America (Open Access),; Humeres, Mónica,(2020) Usuario modelo: un análisis sociotécnico del lugar de los usuarios en las políticas de la infraestructura eléctrica en Chile (1935-2019). Cited 2 times.,[Tesis Doctoral inédita]. Universidad Alberto Hurtado, Santiago; Kaltenbrunner, A., Painceira, J.P.,Subordinated Financial Integration and Financialisation in Emerging Capitalist Economies: The Brazilian Experience (Open Access),; Kingfisher, Catherine,(2016) A policy travelogue: Tracing Welfare reform in Aotearoa/New Zealand and Canada. Cited 9 times.,Nueva York: Berghahn; Klein, Naomi, Fuentes, Isabel,(2007) La doctrina del shock: el auge del capitalismo del desastre, 1.,Barcelona: Paidós; Kreimer, Pablo,¿Dependientes o integrados? La ciencia latinoamericana y la nueva división internacional del trabajo,(2006) Nómadas, 24, pp. 199-212. Cited 55 times.; Lüders, Rolf,(2012) ,21 de diciembre de Roberto Kelly y los Chicago Boys, La Tercera; Maldonado, Pedro, Palma, Rodrigo,(2004) Seguridad y calidad del abastecimiento eléctrico a más de 10 años de la reforma de la industria eléctrica en países de América del Sur. Cited 5 times.,Santiago: CEPAL; Maillet, A., Bugueño, J.R.,Hybridization of neoliberal policies.The case of Chilean electric policy (2014-2016) (Open Access),; Marres, Noortje,Issues Spark a Public into Being: A Key but Often Forgotten Point of the Lippmann Dewey Debate,(2005) Making Things Public, pp. 208-217. Cited 198 times.; Nail, Thomas,(2015) The figure of the migrant. Cited 264 times.,Stanford: Stanford University Press; Otaegui, Álvaro,(2017) Formateando el mercado [eléctrico] en Chile. Genealogía del proceso de (des)enmarcación energética en tiempos del neoliberalismo (1976-1978),Núcleo Milenio de Investigación en Energía y Sociedad. Disponible en: [actualizada el 19 de agosto del 2018; citada el 09 de septiembre 2021]; Oudshoorn, N., Saetnan, A.R., Lie, M.,On gender and things: Reflections on an exhibition on gendered artifacts,; Oudshoorn, Nelly, Pinch, Trevor,(2003) How users matter. The co-construction of users and technology. Cited 1077 times.,Cambridge, Massachusetts: MIT Press; Palma, Daniel,Ladrones, policías y orden callejero en Santiago de Chile, 1896-1924,(2019) Anuario Colombiano de Historia Social y de la Cultura, 46 (2), pp. 59-86. Cited 2 times.; Paredes-Molina, Ricado,(1995) El sector eléctrico y el mercado de capitales en Chile. Cited 2 times.,CEPAL; Pírez, P.,Urbanization and urban services policy in Latin America (Open Access),; Plehwe, Dieter,Introduction,(2009) The Road from Mont Pèlerin. The Making of the Neoliberal Thought Collective, pp. 1-34. Cited 152 times.; Rudnick, Hugh, Palma, Rodrigo,Contexto nacional e internacional en marzo de 2014,(2017) Revolución energética en Chile, pp. 19-41. Cited 3 times.; Sánchez-Criado, Tomas,¿Cómo se mantiene una usuaria? Prácticas de apuntalamiento en la teleasistencia para personas mayores,(2012) Teoría del Actor-Red: Más allá de los estudios de ciencia y tecnología, pp. 111-156.; Sánchez-Criado, Tomas,Pensar infraestructuralmente,(2016) INMATERIAL. Diseño, Arte y Sociedad, 1 (1), pp. 85-98.; Savage, G.C.,What is policy assemblage? (Open Access),; Savage, G.C., Lewis, S.,The phantom national? Assembling national teaching standards in Australia’s federal system (Open Access),; Star, S.L.,The ethnography of infrastructure,; Star, S.L., Ruhleder, K.,Steps Toward an Ecology of Infrastructure: Design and Access for Large Information Spaces (Open Access),; Star, Susan, Bowker, Geoffrey,How to infrastructure,(2006) Handbook of new media: Social shaping and social consequences of ICTs, pp. 151-162. Cited 194 times.; Tampio, N.,Assemblages and the multitude: Deleuze, Hardt, Negri, and the postmodern left,; Tironi, M., Barandiarán, J.,Neoliberalism as political technology: Expertise, energy, and democracy in Chile,; Undurraga, Tomás,(2014) Divergencias: trayectorias del neoliberalismo en Argentina y Chile. Cited 22 times.,Santiago: Ediciones Universidad Diego Portales; Ureta, S.,Policy assemblages: proposing an alternative conceptual framework to study public action,; Valdés, Juan-Gabriel,(1995) Pinochet’s Economists: The Chicago School in Chile. Cited 364 times.,Cambridge, Inglaterra, Nueva York: Cambridge University Press; Van Oost, Elizabeth,Materialized gender: how shavers configure the users’ feminity and masculinity,(2003) How users matter. The co-construction of users and technology, pp. 193-208. Cited 86 times.; Varsavsky, Oscar,(1969) Ciencia, política, cientificismo. Cited 73 times.,Buenos Aires: Centro Editor de América Latina; Velho, R., Ureta, S.,Frail modernities: Latin American infrastructures between repair and ruination (Open Access),; Venkatesan, S., Bear, L., Harvey, P., Lazar, S., Rival, L., Simone, A.,Attention to infrastructure offers a welcome reconfiguration of anthropological approaches to the political (Open Access),; Shore, C., Wright, S.,Introduction: Conceptualising policy: Technologies of governance and the politics of visibility,; Wilkie, A., Michael, M.,Expectation and mobilisation: Enacting future users,; Youdell, D., McGimpsey, I.,Assembling, disassembling and reassembling ‘youth services’ in Austerity Britain (Open Access),</t>
+          <t>Akrich, Madelaine,(1992) The D-Scrption of Technical Objects. Shaping technology/building society. Cited 28 times.,Cambridge MA: MIT Press; Akrich, Madeleine, Callon, Michel, Latour, Bruno, Monaghan, Adrian,The key to success in innovation part II: The art of choosing good spokespersons,(2002) International journal of innovation management, 6 (2), pp. 207-225. Cited 428 times.; Akrich, Madelaine, Latour, Bruno,A summary of a convenient vocabulary for the semiotics of human and non-human assemblies,(1992) Shaping Technology/ Building Society. Cited 634 times.; Appel, Hannah, Anand, Nikhil, Gupta, Akhil,(2018) The Promise of Infrastructure. Cited 431 times.,Durham: Duke University Press; Arancibia, Patricia, Balart, Rodrigo,(2007) Sergio de Castro: El arquitecto del modelo económico chileno. Cited 12 times.,Editorial Biblioteca Americana; Barry, A.,Material Politics: Disputes Along the Pipeline,; Best, Steven,(1995) The Politics of Historical Vision Marx, Foucault, Habermas. Cited 73 times.,Nueva York: Guilford; Bridge, G., Özkaynak, B., Turhan, E.,Energy infrastructure and the fate of the nation: Introduction to special issue,; Bowker, Geoffrey, Star, Susan,(2000) Sorting things out: Classification and its consequences. Cited 5966 times.,Cambridge, MA: MIT Press; Callon, Michel,An essay on framing and overflowing: economic externalities revisited by sociology,(1998) The Sociological Review, 46, pp. 244-269. Cited 688 times.; Cass, N., Shove, E.,Standards? Whose standards?,; Broto, V.C.,Energy landscapes and urban trajectories towards sustainability,; Cavallo, Ascanio, Sepúlveda, Oscar, Salazar, Manuel,(1989) La Historia Oculta del Régimen Militar: Chile 1973-1988. Cited 96 times.,Santiago: Editorial Antártica; (1992) El Ladrillo: bases de la política económica del gobierno militar chileno. Cited 63 times.,Centro de Estudios Públicos Santiago, Chile: Centro de Estudios Públicos,  15; Dean, M.,Rethinking neoliberalism,; Dewey, John,(1991) The Public and Its Problems. Cited 4158 times.,Athens, OH: Swallow Press/Ohio University Press; Estache, Antonio, Martimort, David,Transaction costs, politics, regulatory institutions and regulatory outcomes,(2000) Regulatory Policy in Latin America: Post-Privatization Realities, pp. 49-82. Cited 10 times.; Graham, Steve, Marvin, Simon,(2001) Splintering Urbanism: Networked Infrastructures, Technological Mobilities, and the Urban Condition. Cited 3189 times.,London, New York: Routledge; Farías, I.,Urban assemblages: ANT and the examination of the city,; Fischer, Karin,The Influence of Neoliberals in Chile before, during, and after Pinochet,(2009) The road from Mont Pèlerin: The making of the neoliberal thought collective, with a new preface. Cited 107 times.; Fischer, Ronald, Serra, Pablo,(2007) Efectos de la privatización de servicios públicos en Chile. Cited 7 times.,Washington DC: Banco Interamericano de Desarrollo; Flyvbjerg, Bent, Murillo, Lorena,Habermas y Foucault: ¿pensadores de la sociedad civil?,(2019) Estudios Sociológicos, 19 (56), pp. 295-324.; Foucault, Michel,(1977) Language, Counter-Memory, Practice. Cited 2322 times.,Ithaca, NY: Cornell University Press; Ffrench-Davis, Ricardo,Entre el neoliberalismo y el crecimiento con equidad,(2003) Tres décadas de política económica en Chile. Cited 138 times.; Gárate, Manuel,(2012) La revolución capitalista de Chile (1973-2003). Cited 156 times.,Santiago: Ediciones Universidad Alberto Hurtado; Harvey, Penny, Knox, Hannah,(2015) Roads: An anthropology of infrastructure and expertise. Cited 300 times.,Ithaca, NY: Cornell University Press; Hetherington, K., Campbell, J.M.,Nature, infrastructure, and the state: Rethinking development in Latin America,; Humeres, Mónica,(2020) Usuario modelo: un análisis sociotécnico del lugar de los usuarios en las políticas de la infraestructura eléctrica en Chile (1935-2019). Cited 2 times.,[Tesis Doctoral inédita]. Universidad Alberto Hurtado, Santiago; Kaltenbrunner, A., Painceira, J.P.,Subordinated Financial Integration and Financialisation in Emerging Capitalist Economies: The Brazilian Experience,; Kingfisher, Catherine,(2016) A policy travelogue: Tracing Welfare reform in Aotearoa/New Zealand and Canada. Cited 9 times.,Nueva York: Berghahn; Klein, Naomi, Fuentes, Isabel,(2007) La doctrina del shock: el auge del capitalismo del desastre, 1.,Barcelona: Paidós; Kreimer, Pablo,¿Dependientes o integrados? La ciencia latinoamericana y la nueva división internacional del trabajo,(2006) Nómadas, 24, pp. 199-212. Cited 55 times.; Lüders, Rolf,(2012) ,21 de diciembre de Roberto Kelly y los Chicago Boys, La Tercera; Maldonado, Pedro, Palma, Rodrigo,(2004) Seguridad y calidad del abastecimiento eléctrico a más de 10 años de la reforma de la industria eléctrica en países de América del Sur. Cited 5 times.,Santiago: CEPAL; Maillet, A., Bugueño, J.R.,Hybridization of neoliberal policies.The case of Chilean electric policy (2014-2016),; Marres, Noortje,Issues Spark a Public into Being: A Key but Often Forgotten Point of the Lippmann Dewey Debate,(2005) Making Things Public, pp. 208-217. Cited 200 times.; Nail, Thomas,(2015) The figure of the migrant. Cited 268 times.,Stanford: Stanford University Press; Otaegui, Álvaro,(2017) Formateando el mercado [eléctrico] en Chile. Genealogía del proceso de (des)enmarcación energética en tiempos del neoliberalismo (1976-1978),Núcleo Milenio de Investigación en Energía y Sociedad. Disponible en: [actualizada el 19 de agosto del 2018; citada el 09 de septiembre 2021]; Oudshoorn, N., Saetnan, A.R., Lie, M.,On gender and things: Reflections on an exhibition on gendered artifacts,; Oudshoorn, Nelly, Pinch, Trevor,(2003) How users matter. The co-construction of users and technology. Cited 1082 times.,Cambridge, Massachusetts: MIT Press; Palma, Daniel,Ladrones, policías y orden callejero en Santiago de Chile, 1896-1924,(2019) Anuario Colombiano de Historia Social y de la Cultura, 46 (2), pp. 59-86. Cited 2 times.; Paredes-Molina, Ricado,(1995) El sector eléctrico y el mercado de capitales en Chile. Cited 2 times.,CEPAL; Pírez, P.,Urbanization and urban services policy in Latin America (Open Access),; Plehwe, Dieter,Introduction,(2009) The Road from Mont Pèlerin. The Making of the Neoliberal Thought Collective, pp. 1-34. Cited 152 times.; Rudnick, Hugh, Palma, Rodrigo,Contexto nacional e internacional en marzo de 2014,(2017) Revolución energética en Chile, pp. 19-41. Cited 3 times.; Sánchez-Criado, Tomas,¿Cómo se mantiene una usuaria? Prácticas de apuntalamiento en la teleasistencia para personas mayores,(2012) Teoría del Actor-Red: Más allá de los estudios de ciencia y tecnología, pp. 111-156.; Sánchez-Criado, Tomas,Pensar infraestructuralmente,(2016) INMATERIAL. Diseño, Arte y Sociedad, 1 (1), pp. 85-98.; Savage, G.C.,What is policy assemblage?,; Savage, G.C., Lewis, S.,The phantom national? Assembling national teaching standards in Australia’s federal system (Open Access),; Star, S.L.,The ethnography of infrastructure (Open Access),; Star, S.L., Ruhleder, K.,Steps Toward an Ecology of Infrastructure: Design and Access for Large Information Spaces (Open Access),; Star, Susan, Bowker, Geoffrey,How to infrastructure,(2006) Handbook of new media: Social shaping and social consequences of ICTs, pp. 151-162. Cited 195 times.; Tampio, N.,Assemblages and the multitude: Deleuze, Hardt, Negri, and the postmodern left (Open Access),; Tironi, M., Barandiarán, J.,Neoliberalism as political technology: Expertise, energy, and democracy in Chile,; Undurraga, Tomás,(2014) Divergencias: trayectorias del neoliberalismo en Argentina y Chile. Cited 22 times.,Santiago: Ediciones Universidad Diego Portales; Ureta, S.,Policy assemblages: proposing an alternative conceptual framework to study public action (Open Access),; Valdés, Juan-Gabriel,(1995) Pinochet’s Economists: The Chicago School in Chile. Cited 365 times.,Cambridge, Inglaterra, Nueva York: Cambridge University Press; Van Oost, Elizabeth,Materialized gender: how shavers configure the users’ feminity and masculinity,(2003) How users matter. The co-construction of users and technology, pp. 193-208. Cited 86 times.; Varsavsky, Oscar,(1969) Ciencia, política, cientificismo. Cited 73 times.,Buenos Aires: Centro Editor de América Latina; Velho, R., Ureta, S.,Frail modernities: Latin American infrastructures between repair and ruination,; Venkatesan, S., Bear, L., Harvey, P., Lazar, S., Rival, L., Simone, A.,Attention to infrastructure offers a welcome reconfiguration of anthropological approaches to the political,; Shore, C., Wright, S.,Introduction: Conceptualising policy: Technologies of governance and the politics of visibility (Open Access),; Wilkie, A., Michael, M.,Expectation and mobilisation: Enacting future users (Open Access),; Youdell, D., McGimpsey, I.,Assembling, disassembling and reassembling ‘youth services’ in Austerity Britain,</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -6182,11 +5827,6 @@
       <c r="O72" t="inlineStr">
         <is>
           <t>10.3989/arbor.2021.801007</t>
-        </is>
-      </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>Chile</t>
         </is>
       </c>
     </row>
@@ -6231,7 +5871,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Ohme, J.,Updating citizenship? The effects of digital media use on citizenship understanding and political participation,; Aparici, R., García-Marín, D.,Prosumers and emirecs: Analysis of two confronted theories (Open Access),; Canel, M.J., Luoma-aho, V.,(2019) Public Sector Communication. Closing Gaps BETWEEN Citizens and Public Organizations. Cited 58 times.,Wiley-Blackwell: Hoboken, NJ, USA; van Ruler, B.,Communication Theory: An Underrated Pillar on Which Strategic Communication Rests (Open Access),; Hernández Bonivento, J.,La forma y la esencia: Efectos de las leyes de transparencia, acceso a la información y participación ciudadana en la gobernanza democrática local en Chile,(2020) Rev. Gestión Pública, 7, pp. 143-169. Cited 6 times.; Worthy, B.,More open but not more trusted? The effect of the freedom of information act 2000 on the United Kingdom central government,; Fox, J.,The uncertain relationship between transparency and accountability (Open Access),; (2015) Boletín Oficial del Estado. Cited 595 times.,Law 19/2014, de 29 de Diciembre, de Transparencia, Acceso a la Información Pública y Buen Gobierno. Comunidad Autónoma de Cataluña 18, de 21/01/2015. 4.300 a 4.342. (accessed on 20 May 2021),https://bit.ly/3j1Dgh2; Destot, M.,La información municipal en Francia. La experiencia de Grenoble,(1981) CEUMT. Rev. Munic. Edición Cataluña, 35, pp. 5-7.; Garriga-Portolà, M.,,(2011) Profesional de la Informacion, 20 (3), pp. 298-303. Cited 17 times.; Pina, V., Torres, L., Royo, S.,Is e-government promoting convergence towards more accountable local governments?,; Gallego-Álvarez, I., Rodríguez-Domínguez, L., García-Sánchez, I.-M.,Are determining factors of municipal E-government common to a worldwide municipal view? An intra-country comparison,; Beltrán-Orenes, P., Martínez-Pastor, E.,Degree of compliance with the Laws of Transparency, access, and good governance and of the Reuse of procurement data from the Spanish central government (Open Access),; Gértrudix, M., Gertrudis-Casado, M.-C., Álvarez-García, S.,Consumption of public institutions' opendata by Spanish citizens (Open Access),; Pina, V., Torres, L., Royo, S.,Are ICTs improving transparency and accountability in the EU regional and local governments? An empirical study,; (2009) Memorandum for the Heads of Executive Departments and Agencies. Cited 329 times.,The White House; Transparency and Open Government. The White House: Washington, DC, USA, (accessed on 20 May 2021),https://bit.ly/2MGdjHK; Coleman, S., Blumler, J.G.,The internet and democratic citizenship: Theory, practice and policy,; Welch, E.W., Hinnant, C.C., Moon, M.J.,Linking citizen satisfaction with e-government and trust in government (Open Access),; Moon, M.J.,The evolution of E-government among municipalities: Rhetoric or reality?,; Sánchez Duarte, J.M., Bolaños Huertas, M.V., Magallón Rosa, R., Anderica Caffarena, V.,The role of civic technologies in the redefinition of the public sphere,; Skaržauskienė, A., Mačiulienė, M.,Mapping International Civic Technologies Platforms (Open Access),; Etzioni, A.,Is Transparency the Best Disinfectant?,; Fenster, M.,Transparency in search of a theory,; Alloa, E., Thomä, D.,Transparency, Society and Subjectivity,(2019) Critical Perspectives. Res. Publica, 25, pp. 439-443.; Schudson, M.,The Shortcomings of Transparency for Democracy,; Bertot, J.C., Jaeger, P.T., Grimes, J.M.,Using ICTs to create a culture of transparency: E-government and social media as openness and anti-corruption tools for societies,; Molina Rodríguez-Navas, P., Simelio Solà, N., Corcoy Rius, M.,Methodology for transparency evaluation: Procedures and problems (Open Access),; Mapa Infoparticipa. Cited 2 times.,LabComPublica. Laboratorio de Periodismo y Comunicación para la Ciudadanía Plural (n.d). (accessed on 20 May 2021),https://bit.ly/2Yswk3q; Molina Rodríguez-Navas, P., Medranda Morales, N.J.,The transparency of the Ecuadorian municipality websites: Methodology and results (Open Access),; Muñoz-Lalinde, J.M.,La información de las administraciones públicas locales en los medios regionales,Colombia, Región Caribe. Universidad Autónoma de Barcelona. (accessed on 20 May 2021); Rodríguez-Navas, P.M., Breijo, V.R.,Evaluating and fostering transparency in local administrations.,; da Cruz, N.F., Tavares, A.F., Marques, R.C., Jorge, S., de Sousa, L.,Measuring Local Government Transparency (Open Access),; Rodríguez-Breijo, V., Simelio-Solá, N., Molina Rodríguez-Navas, P.,Council press offices as sources of political information: Between journalism for accountability and propaganda,(2021) Future Internet, 3, p. 34. Cited 2 times.; Simelio, N., Ginesta, X., de San Eugenio Vela, J., Corcoy, M.,Journalism, transparency and citizen participation: a methodological tool to evaluate information published on municipal websites,; Molina-Rodríguez-Navas, P., Corcoy, M.,Modelos de Información para la Rendición de Cuentas de las Administraciones Locales. El Menú de los Sitios Web Corporativos,(accessed on 20 May 2021); Molina-Rodríguez-Navas, P.,(2019) Modelos de Información Para la Rendición de Cuentas de las Administraciones Locales,2: Vin-culación de Informaciones. UAB. (accessed on 20 May 2021); Molina-Rodríguez-Navas, P.,(2019) Modelos de Información para la Rendición de Cuentas de las Administraciones Locales,3: Rendición de Cuentas. UAB. (accessed on 20 May 2021); Molina-Rodríguez-Navas, P.,(2019) Modelos de Información para la Rendición de cuentas de las Administraciones Locales,4: Cartas de Servicios. UAB. (accessed on 20 May 2021); Molina-Rodríguez-Navas, P.,(2019) Modelos de INFORMACIÓN Para la Rendición de Cuentas de las Administraciones Locales,5: Noticias. UAB. (accessed on 20 May 2021); Giménez-Chornet, V.,,(2012) Profesional de la Informacion, 21 (5), pp. 504-508. Cited 17 times.; Cameron, W.,Public accountability: Effectiveness, equity, ethics,; Uvalle, R.,Gobernabilidad, transparencia y reconstrucción del Estado,(2007) Convergencia, 14, pp. 47-74. Cited 6 times.; Hänska, M., Bauchowitz, S.,Can social media facilitate a European public sphere? Transnational communication and the Europeanization of Twitter during the Eurozone crisis (Open Access),; Schmidthuber, L., Ingrams, A., Hilgers, D.,Government Openness and Public Trust: The Mediating Role of Democratic Capacity (Open Access),; Kim, S., Lee, J.,E-Participation, transparency, and trust in local government,; Cuillier, D., Piotrowski, S.J.,Internet information-seeking and its relation to support for access to government records,; Tolbert, C.J., Mossberger, K.,The effects of E-government on trust and confidence in government,; Herranz, J.M.,La Gestión de la Comunicación como Elemento Generador de Transparencia en las Organizaciones no Lucrativas,(2007) Revista de Economía Publica. Soc. Coop, 57, pp. 5-31. Cited 19 times.; Moreno Sardá, A., Molina Rodríguez-Navas, P., Corcoy Rius, M., Aguilar Pérez, A., Borràs Farran, M.,Infoparticip@: Journalism for citizen participation in the democratic control. Criteria, methodologies and tools (Open Access),; Vu, H.T., Saldaña, M.,Chillin’ Effects of Fake News: Changes in Practices Related to Accountability and Transparency in American Newsrooms Under the Influence of Misinformation and Accusations Against the News Media,; Humprecht, E.,How Do They Debunk “Fake News”? A Cross-National Comparison of Transparency in Fact Checks (Open Access),; Fundación Telefónica Las TIC en el Gobierno Abierto: Transparencia, Participación y Colaboración,Ariel y Fundación Telefónica. (accessed on 20 May 2021),https://bit.ly/39KQsTs; Sagiv, L., Roccas, S., Cieciuch, J., Schwartz, S.H.,Personal values in human life (Open Access),; De Fine Licht, J.,Policy area as a potential moderator of transparency effects: An experiment,; De Fine Licht, J., Naurin, D., Esaiasson, P., Gilljam, M.,When Does Transparency Generate Legitimacy? Experimenting on a Context-Bound Relationship,; Moreno Sardà, A., Molina Rodríguez-Navas, P., Simelio Solà, N.,CiudadaniaPlural.com: From digital humanities to plural humanism (Open Access),; (2013) Boletín Oficial del Estado. Cited 595 times.,Law 19/2013, de 9 de Diciembre, de Transparencia, Acceso a la Información Pública y Buen Gobierno 295, de 10/12/2013, 97922 a 97952, Art. 5.5. (accessed on 20 May 2021),https://bit.ly/2KxmtWt; Portal de soporte: Sede-e, MyGov, Transparencia y datos abiertos,Consorci Administració Oberta de Catalunya (n.d). (accessed on 20 May 2021),https://bit.ly/3j78eEQ; Felzmann, H., Fosch-Villaronga, E., Lutz, C., Tamò-Larrieux, A.,Towards Transparency by Design for Artificial Intelligence (Open Access),; Henman, P.,Improving public services using artificial intelligence: possibilities, pitfalls, governance,; Manfredi-Sánchez, J.-L., Corcoy-Rius, M., Herranz-de-la-Casa, J.-M.,Breaking news? Journalistic criteria in the publication of news on Spanish municipal websites (2011-2016) (Open Access),; Martín, I.S.-L., Simelio, N., Moreno-Sardà, A.,Web accessibility for people with disabilities in Spanish city councils,; (2018) Web Content Accessibility Guidelines (WCAG) 2.1. Cited 335 times.,W3C Web Accessibility Initiative (WAI) W3C Recommendation 05 June 2018. (accessed on 20 May 2021),https://bit.ly/3qwSH3s; Nomura, M., Nielsen, G.S., Tronbacke, B.,Guidelines for Easy-to-Read Materials. International Federation of Library Association and Institutions. IFLA Professional Reports,(accessed on 20 May 2021); López, M.,(2009) Les Fonts Informatives en el Periodisme de Proximitat. Cited 2 times.,Lexicon Papers, 5; Fundació de la Premsa Comarcal, Generalitat de Catalunya: Barcelona, Spain; Snyder, T.,The American Abyss. The New York Times Magazine. Cited 32 times.,(accessed on 9 January 2021); Schmidt, V., Wood, M.,Conceptualizing throughput legitimacy: Procedural mechanisms of accountability, transparency, inclusiveness and openness in EU governance (Open Access),; Costa, L.,(2009) La Comunicació Local. Cited 3 times.,UOC: Barcelona, Spain; Moreno-Sardà, A.,Aportacions del periodisme a una democràcia participativa a l’era digital,(2009) Poder Polític i Resistència Periodística, pp. 445-459.</t>
+          <t>Ohme, J.,Updating citizenship? The effects of digital media use on citizenship understanding and political participation,; Aparici, R., García-Marín, D.,Prosumers and emirecs: Analysis of two confronted theories,; Canel, M.J., Luoma-aho, V.,(2019) Public Sector Communication. Closing Gaps BETWEEN Citizens and Public Organizations. Cited 60 times.,Wiley-Blackwell: Hoboken, NJ, USA; van Ruler, B.,Communication Theory: An Underrated Pillar on Which Strategic Communication Rests,; Hernández Bonivento, J.,La forma y la esencia: Efectos de las leyes de transparencia, acceso a la información y participación ciudadana en la gobernanza democrática local en Chile,(2020) Rev. Gestión Pública, 7, pp. 143-169. Cited 6 times.; Worthy, B.,More open but not more trusted? The effect of the freedom of information act 2000 on the United Kingdom central government,; Fox, J.,The uncertain relationship between transparency and accountability,; (2015) Boletín Oficial del Estado. Cited 597 times.,Law 19/2014, de 29 de Diciembre, de Transparencia, Acceso a la Información Pública y Buen Gobierno. Comunidad Autónoma de Cataluña 18, de 21/01/2015. 4.300 a 4.342. (accessed on 20 May 2021),https://bit.ly/3j1Dgh2; Destot, M.,La información municipal en Francia. La experiencia de Grenoble,(1981) CEUMT. Rev. Munic. Edición Cataluña, 35, pp. 5-7.; Garriga-Portolà, M.,,(2011) Profesional de la Informacion, 20 (3), pp. 298-303. Cited 17 times.; Pina, V., Torres, L., Royo, S.,Is e-government promoting convergence towards more accountable local governments?,; Gallego-Álvarez, I., Rodríguez-Domínguez, L., García-Sánchez, I.-M.,Are determining factors of municipal E-government common to a worldwide municipal view? An intra-country comparison,; Beltrán-Orenes, P., Martínez-Pastor, E.,Degree of compliance with the Laws of Transparency, access, and good governance and of the Reuse of procurement data from the Spanish central government,; Gértrudix, M., Gertrudis-Casado, M.-C., Álvarez-García, S.,Consumption of public institutions' opendata by Spanish citizens,; Pina, V., Torres, L., Royo, S.,Are ICTs improving transparency and accountability in the EU regional and local governments? An empirical study,; (2009) Memorandum for the Heads of Executive Departments and Agencies. Cited 331 times.,The White House; Transparency and Open Government. The White House: Washington, DC, USA, (accessed on 20 May 2021),https://bit.ly/2MGdjHK; Coleman, S., Blumler, J.G.,The internet and democratic citizenship: Theory, practice and policy (Open Access),; Welch, E.W., Hinnant, C.C., Moon, M.J.,Linking citizen satisfaction with e-government and trust in government,; Moon, M.J.,The evolution of E-government among municipalities: Rhetoric or reality?,; Sánchez Duarte, J.M., Bolaños Huertas, M.V., Magallón Rosa, R., Anderica Caffarena, V.,The role of civic technologies in the redefinition of the public sphere,; Skaržauskienė, A., Mačiulienė, M.,Mapping International Civic Technologies Platforms,; Etzioni, A.,Is Transparency the Best Disinfectant?,; Fenster, M.,Transparency in search of a theory,; Alloa, E., Thomä, D.,Transparency, Society and Subjectivity,(2019) Critical Perspectives. Res. Publica, 25, pp. 439-443.; Schudson, M.,The Shortcomings of Transparency for Democracy (Open Access),; Bertot, J.C., Jaeger, P.T., Grimes, J.M.,Using ICTs to create a culture of transparency: E-government and social media as openness and anti-corruption tools for societies,; Molina Rodríguez-Navas, P., Simelio Solà, N., Corcoy Rius, M.,Methodology for transparency evaluation: Procedures and problems (Open Access),; Mapa Infoparticipa. Cited 2 times.,LabComPublica. Laboratorio de Periodismo y Comunicación para la Ciudadanía Plural (n.d). (accessed on 20 May 2021),https://bit.ly/2Yswk3q; Molina Rodríguez-Navas, P., Medranda Morales, N.J.,The transparency of the Ecuadorian municipality websites: Methodology and results (Open Access),; Muñoz-Lalinde, J.M.,La información de las administraciones públicas locales en los medios regionales,Colombia, Región Caribe. Universidad Autónoma de Barcelona. (accessed on 20 May 2021); Rodríguez-Navas, P.M., Breijo, V.R.,Evaluating and fostering transparency in local administrations.,; da Cruz, N.F., Tavares, A.F., Marques, R.C., Jorge, S., de Sousa, L.,Measuring Local Government Transparency (Open Access),; Rodríguez-Breijo, V., Simelio-Solá, N., Molina Rodríguez-Navas, P.,Council press offices as sources of political information: Between journalism for accountability and propaganda,(2021) Future Internet, 3, p. 34. Cited 2 times.; Simelio, N., Ginesta, X., de San Eugenio Vela, J., Corcoy, M.,Journalism, transparency and citizen participation: a methodological tool to evaluate information published on municipal websites (Open Access),; Molina-Rodríguez-Navas, P., Corcoy, M.,Modelos de Información para la Rendición de Cuentas de las Administraciones Locales. El Menú de los Sitios Web Corporativos,(accessed on 20 May 2021); Molina-Rodríguez-Navas, P.,(2019) Modelos de Información Para la Rendición de Cuentas de las Administraciones Locales,2: Vin-culación de Informaciones. UAB. (accessed on 20 May 2021); Molina-Rodríguez-Navas, P.,(2019) Modelos de Información para la Rendición de Cuentas de las Administraciones Locales,3: Rendición de Cuentas. UAB. (accessed on 20 May 2021); Molina-Rodríguez-Navas, P.,(2019) Modelos de Información para la Rendición de cuentas de las Administraciones Locales,4: Cartas de Servicios. UAB. (accessed on 20 May 2021); Molina-Rodríguez-Navas, P.,(2019) Modelos de INFORMACIÓN Para la Rendición de Cuentas de las Administraciones Locales,5: Noticias. UAB. (accessed on 20 May 2021); Giménez-Chornet, V.,,(2012) Profesional de la Informacion, 21 (5), pp. 504-508. Cited 17 times.; Cameron, W.,Public accountability: Effectiveness, equity, ethics (Open Access),; Uvalle, R.,Gobernabilidad, transparencia y reconstrucción del Estado,(2007) Convergencia, 14, pp. 47-74. Cited 6 times.; Hänska, M., Bauchowitz, S.,Can social media facilitate a European public sphere? Transnational communication and the Europeanization of Twitter during the Eurozone crisis (Open Access),; Schmidthuber, L., Ingrams, A., Hilgers, D.,Government Openness and Public Trust: The Mediating Role of Democratic Capacity,; Kim, S., Lee, J.,E-Participation, transparency, and trust in local government,; Cuillier, D., Piotrowski, S.J.,Internet information-seeking and its relation to support for access to government records (Open Access),; Tolbert, C.J., Mossberger, K.,The effects of E-government on trust and confidence in government,; Herranz, J.M.,La Gestión de la Comunicación como Elemento Generador de Transparencia en las Organizaciones no Lucrativas,(2007) Revista de Economía Publica. Soc. Coop, 57, pp. 5-31. Cited 19 times.; Moreno Sardá, A., Molina Rodríguez-Navas, P., Corcoy Rius, M., Aguilar Pérez, A., Borràs Farran, M.,Infoparticip@: Journalism for citizen participation in the democratic control. Criteria, methodologies and tools (Open Access),; Vu, H.T., Saldaña, M.,Chillin’ Effects of Fake News: Changes in Practices Related to Accountability and Transparency in American Newsrooms Under the Influence of Misinformation and Accusations Against the News Media,; Humprecht, E.,How Do They Debunk “Fake News”? A Cross-National Comparison of Transparency in Fact Checks,; Fundación Telefónica Las TIC en el Gobierno Abierto: Transparencia, Participación y Colaboración,Ariel y Fundación Telefónica. (accessed on 20 May 2021),https://bit.ly/39KQsTs; Sagiv, L., Roccas, S., Cieciuch, J., Schwartz, S.H.,Personal values in human life (Open Access),; De Fine Licht, J.,Policy area as a potential moderator of transparency effects: An experiment,; De Fine Licht, J., Naurin, D., Esaiasson, P., Gilljam, M.,When Does Transparency Generate Legitimacy? Experimenting on a Context-Bound Relationship,; Moreno Sardà, A., Molina Rodríguez-Navas, P., Simelio Solà, N.,CiudadaniaPlural.com: From digital humanities to plural humanism (Open Access),; (2013) Boletín Oficial del Estado. Cited 597 times.,Law 19/2013, de 9 de Diciembre, de Transparencia, Acceso a la Información Pública y Buen Gobierno 295, de 10/12/2013, 97922 a 97952, Art. 5.5. (accessed on 20 May 2021),https://bit.ly/2KxmtWt; Portal de soporte: Sede-e, MyGov, Transparencia y datos abiertos,Consorci Administració Oberta de Catalunya (n.d). (accessed on 20 May 2021),https://bit.ly/3j78eEQ; Felzmann, H., Fosch-Villaronga, E., Lutz, C., Tamò-Larrieux, A.,Towards Transparency by Design for Artificial Intelligence,; Henman, P.,Improving public services using artificial intelligence: possibilities, pitfalls, governance,; Manfredi-Sánchez, J.-L., Corcoy-Rius, M., Herranz-de-la-Casa, J.-M.,Breaking news? Journalistic criteria in the publication of news on Spanish municipal websites (2011-2016) (Open Access),; Martín, I.S.-L., Simelio, N., Moreno-Sardà, A.,Web accessibility for people with disabilities in Spanish city councils (Open Access),; (2018) Web Content Accessibility Guidelines (WCAG) 2.1. Cited 338 times.,W3C Web Accessibility Initiative (WAI) W3C Recommendation 05 June 2018. (accessed on 20 May 2021),https://bit.ly/3qwSH3s; Nomura, M., Nielsen, G.S., Tronbacke, B.,Guidelines for Easy-to-Read Materials. International Federation of Library Association and Institutions. IFLA Professional Reports,(accessed on 20 May 2021); López, M.,(2009) Les Fonts Informatives en el Periodisme de Proximitat. Cited 2 times.,Lexicon Papers, 5; Fundació de la Premsa Comarcal, Generalitat de Catalunya: Barcelona, Spain; Snyder, T.,The American Abyss. The New York Times Magazine. Cited 31 times.,(accessed on 9 January 2021); Schmidt, V., Wood, M.,Conceptualizing throughput legitimacy: Procedural mechanisms of accountability, transparency, inclusiveness and openness in EU governance,; Costa, L.,(2009) La Comunicació Local. Cited 3 times.,UOC: Barcelona, Spain; Moreno-Sardà, A.,Aportacions del periodisme a una democràcia participativa a l’era digital,(2009) Poder Polític i Resistència Periodística, pp. 445-459.</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -6262,11 +5902,6 @@
       <c r="O73" t="inlineStr">
         <is>
           <t>10.3390/ijgi10090586</t>
-        </is>
-      </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>Varios Paises</t>
         </is>
       </c>
     </row>
@@ -6311,7 +5946,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alles, M.,(2002) Dirección estratégica de Recursos Humanos, gestión por competencias. Cited 28 times.,Granica; Bae, K.B., Sabharwal, M., Smith, A.E., Berman, E.,Does Demographic Dissimilarity Matter for Perceived Inclusion? Evidence From Public Sector Employees (Open Access),; Banks, G.C., McCauley, K.D., Gardner, W.L., Guler, C.E.,A meta-analytic review of authentic and transformational leadership: A test for redundancy,; Bass, B.M.,From transactional to transformational leadership: Learning to share the vision (Open Access),; Geys, B., Connolly, S., Kassim, H., Murdoch, Z.,Follow the Leader? Leader Succession and Staff Attitudes in Public Sector Organizations (Open Access),; Brito-Carrillo, C., Pitre-Redondo, R., Cardona-Arbeláez, D.,Organizational climate and its influence on the performance of employees in a service company (Open Access),; Cardeño Portela, E., Cardeño Portela, N., Buitrago Acuña, R., Hernandez Malpica, P.,Resonant leadership as a leading element of social responsibility in public sector organizations,; Cepeda, S.,Ensayo sobre el liderazgo: una perspectiva institucional,(2019) CienciaCierta, 57.; Chenard, L., Lajoie, D., Boudrias, J., Montani, F.,(2016) Efficacité du Leadership transformationnel: L’effet modérateur de la congruence des valeurs chez les,Publisher: L’harmattan; Cheung, F., Yeung, D.Y., Wu, A.M.S.,Employees’ Perception of Leadership Styles and Successful Aging in the Workplace,; Codina, A.,Enfoques contemporáneos en los estudios sobre liderazgo,(2017) Cofin, 1, pp. 1-18.; Contreras-Carreto, N.A., Ramírez-Montiel, M.L.,Leadership problems in the management of health institutions (Open Access),; Coronado, J. J.,(2018) Aplicación de un programa de Liderazgo Transformacional en la Cultura Organizacional de la Municipalidad Provincial de Huarua 2017,(Tesis Doctoral, Universidad Nacional José Faustino Sanchez Carrion, Huacho); Sabharwal, M., Levine, H., D’Agostino, M.,A Conceptual Content Analysis of 75 Years of Diversity Research in Public Administration (Open Access),; Díaz Aldana, A.P., Rodríguez García, D.M., García Montaño, C.A.,Corporate Governance in the public sector in Colombia: An approximation,; Escandon, D., Marcela, B., Hurtado, A.,Influencia de los estilos deliderazgo en el desempeño delas empresas exportadoras colombianas,(2016) Estudios Gerenciales, 32 (139). Cited 4 times.; Flórez, J. M.,El Gobierno Corporativo en el ámbito del sector público: Un estudio bibliométrico en las revistas ubicadas en el área de administración pública,(2016) Revista Facultad de Ciencias Económicas, 25 (1), pp. 161-175.; Hernández, L.,Liderazgo Estratégico Integral: De la teoría a la práctica transformando vidas e instituciones,(2018) Revista Centroamericana de Administración Pública, 75, pp. 123-133.; Knies, E., Jacobsen, C., Tummers, L.,Leadership and organizational performance: State of the art and a research agenda (Open Access),; Koontz, H., Weirich, H.,(2011) Administración. Una perspectiva global. Cited 86 times.,Mc Graw Hill; Mintzberg, H.,(1983) Power In andAround Organizations 1983. Cited 1716 times.,Englewood Cliffs. Prentice-Hall; Northouse, P.,(2016) Leadership theory and practice. Cited 3802 times.,(7ma. Ed). Wester Michigan University; (2019) Recomendación del Consejo sobre Liderazgo y Capacidad en la Función Pública. Cited 3 times.,OCDE-Consejo de Organización para la Cooperación y el Desarrollo Económico,https://www.oecd.org/gov/pem/recomendacion-del-consejo-sobre-liderazgo-y-capacidad-en-la-funcon-publica.pdf; Ojeda, L.,(2017) Teorías de los estilos de liderazgo,https://core.ac.uk/download/pdf/154797604.pdf; Ordoñez Santos, M.L., Botello Bautista, B., Moreno Mogollón, L.E.,Leadership styles from a full range perspective,; Ganga-Contreras, F.A., Navarrete-Andrade, E., Suárez Amaya, W.,Approaching the theoretical foundations of authentic leadership (Open Access),; García, J., Pimentel, R., Colunga, S.,Formación y desarrollo de la competencia toma de decisiones gerenciales en directivos empresariales a través del posgrado,(2016) Retos de la Dirección, (2), pp. 121-140. Cited 4 times.; Gómez, C.,Liderazgo: Conceptos, teorias y hallazgos relevantes,(2016) Cuadernos hispanoamericanos de psicología, 2 (2), pp. 61-67. Cited 4 times.; Gonzales, J. V., Paredes, M. A., Núñez, R., Paredes, V., Paredes, I. I.,La influencia del liderazgo en el clima organizacional de las empresas,(2018) Revista de Investigación, 42 (95). Cited 2 times.; González, M.,La arquitectura del liderazgo: ¿El liderazgo nace, se hace o se estructura?,(2019) Debates Iesa, 14 (2), pp. 13-17. Cited 2 times.; Guerra, L.,Análisis de las teorías de liderazgo: hacia una propuesta metateórica,(2018) UTC Prospectivas, 1 (1), pp. 56-75. Cited 2 times.; Heidari-Robinson, S.,Subjecting Donald Trump's War against the Administrative State to Management Science,; Solís, I.,(2019) Influencia de la motivación y el clima laboral en el liderazgo transformacional de un hospital castrense. Cited 2 times.,(Tesis Doctoral, Universidad César Vallejo, Lima); Srivastava, V.K., Kunwar, R.,Leadership in public health (Open Access),; Stoner, J.,(2005) Administración. Cited 144 times.,Mc Graw Hill; Syed, R.,Leadership in Public Sector Business Process Management Initiatives A Developing Country Perspective,(2019) QUT ePrints, 2420, pp. 31-35.; Tummers, L., Knies, E.,MEASURING PUBLIC LEADERSHIP: DEVELOPING SCALES FOR FOUR KEY PUBLIC LEADERSHIP ROLES (Open Access),; Warrick, D.,The need for transformational leaders that understand organization development fundamentals,(2018) Organizational development Practitioner, 50 (4). Cited 3 times.; Ospina, S.M.,Collective Leadership and Context in Public Administration: Bridging Public Leadership Research and Leadership Studies,; Petrone, P.,¿Cómo se hace un líder?,(2020) Revista Colombiana de Cirugía, 35 (1), pp. 14-16.; Qian, J., Song, B., Jin, Z., Wang, B., Chen, H.,Linking empowering leadership to task performance, taking charge, and voice: The mediating role of feedback-seeking (Open Access),; Reyes, J.,(2019) Habla como un Líder,Alienta Editorial; Riquelme-Castañeda, J.A., Pedraja-Rejas, L.M., Vega-Massó, R.A.,Leadership and management in wicked problem solving. A literature review (Open Access),; Robbins, S., Judge, T.,(2018) Organizational behavior. Cited 3686 times.,(15a ed). Pearson; Silva, Y., Olsen, C., Pezzi, L., Sanjurjo, N.,(2016) Liderazgo transaccional, </t>
+          <t xml:space="preserve">Alles, M.,(2002) Dirección estratégica de Recursos Humanos, gestión por competencias. Cited 28 times.,Granica; Bae, K.B., Sabharwal, M., Smith, A.E., Berman, E.,Does Demographic Dissimilarity Matter for Perceived Inclusion? Evidence From Public Sector Employees,; Banks, G.C., McCauley, K.D., Gardner, W.L., Guler, C.E.,A meta-analytic review of authentic and transformational leadership: A test for redundancy,; Bass, B.M.,From transactional to transformational leadership: Learning to share the vision,; Geys, B., Connolly, S., Kassim, H., Murdoch, Z.,Follow the Leader? Leader Succession and Staff Attitudes in Public Sector Organizations,; Brito-Carrillo, C., Pitre-Redondo, R., Cardona-Arbeláez, D.,Organizational climate and its influence on the performance of employees in a service company,; Cardeño Portela, E., Cardeño Portela, N., Buitrago Acuña, R., Hernandez Malpica, P.,Resonant leadership as a leading element of social responsibility in public sector organizations,; Cepeda, S.,Ensayo sobre el liderazgo: una perspectiva institucional,(2019) CienciaCierta, 57.; Chenard, L., Lajoie, D., Boudrias, J., Montani, F.,(2016) Efficacité du Leadership transformationnel: L’effet modérateur de la congruence des valeurs chez les,Publisher: L’harmattan; Cheung, F., Yeung, D.Y., Wu, A.M.S.,Employees’ Perception of Leadership Styles and Successful Aging in the Workplace,; Codina, A.,Enfoques contemporáneos en los estudios sobre liderazgo,(2017) Cofin, 1, pp. 1-18.; Contreras-Carreto, N.A., Ramírez-Montiel, M.L.,Leadership problems in the management of health institutions,; Coronado, J. J.,(2018) Aplicación de un programa de Liderazgo Transformacional en la Cultura Organizacional de la Municipalidad Provincial de Huarua 2017,(Tesis Doctoral, Universidad Nacional José Faustino Sanchez Carrion, Huacho); Sabharwal, M., Levine, H., D’Agostino, M.,A Conceptual Content Analysis of 75 Years of Diversity Research in Public Administration,; Díaz Aldana, A.P., Rodríguez García, D.M., García Montaño, C.A.,Corporate Governance in the public sector in Colombia: An approximation,; Escandon, D., Marcela, B., Hurtado, A.,Influencia de los estilos deliderazgo en el desempeño delas empresas exportadoras colombianas,(2016) Estudios Gerenciales, 32 (139). Cited 4 times.; Flórez, J. M.,El Gobierno Corporativo en el ámbito del sector público: Un estudio bibliométrico en las revistas ubicadas en el área de administración pública,(2016) Revista Facultad de Ciencias Económicas, 25 (1), pp. 161-175.; Hernández, L.,Liderazgo Estratégico Integral: De la teoría a la práctica transformando vidas e instituciones,(2018) Revista Centroamericana de Administración Pública, 75, pp. 123-133.; Knies, E., Jacobsen, C., Tummers, L.,Leadership and organizational performance: State of the art and a research agenda,; Koontz, H., Weirich, H.,(2011) Administración. Una perspectiva global. Cited 86 times.,Mc Graw Hill; Mintzberg, H.,(1983) Power In andAround Organizations 1983. Cited 1716 times.,Englewood Cliffs. Prentice-Hall; Northouse, P.,(2016) Leadership theory and practice. Cited 3818 times.,(7ma. Ed). Wester Michigan University; (2019) Recomendación del Consejo sobre Liderazgo y Capacidad en la Función Pública. Cited 3 times.,OCDE-Consejo de Organización para la Cooperación y el Desarrollo Económico,https://www.oecd.org/gov/pem/recomendacion-del-consejo-sobre-liderazgo-y-capacidad-en-la-funcon-publica.pdf; Ojeda, L.,(2017) Teorías de los estilos de liderazgo,https://core.ac.uk/download/pdf/154797604.pdf; Ordoñez Santos, M.L., Botello Bautista, B., Moreno Mogollón, L.E.,Leadership styles from a full range perspective,; Ganga-Contreras, F.A., Navarrete-Andrade, E., Suárez Amaya, W.,Approaching the theoretical foundations of authentic leadership,; García, J., Pimentel, R., Colunga, S.,Formación y desarrollo de la competencia toma de decisiones gerenciales en directivos empresariales a través del posgrado,(2016) Retos de la Dirección, (2), pp. 121-140. Cited 4 times.; Gómez, C.,Liderazgo: Conceptos, teorias y hallazgos relevantes,(2016) Cuadernos hispanoamericanos de psicología, 2 (2), pp. 61-67. Cited 4 times.; Gonzales, J. V., Paredes, M. A., Núñez, R., Paredes, V., Paredes, I. I.,La influencia del liderazgo en el clima organizacional de las empresas,(2018) Revista de Investigación, 42 (95). Cited 2 times.; González, M.,La arquitectura del liderazgo: ¿El liderazgo nace, se hace o se estructura?,(2019) Debates Iesa, 14 (2), pp. 13-17. Cited 2 times.; Guerra, L.,Análisis de las teorías de liderazgo: hacia una propuesta metateórica,(2018) UTC Prospectivas, 1 (1), pp. 56-75. Cited 2 times.; Heidari-Robinson, S.,Subjecting Donald Trump's War against the Administrative State to Management Science,; Solís, I.,(2019) Influencia de la motivación y el clima laboral en el liderazgo transformacional de un hospital castrense. Cited 2 times.,(Tesis Doctoral, Universidad César Vallejo, Lima); Srivastava, V.K., Kunwar, R.,Leadership in public health (Open Access),; Stoner, J.,(2005) Administración. Cited 144 times.,Mc Graw Hill; Syed, R.,Leadership in Public Sector Business Process Management Initiatives A Developing Country Perspective,(2019) QUT ePrints, 2420, pp. 31-35.; Tummers, L., Knies, E.,MEASURING PUBLIC LEADERSHIP: DEVELOPING SCALES FOR FOUR KEY PUBLIC LEADERSHIP ROLES (Open Access),; Warrick, D.,The need for transformational leaders that understand organization development fundamentals,(2018) Organizational development Practitioner, 50 (4). Cited 3 times.; Ospina, S.M.,Collective Leadership and Context in Public Administration: Bridging Public Leadership Research and Leadership Studies (Open Access),; Petrone, P.,¿Cómo se hace un líder?,(2020) Revista Colombiana de Cirugía, 35 (1), pp. 14-16.; Qian, J., Song, B., Jin, Z., Wang, B., Chen, H.,Linking empowering leadership to task performance, taking charge, and voice: The mediating role of feedback-seeking (Open Access),; Reyes, J.,(2019) Habla como un Líder,Alienta Editorial; Riquelme-Castañeda, J.A., Pedraja-Rejas, L.M., Vega-Massó, R.A.,Leadership and management in wicked problem solving. A literature review (Open Access),; Robbins, S., Judge, T.,(2018) Organizational behavior. Cited 3697 times.,(15a ed). Pearson; Silva, Y., Olsen, C., Pezzi, L., Sanjurjo, N.,(2016) Liderazgo transaccional, </t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -6342,11 +5977,6 @@
       <c r="O74" t="inlineStr">
         <is>
           <t>10.52080/rvgluz.26.e5.41</t>
-        </is>
-      </c>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t>Peru</t>
         </is>
       </c>
     </row>
@@ -6391,7 +6021,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Albornoz, O.,(2013) La universidad ¿reforma o experimento? El discurso académico contemporáneo según las perspectivas de los organismos internacionales: los aprendizajes para la universidad venezolana y latinoamericana, p. 498. Cited 3 times.,Venezuela: UNESCO-IESALC; Álvarez-Gayou, J.,Cómo hacer investigación cualitativa,(2003) Fundamentos y metodología. Cited 181 times.; Araya-Castillo, L., Rivera-Arroyo, J.,How should higher education institutions confront the new challenges of the environment?,; Aular, J.,LUZ fortalece sus raíces en sus 127 años,(2018) ; Chiavenato, I.,(2009) Comportamiento organizacional. La dinámica del éxito en las organizaciones. Cited 66 times.,Editorial Thomson; (1970) Ley de Universidades. Cited 15 times.,Congreso de la República de Venezuela Gaceta Oficia 1429 Extraordinaria. Caracas-Venezuela,http://www.ucv.ve/fileadmin/user_upload/comision_electoral/Normativa_legal/index.htm; Corbetta, P.,(2014) Metodologia e tecniche della riserca sociale, p. 448. Cited 226 times.,Italia: Il Mulino; Delgado, M., Vargas, J., Ramos, I.,Los retos de la responsabilidad social universitaria: construyendo paz desde la universidad,(2008) Revista Educación Superior y Sociedad, 13 (2), pp. 63-89. Cited 2 times.; Drucker, P.,(2004) La Gerencia en la Sociedad Futura. Cited 12 times.,Editorial Norma; Etkin, J.,(2000) Política, gobierno y gerencia de las organizaciones. Acuerdos, dualidades, divergencias. Cited 8 times.,Editorial Prentice Hall; Fabra, A., Giménez, A.,(2013) Competencias y capacidades para un mundo nuevo desde la sociología de las organizaciones. El cambiante mundo de las organizaciones: teoría, metodología e investigación,(Ed) Universitat Jaume I; García-Guadilla, C.,Universidad, desarrollo y cooperación en la perspectiva de América Latina,(2013) Revista Iberoamericana de Educación Superior, 4 (9), pp. 21-33. Cited 3 times.; Izcara, S.,(2009) La praxis de la investigación cualitativa. Cited 5 times.,Guía para elaborar tesis. Plaza y Valdés; Lescher, M., Lescher, I., Caira, N.,Responsabilidad social universitaria en Maracaibo, Venezuela,(2015) Revista Telos, 17 (2), pp. 196-207.; Llanos, S.,(2000) Hacia una nueva gestión exitosa de las Universidades Nacionales: antología del curso-taller: problematización de la educación superior. Cited 2 times.,Venezuela: Editorial de la Universidad Experimental Simón Rodríguez; Marcano Ortega, J. J.,Análisis Crítico de la Gerencia y Transformación en la Educación Universitaria, desde Diversos Postulados,(2017) Revista Scientific, 2, pp. 275-294. Cited 3 times.; Moreno, A.,Aspectos de análisis de la universidad autónoma venezolana,(2017) Educere, 21 (70), pp. 611-618.; Muro, X., Picón, G.,La gerencia universitaria en Venezuela: un estudio crítico-interpretativo de sus discursos,(2005) Revista Informe de Investigaciones Educativas, 9, pp. 13-36.; Niño, L., Piñero, M. L.,Gerencia universitaria en tiempos de transformación: algunos apuntes para la reflexión,(2016) Revista EDUCARE-UPEL-IPB-Segunda Nueva Etapa 2.0, 19 (3), pp. 52-77. Cited 2 times.; Armenio, P.M., Julián, A.H.J., Aimara, R.F.,University’s new governance: An all-encompassing approach to studying the governance of Latin American universities,; Pérez, G., Moreno, Z.,Constructo teórico sobre gerencia universitaria,(2017) Criterio Libre, 15 (2), pp. 23-42. Cited 5 times.; Pozo Curo, C., Ruiz Nizama, J.L., Vigo Ayasta, E.R., Flores Ccanto, F.,Management trends in organizations: A theoretical look,; (2018) Universidades venezolanas declaradas en emergencia humanitaria compleja,Prensa Derechos Universitarios Derechosuniversitarios.Org,http://derechosuniversitarios.org/index.php/2018/10/25/universidades-venezolanas-declaradas-en-emergencia-humanitaria-compleja/; Primera, M.,Reapertura de LUZ,(2018) ; Robbins, S., Coulter, M.,(2014) Administration. Cited 144 times.,Pearson; Romero, T.,(2018) Universidad de Carabobo celebró 60 años de su reapertura,El estímulo; Ruiz, C.,La universidad venezolana en una época de transición,(2001) ; Taylor, S., Bogdan, R., DeVault, M.,(2016) Introduction to qualitative research methods. Cited 3669 times.,John Wiley &amp; Sons, Inc; (2018) Palabras de apertura del evento “Venezuela no se rinde. Es hora de cambiar,Universidad Central de Venezuela-UCV,http://www.ucv.ve/fileadmin/user_upload/rectorado/InformesSemanales/INFORMERECTORADO13_03_18.pdf; Prensa, ULA,(2018) Palabras del Rector Mario Bonucci en los 233 años de la Universidad de Los Andes,Universidad de los Andes, Ula; (2018) UDO cuenta con 500 nuevos egresados,Universidad de Oriente Diario El Luchador,https://elluchador.info/web/2018/11/09/udo-cuenta-con-500-nuevos-egresados/; (2018) Comunicado del CU Extraordinario sobre la crisis universitaria en LUZ,Universidad del Zulia,https://luz.edu.ve/index.php?option=com_content&amp;view=article&amp;id=2515:comunicado-del-cu-extraordinario&amp;catid=85&amp;Itemid=489</t>
+          <t>Albornoz, O.,(2013) La universidad ¿reforma o experimento? El discurso académico contemporáneo según las perspectivas de los organismos internacionales: los aprendizajes para la universidad venezolana y latinoamericana, p. 498. Cited 3 times.,Venezuela: UNESCO-IESALC; Álvarez-Gayou, J.,Cómo hacer investigación cualitativa,(2003) Fundamentos y metodología. Cited 181 times.; Araya-Castillo, L., Rivera-Arroyo, J.,How should higher education institutions confront the new challenges of the environment?,; Aular, J.,LUZ fortalece sus raíces en sus 127 años,(2018) ; Chiavenato, I.,(2009) Comportamiento organizacional. La dinámica del éxito en las organizaciones. Cited 67 times.,Editorial Thomson; (1970) Ley de Universidades. Cited 15 times.,Congreso de la República de Venezuela Gaceta Oficia 1429 Extraordinaria. Caracas-Venezuela,http://www.ucv.ve/fileadmin/user_upload/comision_electoral/Normativa_legal/index.htm; Corbetta, P.,(2014) Metodologia e tecniche della riserca sociale, p. 448. Cited 227 times.,Italia: Il Mulino; Delgado, M., Vargas, J., Ramos, I.,Los retos de la responsabilidad social universitaria: construyendo paz desde la universidad,(2008) Revista Educación Superior y Sociedad, 13 (2), pp. 63-89. Cited 2 times.; Drucker, P.,(2004) La Gerencia en la Sociedad Futura. Cited 12 times.,Editorial Norma; Etkin, J.,(2000) Política, gobierno y gerencia de las organizaciones. Acuerdos, dualidades, divergencias. Cited 8 times.,Editorial Prentice Hall; Fabra, A., Giménez, A.,(2013) Competencias y capacidades para un mundo nuevo desde la sociología de las organizaciones. El cambiante mundo de las organizaciones: teoría, metodología e investigación,(Ed) Universitat Jaume I; García-Guadilla, C.,Universidad, desarrollo y cooperación en la perspectiva de América Latina,(2013) Revista Iberoamericana de Educación Superior, 4 (9), pp. 21-33. Cited 3 times.; Izcara, S.,(2009) La praxis de la investigación cualitativa. Cited 5 times.,Guía para elaborar tesis. Plaza y Valdés; Lescher, M., Lescher, I., Caira, N.,Responsabilidad social universitaria en Maracaibo, Venezuela,(2015) Revista Telos, 17 (2), pp. 196-207.; Llanos, S.,(2000) Hacia una nueva gestión exitosa de las Universidades Nacionales: antología del curso-taller: problematización de la educación superior. Cited 2 times.,Venezuela: Editorial de la Universidad Experimental Simón Rodríguez; Marcano Ortega, J. J.,Análisis Crítico de la Gerencia y Transformación en la Educación Universitaria, desde Diversos Postulados,(2017) Revista Scientific, 2, pp. 275-294. Cited 3 times.; Moreno, A.,Aspectos de análisis de la universidad autónoma venezolana,(2017) Educere, 21 (70), pp. 611-618.; Muro, X., Picón, G.,La gerencia universitaria en Venezuela: un estudio crítico-interpretativo de sus discursos,(2005) Revista Informe de Investigaciones Educativas, 9, pp. 13-36.; Niño, L., Piñero, M. L.,Gerencia universitaria en tiempos de transformación: algunos apuntes para la reflexión,(2016) Revista EDUCARE-UPEL-IPB-Segunda Nueva Etapa 2.0, 19 (3), pp. 52-77. Cited 2 times.; Armenio, P.M., Julián, A.H.J., Aimara, R.F.,University’s new governance: An all-encompassing approach to studying the governance of Latin American universities,; Pérez, G., Moreno, Z.,Constructo teórico sobre gerencia universitaria,(2017) Criterio Libre, 15 (2), pp. 23-42. Cited 5 times.; Pozo Curo, C., Ruiz Nizama, J.L., Vigo Ayasta, E.R., Flores Ccanto, F.,Management trends in organizations: A theoretical look,; (2018) Universidades venezolanas declaradas en emergencia humanitaria compleja,Prensa Derechos Universitarios Derechosuniversitarios.Org,http://derechosuniversitarios.org/index.php/2018/10/25/universidades-venezolanas-declaradas-en-emergencia-humanitaria-compleja/; Primera, M.,Reapertura de LUZ,(2018) ; Robbins, S., Coulter, M.,(2014) Administration. Cited 144 times.,Pearson; Romero, T.,(2018) Universidad de Carabobo celebró 60 años de su reapertura,El estímulo; Ruiz, C.,La universidad venezolana en una época de transición,(2001) ; Taylor, S., Bogdan, R., DeVault, M.,(2016) Introduction to qualitative research methods. Cited 3672 times.,John Wiley &amp; Sons, Inc; (2018) Palabras de apertura del evento “Venezuela no se rinde. Es hora de cambiar,Universidad Central de Venezuela-UCV,http://www.ucv.ve/fileadmin/user_upload/rectorado/InformesSemanales/INFORMERECTORADO13_03_18.pdf; Prensa, ULA,(2018) Palabras del Rector Mario Bonucci en los 233 años de la Universidad de Los Andes,Universidad de los Andes, Ula; (2018) UDO cuenta con 500 nuevos egresados,Universidad de Oriente Diario El Luchador,https://elluchador.info/web/2018/11/09/udo-cuenta-con-500-nuevos-egresados/; (2018) Comunicado del CU Extraordinario sobre la crisis universitaria en LUZ,Universidad del Zulia,https://luz.edu.ve/index.php?option=com_content&amp;view=article&amp;id=2515:comunicado-del-cu-extraordinario&amp;catid=85&amp;Itemid=489</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -6422,11 +6052,6 @@
       <c r="O75" t="inlineStr">
         <is>
           <t>10.52080/rvgluz.26.e5.3</t>
-        </is>
-      </c>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t>Venezuela</t>
         </is>
       </c>
     </row>
@@ -6471,7 +6096,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Anguelovski, I., Connolly, J.J.T., Masip, L., Pearsall, H.,Assessing green gentrification in historically disenfranchised neighborhoods: a longitudinal and spatial analysis of Barcelona (Open Access),; Antón-Alonso, F., Porcel, S., Cruz, I.,Factors contextuals associats als processos de gentrificació de l'àrea metropolitana de Barcelona,(2018) Papers: Regió Metropolitana de Barcelona, 60, pp. 64-79. Cited 3 times.; Urquiaga, A.A., Riverola, I.L., Sorando, D.,Living with uncertainty: Rent bubble and waves of gentrification between crises in Madrid (Open Access),; Atkinson, R.,Measuring gentrification and displacement in greater London,; Atkinson, R., Wulff, M. G.,Gentrification and displacement: a review of approaches and findings in the literature,(2009) AHURI Positioning Paper, 115, pp. 1-29. Cited 22 times.; Atkinson, R., Wulff, M., Reynolds, M., Spinney, A.,Gentrification and displacement: The household impacts of neighbourhood change,; Bailey, N., Minton, J.,The suburbanisation of poverty in British cities, 2004-16: extent, processes and nature (Open Access),; Carrasco, J.B.I., Gay, A.L.,Foreigners' residential behaviour in barcelona: Concentration, segregation and residential change (Open Access),; Benach, N., Albet, A.,La gentrificación como una estrategia global,(2018) Papers: Regió Metropolitana de Barcelona: Territori, estratègies, planejament, (60), pp. 0017-0023. Cited 9 times.; Bianco, F., Chapple, K., Kleiman, N., Sobolevsky, S., Chermesh, D., Xi, H., Rodríguez, G., (...), Hambardzumyan, R.,(2018) Map of Gentrification and Displacement for The Greater New York. Cited 2 times.,Recuperado de; Bridge, G.,It's not just a question of taste: Gentrification, the neighbourhood, and cultural capital,; Buzar, S., Ogden, P.E., Hall, R.,Households matter: The quiet demography of urban transformation,; Byrne, M.,Generation rent and the financialization of housing: a comparative exploration of the growth of the private rental sector in Ireland, the UK and Spain,; Cocola-Gant, A.,(2018) Struggling with the leisure class: Tourism, gentrification and displacement. Cited 5 times.,(Tesis doctoral). Cardiff University, Cardiff; Cocola-Gant, A., Lopez-Gay, A.,Transnational gentrification, tourism and the formation of ‘foreign only’ enclaves in Barcelona (Open Access),; Díaz Parra, I.,Procesos de gentrificación en Sevilla en la coyuntura reciente. Análisis compara-do de tres sectores históricos: San Luis-Alameda, Triana y San Bernardo (2000-2006),(2009) Scripta Nova: revista electrónica de geografía y ciencias sociales, XII (304). Cited 12 times.; Parra, I.D., Apaolaza, R.,A census based methodological approach to gentrification recognition (Open Access),; Ding, L., Hwang, J., Divringi, E.,Gentrification and residential mobility in Philadelphia (Open Access),; Domínguez-Mujica, J., Parreño-Castellano, J.M., Moreno-Medina, C.,Vacation rentals, tourism, and international migration: Gentrification in las palmas de gran canaria (spain) from a diachronic perspective,; Domínguez-Mujica, J., González-Pérez, J.M., Parreño-Castellano, J.M., Sánchez-Aguilera, D.,Gentrification on the Move. New Dynamics in Spanish Mature Urban-Tourist Neighborhoods (Open Access),; Donat, Carles,La gentrificació i el problema de l'habitatge a Barcelona,(2018) Papers: Regió Metropolitana de Barcelona, 60, pp. 114-129. Cited 4 times.; Duque-Calvache, R.,La difusión del concepto gentrification en España: reflexión teórica y debate terminológico,(2010) Biblio 3w. Revista bibliografica de Geografia y Ciencias Sociales, XV (875), pp. 1-23. Cited 10 times.; Easton, S., Lees, L., Hubbard, P., Tate, N.,Measuring and mapping displacement: The problem of quantification in the battle against gentrification (Open Access),; Freeman, L.,Displacement or succession? Residential mobility in gentrifying neighborhoods,; Garcia-López, M.-À., Jofre-Monseny, J., Martínez-Mazza, R., Segú, M.,Do short-term rental platforms affect housing markets? Evidence from Airbnb in Barcelona (Open Access),; Glass, R.,Introduction: aspects of change,(1964) . Cited 305 times.; Gomà, R.,La metròpoli entre la gentrificació i el dret a la ciutat,(2018) Papers: Regió Metropolitana de Barcelona: Territori, estratègies, planejament, 60, pp. 10-14. Cited 2 times.; Hall, R., Ogden, P.E., Hill, C.,The pattern and structure of one-person households in England and Wales and France,; Hamnett, C.,Gentrification, postindustrialism, and industrial and occupational restructuring in global cities,(2000) A Companion to the City, pp. 331-341. Cited 57 times.; Herrera, L.M.G., Smith, N., Vera, M.Á.M.,Gentrification, displacement, and tourism in Santa Cruz de Tenerife,; Hochstenbach, C., Musterd, S.,A regional geography of gentrification, displacement, and the suburbanisation of poverty: Towards an extended research agenda (Open Access),; (2016) The Los Angeles Indices of Neighborhood Change. Cited 3 times.,Recuperado de,http://lahub.maps.arcgis.com/apps/MapJournal/index.html?appid=e3f1806c03fc4d0cbc7145aad8e523d9; Janoschka, M.,Gentrificación en España reloaded,(2018) Papers: Regió Metropolitana de Barcelona: Territori, estratègies, planejament, 60, pp. 24-33. Cited 15 times.; Janoschka, M., Sequera, J., Salinas, L.,Gentrification in Spain and Latin America - a Critical Dialogue (Open Access),; Jollife, I.T., Cadima, J.,Principal component analysis: A review and recent developments (Open Access),; Kovács, Z., Wiessner, R., Zischner, R.,Urban Renewal in the Inner City of Budapest: Gentrification from a Post-socialist Perspective,; Lees, L., Bang Shin, H., López-Morales, E.,(2016) Planetary gentrification. Cited 415 times.,Bristol, Inglaterra: Policy Press; Ley, D.,Alternative Explanations for Inner-City Gentrification: A Canadian Assessment,; López-Gay, A.,Cambio en la composición social y gentrificación en Barcelona: una mirada a través de los flujos migratorios y residenciales,(2018) Papers: Regió Metropolitana de Barcelona, 60, pp. 80-93. Cited 19 times.; López-Gay, A., Andújar-Llosa, A., Salvati, L.,Residential Mobility, Gentrification and Neighborhood Change in Spanish Cities: A Post-Crisis Perspective,(2020) Spatial Demography, 8, pp. 351-378. Cited 23 times.; López-Gay, A., Cocola-Gant, A., Russo, A.P.,Urban tourism and population change: Gentrification in the age of mobilities (Open Access),; Martin, I.W., Beck, K.,Gentrification, property tax limitation, and displacement (Open Access),; Martínez García, S.,(2013) Estructura social y desigualdad en España. Cited 18 times.,Madrid: Catarata; Martínez Rigol, S.,(2000) El retorn al centre de la ciutat. La reestructuració del Raval entre la renovació i la gentrificació. Cited 17 times.,(Tesis doctoral). Universitat de Barcelona, Barcelona. Recuperado de; Módenes, J. A.,L'insostenible augment de la inseguretat residencial a Espanya,(2019) Perspectives Demogràfiques, 13, pp. 1-4. Cited 7 times.; Módenes, J.A., López-Colás, J.,Recent demographic change and housing in Spain: Towards a new housing system? (Open Access),; Moos, M., Revington, N., Wilkin, T., Andrey, J.,The knowledge economy city: Gentrification, studentification and youthification, and their connections to universities,; Nel·lo, O.,Segregació residencial, gentrificació urbana i dret a la ciutat: una lectura des de Barcelona,(2018) Papers: Regió Metropolitana de Barcelona, 60, pp. 48-61. Cited 10 times.; Newman, K., Wyly, E.,The right to stay put, revisited: Gentrification and resistance to displacement in New York City,; Ogden, P.E., Schnoebelen, F.,The rise of the small household: Demographic change and household structure in Paris,; Peña, D.,(2002) Análisis de datos multivariantes. Cited 248 times.,Madrid, España: McGraw-Hill Interamericana de España S.L; Porcel, S.,(2016) Dinámicas de estructuración socio-residencial en la Barcelona metropolitana postindustrial ¿hacia una ciudad dual o cuarteada?. Cited 9 times.,(Tesis doctoral). Universitat Autònoma de Barcelona, Barcelona. Recuperado de; Porcel, S., Navarro-Varas, L., Antón-Alonso, F., Cruz, I.,La suburbanització de la pobresa com a efecte metropolità de la gentrificació: el cas de Barcelona,(2018) Papers: Regió Metropolitana de Barcelona, 60, pp. 95-113. Cited 7 times.; Rérat, P., Lees, L.,Spatial capital, gentrification and mobility: Evidence from Swiss core cities,; Riera, J.,(2018) L'índex de gentrificació de Barcelona. Cited 3 times.,Barcelona, Espanya: Edicions Els Llums; Rousseau, M.,Re-imaging the city centre for the middle classes: Regeneration, gentrification and symbolic policies in 'loser cities' (Open Access),; Rubiales Pérez, M.,Territorio y crisis. Impacto territorial de la crisis económica en las regiones metropolitanas de Madrid y Barcelona,(2016) Scripta Nova. Revista Electrónica de Geografía y Ciencias Sociales, XX, p. 549. Cited 9 times.; Rubiales, M.,(2017) Patrones socioterritoriales de las clases altas en las regiones metropolitanas de Barcelona y Madrid (2001 - 2015). Cited 4 times.,(Tesis doctoral). Universitat de Barcelona, Barcelona. Recuperado de; Rubiales, M., Bayona, J., Pujadas, I.,Patrones espaciales de la segregación residencial en la Región Metropolitana de Barcelona: Pautas de segregación voluntaria de los grupos altos,(2012) Scripta Nova. Revista Electrónica de Geografía y Ciencias Sociales, XVI, p. 423. Cited 16 times.; Sales-Favà, J.,(2019) Especialització turística, gentrificació i dinàmiques residencials en un entorn urbà madur: el cas de Barcelona. Cited 3 times.,(Tesis doctoral). Universitat Autònoma de Barcelona, Barcelona. Recuperado de; Sánchez-Aguilera, D., González-Pérez, J.M.,Geographies of Gentrification in Barcelona. Tourism as a Driver of Social Change,; Sarasa, S., Navarro, L., Porcel, S.,(2017) Escenari post-crisi i estructura social metropolitana: vulnerabilitats i cobertura de necessitats des d'una mirada de clase,Bellaterra: IERMB. Recuperado de; Sassen, S.,(1991) The global city. Cited 2738 times.,Nueva York, Estados Unidos: Princeton University Press; Sequera, J.,Las politicas de la gentrificacion en la ciudad neoliberal,(2013) Nuevas clases medias, produccion cultural y gestión del espacio público. el caso de Lavapies en el centro historico de Madrid. Cited 24 times.; Solana-Solana, M., Guitart, A.O., López-Gay, A.,“They’re throwing me out of my house”: Personal and social consequences of residential insecurity in Barcelona (Open Access),; Sorando, D., Ardura, A.,Procesos y dinámicas de gentrificación en las ciudades españolas,(2018) Papers: Regió Metropolitana de Barcelona, 60, pp. 34-47. Cited 16 times.; Sorando, D., Ardura, A.,Desplazamiento: la gentrificación como proceso de expulsión en Madrid,(2021) Documentación Social, 1 (1), p. 1.; Sorando, D., Leal, J.,Distant and unequal: The decline of social mixing in Barcelona and Madrid (Open Access),; Trilla, C., Donat, C., Vergés, A., López, J., Sánchez, A., Arcarons, A.,L'habitatge a la metròpoli de Barcelona, 2017,(2018) ; Verma, P., Rinzler, D., Zuk, M., DaSilva, M., Kaplan, E.,(2018) Rising Housing Costs and Re-Segregation in San Francisco. Cited 7 times.,Recuperado de; Vila Márquez, F.,La (in) esperada gentrificación cultural. El caso Barcelona,(2016) Periférica, 17, pp. 285-297. Cited 3 times.; Vives-Miró, S., Rullan, O.,Dispossession of housing for tourism? Revaluation and displacement in historic center of Palma (Mallorca),; Yrigoy, I.,Airbnb in Menorca: A new form of touristic gentrification? Distribution of touristic housing dwelling, agents and impacts on the residential rent,</t>
+          <t>Anguelovski, I., Connolly, J.J.T., Masip, L., Pearsall, H.,Assessing green gentrification in historically disenfranchised neighborhoods: a longitudinal and spatial analysis of Barcelona,; Antón-Alonso, F., Porcel, S., Cruz, I.,Factors contextuals associats als processos de gentrificació de l'àrea metropolitana de Barcelona,(2018) Papers: Regió Metropolitana de Barcelona, 60, pp. 64-79. Cited 3 times.; Urquiaga, A.A., Riverola, I.L., Sorando, D.,Living with uncertainty: Rent bubble and waves of gentrification between crises in Madrid,; Atkinson, R.,Measuring gentrification and displacement in greater London,; Atkinson, R., Wulff, M. G.,Gentrification and displacement: a review of approaches and findings in the literature,(2009) AHURI Positioning Paper, 115, pp. 1-29. Cited 22 times.; Atkinson, R., Wulff, M., Reynolds, M., Spinney, A.,Gentrification and displacement: The household impacts of neighbourhood change,; Bailey, N., Minton, J.,The suburbanisation of poverty in British cities, 2004-16: extent, processes and nature,; Carrasco, J.B.I., Gay, A.L.,Foreigners' residential behaviour in barcelona: Concentration, segregation and residential change,; Benach, N., Albet, A.,La gentrificación como una estrategia global,(2018) Papers: Regió Metropolitana de Barcelona: Territori, estratègies, planejament, (60), pp. 0017-0023. Cited 9 times.; Bianco, F., Chapple, K., Kleiman, N., Sobolevsky, S., Chermesh, D., Xi, H., Rodríguez, G., (...), Hambardzumyan, R.,(2018) Map of Gentrification and Displacement for The Greater New York. Cited 2 times.,Recuperado de; Bridge, G.,It's not just a question of taste: Gentrification, the neighbourhood, and cultural capital,; Buzar, S., Ogden, P.E., Hall, R.,Households matter: The quiet demography of urban transformation,; Byrne, M.,Generation rent and the financialization of housing: a comparative exploration of the growth of the private rental sector in Ireland, the UK and Spain,; Cocola-Gant, A.,(2018) Struggling with the leisure class: Tourism, gentrification and displacement. Cited 5 times.,(Tesis doctoral). Cardiff University, Cardiff; Cocola-Gant, A., Lopez-Gay, A.,Transnational gentrification, tourism and the formation of ‘foreign only’ enclaves in Barcelona,; Díaz Parra, I.,Procesos de gentrificación en Sevilla en la coyuntura reciente. Análisis compara-do de tres sectores históricos: San Luis-Alameda, Triana y San Bernardo (2000-2006),(2009) Scripta Nova: revista electrónica de geografía y ciencias sociales, XII (304). Cited 12 times.; Parra, I.D., Apaolaza, R.,A census based methodological approach to gentrification recognition,; Ding, L., Hwang, J., Divringi, E.,Gentrification and residential mobility in Philadelphia,; Domínguez-Mujica, J., Parreño-Castellano, J.M., Moreno-Medina, C.,Vacation rentals, tourism, and international migration: Gentrification in las palmas de gran canaria (spain) from a diachronic perspective,; Domínguez-Mujica, J., González-Pérez, J.M., Parreño-Castellano, J.M., Sánchez-Aguilera, D.,Gentrification on the Move. New Dynamics in Spanish Mature Urban-Tourist Neighborhoods,; Donat, Carles,La gentrificació i el problema de l'habitatge a Barcelona,(2018) Papers: Regió Metropolitana de Barcelona, 60, pp. 114-129. Cited 4 times.; Duque-Calvache, R.,La difusión del concepto gentrification en España: reflexión teórica y debate terminológico,(2010) Biblio 3w. Revista bibliografica de Geografia y Ciencias Sociales, XV (875), pp. 1-23. Cited 10 times.; Easton, S., Lees, L., Hubbard, P., Tate, N.,Measuring and mapping displacement: The problem of quantification in the battle against gentrification,; Freeman, L.,Displacement or succession? Residential mobility in gentrifying neighborhoods,; Garcia-López, M.-À., Jofre-Monseny, J., Martínez-Mazza, R., Segú, M.,Do short-term rental platforms affect housing markets? Evidence from Airbnb in Barcelona,; Glass, R.,Introduction: aspects of change,(1964) . Cited 305 times.; Gomà, R.,La metròpoli entre la gentrificació i el dret a la ciutat,(2018) Papers: Regió Metropolitana de Barcelona: Territori, estratègies, planejament, 60, pp. 10-14. Cited 2 times.; Hall, R., Ogden, P.E., Hill, C.,The pattern and structure of one-person households in England and Wales and France,; Hamnett, C.,Gentrification, postindustrialism, and industrial and occupational restructuring in global cities,(2000) A Companion to the City, pp. 331-341. Cited 57 times.; Herrera, L.M.G., Smith, N., Vera, M.Á.M.,Gentrification, displacement, and tourism in Santa Cruz de Tenerife,; Hochstenbach, C., Musterd, S.,A regional geography of gentrification, displacement, and the suburbanisation of poverty: Towards an extended research agenda,; (2016) The Los Angeles Indices of Neighborhood Change. Cited 3 times.,Recuperado de,http://lahub.maps.arcgis.com/apps/MapJournal/index.html?appid=e3f1806c03fc4d0cbc7145aad8e523d9; Janoschka, M.,Gentrificación en España reloaded,(2018) Papers: Regió Metropolitana de Barcelona: Territori, estratègies, planejament, 60, pp. 24-33. Cited 15 times.; Janoschka, M., Sequera, J., Salinas, L.,Gentrification in Spain and Latin America - a Critical Dialogue,; Jollife, I.T., Cadima, J.,Principal component analysis: A review and recent developments,; Kovács, Z., Wiessner, R., Zischner, R.,Urban Renewal in the Inner City of Budapest: Gentrification from a Post-socialist Perspective,; Lees, L., Bang Shin, H., López-Morales, E.,(2016) Planetary gentrification. Cited 417 times.,Bristol, Inglaterra: Policy Press; Ley, D.,Alternative Explanations for Inner-City Gentrification: A Canadian Assessment,; López-Gay, A.,Cambio en la composición social y gentrificación en Barcelona: una mirada a través de los flujos migratorios y residenciales,(2018) Papers: Regió Metropolitana de Barcelona, 60, pp. 80-93. Cited 19 times.; López-Gay, A., Andújar-Llosa, A., Salvati, L.,Residential Mobility, Gentrification and Neighborhood Change in Spanish Cities: A Post-Crisis Perspective,(2020) Spatial Demography, 8, pp. 351-378. Cited 24 times.; López-Gay, A., Cocola-Gant, A., Russo, A.P.,Urban tourism and population change: Gentrification in the age of mobilities (Open Access),; Martin, I.W., Beck, K.,Gentrification, property tax limitation, and displacement (Open Access),; Martínez García, S.,(2013) Estructura social y desigualdad en España. Cited 18 times.,Madrid: Catarata; Martínez Rigol, S.,(2000) El retorn al centre de la ciutat. La reestructuració del Raval entre la renovació i la gentrificació. Cited 18 times.,(Tesis doctoral). Universitat de Barcelona, Barcelona. Recuperado de; Módenes, J. A.,L'insostenible augment de la inseguretat residencial a Espanya,(2019) Perspectives Demogràfiques, 13, pp. 1-4. Cited 7 times.; Módenes, J.A., López-Colás, J.,Recent demographic change and housing in Spain: Towards a new housing system? (Open Access),; Moos, M., Revington, N., Wilkin, T., Andrey, J.,The knowledge economy city: Gentrification, studentification and youthification, and their connections to universities,; Nel·lo, O.,Segregació residencial, gentrificació urbana i dret a la ciutat: una lectura des de Barcelona,(2018) Papers: Regió Metropolitana de Barcelona, 60, pp. 48-61. Cited 10 times.; Newman, K., Wyly, E.,The right to stay put, revisited: Gentrification and resistance to displacement in New York City,; Ogden, P.E., Schnoebelen, F.,The rise of the small household: Demographic change and household structure in Paris (Open Access),; Peña, D.,(2002) Análisis de datos multivariantes. Cited 249 times.,Madrid, España: McGraw-Hill Interamericana de España S.L; Porcel, S.,(2016) Dinámicas de estructuración socio-residencial en la Barcelona metropolitana postindustrial ¿hacia una ciudad dual o cuarteada?. Cited 9 times.,(Tesis doctoral). Universitat Autònoma de Barcelona, Barcelona. Recuperado de; Porcel, S., Navarro-Varas, L., Antón-Alonso, F., Cruz, I.,La suburbanització de la pobresa com a efecte metropolità de la gentrificació: el cas de Barcelona,(2018) Papers: Regió Metropolitana de Barcelona, 60, pp. 95-113. Cited 7 times.; Rérat, P., Lees, L.,Spatial capital, gentrification and mobility: Evidence from Swiss core cities (Open Access),; Riera, J.,(2018) L'índex de gentrificació de Barcelona. Cited 3 times.,Barcelona, Espanya: Edicions Els Llums; Rousseau, M.,Re-imaging the city centre for the middle classes: Regeneration, gentrification and symbolic policies in 'loser cities' (Open Access),; Rubiales Pérez, M.,Territorio y crisis. Impacto territorial de la crisis económica en las regiones metropolitanas de Madrid y Barcelona,(2016) Scripta Nova. Revista Electrónica de Geografía y Ciencias Sociales, XX, p. 549. Cited 9 times.; Rubiales, M.,(2017) Patrones socioterritoriales de las clases altas en las regiones metropolitanas de Barcelona y Madrid (2001 - 2015). Cited 4 times.,(Tesis doctoral). Universitat de Barcelona, Barcelona. Recuperado de; Rubiales, M., Bayona, J., Pujadas, I.,Patrones espaciales de la segregación residencial en la Región Metropolitana de Barcelona: Pautas de segregación voluntaria de los grupos altos,(2012) Scripta Nova. Revista Electrónica de Geografía y Ciencias Sociales, XVI, p. 423. Cited 16 times.; Sales-Favà, J.,(2019) Especialització turística, gentrificació i dinàmiques residencials en un entorn urbà madur: el cas de Barcelona. Cited 3 times.,(Tesis doctoral). Universitat Autònoma de Barcelona, Barcelona. Recuperado de; Sánchez-Aguilera, D., González-Pérez, J.M.,Geographies of Gentrification in Barcelona. Tourism as a Driver of Social Change (Open Access),; Sarasa, S., Navarro, L., Porcel, S.,(2017) Escenari post-crisi i estructura social metropolitana: vulnerabilitats i cobertura de necessitats des d'una mirada de clase,Bellaterra: IERMB. Recuperado de; Sassen, S.,(1991) The global city. Cited 2746 times.,Nueva York, Estados Unidos: Princeton University Press; Sequera, J.,Las politicas de la gentrificacion en la ciudad neoliberal,(2013) Nuevas clases medias, produccion cultural y gestión del espacio público. el caso de Lavapies en el centro historico de Madrid. Cited 25 times.; Solana-Solana, M., Guitart, A.O., López-Gay, A.,“They’re throwing me out of my house”: Personal and social consequences of residential insecurity in Barcelona (Open Access),; Sorando, D., Ardura, A.,Procesos y dinámicas de gentrificación en las ciudades españolas,(2018) Papers: Regió Metropolitana de Barcelona, 60, pp. 34-47. Cited 16 times.; Sorando, D., Ardura, A.,Desplazamiento: la gentrificación como proceso de expulsión en Madrid,(2021) Documentación Social, 1 (1), p. 1.; Sorando, D., Leal, J.,Distant and unequal: The decline of social mixing in Barcelona and Madrid (Open Access),; Trilla, C., Donat, C., Vergés, A., López, J., Sánchez, A., Arcarons, A.,L'habitatge a la metròpoli de Barcelona, 2017,(2018) ; Verma, P., Rinzler, D., Zuk, M., DaSilva, M., Kaplan, E.,(2018) Rising Housing Costs and Re-Segregation in San Francisco. Cited 7 times.,Recuperado de; Vila Márquez, F.,La (in) esperada gentrificación cultural. El caso Barcelona,(2016) Periférica, 17, pp. 285-297. Cited 3 times.; Vives-Miró, S., Rullan, O.,Dispossession of housing for tourism? Revaluation and displacement in historic center of Palma (Mallorca),; Yrigoy, I.,Airbnb in Menorca: A new form of touristic gentrification? Distribution of touristic housing dwelling, agents and impacts on the residential rent (Open Access),</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -6502,11 +6127,6 @@
       <c r="O76" t="inlineStr">
         <is>
           <t>10.3989/estgeogr.202182.095</t>
-        </is>
-      </c>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>Varios Paises</t>
         </is>
       </c>
     </row>
@@ -6551,7 +6171,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t xml:space="preserve">ABBOT, C.,(2008) Enforcing pollution control regulation. Cited 32 times.,Hart Publishing; ARANCIBIA MATTAR, J.,El principio de necesidad de la sanción administrativa como potestad de ultima ratio,(2014) Sanciones Administrativas. X Jornadas de Derecho Administrativo, pp. 129-147. Cited 8 times.; AYRES, I., BRAITHWAITE, J.,(1992) Responsive regulation. Cited 2373 times.,Y, Oxford University Press; BerMejo Vera, J.,La administración inspectora,(1998) Revista de Administración Pública, (147), pp. 40-41. Cited 3 times.; BerMúdez soto, J.,(2014) Derecho administrativo general. Cited 80 times.,Thomson Reuters; CaMaCho CePeda, G.,(2010) La actividad sustancial de la Administración del Estado. Cited 8 times.,Legal Publishing; Canals aMetller, D.,La simplificación administrativa en Cataluña en el marco de la política de mejora regulatoria,(2014) Simplificación del procedimiento administrativo y mejora de la regulación, pp. 343-386. Cited 4 times.; Canals aMetller, D.,El acceso público a datos en un contexto de transparencia y buena regulación,(2016) Datos. Protección, transparencia y buena regulación, pp. 11-52. Cited 8 times.; Cordero quinzaCara, E.,Los principios y reglas comunes al procedimiento administrativo sancionador,(2014) Sanciones Administrativas. X Jornadas de Derecho Administrativo, pp. 189-215. Cited 5 times.; Cordero quizaCara, E.,Derecho administrativo sancionador,(2015) Lecciones de Derecho administrativo; Vega, L.C.,Regulation of administrative sanctions and reference areas in the chilean institutional system (Open Access),; DE LA CUéTARA MARTíNEZ, J. M.,(1983) La actividad de la administración,Tecnos; Ferrada Bórquez, J. C.,La articulación de las potestades administrativas y jurisdiccionales en la aplicación de sanciones administrativas en el Derecho chileno: poderes distintos, pero complementarios,(2014) Sanciones administrativas. X Jornadas de Derecho Administrativo, pp. 239-261. Cited 5 times.; GARCíA DE ENTERRíA, Y, MARTíNEZ-CARANDE, E.,El problema jurídico de las sanciones administrativas,(1976) Revista Española de Derecho Administrativo, (10), pp. 399-430. Cited 11 times.; FERNáNDEZ RODRíGUEZ, T.,(2006) Curso de Derecho administrativo. Cited 163 times.,GARCíA DE ENTERRíA Y MARTíNEZ-CARANDE, E. Y (Tomo II). Civitas; GARCíA LUENGO, J.,Las cartas admonitorias como alternativa al ejercicio de la potestad sancionadora,(2020) Problemas Actuales del Derecho Administrativo Sancionador, pp. 101-129. Cited 2 times.; GARCíA URETA, A.,(2006) La potestad inspectora de las Administraciones públicas. Cited 7 times.,Marcial Pons; GARCíA, P.,La delación compensada en la Ley 21.000,(2020) La Comisión para el Mercado Financiero, pp. 235-246. Cited 2 times.; GARRIDO FALLA, F.,Los medios de la policía y la teoría de las sanciones administrativas,(1959) Revista de Administración Pública, (28), pp. 34-37. Cited 7 times.; GóMEZ GONZáLEZ, R.,(2021) Discrecionalidad y potestad administrativa sancionadora. Límites y mecanismos de control. Cited 4 times.,Tirant lo Blanc; GONZáLEZ NAVARRO, F.,(1995) Derecho administrativo español. Cited 5 times.,(Tomo I). Ediciones Universidad de Navarra; GUILOFF TITIUN, M., SOTO DELGADO, P.,Sanciones administrativas, discrecionalidad y revisión judicial: Una mirada desde la regulación responsiva,(2015) La Nueva Justicia Ambiental, pp. 101-124. Cited 6 times.; Gunningham, N.,Strategizing compliance and enforcement: Responsive regulation and beyond,; HARLOW, C., RAWLINGS, R.,(2010) Law and administration. Cited 336 times.,Y, Cambridge University Press; HERVé ESPEJO, D., PLUMER BODIN, M.,Instrumentos para una intervención institucional estratégica en la fiscalización, sanción y cumplimiento ambiental: el caso del programa de cumplimiento,(2019) Revista de Derecho de la Universidad de Concepción, (245), pp. 11-49. Cited 2 times.; HUERGO LORA, A.,(2007) Las sanciones administrativas. Cited 27 times.,Iustel; HUNTER AMPUERO, I.,Legalidad y oportunidad en el ejercicio de la potestad sancionadora en materia ambiental,(2020) Revista de Derecho (Valparaíso), (54), pp. 95-125. Cited 3 times.; Wartenberg, R.L.,Criminal procedural safeguards and administrative sanctions (Open Access),; Martín-retortillo Báquer, L.,Multas administrativas,(1976) Revista de Administración Pública, (79), pp. 9-65. Cited 6 times.; Martín-retortillo Báquer, L.,Las sanciones administrativas en relación con la defensa de los consumidores con especial referencia a la publicidad de las mismas,(1991) Revista de Administración Pública, (126), pp. 133-187. Cited 2 times.; May, P.J., Winter, S.C.,Regulatory enforcement styles and compliance,; Montero Cartes, C.,Reflexiones en torno a la construcción de la noción de sanción jurídica: El indispensable recurso a la teoría general a objeto de distinguir la sanción administrativa de la pena judicial,(2021) Revista de Derecho Público: Teoría y Método, (4), pp. 125-152.; Montt oyarzún, S.,Autonomía y responsividad: dos expresiones de la vocación juridificadora del Derecho Administrativo y sus principios fundamentales,(2011) Derecho Administrativo y regulación económica. Liber Amicorum. Gaspar Ariño Ortiz, pp. 57-58. Cited 5 times.; NAVARRO BELTRáN, E.,La potestad sancionadora administrativa y la jurisprudencia del Tribunal Constitucional,(2014) Sanciones Administrativas. X Jornadas de Derecho Administrativo, pp. 17-38. Cited 4 times.; NIETO GARCíA, A.,(1994) Derecho Administrativo Sancionador. Cited 63 times.,Tecnos; NIETO GARCíA, A.,La desigualdad en la aplicación de potestades administrativas de gravamen: remedios jurídicos,(1995) Revista de Administración Pública, (137).; NIETO GARCíA, A.,(2017) Derecho Administrativo Sancionador. Cited 63 times.,(5ª Ed). Tecnos; NONET, P., SELZNICK, P.,(2009) Law &amp; society in transition. Toward responsive law. Cited 507 times.,Y, Transaction Publishers; OCHOA MENDOZA, F.,¿Es posible hacer cumplir la ley sin sancionar?,(2016) Derecho PUCP Nº76, pp. 151-180.; Parejo alFonso, L.,(2003) Derecho Administrativo. Cited 4 times.,Ariel; Parejo alFonso, L.,Transformación y reforma del Derecho administrativo en España,(2012) Innovación y reforma en el Derecho administrativo 2.0. Cited 5 times.; PonCe solé, J.,(2001) Deber de buena administración y derecho al procedimiento debido. Las bases constitucionales del procedimiento administrativo y del ejercicio de la discrecionalidad. Cited 10 times.,Lex Nova; Prado BustaMante, S.,(1859) Principios elementales de Derecho administrativo chileno adaptados a la enseñanza del ramo en el Instituto Nacional. Cited 6 times.,Imprenta Nacional; REBOLLO PUIG, M.,La actividad de limitación,(2009) Lecciones y materiales para el estudio del Derecho administrativo (Tomo III: La actividad de las administraciones públicas, II, pp. 13-51. Cited 2 times.; SALINAS BRUZZONE, C.,(2019) Análisis crítico de las prerrogativas sancionatorias del Estado. Cited 3 times.,Thomson Reuters; SANTAMARíA PASTOR, J. A.,(2004) Principios de Derecho Administrativo General. Cited 26 times.,(Tomo II). Iustel; SCHMIDT-ASSMANN, E.,La Teoría General del Derecho administrativo como sistema,(2003) Objeto y fundamentos de la construcción sistemática. Cited 60 times.; SCHMIDT-ASSMANN, E.,Cuestiones fundamentales sobre la reforma de la Teoría General del Derecho Administrativo. Necesidad de la innovación y presupuestos metodológicos,(2012) Innovación y reforma en el Derecho Administrativo 2.0, pp. 21-140. Cited 16 times.; Delgado, P.S.,Administrative sanctions as enforcement tools: A functional and responsive approach applied to environmental penalties system (Open Access),; SOTO KLOSS, E.,(2009) Derecho administrativo. Temas fundamentales. Cited 62 times.,Legal Publishing-Abeledo Perrot; Van Weezel de la Cruz, A.,(2011) La garantía de tipicidad en la jurisprudencia del Tribunal Constitucional. Cited 10 times.,Thomson Reuters; Vergara BlanCo, A.,Esquema de los principios del Derecho Administrativo sancionador,(2004) Revista de Derecho de la Universidad Católica del Norte, Año, 11 (2), pp. 138-139. Cited 14 times.; ZúñIGA URBINA, F.,El retorno a lo administrativo: Comentario a la sentencia Rol Nº1.079-2014 de la Corte Suprema, “Fisco con Chile con Dorr Zegers y Otros” (“Chis-pas II”),(2015) Estudios Constitucionales, Año, 13 (1), pp. 399-416. Cited 3 times.; (2017) Crea la Comisión para el Mercado Financiero,Ley Nº21.000 de 23 de febrero de 2017. D.O. Nº41.692,  55; (2010) Crea el Ministerio, el Servicio de Evaluación Ambiental y la Superintendencia del Medio Ambiente. Cited 23 times.,Ley Nº20.417 de 26 de enero de 2010. D.O. Nº39.570,  57; (2011) Sistema Nacional de Aseguramiento de la Calidad de la Educación parvularia, básica y media y su fiscalización. Cited 24 times.,Ley Nº20.529 de 27 de agosto de 2011. D.O. Nº40.046,  59; Código de Aguas [CA]. Cited 2 times.,Decreto Nº1.122 de 1981 [con fuerza de ley]. 29 de octubre de 1981 (Chile),  61; (1972) Tribunal Supremo,9 de febrero de,  63; (1983) ,Control de Constitucionalidad del proyecto de ley que modifica la Ley Nº18.097, Orgánica Constitucional sobre concesiones Mineras Tribunal Constitucional, 6 de septiembre 1983 (Rol Nº18-83). Pleno,  65; (1996) ,Control de constitucionalidad del proyecto de ley que modifica la ley Nº4.601, Ley de Caza, a fin de proteger la fauna Tribunal Constitucional, 26 de agosto 1996 (Rol Nº244-96). Pleno,  67; (2008) Tribunal Constitucional, 26 de junio 2008 (Rol Nº725-07),Primera Sala,  69; (2009) Tribunal Constitucional. Cited 6 times.,Requerimiento de la Corte Suprema, sobre inaplicabilidad por inconstitucionalidad del inciso primero del artículo 161 del Código Tributario, en los autos Rol Nº5619-2006 de la Corte Suprema 13 de enero 2009 (Rol Nº1.233-08). Segunda Sala,  71; (2012) Tribunal Constitucional. Cited 3 times.,Requerimiento de inaplicabilidad por inconstitucionalidad presentado por Jaime Antonio Illanes Piedrabuena respecto del artículo 53, incisos 3ºy 5º, parte última del Código Tributario contenido en el Decreto Ley Nº830, de 1974 y sus modificaciones, en los autos Rol Nº4885-2010, sobre apelación de sentencia definitiva dictada por el Juez Tributario en proceso sobre reclamación tributaria, en actual tramitación ante la Corte de Apelaciones de Santiago 13 de septiembre 2012 (Rol Nº1.951-11). Segunda Sala,  73; (2014) ,Requerimiento de inaplicabilidad por inconstitucionalidad presentado por Aldo Motta Camp respecto del precepto legal contenido en el inciso segundo del artículo 35 de la Ley Nº19.880, en aquella parte que dispone “cuando a la Administració le consten los hechos alegados por los interesados o la naturaleza del procedimiento que exija en los autos caratulados “Motta Camp Aldo con Superintendencia de Valores y Seguros sobre reclamo de ilegalidad de que conoce la Corte de Apelaciones de Santiago, bajo el Rol NºCivil-4359-2014 Tribunal Constitucional, 30 de octubre 2014 (Rol Nº2.682-14). Segunda Sala,  75; (2016) Corte Suprema, 13 de diciembre 2016 (Rol Nº17.736-2016),Tercera Sala. [Recurso de casación],  77; (2017) ,Control de constitucionalidad del proyecto de ley que Introduce modificaciones al marco normativo que rige las aguas en materia de fiscalización y sanciones, correspondiente al boletín Nº8149-09. Ley Nº21.064 (D. Oficial: 27/01/2018) Tribunal Constitucional, 26 de diciembre 2017 (Rol Nº3.958-17). Pleno,  79; (2019) Corte Suprema, 10 de septiembre 2019 (Rol Nº16.230-2018),Tercera Sala. [Recurso de casación en el fondo], </t>
+          <t xml:space="preserve">ABBOT, C.,(2008) Enforcing pollution control regulation. Cited 32 times.,Hart Publishing; ARANCIBIA MATTAR, J.,El principio de necesidad de la sanción administrativa como potestad de ultima ratio,(2014) Sanciones Administrativas. X Jornadas de Derecho Administrativo, pp. 129-147. Cited 8 times.; AYRES, I., BRAITHWAITE, J.,(1992) Responsive regulation. Cited 2373 times.,Y, Oxford University Press; BerMejo Vera, J.,La administración inspectora,(1998) Revista de Administración Pública, (147), pp. 40-41. Cited 3 times.; BerMúdez soto, J.,(2014) Derecho administrativo general. Cited 80 times.,Thomson Reuters; CaMaCho CePeda, G.,(2010) La actividad sustancial de la Administración del Estado. Cited 8 times.,Legal Publishing; Canals aMetller, D.,La simplificación administrativa en Cataluña en el marco de la política de mejora regulatoria,(2014) Simplificación del procedimiento administrativo y mejora de la regulación, pp. 343-386. Cited 4 times.; Canals aMetller, D.,El acceso público a datos en un contexto de transparencia y buena regulación,(2016) Datos. Protección, transparencia y buena regulación, pp. 11-52. Cited 8 times.; Cordero quinzaCara, E.,Los principios y reglas comunes al procedimiento administrativo sancionador,(2014) Sanciones Administrativas. X Jornadas de Derecho Administrativo, pp. 189-215. Cited 5 times.; Cordero quizaCara, E.,Derecho administrativo sancionador,(2015) Lecciones de Derecho administrativo; Vega, L.C.,Regulation of administrative sanctions and reference areas in the chilean institutional system,; DE LA CUéTARA MARTíNEZ, J. M.,(1983) La actividad de la administración,Tecnos; Ferrada Bórquez, J. C.,La articulación de las potestades administrativas y jurisdiccionales en la aplicación de sanciones administrativas en el Derecho chileno: poderes distintos, pero complementarios,(2014) Sanciones administrativas. X Jornadas de Derecho Administrativo, pp. 239-261. Cited 5 times.; GARCíA DE ENTERRíA, Y, MARTíNEZ-CARANDE, E.,El problema jurídico de las sanciones administrativas,(1976) Revista Española de Derecho Administrativo, (10), pp. 399-430. Cited 11 times.; FERNáNDEZ RODRíGUEZ, T.,(2006) Curso de Derecho administrativo. Cited 163 times.,GARCíA DE ENTERRíA Y MARTíNEZ-CARANDE, E. Y (Tomo II). Civitas; GARCíA LUENGO, J.,Las cartas admonitorias como alternativa al ejercicio de la potestad sancionadora,(2020) Problemas Actuales del Derecho Administrativo Sancionador, pp. 101-129.; GARCíA URETA, A.,(2006) La potestad inspectora de las Administraciones públicas. Cited 7 times.,Marcial Pons; GARCíA, P.,La delación compensada en la Ley 21.000,(2020) La Comisión para el Mercado Financiero, pp. 235-246. Cited 2 times.; GARRIDO FALLA, F.,Los medios de la policía y la teoría de las sanciones administrativas,(1959) Revista de Administración Pública, (28), pp. 34-37. Cited 7 times.; GóMEZ GONZáLEZ, R.,(2021) Discrecionalidad y potestad administrativa sancionadora. Límites y mecanismos de control. Cited 4 times.,Tirant lo Blanc; GONZáLEZ NAVARRO, F.,(1995) Derecho administrativo español. Cited 5 times.,(Tomo I). Ediciones Universidad de Navarra; GUILOFF TITIUN, M., SOTO DELGADO, P.,Sanciones administrativas, discrecionalidad y revisión judicial: Una mirada desde la regulación responsiva,(2015) La Nueva Justicia Ambiental, pp. 101-124. Cited 6 times.; Gunningham, N.,Strategizing compliance and enforcement: Responsive regulation and beyond,; HARLOW, C., RAWLINGS, R.,(2010) Law and administration. Cited 336 times.,Y, Cambridge University Press; HERVé ESPEJO, D., PLUMER BODIN, M.,Instrumentos para una intervención institucional estratégica en la fiscalización, sanción y cumplimiento ambiental: el caso del programa de cumplimiento,(2019) Revista de Derecho de la Universidad de Concepción, (245), pp. 11-49. Cited 2 times.; HUERGO LORA, A.,(2007) Las sanciones administrativas. Cited 27 times.,Iustel; HUNTER AMPUERO, I.,Legalidad y oportunidad en el ejercicio de la potestad sancionadora en materia ambiental,(2020) Revista de Derecho (Valparaíso), (54), pp. 95-125. Cited 3 times.; Wartenberg, R.L.,Criminal procedural safeguards and administrative sanctions,; Martín-retortillo Báquer, L.,Multas administrativas,(1976) Revista de Administración Pública, (79), pp. 9-65. Cited 6 times.; Martín-retortillo Báquer, L.,Las sanciones administrativas en relación con la defensa de los consumidores con especial referencia a la publicidad de las mismas,(1991) Revista de Administración Pública, (126), pp. 133-187. Cited 2 times.; May, P.J., Winter, S.C.,Regulatory enforcement styles and compliance,; Montero Cartes, C.,Reflexiones en torno a la construcción de la noción de sanción jurídica: El indispensable recurso a la teoría general a objeto de distinguir la sanción administrativa de la pena judicial,(2021) Revista de Derecho Público: Teoría y Método, (4), pp. 125-152.; Montt oyarzún, S.,Autonomía y responsividad: dos expresiones de la vocación juridificadora del Derecho Administrativo y sus principios fundamentales,(2011) Derecho Administrativo y regulación económica. Liber Amicorum. Gaspar Ariño Ortiz, pp. 57-58. Cited 5 times.; NAVARRO BELTRáN, E.,La potestad sancionadora administrativa y la jurisprudencia del Tribunal Constitucional,(2014) Sanciones Administrativas. X Jornadas de Derecho Administrativo, pp. 17-38. Cited 4 times.; NIETO GARCíA, A.,(1994) Derecho Administrativo Sancionador. Cited 64 times.,Tecnos; NIETO GARCíA, A.,La desigualdad en la aplicación de potestades administrativas de gravamen: remedios jurídicos,(1995) Revista de Administración Pública, (137).; NIETO GARCíA, A.,(2017) Derecho Administrativo Sancionador. Cited 64 times.,(5ª Ed). Tecnos; NONET, P., SELZNICK, P.,(2009) Law &amp; society in transition. Toward responsive law. Cited 507 times.,Y, Transaction Publishers; OCHOA MENDOZA, F.,¿Es posible hacer cumplir la ley sin sancionar?,(2016) Derecho PUCP Nº76, pp. 151-180.; Parejo alFonso, L.,(2003) Derecho Administrativo. Cited 4 times.,Ariel; Parejo alFonso, L.,Transformación y reforma del Derecho administrativo en España,(2012) Innovación y reforma en el Derecho administrativo 2.0. Cited 5 times.; PonCe solé, J.,(2001) Deber de buena administración y derecho al procedimiento debido. Las bases constitucionales del procedimiento administrativo y del ejercicio de la discrecionalidad. Cited 10 times.,Lex Nova; Prado BustaMante, S.,(1859) Principios elementales de Derecho administrativo chileno adaptados a la enseñanza del ramo en el Instituto Nacional. Cited 6 times.,Imprenta Nacional; REBOLLO PUIG, M.,La actividad de limitación,(2009) Lecciones y materiales para el estudio del Derecho administrativo (Tomo III: La actividad de las administraciones públicas, II, pp. 13-51. Cited 2 times.; SALINAS BRUZZONE, C.,(2019) Análisis crítico de las prerrogativas sancionatorias del Estado. Cited 2 times.,Thomson Reuters; SANTAMARíA PASTOR, J. A.,(2004) Principios de Derecho Administrativo General. Cited 26 times.,(Tomo II). Iustel; SCHMIDT-ASSMANN, E.,La Teoría General del Derecho administrativo como sistema,(2003) Objeto y fundamentos de la construcción sistemática. Cited 60 times.; SCHMIDT-ASSMANN, E.,Cuestiones fundamentales sobre la reforma de la Teoría General del Derecho Administrativo. Necesidad de la innovación y presupuestos metodológicos,(2012) Innovación y reforma en el Derecho Administrativo 2.0, pp. 21-140. Cited 16 times.; Delgado, P.S.,Administrative sanctions as enforcement tools: A functional and responsive approach applied to environmental penalties system,; SOTO KLOSS, E.,(2009) Derecho administrativo. Temas fundamentales. Cited 62 times.,Legal Publishing-Abeledo Perrot; Van Weezel de la Cruz, A.,(2011) La garantía de tipicidad en la jurisprudencia del Tribunal Constitucional. Cited 10 times.,Thomson Reuters; Vergara BlanCo, A.,Esquema de los principios del Derecho Administrativo sancionador,(2004) Revista de Derecho de la Universidad Católica del Norte, Año, 11 (2), pp. 138-139. Cited 14 times.; ZúñIGA URBINA, F.,El retorno a lo administrativo: Comentario a la sentencia Rol Nº1.079-2014 de la Corte Suprema, “Fisco con Chile con Dorr Zegers y Otros” (“Chis-pas II”),(2015) Estudios Constitucionales, Año, 13 (1), pp. 399-416. Cited 3 times.; (2017) Crea la Comisión para el Mercado Financiero,Ley Nº21.000 de 23 de febrero de 2017. D.O. Nº41.692,  55; (2010) Crea el Ministerio, el Servicio de Evaluación Ambiental y la Superintendencia del Medio Ambiente. Cited 24 times.,Ley Nº20.417 de 26 de enero de 2010. D.O. Nº39.570,  57; (2011) Sistema Nacional de Aseguramiento de la Calidad de la Educación parvularia, básica y media y su fiscalización. Cited 24 times.,Ley Nº20.529 de 27 de agosto de 2011. D.O. Nº40.046,  59; Código de Aguas [CA]. Cited 2 times.,Decreto Nº1.122 de 1981 [con fuerza de ley]. 29 de octubre de 1981 (Chile),  61; (1972) Tribunal Supremo,9 de febrero de,  63; (1983) ,Control de Constitucionalidad del proyecto de ley que modifica la Ley Nº18.097, Orgánica Constitucional sobre concesiones Mineras Tribunal Constitucional, 6 de septiembre 1983 (Rol Nº18-83). Pleno,  65; (1996) ,Control de constitucionalidad del proyecto de ley que modifica la ley Nº4.601, Ley de Caza, a fin de proteger la fauna Tribunal Constitucional, 26 de agosto 1996 (Rol Nº244-96). Pleno,  67; (2008) Tribunal Constitucional, 26 de junio 2008 (Rol Nº725-07),Primera Sala,  69; (2009) Tribunal Constitucional. Cited 6 times.,Requerimiento de la Corte Suprema, sobre inaplicabilidad por inconstitucionalidad del inciso primero del artículo 161 del Código Tributario, en los autos Rol Nº5619-2006 de la Corte Suprema 13 de enero 2009 (Rol Nº1.233-08). Segunda Sala,  71; (2012) Tribunal Constitucional. Cited 3 times.,Requerimiento de inaplicabilidad por inconstitucionalidad presentado por Jaime Antonio Illanes Piedrabuena respecto del artículo 53, incisos 3ºy 5º, parte última del Código Tributario contenido en el Decreto Ley Nº830, de 1974 y sus modificaciones, en los autos Rol Nº4885-2010, sobre apelación de sentencia definitiva dictada por el Juez Tributario en proceso sobre reclamación tributaria, en actual tramitación ante la Corte de Apelaciones de Santiago 13 de septiembre 2012 (Rol Nº1.951-11). Segunda Sala,  73; (2014) ,Requerimiento de inaplicabilidad por inconstitucionalidad presentado por Aldo Motta Camp respecto del precepto legal contenido en el inciso segundo del artículo 35 de la Ley Nº19.880, en aquella parte que dispone “cuando a la Administració le consten los hechos alegados por los interesados o la naturaleza del procedimiento que exija en los autos caratulados “Motta Camp Aldo con Superintendencia de Valores y Seguros sobre reclamo de ilegalidad de que conoce la Corte de Apelaciones de Santiago, bajo el Rol NºCivil-4359-2014 Tribunal Constitucional, 30 de octubre 2014 (Rol Nº2.682-14). Segunda Sala,  75; (2016) Corte Suprema, 13 de diciembre 2016 (Rol Nº17.736-2016),Tercera Sala. [Recurso de casación],  77; (2017) ,Control de constitucionalidad del proyecto de ley que Introduce modificaciones al marco normativo que rige las aguas en materia de fiscalización y sanciones, correspondiente al boletín Nº8149-09. Ley Nº21.064 (D. Oficial: 27/01/2018) Tribunal Constitucional, 26 de diciembre 2017 (Rol Nº3.958-17). Pleno,  79; (2019) Corte Suprema, 10 de septiembre 2019 (Rol Nº16.230-2018),Tercera Sala. [Recurso de casación en el fondo], </t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -6571,7 +6191,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>No Encontrado</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -6582,11 +6202,6 @@
       <c r="O77" t="inlineStr">
         <is>
           <t>10.7764/redae.34.4</t>
-        </is>
-      </c>
-      <c r="P77" t="inlineStr">
-        <is>
-          <t>Chile</t>
         </is>
       </c>
     </row>
@@ -6631,7 +6246,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>ARCILA, Oscar,Aproximación Teórica y Metodológica para Estudiar el Fenómeno de la Corrupción,(2000) Departamento Administrativo de la Función Pública. Riesgos de Corrupción en la Administración Pública, p. 1.; ARIAS, Julio,(2006) Identidades culturales y formación del Estado en Colombia: Colonización, Naturaleza y cultura, p. 281.,Bogotá: Universidad de Los Andes; BOEHM, Frédéric,Corrupción y anticorrupción: Una perspectiva Neo-institucional Corrupción y captura en la regulación de los servicios públicos,(2005) Revista de Economía Institucional, Bogotá, 13 (7), pp. 159-264.; CARTIER-BRESSON, Jean,Corrupción institucionalizada y neocorporativismo, con ejemplos del caso francés,(1996) Nueva Sociedad, Buenos Aires, 145, pp. 110-125. Cited 2 times.; CASTAÑEDA, Angélica Sofía Clavijo,Actos de corrupción como violación a los derechos humanos,(2012) Saber, Ciencia y Libertad, Bogotá, 12 (7), pp. 35-45. Cited 4 times.; (2012) Justicia y paz, tierras y territorios en las versiones de los paramilitares, p. 234. Cited 39 times.,Bogotá D.C: CNMH, Available in: Access in: 24 jun. 2018,http://www.centrodememoriahistorica.gov.co/justicia-y-paz/tierras-y-territorios-en-las-versiones-de-los-paramilitares; CHAMPS, Victoria,La ética en una cultura posfilosófica,(1985) Leviatán: Revista de hechos e ideas, (20), pp. 79-83.; (2009) La Corrupción y los Derechos Humanos: Estableciendo el Vínculo, p. 136. Cited 3 times.,CONSEJO INTERNACIONAL PARA EL ESTUDIO DE LOS DERECHOS HUMANOS et al. Monterrey: Instituto Tecnológico de Monterrey, Available in: Access in: 23 jun. 2018,http://workspace.unpan.org/sites/Internet/Documents/UNPAN041206.pdf; (2004) Corte Interamericana de Derechos Humanos. Excepción Preliminar, Fondo, Reparaciones y Costas nº220,San José de Costa Rica, 2 de septiembre de Caso “Instituto de Reeducación del Menor Paraguay. San José de Costa Rica,. Available in&gt;. Access in: 25 jun. 2018,http://www.corteidh.or.cr/docs/casos/articulos/seriec_112_esp.pdf; (2005) Corte Interamericana de Derechos Humanos. Excepción Preliminar, Fondo, Reparaciones y Costas nº112,San José de Costa Rica, 23 de junio de Caso Yatama Nicaragua. San José de Costa Rica,. Available in&gt;. Access in: 25 jun. 2018,http://www.corteidh.or.cr/docs/casos/articulos/seriec_127_esp.pdf; (2006) Corte Interamericana de Derechos Humanos. Excepción Preliminar, Fondo, Reparaciones y Costas nº220,San José de Costa Rica, 1 de julio de Caso de las masacres de Ituango Colombia. San José de Costa Rica,. Available in&gt;. Access in: 25 jun. 2018,http://www.corteidh.or.cr/docs/casos/articulos/seriec_148_esp.pdf; (2010) Corte Interamericana de Derechos Humanos. Excepción Preliminar, Fondo, Reparaciones y Costas nº220,San José de Costa Rica, 26 de novembro de Caso Cabrera García y Montiel Flores México. San José de Costa Rica,. Available in: Access in: 25 jun. 2018,http://www.corteidh.or.cr/docs/casos/articulos/resumen_220_esp.pdf; Comisión de Reclamaciones Eecc Eritrea-etiopía,(2007) ,UNITED NATIONS. Guidance Regarding Jus Ad Bellum Liability nº7 párrafo 8. 27 de julio de; (2015) Tribunal Superior Sala de Justicia y Paz,COLOMBIA. Apelación nº2007-82701. Relator: Uldi Teresa Jiménez López. Condena Contra Freddy Rendón Herrera: Reclutamiento Ilícito de menores. Bogotá, 30 abr,  15; DOIG, Alan,La corrupción y estrategias anticorrupción: algunas cuestiones y estudio de casos de países en vías de desarrollo,(2001) Gestión y Análisis de Políticas Públicas, 21, pp. 117-130.; GARAY, Luis Jorge,(2008) La Captura y Reconfiguración Cooptada del Estado en Colombia, p. 118.,(Ed). Bogotá D.C: Grupo Método; GARAY, Luis Jorge,(2008) La reconfiguración cooptada del Estado: más allá de la concepción tradicional de captura económica del Estado. Cited 4 times.,Bogotá: Fundación AVINA; GARAY, Luis Jorge,Crimen, captura y reconfiguración cooptada del Estado: cuando la descentralización no contribuye a profundizar la democracia,(2010) , p. 48. Cited 6 times.; GARAY, Luis Jorge,(1999) Construcción de una nueva sociedad. Cited 3 times.,Bogotá: Tercer Mundo Editores; GIL, Enrique,(2013) Tesauro de la Responsabilidad Extracontractual del Estado, p. 37. Cited 5 times.,Bogotá: Temis; GONZÁLEZ, Marianne,(2011) Transparencia, lucha contra la corrupción y el Sistema Interamericano de Derechos Humanos, p. 188.,(Ed). Santiago de Chile: Centro de Derechos Humanos, Available in: Access in: 27 jun. 2018; GROPPA, O, BESADA, M.,(2001) Cultura y Corrupción política (orden institucional): Corrupción en el campo político y el económico,Available in: &lt;[&gt;. Access in: 23 junio 2018; Hellman, J., Kaufmann, D.,Confronting the challenge of state capture in transition economics,; Henao, J.C.,Reparation forms on liability of the State: Towards the substantial unification in all the remedies against the State (Open Access),; HUNTINGTON, Samuel,(1968) Political order in changing society. Cited 5326 times.,New Heaven: Yale University Press; KLIGART, Robert,(1988) Controling corruption,California: University Of California Press; LAPALOMBARA, Joseph,(1994) Structural and institutional aspects of corruption, p. 350.,2. ed. Maryland: structural and institutional aspects of corruption; LAPORTA, Francisco,(1997) La corrupción política, p. 20. Cited 11 times.,Madrid: Alianza; (2015) LA CONFIANZA EN AMÉRICA LATINA 1995 - 2015: 20 años de opinión pública latinoamericana. Cited 6 times.,Santiago de Chile: Corporación Latinbarómetro, Available in: Access in: 23 May 2018,http://www.latinobarometro.org/lat.jsp; Mac-Gregor, E.F., Möller, C.M.P.,The obligation to "respect" and "ensure" human rights in the light of the jurisprudence of the inter-American court of human rights analysis of article 1 of the convention of San Jose as a conventional source of Mexican constitutional procedural law (Open Access),; MALDONADO, Carlos,(2001) Corrupción y Derechos Humanos: El malestar general del Estado, p. 112.,Bogotá: Universidad Libre de Colombia Facultad de Filosofía; MATAS, Carles,Los problemas de la implantación de la nueva gestión pública en las administraciones públicas latinas: modelo de Estado y cultura institucional,(2001) Revista del CLAD Reforma y Democracia, pp. 1-28. Cited 36 times.; NASH, Claudio,(2014) Corrupción y derechos humanos: Una mirada desde la jurisprudencia de la corte interamericana de derechos humanos, p. 28. Cited 7 times.,Santiago de Chile: Centro de Derechos Humanos, Available in: Access in: 24 jun. 2018; NYE, Joseph,(1967) Corruption and political development: a cost-benfit-analysis. Cited 16 times.,Washington DC: American Review N51; OLIVERA, Mario,Hacia una sociología de la corrupción,(1999) Alma Mater, Lima, 17, pp. 1-15. Cited 2 times.; OSPINA, Andrés,Responsabilidad frente a la solidaridad: El fundamento abstracto del deber de responder,(2015) La responsabilidad Extracontractual del Estado, p. 121.; PÉREZ, Rogelio,(1991) Corrupción y ambiente de los negocios de Venezuela,Caracas: Ediciones IESA; PETERS, Anne,(2015) Corrupción y Derechos Humanos, p. 42.,Basilea: Basel Institute Of Governance, Available in: Access in: 24 abr. 2018; RICO, José María,(1996) La corrupción pública en américa latina: Manifestaciones y mecanismos de control. Cited 2 times.,Miami: Centro Para La Administración de Justicia; RODRÍGUEZ, Libardo,(2002) Derecho Administrativo general y colombiano, p. 228.,8. ed. Bogotá D.C: Temis; ROSE-ACKERMAN, Susan,(2001) La corrupción y los gobiernos: causas, consecuencias y reforma, p. 366. Cited 24 times.,Madrid: Siglo XXI de España; SUAREZ, F,La corrupción organizacional: aportes para el desarrollo teórico-conceptual,(2001) Revista Probidad, 14.; VILLORIA, Manuel,Combate a la corrupción y fomento de la ética en la gestión pública,(2002) VII Congreso Internacional del CLAD sobre la reforma del estado y de la administración pública, pp. 1-24.; WEBER, Max,(1994) La ciencia como profesión. La política como profesión, p. 118. Cited 50 times.,Madrid: Alianza; WEI, Shang-jin,La corrupción en el desarrollo económico: ¿lubricante beneficioso, molestia menor u obstáculo importante?,(2011) Gestión y Análisis de Políticas Públicas, (21), pp. 83-94. Cited 2 times.</t>
+          <t>ARCILA, Oscar,Aproximación Teórica y Metodológica para Estudiar el Fenómeno de la Corrupción,(2000) Departamento Administrativo de la Función Pública. Riesgos de Corrupción en la Administración Pública, p. 1.; ARIAS, Julio,(2006) Identidades culturales y formación del Estado en Colombia: Colonización, Naturaleza y cultura, p. 281.,Bogotá: Universidad de Los Andes; BOEHM, Frédéric,Corrupción y anticorrupción: Una perspectiva Neo-institucional Corrupción y captura en la regulación de los servicios públicos,(2005) Revista de Economía Institucional, Bogotá, 13 (7), pp. 159-264.; CARTIER-BRESSON, Jean,Corrupción institucionalizada y neocorporativismo, con ejemplos del caso francés,(1996) Nueva Sociedad, Buenos Aires, 145, pp. 110-125.; CASTAÑEDA, Angélica Sofía Clavijo,Actos de corrupción como violación a los derechos humanos,(2012) Saber, Ciencia y Libertad, Bogotá, 12 (7), pp. 35-45. Cited 4 times.; (2012) Justicia y paz, tierras y territorios en las versiones de los paramilitares, p. 234. Cited 39 times.,Bogotá D.C: CNMH, Available in: Access in: 24 jun. 2018,http://www.centrodememoriahistorica.gov.co/justicia-y-paz/tierras-y-territorios-en-las-versiones-de-los-paramilitares; CHAMPS, Victoria,La ética en una cultura posfilosófica,(1985) Leviatán: Revista de hechos e ideas, (20), pp. 79-83.; (2009) La Corrupción y los Derechos Humanos: Estableciendo el Vínculo, p. 136. Cited 3 times.,CONSEJO INTERNACIONAL PARA EL ESTUDIO DE LOS DERECHOS HUMANOS et al. Monterrey: Instituto Tecnológico de Monterrey, Available in: Access in: 23 jun. 2018,http://workspace.unpan.org/sites/Internet/Documents/UNPAN041206.pdf; (2004) Corte Interamericana de Derechos Humanos. Excepción Preliminar, Fondo, Reparaciones y Costas nº220,San José de Costa Rica, 2 de septiembre de Caso “Instituto de Reeducación del Menor Paraguay. San José de Costa Rica,. Available in&gt;. Access in: 25 jun. 2018,http://www.corteidh.or.cr/docs/casos/articulos/seriec_112_esp.pdf; (2005) Corte Interamericana de Derechos Humanos. Excepción Preliminar, Fondo, Reparaciones y Costas nº112,San José de Costa Rica, 23 de junio de Caso Yatama Nicaragua. San José de Costa Rica,. Available in&gt;. Access in: 25 jun. 2018,http://www.corteidh.or.cr/docs/casos/articulos/seriec_127_esp.pdf; (2006) Corte Interamericana de Derechos Humanos. Excepción Preliminar, Fondo, Reparaciones y Costas nº220,San José de Costa Rica, 1 de julio de Caso de las masacres de Ituango Colombia. San José de Costa Rica,. Available in&gt;. Access in: 25 jun. 2018,http://www.corteidh.or.cr/docs/casos/articulos/seriec_148_esp.pdf; (2010) Corte Interamericana de Derechos Humanos. Excepción Preliminar, Fondo, Reparaciones y Costas nº220,San José de Costa Rica, 26 de novembro de Caso Cabrera García y Montiel Flores México. San José de Costa Rica,. Available in: Access in: 25 jun. 2018,http://www.corteidh.or.cr/docs/casos/articulos/resumen_220_esp.pdf; Comisión de Reclamaciones Eecc Eritrea-etiopía,(2007) ,UNITED NATIONS. Guidance Regarding Jus Ad Bellum Liability nº7 párrafo 8. 27 de julio de; (2015) Tribunal Superior Sala de Justicia y Paz,COLOMBIA. Apelación nº2007-82701. Relator: Uldi Teresa Jiménez López. Condena Contra Freddy Rendón Herrera: Reclutamiento Ilícito de menores. Bogotá, 30 abr,  15; DOIG, Alan,La corrupción y estrategias anticorrupción: algunas cuestiones y estudio de casos de países en vías de desarrollo,(2001) Gestión y Análisis de Políticas Públicas, 21, pp. 117-130.; GARAY, Luis Jorge,(2008) La Captura y Reconfiguración Cooptada del Estado en Colombia, p. 118.,(Ed). Bogotá D.C: Grupo Método; GARAY, Luis Jorge,(2008) La reconfiguración cooptada del Estado: más allá de la concepción tradicional de captura económica del Estado. Cited 4 times.,Bogotá: Fundación AVINA; GARAY, Luis Jorge,Crimen, captura y reconfiguración cooptada del Estado: cuando la descentralización no contribuye a profundizar la democracia,(2010) , p. 48. Cited 6 times.; GARAY, Luis Jorge,(1999) Construcción de una nueva sociedad. Cited 3 times.,Bogotá: Tercer Mundo Editores; GIL, Enrique,(2013) Tesauro de la Responsabilidad Extracontractual del Estado, p. 37. Cited 5 times.,Bogotá: Temis; GONZÁLEZ, Marianne,(2011) Transparencia, lucha contra la corrupción y el Sistema Interamericano de Derechos Humanos, p. 188.,(Ed). Santiago de Chile: Centro de Derechos Humanos, Available in: Access in: 27 jun. 2018; GROPPA, O, BESADA, M.,(2001) Cultura y Corrupción política (orden institucional): Corrupción en el campo político y el económico,Available in: &lt;[&gt;. Access in: 23 junio 2018; Hellman, J., Kaufmann, D.,Confronting the challenge of state capture in transition economics,; Henao, J.C.,Reparation forms on liability of the State: Towards the substantial unification in all the remedies against the State,; HUNTINGTON, Samuel,(1968) Political order in changing society. Cited 5332 times.,New Heaven: Yale University Press; KLIGART, Robert,(1988) Controling corruption,California: University Of California Press; LAPALOMBARA, Joseph,(1994) Structural and institutional aspects of corruption, p. 350.,2. ed. Maryland: structural and institutional aspects of corruption; LAPORTA, Francisco,(1997) La corrupción política, p. 20. Cited 11 times.,Madrid: Alianza; (2015) LA CONFIANZA EN AMÉRICA LATINA 1995 - 2015: 20 años de opinión pública latinoamericana. Cited 6 times.,Santiago de Chile: Corporación Latinbarómetro, Available in: Access in: 23 May 2018,http://www.latinobarometro.org/lat.jsp; Mac-Gregor, E.F., Möller, C.M.P.,The obligation to "respect" and "ensure" human rights in the light of the jurisprudence of the inter-American court of human rights analysis of article 1 of the convention of San Jose as a conventional source of Mexican constitutional procedural law,; MALDONADO, Carlos,(2001) Corrupción y Derechos Humanos: El malestar general del Estado, p. 112.,Bogotá: Universidad Libre de Colombia Facultad de Filosofía; MATAS, Carles,Los problemas de la implantación de la nueva gestión pública en las administraciones públicas latinas: modelo de Estado y cultura institucional,(2001) Revista del CLAD Reforma y Democracia, pp. 1-28. Cited 36 times.; NASH, Claudio,(2014) Corrupción y derechos humanos: Una mirada desde la jurisprudencia de la corte interamericana de derechos humanos, p. 28. Cited 10 times.,Santiago de Chile: Centro de Derechos Humanos, Available in: Access in: 24 jun. 2018; NYE, Joseph,(1967) Corruption and political development: a cost-benfit-analysis. Cited 16 times.,Washington DC: American Review N51; OLIVERA, Mario,Hacia una sociología de la corrupción,(1999) Alma Mater, Lima, 17, pp. 1-15. Cited 2 times.; OSPINA, Andrés,Responsabilidad frente a la solidaridad: El fundamento abstracto del deber de responder,(2015) La responsabilidad Extracontractual del Estado, p. 121.; PÉREZ, Rogelio,(1991) Corrupción y ambiente de los negocios de Venezuela,Caracas: Ediciones IESA; PETERS, Anne,(2015) Corrupción y Derechos Humanos, p. 42.,Basilea: Basel Institute Of Governance, Available in: Access in: 24 abr. 2018; RICO, José María,(1996) La corrupción pública en américa latina: Manifestaciones y mecanismos de control. Cited 2 times.,Miami: Centro Para La Administración de Justicia; RODRÍGUEZ, Libardo,(2002) Derecho Administrativo general y colombiano, p. 228.,8. ed. Bogotá D.C: Temis; ROSE-ACKERMAN, Susan,(2001) La corrupción y los gobiernos: causas, consecuencias y reforma, p. 366. Cited 24 times.,Madrid: Siglo XXI de España; SUAREZ, F,La corrupción organizacional: aportes para el desarrollo teórico-conceptual,(2001) Revista Probidad, 14.; VILLORIA, Manuel,Combate a la corrupción y fomento de la ética en la gestión pública,(2002) VII Congreso Internacional del CLAD sobre la reforma del estado y de la administración pública, pp. 1-24.; WEBER, Max,(1994) La ciencia como profesión. La política como profesión, p. 118. Cited 50 times.,Madrid: Alianza; WEI, Shang-jin,La corrupción en el desarrollo económico: ¿lubricante beneficioso, molestia menor u obstáculo importante?,(2011) Gestión y Análisis de Políticas Públicas, (21), pp. 83-94. Cited 2 times.</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -6662,11 +6277,6 @@
       <c r="O78" t="inlineStr">
         <is>
           <t>10.14409/REDOEDA.V8I2.11046</t>
-        </is>
-      </c>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>Colombia</t>
         </is>
       </c>
     </row>
@@ -6711,7 +6321,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>(2018) Informe nacional de la calidad de la educación. Cited 4 times.,Santiago de Chile: Agencia de Calidad de la Educacion,  2; Aguilar, Jesus,Formacion y desarrollo del concepto de justicia educativa en Argentina,(2015) Revista Internacional de Educación para la Justicia Social, 4 (2), pp. 127-143. Cited 2 times.; Apple, Michael, Beane, James,(2012) Escuelas democráticas. Cited 76 times.,Madrid: Morata; Budnik, J.A., Chávez, R.C., López, G.J., Rojo, J.R., Edmonson, R.S., Morales, M.S.,The chilean education enterprise (Open Access),; Bellei, Cristian,(2015) El gran experimento. Mercado y privatización de la educación chilena. Cited 119 times.,Santiago: lom Ediciones; Casassus, Juan,(2003) La escuela y la (des)igualdad. Cited 19 times.,Santiago: lom Ediciones; Chávez, R.C.,The Chilean educational experiment 20 years later: A critical look at the achievements and shortcomings of the school system,; Cornejo, R., Insunza, J.,The teacher as an absent subject of educational movements: An analysis of the teacher's discourse,; Denzin, Norman, Lincoln, Yvonna,(2003) Strategies of qualitative Inquiry. Cited 1197 times.,Londres: Sage publications; Diaz de Rada, Angel,Etnografia de la escuela mas alla de la etnografia y de la escuela: tensiones disciplinares y aplicabilidad de los saberes etnograficos,(2013) Educación y Futuro, 29, pp. 13-39. Cited 9 times.; Díaz, S.D., Rojas, O.A.,Unequal distribution of educational opportunities in the territory and enrollment migration: The case of the region of Los Lagos (Chile) (Open Access),; Donoso, Elizabeth, Valdes, Rene, Cisternas, Prisila,Las interacciones pedagogicas en las clases de resolucion de problemas matematicos,(2020) Páginas de Educación, 13 (1), pp. 82-106.; Echeita, Gerardo, Sandoval, Marta,Educacion inclusiva o educacion sin exclusiones,(2002) Revista de Educación, 327, pp. 31-48. Cited 35 times.; Evans, Ronald,(2015) Schooling corporate citizens. How accountability reform has damaged civic education and undermined democracy. Cited 29 times.,Nueva York: Routledge; Falabella, A.,The performing school: The effects of market &amp; accountability policies (Open Access),; Falabella, A.,The Seduction of Hyper-Surveillance: Standards, Testing, and Accountability,; Fardella, C., Muñoz, F.C.,The social practice theory and the practice as study unit (Open Access),; Flick, Uwe,(2015) El diseño de investigación cualitativa. Cited 222 times.,Madrid: Morata; Fraser, Nancy,De la redistribucion al reconocimiento? Dilemas sobre la justicia en una epoca post-socialista,(1998) Utopías. Nuestra Bandera. Revista de Debate Político, 177, pp. 137-146. Cited 4 times.; Fraser, Nancy,(2008) Escalas de justicia social. Cited 115 times.,Barcelona: Herder; Fraser, Nancy, Honneth, Axel,(2006) ¿Redistribución o reconocimiento?. Cited 131 times.,Madrid: Morata; Gaitan, Lourdes,La nueva sociologia de la infancia. Aportaciones de una mirada distinta,(2006) Política y Sociedad, 43 (1), pp. 9-26. Cited 30 times.; Garcia, Teresa,Bases del derecho a la educacion: la justicia social y la democracia,(2018) Revista Internacional de Educación para la Justicia social, 7 (1), pp. 159-175. Cited 5 times.; Gentili, Pablo,(1996) El Consenso de Washington y la crisis de la educación en América Latina, pp. 1-17. Cited 4 times.,Rio de Janeiro: Universidad del Estado de Rio de Janeiro, Disponible en; Gómez, C.G., Ramos, C.L.S.,,(2015) Revista Mexicana de Investigacion Educativa, 20 (67), pp. 1019-1054. Cited 20 times.; Hall, D., McGinity, R.,Conceptualizing teacher professional identity in neoliberal times: Resistance, compliance and reform (Open Access),; Jiménez, F., Valdivia, M.A., Morales, R.V., Yáñez, M.H.,Migration and school: Documentary analysis on the incorporation of immigrants into the Chilean educational system (Open Access),; Julio, Cristina,Educandos fuera del sistema escolar: derecho conculcado y un compromiso pendiente en la educacion especial chilena,(2010) Revista Latinoamericana de Inclusión Educativa, 4 (2), pp. 119-135. Cited 2 times.; Kohan, Walter,En defensa de una defensa: Elogio de una vida hecha en la escuela,(2018) Elogio de la escuela, pp. 63-83. Cited 2 times.; Koretz, Daniel,(2018) The testing charade: pretending to make schools better. Cited 117 times.,Chicago: American Educator; Krippendorff, Klaus,(1990) Metodología de análisis de contenido. Teoría y práctica. Cited 756 times.,Barcelona: Paidos; Larrosa, Jorge,Experiencia y alteridad en educacion,(2011) Experiencia y alteridad en educación, pp. 13-44. Cited 23 times.; Lerena, Bruno, Trejos, Jimmy,Sobre la posibilidad de una educacion inclusiva bajo el actual modelo de desarrollo economico y social chileno,(2015) Revista Latinoamericana de Educación Inclusiva, 9 (2), pp. 145-160. Cited 8 times.; Loyola, Javier Ignacio, Espinoza, Oscar, Gonzalez, Luis Eduardo, Santa Cruz, Eduardo, Castillo, Dante,Desercion escolar en Chile: Un estudio de caso en relacion con factores intraescolares,(2014) Educación y Educadores, 17 (1), pp. 32-50. Cited 17 times.; Martinic, Sergio, Vergara, Claudia, Huepe, David,Uso del tiempo e interacciones en la sala de clases. Un estudio de casos en Chile,(2013) Pro-Posicoes, 24 (1), pp. 123-135. Cited 17 times.; Matus, C., Infante, M.,Undoing diversity: Knowledge and neoliberal discourses in colleges of education,; (2014) Otros indicadores de calidad educativa. Cited 13 times.,Santiago de Chile: Ministerio de Educacion de Chile. Disponible en,https://www.curriculumnacional.cl/614/articles-70791_estandar.pdf; Murillo, Francisco Javier, Hernandez-Castilla, Reyes,Hacia un concepto de justicia social,(2011) Revista Iberoamericana sobre calidad, Eficacia y Cambio en Educación, 9 (4), pp. 8-23. Cited 13 times.; Murillo, F.J., Krichesky, G.J.,School Improvement: A half-century of learned lessons,; Murillo, F.J., Garrido, C.M.,Social segregation in public and private schools in Latin America (Open Access),; Nussbaum, M.C.,Capabilities as fundamental entitlements: Sen and social justice (Open Access),; Prilleltensky, I.,The What, Why, Who, and How of Globalization: What is Psychology to Do?,; del Valle, L.R.-C., Valdés-Morales, R.,The case as a device of school practices (Open Access),; Rockwell, Elsie,(2009) La experiencia etnográfica. Historia y cultura en los procesos educativos. Cited 161 times.,Buenos Aires: Paidos; Said, Carlos,Colegios en riesgo de cierre pasaron 26 meses sin apoyo focalizado,(2019) La Tercera; Santamaria-Goicuria, Imanol, Stuardo-Concha, Miguel,Una mirada a practicas docentes desde un marco de justicia social,(2018) Revista Internacional de Educación para la Justicia Social, 7 (1), pp. 177-196. Cited 5 times.; Sen, Amartya,Capacidad y bienestar,(1996) La calidad de vida, pp. 54-83. Cited 60 times.; Sen, Amartya,(2010) La idea de la justicia. Cited 149 times.,Ciudad de Mexico: Taurus; Simón, C., Barrios, Á., Gutiérrez, H., Muñoz, Y.,Equity, inclusive education and education for social justice. Do all paths lead to the same goal? (Open Access),; Sisto, V.,Managerialism versus local practices. The decolonization of the managerial discourse from within schools’life,; Sleeter, Christine, Montecinos, Carmen, Jimenez, Felipe,Preparing teachers for social justice in the context of education policies that deepen class segregation in schools: The case of Chile,(2016) Education, Equity, Economy, 2, pp. 171-191. Cited 28 times.; Strauss, Anselm, Corbin, Juliet,Grounded theory methodology: An overview,(1994) Handbook of qualitative research, pp. 273-285. Cited 3973 times.; Tijoux, Maria,Las escuelas de la inmigracion en la ciudad de Santiago: Elementos para una educacion contra el racismo,(2013) Polis, 12 (35), pp. 287-307. Cited 57 times.; Vasquez, Jorge,Adultocentrismo y juventud: aproximaciones foucaulteanas,(2013) Sophia: Colección de Filosofía de la Educación, 15, pp. 217-234. Cited 4 times.; Vazquez, Felix,(1994) Análisis de contenido categorial: el análisis temático, documento de trabajo. Cited 29 times.,Barcelona: Universitat Autonoma de Barcelona; Verger, A., Curran, M.,New public management as a global education policy: its adoption and re-contextualization in a Southern European setting (Open Access),; Verger, A., Bonal, X., Zancajo, A.,Policy enactment and educational quasimarkets: Analysing school offer and demand dynamics in Chile (Open Access),; Verger, Antoni, Parcerisa, Lluis,Test-based accountability and the rise of regulatory governance in education: A review of global drivers,(2018) Education governance and social theory: Interdisciplinary approaches to research, pp. 1-20. Cited 20 times.; Verger, A., Parcerisa, L., Fontdevila, C.,The growth and spread of large-scale assessments and test-based accountabilities: a political sociology of global education reforms (Open Access),; Wenger, Etienne,(2010) Comunidades de práctica. Aprendizaje, significado e identidad. Cited 221 times.,Barcelona: Paidos</t>
+          <t>(2018) Informe nacional de la calidad de la educación. Cited 4 times.,Santiago de Chile: Agencia de Calidad de la Educacion,  2; Aguilar, Jesus,Formacion y desarrollo del concepto de justicia educativa en Argentina,(2015) Revista Internacional de Educación para la Justicia Social, 4 (2), pp. 127-143. Cited 2 times.; Apple, Michael, Beane, James,(2012) Escuelas democráticas. Cited 76 times.,Madrid: Morata; Budnik, J.A., Chávez, R.C., López, G.J., Rojo, J.R., Edmonson, R.S., Morales, M.S.,The chilean education enterprise,; Bellei, Cristian,(2015) El gran experimento. Mercado y privatización de la educación chilena. Cited 119 times.,Santiago: lom Ediciones; Casassus, Juan,(2003) La escuela y la (des)igualdad. Cited 19 times.,Santiago: lom Ediciones; Chávez, R.C.,The Chilean educational experiment 20 years later: A critical look at the achievements and shortcomings of the school system,; Cornejo, R., Insunza, J.,The teacher as an absent subject of educational movements: An analysis of the teacher's discourse,; Denzin, Norman, Lincoln, Yvonna,(2003) Strategies of qualitative Inquiry. Cited 1199 times.,Londres: Sage publications; Diaz de Rada, Angel,Etnografia de la escuela mas alla de la etnografia y de la escuela: tensiones disciplinares y aplicabilidad de los saberes etnograficos,(2013) Educación y Futuro, 29, pp. 13-39. Cited 9 times.; Díaz, S.D., Rojas, O.A.,Unequal distribution of educational opportunities in the territory and enrollment migration: The case of the region of Los Lagos (Chile),; Donoso, Elizabeth, Valdes, Rene, Cisternas, Prisila,Las interacciones pedagogicas en las clases de resolucion de problemas matematicos,(2020) Páginas de Educación, 13 (1), pp. 82-106.; Echeita, Gerardo, Sandoval, Marta,Educacion inclusiva o educacion sin exclusiones,(2002) Revista de Educación, 327, pp. 31-48. Cited 35 times.; Evans, Ronald,(2015) Schooling corporate citizens. How accountability reform has damaged civic education and undermined democracy. Cited 29 times.,Nueva York: Routledge; Falabella, A.,The performing school: The effects of market &amp; accountability policies,; Falabella, A.,The Seduction of Hyper-Surveillance: Standards, Testing, and Accountability,; Fardella, C., Muñoz, F.C.,The social practice theory and the practice as study unit,; Flick, Uwe,(2015) El diseño de investigación cualitativa. Cited 223 times.,Madrid: Morata; Fraser, Nancy,De la redistribucion al reconocimiento? Dilemas sobre la justicia en una epoca post-socialista,(1998) Utopías. Nuestra Bandera. Revista de Debate Político, 177, pp. 137-146. Cited 4 times.; Fraser, Nancy,(2008) Escalas de justicia social. Cited 115 times.,Barcelona: Herder; Fraser, Nancy, Honneth, Axel,(2006) ¿Redistribución o reconocimiento?. Cited 131 times.,Madrid: Morata; Gaitan, Lourdes,La nueva sociologia de la infancia. Aportaciones de una mirada distinta,(2006) Política y Sociedad, 43 (1), pp. 9-26. Cited 30 times.; Garcia, Teresa,Bases del derecho a la educacion: la justicia social y la democracia,(2018) Revista Internacional de Educación para la Justicia social, 7 (1), pp. 159-175. Cited 5 times.; Gentili, Pablo,(1996) El Consenso de Washington y la crisis de la educación en América Latina, pp. 1-17. Cited 4 times.,Rio de Janeiro: Universidad del Estado de Rio de Janeiro, Disponible en; Gómez, C.G., Ramos, C.L.S.,,(2015) Revista Mexicana de Investigacion Educativa, 20 (67), pp. 1019-1054. Cited 20 times.; Hall, D., McGinity, R.,Conceptualizing teacher professional identity in neoliberal times: Resistance, compliance and reform,; Jiménez, F., Valdivia, M.A., Morales, R.V., Yáñez, M.H.,Migration and school: Documentary analysis on the incorporation of immigrants into the Chilean educational system,; Julio, Cristina,Educandos fuera del sistema escolar: derecho conculcado y un compromiso pendiente en la educacion especial chilena,(2010) Revista Latinoamericana de Inclusión Educativa, 4 (2), pp. 119-135. Cited 2 times.; Kohan, Walter,En defensa de una defensa: Elogio de una vida hecha en la escuela,(2018) Elogio de la escuela, pp. 63-83. Cited 2 times.; Koretz, Daniel,(2018) The testing charade: pretending to make schools better. Cited 118 times.,Chicago: American Educator; Krippendorff, Klaus,(1990) Metodología de análisis de contenido. Teoría y práctica. Cited 755 times.,Barcelona: Paidos; Larrosa, Jorge,Experiencia y alteridad en educacion,(2011) Experiencia y alteridad en educación, pp. 13-44. Cited 23 times.; Lerena, Bruno, Trejos, Jimmy,Sobre la posibilidad de una educacion inclusiva bajo el actual modelo de desarrollo economico y social chileno,(2015) Revista Latinoamericana de Educación Inclusiva, 9 (2), pp. 145-160. Cited 8 times.; Loyola, Javier Ignacio, Espinoza, Oscar, Gonzalez, Luis Eduardo, Santa Cruz, Eduardo, Castillo, Dante,Desercion escolar en Chile: Un estudio de caso en relacion con factores intraescolares,(2014) Educación y Educadores, 17 (1), pp. 32-50. Cited 17 times.; Martinic, Sergio, Vergara, Claudia, Huepe, David,Uso del tiempo e interacciones en la sala de clases. Un estudio de casos en Chile,(2013) Pro-Posicoes, 24 (1), pp. 123-135. Cited 17 times.; Matus, C., Infante, M.,Undoing diversity: Knowledge and neoliberal discourses in colleges of education,; (2014) Otros indicadores de calidad educativa. Cited 13 times.,Santiago de Chile: Ministerio de Educacion de Chile. Disponible en,https://www.curriculumnacional.cl/614/articles-70791_estandar.pdf; Murillo, Francisco Javier, Hernandez-Castilla, Reyes,Hacia un concepto de justicia social,(2011) Revista Iberoamericana sobre calidad, Eficacia y Cambio en Educación, 9 (4), pp. 8-23. Cited 14 times.; Murillo, F.J., Krichesky, G.J.,School Improvement: A half-century of learned lessons,; Murillo, F.J., Garrido, C.M.,Social segregation in public and private schools in Latin America (Open Access),; Nussbaum, M.C.,Capabilities as fundamental entitlements: Sen and social justice,; Prilleltensky, I.,The What, Why, Who, and How of Globalization: What is Psychology to Do?,; del Valle, L.R.-C., Valdés-Morales, R.,The case as a device of school practices,; Rockwell, Elsie,(2009) La experiencia etnográfica. Historia y cultura en los procesos educativos. Cited 161 times.,Buenos Aires: Paidos; Said, Carlos,Colegios en riesgo de cierre pasaron 26 meses sin apoyo focalizado,(2019) La Tercera; Santamaria-Goicuria, Imanol, Stuardo-Concha, Miguel,Una mirada a practicas docentes desde un marco de justicia social,(2018) Revista Internacional de Educación para la Justicia Social, 7 (1), pp. 177-196. Cited 5 times.; Sen, Amartya,Capacidad y bienestar,(1996) La calidad de vida, pp. 54-83. Cited 60 times.; Sen, Amartya,(2010) La idea de la justicia. Cited 149 times.,Ciudad de Mexico: Taurus; Simón, C., Barrios, Á., Gutiérrez, H., Muñoz, Y.,Equity, inclusive education and education for social justice. Do all paths lead to the same goal? (Open Access),; Sisto, V.,Managerialism versus local practices. The decolonization of the managerial discourse from within schools’life (Open Access),; Sleeter, Christine, Montecinos, Carmen, Jimenez, Felipe,Preparing teachers for social justice in the context of education policies that deepen class segregation in schools: The case of Chile,(2016) Education, Equity, Economy, 2, pp. 171-191. Cited 28 times.; Strauss, Anselm, Corbin, Juliet,Grounded theory methodology: An overview,(1994) Handbook of qualitative research, pp. 273-285. Cited 3974 times.; Tijoux, Maria,Las escuelas de la inmigracion en la ciudad de Santiago: Elementos para una educacion contra el racismo,(2013) Polis, 12 (35), pp. 287-307. Cited 57 times.; Vasquez, Jorge,Adultocentrismo y juventud: aproximaciones foucaulteanas,(2013) Sophia: Colección de Filosofía de la Educación, 15, pp. 217-234. Cited 4 times.; Vazquez, Felix,(1994) Análisis de contenido categorial: el análisis temático, documento de trabajo. Cited 29 times.,Barcelona: Universitat Autonoma de Barcelona; Verger, A., Curran, M.,New public management as a global education policy: its adoption and re-contextualization in a Southern European setting (Open Access),; Verger, A., Bonal, X., Zancajo, A.,Policy enactment and educational quasimarkets: Analysing school offer and demand dynamics in Chile (Open Access),; Verger, Antoni, Parcerisa, Lluis,Test-based accountability and the rise of regulatory governance in education: A review of global drivers,(2018) Education governance and social theory: Interdisciplinary approaches to research, pp. 1-20. Cited 20 times.; Verger, A., Parcerisa, L., Fontdevila, C.,The growth and spread of large-scale assessments and test-based accountabilities: a political sociology of global education reforms (Open Access),; Wenger, Etienne,(2010) Comunidades de práctica. Aprendizaje, significado e identidad. Cited 221 times.,Barcelona: Paidos</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -6742,11 +6352,6 @@
       <c r="O79" t="inlineStr">
         <is>
           <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85125749585&amp;partnerID=40&amp;md5=04c7c3059134762fa5b92dceb6558575</t>
-        </is>
-      </c>
-      <c r="P79" t="inlineStr">
-        <is>
-          <t>Chile</t>
         </is>
       </c>
     </row>
@@ -6791,7 +6396,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Alas, R.,The impact of employee participation on job satisfaction during change process,; Armijos, F. B., Bermúdez, A. I., Mora, N. V.,Gestión de administración de los Recursos Humanos,(2019) Revista Universidad y Sociedad, 11 (4), pp. 163-170. Cited 5 times.; Bustos, C. L.,The Incentives and Salary Structure System in Teacher Professional Development. The Case of the National Teacher Performance Evaluation System,(2020) Foro Educacional, (35), pp. 87-102.; Bykova, A., Coates, D.,DOES EXPERIENCE MATTER? SALARY DISPERSION, COACHING, AND TEAM PERFORMANCE (Open Access),; Ferris, G.R., Witt, L.A., Hochwarter, W.A.,Interaction of social skill and general mental ability on job performance and salary,; García-Hernández, A., González-Ramírez, T.,El rendimiento académico en matemáticas discretas:un estudio predictivo,(2020) Atenas, 1 (49), pp. 118-134.; Gębczyńska, A., Brajer-Marczak, R.,Review of selected performance measurement models used in public administration (Open Access),; Gibson, J., Ivancevich, J., Donelly, J.,(2001) Fundamentos de dirección y administración de empresas. Cited 2 times.,McGraw Hill; Godbless, E. E.,Moral Leadership, Shared Values, Employee Engagement, and Staff Job Performance in the University Value Chain,(2021) International Journal of Organizational Ladership, 10 (1), pp. 15-38. Cited 3 times.; González-Díaz, R. R., Cruz-Ayala, K.,Contraloría financiera en la contratación pública. Una revisión de los contratos de obras públicas del estado Venezolano,(2020) Inquietud empresarial, 20 (1), pp. 43-58. Cited 4 times.; González-Díaz, R. R., Ledesma, K. N. F.,Cultura organizacional y Sustentabilidad empresarial en las Pymes durante crisis periodos de confinamiento social,(2020) CIID Journal, 1 (1), pp. 28-41. Cited 12 times.; González-Díaz, R. R., Perez, L. A. B.,Análisis financiero empresarial del sector comercio como factor de competitividad través de la lógica difusa,(2015) Estrategia, 1 (1), pp. 1-10. Cited 8 times.; González-Díaz, R. R., Acevedo-Duque, Á. E., Guanilo-Gómez, S. L., Cachicatari-Vargas, E.,Business counterintelligence as a protection strategy for SMEs,(2021) Entrepreneurship and Sustainability Issues, 8 (3), pp. 340-352. Cited 15 times.; González-Díaz, R.R., Becerra-Peréz, L.A., Acevedo-Duque, A.E.,Narco-marketing as a strategy for local tourism development,; González-Díaz, R. R., Lara, R. J. V., López, R. O., Hernández-Royett, J.,Tax on advertising and commercial advertising: An analysis from Municipal Tax Management,(2016) Globalciencia, 2 (1), pp. 20-34. Cited 6 times.; Hall, E.V., Avery, D.R., McKay, P.F., Blot, J.F., Edwards, M.,Composition and compensation: The moderating effect of individual and team performance on the relationship between Black team member representation and salary,; He, P., Findley, H., Wheatley, R.,The effects of training on job satisfaction and service quality among temporary employees:the mediating role of affective commitment,(2017) Journal of Management and Marketing Research, 21, pp. 1-17. Cited 2 times.; Hernandez-Julio, Y.F., Merino-Fuentes, I., Gonzalez-Diaz, R.R., Guerrero-Avendano, A., Toledo, L.V.O., Bernal, W.N.,Fuzzy knowledge discovery and decision-making through clustering and Dynamic tables : Application in Colombian business Finance,; Ledesma, K. N. F., González-Díaz, R. R.,Etica sindical en la negociación de contrato colectivo de construcción de obras públicas,(2020) Caso Ducolsa. CIID Journal, 1 (1), pp. 01-14. Cited 6 times.; Ledesma, K. N. F., González-Díaz, R. R., Contreras, E. E. L.,Estrategia alternativa para la resolución de conflictos en las redes sociales digitales,(2020) CIID Journal, 1 (1), pp. 103-113. Cited 5 times.; Lee, Y., Chang, H.,Relations between Team Work and Innovation in Organizations and the Job Satisfaction of Employees: A Factor Analytic Study,(2008) International Journal of Management, 25 (3), pp. 732-739. Cited 27 times.; Maini, R., Mounier-Jack, S., Borghi, J.,Performance-based financing versus improving salary payments to workers: Insights from the Democratic Republic of Congo (Open Access),; Maleka, M.J., Paul-Dachapalli, L.-A., Ragadu, S.C., Schultz, C.M., Van Hoek, L.,Performance management, Vigour, and training and development as predictors of job satisfaction in low-income workers (Open Access),; Medina, S.,(2017) Desempeño laboral del personal administrativo nombrado de la municipalidad de santa,Universidad Cesar Vallejo, Perú; Moynihan, D.P., Pandey, S.K.,Finding workable levers over work motivation: Comparing job satisfaction, job involvement, and organizational commitment,; Nguyen, P.V., Tran, T.T.T.,Role of motivation to learn in training transfer and job performance under peer and supervisor support in the Vietnamese public sector (Open Access),; Parent-Lamarche, A., Marchand, A., Saade, S.,How do work organization conditions affect job performance? The mediating role of workers’ well-being,; Pedraza, E., Amaya, G., Conde, M.,Labor Performance and the Stability of Administrative Personnel Contracted in the School of Medicine at the University of Zulia,; Pimentel, P.,(2014) Análisis del desempeño laboral del personal profesional, técnico y auxiliar en la municipalidad provincial de Leoncio Prado,Universidad Agraria de la Selva; Qing, M., Asif, M., Hussain, A., Jameel, A.,Exploring the impact of ethical leadership on job satisfaction and organizational commitment in public sector organizations: the mediating role of psychological empowerment,; Quintero, A., Guerrero, F.,Valores éticos y desempeño laboral de los empleados universitarios de sector público,(2004) TELOS, 6 (3).; Ravina, R., Villena, F., Gutiérrez, G.,Una aproximación teórica para mejorar los resultados de innovación en las empresas desde la perspectiva del “Happiness Management”,(2017) Revista de Ciencias de la Administración y Economía, Retos, VIII (14), pp. 113-129. Cited 25 times.; Tabiu, A., Pangil, F., Othman, S.Z.,Does Training, Job Autonomy and Career Planning Predict Employees’ Adaptive Performance?,; Ugwu, C.I.,Mediation effect of knowledge management on the relationship between transformational leadership and job performance of librarians in university libraries in Nigeria,; Vahle-Hinz, T., de Bloom, J., Syrek, C., Kühnel, J.,Putting the Episodic Process Model to the Test: Explaining Intraindividual Fluctuations in Job Performance Across the Working Day (Open Access),</t>
+          <t>Alas, R.,The impact of employee participation on job satisfaction during change process,; Armijos, F. B., Bermúdez, A. I., Mora, N. V.,Gestión de administración de los Recursos Humanos,(2019) Revista Universidad y Sociedad, 11 (4), pp. 163-170. Cited 5 times.; Bustos, C. L.,The Incentives and Salary Structure System in Teacher Professional Development. The Case of the National Teacher Performance Evaluation System,(2020) Foro Educacional, (35), pp. 87-102.; Bykova, A., Coates, D.,DOES EXPERIENCE MATTER? SALARY DISPERSION, COACHING, AND TEAM PERFORMANCE,; Ferris, G.R., Witt, L.A., Hochwarter, W.A.,Interaction of social skill and general mental ability on job performance and salary,; García-Hernández, A., González-Ramírez, T.,El rendimiento académico en matemáticas discretas:un estudio predictivo,(2020) Atenas, 1 (49), pp. 118-134.; Gębczyńska, A., Brajer-Marczak, R.,Review of selected performance measurement models used in public administration,; Gibson, J., Ivancevich, J., Donelly, J.,(2001) Fundamentos de dirección y administración de empresas. Cited 2 times.,McGraw Hill; Godbless, E. E.,Moral Leadership, Shared Values, Employee Engagement, and Staff Job Performance in the University Value Chain,(2021) International Journal of Organizational Ladership, 10 (1), pp. 15-38. Cited 3 times.; González-Díaz, R. R., Cruz-Ayala, K.,Contraloría financiera en la contratación pública. Una revisión de los contratos de obras públicas del estado Venezolano,(2020) Inquietud empresarial, 20 (1), pp. 43-58. Cited 4 times.; González-Díaz, R. R., Ledesma, K. N. F.,Cultura organizacional y Sustentabilidad empresarial en las Pymes durante crisis periodos de confinamiento social,(2020) CIID Journal, 1 (1), pp. 28-41. Cited 12 times.; González-Díaz, R. R., Perez, L. A. B.,Análisis financiero empresarial del sector comercio como factor de competitividad través de la lógica difusa,(2015) Estrategia, 1 (1), pp. 1-10. Cited 8 times.; González-Díaz, R. R., Acevedo-Duque, Á. E., Guanilo-Gómez, S. L., Cachicatari-Vargas, E.,Business counterintelligence as a protection strategy for SMEs,(2021) Entrepreneurship and Sustainability Issues, 8 (3), pp. 340-352. Cited 15 times.; González-Díaz, R.R., Becerra-Peréz, L.A., Acevedo-Duque, A.E.,Narco-marketing as a strategy for local tourism development,; González-Díaz, R. R., Lara, R. J. V., López, R. O., Hernández-Royett, J.,Tax on advertising and commercial advertising: An analysis from Municipal Tax Management,(2016) Globalciencia, 2 (1), pp. 20-34. Cited 6 times.; Hall, E.V., Avery, D.R., McKay, P.F., Blot, J.F., Edwards, M.,Composition and compensation: The moderating effect of individual and team performance on the relationship between Black team member representation and salary,; He, P., Findley, H., Wheatley, R.,The effects of training on job satisfaction and service quality among temporary employees:the mediating role of affective commitment,(2017) Journal of Management and Marketing Research, 21, pp. 1-17. Cited 2 times.; Hernandez-Julio, Y.F., Merino-Fuentes, I., Gonzalez-Diaz, R.R., Guerrero-Avendano, A., Toledo, L.V.O., Bernal, W.N.,Fuzzy knowledge discovery and decision-making through clustering and Dynamic tables : Application in Colombian business Finance,; Ledesma, K. N. F., González-Díaz, R. R.,Etica sindical en la negociación de contrato colectivo de construcción de obras públicas,(2020) Caso Ducolsa. CIID Journal, 1 (1), pp. 01-14. Cited 6 times.; Ledesma, K. N. F., González-Díaz, R. R., Contreras, E. E. L.,Estrategia alternativa para la resolución de conflictos en las redes sociales digitales,(2020) CIID Journal, 1 (1), pp. 103-113. Cited 5 times.; Lee, Y., Chang, H.,Relations between Team Work and Innovation in Organizations and the Job Satisfaction of Employees: A Factor Analytic Study,(2008) International Journal of Management, 25 (3), pp. 732-739. Cited 27 times.; Maini, R., Mounier-Jack, S., Borghi, J.,Performance-based financing versus improving salary payments to workers: Insights from the Democratic Republic of Congo,; Maleka, M.J., Paul-Dachapalli, L.-A., Ragadu, S.C., Schultz, C.M., Van Hoek, L.,Performance management, Vigour, and training and development as predictors of job satisfaction in low-income workers,; Medina, S.,(2017) Desempeño laboral del personal administrativo nombrado de la municipalidad de santa,Universidad Cesar Vallejo, Perú; Moynihan, D.P., Pandey, S.K.,Finding workable levers over work motivation: Comparing job satisfaction, job involvement, and organizational commitment,; Nguyen, P.V., Tran, T.T.T.,Role of motivation to learn in training transfer and job performance under peer and supervisor support in the Vietnamese public sector (Open Access),; Parent-Lamarche, A., Marchand, A., Saade, S.,How do work organization conditions affect job performance? The mediating role of workers’ well-being (Open Access),; Pedraza, E., Amaya, G., Conde, M.,Labor Performance and the Stability of Administrative Personnel Contracted in the School of Medicine at the University of Zulia (Open Access),; Pimentel, P.,(2014) Análisis del desempeño laboral del personal profesional, técnico y auxiliar en la municipalidad provincial de Leoncio Prado,Universidad Agraria de la Selva; Qing, M., Asif, M., Hussain, A., Jameel, A.,Exploring the impact of ethical leadership on job satisfaction and organizational commitment in public sector organizations: the mediating role of psychological empowerment,; Quintero, A., Guerrero, F.,Valores éticos y desempeño laboral de los empleados universitarios de sector público,(2004) TELOS, 6 (3).; Ravina, R., Villena, F., Gutiérrez, G.,Una aproximación teórica para mejorar los resultados de innovación en las empresas desde la perspectiva del “Happiness Management”,(2017) Revista de Ciencias de la Administración y Economía, Retos, VIII (14), pp. 113-129. Cited 25 times.; Tabiu, A., Pangil, F., Othman, S.Z.,Does Training, Job Autonomy and Career Planning Predict Employees’ Adaptive Performance?,; Ugwu, C.I.,Mediation effect of knowledge management on the relationship between transformational leadership and job performance of librarians in university libraries in Nigeria (Open Access),; Vahle-Hinz, T., de Bloom, J., Syrek, C., Kühnel, J.,Putting the Episodic Process Model to the Test: Explaining Intraindividual Fluctuations in Job Performance Across the Working Day (Open Access),</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -6822,11 +6427,6 @@
       <c r="O80" t="inlineStr">
         <is>
           <t>10.19052/rvgluz.27.95.12</t>
-        </is>
-      </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>Peru</t>
         </is>
       </c>
     </row>
@@ -6871,7 +6471,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>(2016) Identifican presunta responsabilidad penal en exfuncionarios del municipio de Huancayo,Agencia Peruana de Noticias (27 de noviembre). Lima, Perú,https://andina.pe/agencia/noticia-identifican-presunta-responsabilidad-penal-exfuncionarios-del-municipio-huancayo-823154.aspx; Al-Haroon, H.I., Al-Qahtani, M.F.,Assessment of organizational commitment among nurses in a major public hospital in Saudi Arabia (Open Access),; Artigas, P.,(2012) Responsabilidad social enmarcada en los valores del evangelio caso: red de supermercados Sucasa,S.A. (Tesis de Maestría). Universidad Nacional Experimental “Simón Rodríguez Caracas, República Bolivariana de Venezuela; (2006) La semántica de la responsabilidad social corporativa, pp. 33-40. Cited 5 times.,Asociación Española de Contabilidad y Administración Madrid, Gráficas ORMAG,https://aeca.es/wp-content/uploads/2014/05/rs3.pdf; Borthiry Loreficchi, N.,(2002) Gestión pública municipal del turismo. Un desafío basado en el fortalecimiento institucional y en la participación,(Monografía de Graduación), Universidad Nacional de Mar del Plata. 15/03/2021; Canessa, G., García, E.,El ABC de la Responsabilidad Social Empresarial en el Perú y en el Mundo,(2005) Revista científica dominio de las ciencias, 1 (2), pp. 117-126.; Canyelles, J.,Responsabilidad social de las administraciones públicas,(2011) Revista de contabilidad y dirección, 1 (13), pp. 77-104. Cited 19 times.; Castillo, F.,(2007) Análisis de la responsabilidad social ejercida por el Centro de Entrenamiento Pesquero de Paita: Propuesta de desarrollo, pp. 1-259.,Pontificia Universidad Católica del Perú (tesis); Chávez, J. C.,(2019) Responsabilidad social y compromiso organizacional de los trabajadores de DACIA S.A.C., Comas,(Tesis), Universidad Cesar Vallejo, Lima Perú; (1997) Ley de nepotismo n ° 26771. Establecen prohibición de ejercer la facultad de nombramiento y contratación de personal en el sector público, en casos de parentesco,Congreso de la República,https://www.oas.org/juridico/PDFs/mesicic4_per_ley26771.pdf; (2020) Ley Marco de Modernización de la Gestión del Estado N° 27658,Congreso de la República,https://www.minagri.gob.pe/portal/download/pdf/cetsar/ley-modernizacion.pdf; Cornejo, A.,Evolución de la RSE en el Perú,(2014) Perú, 1 (1), pp. 52-54.; http://utilidades.gatovolador.net/issuu/down.php?url=https%3A%2F%2Fissuu.com%2Fstakeholdersrs%2Fdocs%2Fperu_2021_-_20_a__os_de_compromiso_&amp;inicial=1&amp;np=76,  13,Đorđević, B., Ivanović, M., Lepojević, V., Milanović, S.; Ferrer, M. A.,La dimensión externa de la responsabilidad social empresarial de CANTV,(2013) Telos, 15 (3).; Gaete, R.,Aplicaciones de la Responsabilidad Social a la nueva gestión pública,(2008) Documentos y aportes en administración pública y gestión estatal, 1 (11), pp. 35-61. Cited 7 times.; Hernández, G. Y., Castro, D.,Responsabilidad social como estrategia activadora del compromiso organizacional de los trabajadores,(2015) Revista Científica Electrónica de Ciencias Gerenciales, 10 (1), pp. 123-141.; (2010) Guía de responsabilidad social INTE/ISO 26000:2010,Instituto de Normas Técnicas de Costa Rica, INTECO San José: INTECO,https://ucipfg.com/Repositorio/GSPM/pcMAPv03/CursosBases/Virtuales/MAPD-11-Responsabilidad/Material/UNDAD2/26000-2010.pdf; (2017) Junín, Compendio estadístico. Cited 2 times.,Instituto Nacional de Estadística e informática INEI 1 Edición, Instituto Nacional de Estadística e Informática,https://www.inei.gob.pe/media/MenuRecursivo/publicaciones_digitales/Est/Lib1497/libro.pdf; (2019) Huancayo: alcalde Chamorro declaró ante Fiscalía Anticorrupción por la Plaza Constitución,La Republica Lima, Perú,https://larepublica.pe/sociedad/1290324-huancayo-alcides-chamorro-declaro-fiscalia-denuncia-delito-peculado-malversacion-plaza-constitucion-funcionarios/?ref=lre; López, E.,(2018) Responsabilidad social y compromiso organizacional de los empleados públicos de la Municipalidad Provincial de Huancayo,(Tesis de Maestría), Universidad Nacional del Centro del Perú, Huancayo, Perú; Luque González, A., Merino Chiliquinga, V.E., Solís Benavides, P.R.,Socially responsible public management: Case spinning development in ecuador (Open Access),; Meyer, J.P., Alien, N.J.,A three-component conceptualization of organizational commitment,; (2019) Ordenanza N° 006-2019-CPPAL-CDSMC/MDLV,Municipalidad Distrital de La Victoria en el Perú Normas legales El Peruano. Lima Perú,  24; Sánchez, H., Reyes, C., Mejía, K.,(2018) Manual de términos en investigación científica, tecnológica y humanística. Cited 15 times.,Trabajo académico, Universidad Ricardo Palma, Perú; Soto, L., Batista, J.,La responsabilidad social de la empresa estatal en el ejercicio pleno de los derechos de los trabajadores en la empresa estatal en Cuba,(2020) Revista IUS, 1 (45), pp. 55-79.; Tomba, C., Muñoz, C., Allisiardi, A.,La responsabilidad social de la publicidad: el rol de las campañas de bien público,(2020) Revista VivatAcademia, XIII (150), pp. 103-129. Cited 3 times.; Vargas-Merino, J.A.,Social Innovation: New Face of Social Responsibility? critical conceptualization from the university perspective,</t>
+          <t>(2016) Identifican presunta responsabilidad penal en exfuncionarios del municipio de Huancayo,Agencia Peruana de Noticias (27 de noviembre). Lima, Perú,https://andina.pe/agencia/noticia-identifican-presunta-responsabilidad-penal-exfuncionarios-del-municipio-huancayo-823154.aspx; Al-Haroon, H.I., Al-Qahtani, M.F.,Assessment of organizational commitment among nurses in a major public hospital in Saudi Arabia,; Artigas, P.,(2012) Responsabilidad social enmarcada en los valores del evangelio caso: red de supermercados Sucasa,S.A. (Tesis de Maestría). Universidad Nacional Experimental “Simón Rodríguez Caracas, República Bolivariana de Venezuela; (2006) La semántica de la responsabilidad social corporativa, pp. 33-40. Cited 5 times.,Asociación Española de Contabilidad y Administración Madrid, Gráficas ORMAG,https://aeca.es/wp-content/uploads/2014/05/rs3.pdf; Borthiry Loreficchi, N.,(2002) Gestión pública municipal del turismo. Un desafío basado en el fortalecimiento institucional y en la participación,(Monografía de Graduación), Universidad Nacional de Mar del Plata. 15/03/2021; Canessa, G., García, E.,El ABC de la Responsabilidad Social Empresarial en el Perú y en el Mundo,(2005) Revista científica dominio de las ciencias, 1 (2), pp. 117-126.; Canyelles, J.,Responsabilidad social de las administraciones públicas,(2011) Revista de contabilidad y dirección, 1 (13), pp. 77-104. Cited 20 times.; Castillo, F.,(2007) Análisis de la responsabilidad social ejercida por el Centro de Entrenamiento Pesquero de Paita: Propuesta de desarrollo, pp. 1-259.,Pontificia Universidad Católica del Perú (tesis); Chávez, J. C.,(2019) Responsabilidad social y compromiso organizacional de los trabajadores de DACIA S.A.C., Comas,(Tesis), Universidad Cesar Vallejo, Lima Perú; (1997) Ley de nepotismo n ° 26771. Establecen prohibición de ejercer la facultad de nombramiento y contratación de personal en el sector público, en casos de parentesco,Congreso de la República,https://www.oas.org/juridico/PDFs/mesicic4_per_ley26771.pdf; (2020) Ley Marco de Modernización de la Gestión del Estado N° 27658,Congreso de la República,https://www.minagri.gob.pe/portal/download/pdf/cetsar/ley-modernizacion.pdf; Cornejo, A.,Evolución de la RSE en el Perú,(2014) Perú, 1 (1), pp. 52-54.; http://utilidades.gatovolador.net/issuu/down.php?url=https%3A%2F%2Fissuu.com%2Fstakeholdersrs%2Fdocs%2Fperu_2021_-_20_a__os_de_compromiso_&amp;inicial=1&amp;np=76,  13,Đorđević, B., Ivanović, M., Lepojević, V., Milanović, S.; Ferrer, M. A.,La dimensión externa de la responsabilidad social empresarial de CANTV,(2013) Telos, 15 (3).; Gaete, R.,Aplicaciones de la Responsabilidad Social a la nueva gestión pública,(2008) Documentos y aportes en administración pública y gestión estatal, 1 (11), pp. 35-61. Cited 7 times.; Hernández, G. Y., Castro, D.,Responsabilidad social como estrategia activadora del compromiso organizacional de los trabajadores,(2015) Revista Científica Electrónica de Ciencias Gerenciales, 10 (1), pp. 123-141.; (2010) Guía de responsabilidad social INTE/ISO 26000:2010,Instituto de Normas Técnicas de Costa Rica, INTECO San José: INTECO,https://ucipfg.com/Repositorio/GSPM/pcMAPv03/CursosBases/Virtuales/MAPD-11-Responsabilidad/Material/UNDAD2/26000-2010.pdf; (2017) Junín, Compendio estadístico. Cited 2 times.,Instituto Nacional de Estadística e informática INEI 1 Edición, Instituto Nacional de Estadística e Informática,https://www.inei.gob.pe/media/MenuRecursivo/publicaciones_digitales/Est/Lib1497/libro.pdf; (2019) Huancayo: alcalde Chamorro declaró ante Fiscalía Anticorrupción por la Plaza Constitución,La Republica Lima, Perú,https://larepublica.pe/sociedad/1290324-huancayo-alcides-chamorro-declaro-fiscalia-denuncia-delito-peculado-malversacion-plaza-constitucion-funcionarios/?ref=lre; López, E.,(2018) Responsabilidad social y compromiso organizacional de los empleados públicos de la Municipalidad Provincial de Huancayo,(Tesis de Maestría), Universidad Nacional del Centro del Perú, Huancayo, Perú; Luque González, A., Merino Chiliquinga, V.E., Solís Benavides, P.R.,Socially responsible public management: Case spinning development in ecuador,; Meyer, J.P., Alien, N.J.,A three-component conceptualization of organizational commitment,; (2019) Ordenanza N° 006-2019-CPPAL-CDSMC/MDLV,Municipalidad Distrital de La Victoria en el Perú Normas legales El Peruano. Lima Perú,  24; Sánchez, H., Reyes, C., Mejía, K.,(2018) Manual de términos en investigación científica, tecnológica y humanística. Cited 15 times.,Trabajo académico, Universidad Ricardo Palma, Perú; Soto, L., Batista, J.,La responsabilidad social de la empresa estatal en el ejercicio pleno de los derechos de los trabajadores en la empresa estatal en Cuba,(2020) Revista IUS, 1 (45), pp. 55-79.; Tomba, C., Muñoz, C., Allisiardi, A.,La responsabilidad social de la publicidad: el rol de las campañas de bien público,(2020) Revista VivatAcademia, XIII (150), pp. 103-129. Cited 3 times.; Vargas-Merino, J.A.,Social Innovation: New Face of Social Responsibility? critical conceptualization from the university perspective (Open Access),</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -6902,11 +6502,6 @@
       <c r="O81" t="inlineStr">
         <is>
           <t>10.19052/rvgluz.27.95.14</t>
-        </is>
-      </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>Peru</t>
         </is>
       </c>
     </row>
@@ -6951,7 +6546,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Aria, M., Cuccurullo, C.,bibliometrix: An R-tool for comprehensive science mapping analysis,; Bach, T., Wegrich, K.,(2019) Blind Spots, Biased Attention, and the Politics of Non-Coordination,Springer International Publishing; Baekkeskov, E.,Reputation-Seeking by a Government Agency in Europe: Direct Evidence from Responses to the 2009 H1N1 “Swine” Influenza Pandemic,; Bankins, S., Waterhouse, J.,Organizational Identity, Image, and Reputation: Examining the Influence on Perceptions of Employer Attractiveness in Public Sector Organizations,; Barnett, M.L., Pollock, T.G.,(2012) The Oxford Handbook of Corporate Reputation. Cited 56 times.,eds., Oxford University Press; Bartels, J., Pruyn, A., De Jong, M., Joustra, I.,Multiple organizational identification levels and the impact of perceived external prestige and communication climate (Open Access),; Bitektine, A.,Toward a theory of social judgments of organizations: The case of legitimacy, reputation, and status,; Bjørnå, H.,Norwegian Municipalities and Reputation Building – Agents, Agendas, Coalitions and Outcomes,(2016) Scandinavian Journal of Public Administration, 20 (2), pp. 39-58. Cited 4 times.; Boon, J., Verhoest, K., Wynen, J.,What determines the audiences that public service organisations target for reputation management? (Open Access),; Busuioc, E.M.,Friend or foe? inter-agency cooperation, organizational reputation, and turf (Open Access),; Busuioc, M., Rimkutė, D.,The promise of bureaucratic reputation approaches for the EU regulatory state (Open Access),; Capelos, T., Provost, C., Parouti, M., Barnett, J., Chenoweth, J., Fife-Schaw, C., Kelay, T.,Ingredients of institutional reputations and citizen engagement with regulators (Open Access),; Carmeli, A., Tishler, A.,The relationships between intangible organizational elements and organizational performance (Open Access),; Carpenter, D.P.,(2001) The Forging of Bureaucratic Autonomy: Reputations, Networks and Policy Innovation in Executive Agencies, 1862–1928. Cited 1239 times.,Princeton, NJ, Princeton University Press; Carpenter, D.P.,Groups, the media, agency waiting costs, and FDA drug approval,; Carpenter, D.P.,Protection without capture: Product approval by a politically responsive, learning regulator,; Carpenter, D.P.,The political economy of FDA drug review: Processing, politics, and lessons for policy,; Carpenter, D.,Reputation and power: Organizational image and pharmaceutical regulation at the FDA,; Carpenter, D.P.,Foreword,(2015) Organizational Reputation in the Public Sector, pp. ix-xi. Cited 3 times.; Carpenter, D.P., Krause, G.A.,Reputation and Public Administration (Open Access),; Choudhury, E.,Trust in administration: An integrative approach to optimal trust,; Christensen, T., Gornitzka, Å.,Reputation Management in Public Agencies: The Relevance of Time, Sector, Audience, and Tasks (Open Access),; Christensen, T., Lægreid, P.,The coronavirus crisis—crisis communication, meaning-making, and reputation management (Open Access),; Christensen, T., Lodge, M.,Reputation management in societal security: A comparative study (Open Access),; Chun, R.,Corporate reputation: Meaning and measurement,; Derthick, M.,(1979) Policymaking for Social Security. Cited 380 times.,Washington, DC, Brookings Institution; Doering, H., Downe, J., Elraz, H., Martin, S.,Organizational Identity Threats and Aspirations in Reputation Management,(2019) Public Management Review, pp. 1-21.; Eriksen, A.,Accountability and the Multidimensional Mandate (Open Access),; Etienne, J.,The politics of detection in business regulation (Open Access),; Etienne, J.,The politics of detection in business regulation (Open Access),; (2020) ,“About The Project.” Accessed October 15,http://euricaerc.eu/aboutus.html; Gilad, S., Maor, M., Bloom, P.B.-N.,Organizational reputation, the content of public allegations, and regulatory communication (Open Access),; Gilad, S., Alon-Barkat, S., Braverman, A.,Large-Scale Social Protest: A Business Risk and a Bureaucratic Opportunity,; Groenleer, M.L.P.,Agency Autonomy Actually: Managerial Strategies, Legitimacy, and the Early Development of the European Union's Agencies for Drug and Food Safety Regulation,; Honey, G.,(2009) A Short Guide to Reputation Risk. Cited 18 times.,Farnham, Gower Publishing; Kaufman, H.,(1981) The Administrative Behavior of Federal Bureau Chiefs. Cited 171 times.,Washington, DC, Brookings Institution; Krause, G.A., Douglas, J.W.,Institutional design versus reputational effects on bureaucratic performance: Evidence from U.S. government macroeconomic and fiscal projections,; Larsen, C.A., Vesan, P.,Why public employment services always fail. Double-sided asymmetric information and the placement of low-skill workers in six european countries (Open Access),; Lee, D., Van Ryzin, G.G.,Measuring bureaucratic reputation: Scale development and validation (Open Access),; Lee, D., Zhang, Y.,The Value of Public Organizations’ Diversity Reputation in Women's and Minorities' Job Choice Decisions,(2020) Public Management Review, pp. 1-20.; Lewicki, R.J., McAllister, D.J., Bies, R.I.,Trust and distrust: New relationships and realities,; Luoma-aho, V.,Neutral Reputation and Public Sector Organizations,; Luoma-aho, V.,Sector reputation and public organisations,; Luoma-aho, V.L., Makikangas, M.E.,Do public sector mergers (re)shape reputation?,; Malay, J., Fairholm, M.,Agency Legitimacy: A Reputational Power Analysis of the Bureau of Land Management,; Maor, M.,A scientific standard and an agency's legal independence: Which of these reputation protection mechanisms is less susceptible to political moves?,; Maor, M.,Organizational reputation and jurisdictional claims: The case of the U.S. food and drug administration,; Maor, M.,Theorizing Bureaucratic Reputation,(2015) Organizational Reputation in the Public Sector. Cited 8 times.; Maor, M.,Missing areas in the bureaucratic reputation framework (Open Access),; Maor, M., Sulitzeanu-Kenan, R.,Strategic Communication by Regulatory Agencies as a Form of Reputation Management: A Strategic Agenda,(2020) Public Administration, 2019, pp. 1-12.; Maor, M., Sulitzeanu-Kenan, R.,The Effect of Salient Reputational Threats on the Pace of FDA Enforcement,; Maor, M., Sulitzeanu-Kenan, R.,Responsive Change: Agency Output Response to Reputational Threats,; Maor, M., Gilad, S., Bloom, P.B.-N.,Organizational reputation, regulatory talk, and strategic silence,; Marini, F.,Public Administration,(2000) Defining Public Administration. Cited 2 times.; Moffitt, S.L.,Promoting agency reputation through public advice: Advisory committee use in the FDA,; Moher, D., Liberati, A., Tetzlaff, J., Altman, D.G., Altman, D., Antes, G., Atkins, D., (...), Tugwell, P.,Preferred reporting items for systematic reviews and meta-analyses: The PRISMA statement (Chinese edition),; Moschella, M., Pinto, L.,Central banks’ communication as reputation management: How the Fed talks under uncertainty (Open Access),; Overman, S., Busuioc, M., Wood, M.,A Multidimensional Reputation Barometer for Public Agencies: A Validated Instrument (Open Access),; Picci, L.,(2011) Reputation-Based Governance. Cited 15 times.,Stanford, CA, Stanford Economics and Finance; Rimkutė, D.,Organizational reputation and risk regulation: The effect of reputational threats on agency scientific outputs (Open Access),; Rimkutė, D.,Building organizational reputation in the European regulatory state: An analysis of EU agencies' communications (Open Access),; Rindova, V.P., Martins, L.L.,Show me the Money: A Multidimensional Perspective on Reputation as an Intangible Asset,(2012) The Oxford Handbook of Corporate Reputation. Cited 90 times.; Roberts, P.S.,FEMA and the prospects for reputation-based autonomy,; Roberts, P.W., Dowling, G.R.,Corporate reputation and sustained superior financial performance,; Ruef, M., Scott, W.R.,A multidimensional model of organizational legitimacy: Hospital survival in changing institutional environments,; Ryan, B.,How Can the Corporate Sector Concepts of ’Reputation' and ‘Trust' be Used by Local Government? A Study to Establish a Model of Reputation Management for Local Government,(2007) Asia Pacific Public Relations Journal, 8 (December), pp. 37-75. Cited 13 times.; Sanders, K., Canel, M.J.,Mind the gap: Local government communication strategies and Spanish citizens’ perceptions of their cities (Open Access),; Sartori, G.,Concept misformation in comparative politics,; Sataøen, H.L., Wæraas, A.,Branding without Unique Brands: Managing similarity and difference in a public sector context,; Scimago Journal, C.R.,(1957) ,“Journal Rankings.” Accessed September 10,, https//www.scimagojr.com/journalrank.php; Selznick, P.,(1957) Leadership in Administration. Cited 2970 times.,New York, Harper &amp; Row; Shafritz, J.M., Russell, E.W., Borick, C., Hyde, A.,(2017) Introducing Public Administration. Cited 172 times.,9th ed., Taylor &amp; Francis; Simon, H., Smithburg, D.W., Thompson, V.A.,(1950) Public Administration. Cited 392 times.,New York, Alfred A. Knopf, Inc; Sušanj Šulentić, T., Žnidar, K., Pavičić, J.,The key determinants of perceived external prestige (PEP) - Qualitative research approach (Open Access),; Thorbjørnsrud, K.,Mediatization of public bureaucracies: Administrative versus political loyalty,; Valasek, J.,Dynamic reform of public institutions: A model of motivated agents and collective reputation (Open Access),; Van Der Veer, A.,Audience Heterogeneity, Costly Signaling, and Threat Prioritization: Bureaucratic Reputation-Building in the EU,(2020) Journal of Public Administration Research and Theory, pp. 1-17. Cited 2 times.; Wæraas, A.,Making a Difference: Strategic Positioning in Municipal Reputation Building (Open Access),; Wæraas, A.,Putting on the Velvet Glove: The Paradox of “Soft” Core Values in “Hard” Organizations (Open Access),; Wæraas, A., Byrkjeflot, H.,Public Sector Organizations and Reputation Management: Five Problems,</t>
+          <t>Aria, M., Cuccurullo, C.,bibliometrix: An R-tool for comprehensive science mapping analysis,; Bach, T., Wegrich, K.,(2019) Blind Spots, Biased Attention, and the Politics of Non-Coordination,Springer International Publishing; Baekkeskov, E.,Reputation-Seeking by a Government Agency in Europe: Direct Evidence from Responses to the 2009 H1N1 “Swine” Influenza Pandemic,; Bankins, S., Waterhouse, J.,Organizational Identity, Image, and Reputation: Examining the Influence on Perceptions of Employer Attractiveness in Public Sector Organizations,; Barnett, M.L., Pollock, T.G.,(2012) The Oxford Handbook of Corporate Reputation. Cited 56 times.,eds., Oxford University Press; Bartels, J., Pruyn, A., De Jong, M., Joustra, I.,Multiple organizational identification levels and the impact of perceived external prestige and communication climate,; Bitektine, A.,Toward a theory of social judgments of organizations: The case of legitimacy, reputation, and status,; Bjørnå, H.,Norwegian Municipalities and Reputation Building – Agents, Agendas, Coalitions and Outcomes,(2016) Scandinavian Journal of Public Administration, 20 (2), pp. 39-58. Cited 4 times.; Boon, J., Verhoest, K., Wynen, J.,What determines the audiences that public service organisations target for reputation management?,; Busuioc, E.M.,Friend or foe? inter-agency cooperation, organizational reputation, and turf,; Busuioc, M., Rimkutė, D.,The promise of bureaucratic reputation approaches for the EU regulatory state,; Capelos, T., Provost, C., Parouti, M., Barnett, J., Chenoweth, J., Fife-Schaw, C., Kelay, T.,Ingredients of institutional reputations and citizen engagement with regulators,; Carmeli, A., Tishler, A.,The relationships between intangible organizational elements and organizational performance,; Carpenter, D.P.,(2001) The Forging of Bureaucratic Autonomy: Reputations, Networks and Policy Innovation in Executive Agencies, 1862–1928. Cited 1242 times.,Princeton, NJ, Princeton University Press; Carpenter, D.P.,Groups, the media, agency waiting costs, and FDA drug approval,; Carpenter, D.P.,Protection without capture: Product approval by a politically responsive, learning regulator,; Carpenter, D.P.,The political economy of FDA drug review: Processing, politics, and lessons for policy,; Carpenter, D.,Reputation and power: Organizational image and pharmaceutical regulation at the FDA,; Carpenter, D.P.,Foreword,(2015) Organizational Reputation in the Public Sector, pp. ix-xi. Cited 3 times.; Carpenter, D.P., Krause, G.A.,Reputation and Public Administration,; Choudhury, E.,Trust in administration: An integrative approach to optimal trust,; Christensen, T., Gornitzka, Å.,Reputation Management in Public Agencies: The Relevance of Time, Sector, Audience, and Tasks,; Christensen, T., Lægreid, P.,The coronavirus crisis—crisis communication, meaning-making, and reputation management,; Christensen, T., Lodge, M.,Reputation management in societal security: A comparative study,; Chun, R.,Corporate reputation: Meaning and measurement (Open Access),; Derthick, M.,(1979) Policymaking for Social Security. Cited 380 times.,Washington, DC, Brookings Institution; Doering, H., Downe, J., Elraz, H., Martin, S.,Organizational Identity Threats and Aspirations in Reputation Management,(2019) Public Management Review, pp. 1-21.; Eriksen, A.,Accountability and the Multidimensional Mandate,; Etienne, J.,The politics of detection in business regulation,; Etienne, J.,The politics of detection in business regulation (Open Access),; (2020) ,“About The Project.” Accessed October 15,http://euricaerc.eu/aboutus.html; Gilad, S., Maor, M., Bloom, P.B.-N.,Organizational reputation, the content of public allegations, and regulatory communication,; Gilad, S., Alon-Barkat, S., Braverman, A.,Large-Scale Social Protest: A Business Risk and a Bureaucratic Opportunity (Open Access),; Groenleer, M.L.P.,Agency Autonomy Actually: Managerial Strategies, Legitimacy, and the Early Development of the European Union's Agencies for Drug and Food Safety Regulation,; Honey, G.,(2009) A Short Guide to Reputation Risk. Cited 18 times.,Farnham, Gower Publishing; Kaufman, H.,(1981) The Administrative Behavior of Federal Bureau Chiefs. Cited 171 times.,Washington, DC, Brookings Institution; Krause, G.A., Douglas, J.W.,Institutional design versus reputational effects on bureaucratic performance: Evidence from U.S. government macroeconomic and fiscal projections (Open Access),; Larsen, C.A., Vesan, P.,Why public employment services always fail. Double-sided asymmetric information and the placement of low-skill workers in six european countries (Open Access),; Lee, D., Van Ryzin, G.G.,Measuring bureaucratic reputation: Scale development and validation (Open Access),; Lee, D., Zhang, Y.,The Value of Public Organizations’ Diversity Reputation in Women's and Minorities' Job Choice Decisions,(2020) Public Management Review, pp. 1-20.; Lewicki, R.J., McAllister, D.J., Bies, R.I.,Trust and distrust: New relationships and realities,; Luoma-aho, V.,Neutral Reputation and Public Sector Organizations,; Luoma-aho, V.,Sector reputation and public organisations (Open Access),; Luoma-aho, V.L., Makikangas, M.E.,Do public sector mergers (re)shape reputation?,; Malay, J., Fairholm, M.,Agency Legitimacy: A Reputational Power Analysis of the Bureau of Land Management (Open Access),; Maor, M.,A scientific standard and an agency's legal independence: Which of these reputation protection mechanisms is less susceptible to political moves?,; Maor, M.,Organizational reputation and jurisdictional claims: The case of the U.S. food and drug administration (Open Access),; Maor, M.,Theorizing Bureaucratic Reputation,(2015) Organizational Reputation in the Public Sector. Cited 8 times.; Maor, M.,Missing areas in the bureaucratic reputation framework,; Maor, M., Sulitzeanu-Kenan, R.,Strategic Communication by Regulatory Agencies as a Form of Reputation Management: A Strategic Agenda,(2020) Public Administration, 2019, pp. 1-12.; Maor, M., Sulitzeanu-Kenan, R.,The Effect of Salient Reputational Threats on the Pace of FDA Enforcement (Open Access),; Maor, M., Sulitzeanu-Kenan, R.,Responsive Change: Agency Output Response to Reputational Threats,; Maor, M., Gilad, S., Bloom, P.B.-N.,Organizational reputation, regulatory talk, and strategic silence (Open Access),; Marini, F.,Public Administration,(2000) Defining Public Administration. Cited 2 times.; Moffitt, S.L.,Promoting agency reputation through public advice: Advisory committee use in the FDA,; Moher, D., Liberati, A., Tetzlaff, J., Altman, D.G., Altman, D., Antes, G., Atkins, D., (...), Tugwell, P.,Preferred reporting items for systematic reviews and meta-analyses: The PRISMA statement (Chinese edition) (Open Access),; Moschella, M., Pinto, L.,Central banks’ communication as reputation management: How the Fed talks under uncertainty,; Overman, S., Busuioc, M., Wood, M.,A Multidimensional Reputation Barometer for Public Agencies: A Validated Instrument (Open Access),; Picci, L.,(2011) Reputation-Based Governance. Cited 15 times.,Stanford, CA, Stanford Economics and Finance; Rimkutė, D.,Organizational reputation and risk regulation: The effect of reputational threats on agency scientific outputs,; Rimkutė, D.,Building organizational reputation in the European regulatory state: An analysis of EU agencies' communications (Open Access),; Rindova, V.P., Martins, L.L.,Show me the Money: A Multidimensional Perspective on Reputation as an Intangible Asset,(2012) The Oxford Handbook of Corporate Reputation. Cited 90 times.; Roberts, P.S.,FEMA and the prospects for reputation-based autonomy,; Roberts, P.W., Dowling, G.R.,Corporate reputation and sustained superior financial performance,; Ruef, M., Scott, W.R.,A multidimensional model of organizational legitimacy: Hospital survival in changing institutional environments,; Ryan, B.,How Can the Corporate Sector Concepts of ’Reputation' and ‘Trust' be Used by Local Government? A Study to Establish a Model of Reputation Management for Local Government,(2007) Asia Pacific Public Relations Journal, 8 (December), pp. 37-75. Cited 13 times.; Sanders, K., Canel, M.J.,Mind the gap: Local government communication strategies and Spanish citizens’ perceptions of their cities,; Sartori, G.,Concept misformation in comparative politics,; Sataøen, H.L., Wæraas, A.,Branding without Unique Brands: Managing similarity and difference in a public sector context,; Scimago Journal, C.R.,(1957) ,“Journal Rankings.” Accessed September 10,, https//www.scimagojr.com/journalrank.php; Selznick, P.,(1957) Leadership in Administration. Cited 2980 times.,New York, Harper &amp; Row; Shafritz, J.M., Russell, E.W., Borick, C., Hyde, A.,(2017) Introducing Public Administration. Cited 174 times.,9th ed., Taylor &amp; Francis; Simon, H., Smithburg, D.W., Thompson, V.A.,(1950) Public Administration. Cited 392 times.,New York, Alfred A. Knopf, Inc; Sušanj Šulentić, T., Žnidar, K., Pavičić, J.,The key determinants of perceived external prestige (PEP) - Qualitative research approach,; Thorbjørnsrud, K.,Mediatization of public bureaucracies: Administrative versus political loyalty,; Valasek, J.,Dynamic reform of public institutions: A model of motivated agents and collective reputation,; Van Der Veer, A.,Audience Heterogeneity, Costly Signaling, and Threat Prioritization: Bureaucratic Reputation-Building in the EU,(2020) Journal of Public Administration Research and Theory, pp. 1-17. Cited 2 times.; Wæraas, A.,Making a Difference: Strategic Positioning in Municipal Reputation Building,; Wæraas, A.,Putting on the Velvet Glove: The Paradox of “Soft” Core Values in “Hard” Organizations,; Wæraas, A., Byrkjeflot, H.,Public Sector Organizations and Reputation Management: Five Problems (Open Access),</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -6982,11 +6577,6 @@
       <c r="O82" t="inlineStr">
         <is>
           <t>10.1111/puar.13363</t>
-        </is>
-      </c>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t>Mexico</t>
         </is>
       </c>
     </row>
@@ -7031,7 +6621,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Alario, C., Bengoechea, M., Llendó, E., Vargas, A.,(1995) La representación de lo femenino y lo masculino en la lengua. Cited 8 times.,Madrid, Instituto de la Mujer; Alvanoudi, A.,(2015) Grammatical Gender in Interaction:. Cited 11 times.,Leiden, Brill, Cultural and Cognitive Aspects; Alvanoudi, A.,Aspects of the meaning of gender introduction,; Alvanoudi, A.,Indexing gender, culture, and cognition: an introduction,(2020) J. Lang. Discrim, 4, pp. 1-15. Cited 2 times.; Amossy, R.,(1999) Images de soi dans le discours. La construction de l'ethos. Cited 101 times.,París, Delauchaux et Niestlé; Anscombre, J.-C., Ducrot, O.,(1983) La argumentación en la lengua. Cited 123 times.,Madrid, Gredos; Anscombre, J.C.,Semántica y léxico: topoi, estereotipos y frases genéricas,(1995) Revista Española de Lingüística, 25, pp. 297-310. Cited 10 times.; Arnoux, E.,Análisis del discurso,(2006) Modos de abordar materiales de archivo. Cited 31 times.; Authier-Revuz, J.,(1984) Ces mots qui ne vont pas de soi. Boucles réflexives et non-coïncidences du dire. Cited 153 times.,París, Larousse; Authier-Revuz, J.,Hétérogénéité(s) énonciative(s),(1995) Langages, 73, pp. 98-111. Cited 95 times.; Bajtín, M.,(1982) La estética de la creación verbal. Cited 483 times.,México, Siglo XXI; Carel, M., Ducrot, O.,(2005) La semántica argumentativa: una introducción a la teoría de los bloques semánticos. Cited 22 times.,Buenos Aires, Colihue; Cartín, E.,(2010) Lenguaje inclusivo: reflejo de la sociedad o mecanismo de transformación,Available online at:, (accesed March 15, 2020; Chiodi, A.,El grafiti y las vanguardias del siglo XX,(2008) Páginas de guarda, 5, pp. 139-115.; Company Company, C.,(2019) “Incluyente ni excluyente: la gramática no tiene nada que ver con el sexo”, Visión liberal. Para cambiar el eje del debate en América Latina,Available online at:, (accessed March 30, 2020; Courtine, J.-J.,Quelques problèmes théoriques et méthodologiques en analyse du discours politique. A propos du discours communiste adressé aux chrétiens,(1981) Langages, 62, pp. 9-127. Cited 53 times.; De Souza Minayo, M.C.,(2009) La artesanía de la investigación cualitativa. Cited 53 times.,Buenos Aires, Lugar; Ducrot, O.,(1984) Le dire et le dit. Cited 727 times.,París, Minuit; Escandell Vidal, M.V.,(2019) En torno al género inclusivo. IgualdadES. Cited 12 times.,Madrid, Centro de Estudios Políticos y Constitucionales; Gándara, L.,(2002) Graffiti. Cited 25 times.,Buenos Aires, EUDEBA; García Negroni, M.M.,El enfoque dialógico de la argumentación y la polifonía y la expresión de la evidencialidad. Un estudio contrastivo del español y del francés,(2018) Español Actual, 110, pp. 57-78. Cited 2 times.; Negroni, M.M.G.,Dialogical approach to argumentation and polyphony, evidential points of view and allusive points of view (Open Access),; Glozman, M.,Las capas del lenguaje inclusivo,(2019) Ojo Mocho, 2019, pp. 100-105.; Glozman, M.,(2019) Lenguaje y movimiento feminista: crítica del idealismo lingüístico. Revista Zigurat. Cited 2 times.,b, Available online at:, (accessed March 30, 2020; Hellinger, M., Bussmann, H.,Gender Across Languages: The Linguistic Representation of Women and Men, s 1, 2, 3. Cited 175 times.,Amsterdam, John Benjamins; Kalinowski, S.,Conferencia,(2018) Debates y conferencias en el Instituto de Lingüística. Inclusive el lenguaje. Debate sobre lengua, género y política, pp. 4-17.; Kalinowski, S.,Es una herramienta pedagógica fantástica. La educación en debate. 68, p. 3,,(2019) Debates y conferencias en el Instituto de Lingüística. Inclusive el lenguaje. Debate sobre lengua, género y política, pp. 21-64.; Lauría, D., y Zullo, J.,Introducción,,(2018) Debates y conferencias en el Instituto de Lingüística. Inclusive el lenguaje. Debate sobre lengua, género y política; Martínez, A.,Cuando ‘la mano invisible' se visibiliza. La conciencia social y el cambio lingüístico,(2018) Anuario de Glotopolítica; Martínez, A.,El lenguaje inclusivo. La mirada de una lingüista,,(2019) In Memoria Académica del 1er Congreso de Lenguaje Inclusivo. La Plata: Universidad Nacional de La Plata. Buenos Aires, Argentina; Minoldo, S., Balián, J.C.,La lengua degenerada,(2018) El Gato y la caja. Cited 2 times.; Moure, J.L.,Sobre el lenguaje inclusivo. Una nota del Presidente de la Academia Argentina de Letras,(2018) Academia Argentina de Letras; Orlandi, E.,(2001) Interpretacao. Autoria, leitura e efeitos do trabalho simbolico. Cited 49 times.,Petrópolis, Vozes; Sexismo lingüístico y activismo lingüístico feminista,,(2003) The Handjournal of Language and Gender, pp. 550-570.,Holmes J., Meyerhoff M., (eds), Oxford, Blackwell; Ramírez Gelbes, S.,El lenguaje inclusivo llegó para quedarse: aparecieron los primeros buzos de egresades,(2018) Diario de Cuyo; Ramírez Gelbes, S.,Ni amigues, ni todxs: la RAE rechazó distintas manifestaciones del lenguaje inclusivo,(2018) Anaurio d glotopolítica; Sardi, V., Tosi, C.,(2021) Lenguaje inclusivo y ESI en las aulas. Aportes teórico-prácticos para un debate en curso. Cited 2 times.,Buenos Aires, Paidós; Soich, M.,(2017) Los devenires y la identidad de género: hacia un análisis lingüístico-crítico y conceptual de la construcción de representaciones discursivas sobre la identidad de género en Historias de vida de personas trans de la Ciudad de Buenos Aires (2013-2015). Cited 4 times.,(Thesis), Facultad de Filosofía y Letras (School of Philosophy and Literature), University of Buenos Aires, Buenos Aires; Tosi, C.,(2018) Escritos para enseñar. Los libros de texto en el aula. Cited 2 times.,Buenos Aires, Paidós; Tosi, C.,Marcas discursivas de la diversidad. Acerca del lenguaje no sexista y la educación lingüística: aproximaciones al caso argentino,(2019) Alabe Revista de Investigación sobre Lectura y Escritura, 20, pp. 1-20. Cited 7 times.; Tosi, C.,¿‘Hojas de estilo para el lenguaje inclusivo? Un análisis acerca de las prácticas de corrección de estilo en el ámbito editorial,(2020) Exlibris, 9, pp. 169-179. Cited 2 times.; Zoppi Fontana, M.,Cidade e discurso. Paradoxos do real, do imaginário, do virtual,(1998) Rua Campinas, 4, pp. 39-54.</t>
+          <t>Alario, C., Bengoechea, M., Llendó, E., Vargas, A.,(1995) La representación de lo femenino y lo masculino en la lengua. Cited 8 times.,Madrid, Instituto de la Mujer; Alvanoudi, A.,(2015) Grammatical Gender in Interaction:. Cited 11 times.,Leiden, Brill, Cultural and Cognitive Aspects; Alvanoudi, A.,Aspects of the meaning of gender introduction,; Alvanoudi, A.,Indexing gender, culture, and cognition: an introduction,(2020) J. Lang. Discrim, 4, pp. 1-15. Cited 2 times.; Amossy, R.,(1999) Images de soi dans le discours. La construction de l'ethos. Cited 101 times.,París, Delauchaux et Niestlé; Anscombre, J.-C., Ducrot, O.,(1983) La argumentación en la lengua. Cited 125 times.,Madrid, Gredos; Anscombre, J.C.,Semántica y léxico: topoi, estereotipos y frases genéricas,(1995) Revista Española de Lingüística, 25, pp. 297-310. Cited 10 times.; Arnoux, E.,Análisis del discurso,(2006) Modos de abordar materiales de archivo. Cited 31 times.; Authier-Revuz, J.,(1984) Ces mots qui ne vont pas de soi. Boucles réflexives et non-coïncidences du dire. Cited 153 times.,París, Larousse; Authier-Revuz, J.,Hétérogénéité(s) énonciative(s),(1995) Langages, 73, pp. 98-111. Cited 95 times.; Bajtín, M.,(1982) La estética de la creación verbal. Cited 486 times.,México, Siglo XXI; Carel, M., Ducrot, O.,(2005) La semántica argumentativa: una introducción a la teoría de los bloques semánticos. Cited 22 times.,Buenos Aires, Colihue; Cartín, E.,(2010) Lenguaje inclusivo: reflejo de la sociedad o mecanismo de transformación,Available online at:, (accesed March 15, 2020; Chiodi, A.,El grafiti y las vanguardias del siglo XX,(2008) Páginas de guarda, 5, pp. 139-115.; Company Company, C.,(2019) “Incluyente ni excluyente: la gramática no tiene nada que ver con el sexo”, Visión liberal. Para cambiar el eje del debate en América Latina,Available online at:, (accessed March 30, 2020; Courtine, J.-J.,Quelques problèmes théoriques et méthodologiques en analyse du discours politique. A propos du discours communiste adressé aux chrétiens,(1981) Langages, 62, pp. 9-127. Cited 54 times.; De Souza Minayo, M.C.,(2009) La artesanía de la investigación cualitativa. Cited 53 times.,Buenos Aires, Lugar; Ducrot, O.,(1984) Le dire et le dit. Cited 727 times.,París, Minuit; Escandell Vidal, M.V.,(2019) En torno al género inclusivo. IgualdadES. Cited 12 times.,Madrid, Centro de Estudios Políticos y Constitucionales; Gándara, L.,(2002) Graffiti. Cited 25 times.,Buenos Aires, EUDEBA; García Negroni, M.M.,El enfoque dialógico de la argumentación y la polifonía y la expresión de la evidencialidad. Un estudio contrastivo del español y del francés,(2018) Español Actual, 110, pp. 57-78. Cited 2 times.; Negroni, M.M.G.,Dialogical approach to argumentation and polyphony, evidential points of view and allusive points of view,; Glozman, M.,Las capas del lenguaje inclusivo,(2019) Ojo Mocho, 2019, pp. 100-105.; Glozman, M.,(2019) Lenguaje y movimiento feminista: crítica del idealismo lingüístico. Revista Zigurat. Cited 2 times.,b, Available online at:, (accessed March 30, 2020; Hellinger, M., Bussmann, H.,Gender Across Languages: The Linguistic Representation of Women and Men, s 1, 2, 3. Cited 176 times.,Amsterdam, John Benjamins; Kalinowski, S.,Conferencia,(2018) Debates y conferencias en el Instituto de Lingüística. Inclusive el lenguaje. Debate sobre lengua, género y política, pp. 4-17.; Kalinowski, S.,Es una herramienta pedagógica fantástica. La educación en debate. 68, p. 3,,(2019) Debates y conferencias en el Instituto de Lingüística. Inclusive el lenguaje. Debate sobre lengua, género y política, pp. 21-64.; Lauría, D., y Zullo, J.,Introducción,,(2018) Debates y conferencias en el Instituto de Lingüística. Inclusive el lenguaje. Debate sobre lengua, género y política; Martínez, A.,Cuando ‘la mano invisible' se visibiliza. La conciencia social y el cambio lingüístico,(2018) Anuario de Glotopolítica; Martínez, A.,El lenguaje inclusivo. La mirada de una lingüista,,(2019) In Memoria Académica del 1er Congreso de Lenguaje Inclusivo. La Plata: Universidad Nacional de La Plata. Buenos Aires, Argentina; Minoldo, S., Balián, J.C.,La lengua degenerada,(2018) El Gato y la caja. Cited 2 times.; Moure, J.L.,Sobre el lenguaje inclusivo. Una nota del Presidente de la Academia Argentina de Letras,(2018) Academia Argentina de Letras; Orlandi, E.,(2001) Interpretacao. Autoria, leitura e efeitos do trabalho simbolico. Cited 49 times.,Petrópolis, Vozes; Sexismo lingüístico y activismo lingüístico feminista,,(2003) The Handjournal of Language and Gender, pp. 550-570.,Holmes J., Meyerhoff M., (eds), Oxford, Blackwell; Ramírez Gelbes, S.,El lenguaje inclusivo llegó para quedarse: aparecieron los primeros buzos de egresades,(2018) Diario de Cuyo; Ramírez Gelbes, S.,Ni amigues, ni todxs: la RAE rechazó distintas manifestaciones del lenguaje inclusivo,(2018) Anaurio d glotopolítica; Sardi, V., Tosi, C.,(2021) Lenguaje inclusivo y ESI en las aulas. Aportes teórico-prácticos para un debate en curso. Cited 2 times.,Buenos Aires, Paidós; Soich, M.,(2017) Los devenires y la identidad de género: hacia un análisis lingüístico-crítico y conceptual de la construcción de representaciones discursivas sobre la identidad de género en Historias de vida de personas trans de la Ciudad de Buenos Aires (2013-2015). Cited 4 times.,(Thesis), Facultad de Filosofía y Letras (School of Philosophy and Literature), University of Buenos Aires, Buenos Aires; Tosi, C.,(2018) Escritos para enseñar. Los libros de texto en el aula. Cited 2 times.,Buenos Aires, Paidós; Tosi, C.,Marcas discursivas de la diversidad. Acerca del lenguaje no sexista y la educación lingüística: aproximaciones al caso argentino,(2019) Alabe Revista de Investigación sobre Lectura y Escritura, 20, pp. 1-20. Cited 7 times.; Tosi, C.,¿‘Hojas de estilo para el lenguaje inclusivo? Un análisis acerca de las prácticas de corrección de estilo en el ámbito editorial,(2020) Exlibris, 9, pp. 169-179. Cited 2 times.; Zoppi Fontana, M.,Cidade e discurso. Paradoxos do real, do imaginário, do virtual,(1998) Rua Campinas, 4, pp. 39-54.</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -7056,17 +6646,12 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>No Encontrado</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
           <t>10.3389/fsoc.2021.633330</t>
-        </is>
-      </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>Argentina</t>
         </is>
       </c>
     </row>
@@ -7111,7 +6696,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Agénor, M.,Future Directions for Incorporating Intersectionality Into Quantitative Population Health Research (Open Access),; Agénor, M., Pérez, A.E., Koma, J.W., Abrams, J.A., McGregor, A.J., Ojikutu, B.O.,Sexual Orientation Identity, Race/Ethnicity, and Lifetime HIV Testing in a National Probability Sample of U.S. Women and Men: An Intersectional Approach (Open Access),; Axelsson Fisk, S., Mulinari, S., Wemrell, M., Leckie, G., Perez Vicente, R., Merlo, J.,Chronic Obstructive Pulmonary Disease in Sweden: An intersectional multilevel analysis of individual heterogeneity and discriminatory accuracy (Open Access),; Ballo, J.G.,Labour Market Participation for Young People with Disabilities: The Impact of Gender and Higher Education (Open Access),; Bauer, G.R.,Incorporating intersectionality theory into population health research methodology: Challenges and the potential to advance health equity (Open Access),; Bauer, G.R., Scheim, A.I.,Advancing quantitative intersectionality research methods: Intracategorical and intercategorical approaches to shared and differential constructs (Open Access),; Bauer, G.R., Scheim, A.I.,Methods for analytic intercategorical intersectionality in quantitative research: Discrimination as a mediator of health inequalities (Open Access),; Bell, A., Holman, D., Jones, K.,Using Shrinkage in Multilevel Models to Understand Intersectionality: A Simulation Study and a Guide for Best Practice (Open Access),; Berg, J.A.,Race, class, gender, and social space: Using an intersectional approach to study immigration attitudes,; Bowleg, L.,When Black + lesbian + woman ≠ Black lesbian woman: The methodological challenges of qualitative and quantitative intersectionality research,; Bowleg, L.,The problem with the phrase women and minorities: Intersectionality-an important theoretical framework for public health (Open Access),; Bowleg, L., Bauer, G.,Invited Reflection: Quantifying Intersectionality,; Bright, L.K., Malinsky, D., Thompson, M.,Causally interpreting intersectionality theory,; Byrd, C.M., Carter Andrews, D.J.,Variations in students' perceived reasons for, sources of, and forms of in-school discrimination: A latent class analysis,; Cairney, J., Veldhuizen, S., Vigod, S., Streiner, D.L., Wade, T.J., Kurdyak, P.,Exploring the social determinants of mental health service use using intersectionality theory and CART analysis,; Carbado, D.W.,Colorblind intersectionality,; Cho, S., Crenshaw, K.W., McCall, L.,Toward a field of intersectionality studies: Theory, applications, and praxis (Open Access),; Cole, E.R.,Intersectionality and Research in Psychology,; Collins, P.H.,Black feminist thought: Knowledge, consciousness, and the politics of empowerment,(1990) . Cited 14533 times.; Collins, P.H., Maldonado, L.A., Takagi, D.Y., Thorne, B., Weber, L., Winant, H.,Symposium: On West and Fenstermaker's “Doing Difference”,; Combahee River Collective,Combahee River collective statement,(1977) . Cited 429 times.; Covidence Systematic Review Software,Veritas health innovation, Cited 191 times.; Crenshaw, K.,Demarginalizing the intersection of race and sex: A Black feminist critique of antidiscrimination doctrine, feminist theory and antiracist politics,(1989) . Cited 9405 times.; Crenshaw, K.,Mapping the margins: Intersectionality, identity politics, and violence against women of color,(1991) Stanford Law Review, 43, p. 61. Cited 11861 times.; Davis, K.,Intersectionality as buzzword: A sociology of science perspective on what makes a feminist theory successful,; Del Toro, J., Yoshikawa, H.,Invited Reflection: Intersectionality in Quantitative and Qualitative Research,; Else-Quest, N.M., Hyde, J.S.,Intersectionality in Quantitative Psychological Research: II. Methods and Techniques,; Evans, C.R., Williams, D.R., Onnela, J.-P., Subramanian, S.V.,A multilevel approach to modeling health inequalities at the intersection of multiple social identities,; Gilliard-Matthews, S.,Intersectional Race Effects on Citizen-Reported Traffic Ticket Decisions by Police in 1999 and 2008,; Hancock, A.-M.,When multiplication doesn't equal quick addition: Examining intersectionality as a research paradigm,; Hancock, A.-M.,Empirical intersectionality: A tale of two approaches,(2013) UC Irvine Law Review, 3 (2), p. 259. Cited 71 times.; Jackson, J.W.,Explaining intersectionality through description, counterfactual thinking, and mediation analysis (Open Access),; Jackson, J.W., VanderWeele, T.J.,Intersectional decomposition analysis with differential exposure, effects, and construct (Open Access),; Jackson, J.W., Williams, D.R., VanderWeele, T.J.,Disparities at the intersection of marginalized groups (Open Access),; Jones, C.P.,Invited commentary: "Race," racism, and the practice of epidemiology (Open Access),; Krieger, N.,Genders, sexes, and health: What are the connections - And why does it matter? (Open Access),; Lizotte, D.J., Mahendran, M., Churchill, S.M., Bauer, G.R.,Math versus meaning in MAIHDA: A commentary on multilevel statistical models for quantitative intersectionality,; Lofters, A., O'Campo, P.,Differences that matter,; Mahendran, M., Lizotte, D.J., Zhu, Y., Bauer, G.R.,(n.d.). Evaluating quantitative data analysis methods for intersectional studies of health inequalities. In Preparation.,  40; McCall, L.,The complexity of intersectionality,; Mereish, E.H., Bradford, J.B.,Intersecting identities and substance use problems: Sexual orientation, gender, race, and lifetime substance use problems (Open Access),; Merlo, J.,Multilevel analysis of individual heterogeneity and discriminatory accuracy (MAIHDA) within an intersectional framework,; Merlo, J., Mulinari, S., Wemrell, M., Subramanian, S.V., Hedblad, B.,The tyranny of the averages and the indiscriminate use of risk factors in public health: The case of coronary heart disease (Open Access),; Moher, D., Liberati, A., Tetzlaff, J., Altman, D.G.,Preferred reporting items for systematic reviews and meta-analyses: The PRISMA statement (Open Access),; Muntaner, C., Nieto, F.J., O'Campo, P.,The Bell Curve: On race, social class, and epidemiologic research (Open Access),; De Mutsert, R., Jager, K.J., Zoccali, C., Dekker, F.W.,The effect of joint exposures: Examining the presence of interaction (Open Access),; Nash, J.C.,Re-thinking intersectionality (Open Access),; Ojeda, L., Piña-Watson, B., Gonzalez, G.,The role of social class, ethnocultural adaptation, and masculinity ideology on Mexican American college men's well-being,; Oney, C.N., Cole, E.R., Sellers, R.M.,Racial Identity and Gender as Moderators of the Relationship Between Body Image and Self-esteem for African Americans,; Purdie-Vaughns, V., Eibach, R.P.,Intersectional invisibility: The distinctive advantages and disadvantages of multiple subordinate-group identities,; del Río-González, A.M., Holt, S.L., Bowleg, L.,Powering and Structuring Intersectionality: Beyond Main and Interactive Associations,; Salem, S.,Intersectionality and its discontents: Intersectionality as traveling theory,; Samuels-Dennis, J.A., Ford-Gilboe, M., Wilk, P., Avison, W.R., Ray, S.,Cumulative trauma, personal and social resources, and post-traumatic stress symptoms among income-assisted single mothers (Open Access),; Schwartz, S.,Commentary: on the application of potential outcomes-based methods to questions in social psychiatry and psychiatric epidemiology (Open Access),; Scott, N.A., Siltanen, J.,Intersectionality and quantitative methods: assessing regression from a feminist perspective,; Shaw, L.R., Chan, F., McMahon, B.T.,Intersectionality and disability harassment: The interactive effects of disability, race, age, and gender,; Shields, S.A.,Gender: An intersectionality perspective,; Spierings, N.,The inclusion of quantitative techniques and diversity in the mainstream of feminist research,; Todd, N.R., McConnell, E.A., Suffrin, R.L.,The Role of Attitudes Toward White Privilege and Religious Beliefs in Predicting Social Justice Interest and Commitment,; Ulrichs Serials Analysis System USAS,(2020) ,https://www.ulrichsweb.com/ulrichsweb/analysis/; Valiente, O., Rambla, X.,The new Other Catalans at school: Decreasing unevenness but increasing isolation (Open Access),; Vanderweele, T.J.,A three-way decomposition of a total effect into direct, indirect, and interactive effects (Open Access),; Warner, L.R.,A best practices guide to intersectional approaches in psychological research,; Weldon, S.L.,The Structure of Intersectionality: A Comparative Politics of Gender,; Wemrell, M., Mulinari, S., Merlo, J.,Intersectionality and risk for ischemic heart disease in Sweden: Categorical and anti-categorical approaches (Open Access),; Wemrell, M., Mulinari, S., Merlo, J.,An intersectional approach to multilevel analysis of individual heterogeneity (MAIH) and discriminatory accuracy,</t>
+          <t>Agénor, M.,Future Directions for Incorporating Intersectionality Into Quantitative Population Health Research,; Agénor, M., Pérez, A.E., Koma, J.W., Abrams, J.A., McGregor, A.J., Ojikutu, B.O.,Sexual Orientation Identity, Race/Ethnicity, and Lifetime HIV Testing in a National Probability Sample of U.S. Women and Men: An Intersectional Approach,; Axelsson Fisk, S., Mulinari, S., Wemrell, M., Leckie, G., Perez Vicente, R., Merlo, J.,Chronic Obstructive Pulmonary Disease in Sweden: An intersectional multilevel analysis of individual heterogeneity and discriminatory accuracy,; Ballo, J.G.,Labour Market Participation for Young People with Disabilities: The Impact of Gender and Higher Education,; Bauer, G.R.,Incorporating intersectionality theory into population health research methodology: Challenges and the potential to advance health equity,; Bauer, G.R., Scheim, A.I.,Advancing quantitative intersectionality research methods: Intracategorical and intercategorical approaches to shared and differential constructs,; Bauer, G.R., Scheim, A.I.,Methods for analytic intercategorical intersectionality in quantitative research: Discrimination as a mediator of health inequalities,; Bell, A., Holman, D., Jones, K.,Using Shrinkage in Multilevel Models to Understand Intersectionality: A Simulation Study and a Guide for Best Practice (Open Access),; Berg, J.A.,Race, class, gender, and social space: Using an intersectional approach to study immigration attitudes,; Bowleg, L.,When Black + lesbian + woman ≠ Black lesbian woman: The methodological challenges of qualitative and quantitative intersectionality research,; Bowleg, L.,The problem with the phrase women and minorities: Intersectionality-an important theoretical framework for public health,; Bowleg, L., Bauer, G.,Invited Reflection: Quantifying Intersectionality (Open Access),; Bright, L.K., Malinsky, D., Thompson, M.,Causally interpreting intersectionality theory (Open Access),; Byrd, C.M., Carter Andrews, D.J.,Variations in students' perceived reasons for, sources of, and forms of in-school discrimination: A latent class analysis (Open Access),; Cairney, J., Veldhuizen, S., Vigod, S., Streiner, D.L., Wade, T.J., Kurdyak, P.,Exploring the social determinants of mental health service use using intersectionality theory and CART analysis,; Carbado, D.W.,Colorblind intersectionality,; Cho, S., Crenshaw, K.W., McCall, L.,Toward a field of intersectionality studies: Theory, applications, and praxis (Open Access),; Cole, E.R.,Intersectionality and Research in Psychology,; Collins, P.H.,Black feminist thought: Knowledge, consciousness, and the politics of empowerment,(1990) . Cited 14612 times.; Collins, P.H., Maldonado, L.A., Takagi, D.Y., Thorne, B., Weber, L., Winant, H.,Symposium: On West and Fenstermaker's “Doing Difference”,; Combahee River Collective,Combahee River collective statement,(1977) . Cited 435 times.; Covidence Systematic Review Software,Veritas health innovation, Cited 191 times.; Crenshaw, K.,Demarginalizing the intersection of race and sex: A Black feminist critique of antidiscrimination doctrine, feminist theory and antiracist politics,(1989) . Cited 9505 times.; Crenshaw, K.,Mapping the margins: Intersectionality, identity politics, and violence against women of color,(1991) Stanford Law Review, 43, p. 61. Cited 11979 times.; Davis, K.,Intersectionality as buzzword: A sociology of science perspective on what makes a feminist theory successful (Open Access),; Del Toro, J., Yoshikawa, H.,Invited Reflection: Intersectionality in Quantitative and Qualitative Research,; Else-Quest, N.M., Hyde, J.S.,Intersectionality in Quantitative Psychological Research: II. Methods and Techniques,; Evans, C.R., Williams, D.R., Onnela, J.-P., Subramanian, S.V.,A multilevel approach to modeling health inequalities at the intersection of multiple social identities (Open Access),; Gilliard-Matthews, S.,Intersectional Race Effects on Citizen-Reported Traffic Ticket Decisions by Police in 1999 and 2008 (Open Access),; Hancock, A.-M.,When multiplication doesn't equal quick addition: Examining intersectionality as a research paradigm,; Hancock, A.-M.,Empirical intersectionality: A tale of two approaches,(2013) UC Irvine Law Review, 3 (2), p. 259. Cited 71 times.; Jackson, J.W.,Explaining intersectionality through description, counterfactual thinking, and mediation analysis,; Jackson, J.W., VanderWeele, T.J.,Intersectional decomposition analysis with differential exposure, effects, and construct (Open Access),; Jackson, J.W., Williams, D.R., VanderWeele, T.J.,Disparities at the intersection of marginalized groups (Open Access),; Jones, C.P.,Invited commentary: "Race," racism, and the practice of epidemiology,; Krieger, N.,Genders, sexes, and health: What are the connections - And why does it matter?,; Lizotte, D.J., Mahendran, M., Churchill, S.M., Bauer, G.R.,Math versus meaning in MAIHDA: A commentary on multilevel statistical models for quantitative intersectionality,; Lofters, A., O'Campo, P.,Differences that matter,; Mahendran, M., Lizotte, D.J., Zhu, Y., Bauer, G.R.,(n.d.). Evaluating quantitative data analysis methods for intersectional studies of health inequalities. In Preparation.,  40; McCall, L.,The complexity of intersectionality (Open Access),; Mereish, E.H., Bradford, J.B.,Intersecting identities and substance use problems: Sexual orientation, gender, race, and lifetime substance use problems,; Merlo, J.,Multilevel analysis of individual heterogeneity and discriminatory accuracy (MAIHDA) within an intersectional framework,; Merlo, J., Mulinari, S., Wemrell, M., Subramanian, S.V., Hedblad, B.,The tyranny of the averages and the indiscriminate use of risk factors in public health: The case of coronary heart disease (Open Access),; Moher, D., Liberati, A., Tetzlaff, J., Altman, D.G.,Preferred reporting items for systematic reviews and meta-analyses: The PRISMA statement,; Muntaner, C., Nieto, F.J., O'Campo, P.,The Bell Curve: On race, social class, and epidemiologic research (Open Access),; De Mutsert, R., Jager, K.J., Zoccali, C., Dekker, F.W.,The effect of joint exposures: Examining the presence of interaction (Open Access),; Nash, J.C.,Re-thinking intersectionality,; Ojeda, L., Piña-Watson, B., Gonzalez, G.,The role of social class, ethnocultural adaptation, and masculinity ideology on Mexican American college men's well-being,; Oney, C.N., Cole, E.R., Sellers, R.M.,Racial Identity and Gender as Moderators of the Relationship Between Body Image and Self-esteem for African Americans (Open Access),; Purdie-Vaughns, V., Eibach, R.P.,Intersectional invisibility: The distinctive advantages and disadvantages of multiple subordinate-group identities (Open Access),; del Río-González, A.M., Holt, S.L., Bowleg, L.,Powering and Structuring Intersectionality: Beyond Main and Interactive Associations,; Salem, S.,Intersectionality and its discontents: Intersectionality as traveling theory,; Samuels-Dennis, J.A., Ford-Gilboe, M., Wilk, P., Avison, W.R., Ray, S.,Cumulative trauma, personal and social resources, and post-traumatic stress symptoms among income-assisted single mothers,; Schwartz, S.,Commentary: on the application of potential outcomes-based methods to questions in social psychiatry and psychiatric epidemiology (Open Access),; Scott, N.A., Siltanen, J.,Intersectionality and quantitative methods: assessing regression from a feminist perspective,; Shaw, L.R., Chan, F., McMahon, B.T.,Intersectionality and disability harassment: The interactive effects of disability, race, age, and gender,; Shields, S.A.,Gender: An intersectionality perspective,; Spierings, N.,The inclusion of quantitative techniques and diversity in the mainstream of feminist research (Open Access),; Todd, N.R., McConnell, E.A., Suffrin, R.L.,The Role of Attitudes Toward White Privilege and Religious Beliefs in Predicting Social Justice Interest and Commitment,; Ulrichs Serials Analysis System USAS,(2020) ,https://www.ulrichsweb.com/ulrichsweb/analysis/; Valiente, O., Rambla, X.,The new Other Catalans at school: Decreasing unevenness but increasing isolation,; Vanderweele, T.J.,A three-way decomposition of a total effect into direct, indirect, and interactive effects (Open Access),; Warner, L.R.,A best practices guide to intersectional approaches in psychological research (Open Access),; Weldon, S.L.,The Structure of Intersectionality: A Comparative Politics of Gender (Open Access),; Wemrell, M., Mulinari, S., Merlo, J.,Intersectionality and risk for ischemic heart disease in Sweden: Categorical and anti-categorical approaches (Open Access),; Wemrell, M., Mulinari, S., Merlo, J.,An intersectional approach to multilevel analysis of individual heterogeneity (MAIH) and discriminatory accuracy (Open Access),</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -7136,17 +6721,12 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>No Encontrado</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
           <t>10.1016/j.ssmph.2021.100798</t>
-        </is>
-      </c>
-      <c r="P84" t="inlineStr">
-        <is>
-          <t>Varios Paises</t>
         </is>
       </c>
     </row>
@@ -7191,7 +6771,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Dolzer, R.,The impact of international investment treaties on domestic administrative law,(2005) NYU Journal of International Law and Politics, 37, p. 953. Cited 65 times.; Schill, S.W.,International Investment Law and Comparative Public Law,; Büthe, T., Milner, H.V.,Bilateral Investment Treaties and Foreign Direct Investment: A Political Analysis,; Sattorova, M.,(2018) The Impact of Investment Treaty Law on Host States: Enabling Good Governance?, pp. 1-9. Cited 39 times.,For a useful overview of these claims at; Schill, S.W.,System building in investment treaty arbitration and lawmaking,(2011) German Law Journal, 12, p. 1083. Cited 36 times.; Echandi, R.,What Do Developing Countries Expect from the International Investment Regime?,; Dezalay, Y., Garth, B.,(2002) Global Prescriptions: The Production, Exportation, and Importation of a New Legal Orthodoxy. Cited 185 times.,For other international instrument processes and mechanisms influencing domestic legal and administrative transformation e.g, eds; Kosar, D., Lixinski, L.,Domestic judicial design by internationalhuman rights courts,; Bergling, P.,(2006) Rule of Law on the International Agenda: International Support to Legal and Judicial Reform in International Administration, Transition and Development Co-Operation. Cited 29 times.,  10; Ginsburg, T.,International substitutes for domestic institutions: Bilateral investment treaties and governance,; Sattorova, M., Omiunu, O., Erkan, M.,How do host states respond to investment treaty law? Some empirical observations,(2020) New Voices and Perspectives in International Economic Law, p. 133. Cited 4 times.; Côté, C.,(2014) A Chilling Effect? The Impact of International Investment Agreements on National Regulatory Autonomy in the Areas of Health, Safety and the Environment. Cited 16 times.,PhD thesis LSE, London; Van Harten, G., Scott, D.N.,Investment treaties and the internal vetting of regulatory proposals: A case study from Canada (Open Access),; Tienhaara, K.,(2009) The Expropriation of Environmental Governance. Cited 90 times.,Ch. 8; Gross, S.G.,Inordinate chill: Bits, non-NAFTa mITs, and host-state regulatory freedom - An Indonesian case study,(2003) Michigan Journal of International Law, 24, p. 893. Cited 29 times.; Williams, Z.,Risky business or risky politics: What explains investor-state disputes?,(2014) Investment Treaty News. Cited 5 times.; Ranjan, P.,(2019) India and Bilateral Investment Treaties: Refusal, Acceptance. Cited 17 times.,Backlash; Ostřanský, J.,A case for ethnography of international investment law,; Randeria, S.,The State of Globalization: Legal Plurality, Overlapping Sovereignties and Ambiguous Alliances between Civil Society and the Cunning State in India,; Ostřanský, J., Aznar, F.P.,National Governance and International Investment Law: Between Constraint and Empowerment,The results of the broader project comparing IIAs' governance effects in Argentina, Czech Republic, India, and Mexico are forthcoming in forthcoming; Burawoy, M.,The extended case method,; Flood, J.,Socio-legal ethnography,(2005) Theory and Method in Socio-Legal Research, 33, p. 34. Cited 22 times.; McKechnie, L.,Reactivity,(2008) The SAGE Encyclopedia of Qualitative Research Methods, p. 729. Cited 5 times.; Rasulov, A.,The discipline of international economic law at a crossroads,(2020) New Voices and New Perspectives in International Economic Law, p. 1. Cited 2 times.; Hoffmann, F.,Facing South: On the Significance of An/Other Modernity in Comparative Constitutional Law,; Marcus, G.E.,Multi-sited Ethnography: Five or six things I know about it now,(2005) Problems and Possibilities in Multi-Sited Ethnography Workshop. Cited 15 times.; Trouillot, M.R.,The anthropology of the state in the age of globalization: Close encounters of the deceptive kind,(2001) Current Anthropology, 42, p. 125. Cited 549 times.; Scheffer, T.,Courses of mobilisation: Writing systematic micro-histories of legal discourse,(2005) Theory and Method in Socio-Legal Research, p. 75. Cited 15 times.; de Araujo, L.,I am not an accountant, but I have to control everything,The Embeddedness of Chronic Healthcare in Paperwork; Transforming the international investment agreement regime: The Indian experience,(2015) UNCTAD Expert Meeting,Department of Economic Affairs, Ministry of Finance 25 February on file with authors; Transforming the International Investment Agreement Regime, p. 3.,The 1993 Model was based on the 1967 OECD Draft Convention on the Protection of Foreign Property, Ministry of Finance supra note 39, at,  33; Offshore banks launch arbitration for recovery of claims in Dabhol,(2004) Financial Express,E.g 10 December; Chandrasekhar, C.P., Ghosh, J.,Dangers of bilateral investment treaties,(2006) Hindu Business Line. Cited 4 times.; (2015) Analysis of the 2015 Draft Model Indian Bilateral Investment Treaty. Cited 5 times.,The Law Commission of India, August Report 260, para. 14,lawcommissionofindia.nic.in/reports/Report260.pdf; GE Structured Finance (GESF) V. The Government of India,Bechtel Enterprises Holdings, Inc. and UNCITRAL; Ras-AIKhaimah Investment Authority India, UNCITRAL,  38; (2016) India-Brazil Joint Statement during the Visit of President of Brazil to India. Cited 2 times.,See Ministry of Foreign Affairs 17 October,www.mea.gov.in/bilateral-documents.htm?dtl/27499/IndiaBrazil+Joint+Statement+during+the+visit+of+President+of+Brazil+to+India; Brauch, M.D.,The best of two worlds: The Brazil-India investment cooperation and facilitation treaty,Investment Treaty News; The agreement with Belarus is,mea.gov.in/Portal/LegalTreatiesDoc/BL18B3432.pdf,  42; The agreement with Colombia is,mea.gov.in/Portal/LegalTreatiesDoc/CO18B3453.pdf,  44; Seth, D.,Department of industrial policy &amp; promotion pitches for sunset clause to terminate all BIPPAs,(2014) Economic Times; Chaturvedi, S.,(2018) Modi's Minimum Raj: Jaitley Forwarded Anonymous Note to Flag Key Matter to PMO,Arun Jaitley's Letter to PMO on Vodafone Arbitration dated 26 May 2017 in The Wire, 5 April; Finance and Commerce &amp; Industry ministries to discuss draft BIPA model tomorrow,(2014) Economic Times,13 August; Jaitley, A.,(2016) Budget Speech 2016-2017. Cited 2 times.,29 February at 34; Annual Report 2016-2017. Cited 31 times.,Ministry of Finance, DEA para. 92.2,dea.gov.in/sites/default/files/Annual%20Report-2016-17-E.pdf; Aznar, F.P.,Federal states and investment arbitration,(2017) Yearbook on International Investment Law &amp; Policy 2015-2016, p. 326.; Bonnitcha, J., Poulsen, L.N.S., Waibel, M.,(2017) The Political Economy of the Investment Treaty Regime, p. 144. Cited 109 times.,By full internalization we mean the ideal situation assumed by the supporters of the good governance rationale, i.e., that each actor within the government fully internalizes the knowledge about IIAs, and adjusts the processes and practices accordingly. This point has been raised in the context of the discussion on the IIAs' role in inducing efficient regulation/investment in at; Latour, B.,(2005) Reassembling the Social: An Introduction to Actor-Network-Theory. Cited 16197 times.,Here, we are drawing on Bruno Latour and his Actor-Network-Theory (ANT), which perceives also non-human objects as actors ('actants') as long as they are a source of action. Except for this section, when we refer to actors in this article, we refer to human or institutional actors. e.g; Sarkar, C.,Director of National Investment and Infrastructure Fund (DEA),(2016) Report: Approaches by Developing Countries to Reforming Investment Rules; South-South Dialogue and Cooperation; Poulsen, L.N.S.,(2015) Bounded Rationality and Economic Diplomacy: The Politics of Investment Treaties in Developing Countries. Cited 109 times.,See; Singh, J.,Do Bilateral Investment Promotion &amp; Protection Agreements (BIPAs) attract Foreign Direct Investment (FDI) Inflows into India?,(2014) Interdisciplinary Journal of Management and Behavioural Sciences, 3, p. 8.; Pahuja, S.,Decolonising international law: Development, economic growth and the politics of universality,; Singh, K.,India-UAE investment agreement: Why such desperate haste?,(2014) Global Research. Cited 3 times.; Government Not to Coerce Vodafone, Cairn on Retro Tax Case: Jaitley,Interview with R. A. (2015); interview with E. N. (2015 The Hindu, 27 March 2016,www.thehindu.com/business/Economy/Govt.-not-to-coerce-VodafoneCairn-on-retro-tax-case-Jaitley/article14177944.ece; Raghavan, T.C.A.S.,No question of dropping tax demand against Cairn Energy: CBDT,(2015) The Hindu</t>
+          <t>Dolzer, R.,The impact of international investment treaties on domestic administrative law,(2005) NYU Journal of International Law and Politics, 37, p. 953. Cited 65 times.; Schill, S.W.,International Investment Law and Comparative Public Law,; Büthe, T., Milner, H.V.,Bilateral Investment Treaties and Foreign Direct Investment: A Political Analysis,; Sattorova, M.,(2018) The Impact of Investment Treaty Law on Host States: Enabling Good Governance?, pp. 1-9. Cited 39 times.,For a useful overview of these claims at; Schill, S.W.,System building in investment treaty arbitration and lawmaking,(2011) German Law Journal, 12, p. 1083. Cited 36 times.; Echandi, R.,What Do Developing Countries Expect from the International Investment Regime?,; Dezalay, Y., Garth, B.,(2002) Global Prescriptions: The Production, Exportation, and Importation of a New Legal Orthodoxy. Cited 185 times.,For other international instrument processes and mechanisms influencing domestic legal and administrative transformation e.g, eds; Kosar, D., Lixinski, L.,Domestic judicial design by internationalhuman rights courts,; Bergling, P.,(2006) Rule of Law on the International Agenda: International Support to Legal and Judicial Reform in International Administration, Transition and Development Co-Operation. Cited 29 times.,  10; Ginsburg, T.,International substitutes for domestic institutions: Bilateral investment treaties and governance,; Sattorova, M., Omiunu, O., Erkan, M.,How do host states respond to investment treaty law? Some empirical observations,(2020) New Voices and Perspectives in International Economic Law, p. 133. Cited 4 times.; Côté, C.,(2014) A Chilling Effect? The Impact of International Investment Agreements on National Regulatory Autonomy in the Areas of Health, Safety and the Environment. Cited 16 times.,PhD thesis LSE, London; Van Harten, G., Scott, D.N.,Investment treaties and the internal vetting of regulatory proposals: A case study from Canada,; Tienhaara, K.,(2009) The Expropriation of Environmental Governance. Cited 91 times.,Ch. 8; Gross, S.G.,Inordinate chill: Bits, non-NAFTa mITs, and host-state regulatory freedom - An Indonesian case study,(2003) Michigan Journal of International Law, 24, p. 893. Cited 29 times.; Williams, Z.,Risky business or risky politics: What explains investor-state disputes?,(2014) Investment Treaty News. Cited 5 times.; Ranjan, P.,(2019) India and Bilateral Investment Treaties: Refusal, Acceptance. Cited 17 times.,Backlash; Ostřanský, J.,A case for ethnography of international investment law,; Randeria, S.,The State of Globalization: Legal Plurality, Overlapping Sovereignties and Ambiguous Alliances between Civil Society and the Cunning State in India,; Ostřanský, J., Aznar, F.P.,National Governance and International Investment Law: Between Constraint and Empowerment,The results of the broader project comparing IIAs' governance effects in Argentina, Czech Republic, India, and Mexico are forthcoming in forthcoming; Burawoy, M.,The extended case method,; Flood, J.,Socio-legal ethnography,(2005) Theory and Method in Socio-Legal Research, 33, p. 34. Cited 22 times.; McKechnie, L.,Reactivity,(2008) The SAGE Encyclopedia of Qualitative Research Methods, p. 729. Cited 5 times.; Rasulov, A.,The discipline of international economic law at a crossroads,(2020) New Voices and New Perspectives in International Economic Law, p. 1. Cited 2 times.; Hoffmann, F.,Facing South: On the Significance of An/Other Modernity in Comparative Constitutional Law,; Marcus, G.E.,Multi-sited Ethnography: Five or six things I know about it now,(2005) Problems and Possibilities in Multi-Sited Ethnography Workshop. Cited 15 times.; Trouillot, M.R.,The anthropology of the state in the age of globalization: Close encounters of the deceptive kind,(2001) Current Anthropology, 42, p. 125. Cited 549 times.; Scheffer, T.,Courses of mobilisation: Writing systematic micro-histories of legal discourse,(2005) Theory and Method in Socio-Legal Research, p. 75. Cited 15 times.; de Araujo, L.,I am not an accountant, but I have to control everything,The Embeddedness of Chronic Healthcare in Paperwork; Transforming the international investment agreement regime: The Indian experience,(2015) UNCTAD Expert Meeting,Department of Economic Affairs, Ministry of Finance 25 February on file with authors; Transforming the International Investment Agreement Regime, p. 3.,The 1993 Model was based on the 1967 OECD Draft Convention on the Protection of Foreign Property, Ministry of Finance supra note 39, at,  33; Offshore banks launch arbitration for recovery of claims in Dabhol,(2004) Financial Express,E.g 10 December; Chandrasekhar, C.P., Ghosh, J.,Dangers of bilateral investment treaties,(2006) Hindu Business Line. Cited 4 times.; (2015) Analysis of the 2015 Draft Model Indian Bilateral Investment Treaty. Cited 5 times.,The Law Commission of India, August Report 260, para. 14,lawcommissionofindia.nic.in/reports/Report260.pdf; GE Structured Finance (GESF) V. The Government of India,Bechtel Enterprises Holdings, Inc. and UNCITRAL; Ras-AIKhaimah Investment Authority India, UNCITRAL,  38; (2016) India-Brazil Joint Statement during the Visit of President of Brazil to India. Cited 2 times.,See Ministry of Foreign Affairs 17 October,www.mea.gov.in/bilateral-documents.htm?dtl/27499/IndiaBrazil+Joint+Statement+during+the+visit+of+President+of+Brazil+to+India; Brauch, M.D.,The best of two worlds: The Brazil-India investment cooperation and facilitation treaty,Investment Treaty News; The agreement with Belarus is,mea.gov.in/Portal/LegalTreatiesDoc/BL18B3432.pdf,  42; The agreement with Colombia is,mea.gov.in/Portal/LegalTreatiesDoc/CO18B3453.pdf,  44; Seth, D.,Department of industrial policy &amp; promotion pitches for sunset clause to terminate all BIPPAs,(2014) Economic Times; Chaturvedi, S.,(2018) Modi's Minimum Raj: Jaitley Forwarded Anonymous Note to Flag Key Matter to PMO,Arun Jaitley's Letter to PMO on Vodafone Arbitration dated 26 May 2017 in The Wire, 5 April; Finance and Commerce &amp; Industry ministries to discuss draft BIPA model tomorrow,(2014) Economic Times,13 August; Jaitley, A.,(2016) Budget Speech 2016-2017. Cited 2 times.,29 February at 34; Annual Report 2016-2017. Cited 31 times.,Ministry of Finance, DEA para. 92.2,dea.gov.in/sites/default/files/Annual%20Report-2016-17-E.pdf; Aznar, F.P.,Federal states and investment arbitration,(2017) Yearbook on International Investment Law &amp; Policy 2015-2016, p. 326.; Bonnitcha, J., Poulsen, L.N.S., Waibel, M.,(2017) The Political Economy of the Investment Treaty Regime, p. 144. Cited 110 times.,By full internalization we mean the ideal situation assumed by the supporters of the good governance rationale, i.e., that each actor within the government fully internalizes the knowledge about IIAs, and adjusts the processes and practices accordingly. This point has been raised in the context of the discussion on the IIAs' role in inducing efficient regulation/investment in at; Latour, B.,(2005) Reassembling the Social: An Introduction to Actor-Network-Theory. Cited 16246 times.,Here, we are drawing on Bruno Latour and his Actor-Network-Theory (ANT), which perceives also non-human objects as actors ('actants') as long as they are a source of action. Except for this section, when we refer to actors in this article, we refer to human or institutional actors. e.g; Sarkar, C.,Director of National Investment and Infrastructure Fund (DEA),(2016) Report: Approaches by Developing Countries to Reforming Investment Rules; South-South Dialogue and Cooperation; Poulsen, L.N.S.,(2015) Bounded Rationality and Economic Diplomacy: The Politics of Investment Treaties in Developing Countries. Cited 112 times.,See; Singh, J.,Do Bilateral Investment Promotion &amp; Protection Agreements (BIPAs) attract Foreign Direct Investment (FDI) Inflows into India?,(2014) Interdisciplinary Journal of Management and Behavioural Sciences, 3, p. 8.; Pahuja, S.,Decolonising international law: Development, economic growth and the politics of universality,; Singh, K.,India-UAE investment agreement: Why such desperate haste?,(2014) Global Research. Cited 3 times.; Government Not to Coerce Vodafone, Cairn on Retro Tax Case: Jaitley,Interview with R. A. (2015); interview with E. N. (2015 The Hindu, 27 March 2016,www.thehindu.com/business/Economy/Govt.-not-to-coerce-VodafoneCairn-on-retro-tax-case-Jaitley/article14177944.ece; Raghavan, T.C.A.S.,No question of dropping tax demand against Cairn Energy: CBDT,(2015) The Hindu</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -7222,11 +6802,6 @@
       <c r="O85" t="inlineStr">
         <is>
           <t>10.1017/S0922156521000029</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>Varios Paises</t>
         </is>
       </c>
     </row>
@@ -7271,7 +6846,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Almandoz, Arturo,(1997) En plan Monumental de 1939: conclusión del ciclo europeo de Caracas, p. 20.,Caracas, Urbana; Archila, Ricardo,(1956) Historia de la sanidad en Venezuela. Cited 5 times.,Caracas, Imprenta Nacional; Capriles, Guillermo,Desarrollo eléctrico nacional 1988-1998,(1988) XXII Mesa Redonda sobre industria eléctrica; González Casas, L.,Nelson A. Rockefeller y la modernidad venezolana: Intercambios, empresas y lugares a mediados del siglo XX,(2005) Petróleo nuestro y ajeno. La ilusión de modernidad». Cited 2 times.; Gómez, Hannia,(2019) Desde la memoria urbana,Disponible en: Consultado el 20/01/2021; Gondelles, Ricardo,(1966) El programa de estudios y proyectos especiales del Consejo de Bienestar Rural. 1948-1962,Caracas: Oficina de Estudios Especiales; Gutiérrez, Ana Teresa,(1998) Tiempos de guerra y paz. Arnoldo Gabaldón y la investigación sobre malaria en Venezuela. 1936-1990. Cited 4 times.,Caracas: Edic. CDCH-UCV; López Maya, Margarita,(1996) EE.UU. en Venezuela: 1945-1948 (Revelaciones de los archivos estadounidenses). Cited 5 times.,Caracas: Edic. CDCH-UCV; Martin, Edgar D.,(2017) Hospital Clínico Universitario,CcsCity450. Disponible en: Consultado el 16/07/2020; Martín, F.,(2002) Hierro y carbón. Claves para una historia de la siderúrgica en la Guayana venezolana: 1946-1957, 25.,J.J. Madrid: Llull; Martín, F.,(2004) Diálogos reconstruidos para una historia de la Caracas moderna. Cited 4 times.,J.J. Caracas: Edic. CDCH-UCV; Malavé, J.,(2009) La ilusión de modernidad. Los negocios de Estados Unidos en Venezuela durante la primera mitad del siglo XX,Caracas, IESA; McVey, Frank L.,Informe sobre la Ciudad Universitaria,(1947) La Ciudad Universitaria de Caracas. Documentos relativos a su estudio y creación; Rivas, Darlene,(2002) Missionary Capitalism. Cited 55 times.,Nelson Rockefeller in Venezuela. University of North Carolina; Ruíz Calderón, Humberto,(1997) Tras el fuego de Prometeo. Becas en el exterior y modernización en Venezuela, 1900-1996. Cited 9 times.,Mérida: Ed. CDCH-ULA; Texera, Yolanda,(1991) La exploración botánica en Venezuela, 1754-1940. Cited 12 times.,Caracas: Fondo Ed. Acta Científica Venezolana; Texera, Yolanda,(1998) La modernización difícil, Henri Pittier en Venezuela. Cited 6 times.,Caracas: Ed. Fundación Polar; Texera, Yolanda,(2002) The Beginnings of Modern Ornithology in Venezuela, p. 4.,Washington: The Americas; Texera, Yolanda,El Instituto de Geología y los inicios de la reforma de la educación superior en Venezuela,(2005) Petróleo nuestro y ajeno. Cited 3 times.; Texera, Yolanda,(2008) El surgimiento de la biología académica en Venezuela 1946-1958. Cited 3 times.,Caracas: Edic. CDCH-UCV; Texera, Yolanda,(2010) Estrategia del Estado para la reforma de la Universidad Central de Venezuela. Cited 3 times.,Caracas: Edic. CDCH-UCV, 2010; Texera, Yolanda,(2014) Experticia extranjera en el Ministerio de Sanidad y Asistencia Social de Venezuela: 1936-1958, p. 2.,Mérida: Bitácora-e; Texera, Yolanda,(2014) Especialistas del exterior en el Ministerio de Agricultura y Cría, 1936-1958, p. 1.,Caracas: Bitácora-e; Texera, Yolanda,(2017) El riego agrícola en Venezuela en los archivos de la Dirección de Obras Hidráulicas del Ministerio de Obras Públicas,Mérida, Revista Geográfica Venezolana; Texera, Yolanda,Avance con tropiezos. La ingeniería en Venezuela en la primera mitad del siglo XX,(2018) Procesos Históricos. Revista de historia y ciencias sociales, 33.; (1995) Egresados de la UCV,UCV, Secretaría Caracas: Edic. Secretaría UCV,  27; (1951) Venezuela-up-to-date,Published by the Embassy in Washington, Dec,  29; Wagner, Erika,Los otros vestigios de la Atlántida o el surgimiento de la arqueología moderna en Venezuela y sus consecuencias,(1992) Tiempos de cambio. La ciencia en Venezuela, 1936-1948. Cited 2 times.</t>
+          <t>Almandoz, Arturo,(1997) En plan Monumental de 1939: conclusión del ciclo europeo de Caracas, p. 20.,Caracas, Urbana; Archila, Ricardo,(1956) Historia de la sanidad en Venezuela. Cited 5 times.,Caracas, Imprenta Nacional; Capriles, Guillermo,Desarrollo eléctrico nacional 1988-1998,(1988) XXII Mesa Redonda sobre industria eléctrica; González Casas, L.,Nelson A. Rockefeller y la modernidad venezolana: Intercambios, empresas y lugares a mediados del siglo XX,(2005) Petróleo nuestro y ajeno. La ilusión de modernidad». Cited 3 times.; Gómez, Hannia,(2019) Desde la memoria urbana,Disponible en: Consultado el 20/01/2021; Gondelles, Ricardo,(1966) El programa de estudios y proyectos especiales del Consejo de Bienestar Rural. 1948-1962,Caracas: Oficina de Estudios Especiales; Gutiérrez, Ana Teresa,(1998) Tiempos de guerra y paz. Arnoldo Gabaldón y la investigación sobre malaria en Venezuela. 1936-1990. Cited 4 times.,Caracas: Edic. CDCH-UCV; López Maya, Margarita,(1996) EE.UU. en Venezuela: 1945-1948 (Revelaciones de los archivos estadounidenses). Cited 5 times.,Caracas: Edic. CDCH-UCV; Martin, Edgar D.,(2017) Hospital Clínico Universitario,CcsCity450. Disponible en: Consultado el 16/07/2020; Martín, F.,(2002) Hierro y carbón. Claves para una historia de la siderúrgica en la Guayana venezolana: 1946-1957, 25.,J.J. Madrid: Llull; Martín, F.,(2004) Diálogos reconstruidos para una historia de la Caracas moderna. Cited 4 times.,J.J. Caracas: Edic. CDCH-UCV; Malavé, J.,(2009) La ilusión de modernidad. Los negocios de Estados Unidos en Venezuela durante la primera mitad del siglo XX,Caracas, IESA; McVey, Frank L.,Informe sobre la Ciudad Universitaria,(1947) La Ciudad Universitaria de Caracas. Documentos relativos a su estudio y creación; Rivas, Darlene,(2002) Missionary Capitalism. Cited 55 times.,Nelson Rockefeller in Venezuela. University of North Carolina; Ruíz Calderón, Humberto,(1997) Tras el fuego de Prometeo. Becas en el exterior y modernización en Venezuela, 1900-1996. Cited 9 times.,Mérida: Ed. CDCH-ULA; Texera, Yolanda,(1991) La exploración botánica en Venezuela, 1754-1940. Cited 12 times.,Caracas: Fondo Ed. Acta Científica Venezolana; Texera, Yolanda,(1998) La modernización difícil, Henri Pittier en Venezuela. Cited 6 times.,Caracas: Ed. Fundación Polar; Texera, Yolanda,(2002) The Beginnings of Modern Ornithology in Venezuela, p. 4.,Washington: The Americas; Texera, Yolanda,El Instituto de Geología y los inicios de la reforma de la educación superior en Venezuela,(2005) Petróleo nuestro y ajeno. Cited 3 times.; Texera, Yolanda,(2008) El surgimiento de la biología académica en Venezuela 1946-1958. Cited 3 times.,Caracas: Edic. CDCH-UCV; Texera, Yolanda,(2010) Estrategia del Estado para la reforma de la Universidad Central de Venezuela. Cited 3 times.,Caracas: Edic. CDCH-UCV, 2010; Texera, Yolanda,(2014) Experticia extranjera en el Ministerio de Sanidad y Asistencia Social de Venezuela: 1936-1958, p. 2.,Mérida: Bitácora-e; Texera, Yolanda,(2014) Especialistas del exterior en el Ministerio de Agricultura y Cría, 1936-1958, p. 1.,Caracas: Bitácora-e; Texera, Yolanda,(2017) El riego agrícola en Venezuela en los archivos de la Dirección de Obras Hidráulicas del Ministerio de Obras Públicas,Mérida, Revista Geográfica Venezolana; Texera, Yolanda,Avance con tropiezos. La ingeniería en Venezuela en la primera mitad del siglo XX,(2018) Procesos Históricos. Revista de historia y ciencias sociales, 33.; (1995) Egresados de la UCV,UCV, Secretaría Caracas: Edic. Secretaría UCV,  27; (1951) Venezuela-up-to-date,Published by the Embassy in Washington, Dec,  29; Wagner, Erika,Los otros vestigios de la Atlántida o el surgimiento de la arqueología moderna en Venezuela y sus consecuencias,(1992) Tiempos de cambio. La ciencia en Venezuela, 1936-1948. Cited 2 times.</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -7302,11 +6877,6 @@
       <c r="O86" t="inlineStr">
         <is>
           <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85127795550&amp;partnerID=40&amp;md5=e69813acfecdf1597f792d44cb098f47</t>
-        </is>
-      </c>
-      <c r="P86" t="inlineStr">
-        <is>
-          <t>Venezuela</t>
         </is>
       </c>
     </row>
@@ -7351,7 +6921,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t xml:space="preserve">PORTER, Roy,(1998) The Greatest Benefit to Mankind: A Medical History of Humanity, p. 483. Cited 1758 times.,New York, Norton &amp; Company; THÉVENOT, Laurent,Jugements ordinaires et jugement de droit,(1992) Annales. Histoire, Sciences Sociales, 47 (6), pp. 1279-129. Cited 29 times.; (2014) Diccionario de la Lengua Española. Cited 2719 times.,R.A.E. 23e. edición, Versión electrónica consultable en: Https://dle.rae.es/?w=riesgo y R.A.E, Diccionario del Español Jurídico, primera edición, 2020. Versión electrónica consultable en: (consultado el 19 de marzo de 2020),Https://dej.rae.es/; Centre National des Ressources textuelles et lexicales. Cited 41 times.,C.N.R.L. Versión electrónica conultable en: (consultado el 19 de marzo de 2020),Https://www.cnrtl.fr/definition/risque; Beck, Ulrich,fallecido en enero de 2015, fué uno de los sociólogos más importantes de nuestra época,Director hasta febrero de 2009 del Instituto de Sociología de la Universidad de Munich. Sustentó su tesis en 1977, situandose en la posteridad institucional de Max Weber. Sus temas de investigación eran el riesgo, la globalización y las relaciones sociales; GALINDO, Jorge,El concepto de riesgo en las teorías de Ulrich Beck y Niklas Luhmann,(2015) Revista Acta Sociológica, 67, pp. 141-164. Cited 9 times.; (1986) ,El accidente nuclear de Chernóbil ocurrido en Ucrania en abril de es considerado uno de los mayores desastres medioambientales de la historia,  8; Para sus críticos, el riesgo no es un asunto contemporáneo, ni que pueda definir o caracterizar a una época, éste siempre ha existido. Una segunda crítica, que Galeano, Ibid. define como epistemológica se refiere a la real existencia de los riesgos, discutible para algunos e innegable para Beck, y finalmente su obra fue criticada por la ausencia de elementos de definición y caracterización suficientes de la noción misma de riesgo y de lo que ella entraña., </t>
+          <t xml:space="preserve">PORTER, Roy,(1998) The Greatest Benefit to Mankind: A Medical History of Humanity, p. 483. Cited 1758 times.,New York, Norton &amp; Company; THÉVENOT, Laurent,Jugements ordinaires et jugement de droit,(1992) Annales. Histoire, Sciences Sociales, 47 (6), pp. 1279-129. Cited 29 times.; (2014) Diccionario de la Lengua Española. Cited 2731 times.,R.A.E. 23e. edición, Versión electrónica consultable en: Https://dle.rae.es/?w=riesgo y R.A.E, Diccionario del Español Jurídico, primera edición, 2020. Versión electrónica consultable en: (consultado el 19 de marzo de 2020),Https://dej.rae.es/; Centre National des Ressources textuelles et lexicales. Cited 41 times.,C.N.R.L. Versión electrónica conultable en: (consultado el 19 de marzo de 2020),Https://www.cnrtl.fr/definition/risque; Beck, Ulrich,fallecido en enero de 2015, fué uno de los sociólogos más importantes de nuestra época,Director hasta febrero de 2009 del Instituto de Sociología de la Universidad de Munich. Sustentó su tesis en 1977, situandose en la posteridad institucional de Max Weber. Sus temas de investigación eran el riesgo, la globalización y las relaciones sociales; GALINDO, Jorge,El concepto de riesgo en las teorías de Ulrich Beck y Niklas Luhmann,(2015) Revista Acta Sociológica, 67, pp. 141-164. Cited 10 times.; (1986) ,El accidente nuclear de Chernóbil ocurrido en Ucrania en abril de es considerado uno de los mayores desastres medioambientales de la historia,  8; Para sus críticos, el riesgo no es un asunto contemporáneo, ni que pueda definir o caracterizar a una época, éste siempre ha existido. Una segunda crítica, que Galeano, Ibid. define como epistemológica se refiere a la real existencia de los riesgos, discutible para algunos e innegable para Beck, y finalmente su obra fue criticada por la ausencia de elementos de definición y caracterización suficientes de la noción misma de riesgo y de lo que ella entraña., </t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -7376,17 +6946,12 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>No Encontrado</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
           <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85110886070&amp;partnerID=40&amp;md5=ad05dd9e083df1cf30ce025a6ae4c231</t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr">
-        <is>
-          <t>Colombia</t>
         </is>
       </c>
     </row>
@@ -7431,7 +6996,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Alford, J.,TOWARDS A NEW PUBUC MANAGEMENT MODEL: BEYOND “MANAGERIALISM” AND ITS CRITICS (Open Access),; Altbach, P.G., Knight, J.,The internationalization of higher education: Motivations and realities,; Ansell, B.W.,From the Ballot to the blackboard: The redistributive political economy of education,; Appe, S., Rubaii, N., Castro, S.L.-D., Capobianco, S.,The concept and context of the engaged university in the Global South: Lessons from Latin America to guide a research Agenda,; Arata-Andreana., A., Rodríguez Ponce, E.,(2009) Desafíos y perspectivas de la dirección estratégica de las instituciones universitarias. Cited 2 times.,(Eds). Comisión Nacional de Acreditación; Austin, I., Jones, G. A.,(2016) Governance of higher education: Global perspectives, theories, and practices. Cited 45 times.,Routledge; Baltaru, R.-D., Soysal, Y.N.,Administrators in higher education: organizational expansion in a transforming institution (Open Access),; Bárcena Ibarra, A.,Restricciones estructurales del desarrollo en América Latina y el Caribe: una reflexión postcrisis,(2010) Revista Cepal, 100, pp. 7-28. Cited 2 times.; Barnett, R.,The idea of the university: Renewing the great tradition,(2016) Encyclopedia of international higher education systems and institutions, pp. 1-25. Cited 2 times.; Bates, A., Godoń, R.,Tackling knowledge ‘like a business’? Rethinking the modernisation of higher education in Poland (Open Access),; Berenskoetter, F.,Approaches to concept analysis (Open Access),; Berman, M.,Todo lo sólido se desvanece en el aire. La experiencia de la modernidad,(2000) . Cited 183 times.; Bernasconi, A.,The profit motive in higher education,(2013) International Higher Education, 71, pp. 8-10. Cited 5 times.; Bernasconi, A., Celis, S.,Higher education reforms: Latin america in comparative perspective (Open Access),; Birnbaum, R.,(2001) Management fads in higher education: Where they come from, what they do, why they fail. Cited 349 times.,Jossey-Bass; Bok, D.,Universities in the marketplace: The commercialization of higher education,; Boltanski, L., Chiapello, È.,(2002) El nuevo espíritu del capitalismo. Cited 326 times.,Akal; Bromley, P., Meyer, J.W.,“They Are All Organizations”: The Cultural Roots of Blurring Between the Nonprofit, Business, and Government Sectors,; Broucker, B., De Wit, K.,New public management in higher education,; Brunner, J. J.,(2009) Educación superior en Chile. Instituciones, mercados y políticas gubernamentales (1967-2009). Cited 61 times.,Ediciones UDP; Brunner, J. J.,Medio siglo de transformaciones de la educación superior chilena: Un estado del arte,(2015) La educación superior de Chile: Transformación, desarrollo y crisis, pp. 21-108. Cited 46 times.; Brunner, J. J.,Un análisis de política de la política educacional,(2015) Debate Universitario, 3 (6), pp. 7-15. Cited 5 times.; Brunner, J. J.,La economía política del capitalismo académico: El caso de Chile,(2017) Desafíos para el desarrollo universitario en Chile, pp. 159-231. Cited 12 times.; Brunner, J. J., Elacqua, G., Tillett, A., Bonnefoy, J., González, S., Pacheco, P., Salazar, F.,(2005) Guiar el mercado. Informe sobre la educación superior en Chile. Cited 26 times.,Adolfo Ibáñez; Brunner, J.J., Ganga, F.A.,Dynamics of transformation in Latin American higher education: Challenges for governance,; Brunner, J.J., Vargas, J.R.L., Ganga, F., Rodríguez-Ponce, E.,,(2019) Revista Electronica de Investigacion Educativa, 21 (1), art. no. 3181, pp. 1-13. Cited 10 times.; Brunner, J.J., Labraña, J., Ganga, F., Ponce, E.R.,Circulation and reception of the theory of “academic capitalism” in latin america (Open Access),; Brunner, J.J., Vargas, J.R.L., Ganga, F., Rodríguez-Ponce, E.,The modern idea of university: From the ivory tower towards academic capitalism (Open Access),; Brunner, J. J., Miranda, D. A.,(2016) Educación superior en Iberoamérica: Informe 2016. Cited 142 times.,(Eds). Centro Interuniversitario de Desarrollo; Brunner, J.J., Pedraja-Rejas, L., Vargas, J.L.,Academic capitalism: Conceptual distinctions and contradictory processes in reference to the chilean case (Open Access),; Brunner, J. J., Peña, C.,Introducción-La dialéctica público/privado entre el medioevo y la globalización,(2011) El conflicto de las universidades: Entre lo público y lo privado, pp. 9-61. Cited 6 times.; Brunner, J. J., Peña, C.,(2011) El conflicto de las universidades: Entre lo público y lo privado. Cited 11 times.,(Eds). (a). Universidad Diego Portales; Busemeyer, M.R.,Skills and inequality: Partisan politics and the political economy of education reforms in Western Welfare States,; Cai, Y., Etzkowitz, H.,Theorizing the Triple Helix model: Past, present, and future (Open Access),; Cantwell, B., Kauppinen, I.,(2014) Academic capitalism in the age of globalization. Cited 95 times.,(Eds). Johns Hopkins University Press; Capano, G., Howlett, M., Ramesh, M.,Bringing Governments Back in: Governance and Governing in Comparative Policy Analysis,; Capano, G., Pritoni, A.,Exploring the determinants of higher education performance in Western Europe: A qualitative comparative analysis (Open Access),; Capano, G., Pritoni, A.,Varieties of hybrid systemic governance in European Higher Education (Open Access),; Capano, G., Pritoni, A.,What really happens in higher education governance? Trajectories of adopted policy instruments in higher education over time in 16 European countries (Open Access),; Carnoy, M., Froumin, I., Loyalka, P.K., Tilak, J.B.G.,The concept of public goods, the state, and higher education finance: a view from the BRICs,; Chou, M.-H., Jungblut, J., Ravinet, P., Vukasovic, M.,Higher education governance and policy: An introduction to multi-issue, multi-level and multi-actor dynamics (Open Access),; Clark, B. R.,(1986) The higher education system. Academic organization in cross-national perspective. Cited 1781 times.,University of California Press; Clark, B.,(1998) Creating entrepreneurial universities: Organizational pathways of transformation. Cited 2178 times.,IAU Press by Pergamon Press; Clark, B. R.,(2004) Sustaining change in universities: Continuities in case studies and concepts. Cited 294 times.,The Society for Research into Higher Education &amp; Open University Press; Lundbye Cone, L.,Towards a university of Halbbildung: How the neoliberal mode of higher education governance in Europe is half-educating students for a misleading future,; Cross, M., Ndofirepi, A.,Reconnecting the university to society: The role of knowledge as public good in South African higher education,(2016) JHEA/RESA, 14 (1), pp. 119-140. Cited 4 times.; David, P.A.,Why are institutions the 'carriers of history'?: Path dependence and the evolution of conventions, organizations and institutions,; De Boer, H., Jongbloed, B.,A cross-national comparison of higher education markets in Western Europe,(2012) European higher education at the crossroads: Between the Bologna process and national reforms, pp. 553-571. Cited 13 times.; De Moura Castro, M.,Políticas de educación superior: una perspectiva latinoamericana,(2000) , 4, pp. 29-35.; Deem, R.,The Knowledge Worker, the Manager-academic and the Contemporary UK University: New and Old Forms of Public Management?,; Deem, R.,New managerialism in higher education,(2017) Encyclopedia of international higher education systems and institutions. Cited 14 times.; Demin, M.R.,Universities on the Market: Academic Capitalism as a Challenge and a Window of Opportunity,; Dobbins, M., Knill, C., Vögtle, E.M.,An analytical framework for the cross-country comparison of higher education governance,; Donina, D., Paleari, S.,New public management: global reform script or conceptual stretching? Analysis of university governance structures in the Napoleonic administrative tradition,; Doyle, T., Brady, M.,Reframing the university as an emergent organisation: implications for strategic management and leadership in higher education (Open Access),; Ebner, A.,Marketization: Theoretical Reflections Building on the Perspectives of Polanyi and Habermas,; Engelen, E., Fernandez, R., Hendrikse, R.,How Finance Penetrates its Other: A Cautionary Tale on the Financialization of a Dutch University,; Etzkowitz, H., Leydesdorff, L.,The dynamics of innovation: From National Systems and "mode 2" to a Triple Helix of university-industry-government relations,; Ferlie, E., Musselin, C., Andresani, G.,The Governance of Higher Education Systems: A Public Management Perspective (Open Access),; Fernández, E.,El sistema-mundo del capitalismo académico: Procesos de consolidación de la universidad emprendedora,(2009) Archivos Analíticos De Políticas Educativas Archives, 17 (21), pp. 1-43. Cited 8 times.; Ferreyra, M. M., Avitabile, C., Botero Álvarez, J., Haimovich Paz, F., Urzúa, S.,(2017) At a crossroads: Higher education in Latin America and the Caribbean. Cited 125 times.,International Bank for Reconstruction and Development The World Bank; Findlow, S., L Hayes, A.,Transnational academic capitalism in the Arab Gulf: balancing global and local, and public and private, capitals (Open Access),; Findlow, S., Hayes, A., Sundell, T.,Academic capitalism, Conceptualizations of,(2020) The Sage encyclopedia of higher education, pp. 18-23. Cited 2 times.; Fligstein, N., McAdam, D.,A Theory of Fields,; Froelich, K.A.,Diversification of revenue strategies: Evolving resource dependence in nonprofit organizations,; Fumasoli, T.,Multi-level governance in higher education research,; López, F.G.,,(2018) Revista Mexicana de Sociologia, 80 (4), pp. 881-908. Cited 12 times.; Graf, L.,Applying the Varieties of Capitalism Approach to Higher Education: Comparing the internationalisation of German and British universities,; Graf, L.,Work-based higher education programmes in Germany and the US: Comparing multi-actor corporatist governance in higher education (Open Access),; Guzmán-Valenzuela, C.,Neoliberal discourses and the emergence of an agentic field: The Chilean student movement,(2017) Society for Research into Higher Education series. Student politics and protest: International perspectives, pp. 65-80.; Habermas, J.,The idea of the university-Learning processes,(1987) New German Critique, 41, pp. 3-22. Cited 105 times.; Hall, P. A., Soskice, D. W.,(2004) Varieties of capitalism: The institutional foundations of comparative advantage. Cited 7223 times.,Oxford Univiversity Press; Harris, B.,Corporatisation, managerialism and the death of the university ideal in Australia,(2014) Journal of Politics and Law, 7 (2). Cited 6 times.; Hartmann, E.,Quality assurance and the shift towards private governance in higher education: Europeanisation through the back door?,; Hayes, D., Wynyard, R.,(2002) The McDonaldization of higher education. Cited 160 times.,(E). Bergin and Garvey; Hirschman, A.,(1970) Exit, voice and loyalty. Cited 12079 times.,Harvard University Press; Howe, R. H.,Max Weber's elective affinities: Sociology within the bounds of pure reason,(1978) American Journal of Sociology, 84 (2), pp. 366-385. Cited 106 times.; Isakjee, A.,(2017) Welfare state regimes: A literature review [IRIS working paper no. 18]. Cited 17 times.,University of Birmingham; Iversen, T., Stephens, J.D.,Partisan politics, the welfare state, and three worlds of human capital formation,; Jessop, B.,Towards a Schumpeterian workfare state? Preliminary remarks on post-Fordist political economy,(1993) Studies in Political Economy, 40 (1), pp. 7-39. Cited 499 times.</t>
+          <t>Alford, J.,TOWARDS A NEW PUBUC MANAGEMENT MODEL: BEYOND “MANAGERIALISM” AND ITS CRITICS,; Altbach, P.G., Knight, J.,The internationalization of higher education: Motivations and realities,; Ansell, B.W.,From the Ballot to the blackboard: The redistributive political economy of education,; Appe, S., Rubaii, N., Castro, S.L.-D., Capobianco, S.,The concept and context of the engaged university in the Global South: Lessons from Latin America to guide a research Agenda,; Arata-Andreana., A., Rodríguez Ponce, E.,(2009) Desafíos y perspectivas de la dirección estratégica de las instituciones universitarias. Cited 2 times.,(Eds). Comisión Nacional de Acreditación; Austin, I., Jones, G. A.,(2016) Governance of higher education: Global perspectives, theories, and practices. Cited 45 times.,Routledge; Baltaru, R.-D., Soysal, Y.N.,Administrators in higher education: organizational expansion in a transforming institution,; Bárcena Ibarra, A.,Restricciones estructurales del desarrollo en América Latina y el Caribe: una reflexión postcrisis,(2010) Revista Cepal, 100, pp. 7-28. Cited 2 times.; Barnett, R.,The idea of the university: Renewing the great tradition,(2016) Encyclopedia of international higher education systems and institutions, pp. 1-25. Cited 2 times.; Bates, A., Godoń, R.,Tackling knowledge ‘like a business’? Rethinking the modernisation of higher education in Poland,; Berenskoetter, F.,Approaches to concept analysis,; Berman, M.,Todo lo sólido se desvanece en el aire. La experiencia de la modernidad,(2000) . Cited 184 times.; Bernasconi, A.,The profit motive in higher education,(2013) International Higher Education, 71, pp. 8-10. Cited 5 times.; Bernasconi, A., Celis, S.,Higher education reforms: Latin america in comparative perspective,; Birnbaum, R.,(2001) Management fads in higher education: Where they come from, what they do, why they fail. Cited 349 times.,Jossey-Bass; Bok, D.,Universities in the marketplace: The commercialization of higher education,; Boltanski, L., Chiapello, È.,(2002) El nuevo espíritu del capitalismo. Cited 327 times.,Akal; Bromley, P., Meyer, J.W.,“They Are All Organizations”: The Cultural Roots of Blurring Between the Nonprofit, Business, and Government Sectors,; Broucker, B., De Wit, K.,New public management in higher education,; Brunner, J. J.,(2009) Educación superior en Chile. Instituciones, mercados y políticas gubernamentales (1967-2009). Cited 61 times.,Ediciones UDP; Brunner, J. J.,Medio siglo de transformaciones de la educación superior chilena: Un estado del arte,(2015) La educación superior de Chile: Transformación, desarrollo y crisis, pp. 21-108. Cited 46 times.; Brunner, J. J.,Un análisis de política de la política educacional,(2015) Debate Universitario, 3 (6), pp. 7-15. Cited 5 times.; Brunner, J. J.,La economía política del capitalismo académico: El caso de Chile,(2017) Desafíos para el desarrollo universitario en Chile, pp. 159-231. Cited 12 times.; Brunner, J. J., Elacqua, G., Tillett, A., Bonnefoy, J., González, S., Pacheco, P., Salazar, F.,(2005) Guiar el mercado. Informe sobre la educación superior en Chile. Cited 26 times.,Adolfo Ibáñez; Brunner, J.J., Ganga, F.A.,Dynamics of transformation in Latin American higher education: Challenges for governance,; Brunner, J.J., Vargas, J.R.L., Ganga, F., Rodríguez-Ponce, E.,,(2019) Revista Electronica de Investigacion Educativa, 21 (1), art. no. 3181, pp. 1-13. Cited 10 times.; Brunner, J.J., Labraña, J., Ganga, F., Ponce, E.R.,Circulation and reception of the theory of “academic capitalism” in latin america,; Brunner, J.J., Vargas, J.R.L., Ganga, F., Rodríguez-Ponce, E.,The modern idea of university: From the ivory tower towards academic capitalism,; Brunner, J. J., Miranda, D. A.,(2016) Educación superior en Iberoamérica: Informe 2016. Cited 142 times.,(Eds). Centro Interuniversitario de Desarrollo; Brunner, J.J., Pedraja-Rejas, L., Vargas, J.L.,Academic capitalism: Conceptual distinctions and contradictory processes in reference to the chilean case,; Brunner, J. J., Peña, C.,Introducción-La dialéctica público/privado entre el medioevo y la globalización,(2011) El conflicto de las universidades: Entre lo público y lo privado, pp. 9-61. Cited 6 times.; Brunner, J. J., Peña, C.,(2011) El conflicto de las universidades: Entre lo público y lo privado. Cited 11 times.,(Eds). (a). Universidad Diego Portales; Busemeyer, M.R.,Skills and inequality: Partisan politics and the political economy of education reforms in Western Welfare States,; Cai, Y., Etzkowitz, H.,Theorizing the Triple Helix model: Past, present, and future,; Cantwell, B., Kauppinen, I.,(2014) Academic capitalism in the age of globalization. Cited 95 times.,(Eds). Johns Hopkins University Press; Capano, G., Howlett, M., Ramesh, M.,Bringing Governments Back in: Governance and Governing in Comparative Policy Analysis,; Capano, G., Pritoni, A.,Exploring the determinants of higher education performance in Western Europe: A qualitative comparative analysis,; Capano, G., Pritoni, A.,Varieties of hybrid systemic governance in European Higher Education,; Capano, G., Pritoni, A.,What really happens in higher education governance? Trajectories of adopted policy instruments in higher education over time in 16 European countries,; Carnoy, M., Froumin, I., Loyalka, P.K., Tilak, J.B.G.,The concept of public goods, the state, and higher education finance: a view from the BRICs,; Chou, M.-H., Jungblut, J., Ravinet, P., Vukasovic, M.,Higher education governance and policy: An introduction to multi-issue, multi-level and multi-actor dynamics,; Clark, B. R.,(1986) The higher education system. Academic organization in cross-national perspective. Cited 1781 times.,University of California Press; Clark, B.,(1998) Creating entrepreneurial universities: Organizational pathways of transformation. Cited 2186 times.,IAU Press by Pergamon Press; Clark, B. R.,(2004) Sustaining change in universities: Continuities in case studies and concepts. Cited 294 times.,The Society for Research into Higher Education &amp; Open University Press; Lundbye Cone, L.,Towards a university of Halbbildung: How the neoliberal mode of higher education governance in Europe is half-educating students for a misleading future,; Cross, M., Ndofirepi, A.,Reconnecting the university to society: The role of knowledge as public good in South African higher education,(2016) JHEA/RESA, 14 (1), pp. 119-140. Cited 4 times.; David, P.A.,Why are institutions the 'carriers of history'?: Path dependence and the evolution of conventions, organizations and institutions,; De Boer, H., Jongbloed, B.,A cross-national comparison of higher education markets in Western Europe,(2012) European higher education at the crossroads: Between the Bologna process and national reforms, pp. 553-571. Cited 13 times.; De Moura Castro, M.,Políticas de educación superior: una perspectiva latinoamericana,(2000) , 4, pp. 29-35.; Deem, R.,The Knowledge Worker, the Manager-academic and the Contemporary UK University: New and Old Forms of Public Management?,; Deem, R.,New managerialism in higher education,(2017) Encyclopedia of international higher education systems and institutions. Cited 14 times.; Demin, M.R.,Universities on the Market: Academic Capitalism as a Challenge and a Window of Opportunity,; Dobbins, M., Knill, C., Vögtle, E.M.,An analytical framework for the cross-country comparison of higher education governance,; Donina, D., Paleari, S.,New public management: global reform script or conceptual stretching? Analysis of university governance structures in the Napoleonic administrative tradition,; Doyle, T., Brady, M.,Reframing the university as an emergent organisation: implications for strategic management and leadership in higher education,; Ebner, A.,Marketization: Theoretical Reflections Building on the Perspectives of Polanyi and Habermas,; Engelen, E., Fernandez, R., Hendrikse, R.,How Finance Penetrates its Other: A Cautionary Tale on the Financialization of a Dutch University,; Etzkowitz, H., Leydesdorff, L.,The dynamics of innovation: From National Systems and "mode 2" to a Triple Helix of university-industry-government relations,; Ferlie, E., Musselin, C., Andresani, G.,The Governance of Higher Education Systems: A Public Management Perspective,; Fernández, E.,El sistema-mundo del capitalismo académico: Procesos de consolidación de la universidad emprendedora,(2009) Archivos Analíticos De Políticas Educativas Archives, 17 (21), pp. 1-43. Cited 8 times.; Ferreyra, M. M., Avitabile, C., Botero Álvarez, J., Haimovich Paz, F., Urzúa, S.,(2017) At a crossroads: Higher education in Latin America and the Caribbean. Cited 128 times.,International Bank for Reconstruction and Development The World Bank; Findlow, S., L Hayes, A.,Transnational academic capitalism in the Arab Gulf: balancing global and local, and public and private, capitals,; Findlow, S., Hayes, A., Sundell, T.,Academic capitalism, Conceptualizations of,(2020) The Sage encyclopedia of higher education, pp. 18-23. Cited 2 times.; Fligstein, N., McAdam, D.,A Theory of Fields,; Froelich, K.A.,Diversification of revenue strategies: Evolving resource dependence in nonprofit organizations,; Fumasoli, T.,Multi-level governance in higher education research,; López, F.G.,,(2018) Revista Mexicana de Sociologia, 80 (4), pp. 881-908. Cited 13 times.; Graf, L.,Applying the Varieties of Capitalism Approach to Higher Education: Comparing the internationalisation of German and British universities,; Graf, L.,Work-based higher education programmes in Germany and the US: Comparing multi-actor corporatist governance in higher education,; Guzmán-Valenzuela, C.,Neoliberal discourses and the emergence of an agentic field: The Chilean student movement,(2017) Society for Research into Higher Education series. Student politics and protest: International perspectives, pp. 65-80.; Habermas, J.,The idea of the university-Learning processes,(1987) New German Critique, 41, pp. 3-22. Cited 105 times.; Hall, P. A., Soskice, D. W.,(2004) Varieties of capitalism: The institutional foundations of comparative advantage. Cited 7238 times.,Oxford Univiversity Press; Harris, B.,Corporatisation, managerialism and the death of the university ideal in Australia,(2014) Journal of Politics and Law, 7 (2). Cited 6 times.; Hartmann, E.,Quality assurance and the shift towards private governance in higher education: Europeanisation through the back door?,; Hayes, D., Wynyard, R.,(2002) The McDonaldization of higher education. Cited 160 times.,(E). Bergin and Garvey; Hirschman, A.,(1970) Exit, voice and loyalty. Cited 12091 times.,Harvard University Press; Howe, R. H.,Max Weber's elective affinities: Sociology within the bounds of pure reason,(1978) American Journal of Sociology, 84 (2), pp. 366-385. Cited 106 times.; Isakjee, A.,(2017) Welfare state regimes: A literature review [IRIS working paper no. 18]. Cited 17 times.,University of Birmingham; Iversen, T., Stephens, J.D.,Partisan politics, the welfare state, and three worlds of human capital formation,; Jessop, B.,Towards a Schumpeterian workfare state? Preliminary remarks on post-Fordist political economy,(1993) Studies in Political Economy, 40 (1), pp. 7-39. Cited 499 times.</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -7456,17 +7021,12 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>No Encontrado</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
           <t>10.14507/epaa.29.6245</t>
-        </is>
-      </c>
-      <c r="P88" t="inlineStr">
-        <is>
-          <t>Varios Paises</t>
         </is>
       </c>
     </row>
@@ -7511,7 +7071,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Younis, F.,Significance of Infrastructure Investment for Economic Growth. Cited 4 times.,MPRA Paper No. 72659, Posted 26 Jul 2016 16:58 UTC. (accessed on 17 March 2021); Broniewicz, E., Ogrodnik, K.,Multi-criteria analysis of transport infrastructure projects (Open Access),; Wallbaum, H., Krank, S., Teloh, R.,Prioritizing sustainability criteria in urban planning processes: Methodology application,; Wann-Ming, W.,Constructing urban dynamic transportation planning strategies for improving quality of life and urban sustainability under emerging growth management principles,; Medina, M.G., Huete García, M.Á.,Real innovation in urban planning? Assessing the institutional capacity in the frame of the integrated sustainable urban development programmes,; Carrese, S., Cuneo, V., Nigro, M., Pizzuti, R., Ardito, C.F., Marseglia, G.,Optimization of downstream fuel logistics based on road infrastructure conditions and exposure to accident events,; Marseglia, G., Medaglia, C.M., Ortega, F.A., Mesa, J.A.,Optimal alignments for designing urban transport systems: Application to seville (Open Access),; Cigu, E., Agheorghiesei, D.T., Vatamanu), A.F.G.G., Toader, E.,Transport infrastructure development, public performance and long-run economic growth: A case study for the EU-28 countries,(2018) Sustainability, 11, p. 67. Cited 2 times.; Välilä, T.,Infrastructure and growth: A survey of macro-econometric research,; Adinarayana, B., Mir, M.S.,Development of pedestrian safety index models for safety of pedestrian flow at un-signalized junctions on urban roads under mixed traffic conditions using MLR,; Wang, J., Yang, C., Zhao, J.,Conditions for Setting Exclusive Pedestrian Phases at Two-Phase Signalized Intersections considering Pedestrian-Vehicle Interaction (Open Access),; Beura, S.K., Chellapilla, H., Panda, M., Bhuyan, P.K.,Bicycle Comfort Level Rating (BCLR) model for urban street segments in mid-sized cities of India,; Arellana, J., Saltarín, M., Larrañaga, A.M., González, V.I., Henao, C.A.,Developing an urban bikeability index for different types of cyclists as a tool to prioritise bicycle infrastructure investments,; Labdaoui, K., Mazouz, S., Acidi, A., Cools, M., Moeinaddini, M., Teller, J.,Utilizing thermal comfort and walking facilities to propose a comfort walkability index (CWI) at the neighbourhood level (Open Access),; Peeters, A., Shashua-Bar, L., Meir, S., Shmulevich, R.R., Caspi, Y., Weyl, M., Motzafi-Haller, W., (...), Angel, N.,A decision support tool for calculating effective shading in urban streets,; Ahmad, S.N., Harianto, T., Samang, L., Hustim, M.,Level vulnerability damage of pavement using Pavement Condition Index method (Open Access),; Shruti, S., Singh, P.K., Ohri, A.,Evaluating the environmental sustainability of smart cities in India: The design and application of the Indian smart city environmental sustainability index (Open Access),; Pinatt, J.M., Chicati, M.L., Ildefonso, J.S., Filetti, C.R.G.D.,Evaluation of pavement condition index by different methods: Case study of Maringá, Brazil (Open Access),; van den Boomen, M., Spaan, M.T.J., Schoenmaker, R., Wolfert, A.R.M.,Untangling decision tree and real options analyses: a public infrastructure case study dealing with political decisions, structural integrity and price uncertainty (Open Access),; Gibson, J., Rioja, F.,The welfare effects of infrastructure investment in a heterogeneous agents economy,; Fogel, R.,The triple frontier region: Territories of integration and disintegration (Open Access),; Wu, Z., Chen, R., Meadows, M.E., Sengupta, D., Xu, D.,Changing urban green spaces in Shanghai: trends, drivers and policy implications,; Marull, J., Farré, M., Boix, R., Palacio, A.B., Ruiz-Forés, N.,Modelling urban networks sustainable progress,; Guo, S., Yang, G., Pei, T., Ma, T., Song, C., Shu, H., Du, Y., (...), Zhou, C.,Analysis of factors affecting urban park service area in Beijing: Perspectives from multi-source geographic data,; Canitez, F.,Transferring sustainable urban mobility policies: An institutional perspective,; Morillas, J.M.B., Gozalo, G.R., González, D.M., Moraga, P.A., Vílchez-Gómez, R.,Noise Pollution and Urban Planning,; San José, J., García, A.,Planteamiento MIVES para la evaluación caso de la EHE,(2008) Dialnet, 91, pp. 28-36.; Saaty, T.,(1980) AHP: The Analytic Hierarchy Process. Cited 25885 times.,Mc Graw-Hill: New York, NY, USA; (2013) Urban Street Design Guide. Cited 100 times.,National Association of City Transportation Officials (NACTO). Island Press: New York, NY, USA,  30; (2016) NBR 16537: Acessibilidade—Sinalização Tátil no Piso-Diretrizes para Elaboração de Projetos e Instalação. Cited 4 times.,Associação Brasileira De Normas Técnicas. Associação Brasileira De Normas Técnicas: Sâo Paulo, Brazil,  32; Osama, A., Sayed, T.,Evaluating the impact of connectivity, continuity, and topography of sidewalk network on pedestrian safety,; Kirschbaum, J., Axelson, P., Longmuir, P., Mispagel, K., Stein, J., Yamada, D.,Designing sidewalks and trails for access. Best practices design guide,(2001) Fed Highw. Admin, II, p. 484.; (2004) Guide for the Planning, Design, and Operation and Pedestrian Facilities. Cited 45 times.,American Association of State Highway Transportation Officials (AASHTO). American Association of State Highway Transportation Officials: Washington, DC, USA, ISBN 1-56051-271-7,  36; Hadiwardoyo, S.P., Correia, A.G., Pereira, P.,Road deterioration analysis for the national roads of Indonesia,(2015) Proceedings of the 14th International Conference on QIR (Quality in Research), 14. Cited 2 times.; (2003) Distress Identification Manual for the Long-Term Pavement Performance Program (DIM). Cited 457 times.,American Association of State Highway and Transportation Officials (AASHTO). American Association of State Highway and Transportation Officials (AASHTO): McLean, VA, USA,  39; Metrología, Normalización Y,(2010) PNA 4500110: Accesibilidad a la Personas Al Medio Físico. Criterios Y Requisitos Generales de Diseño Para un Entorno Edificado Accesible,Instituto Nacional De Tecnología, INTN Publisher: Asunción, Paraguay; (2015) Manual Práctico de Diseño Universal: Basado en la Ley 962,Ministerio De Desarrollo Económico. Accesibilidad Física Para Todos: Caba, 1st ed.; Ciudad Autónoma de Buenos Aires: Gobierno de la Ciudad Autónoma de Buenos Aires; Comisión para la Plena Participación e Inclusión de las Personas con Discapacidad-COPIDIS: Buenos Aires, Argentina, ISBN 978-987-673-030-3,  42; Cal, Y, Mayor, R., Cárdenas, J.,(2014) Ingeniería de Tránsito. Fundamentos Y Aplicaciones. Cited 26 times.,9th ed.; Alfa Omega: Mexico City, Mexico; Marisamynathan, S., Lakshmi, S.,Method to determine pedestrian level of service for sidewalks in Indian context,; Banerjee, A., Maurya, A.K., Lämmel, G.,Pedestrian flow characteristics and level of service on dissimilar facilities: A critical review,(2018) Collect. Dyn, 3, pp. 1-52. Cited 23 times.; Conceição, L., Correia, G., Tavares, J.P.,The deployment of automated vehicles in urban transport systems: A methodology to design dedicated zones (Open Access),; Ali Muthanna, M.S., Lyachek, Y.T., Obadi Musaeed, A.M., Ahmed Hazzaa Esmail, Y., Adam, A.B.M.,Smart System of a Real-Time Pedestrian Detection for Smart City,; Cook, N., Hughes, R.,Shading Liveable Cities: Exploring the ecological, financial and regulatory dimensions of the urban tree canopy,(2015) State of Australian Cities Conference 2015: Refereed Proceedings, pp. 1-10. Cited 2 times.; (2019) NBR 10151: Acústica-Medição E Avaliação de Níveis de Pressão Sonora Em Aeas Habitadas-Aplicação de Uso Geral. Cited 7 times.,Associação Brasileira De Normas Técnicas. Associação Brasileira De Normas Técnicas: Sâo Paulo, Brazil,  50; Amado, H., Ferreira, S., Tavares, J.P., Ribeiro, P., Freitas, E.,Pedestrian-vehicle interaction at unsignalized crosswalks: A systematic review (Open Access),; Fistola, R., Gallo, M., Rocca, R.A.L., Russo, F.,The effectiveness of urban cycle lanes: From dyscrasias to potential solutions (Open Access),; Noring, L.,Public asset corporation: A new vehicle for urban regeneration and infrastructure finance (Open Access),; Torres, C., Sobreira, L., Castro-Neto, M., Cunto, F., Vecino-Ortiz, A., Allen, K., Hyder, A., (...), Bachani, A.,Evaluation of Pedestrian Behavior on Mid-block Crosswalks: A Case Study in Fortaleza—Brazil (Open Access),; Lima, J.P., Machado, M.H.,Walking accessibility for individuals with reduced mobility: A Brazilian case study,; Asplund, D., Pyddoke, R.,Optimal fares and frequencies for bus services in a small city,; (2000) , p. 1287.,Highway Capacity Manual: 2000: Transportation Research Board: Books; Transportation Research Board Publisher: Washington, DC, USA, ISBN 0-309-06681-6,  58; Gómez López, D., del Caño, A., de la Cruz, M.P., Josa, A.,Metodología genérica para la evaluación de la sostenibilidad de sistemas constructivos. El método MIVES,(2012) Sostenibilidad y Construcción (en Prensa); Asociación Científico-Técnica del Hormigón (ACHE). Cited 7 times.</t>
+          <t>Younis, F.,Significance of Infrastructure Investment for Economic Growth. Cited 4 times.,MPRA Paper No. 72659, Posted 26 Jul 2016 16:58 UTC. (accessed on 17 March 2021); Broniewicz, E., Ogrodnik, K.,Multi-criteria analysis of transport infrastructure projects,; Wallbaum, H., Krank, S., Teloh, R.,Prioritizing sustainability criteria in urban planning processes: Methodology application,; Wann-Ming, W.,Constructing urban dynamic transportation planning strategies for improving quality of life and urban sustainability under emerging growth management principles,; Medina, M.G., Huete García, M.Á.,Real innovation in urban planning? Assessing the institutional capacity in the frame of the integrated sustainable urban development programmes,; Carrese, S., Cuneo, V., Nigro, M., Pizzuti, R., Ardito, C.F., Marseglia, G.,Optimization of downstream fuel logistics based on road infrastructure conditions and exposure to accident events,; Marseglia, G., Medaglia, C.M., Ortega, F.A., Mesa, J.A.,Optimal alignments for designing urban transport systems: Application to seville,; Cigu, E., Agheorghiesei, D.T., Vatamanu), A.F.G.G., Toader, E.,Transport infrastructure development, public performance and long-run economic growth: A case study for the EU-28 countries,(2018) Sustainability, 11, p. 67. Cited 2 times.; Välilä, T.,Infrastructure and growth: A survey of macro-econometric research,; Adinarayana, B., Mir, M.S.,Development of pedestrian safety index models for safety of pedestrian flow at un-signalized junctions on urban roads under mixed traffic conditions using MLR,; Wang, J., Yang, C., Zhao, J.,Conditions for Setting Exclusive Pedestrian Phases at Two-Phase Signalized Intersections considering Pedestrian-Vehicle Interaction,; Beura, S.K., Chellapilla, H., Panda, M., Bhuyan, P.K.,Bicycle Comfort Level Rating (BCLR) model for urban street segments in mid-sized cities of India,; Arellana, J., Saltarín, M., Larrañaga, A.M., González, V.I., Henao, C.A.,Developing an urban bikeability index for different types of cyclists as a tool to prioritise bicycle infrastructure investments,; Labdaoui, K., Mazouz, S., Acidi, A., Cools, M., Moeinaddini, M., Teller, J.,Utilizing thermal comfort and walking facilities to propose a comfort walkability index (CWI) at the neighbourhood level,; Peeters, A., Shashua-Bar, L., Meir, S., Shmulevich, R.R., Caspi, Y., Weyl, M., Motzafi-Haller, W., (...), Angel, N.,A decision support tool for calculating effective shading in urban streets,; Ahmad, S.N., Harianto, T., Samang, L., Hustim, M.,Level vulnerability damage of pavement using Pavement Condition Index method,; Shruti, S., Singh, P.K., Ohri, A.,Evaluating the environmental sustainability of smart cities in India: The design and application of the Indian smart city environmental sustainability index,; Pinatt, J.M., Chicati, M.L., Ildefonso, J.S., Filetti, C.R.G.D.,Evaluation of pavement condition index by different methods: Case study of Maringá, Brazil,; van den Boomen, M., Spaan, M.T.J., Schoenmaker, R., Wolfert, A.R.M.,Untangling decision tree and real options analyses: a public infrastructure case study dealing with political decisions, structural integrity and price uncertainty,; Gibson, J., Rioja, F.,The welfare effects of infrastructure investment in a heterogeneous agents economy,; Fogel, R.,The triple frontier region: Territories of integration and disintegration,; Wu, Z., Chen, R., Meadows, M.E., Sengupta, D., Xu, D.,Changing urban green spaces in Shanghai: trends, drivers and policy implications,; Marull, J., Farré, M., Boix, R., Palacio, A.B., Ruiz-Forés, N.,Modelling urban networks sustainable progress,; Guo, S., Yang, G., Pei, T., Ma, T., Song, C., Shu, H., Du, Y., (...), Zhou, C.,Analysis of factors affecting urban park service area in Beijing: Perspectives from multi-source geographic data,; Canitez, F.,Transferring sustainable urban mobility policies: An institutional perspective (Open Access),; Morillas, J.M.B., Gozalo, G.R., González, D.M., Moraga, P.A., Vílchez-Gómez, R.,Noise Pollution and Urban Planning (Open Access),; San José, J., García, A.,Planteamiento MIVES para la evaluación caso de la EHE,(2008) Dialnet, 91, pp. 28-36.; Saaty, T.,(1980) AHP: The Analytic Hierarchy Process. Cited 25931 times.,Mc Graw-Hill: New York, NY, USA; (2013) Urban Street Design Guide. Cited 100 times.,National Association of City Transportation Officials (NACTO). Island Press: New York, NY, USA,  30; (2016) NBR 16537: Acessibilidade—Sinalização Tátil no Piso-Diretrizes para Elaboração de Projetos e Instalação. Cited 4 times.,Associação Brasileira De Normas Técnicas. Associação Brasileira De Normas Técnicas: Sâo Paulo, Brazil,  32; Osama, A., Sayed, T.,Evaluating the impact of connectivity, continuity, and topography of sidewalk network on pedestrian safety (Open Access),; Kirschbaum, J., Axelson, P., Longmuir, P., Mispagel, K., Stein, J., Yamada, D.,Designing sidewalks and trails for access. Best practices design guide,(2001) Fed Highw. Admin, II, p. 484.; (2004) Guide for the Planning, Design, and Operation and Pedestrian Facilities. Cited 45 times.,American Association of State Highway Transportation Officials (AASHTO). American Association of State Highway Transportation Officials: Washington, DC, USA, ISBN 1-56051-271-7,  36; Hadiwardoyo, S.P., Correia, A.G., Pereira, P.,Road deterioration analysis for the national roads of Indonesia,(2015) Proceedings of the 14th International Conference on QIR (Quality in Research), 14. Cited 2 times.; (2003) Distress Identification Manual for the Long-Term Pavement Performance Program (DIM). Cited 458 times.,American Association of State Highway and Transportation Officials (AASHTO). American Association of State Highway and Transportation Officials (AASHTO): McLean, VA, USA,  39; Metrología, Normalización Y,(2010) PNA 4500110: Accesibilidad a la Personas Al Medio Físico. Criterios Y Requisitos Generales de Diseño Para un Entorno Edificado Accesible,Instituto Nacional De Tecnología, INTN Publisher: Asunción, Paraguay; (2015) Manual Práctico de Diseño Universal: Basado en la Ley 962,Ministerio De Desarrollo Económico. Accesibilidad Física Para Todos: Caba, 1st ed.; Ciudad Autónoma de Buenos Aires: Gobierno de la Ciudad Autónoma de Buenos Aires; Comisión para la Plena Participación e Inclusión de las Personas con Discapacidad-COPIDIS: Buenos Aires, Argentina, ISBN 978-987-673-030-3,  42; Cal, Y, Mayor, R., Cárdenas, J.,(2014) Ingeniería de Tránsito. Fundamentos Y Aplicaciones. Cited 26 times.,9th ed.; Alfa Omega: Mexico City, Mexico; Marisamynathan, S., Lakshmi, S.,Method to determine pedestrian level of service for sidewalks in Indian context,; Banerjee, A., Maurya, A.K., Lämmel, G.,Pedestrian flow characteristics and level of service on dissimilar facilities: A critical review,(2018) Collect. Dyn, 3, pp. 1-52. Cited 23 times.; Conceição, L., Correia, G., Tavares, J.P.,The deployment of automated vehicles in urban transport systems: A methodology to design dedicated zones,; Ali Muthanna, M.S., Lyachek, Y.T., Obadi Musaeed, A.M., Ahmed Hazzaa Esmail, Y., Adam, A.B.M.,Smart System of a Real-Time Pedestrian Detection for Smart City,; Cook, N., Hughes, R.,Shading Liveable Cities: Exploring the ecological, financial and regulatory dimensions of the urban tree canopy,(2015) State of Australian Cities Conference 2015: Refereed Proceedings, pp. 1-10. Cited 2 times.; (2019) NBR 10151: Acústica-Medição E Avaliação de Níveis de Pressão Sonora Em Aeas Habitadas-Aplicação de Uso Geral. Cited 7 times.,Associação Brasileira De Normas Técnicas. Associação Brasileira De Normas Técnicas: Sâo Paulo, Brazil,  50; Amado, H., Ferreira, S., Tavares, J.P., Ribeiro, P., Freitas, E.,Pedestrian-vehicle interaction at unsignalized crosswalks: A systematic review,; Fistola, R., Gallo, M., Rocca, R.A.L., Russo, F.,The effectiveness of urban cycle lanes: From dyscrasias to potential solutions (Open Access),; Noring, L.,Public asset corporation: A new vehicle for urban regeneration and infrastructure finance (Open Access),; Torres, C., Sobreira, L., Castro-Neto, M., Cunto, F., Vecino-Ortiz, A., Allen, K., Hyder, A., (...), Bachani, A.,Evaluation of Pedestrian Behavior on Mid-block Crosswalks: A Case Study in Fortaleza—Brazil (Open Access),; Lima, J.P., Machado, M.H.,Walking accessibility for individuals with reduced mobility: A Brazilian case study,; Asplund, D., Pyddoke, R.,Optimal fares and frequencies for bus services in a small city,; (2000) , p. 1287.,Highway Capacity Manual: 2000: Transportation Research Board: Books; Transportation Research Board Publisher: Washington, DC, USA, ISBN 0-309-06681-6,  58; Gómez López, D., del Caño, A., de la Cruz, M.P., Josa, A.,Metodología genérica para la evaluación de la sostenibilidad de sistemas constructivos. El método MIVES,(2012) Sostenibilidad y Construcción (en Prensa); Asociación Científico-Técnica del Hormigón (ACHE). Cited 7 times.</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -7542,11 +7102,6 @@
       <c r="O89" t="inlineStr">
         <is>
           <t>10.3390/su13063345</t>
-        </is>
-      </c>
-      <c r="P89" t="inlineStr">
-        <is>
-          <t>Varios Paises</t>
         </is>
       </c>
     </row>
@@ -7576,7 +7131,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>No Encontrado</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -7591,7 +7146,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Agresti, A.,A survey of exact inference for contingency tables (Open Access),; Aledo, A., Mazón, T., Mantecón, A.,La insostenibilidad del turismo residencial,(2007) Antropología Y Turismo: Claves Culturales Y Disciplinares, Pp., pp. 185-208. Cited 27 times.; Audouin, M., Preiser, R., Nienaber, S., Downsborough, L., Lanz, J., Mavengahama, S.,Exploring the implications of critical complexity for the study of socialecological systems (Open Access),; Ban, N.C., Mills, M., Tam, J., Hicks, C.C., Klain, S., Stoeckl, N., Bottrill, M.C., (...), Chan, K.M.A.,A social-ecological approach to conservation planning: Embedding social considerations (Open Access),; Berkes, F., Folke, C.,Linking social and ecological systems for resilience and sustainability,(1998) Linking social and ecological systems: management practices and social mechanisms for building resilience, pp. 1-26. Cited 540 times.; Resolución de 4 de septiembre de 2019, de la Dirección General de Biodiversidad y Calidad Ambiental, por la que se formula declaración de impacto ambiental del proyecto Análisis de soluciones para el objetivo de vertido cero al Mar Menor proveniente del Campo de Cartagena (Murcia),(2019) Boletín Oficial Del Estado, Del Jueves 26 De Septiembte De 2019,  7; Caillaud, M.,(2017) Pollution De l’étang De Thau: On Tient Enfin Les Coupables. Midi Libre, p. 26. Cited 2 times.,  9; Carreño, M.F., Esteve, M.A., Martinez, J., Palazón, J.A., Pardo, M.T.,Habitat changes in coastal wetlands associated to hydrological changes in the watershed,; Castro, A.J., Martín-López, B., García-LLorente, M., Aguilera, P.A., López, E., Cabello, J.,Social preferences regarding the delivery of ecosystem services in a semiarid Mediterranean region,; Challenger, A., Bocco, G., Equihua, M., Chavero, M.,La aplicación del concepto del sistema socio-ecológico: alcances, posibilidades y limitaciones en la gestión ambiental de México,(2014) Investigación Ambiental, Ciencia y Política Pública, 6, pp. 1-21. Cited 12 times.; Comino, E., Bottero, M., Pomarico, S., Rosso, M.,The combined use of Spatial Multicriteria Evaluation and stakeholders analysis for supporting the ecological planning of a river basin,; de Asesoramiento Científico Del Mar Menor, C.,(2017) Informe Integral Sobre El Estado ecológico Del Mar Menor. Cited 6 times.,Consejería de Agricultura, Agua y Medio Ambiente. Comunidad Autónoma de la Región de Murcia; Conesa, H.M., Jiménez-Cárceles, F.J.,The Mar Menor lagoon (SE Spain): A singular natural ecosystem threatened by human activities,; Delgado-Serrano, M.M., Oteros-Rozas, E., Vanwildemeersch, P., Ortíz-Guerrero, C., London, S., Escalante, R.,Local perceptions on social-ecological dynamics in latin america in three community-based natural resource management systems (Open Access),; Docampo Calvo, A.M.,Compactación, sellado y pérdida de suelos agrícolas en el Campo de Cartagena a consecuencia de la expansión urbana,(2011) TFC En Ciencias Ambientales. Facultad De Biología.; Elofsson, K.,Cost-effectiveness of the Baltic Sea Action Plan,; Esteve, M.A., Carreno, M.F., Robledano, F., Martinez-Fernandez, J., Minano, J.,Dynamics of coastal wetlands and land use changes in the watershed: Implications for the biodiversity,; Esteve Selma, M.A., Martínez Fernández, J., Fitz, C., Robledano, F., Martínez Paz, J.M., Carreño, M.F.,(2016) Conflictos ambientales derivados de la intensificación de los usos en la cuenca del Mar Menor: Una aproximación interdisciplinar, pp. 79-112.,V. M León, &amp; J. M. Bellido (Eds.), Mar Menor: una laguna singular y sensible. Evaluación científica de su estado (pp,). Madrid: Instituto Español de Oceanografía, Ministerio de Economía y Competitividad. 414 p. Temas de Oceanografía, 9. 978-84-95877-55-0; Fischer, J., Gardner, T.A., Bennett, E.M., Balvanera, P., Biggs, R., Carpenter, S., Daw, T., (...), Tenhunen, J.,Advancing sustainability through mainstreaming a social-ecological systems perspective (Open Access),; Gaja, F.,El “tsunami urbanizador” en el litoral mediterráneo: El ciclo de hiperproducción inmobiliaria 1996–2006,(2008) Scripta Nova, 8 (270), p. 66. Cited 89 times.; García-Ayllón, S.,Integrated management in coastal lagoons of highly complexity environments: Resilience comparative analysis for three case-studies (Open Access),; Garcia-Ayllon, S.,The Integrated Territorial Investment (ITI) of the Mar Menor as a model for the future in the comprehensive management of enclosed coastal seas (Open Access),; García-Ayllón, S.,New strategies to improve co-management in enclosed coastal seas and wetlands subjected to complex environments: Socio-economic analysis applied to an international recovery success case study after an environmental crisis (Open Access),; García-Ayllón, S., Miralles, J.L.,The environmental impacts of land transformation in the coastal perimeter of the mar menor lagoon (SPAIN) (Open Access),; Glenn, E.P., Cohen, M.J., Morrison, J.I., Valdés-Casillas, C., Fitzsimmons, K.,Science and policy dilemmas in the management of agricultural waste waters: The case of the Salton Sea, CA, USA,; Gren, I.-M., Elofsson, K., Jannke, P.,Cost-effective nutrient reductions to the Baltic Sea,; Hauck, J., Schmidt, J., Werner, A.,Using social network analysis to identify key stakeholders in agricultural biodiversity governance and related land-use decisions at regional and local level (Open Access),; Holling, C.S., Berkes, F., Folker, C.,(1998) Op. Cit, p. 5.,  31; Holling, C.S., Meffe, G.K.,Command and control and the pathology of natural resource management,; Jassen, M., Ostrom, E.,Governing social–ecological systems,(2006) Computational economics, 2, pp. 1466-1502. Cited 19 times.; Kassambara, A., Mundt, F.,Factoextra: Extract and visualize the results of multivariate data analyses,(2019) R Package Version, 1, p. 6. Cited 495 times.; Lacroix, A., Beaudoin, N., Makowski, D.,Agricultural water nonpoint pollution control under uncertainty and climate variability,; León, V.M., Bellido, J.M.,Mar Menor: Una laguna singular y sensible. Evaluación científica de su estado. Madrid, Instituto Español de Oceanografía, Ministerio de Economía y Competitividad,(2016) Temas De Oceanografía, 9, p. 414. Cited 5 times.; Marshall, J.R.,Why emergency physicians should care about the salton sea (Open Access),; Martínez Fernández, J., Esteve Selma, M.A., Aymerich, F.R., Pardo Sáez, M.T., Carreño Fructuoso, M.F.,Aquatic birds as bioindicators of trophic changes and ecosystem deterioration in the Mar Menor lagoon (SE Spain),; Martínez Fernández, J., Esteve Selma, M.A.,(2000) Estimación De La contaminación agrícola En El Mar Menor Mediante Un Modelo De simulación dinámica. Cited 2 times.,  40; Martínez Fernández, J., Esteve Selma, M.A., Guaita, N.,(2017) La crisis eutrófica del Mar Menor. Situación y Propuestas.,In F. La Roca, &amp; J. Martínez (Eds.), Informe del Observatorio de las Políticas del Agua 2017 “Retos de la Planificación y Gestión del Agua en España”. Observatorio de las Políticas del Agua (OPPA). Disponible en; Martínez-Fernández, J., Esteve-Selma, M.-A., Martínez-Paz, J.-M., Carreño, M.-F., Martínez-López, J., Robledano, F., Farinós, P.,Trade-offs between biodiversity conservation and nutrients removal in wetlands of arid intensive agricultural basins: The mar menor case, Spain,; Martínez-Graña, A., Gómez, D., Santos-Francés, F., Bardají, T., Goy, J.L., Zazo, C.,Analysis of flood risk due to sea level rise in the Menor Sea (Murcia, Spain) (Open Access),; Martínez-Paz, J.M., Perni, A., Martínez-Carrasco, F.,Assessment of the Programme of Measures for Coastal Lagoon Environmental Restoration Using Cost-Benefit Analysis,; Martínez-Paz, J.M., Ruiz-Martínez, M., Martínez-Fernández, J., Esteve-Selma, M.A.,(2005) Stakeholder analysis: Gainers and losers for each management option. Technical report. Project DITTY “development of an information technology tool for the management of European Southern Lagoons under the influence of river-basin runoff”,  46; Nebel, B., Wright, R.,(1999) Ciencias Ambientales. Ecología y desarrollo sostenible. Cited 39 times.,Prentice Hall, Mexico; Oecc, M.,(2006) Plan Nacional De adaptación Al Cambio climático. Cited 38 times.,  49; Pérez-Morales, A., Gil-Guirado, S., Olcina-Cantos, J.,Housing bubbles and the increase of flood exposure. Failures in flood risk management on the Spanish south-eastern coast (1975–2013),; Pérez Morales, A., Romero Díaz, A., Caballero Pedraza, A.,Urbanization process and its influence in the increase in flooding (Región of Murcia, Campo de Cartagena-Mar Menor, Southeast Spain). Aportación del Comité Español de la Unión Geográfica Internacional. The 33th International Geographical Congress,(2016) Beijing: IGU, 2016.; Perni, A., Martínez-Paz, J.M.,A participatory approach for selecting cost-effective measures in the WFD context: The Mar Menor (SE Spain),; Prell, C., Hubacek, K., Reed, M.,Stakeholder analysis and social network analysis in natural resource management,; Purnomo, B., Anggoro, S., Izzati, M.,Analysis of perception and community participation in forest management at KPHP model unit VII-Hulu Sarolangun, Jambi Province (Open Access),; R Core, T.R.,A language and environment for statistical computing,(2019) R Foundation for Statistical Computing. Cited 15766 times.; Raji, O., Niazi, S., Snoussi, M., Dezileau, L., Khouakhi, A.,Vulnerability assessment of a lagoon to sea level rise and storm events: Nador lagoon (NE Morocco),; Reed, M.S.,Stakeholder participation for environmental management: A literature review,; Rickson, R.E., Stabler, P.J.,Community responses to non-point pollution from agriculture,; Romero Díaz, A., Belmonte Serrato, F., Docampo Calvo, A.M., Ruíz Sinoga, J.D.,Consecuencias del sellado de los suelos en el Campo de Cartagena (Murcia),(2011) Urbanismo expansivo de la utopia a la realidad, pp. 605-616. Cited 10 times.; Romero Díaz, A., Pérez Morales, A.,Expansión urbana y turismo en la Comarca del Campo de Cartagena-Mar Menor (Murcia). Impacto en el sellado del suelo,(2017) Cuadernos de Turismo, 39, pp. 521-546. Cited 16 times.; Ruiz Fernández, J.M., León, V.M., Marín Guirao, L., Giménez Casalduero, F., Alvárez Rogel, J., Esteve Selma, M.A.,Informe de síntesis sobre el estado actual del Mar Menor y sus causas en relación a los contenidos de nutrientes,(2019) Disponible En; Sodhi, N.S., Lee, T.M., Sekercioglu, C.H., Webb, E.L., Prawiradilaga, D.M., Lohman, D.J., Pierce, N.E., (...), Ehrlich, P.R.,Local people value environmental services provided by forested parks,; Trepel, M.,Assessing the cost-effectiveness of the water purification function of wetlands for environmental planning,; Upadhyay, R.K., Raw, S.N., Roy, P., Rai, V.,Restoration and recovery of damaged eco-epidemiological systems: Application to the Salton Sea, California, USA,; Velasco, J., Lloret, J., Millan, A., Marin, A., Barahona, J., Abellan, P., Sanchez-Fernandez, D.,Nutrient and particulate inputs into the Mar Menor lagoon (Se Spain) from an intensive agricultural watershed,; Vidal-Abarca, M.R., Esteve Selma, M.A., Suárez Alonso, M.L.,(2003) Los Humedales de la Región de Murcia: Humedales y Ramblas de la Región de Murcia. Cited 6 times.,Consejería de Agricultura.Agua y Medio Ambiente, Murcia; Wold, S., Esbensen, K., Geladi, P.,Principal component analysis,; Yang, R.J.,An investigation of stakeholder analysis in urban development projects: Empirical or rationalistic perspectives,; Zanou, B., Kontogianni, A., Skourtos, M.,A classification approach of cost effective management measures for the improvement of watershed quality,</t>
+          <t>Agresti, A.,A survey of exact inference for contingency tables (Open Access),; Aledo, A., Mazón, T., Mantecón, A.,La insostenibilidad del turismo residencial,(2007) Antropología Y Turismo: Claves Culturales Y Disciplinares, Pp., pp. 185-208. Cited 27 times.; Audouin, M., Preiser, R., Nienaber, S., Downsborough, L., Lanz, J., Mavengahama, S.,Exploring the implications of critical complexity for the study of socialecological systems,; Ban, N.C., Mills, M., Tam, J., Hicks, C.C., Klain, S., Stoeckl, N., Bottrill, M.C., (...), Chan, K.M.A.,A social-ecological approach to conservation planning: Embedding social considerations,; Berkes, F., Folke, C.,Linking social and ecological systems for resilience and sustainability,(1998) Linking social and ecological systems: management practices and social mechanisms for building resilience, pp. 1-26. Cited 539 times.; Resolución de 4 de septiembre de 2019, de la Dirección General de Biodiversidad y Calidad Ambiental, por la que se formula declaración de impacto ambiental del proyecto Análisis de soluciones para el objetivo de vertido cero al Mar Menor proveniente del Campo de Cartagena (Murcia),(2019) Boletín Oficial Del Estado, Del Jueves 26 De Septiembte De 2019,  7; Caillaud, M.,(2017) Pollution De l’étang De Thau: On Tient Enfin Les Coupables. Midi Libre, p. 26. Cited 2 times.,  9; Carreño, M.F., Esteve, M.A., Martinez, J., Palazón, J.A., Pardo, M.T.,Habitat changes in coastal wetlands associated to hydrological changes in the watershed,; Castro, A.J., Martín-López, B., García-LLorente, M., Aguilera, P.A., López, E., Cabello, J.,Social preferences regarding the delivery of ecosystem services in a semiarid Mediterranean region,; Challenger, A., Bocco, G., Equihua, M., Chavero, M.,La aplicación del concepto del sistema socio-ecológico: alcances, posibilidades y limitaciones en la gestión ambiental de México,(2014) Investigación Ambiental, Ciencia y Política Pública, 6, pp. 1-21. Cited 12 times.; Comino, E., Bottero, M., Pomarico, S., Rosso, M.,The combined use of Spatial Multicriteria Evaluation and stakeholders analysis for supporting the ecological planning of a river basin,; de Asesoramiento Científico Del Mar Menor, C.,(2017) Informe Integral Sobre El Estado ecológico Del Mar Menor. Cited 6 times.,Consejería de Agricultura, Agua y Medio Ambiente. Comunidad Autónoma de la Región de Murcia; Conesa, H.M., Jiménez-Cárceles, F.J.,The Mar Menor lagoon (SE Spain): A singular natural ecosystem threatened by human activities,; Delgado-Serrano, M.M., Oteros-Rozas, E., Vanwildemeersch, P., Ortíz-Guerrero, C., London, S., Escalante, R.,Local perceptions on social-ecological dynamics in latin america in three community-based natural resource management systems,; Docampo Calvo, A.M.,Compactación, sellado y pérdida de suelos agrícolas en el Campo de Cartagena a consecuencia de la expansión urbana,(2011) TFC En Ciencias Ambientales. Facultad De Biología.; Elofsson, K.,Cost-effectiveness of the Baltic Sea Action Plan,; Esteve, M.A., Carreno, M.F., Robledano, F., Martinez-Fernandez, J., Minano, J.,Dynamics of coastal wetlands and land use changes in the watershed: Implications for the biodiversity,; Esteve Selma, M.A., Martínez Fernández, J., Fitz, C., Robledano, F., Martínez Paz, J.M., Carreño, M.F.,(2016) Conflictos ambientales derivados de la intensificación de los usos en la cuenca del Mar Menor: Una aproximación interdisciplinar, pp. 79-112.,V. M León, &amp; J. M. Bellido (Eds.), Mar Menor: una laguna singular y sensible. Evaluación científica de su estado (pp,). Madrid: Instituto Español de Oceanografía, Ministerio de Economía y Competitividad. 414 p. Temas de Oceanografía, 9. 978-84-95877-55-0; Fischer, J., Gardner, T.A., Bennett, E.M., Balvanera, P., Biggs, R., Carpenter, S., Daw, T., (...), Tenhunen, J.,Advancing sustainability through mainstreaming a social-ecological systems perspective,; Gaja, F.,El “tsunami urbanizador” en el litoral mediterráneo: El ciclo de hiperproducción inmobiliaria 1996–2006,(2008) Scripta Nova, 8 (270), p. 66. Cited 89 times.; García-Ayllón, S.,Integrated management in coastal lagoons of highly complexity environments: Resilience comparative analysis for three case-studies,; Garcia-Ayllon, S.,The Integrated Territorial Investment (ITI) of the Mar Menor as a model for the future in the comprehensive management of enclosed coastal seas,; García-Ayllón, S.,New strategies to improve co-management in enclosed coastal seas and wetlands subjected to complex environments: Socio-economic analysis applied to an international recovery success case study after an environmental crisis,; García-Ayllón, S., Miralles, J.L.,The environmental impacts of land transformation in the coastal perimeter of the mar menor lagoon (SPAIN),; Glenn, E.P., Cohen, M.J., Morrison, J.I., Valdés-Casillas, C., Fitzsimmons, K.,Science and policy dilemmas in the management of agricultural waste waters: The case of the Salton Sea, CA, USA,; Gren, I.-M., Elofsson, K., Jannke, P.,Cost-effective nutrient reductions to the Baltic Sea,; Hauck, J., Schmidt, J., Werner, A.,Using social network analysis to identify key stakeholders in agricultural biodiversity governance and related land-use decisions at regional and local level,; Holling, C.S., Berkes, F., Folker, C.,(1998) Op. Cit, p. 5.,  31; Holling, C.S., Meffe, G.K.,Command and control and the pathology of natural resource management (Open Access),; Jassen, M., Ostrom, E.,Governing social–ecological systems,(2006) Computational economics, 2, pp. 1466-1502. Cited 19 times.; Kassambara, A., Mundt, F.,Factoextra: Extract and visualize the results of multivariate data analyses,(2019) R Package Version, 1, p. 6. Cited 498 times.; Lacroix, A., Beaudoin, N., Makowski, D.,Agricultural water nonpoint pollution control under uncertainty and climate variability,; León, V.M., Bellido, J.M.,Mar Menor: Una laguna singular y sensible. Evaluación científica de su estado. Madrid, Instituto Español de Oceanografía, Ministerio de Economía y Competitividad,(2016) Temas De Oceanografía, 9, p. 414. Cited 5 times.; Marshall, J.R.,Why emergency physicians should care about the salton sea,; Martínez Fernández, J., Esteve Selma, M.A., Aymerich, F.R., Pardo Sáez, M.T., Carreño Fructuoso, M.F.,Aquatic birds as bioindicators of trophic changes and ecosystem deterioration in the Mar Menor lagoon (SE Spain) (Open Access),; Martínez Fernández, J., Esteve Selma, M.A.,(2000) Estimación De La contaminación agrícola En El Mar Menor Mediante Un Modelo De simulación dinámica. Cited 2 times.,  40; Martínez Fernández, J., Esteve Selma, M.A., Guaita, N.,(2017) La crisis eutrófica del Mar Menor. Situación y Propuestas.,In F. La Roca, &amp; J. Martínez (Eds.), Informe del Observatorio de las Políticas del Agua 2017 “Retos de la Planificación y Gestión del Agua en España”. Observatorio de las Políticas del Agua (OPPA). Disponible en; Martínez-Fernández, J., Esteve-Selma, M.-A., Martínez-Paz, J.-M., Carreño, M.-F., Martínez-López, J., Robledano, F., Farinós, P.,Trade-offs between biodiversity conservation and nutrients removal in wetlands of arid intensive agricultural basins: The mar menor case, Spain (Open Access),; Martínez-Graña, A., Gómez, D., Santos-Francés, F., Bardají, T., Goy, J.L., Zazo, C.,Analysis of flood risk due to sea level rise in the Menor Sea (Murcia, Spain) (Open Access),; Martínez-Paz, J.M., Perni, A., Martínez-Carrasco, F.,Assessment of the Programme of Measures for Coastal Lagoon Environmental Restoration Using Cost-Benefit Analysis,; Martínez-Paz, J.M., Ruiz-Martínez, M., Martínez-Fernández, J., Esteve-Selma, M.A.,(2005) Stakeholder analysis: Gainers and losers for each management option. Technical report. Project DITTY “development of an information technology tool for the management of European Southern Lagoons under the influence of river-basin runoff”,  46; Nebel, B., Wright, R.,(1999) Ciencias Ambientales. Ecología y desarrollo sostenible. Cited 39 times.,Prentice Hall, Mexico; Oecc, M.,(2006) Plan Nacional De adaptación Al Cambio climático. Cited 38 times.,  49; Pérez-Morales, A., Gil-Guirado, S., Olcina-Cantos, J.,Housing bubbles and the increase of flood exposure. Failures in flood risk management on the Spanish south-eastern coast (1975–2013),; Pérez Morales, A., Romero Díaz, A., Caballero Pedraza, A.,Urbanization process and its influence in the increase in flooding (Región of Murcia, Campo de Cartagena-Mar Menor, Southeast Spain). Aportación del Comité Español de la Unión Geográfica Internacional. The 33th International Geographical Congress,(2016) Beijing: IGU, 2016.; Perni, A., Martínez-Paz, J.M.,A participatory approach for selecting cost-effective measures in the WFD context: The Mar Menor (SE Spain),; Prell, C., Hubacek, K., Reed, M.,Stakeholder analysis and social network analysis in natural resource management (Open Access),; Purnomo, B., Anggoro, S., Izzati, M.,Analysis of perception and community participation in forest management at KPHP model unit VII-Hulu Sarolangun, Jambi Province (Open Access),; R Core, T.R.,A language and environment for statistical computing,(2019) R Foundation for Statistical Computing. Cited 15810 times.; Raji, O., Niazi, S., Snoussi, M., Dezileau, L., Khouakhi, A.,Vulnerability assessment of a lagoon to sea level rise and storm events: Nador lagoon (NE Morocco),; Reed, M.S.,Stakeholder participation for environmental management: A literature review (Open Access),; Rickson, R.E., Stabler, P.J.,Community responses to non-point pollution from agriculture,; Romero Díaz, A., Belmonte Serrato, F., Docampo Calvo, A.M., Ruíz Sinoga, J.D.,Consecuencias del sellado de los suelos en el Campo de Cartagena (Murcia),(2011) Urbanismo expansivo de la utopia a la realidad, pp. 605-616. Cited 10 times.; Romero Díaz, A., Pérez Morales, A.,Expansión urbana y turismo en la Comarca del Campo de Cartagena-Mar Menor (Murcia). Impacto en el sellado del suelo,(2017) Cuadernos de Turismo, 39, pp. 521-546. Cited 16 times.; Ruiz Fernández, J.M., León, V.M., Marín Guirao, L., Giménez Casalduero, F., Alvárez Rogel, J., Esteve Selma, M.A.,Informe de síntesis sobre el estado actual del Mar Menor y sus causas en relación a los contenidos de nutrientes,(2019) Disponible En; Sodhi, N.S., Lee, T.M., Sekercioglu, C.H., Webb, E.L., Prawiradilaga, D.M., Lohman, D.J., Pierce, N.E., (...), Ehrlich, P.R.,Local people value environmental services provided by forested parks (Open Access),; Trepel, M.,Assessing the cost-effectiveness of the water purification function of wetlands for environmental planning,; Upadhyay, R.K., Raw, S.N., Roy, P., Rai, V.,Restoration and recovery of damaged eco-epidemiological systems: Application to the Salton Sea, California, USA (Open Access),; Velasco, J., Lloret, J., Millan, A., Marin, A., Barahona, J., Abellan, P., Sanchez-Fernandez, D.,Nutrient and particulate inputs into the Mar Menor lagoon (Se Spain) from an intensive agricultural watershed,; Vidal-Abarca, M.R., Esteve Selma, M.A., Suárez Alonso, M.L.,(2003) Los Humedales de la Región de Murcia: Humedales y Ramblas de la Región de Murcia. Cited 6 times.,Consejería de Agricultura.Agua y Medio Ambiente, Murcia; Wold, S., Esbensen, K., Geladi, P.,Principal component analysis,; Yang, R.J.,An investigation of stakeholder analysis in urban development projects: Empirical or rationalistic perspectives (Open Access),; Zanou, B., Kontogianni, A., Skourtos, M.,A classification approach of cost effective management measures for the improvement of watershed quality,</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -7622,11 +7177,6 @@
       <c r="O90" t="inlineStr">
         <is>
           <t>10.1007/s10668-020-00697-y</t>
-        </is>
-      </c>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t>Varios Paises</t>
         </is>
       </c>
     </row>
@@ -7671,7 +7221,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Al_Sayed, K., Turner, A., Hillier, B., Lida, S., Penn, A.,(2014) Space syntax methodology. Cited 197 times.,(4th ed). Bartlett School of Architecture, UCL; Ashworth, G.J., Tunbridge, J.E.,Multiple approaches to heritage in urban regeneration: the case of City Gate, Valletta (Open Access),; Bolay, J.-C., Rabinovich, A.,Intermediate cities in Latin America risk and opportunities of coherent urban development (Open Access),; Borsdorf, A., Hidalgo, R.,From Polarization to Fragmentation. Recent Changes in Latin American Urbanization,; Borsdorf, A., Santiago, C.M., Sánchez, R.,Changes in urbanization processes: The intermediate cities in the chilean urban system,; Buissink, J. D.,(1985) Aspects of urban renewal: report of an enquiry by questionnaire concerning the relation between urban renewal and economic development. Cited 4 times.,(Ed). International Federation for Housing and Planning; Cheshire, P.C., Hay, D.G.,Urban problems in Western Europe: an economic analysis,; (2018) Política Nacional de Desarrollo Urbano,CNDU,https://cndu.gob.cl/wp-content/uploads/2014/10/L4-Politica-Na-cional-Urbana.pdf; Couch, C.,(1990) Urban renewal: Theory and practice. Cited 106 times.,Macmillan Education; Couch, C., Dennemann, A.,Urban regeneration and sustainable development in Britain. The example of the Liverpool Ropewalks Partnership,; de Graaf, R., der Brugge, R.V.,Transforming water infrastructure by linking water management and urban renewal in Rotterdam,; Doratli, N.,(2000) A model for conservation and revitalization of historic urban quarters in Northern Cyprus. Cited 14 times.,[Unpublished Ph. D. thesis]. Eastern Mediterranean University, Gazima-gusa, Turkey; Doratli, N., Hoskara, S.O., Fasli, M.,An analytical methodology for revitalization strategies in historic urban quarters: A case study of the Walled City of Nicosia, North Cyprus,; Research for protection, conservation and enhancement of cultural heritage: opportunities for European enterprises,(2000) Proceedings of the 4th European Commission Conference. Cited 4 times.,European Commission; Franchi-Arzola, I., Martin-Vide, J., Henríquez, C.,Sustainability assessment in development planning in sub-national territories: Regional development strategies in Chile (Open Access),; Frey, H.,(1999) Designing the city: towards a more sustainable urban form. Cited 244 times.,Spon Press; Frey, H., Bagaeen, S.,Adapting the city,(2010) Dimensions of the sustainable city, pp. 163-184. Cited 15 times.; Ingram, G.K., Carroll, A.,The spatial structure of Latin American cities,; (2015) Valdivia capital sos-tenible: plan de acción. Cited 4 times.,Inter-American Development Bank. ICES, Valdivia, Chile,www.iadb.org; Jenks, M., Jones, C.,(2010) Dimensions of the sustainable city. Cited 203 times.,Springer; Lombardi, D.R., Porter, L., Barber, A., Rogers, C.D.F.,Conceptualising Sustainability in UK Urban Regeneration: A Discursive Formation (Open Access),; Macías-Bernal, J.M., Calama-Rodríguez, J.M., Chávez-de Diego, M.J.,Prediction model of the useful life of a heritage building from fuzzy logic (Open Access),; Martinović, A., Ifko, S.,Industrial heritage as a catalyst for urban regeneration in post-conflict cities Case study: Mostar, Bosnia and Herzegovina,; Maturana, F., Rojas, A.,(2015) Ciudades intermedias en Chile: Territorios olvidados. Cited 19 times.,RIL Editores; Metselaar, G., Priemus, H.,(1992) Urban renewal policy in a European perspective: an international comparative analysis. Cited 19 times.,Delft University Press; (2019) Gobierno de Chile. Cited 5 times.,Ministerio de Vivienda y Urbanismo,https://www.minvu.cl/; Nassar, U. A. E., El-Samaty, H. M. S., El-Zeni, M. M.,Place syntax: an “Optimal area” selection methodology proposed for pedestrianization,(2018) Spaces &amp; Flows: An International Journal of Urban &amp; Extra Urban Studies, 9 (3). Cited 4 times.; Niu, S., Lau, S.S.Y., Shen, Z., Lau, S.S.Y.,Sustainability issues in the industrial heritage adaptive reuse: rethinking culture-led urban regeneration through Chinese case studies,; Oliveira, V.,Morpho: A methodology for assessing urban form,; Díaz Orueta, F.,Madrid: Urban regeneration projects and social mobilization,; Prieto Ibáñez, A.J., Macías Bernal, J.M., Chávez de Diego, M.J., Alejandre Sánchez, F.J.,Expert system for predicting buildings service life under ISO 31000 standard. Application in architectural heritage (Open Access),; Prieto, A.J., Macías-Bernal, J.M., Chávez, M.-J., Alejandre, F.J.,Fuzzy Modeling of the Functional Service Life of Architectural Heritage Buildings (Open Access),; Prieto, A.J., Vásquez, V., Silva, A., Horn, A., Alejandre, F.J., Macías-Bernal, J.M.,Protection value and functional service life of heritage timber buildings,; Roberts, P. W., Sykes, H.,(2000) Urban regeneration: a handbook. Cited 428 times.,Sage Publications Ltd; Roberts, P., Sykes, H., Granger, R.,(2016) Urban regeneration. Cited 428 times.,(Eds). Sage Publications Ltd; Saelzer, G., Gómez, P., Ruiz-Tagle, A.,Integral heritage rehabilitation challenges in southern Chile: The case of wooden cities, valdivia,; Talen, E.,(2008) Design for diversity: exploring socially mixed neighborhoods. Cited 112 times.,Architectural Press; (2016) Urbanization and development: Emerging futures (World Cities Report 2016). Cited 658 times.,UN Habitat. UN Habitat,  39; Vicente, R., Ferreira, T.M., Mendes da Silva, J.A.R.,Supporting urban regeneration and building refurbishment. Strategies for building appraisal and inspection of old building stock in city centres,; Vijay, P.V., Tulasi Gadde, K., Gangarao, H.V.S.,Structural Evaluation and Rehabilitation of Century-Old Masonry and Timber Buildings,; Wang, H., Shen, Q., Tang, B.-S., Lu, C., Peng, Y., Tang, L.,A framework of decision-making factors and supporting information for facilitating sustainable site planning in urban renewal projects,; Yoon, J., Lee, J.,Adaptive reuse of apartments as heritage assets in the Seoul station urban regeneration area (Open Access),; Yung, E.H.K., Zhang, Q., Chan, E.H.W.,Underlying social factors for evaluating heritage conservation in urban renewal districts,; Yung, E.H.K., Conejos, S., Chan, E.H.W.,Social needs of the elderly and active aging in public open spaces in urban renewal,; Zadeh, L.A.,Fuzzy sets (Open Access),; Zeng, C., Song, Y., He, Q., Shen, F.,Spatially explicit assessment on urban vitality: Case studies in Chicago and Wuhan,; Zheng, H.W., Shen, G.Q., Wang, H.,A review of recent studies on sustainable urban renewal (Open Access),; Zumelzu, A.,Urban Renewal,(2019) The Wiley-Blackwell encyclopedia of urban and regional studies, 5, pp. 2506-2514. Cited 3 times.; Zumelzu, A., Barrientos-Trinanes, M.,Analysis of the effects of urban form on neighborhood vitality: five cases in Valdivia, Southern Chile,</t>
+          <t>Al_Sayed, K., Turner, A., Hillier, B., Lida, S., Penn, A.,(2014) Space syntax methodology. Cited 197 times.,(4th ed). Bartlett School of Architecture, UCL; Ashworth, G.J., Tunbridge, J.E.,Multiple approaches to heritage in urban regeneration: the case of City Gate, Valletta,; Bolay, J.-C., Rabinovich, A.,Intermediate cities in Latin America risk and opportunities of coherent urban development,; Borsdorf, A., Hidalgo, R.,From Polarization to Fragmentation. Recent Changes in Latin American Urbanization,; Borsdorf, A., Santiago, C.M., Sánchez, R.,Changes in urbanization processes: The intermediate cities in the chilean urban system,; Buissink, J. D.,(1985) Aspects of urban renewal: report of an enquiry by questionnaire concerning the relation between urban renewal and economic development. Cited 4 times.,(Ed). International Federation for Housing and Planning; Cheshire, P.C., Hay, D.G.,Urban problems in Western Europe: an economic analysis,; (2018) Política Nacional de Desarrollo Urbano,CNDU,https://cndu.gob.cl/wp-content/uploads/2014/10/L4-Politica-Na-cional-Urbana.pdf; Couch, C.,(1990) Urban renewal: Theory and practice. Cited 108 times.,Macmillan Education; Couch, C., Dennemann, A.,Urban regeneration and sustainable development in Britain. The example of the Liverpool Ropewalks Partnership,; de Graaf, R., der Brugge, R.V.,Transforming water infrastructure by linking water management and urban renewal in Rotterdam,; Doratli, N.,(2000) A model for conservation and revitalization of historic urban quarters in Northern Cyprus. Cited 14 times.,[Unpublished Ph. D. thesis]. Eastern Mediterranean University, Gazima-gusa, Turkey; Doratli, N., Hoskara, S.O., Fasli, M.,An analytical methodology for revitalization strategies in historic urban quarters: A case study of the Walled City of Nicosia, North Cyprus,; Research for protection, conservation and enhancement of cultural heritage: opportunities for European enterprises,(2000) Proceedings of the 4th European Commission Conference. Cited 4 times.,European Commission; Franchi-Arzola, I., Martin-Vide, J., Henríquez, C.,Sustainability assessment in development planning in sub-national territories: Regional development strategies in Chile,; Frey, H.,(1999) Designing the city: towards a more sustainable urban form. Cited 244 times.,Spon Press; Frey, H., Bagaeen, S.,Adapting the city,(2010) Dimensions of the sustainable city, pp. 163-184. Cited 15 times.; Ingram, G.K., Carroll, A.,The spatial structure of Latin American cities,; (2015) Valdivia capital sos-tenible: plan de acción. Cited 4 times.,Inter-American Development Bank. ICES, Valdivia, Chile,www.iadb.org; Jenks, M., Jones, C.,(2010) Dimensions of the sustainable city. Cited 203 times.,Springer; Lombardi, D.R., Porter, L., Barber, A., Rogers, C.D.F.,Conceptualising Sustainability in UK Urban Regeneration: A Discursive Formation,; Macías-Bernal, J.M., Calama-Rodríguez, J.M., Chávez-de Diego, M.J.,Prediction model of the useful life of a heritage building from fuzzy logic,; Martinović, A., Ifko, S.,Industrial heritage as a catalyst for urban regeneration in post-conflict cities Case study: Mostar, Bosnia and Herzegovina (Open Access),; Maturana, F., Rojas, A.,(2015) Ciudades intermedias en Chile: Territorios olvidados. Cited 19 times.,RIL Editores; Metselaar, G., Priemus, H.,(1992) Urban renewal policy in a European perspective: an international comparative analysis. Cited 19 times.,Delft University Press; (2019) Gobierno de Chile. Cited 5 times.,Ministerio de Vivienda y Urbanismo,https://www.minvu.cl/; Nassar, U. A. E., El-Samaty, H. M. S., El-Zeni, M. M.,Place syntax: an “Optimal area” selection methodology proposed for pedestrianization,(2018) Spaces &amp; Flows: An International Journal of Urban &amp; Extra Urban Studies, 9 (3). Cited 4 times.; Niu, S., Lau, S.S.Y., Shen, Z., Lau, S.S.Y.,Sustainability issues in the industrial heritage adaptive reuse: rethinking culture-led urban regeneration through Chinese case studies,; Oliveira, V.,Morpho: A methodology for assessing urban form,; Díaz Orueta, F.,Madrid: Urban regeneration projects and social mobilization (Open Access),; Prieto Ibáñez, A.J., Macías Bernal, J.M., Chávez de Diego, M.J., Alejandre Sánchez, F.J.,Expert system for predicting buildings service life under ISO 31000 standard. Application in architectural heritage,; Prieto, A.J., Macías-Bernal, J.M., Chávez, M.-J., Alejandre, F.J.,Fuzzy Modeling of the Functional Service Life of Architectural Heritage Buildings (Open Access),; Prieto, A.J., Vásquez, V., Silva, A., Horn, A., Alejandre, F.J., Macías-Bernal, J.M.,Protection value and functional service life of heritage timber buildings,; Roberts, P. W., Sykes, H.,(2000) Urban regeneration: a handbook. Cited 429 times.,Sage Publications Ltd; Roberts, P., Sykes, H., Granger, R.,(2016) Urban regeneration. Cited 429 times.,(Eds). Sage Publications Ltd; Saelzer, G., Gómez, P., Ruiz-Tagle, A.,Integral heritage rehabilitation challenges in southern Chile: The case of wooden cities, valdivia,; Talen, E.,(2008) Design for diversity: exploring socially mixed neighborhoods. Cited 112 times.,Architectural Press; (2016) Urbanization and development: Emerging futures (World Cities Report 2016). Cited 664 times.,UN Habitat. UN Habitat,  39; Vicente, R., Ferreira, T.M., Mendes da Silva, J.A.R.,Supporting urban regeneration and building refurbishment. Strategies for building appraisal and inspection of old building stock in city centres (Open Access),; Vijay, P.V., Tulasi Gadde, K., Gangarao, H.V.S.,Structural Evaluation and Rehabilitation of Century-Old Masonry and Timber Buildings,; Wang, H., Shen, Q., Tang, B.-S., Lu, C., Peng, Y., Tang, L.,A framework of decision-making factors and supporting information for facilitating sustainable site planning in urban renewal projects,; Yoon, J., Lee, J.,Adaptive reuse of apartments as heritage assets in the Seoul station urban regeneration area,; Yung, E.H.K., Zhang, Q., Chan, E.H.W.,Underlying social factors for evaluating heritage conservation in urban renewal districts (Open Access),; Yung, E.H.K., Conejos, S., Chan, E.H.W.,Social needs of the elderly and active aging in public open spaces in urban renewal (Open Access),; Zadeh, L.A.,Fuzzy sets,; Zeng, C., Song, Y., He, Q., Shen, F.,Spatially explicit assessment on urban vitality: Case studies in Chicago and Wuhan,; Zheng, H.W., Shen, G.Q., Wang, H.,A review of recent studies on sustainable urban renewal (Open Access),; Zumelzu, A.,Urban Renewal,(2019) The Wiley-Blackwell encyclopedia of urban and regional studies, 5, pp. 2506-2514. Cited 3 times.; Zumelzu, A., Barrientos-Trinanes, M.,Analysis of the effects of urban form on neighborhood vitality: five cases in Valdivia, Southern Chile,</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -7702,11 +7252,6 @@
       <c r="O91" t="inlineStr">
         <is>
           <t>10.3846/jau.2021.12894</t>
-        </is>
-      </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t>Chile</t>
         </is>
       </c>
     </row>
@@ -7751,7 +7296,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Barra, A.M.,The importance of scientific productivity in the institutional accreditation of chilean universities (Open Access),; Bernasconi, A., Rodríguez-Ponce, E.,Exploratory analysis about the perceived leadership styles, academic climate and quality of undergraduates programs (Open Access),; Brunner, J.J., Ganga-Contreras, F.,Reform of higher education: A critical analysis of the chilean approach,; Brunner, José Joaquín, Labraña, Julio, Rodríguez-Ponce, Ganga, F.,Variedades de capitalismo académico: un marco conceptual de análisis,(2021) Archivos Analíticos De Políticas Educativas. Cited 6 times.; Brunner, J.J., Pedraja-Rejas, L., Vargas, J.L.,Academic capitalism: Conceptual distinctions and contradictory processes in reference to the chilean case (Open Access),; Brunner, José Joaquín, Labraña, Julio,(2018) Financiamiento de la educación superior, gratuidad y proyecto de nuevo crédito estudiantil, p. 31. Cited 7 times.,Centro de Estudios Públicos, Disponible en (Revisado el 26/02/2021); Brunner, J.J., Ganga-Contreras, F., Rodríguez-Ponce, E.,Governance of academic capitalism: Approaches from Chile,; Brunner, J.J., Vargas, J.R.L., Ganga, F., Rodríguez-Ponce, E.,,(2019) Revista Electronica de Investigacion Educativa, 21 (1), art. no. 3181, pp. 1-13. Cited 10 times.; Brunner, José Joaquín, Labraña, Julio, Ganga, Francisco, Rodríguez-Ponce, Emilio,Circulación y recepción de la teoría del "capitalismo académico" en América Latina,(2019) Archivos Analíticos de Políticas Educativas, 27 (79). Cited 2 times.; Carrasco-Madariaga, J., Apablaza-Santis, M.,Government technologies in health professionals' training in a traditional university (Open Access),; Clark, Burton,(1998) Creating entrepreneurial universities: Organizational pathways of transformation. Cited 2178 times.,Pergamon-Elsevier; Deem, Rosemary,New managerialism in higher education,(2017) Encyclopedia of international higher education systems and institutions. Cited 14 times.; Della Volpe, Maddalena,Entrepreneurial university and academic capitalism: an international debate,(2017) Soft Power, 4 (2), pp. 274-288.; Engelen, E., Fernandez, R., Hendrikse, R.,How Finance Penetrates its Other: A Cautionary Tale on the Financialization of a Dutch University,; Espinoza, Óscar, González, Luis,La educación superior en Chile y la compleja transición desde el régimen de autofinanciamiento hacia el régimen de gratuidad,(2016) Revista latinoamericana de educación comparada, 7 (10), pp. 35-51. Cited 11 times.; Espinoza, Ó., González-Fiegehen, L.-E., Granda, M.-L.,Advances and challenges facing reform processes in higher education in Chile and Ecuador: The perspective on access and funding (Open Access),; Etzkowitz, H., Leydesdorff, L.,The dynamics of innovation: From National Systems and "mode 2" to a Triple Helix of university-industry-government relations,; Fardella, C., Sisto, V., Jiménez, F.,We the academics. Identity narratives and self-definition in the current university (Open Access),; Farrugia, B.,WASP (write a scientific paper): Sampling in qualitative research,; Gil-Antón, M., Gómez, L.E.C.,Impact of conditional Monetary Transfers on the academic profession in Mexico: Different times, different conditions (Open Access),; Guzmán-Valenzuela, C., Barnett, R.,Marketing time: Evolving timescapes in academia,; Hillebrandt, M., Huber, M.,Editorial: Quantifying higher education: Governing universities and academics by numbers (Open Access),; Ibarra, Eduardo,Capitalismo académico y globalización: la universidad reinventada,(2003) Educação &amp; Sociedade, 24 (84), pp. 1059-1067. Cited 18 times.; Jessop, B.,A cultural political economy of competitiveness: And its implications for higher education,; Schuetze, Hans, Mendiola, Germán, Conrad, Diane,State and market in higher education reforms: Trends, policies and experiences in comparative perspective,(2012) Comparative and international education, a diversity of voices; Baltaru, R.-D., Soysal, Y.N.,Administrators in higher education: organizational expansion in a transforming institution (Open Access),; Pedraja-Rejas, Liliana, Rodríguez-Ponce, Emilio, Labraña, Julio,¿Qué sabemos de la cultura académica? Revisión del concepto en la literatura especializada en educación superior,(2021) ; Jessop, B.,Varieties of academic capitalism and entrepreneurial universities: On past research and three thought experiments (Open Access),; Komljenovic, J., Robertson, S.L.,The dynamics of ‘market-making’ in higher education (Open Access),; Hirschman, Albert,(1970) Exit, voice and loyalty. Cited 12079 times.,Harvard University Press; López, D.A., Rojas, M.J., López, B.A., Espinoza, O.,Quality assurance and the classification of universities: the case of Chile,; Marginson, S.,Public/private in higher education: a synthesis of economic and political approaches (Open Access),; Marginson, Simon, Considine, Mark,(2011) The enterprise university: Power, governance and reinvention in Australia. Cited 1049 times.,Cambridge University Press; Marginson, Simon,Competition and Markets in Higher Education: a 'glonacal' analysis,(2004) Policy Futures in Education, 2 (2), pp. 175-244. Cited 199 times.; Marginson, Simon, Considine, Mark,(2011) The enterprise university: Power, governance and reinvention in Australia. Cited 1049 times.,Cambridge University Press; Mok, K.H.,Varieties of regulatory regimes in Asia: The liberazation of the higher education market and changing governance in HongKong, Singapore and Malaysia,; Moreno Arellano, C.I.,Public higher education reforms in Mexico: Continuities and ruptures (Open Access),; Naidoo, R.,The competition fetish in higher education: varieties, animators and consequences (Open Access),; Parker, L.D., Jacobs, K., Schmitz, J.,New public management and the rise of public sector performance audit: Evidence from the Australian case (Open Access),; Peters, M.A.,Competing Conceptions of the Creative University,; Rivera, Felipe, Rivera, Pablo, Alonso, Christina,Universidad de Aysén: Nuevos desafíos y oportunidades regionales para la educación chilena,(2016) Revista Perspectivas, 27, pp. 165-186. Cited 4 times.; Rodríguez-Cisneros, L.M., Del Carmen Reascos-Trujillo, A., Andrade-Cadena, J.V.,Methodology to conceive career projects in the higher education system. Experience of implementation (Open Access),; Santiago, Paulo, Tremblay, Karine, Basri, Ester, Arnal, Elena,(2008) Tertiary education for the knowledge society. Cited 417 times.,OECD; Schulze-Cleven, T., Olson, J.R.,Worlds of higher education transformed: toward varieties of academic capitalism,; Shams, F.,Managing academic identity tensions in a Canadian public university: the role of identity work in coping with managerialism,; Shepherd, S.,Managerialism: an ideal type (Open Access),; Sigahi, Tiago, Saltorato, Patricia,Academic capitalism: distinguishing without disjoining through classification schemes,(2019) ; Sisto, V.,Governed by numbers: Financing as a form of government of the university in Chile (Open Access),; Sisto, Vicente,Desbordadas/os: Rendición de Cuentas e Intensificación del Trabajo en la Universidad Neoliberal. El Caso de Chile,(2020) Archivos Analíticos De Políticas Educativas, 28 (7), pp. 1-26. Cited 6 times.; Slaughter, Sheila, Rhoades, Gary,(2004) Academic Capitalism and the New Economy. Cited 2157 times.,Johns Hopkins University Press; Stensaker, B.,Academic development as cultural work: responding to the organizational complexity of modern higher education institutions (Open Access),; Stephenson, M., Zanotti, L.,Neoliberalism, academic capitalism and higher education: Exploring the challenges of one university in rural Haiti,; Tomlinson, Michael, Watermeyer, Richard,When masses meet markets: credentialism and commodification in twenty-first century higher education,(2020) Discourse: Studies in the Cultural Politics of Education, pp. 1-15. Cited 3 times.; Verger, A., Steiner-Khamsi, G., Lubienski, C.,The emerging global education industry: analysing market-making in education through market sociology,; Vican, Shawna, Friedman, Asia, Andreasen, Robin,Metrics, Money, and Managerialism: Faculty Experiences of Competing Logics in Higher Education,(2019) The Journal of Higher Education, pp. 1-26.; Weber, Max,(2014) Economía y sociedad. Cited 735 times.,Ed. revisada y anotada por Francisco Gil Villegas. Fondo de Cultura Económica; Wheaton, A.,Shift happens; moving from the ivory tower to the mushroom factory,; Zabala-Villalón, Gloria, Vidal-Molina, Paula,El Trabajo bajo el neoliberalismo: subcontratación en una universidad estatal chilena,(2019) Polis (Santiago), 18 (54), pp. 268-293. Cited 4 times.; Zancajo, A., Valiente, O.,TVET policy reforms in Chile 2006–2018: between human capital and the right to education (Open Access),</t>
+          <t>Barra, A.M.,The importance of scientific productivity in the institutional accreditation of chilean universities,; Bernasconi, A., Rodríguez-Ponce, E.,Exploratory analysis about the perceived leadership styles, academic climate and quality of undergraduates programs,; Brunner, J.J., Ganga-Contreras, F.,Reform of higher education: A critical analysis of the chilean approach,; Brunner, José Joaquín, Labraña, Julio, Rodríguez-Ponce, Ganga, F.,Variedades de capitalismo académico: un marco conceptual de análisis,(2021) Archivos Analíticos De Políticas Educativas. Cited 4 times.; Brunner, J.J., Pedraja-Rejas, L., Vargas, J.L.,Academic capitalism: Conceptual distinctions and contradictory processes in reference to the chilean case,; Brunner, José Joaquín, Labraña, Julio,(2018) Financiamiento de la educación superior, gratuidad y proyecto de nuevo crédito estudiantil, p. 31. Cited 7 times.,Centro de Estudios Públicos, Disponible en (Revisado el 26/02/2021); Brunner, J.J., Ganga-Contreras, F., Rodríguez-Ponce, E.,Governance of academic capitalism: Approaches from Chile,; Brunner, J.J., Vargas, J.R.L., Ganga, F., Rodríguez-Ponce, E.,,(2019) Revista Electronica de Investigacion Educativa, 21 (1), art. no. 3181, pp. 1-13. Cited 10 times.; Brunner, José Joaquín, Labraña, Julio, Ganga, Francisco, Rodríguez-Ponce, Emilio,Circulación y recepción de la teoría del "capitalismo académico" en América Latina,(2019) Archivos Analíticos de Políticas Educativas, 27 (79). Cited 2 times.; Carrasco-Madariaga, J., Apablaza-Santis, M.,Government technologies in health professionals' training in a traditional university,; Clark, Burton,(1998) Creating entrepreneurial universities: Organizational pathways of transformation. Cited 2186 times.,Pergamon-Elsevier; Deem, Rosemary,New managerialism in higher education,(2017) Encyclopedia of international higher education systems and institutions. Cited 14 times.; Della Volpe, Maddalena,Entrepreneurial university and academic capitalism: an international debate,(2017) Soft Power, 4 (2), pp. 274-288.; Engelen, E., Fernandez, R., Hendrikse, R.,How Finance Penetrates its Other: A Cautionary Tale on the Financialization of a Dutch University,; Espinoza, Óscar, González, Luis,La educación superior en Chile y la compleja transición desde el régimen de autofinanciamiento hacia el régimen de gratuidad,(2016) Revista latinoamericana de educación comparada, 7 (10), pp. 35-51. Cited 11 times.; Espinoza, Ó., González-Fiegehen, L.-E., Granda, M.-L.,Advances and challenges facing reform processes in higher education in Chile and Ecuador: The perspective on access and funding,; Etzkowitz, H., Leydesdorff, L.,The dynamics of innovation: From National Systems and "mode 2" to a Triple Helix of university-industry-government relations,; Fardella, C., Sisto, V., Jiménez, F.,We the academics. Identity narratives and self-definition in the current university,; Farrugia, B.,WASP (write a scientific paper): Sampling in qualitative research,; Gil-Antón, M., Gómez, L.E.C.,Impact of conditional Monetary Transfers on the academic profession in Mexico: Different times, different conditions,; Guzmán-Valenzuela, C., Barnett, R.,Marketing time: Evolving timescapes in academia,; Hillebrandt, M., Huber, M.,Editorial: Quantifying higher education: Governing universities and academics by numbers,; Ibarra, Eduardo,Capitalismo académico y globalización: la universidad reinventada,(2003) Educação &amp; Sociedade, 24 (84), pp. 1059-1067. Cited 18 times.; Jessop, B.,A cultural political economy of competitiveness: And its implications for higher education,; Schuetze, Hans, Mendiola, Germán, Conrad, Diane,State and market in higher education reforms: Trends, policies and experiences in comparative perspective,(2012) Comparative and international education, a diversity of voices; Baltaru, R.-D., Soysal, Y.N.,Administrators in higher education: organizational expansion in a transforming institution (Open Access),; Pedraja-Rejas, Liliana, Rodríguez-Ponce, Emilio, Labraña, Julio,¿Qué sabemos de la cultura académica? Revisión del concepto en la literatura especializada en educación superior,(2021) ; Jessop, B.,Varieties of academic capitalism and entrepreneurial universities: On past research and three thought experiments,; Komljenovic, J., Robertson, S.L.,The dynamics of ‘market-making’ in higher education (Open Access),; Hirschman, Albert,(1970) Exit, voice and loyalty. Cited 12091 times.,Harvard University Press; López, D.A., Rojas, M.J., López, B.A., Espinoza, O.,Quality assurance and the classification of universities: the case of Chile (Open Access),; Marginson, S.,Public/private in higher education: a synthesis of economic and political approaches,; Marginson, Simon, Considine, Mark,(2011) The enterprise university: Power, governance and reinvention in Australia. Cited 1050 times.,Cambridge University Press; Marginson, Simon,Competition and Markets in Higher Education: a 'glonacal' analysis,(2004) Policy Futures in Education, 2 (2), pp. 175-244. Cited 199 times.; Marginson, Simon, Considine, Mark,(2011) The enterprise university: Power, governance and reinvention in Australia. Cited 1050 times.,Cambridge University Press; Mok, K.H.,Varieties of regulatory regimes in Asia: The liberazation of the higher education market and changing governance in HongKong, Singapore and Malaysia (Open Access),; Moreno Arellano, C.I.,Public higher education reforms in Mexico: Continuities and ruptures,; Naidoo, R.,The competition fetish in higher education: varieties, animators and consequences (Open Access),; Parker, L.D., Jacobs, K., Schmitz, J.,New public management and the rise of public sector performance audit: Evidence from the Australian case (Open Access),; Peters, M.A.,Competing Conceptions of the Creative University (Open Access),; Rivera, Felipe, Rivera, Pablo, Alonso, Christina,Universidad de Aysén: Nuevos desafíos y oportunidades regionales para la educación chilena,(2016) Revista Perspectivas, 27, pp. 165-186. Cited 4 times.; Rodríguez-Cisneros, L.M., Del Carmen Reascos-Trujillo, A., Andrade-Cadena, J.V.,Methodology to conceive career projects in the higher education system. Experience of implementation (Open Access),; Santiago, Paulo, Tremblay, Karine, Basri, Ester, Arnal, Elena,(2008) Tertiary education for the knowledge society. Cited 419 times.,OECD; Schulze-Cleven, T., Olson, J.R.,Worlds of higher education transformed: toward varieties of academic capitalism,; Shams, F.,Managing academic identity tensions in a Canadian public university: the role of identity work in coping with managerialism,; Shepherd, S.,Managerialism: an ideal type (Open Access),; Sigahi, Tiago, Saltorato, Patricia,Academic capitalism: distinguishing without disjoining through classification schemes,(2019) ; Sisto, V.,Governed by numbers: Financing as a form of government of the university in Chile,; Sisto, Vicente,Desbordadas/os: Rendición de Cuentas e Intensificación del Trabajo en la Universidad Neoliberal. El Caso de Chile,(2020) Archivos Analíticos De Políticas Educativas, 28 (7), pp. 1-26. Cited 7 times.; Slaughter, Sheila, Rhoades, Gary,(2004) Academic Capitalism and the New Economy. Cited 2157 times.,Johns Hopkins University Press; Stensaker, B.,Academic development as cultural work: responding to the organizational complexity of modern higher education institutions (Open Access),; Stephenson, M., Zanotti, L.,Neoliberalism, academic capitalism and higher education: Exploring the challenges of one university in rural Haiti (Open Access),; Tomlinson, Michael, Watermeyer, Richard,When masses meet markets: credentialism and commodification in twenty-first century higher education,(2020) Discourse: Studies in the Cultural Politics of Education, pp. 1-15. Cited 3 times.; Verger, A., Steiner-Khamsi, G., Lubienski, C.,The emerging global education industry: analysing market-making in education through market sociology (Open Access),; Vican, Shawna, Friedman, Asia, Andreasen, Robin,Metrics, Money, and Managerialism: Faculty Experiences of Competing Logics in Higher Education,(2019) The Journal of Higher Education, pp. 1-26.; Weber, Max,(2014) Economía y sociedad. Cited 736 times.,Ed. revisada y anotada por Francisco Gil Villegas. Fondo de Cultura Económica; Wheaton, A.,Shift happens; moving from the ivory tower to the mushroom factory,; Zabala-Villalón, Gloria, Vidal-Molina, Paula,El Trabajo bajo el neoliberalismo: subcontratación en una universidad estatal chilena,(2019) Polis (Santiago), 18 (54), pp. 268-293. Cited 4 times.; Zancajo, A., Valiente, O.,TVET policy reforms in Chile 2006–2018: between human capital and the right to education,</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -7782,11 +7327,6 @@
       <c r="O92" t="inlineStr">
         <is>
           <t>10.36857/resu.2021.200.1889</t>
-        </is>
-      </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>Chile</t>
         </is>
       </c>
     </row>
@@ -7831,7 +7371,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>ALEXY, Robert,(1988) Sistema jurídico, principios jurídicos y razón práctica, pp. 139-151. Cited 18 times.,Doxa. N. 05, ISSN 0214-8876; BALBÍN, Carlos F.,(2015) Tratado de Derecho Administrativo. Segunda edición actualizada y ampliada. Cited 120 times.,Buenos Aires, La Ley; BALBÍN, Carlos,(2018) Manual de derecho administrativo: 4ta. edición actualizada y ampliada/Carlos Balbín,4a ed. Ciudad Autónoma de Buenos Aires, La Ley; CASSAGNE, Juan Carlos,Los principios generales del Derecho en el Derecho Administrativo,(1988) Revista Anales de la Academia nacional de Derechos y Ciencias Sociales de Buenos Aires, pp. 103-108.; (2016) Comunicación de la Comisión Europea [COM(2016) 179 final]: Plan de Acción sobre Administración Electrónica de la UE,COMISIÓN EUROPEA. Disponible en,https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=LEGISSUM%3A4301896; CORVALÁN, Juan Gustavo,(2018) Hacia una Administración Pública 4.0: digital y basada en inteligencia artificial,Decreto de Tramitación digital completa, Revista La Ley, Ciudad de Buenos Aires; CORVALÁN, Juan Gustavo,(2016) Derecho Administrativo en transición,Editorial Astrea, Buenos Aires, Bogota, Porto Alegre; (2018) ,Departamento de Asuntos Económicos y Sociales de las Naciones Unidas, Encuesta sobre E-Gobierno Impulsar E-Gobierno para apoyas la transformación hacia sociedades sostenibles y resilientes, Nueva York, 2018, disponible en,https://publicadministration.un.org/egovkb/Portals/egovkb/Documents/un/2018-Survey/E-Government%20Survey%202018_Spanish.pdf; (2020) ,Department of Economic and Social Affairs, United Nations, E-Government Survey 2020, Nueva York, disponible en,https://publicadministration.un.org/egovkb/Portals/egovkb/Documents/un/2020-Survey/2020%20UN%20E-Government%20Survey%20(Full%20Report).pdf; STRINGHINI, Antonella,Administración Pública Inteligente: novedades al ecosistema normativo digital de la República Argentina,(2018) Revista Eurolatinoamericana de Derecho Administrativo, 5 (2), pp. 199-215. Cited 7 times.</t>
+          <t>ALEXY, Robert,(1988) Sistema jurídico, principios jurídicos y razón práctica, pp. 139-151. Cited 18 times.,Doxa. N. 05, ISSN 0214-8876; BALBÍN, Carlos F.,(2015) Tratado de Derecho Administrativo. Segunda edición actualizada y ampliada. Cited 121 times.,Buenos Aires, La Ley; BALBÍN, Carlos,(2018) Manual de derecho administrativo: 4ta. edición actualizada y ampliada/Carlos Balbín. Cited 2 times.,4a ed. Ciudad Autónoma de Buenos Aires, La Ley; CASSAGNE, Juan Carlos,Los principios generales del Derecho en el Derecho Administrativo,(1988) Revista Anales de la Academia nacional de Derechos y Ciencias Sociales de Buenos Aires, pp. 103-108.; (2016) Comunicación de la Comisión Europea [COM(2016) 179 final]: Plan de Acción sobre Administración Electrónica de la UE,COMISIÓN EUROPEA. Disponible en,https://eur-lex.europa.eu/legal-content/ES/TXT/?uri=LEGISSUM%3A4301896; CORVALÁN, Juan Gustavo,(2018) Hacia una Administración Pública 4.0: digital y basada en inteligencia artificial,Decreto de Tramitación digital completa, Revista La Ley, Ciudad de Buenos Aires; CORVALÁN, Juan Gustavo,(2016) Derecho Administrativo en transición,Editorial Astrea, Buenos Aires, Bogota, Porto Alegre; (2018) ,Departamento de Asuntos Económicos y Sociales de las Naciones Unidas, Encuesta sobre E-Gobierno Impulsar E-Gobierno para apoyas la transformación hacia sociedades sostenibles y resilientes, Nueva York, 2018, disponible en,https://publicadministration.un.org/egovkb/Portals/egovkb/Documents/un/2018-Survey/E-Government%20Survey%202018_Spanish.pdf; (2020) ,Department of Economic and Social Affairs, United Nations, E-Government Survey 2020, Nueva York, disponible en,https://publicadministration.un.org/egovkb/Portals/egovkb/Documents/un/2020-Survey/2020%20UN%20E-Government%20Survey%20(Full%20Report).pdf; STRINGHINI, Antonella,Administración Pública Inteligente: novedades al ecosistema normativo digital de la República Argentina,(2018) Revista Eurolatinoamericana de Derecho Administrativo, 5 (2), pp. 199-215. Cited 7 times.</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -7862,11 +7402,6 @@
       <c r="O93" t="inlineStr">
         <is>
           <t>10.14409/REDOEDA.V8I1.10195</t>
-        </is>
-      </c>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t>Argentina</t>
         </is>
       </c>
     </row>
@@ -7911,7 +7446,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>AGHAEI, Sareg, NEMATBAKHSH, Mohammad Ali, FARSANI, Hadi Khosravi,Evolution of the world wide web: From WEB 1.0 to WEB 4.0,(2012) International Journal of Web &amp; Semantic Technology (IJWesT), 3, pp. 1-10. Cited 199 times.; ALCÁNTARA ACOSTA, Albanio, CENDROS GUASCH, Jesús,Modelo de gobierno electrónico para la alcaldía rural del municipio autónomo Colón,(2006) Revistas Electrónica de Estudios Telemáticos, Maracaibo Venezuela, 5 (1), pp. 79-97.; AMOR, Daniel,(2000) Révolution e-business. CampusPress,París-Francia: CampusPress; ASANZA MIRANDA, Felipe,Normas Rectoras,(2018) Código Orgánico Administrativo -Comentado, p. 19.; BLANCO, Ismael, GOMA, Ricard,Gobiernos locales y redes participativas: retos e innovaciones,(2003) Revista del CLAD Reforma y Democracia, pp. 26-93. Cited 8 times.; BOUSKELA, Mauricio, CASSEB, Márcia, BASSI, Silvia, DE LUCA, Cristina, FACCHINA, Marcelo,(2016) La ruta hacia las smart cities: Migrando de una gestión tradicional a la ciudad inteligente, p. 14. Cited 37 times.,Washington: Banco Interamericano de Desarrollo, f; CABRERA TORRES, Abdón,Ciudad Digital, un concepto de acercamiento del ciudadano a la información,(2015) Revista FENopina, (70), p. 2.; CASTELLS, Manuel,La era de la información,(2004) Economía, sociedad y cultura, 1. Cited 933 times.; CENDRÓS, Jesús, DURANTE, Carlos, FERMÍN, José,Factores estratégicos para desarrollar el gobierno electrónico en las alcaldías de Venezuela,(2004) Revista de Ciencias Humana y Sociales, Maracaibo, 20 (45). Cited 2 times.; (2007) Centro Latinoamericano de Administración para el Desarrollo. Carta Iberoamericana de Gobierno Electrónico,[s.n]. Pucón: Chile,  11; Dahlberg, L., Siapera, E.,Radical democracy and the internet: Interrogating theory and practice,; (2008) Constitución de la República del Ecuador. Cited 483 times.,ECUADOR. publicada en el Registro Oficial 449 de,  14; (2004) Ley Orgánica de Transparencia y Acceso a la Información Pública. Cited 10 times.,publicada en el Registro Oficial Suplement 337 de 18 de mayo de,  16; (2020) Ministerio de Telecomunicaciones y Sociedad de la Información de la República del Ecuador,ECUADOR. Gobierno electrónico en Ecuador. Ecuador,  18; (2017) Plan Nacional de Planificación y Desarrollo. Cited 3 times.,Plan Nacional de Desarrollo 2017-2021. Toda una Vida. Secretaria Nacional de Planificación y Desarrollo, Senplades, Disponible en,https://www.planificacion.gob.ec/wp-content/uploads/downloads/2017/10/PNBV-26-OCT-FINAL_0K.compressed1.pdf; ESTEVES, José,(2025) Análisis del desarrollo del gobierno electrónico municipal en España. Cited 16 times.,Madrid: IE Working Paper; FERRARESE, María Rosaria,(2010) La governance tra politica e diritto. Il mulino. Cited 30 times.,Bolonia: ed. Mulino; FINQUELIEVICH, Susana, JARA, Alejandra, BAUMANN, Pablo,(2001) Nuevos paradigmas de participación ciudadana a través de las tecnologías de información y comunicación. Cited 6 times.,Documento de trabaj 23. Buenos Aires-Argentina: Instituto de Investigaciones Gino Germani, Facultad de Ciencias Sociales, Universidad de Buenos Aires; GONZÁLEZ, Paula,(2014) Informe 2014 de Naciones Unidas sobre Gobiernos Electrónicos,Uruguay, (Est.Inv) Instituto de Competitividad Facultad de Ciencias Empresariales, Universidad Católica del Uruguay; HEEKS, Richard,(2011) Understanding e-governance for development. Cited 261 times.,Manchester. ed. Institute for Development Policy and Management. Manchester, Precincit Center, Manchester; Hofacker, C.F., Goldsmith, R.E., Bridges, E., Swilley, E.,E-services: A synthesis and research agenda,; LÍPPEZ-DE CASTRO, Sebastián, GARCÍA ALONSO, Roberto,Ciudadanos y gobierno electrónico: la orientación al ciudadano de los sitios web municipales en Colombia para la promoción de la participación,(2016) Revista Universitas Humanística 88, Bogotá Colombia, 82, pp. 279-304. Cited 4 times.; MANTILLA GODOY, Alfredo Enrique, PAÉZ MORENO, Ángel Emiro,Experiencia de participación ciudadana a través de internet en centros de gestión parroquial de Venezuela,(2010) Quórum Académico, Maracaibo-Venezuela, 7 (1).; MORENO, ALONSO,(2016) Ciudad Inteligente y Ciudad Sostenible,Madrid, 30f. Tese (Doctorado)-Departamento “Ingeniería Civil: Transporte y Territorio, Universidad Politécnica de Madrid; NASER, Alejandra, CONCHA, Gastón,(2011) El gobierno electrónico en la gestión pública. Cited 18 times.,Cepal; OLIVOS CAMPOS, J.,Nueva Administración del Estado Contemporáneo,(2014) La protección de los derechos frente al poder de la administración Libro en homenaje al profesor Eduardo García de Enterría, p. 367.; RAMIREZ, Álvaro,De Gobierno Abierto a Estado Abierto,(2011) Revista Enfoques: Ciencia Política y Administración Pública, 9 (15), pp. 90-125.; RODRÍGUEZ, Gladys, Gobierno Electrónico, S.,Hacia la modernización y transferencia de la gestión pública,(2011) Revista de Derecho, Barranquilla- Colombia, (21), pp. 1-23. Cited 10 times.; SÁNCHEZ TORRES, Carlos Ariel, RINCÓN CÁRDENAS, Erick,Municipio digital y gobierno electrónico,VNIVERSITAS Revistas Científicas Javeriana, 104, pp. 813-847.; SANHUEZA, Andrea,(2004) Participación Ciudadana en la Gestión Pública. Cited 6 times.,Santiago de Chile: Comisión Económica para América Latina y el Caribe (CEPAL); SCHWAB, Klaus,(2016) La cuarta revolución industrial. Debate. Cited 130 times.,Madrid: Penguin Randon House Grupos Editorial, Editorial España; TURBAN, Efrain,(2002) Electronic commerce: a managerial perspective. Cited 1648 times.,Nueva Jersey: Pearson Education</t>
+          <t>AGHAEI, Sareg, NEMATBAKHSH, Mohammad Ali, FARSANI, Hadi Khosravi,Evolution of the world wide web: From WEB 1.0 to WEB 4.0,(2012) International Journal of Web &amp; Semantic Technology (IJWesT), 3, pp. 1-10. Cited 200 times.; ALCÁNTARA ACOSTA, Albanio, CENDROS GUASCH, Jesús,Modelo de gobierno electrónico para la alcaldía rural del municipio autónomo Colón,(2006) Revistas Electrónica de Estudios Telemáticos, Maracaibo Venezuela, 5 (1), pp. 79-97.; AMOR, Daniel,(2000) Révolution e-business. CampusPress,París-Francia: CampusPress; ASANZA MIRANDA, Felipe,Normas Rectoras,(2018) Código Orgánico Administrativo -Comentado, p. 19.; BLANCO, Ismael, GOMA, Ricard,Gobiernos locales y redes participativas: retos e innovaciones,(2003) Revista del CLAD Reforma y Democracia, pp. 26-93. Cited 8 times.; BOUSKELA, Mauricio, CASSEB, Márcia, BASSI, Silvia, DE LUCA, Cristina, FACCHINA, Marcelo,(2016) La ruta hacia las smart cities: Migrando de una gestión tradicional a la ciudad inteligente, p. 14. Cited 38 times.,Washington: Banco Interamericano de Desarrollo, f; CABRERA TORRES, Abdón,Ciudad Digital, un concepto de acercamiento del ciudadano a la información,(2015) Revista FENopina, (70), p. 2.; CASTELLS, Manuel,La era de la información,(2004) Economía, sociedad y cultura, 1. Cited 939 times.; CENDRÓS, Jesús, DURANTE, Carlos, FERMÍN, José,Factores estratégicos para desarrollar el gobierno electrónico en las alcaldías de Venezuela,(2004) Revista de Ciencias Humana y Sociales, Maracaibo, 20 (45). Cited 2 times.; (2007) Centro Latinoamericano de Administración para el Desarrollo. Carta Iberoamericana de Gobierno Electrónico,[s.n]. Pucón: Chile,  11; Dahlberg, L., Siapera, E.,Radical democracy and the internet: Interrogating theory and practice,; (2008) Constitución de la República del Ecuador. Cited 489 times.,ECUADOR. publicada en el Registro Oficial 449 de,  14; (2004) Ley Orgánica de Transparencia y Acceso a la Información Pública. Cited 10 times.,publicada en el Registro Oficial Suplement 337 de 18 de mayo de,  16; (2020) Ministerio de Telecomunicaciones y Sociedad de la Información de la República del Ecuador,ECUADOR. Gobierno electrónico en Ecuador. Ecuador,  18; (2017) Plan Nacional de Planificación y Desarrollo. Cited 3 times.,Plan Nacional de Desarrollo 2017-2021. Toda una Vida. Secretaria Nacional de Planificación y Desarrollo, Senplades, Disponible en,https://www.planificacion.gob.ec/wp-content/uploads/downloads/2017/10/PNBV-26-OCT-FINAL_0K.compressed1.pdf; ESTEVES, José,(2025) Análisis del desarrollo del gobierno electrónico municipal en España. Cited 16 times.,Madrid: IE Working Paper; FERRARESE, María Rosaria,(2010) La governance tra politica e diritto. Il mulino. Cited 30 times.,Bolonia: ed. Mulino; FINQUELIEVICH, Susana, JARA, Alejandra, BAUMANN, Pablo,(2001) Nuevos paradigmas de participación ciudadana a través de las tecnologías de información y comunicación. Cited 6 times.,Documento de trabaj 23. Buenos Aires-Argentina: Instituto de Investigaciones Gino Germani, Facultad de Ciencias Sociales, Universidad de Buenos Aires; GONZÁLEZ, Paula,(2014) Informe 2014 de Naciones Unidas sobre Gobiernos Electrónicos,Uruguay, (Est.Inv) Instituto de Competitividad Facultad de Ciencias Empresariales, Universidad Católica del Uruguay; HEEKS, Richard,(2011) Understanding e-governance for development. Cited 262 times.,Manchester. ed. Institute for Development Policy and Management. Manchester, Precincit Center, Manchester; Hofacker, C.F., Goldsmith, R.E., Bridges, E., Swilley, E.,E-services: A synthesis and research agenda,; LÍPPEZ-DE CASTRO, Sebastián, GARCÍA ALONSO, Roberto,Ciudadanos y gobierno electrónico: la orientación al ciudadano de los sitios web municipales en Colombia para la promoción de la participación,(2016) Revista Universitas Humanística 88, Bogotá Colombia, 82, pp. 279-304. Cited 4 times.; MANTILLA GODOY, Alfredo Enrique, PAÉZ MORENO, Ángel Emiro,Experiencia de participación ciudadana a través de internet en centros de gestión parroquial de Venezuela,(2010) Quórum Académico, Maracaibo-Venezuela, 7 (1).; MORENO, ALONSO,(2016) Ciudad Inteligente y Ciudad Sostenible,Madrid, 30f. Tese (Doctorado)-Departamento “Ingeniería Civil: Transporte y Territorio, Universidad Politécnica de Madrid; NASER, Alejandra, CONCHA, Gastón,(2011) El gobierno electrónico en la gestión pública. Cited 18 times.,Cepal; OLIVOS CAMPOS, J.,Nueva Administración del Estado Contemporáneo,(2014) La protección de los derechos frente al poder de la administración Libro en homenaje al profesor Eduardo García de Enterría, p. 367.; RAMIREZ, Álvaro,De Gobierno Abierto a Estado Abierto,(2011) Revista Enfoques: Ciencia Política y Administración Pública, 9 (15), pp. 90-125.; RODRÍGUEZ, Gladys, Gobierno Electrónico, S.,Hacia la modernización y transferencia de la gestión pública,(2011) Revista de Derecho, Barranquilla- Colombia, (21), pp. 1-23. Cited 10 times.; SÁNCHEZ TORRES, Carlos Ariel, RINCÓN CÁRDENAS, Erick,Municipio digital y gobierno electrónico,VNIVERSITAS Revistas Científicas Javeriana, 104, pp. 813-847.; SANHUEZA, Andrea,(2004) Participación Ciudadana en la Gestión Pública. Cited 6 times.,Santiago de Chile: Comisión Económica para América Latina y el Caribe (CEPAL); SCHWAB, Klaus,(2016) La cuarta revolución industrial. Debate. Cited 137 times.,Madrid: Penguin Randon House Grupos Editorial, Editorial España; TURBAN, Efrain,(2002) Electronic commerce: a managerial perspective. Cited 1648 times.,Nueva Jersey: Pearson Education</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -7942,11 +7477,6 @@
       <c r="O94" t="inlineStr">
         <is>
           <t>10.14409/REDOEDA.V8I1.9562</t>
-        </is>
-      </c>
-      <c r="P94" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
         </is>
       </c>
     </row>
@@ -7991,7 +7521,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Almarabeh, T., AbuAli, A.,A general framework for E-government: Definition maturity challenges, opportunities, and success,; Anthopoulos, L., Fitsilis, P.,Trends in e-strategic management: How do governments transform their policies?,(2014) International Journal of Public Administration in the Digital Age, 1 (1), pp. 15-38. Cited 14 times.; Bannister, F., Connolly, R.,ICT, public values and transformative government: A framework and programme for research,; Bartunek, J. M.,Changing interpretive schemes and organizational restructuring: The example of a religious order,(1984) Administrative Science Quarterly, 29 (3), pp. 355-372. Cited 635 times.; Basu, S.,E‐government and developing countries: An overview,(2004) International Review of Law Computers &amp; Technology, 18 (1), pp. 109-132. Cited 349 times.; Bauer, M. W.,Classical content analysis: A review,(2000) Qualitative Researching With Text, Image and Sound, pp. 131-151. Cited 368 times.; Bertot, J.C., Jaeger, P.T., Grimes, J.M.,Using ICTs to create a culture of transparency: E-government and social media as openness and anti-corruption tools for societies,; Bonina, C. M., Cordella, A.,The new public management, e-government and the notion of’public value’: Lessons from Mexico,(2008) GlobDev, 2008, p. 11. Cited 16 times.; Bortolotti, B., Faccio, M.,Government control of privatized firms (Open Access),; Brown, S.C., Stevens Jr., R.A., Troiano, P.F., Schneider, M.K.,Exploring complex phenomena: Grounded theory in student affairs research,; Bryson, J.M., Crosby, B.C., Bloomberg, L.,Public value governance: Moving beyond traditional public administration and the new public management,; Carter, L., Bélanger, F.,The utilization of e-government services: Citizen trust, innovation and acceptance factors,; Cerrillo-i-Martínez, A.,Fundamental interests and open data for re-use,; Chadwick, A.,Explaining the failure of an online citizen engagement initiative: The role of internal institutional variables,; Cordella, A., Tempini, N.,E-government and organizational change: Reappraising the role of ICT and bureaucracy in public service delivery (Open Access),; De Castro, C.M.M., Reed, C., De Queiroz, R.,Digital content and cloud-based contracts in Brazil and the European Union,; Deligiaouri, A.,Open Governance and E-Rulemaking: Online Deliberation and Policy-Making in Contemporary Greek Politics,; Denhardt, J.V., Denhardt, R.B.,The new public service: Serving, not steering,; Dunleavy, P., Margetts, H., Bastow, S., Tinkler, J.,New public management is dead - Long live digital-era governance (Open Access),; Faulkner, A., Lange, B., Lawless, C.,Introduction: Material Worlds: Intersections of Law, Science, Technology, and Society,; Feeley, M.,The concept of laws in social science: A critique and notes on an expanded view,(1976) Crime, Law and Society, pp. 19-45.; Gil-Garcia, J.R., Martinez-Moyano, I.J.,Understanding the evolution of e-government: The influence of systems of rules on public sector dynamics,; Gil-García, J.R., Pardo, T.A.,E-government success factors: Mapping practical tools to theoretical foundations,; Gil-García, J. R., Sandoval-Almazán, R., Luna-Reyes,(2015) Avances y retos del Gobierno Digital en México. Cited 5 times.,Universidad Autónoma del Estado de México; (2018) Guía de marco legal para el gobierno digital en la APF,https://www.gob.mx/wikiguias/es/articulos/guia-de-marco-legal-para-el-gobierno-digital-en-la-apf?tab=,  26; Goodwin, M., Susar, D., Nietzio, A., Snaprud, M., Jensen, C.S.,Global web accessibility analysis of national government portals and ministry web sites,; Greve, C.,(2010) Whatever Happened to New Public Management? Danish Political Science Association meeting,  29; Iacovino, N.M., Barsanti, S., Cinquini, L.,Public Organizations Between Old Public Administration, New Public Management and Public Governance: the Case of the Tuscany Region (Open Access),; Jaeger, P.T., Bertot, J.C.,Transparency and technological change: Ensuring equal and sustained public access to government information,; Kim, H.J., Pan, G., Pan, S.L.,Managing IT-enabled transformation in the public sector: A case study on e-government in South Korea (Open Access),; Kiškis, M., Petrauskas, R.,e-Governance: Two views on legal environment,; Ley de Gobierno Digital para el Estado de Puebla y sus Municipios,(n.d),http://www.mregulatoria.puebla.gob.mx/index.php/descargas/item/1626-ley-de-gobierno-digital-pue-mun; Ley de Gobierno Digital y Firma Electrónica para el Estado de Tabasco y sus Municipios, del Gobierno de Tabasco,(n.d),https://tabasco.gob.mx/leyes/descargar/0/507; (2015) ,http://www.paot.org.mx/centro/leyes/df/pdf/2018/LEY_GOBIERNO_ELECTRONICO_15_09_2016.pdf,  37; (2015) Ley de la Gestión Pública Digital para el Estado de México y Municipios del Gobierno del Estado de Mexico,http://dgsei.edomex.gob.mx/sites/dgsei.edomex.gob.mx/files/files/leyGD.pdf,  39; McNutt, K.,From the Outside In: The External Face of e-Government,; Norris, D.F.,E-Government 2020: Plus ça change, plus c'est la meme chose,; Osborne, S.P.,Conclusions: Public governance and public services delivery: A research agenda for the future,; Petrauskas, K.,(2018) Teaching on E-government: aspects of legal environment,Law University of Lithuania; Van Thiel, S., Steijn, B., Allix, M.,'New public managers' in Europe: Changes and trends (Open Access),; Post, D.G.,How the internet is making jurisdiction sexy (again),; Rose, J., Flak, L.S., Sæbø, Ø.,Stakeholder theory for the E-government context: Framing a value-oriented normative core (Open Access),; Rosenfeld, M.,The rule of law and the legitimacy of constitutional democracy,(2000) Southern California Law Review, 74, p. 1307. Cited 78 times.; Rubino-Hallman, S., Hanna, N.K.,New technologies for public sector transformation: A critical analysis of e-government initiatives in Latin America and the Caribbean,; Schartum, D. W.,Developing E-Government Systems-Legal. Technological and Organizational Aspects,(2010) Scandinavian Studies. L, 56, p. 125. Cited 6 times.; Silverman, D.,(2011) Interpreting qualitative data: A guide to the principles of qualitative research. Cited 7729 times.,SAGE; (2018) UN E-government Survey. Cited 39 times.,https://publicadministration.un.org/en/Research/UN-e-GovernmentSurveys,  52; Wihlborg, E.,Legitimate e-Government - Public e-services as a facilitator of political legitimacy (Open Access),</t>
+          <t>Almarabeh, T., AbuAli, A.,A general framework for E-government: Definition maturity challenges, opportunities, and success,; Anthopoulos, L., Fitsilis, P.,Trends in e-strategic management: How do governments transform their policies?,(2014) International Journal of Public Administration in the Digital Age, 1 (1), pp. 15-38. Cited 14 times.; Bannister, F., Connolly, R.,ICT, public values and transformative government: A framework and programme for research,; Bartunek, J. M.,Changing interpretive schemes and organizational restructuring: The example of a religious order,(1984) Administrative Science Quarterly, 29 (3), pp. 355-372. Cited 635 times.; Basu, S.,E‐government and developing countries: An overview,(2004) International Review of Law Computers &amp; Technology, 18 (1), pp. 109-132. Cited 349 times.; Bauer, M. W.,Classical content analysis: A review,(2000) Qualitative Researching With Text, Image and Sound, pp. 131-151. Cited 369 times.; Bertot, J.C., Jaeger, P.T., Grimes, J.M.,Using ICTs to create a culture of transparency: E-government and social media as openness and anti-corruption tools for societies,; Bonina, C. M., Cordella, A.,The new public management, e-government and the notion of’public value’: Lessons from Mexico,(2008) GlobDev, 2008, p. 11. Cited 16 times.; Bortolotti, B., Faccio, M.,Government control of privatized firms,; Brown, S.C., Stevens Jr., R.A., Troiano, P.F., Schneider, M.K.,Exploring complex phenomena: Grounded theory in student affairs research,; Bryson, J.M., Crosby, B.C., Bloomberg, L.,Public value governance: Moving beyond traditional public administration and the new public management (Open Access),; Carter, L., Bélanger, F.,The utilization of e-government services: Citizen trust, innovation and acceptance factors,; Cerrillo-i-Martínez, A.,Fundamental interests and open data for re-use,; Chadwick, A.,Explaining the failure of an online citizen engagement initiative: The role of internal institutional variables,; Cordella, A., Tempini, N.,E-government and organizational change: Reappraising the role of ICT and bureaucracy in public service delivery,; De Castro, C.M.M., Reed, C., De Queiroz, R.,Digital content and cloud-based contracts in Brazil and the European Union,; Deligiaouri, A.,Open Governance and E-Rulemaking: Online Deliberation and Policy-Making in Contemporary Greek Politics,; Denhardt, J.V., Denhardt, R.B.,The new public service: Serving, not steering,; Dunleavy, P., Margetts, H., Bastow, S., Tinkler, J.,New public management is dead - Long live digital-era governance,; Faulkner, A., Lange, B., Lawless, C.,Introduction: Material Worlds: Intersections of Law, Science, Technology, and Society,; Feeley, M.,The concept of laws in social science: A critique and notes on an expanded view,(1976) Crime, Law and Society, pp. 19-45.; Gil-Garcia, J.R., Martinez-Moyano, I.J.,Understanding the evolution of e-government: The influence of systems of rules on public sector dynamics,; Gil-García, J.R., Pardo, T.A.,E-government success factors: Mapping practical tools to theoretical foundations,; Gil-García, J. R., Sandoval-Almazán, R., Luna-Reyes,(2015) Avances y retos del Gobierno Digital en México. Cited 5 times.,Universidad Autónoma del Estado de México; (2018) Guía de marco legal para el gobierno digital en la APF,https://www.gob.mx/wikiguias/es/articulos/guia-de-marco-legal-para-el-gobierno-digital-en-la-apf?tab=,  26; Goodwin, M., Susar, D., Nietzio, A., Snaprud, M., Jensen, C.S.,Global web accessibility analysis of national government portals and ministry web sites,; Greve, C.,(2010) Whatever Happened to New Public Management? Danish Political Science Association meeting,  29; Iacovino, N.M., Barsanti, S., Cinquini, L.,Public Organizations Between Old Public Administration, New Public Management and Public Governance: the Case of the Tuscany Region,; Jaeger, P.T., Bertot, J.C.,Transparency and technological change: Ensuring equal and sustained public access to government information (Open Access),; Kim, H.J., Pan, G., Pan, S.L.,Managing IT-enabled transformation in the public sector: A case study on e-government in South Korea (Open Access),; Kiškis, M., Petrauskas, R.,e-Governance: Two views on legal environment (Open Access),; Ley de Gobierno Digital para el Estado de Puebla y sus Municipios,(n.d),http://www.mregulatoria.puebla.gob.mx/index.php/descargas/item/1626-ley-de-gobierno-digital-pue-mun; Ley de Gobierno Digital y Firma Electrónica para el Estado de Tabasco y sus Municipios, del Gobierno de Tabasco,(n.d),https://tabasco.gob.mx/leyes/descargar/0/507; (2015) ,http://www.paot.org.mx/centro/leyes/df/pdf/2018/LEY_GOBIERNO_ELECTRONICO_15_09_2016.pdf,  37; (2015) Ley de la Gestión Pública Digital para el Estado de México y Municipios del Gobierno del Estado de Mexico,http://dgsei.edomex.gob.mx/sites/dgsei.edomex.gob.mx/files/files/leyGD.pdf,  39; McNutt, K.,From the Outside In: The External Face of e-Government,; Norris, D.F.,E-Government 2020: Plus ça change, plus c'est la meme chose,; Osborne, S.P.,Conclusions: Public governance and public services delivery: A research agenda for the future,; Petrauskas, K.,(2018) Teaching on E-government: aspects of legal environment,Law University of Lithuania; Van Thiel, S., Steijn, B., Allix, M.,'New public managers' in Europe: Changes and trends (Open Access),; Post, D.G.,How the internet is making jurisdiction sexy (again),; Rose, J., Flak, L.S., Sæbø, Ø.,Stakeholder theory for the E-government context: Framing a value-oriented normative core,; Rosenfeld, M.,The rule of law and the legitimacy of constitutional democracy,(2000) Southern California Law Review, 74, p. 1307. Cited 78 times.; Rubino-Hallman, S., Hanna, N.K.,New technologies for public sector transformation: A critical analysis of e-government initiatives in Latin America and the Caribbean,; Schartum, D. W.,Developing E-Government Systems-Legal. Technological and Organizational Aspects,(2010) Scandinavian Studies. L, 56, p. 125. Cited 6 times.; Silverman, D.,(2011) Interpreting qualitative data: A guide to the principles of qualitative research. Cited 7739 times.,SAGE; (2018) UN E-government Survey. Cited 39 times.,https://publicadministration.un.org/en/Research/UN-e-GovernmentSurveys,  52; Wihlborg, E.,Legitimate e-Government - Public e-services as a facilitator of political legitimacy,</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -8022,11 +7552,6 @@
       <c r="O95" t="inlineStr">
         <is>
           <t>10.4018/IJPADA.20210101.oa1</t>
-        </is>
-      </c>
-      <c r="P95" t="inlineStr">
-        <is>
-          <t>Mexico</t>
         </is>
       </c>
     </row>
@@ -8071,7 +7596,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Alcaraz Varó, Enrique,(2003) El inglés profesional y académico. Cited 67 times.,Madrid: Alianza; Bergenholtz, Henning, Tarp, Sven,(1995) Manual of Specialised Lexicography. Cited 153 times.,Amsterdam/Philadelphia: John Benjamins; Bergenholtz, H., Tarp, S.,The modern lexicographic theory of function. Contribution to the discussion on new and old paradigms that understand dictionaries as commodities,; Bergenholtz, H., Tarp, S.,Two opposing theories: On H.E. Wiegand's recent discovery of lexicographic functions (Open Access),; Bergenholtz, H., Tarp, S.,The concept of 'dictionary usage' (Open Access),; Cabré, María Teresa,(1999) La terminología: representación y comunicación. Elementos para una teoría de base comunicativa y otros artículos. Cited 247 times.,Barcelona: Institut Universitari de Lingüística Aplicada, Universitat Pompeu Fabra; Corpus panhispánico de la administración pública–CorpusPAP,(accessed April 7, 2021),https://www.corpuspap.com/corpus/; Danish-English Accounting Dictionary,Hamburg. (accessed September 28, 2021),https://www.lemma.com/en/; (2018) Diccionario Panhispánico de la Administración Pública–DiPAP,(accessed April 1, 2021),https://www.corpuspap.com/diccionario/; Fuertes-Olivera, Pedro, Bergenholtz, Henning,(2011) E-lexicography: The Internet, Digital Initiatives and Lexicography. Cited 73 times.,eds. London: Continuum; Fuertes-Olivera, Pedro A., Tarp, Sven,(2014) Theory and Practice of Specialised Online Dictionaries: Lexicography Versus Terminography. Cited 88 times.,Berlin: de Gruyter; Rodilla, Bertha M.,Entre el mito y el logos: la medicina y sus formas de expresión,(2004) Objetividad científica y lenguaje: la terminología de las ciencias de la salud, pp. 15-31.; Hoffmann, Lothar,(1998) Llenguatges d’especialitat: Selecció de textos. Cited 20 times.,Barcelona: Institut Universitari de Lingüística Aplicada, Universitat Pompeu Fabra; Kilgarriff, Adam, Rychly, Pavel, Smzr, Pavel, Tugwell, David,The Sketch Engine,(2004) EURALEX Conference. Cited 621 times.; n.d. (accessed September 28, 2021),https://www.latinobarometro.org/lat.jsp,  16; Lexical Computing, Inc. n.d. Sketch Engine (accessed September 28, 2021),https://www.sketchengine.eu/,  18; n.d. (accessed September 10, 2021),http://www.mptfp.es/portal/funcionpublica/gobernanza-publica/calidad/informes/percepcion/percepcion9.html,  20; Nielsen, Sandro, Mourier, Lise,Design of a function-based internet accounting dictionary,(2004) Dictionary visions, research, and practice. Selected papers from the 12th International Symposium on Lexicography, pp. 119-135. Cited 16 times.; (2016) ,Odense. (accessed September 29, 2021),www.ordbogen.com; Pedraza, Pedraza, Betulia, María,(2019) Democratización de la lengua de la administración pública: retos de una propuesta lexicográfica digital panhispánica. Cited 2 times.,PhD diss., Universitat Autònoma de Barcelona; Prins, J.E.J., Broeders, D., Griffioen, H.M.,IGovernment: A new perspective on the future of government digitisation (Open Access),; Roseth, Benjamin, Reyes, Angela, Santiso, Carlos,(2018) El fin del trámite eterno: ciudadanos, burocracia y gobierno digital. Cited 5 times.,New York: Banco Interamericano de Desarollo (IDB). (accessed September 10, 2021); Santamaría Pérez, Isabel,(2009) El léxico de la ciencia y de la técnica,Madrid: Biblioteca de recursos electrónicos de humanidades; Tarp, Sven,(1992) Prolegomena til teknisk ordbog. Cited 6 times.,Aarhus: Instituto del Español, Escuela Superior de Ciencias Empresariales; (2008) Lexicography in the borderland between knowledge and non-knowledge. Cited 214 times.,Tübingen: Niemeyer,  29; La teoría funcional en pocas palabras,(2015) Estudios de Lexicografía, 4, pp. 31-42. Cited 7 times.,  31; Open data,(accessed September 28, 2021),https://www.data.gov/; (2020) Wiki Ius: Glosario jurídico colaborativo,(accessed September 28, 2021),http://wiki.derechofacil.gob.ar/index.php/P%C3%A1gina_principal; Zimmermann, Klaus,Lexicografía diferencial y lexicografía integral,(2018) Léxico dialectal y lexicografía en la Iberorromania, pp. 121-144. Cited 8 times.</t>
+          <t>Alcaraz Varó, Enrique,(2003) El inglés profesional y académico. Cited 67 times.,Madrid: Alianza; Bergenholtz, Henning, Tarp, Sven,(1995) Manual of Specialised Lexicography. Cited 153 times.,Amsterdam/Philadelphia: John Benjamins; Bergenholtz, H., Tarp, S.,The modern lexicographic theory of function. Contribution to the discussion on new and old paradigms that understand dictionaries as commodities,; Bergenholtz, H., Tarp, S.,Two opposing theories: On H.E. Wiegand's recent discovery of lexicographic functions,; Bergenholtz, H., Tarp, S.,The concept of 'dictionary usage',; Cabré, María Teresa,(1999) La terminología: representación y comunicación. Elementos para una teoría de base comunicativa y otros artículos. Cited 247 times.,Barcelona: Institut Universitari de Lingüística Aplicada, Universitat Pompeu Fabra; Corpus panhispánico de la administración pública–CorpusPAP,(accessed April 7, 2021),https://www.corpuspap.com/corpus/; Danish-English Accounting Dictionary,Hamburg. (accessed September 28, 2021),https://www.lemma.com/en/; (2018) Diccionario Panhispánico de la Administración Pública–DiPAP,(accessed April 1, 2021),https://www.corpuspap.com/diccionario/; Fuertes-Olivera, Pedro, Bergenholtz, Henning,(2011) E-lexicography: The Internet, Digital Initiatives and Lexicography. Cited 73 times.,eds. London: Continuum; Fuertes-Olivera, Pedro A., Tarp, Sven,(2014) Theory and Practice of Specialised Online Dictionaries: Lexicography Versus Terminography. Cited 88 times.,Berlin: de Gruyter; Rodilla, Bertha M.,Entre el mito y el logos: la medicina y sus formas de expresión,(2004) Objetividad científica y lenguaje: la terminología de las ciencias de la salud, pp. 15-31.; Hoffmann, Lothar,(1998) Llenguatges d’especialitat: Selecció de textos. Cited 20 times.,Barcelona: Institut Universitari de Lingüística Aplicada, Universitat Pompeu Fabra; Kilgarriff, Adam, Rychly, Pavel, Smzr, Pavel, Tugwell, David,The Sketch Engine,(2004) EURALEX Conference. Cited 624 times.; n.d. (accessed September 28, 2021),https://www.latinobarometro.org/lat.jsp,  16; Lexical Computing, Inc. n.d. Sketch Engine (accessed September 28, 2021),https://www.sketchengine.eu/,  18; n.d. (accessed September 10, 2021),http://www.mptfp.es/portal/funcionpublica/gobernanza-publica/calidad/informes/percepcion/percepcion9.html,  20; Nielsen, Sandro, Mourier, Lise,Design of a function-based internet accounting dictionary,(2004) Dictionary visions, research, and practice. Selected papers from the 12th International Symposium on Lexicography, pp. 119-135. Cited 16 times.; (2016) ,Odense. (accessed September 29, 2021),www.ordbogen.com; Pedraza, Pedraza, Betulia, María,(2019) Democratización de la lengua de la administración pública: retos de una propuesta lexicográfica digital panhispánica,PhD diss., Universitat Autònoma de Barcelona; Prins, J.E.J., Broeders, D., Griffioen, H.M.,IGovernment: A new perspective on the future of government digitisation,; Roseth, Benjamin, Reyes, Angela, Santiso, Carlos,(2018) El fin del trámite eterno: ciudadanos, burocracia y gobierno digital. Cited 6 times.,New York: Banco Interamericano de Desarollo (IDB). (accessed September 10, 2021); Santamaría Pérez, Isabel,(2009) El léxico de la ciencia y de la técnica,Madrid: Biblioteca de recursos electrónicos de humanidades; Tarp, Sven,(1992) Prolegomena til teknisk ordbog. Cited 6 times.,Aarhus: Instituto del Español, Escuela Superior de Ciencias Empresariales; (2008) Lexicography in the borderland between knowledge and non-knowledge. Cited 214 times.,Tübingen: Niemeyer,  29; La teoría funcional en pocas palabras,(2015) Estudios de Lexicografía, 4, pp. 31-42. Cited 7 times.,  31; Open data. Cited 99 times.,(accessed September 28, 2021),https://www.data.gov/; (2020) Wiki Ius: Glosario jurídico colaborativo,(accessed September 28, 2021),http://wiki.derechofacil.gob.ar/index.php/P%C3%A1gina_principal; Zimmermann, Klaus,Lexicografía diferencial y lexicografía integral,(2018) Léxico dialectal y lexicografía en la Iberorromania, pp. 121-144. Cited 8 times.</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -8102,11 +7627,6 @@
       <c r="O96" t="inlineStr">
         <is>
           <t>10.1353/DIC.2021.0025</t>
-        </is>
-      </c>
-      <c r="P96" t="inlineStr">
-        <is>
-          <t>Colombia</t>
         </is>
       </c>
     </row>
@@ -8151,7 +7671,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Adobor, H., Kudonoo, E., Daneshfar, A.,Knowledge management capability and organizational memory: a study of public sector agencies,; Aguilar, L.,Recepción y desarrollo de la disciplina de Política Pública en México. Un estudio Introductorio,(2004) Sociológica, 54 (19), pp. 15-37. Cited 4 times.; Aguilar, L.,El aporte de la Política Pública y de la Nueva Gestión Pública a la gobernanza,(2007) Revista del CLAD Reforma y Democracia, (39), pp. 5-32. Cited 31 times.; Al-Hawajreh, K.,The Impact os Structural Capital on Business Performance in Jordania Pharmaceutical Manufacturing Companies,(2013) European Journal of Business and Management, 5 (10), pp. 177-189. Cited 8 times.; Tefera, C.A., Hunsaker, W.D.,Intangible assets and organizational citizenship behavior: A conceptual model (Open Access),; Barkat, W., Beh, L.-S., Ahmed, A., Ahmed, R.,Impact of intellectual capital on innovation capability and organizational performance: An empirical investigation (Open Access),; Barrio, T., Barrio, C.,El informe del control interno en la administración pública,(2008) Auditoría Pública, (46), pp. 51-60.; Bayraktaroglu, A.E., Calisir, F., Baskak, M.,Intellectual capital and firm performance: an extended VAIC model,; Bontis, N.,Intellectual capital: an exploratory study that develops measures and models,; Bontis, N.,Assessing knowledge assets: A review of the models used to measure intellectual capital,; Bontis, N., Serenko, A.,A causal model of human capital antecedents and consequents in the financial services industry,; Cabrero, M.,La nueva gerencia pública y los procesos de reforma gubernamental en municipios de América Latina: ¿avance o retroceso para una gobernanza democrática?,(2005) ; Calogero, M.,The introduction of new public management principles in the Italian public sector,; Chowdhury, L.A.M., Rana, T., Azim, M.I.,Intellectual capital efficiency and organisational performance: In the context of the pharmaceutical industry in Bangladesh,; (2016) Estados Unidos Mexicanos. Texto vigente en el Diario Oficial de la Federación de fecha 29 de enero de 2016,https://www.scjn.gob.mx/sites/default/files/cpeum/documento/2020-05/CPEUM-079.pdf,  16; Díaz de León, C. G.,Nueva Gestión Pública y Gobernanza: Desafíos en su Implementación,(2013) Daena: International Journal of Good Conscience, 8 (1), pp. 177-194. Cited 3 times.; Edvinsson, L., Sullivan, P.,Developing a model for managing intellectual capital,; Farah, A., Abouzeid, S.,The impact of intellectual capital on performance: Evidence from the public sector,; Felício, J.A., Couto, E., Caiado, J.,Human capital, social capital and organizational performance (Open Access),; Ferreira, A.,(2014) Competing Values Framework and its impact on the intellecutal capital dimensions: Evidence,  22; García Sánchez, I. M.,La nueva gestión pública: evolución y tendencias,(2007) Presupuesto y Gasto Público, 47, pp. 37-64. Cited 42 times.; Gogan, L., Artene, A., Sarca, I., Draghici, A.,The Impact of Intellectual Capital on Organizational Performance,(2016) Procedia-Social and Behavioral Sciences, 221, pp. 194-202. Cited 56 times.; Hair, J., Hult, G., Ringle, C., Sarstedt, M.,(2014) A primer on partial least squares structural equation modeling (PLS_SEM). Cited 20446 times.,Estados Unidos: SAG Publicaton, Inc; Hashim, M., Osman, I., Alhabshi, S.,Effect of Intellectual Capital on Organizational Performance,(2015) Procedia-Social and Behavioral Science, 211, pp. 207-214. Cited 43 times.; Hejazi, R., Ghanbari, M., Alipour, M.,Intellectual, Human and Structural Capital Effects on Firm Performance as Measured by Tobin's Q,; Hernández, R., Fernández, C., Baptista, P.,(2014) Metodología de la Investigación. Cited 6043 times.,México DF: McGraw-Hill; Hesniati, Margaretha, Kristaung, R.,Intellectual Capital, Knowledge Management, and Firm Performance in Indonesia,(2019) European Journal of Business and Management Research, 4 (6), pp. 1-4. Cited 4 times.; Hormiga, E., Batista-Canino, R.M., Sánchez-Medina, A.,The Impact of Relational Capital on the Success of New Business Start-Ups,; Hsu, L.-C., Wang, C.-H.,Clarifying the Effect of Intellectual Capital on Performance: The Mediating Role of Dynamic Capability,; Hu, L.-T., Bentler, P.M.,Fit Indices in Covariance Structure Modeling: Sensitivity to Underparameterized Model Misspecification,; Joya, R., Gámez, L., Ortiz, M., Gálvez, A.,Medición del capital intelectual en empresas mexicanas,(2015) Retos de la Dirección, 9 (1), pp. 79-95. Cited 2 times.; Kweh, Q.L., Ting, I.W.K., Hanh, L.T.M., Zhang, C.,Intellectual capital, governmental presence, and firm performance of publicly listed companies in Malaysia,; Leitner, K.-H.,Intellectual Capital, Innovation, and Performance: Empirical Evidence from SMEs,; Luo, X., Griffith, D.A., Liu, S.S., Shi, Y.-Z.,The effects of customer relationships and social capital on firm performance: A chinese business illustration,; Martínez, Á., Fierro, M.,Aplicación de la téncia PLS_SEM en la gestión del conocimiento: Un enfoque técnico práctico,(2018) RIDE Revista Iberoamericana para la Investigación y el Desarrollo Educativo, 8 (16), pp. 130-164. Cited 53 times.; Martínez, V.,Nueva Gerencia Pública: Análisis Comparativo de la Administración Estatal en México,(2005) Convergencia. Revista de Ciencias Sociales, 12 (39), pp. 13-49. Cited 6 times.; Vilchis, J.M.,,(2009) Convergencia, 16 (49), pp. 199-227. Cited 3 times.; Medina, S., Zuluaga, E., López, D., Granda, F.,Aproximación a la medición del capital intelectual organizacional aplicando sistemas de lógica difusa,(2010) Cuadernos de Administración, 23 (40), pp. 365-379.; Ormond, D., Löffler, E.,Nueva gerencia pública: ¿qué tomar? y ¿qué dejar?,(1999) Revista del CLAD Reforma y Democracia, (13), pp. 1-20. Cited 11 times.; Pedraza Melo, N.A.,Organizational climate and job satisfaction of human capital: Differentiated factors in public and private organizations (Open Access),; Pedraza, N., Lavín, J., Marmolejo, J., Vasconcelo, R., García, J.,Caracterización del capital intelectual en el sector empresarial del estado de Tamaulipas, México,(2017) Visión Gerencial, 1, pp. 119-143. Cited 4 times.; Pérez, G., Ortiz, D., Zafra, J., Alcaide, L.,De la New Public Management a la Post New Public Management, evolución de las reformas en la gestión de las administraciones públicas españolas,(2011) Revista de Contabilidad y Dirección, 13, pp. 129-150. Cited 4 times.; Ramírez, Y., Dieguez-Soto, J., Manzaneque, M.,How does intellectual capital efficiency affect firm performance? The moderating role of family management,; Ritchey, F.,(2006) Estadísticca para las ciencias sociales. Cited 150 times.,2ª ed. México DF: McGrawHill; Ruiz, M.A., Pardo, A., Martín, R.S.,Models of equations structural,; Soewarno, N., Tjahjadi, B.,Measures that matter: an empirical investigation of intellectual capital and financial performance of banking firms in Indonesia (Open Access),; Stewart, T.,(1998) La nueva riqueza de las organizaciones: el capital intelectual. Cited 49 times.,Barcelona: Granica; Sveiby, K.,The Intangible Assets Monitor,(1997) Journal of human resource costing and accounting, 2 (1), pp. 73-97. Cited 404 times.; Torre, C., Tommasetti, A., Maione, G.,Technology usage, intellectual capital, firm performance and employee satisfaction: the accountants' idea,; Verger, A., Normand, R.,New public management and education: Theoretical and conceptual elements for the study of a global education reform model (Open Access),; Vicher, G.,Evolución y prospectiva de la Administración Pública en Hispanoamérica,(2009) Encrucijada, (2), pp. 1-10. Cited 2 times.; Wang, Z., Wang, N., Liang, H.,Knowledge sharing, intellectual capital and firm performance,; Wiedenhofer, R., Friedl, C., Billy, L., Olejarova, D.,Application of IC-models in a combined public-private sector setting for regional innovation in Slovakia (Open Access),; Zenteno Hidalgo, A., Durán, S.,Factores y prácticas de alto desempeño que influyen en el clima laboral: Análisis de un caso,(2016) INNOVAR, Revista de Ciencias Administrativas, 26 (56), pp. 119-135. Cited 4 times.</t>
+          <t>Adobor, H., Kudonoo, E., Daneshfar, A.,Knowledge management capability and organizational memory: a study of public sector agencies,; Aguilar, L.,Recepción y desarrollo de la disciplina de Política Pública en México. Un estudio Introductorio,(2004) Sociológica, 54 (19), pp. 15-37. Cited 4 times.; Aguilar, L.,El aporte de la Política Pública y de la Nueva Gestión Pública a la gobernanza,(2007) Revista del CLAD Reforma y Democracia, (39), pp. 5-32. Cited 31 times.; Al-Hawajreh, K.,The Impact os Structural Capital on Business Performance in Jordania Pharmaceutical Manufacturing Companies,(2013) European Journal of Business and Management, 5 (10), pp. 177-189. Cited 8 times.; Tefera, C.A., Hunsaker, W.D.,Intangible assets and organizational citizenship behavior: A conceptual model,; Barkat, W., Beh, L.-S., Ahmed, A., Ahmed, R.,Impact of intellectual capital on innovation capability and organizational performance: An empirical investigation,; Barrio, T., Barrio, C.,El informe del control interno en la administración pública,(2008) Auditoría Pública, (46), pp. 51-60.; Bayraktaroglu, A.E., Calisir, F., Baskak, M.,Intellectual capital and firm performance: an extended VAIC model,; Bontis, N.,Intellectual capital: an exploratory study that develops measures and models,; Bontis, N.,Assessing knowledge assets: A review of the models used to measure intellectual capital,; Bontis, N., Serenko, A.,A causal model of human capital antecedents and consequents in the financial services industry,; Cabrero, M.,La nueva gerencia pública y los procesos de reforma gubernamental en municipios de América Latina: ¿avance o retroceso para una gobernanza democrática?,(2005) ; Calogero, M.,The introduction of new public management principles in the Italian public sector,; Chowdhury, L.A.M., Rana, T., Azim, M.I.,Intellectual capital efficiency and organisational performance: In the context of the pharmaceutical industry in Bangladesh,; (2016) Estados Unidos Mexicanos. Texto vigente en el Diario Oficial de la Federación de fecha 29 de enero de 2016,https://www.scjn.gob.mx/sites/default/files/cpeum/documento/2020-05/CPEUM-079.pdf,  16; Díaz de León, C. G.,Nueva Gestión Pública y Gobernanza: Desafíos en su Implementación,(2013) Daena: International Journal of Good Conscience, 8 (1), pp. 177-194. Cited 3 times.; Edvinsson, L., Sullivan, P.,Developing a model for managing intellectual capital,; Farah, A., Abouzeid, S.,The impact of intellectual capital on performance: Evidence from the public sector,; Felício, J.A., Couto, E., Caiado, J.,Human capital, social capital and organizational performance,; Ferreira, A.,(2014) Competing Values Framework and its impact on the intellecutal capital dimensions: Evidence,  22; García Sánchez, I. M.,La nueva gestión pública: evolución y tendencias,(2007) Presupuesto y Gasto Público, 47, pp. 37-64. Cited 42 times.; Gogan, L., Artene, A., Sarca, I., Draghici, A.,The Impact of Intellectual Capital on Organizational Performance,(2016) Procedia-Social and Behavioral Sciences, 221, pp. 194-202. Cited 56 times.; Hair, J., Hult, G., Ringle, C., Sarstedt, M.,(2014) A primer on partial least squares structural equation modeling (PLS_SEM). Cited 20568 times.,Estados Unidos: SAG Publicaton, Inc; Hashim, M., Osman, I., Alhabshi, S.,Effect of Intellectual Capital on Organizational Performance,(2015) Procedia-Social and Behavioral Science, 211, pp. 207-214. Cited 44 times.; Hejazi, R., Ghanbari, M., Alipour, M.,Intellectual, Human and Structural Capital Effects on Firm Performance as Measured by Tobin's Q,; Hernández, R., Fernández, C., Baptista, P.,(2014) Metodología de la Investigación. Cited 6077 times.,México DF: McGraw-Hill; Hesniati, Margaretha, Kristaung, R.,Intellectual Capital, Knowledge Management, and Firm Performance in Indonesia,(2019) European Journal of Business and Management Research, 4 (6), pp. 1-4. Cited 4 times.; Hormiga, E., Batista-Canino, R.M., Sánchez-Medina, A.,The Impact of Relational Capital on the Success of New Business Start-Ups,; Hsu, L.-C., Wang, C.-H.,Clarifying the Effect of Intellectual Capital on Performance: The Mediating Role of Dynamic Capability,; Hu, L.-T., Bentler, P.M.,Fit Indices in Covariance Structure Modeling: Sensitivity to Underparameterized Model Misspecification,; Joya, R., Gámez, L., Ortiz, M., Gálvez, A.,Medición del capital intelectual en empresas mexicanas,(2015) Retos de la Dirección, 9 (1), pp. 79-95. Cited 2 times.; Kweh, Q.L., Ting, I.W.K., Hanh, L.T.M., Zhang, C.,Intellectual capital, governmental presence, and firm performance of publicly listed companies in Malaysia,; Leitner, K.-H.,Intellectual Capital, Innovation, and Performance: Empirical Evidence from SMEs (Open Access),; Luo, X., Griffith, D.A., Liu, S.S., Shi, Y.-Z.,The effects of customer relationships and social capital on firm performance: A chinese business illustration,; Martínez, Á., Fierro, M.,Aplicación de la téncia PLS_SEM en la gestión del conocimiento: Un enfoque técnico práctico,(2018) RIDE Revista Iberoamericana para la Investigación y el Desarrollo Educativo, 8 (16), pp. 130-164. Cited 54 times.; Martínez, V.,Nueva Gerencia Pública: Análisis Comparativo de la Administración Estatal en México,(2005) Convergencia. Revista de Ciencias Sociales, 12 (39), pp. 13-49. Cited 6 times.; Vilchis, J.M.,,(2009) Convergencia, 16 (49), pp. 199-227. Cited 3 times.; Medina, S., Zuluaga, E., López, D., Granda, F.,Aproximación a la medición del capital intelectual organizacional aplicando sistemas de lógica difusa,(2010) Cuadernos de Administración, 23 (40), pp. 365-379.; Ormond, D., Löffler, E.,Nueva gerencia pública: ¿qué tomar? y ¿qué dejar?,(1999) Revista del CLAD Reforma y Democracia, (13), pp. 1-20. Cited 11 times.; Pedraza Melo, N.A.,Organizational climate and job satisfaction of human capital: Differentiated factors in public and private organizations (Open Access),; Pedraza, N., Lavín, J., Marmolejo, J., Vasconcelo, R., García, J.,Caracterización del capital intelectual en el sector empresarial del estado de Tamaulipas, México,(2017) Visión Gerencial, 1, pp. 119-143. Cited 4 times.; Pérez, G., Ortiz, D., Zafra, J., Alcaide, L.,De la New Public Management a la Post New Public Management, evolución de las reformas en la gestión de las administraciones públicas españolas,(2011) Revista de Contabilidad y Dirección, 13, pp. 129-150. Cited 4 times.; Ramírez, Y., Dieguez-Soto, J., Manzaneque, M.,How does intellectual capital efficiency affect firm performance? The moderating role of family management,; Ritchey, F.,(2006) Estadísticca para las ciencias sociales. Cited 150 times.,2ª ed. México DF: McGrawHill; Ruiz, M.A., Pardo, A., Martín, R.S.,Models of equations structural,; Soewarno, N., Tjahjadi, B.,Measures that matter: an empirical investigation of intellectual capital and financial performance of banking firms in Indonesia,; Stewart, T.,(1998) La nueva riqueza de las organizaciones: el capital intelectual. Cited 49 times.,Barcelona: Granica; Sveiby, K.,The Intangible Assets Monitor,(1997) Journal of human resource costing and accounting, 2 (1), pp. 73-97. Cited 405 times.; Torre, C., Tommasetti, A., Maione, G.,Technology usage, intellectual capital, firm performance and employee satisfaction: the accountants' idea,; Verger, A., Normand, R.,New public management and education: Theoretical and conceptual elements for the study of a global education reform model (Open Access),; Vicher, G.,Evolución y prospectiva de la Administración Pública en Hispanoamérica,(2009) Encrucijada, (2), pp. 1-10. Cited 2 times.; Wang, Z., Wang, N., Liang, H.,Knowledge sharing, intellectual capital and firm performance,; Wiedenhofer, R., Friedl, C., Billy, L., Olejarova, D.,Application of IC-models in a combined public-private sector setting for regional innovation in Slovakia (Open Access),; Zenteno Hidalgo, A., Durán, S.,Factores y prácticas de alto desempeño que influyen en el clima laboral: Análisis de un caso,(2016) INNOVAR, Revista de Ciencias Administrativas, 26 (56), pp. 119-135. Cited 4 times.</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -8176,17 +7696,12 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>No Encontrado</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
           <t>10.11144/JAVERIANA.CAO34.RCIDAP</t>
-        </is>
-      </c>
-      <c r="P97" t="inlineStr">
-        <is>
-          <t>Mexico</t>
         </is>
       </c>
     </row>
@@ -8231,7 +7746,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Alarcón Peña, A.,Social economy of the market as a colombian economic constitutional system. An analysis based on the jurisprudence of the constitutional court (Open Access),; Álvarez Miranda, E.,El modelo económico de la Constitución peruana,(2014) Ius Et Veritas, (48), pp. 256-269. Cited 2 times.; Belaunde Plenge, W.,Gastos de responsabilidad social: Aspectos tributarios a considerar,(2014) Asociación Civil Derecho &amp; Sociedad, (43), pp. 15-27.; Beltrán-Llevador, J., Iñigo-Bajo, E., Mata-Segreda, A.,La responsabilidad social universitaria, el reto de su construcción permanente,(2014) Revista Iberoamericana de Educación Superior de México de la Universidad Nacional Autónoma de México IISUE, V (14), p. 16. Cited 33 times.; (2020) De estructuras a servicios. El camino a una mejor infraestructura en América Latina y el Caribe. Cited 11 times.,(Eduardo Cavallo, Andrew Powell, Tomás Serebrisky, eds),https://publications.iadb.org/publications/spanish/document/De-estructuras-a-servicios-El-camino-a-unamejor-infraestructura-en-America-Latina-y-el-Caribe.pdf; Castro Alfaro, A.,Ética empresarial en la responsabilidad social universitaria,(2013) Aglala, 4 (1), pp. 1-13. Cited 3 times.; Correa Jaramillo, J.,Evolución histórica de los conceptos de responsabilidad social empresarial y balance social,(2007) Semestre Económico de la Universidad de Medellín, 10 (20), p. 93. Cited 21 times.; Cosculluela Montaner, L.,(2014) Manual de Derecho Administrativo, pp. 21-22.,(25ta ed., 31-33, 35, 37 y 41-43). Navarra: Aranzadi; Danós Ordóñez, J.,Los principios generales del derecho en el Derecho administrativo peruano,(2008) Foro Iberoamericano de Derecho Administrativo Valladolid y Salamanca, p. 539.; Danós Ordóñez, J.,Los fines o intereses públicos o generales como criterios de interpretación de las normas administrativas para la Administración Pública,(2018) En El Derecho Administrativo como instrumento al servicio del ciudadano. Memorias del VIII Congreso de Derecho Administrativo, pp. 90-95.; (2019) La responsabilidad social universitaria en la Pontificia Universidad Católica del Perú, pp. 13-15. Cited 3 times.,20-25, 27-32 y 37-54). Lima: Dirección Académica de Responsabilidad Social,  12; Esteve Pardo, J.,La administración garante. Una aproximación,(2015) Revista de Administración Pública, (197), pp. 13-16. Cited 5 times.; (2020) Portal Web de la Facultad de Derecho de la Pontificia Universidad Católica del Perú,http://facultad.pucp.edu.pe/derecho/,  15; Gazzolo, L.,Apuntes de Derecho Administrativo Peruano,(1962) Derecho PUCP, (21), p. 19.; Ivanegra, M.,Consideraciones acerca de las potestades administrativas en general y la potestad sancionadora,(2008) Revista de Derecho Administrativo, (4), pp. 108-113.; Landa, C.,La constitucionalización del Derecho Administrativo,(2016) Themis-Revista de Derecho, (69), pp. 200-204. Cited 3 times.; Martí-Noguera, J., Calderón, A., Godenzi, A.,La responsabilidad social universitaria en Iberoamérica: Análisis de las legislaciones de Brasil, España y Perú,(2018) Revista Iberoamericana de Educación Superior, 9 (24), pp. 109-116.; Martín Mateo, R., Díez Sánchez, J.,(2012) Manual de Derecho Administrativo, pp. 26-27.,(29na ed., 29-34 y 375-380). Navarra: Aranzadi. Organización Internacional de Normalización. (2010). Guía de responsabilidad social (ISO 26000); (2020) Panorama de las Administraciones Públicas América Latina y el Caribe 2020. Cited 13 times.,París: OCDE y Banco Interamericano de Desarrollo,https://doi.org/10.1787/1256b68d-es; Puig i Campmany, M., Martínez i Hernández, A.,(2008) La responsabilidad social de la Administración. Un reto para el siglo XXI, p. 49. Cited 3 times.,Dirección de la Investigación &amp; Asociación para la Gestión Social. Barcelona: Diputación de Barcelona; Ruiz-Rico Ruiz, C.,Responsabilidad social pública y calidad democrática,(2014) Revista Derecho y Cambio Social, 11 (37), pp. 4-6. Cited 3 times.; Salmón, E.,(2014) Curso de Derecho Internacional Público, pp. 191-209. Cited 2 times.,198-199 y 289-291). Lima: Fondo Editorial PUCP; Schwalb, M., Prialé, M., Vallaeys, F.,(2019) Guía de responsabilidad social universitaria, pp. 16-20. Cited 6 times.,Lima: Universidad del Pacífico; Vallaeys, F.,(2016) Introducción a la Responsabilidad Social Universitaria RSU, pp. 76-77. Cited 9 times.,Barranquilla: Ediciones Universidad Simón Bolívar; Vallaeys, F., De la Cruz, C., Sasia, P.,Responsabilidad social universitaria,(2009) Manual de primeros pasos, pp. 6-7. Cited 154 times.; Viera Álvarez, C.,Estado social como fórmula en la Constitución chilena,(2014) Revista de Derecho Universidad Católica del Norte, 21 (2). Cited 6 times.; Villar Ezcurra, J.,Derecho Administrativo Especial,(1999) Administración Pública y actividad de los particulares: Los cauces de la actividad administrativa, pp. 21-25. Cited 4 times.; Zolezzi Ibarcena, L.,La responsabilidad social en la formación de los abogados,(2010) Derecho PUCP, (65), pp. 251-262. Cited 3 times.</t>
+          <t>Alarcón Peña, A.,Social economy of the market as a colombian economic constitutional system. An analysis based on the jurisprudence of the constitutional court,; Álvarez Miranda, E.,El modelo económico de la Constitución peruana,(2014) Ius Et Veritas, (48), pp. 256-269. Cited 2 times.; Belaunde Plenge, W.,Gastos de responsabilidad social: Aspectos tributarios a considerar,(2014) Asociación Civil Derecho &amp; Sociedad, (43), pp. 15-27.; Beltrán-Llevador, J., Iñigo-Bajo, E., Mata-Segreda, A.,La responsabilidad social universitaria, el reto de su construcción permanente,(2014) Revista Iberoamericana de Educación Superior de México de la Universidad Nacional Autónoma de México IISUE, V (14), p. 16. Cited 33 times.; (2020) De estructuras a servicios. El camino a una mejor infraestructura en América Latina y el Caribe. Cited 11 times.,(Eduardo Cavallo, Andrew Powell, Tomás Serebrisky, eds),https://publications.iadb.org/publications/spanish/document/De-estructuras-a-servicios-El-camino-a-unamejor-infraestructura-en-America-Latina-y-el-Caribe.pdf; Castro Alfaro, A.,Ética empresarial en la responsabilidad social universitaria,(2013) Aglala, 4 (1), pp. 1-13. Cited 3 times.; Correa Jaramillo, J.,Evolución histórica de los conceptos de responsabilidad social empresarial y balance social,(2007) Semestre Económico de la Universidad de Medellín, 10 (20), p. 93. Cited 21 times.; Cosculluela Montaner, L.,(2014) Manual de Derecho Administrativo, pp. 21-22.,(25ta ed., 31-33, 35, 37 y 41-43). Navarra: Aranzadi; Danós Ordóñez, J.,Los principios generales del derecho en el Derecho administrativo peruano,(2008) Foro Iberoamericano de Derecho Administrativo Valladolid y Salamanca, p. 539.; Danós Ordóñez, J.,Los fines o intereses públicos o generales como criterios de interpretación de las normas administrativas para la Administración Pública,(2018) En El Derecho Administrativo como instrumento al servicio del ciudadano. Memorias del VIII Congreso de Derecho Administrativo, pp. 90-95.; (2019) La responsabilidad social universitaria en la Pontificia Universidad Católica del Perú, pp. 13-15. Cited 3 times.,20-25, 27-32 y 37-54). Lima: Dirección Académica de Responsabilidad Social,  12; Esteve Pardo, J.,La administración garante. Una aproximación,(2015) Revista de Administración Pública, (197), pp. 13-16. Cited 5 times.; (2020) Portal Web de la Facultad de Derecho de la Pontificia Universidad Católica del Perú,http://facultad.pucp.edu.pe/derecho/,  15; Gazzolo, L.,Apuntes de Derecho Administrativo Peruano,(1962) Derecho PUCP, (21), p. 19.; Ivanegra, M.,Consideraciones acerca de las potestades administrativas en general y la potestad sancionadora,(2008) Revista de Derecho Administrativo, (4), pp. 108-113.; Landa, C.,La constitucionalización del Derecho Administrativo,(2016) Themis-Revista de Derecho, (69), pp. 200-204. Cited 3 times.; Martí-Noguera, J., Calderón, A., Godenzi, A.,La responsabilidad social universitaria en Iberoamérica: Análisis de las legislaciones de Brasil, España y Perú,(2018) Revista Iberoamericana de Educación Superior, 9 (24), pp. 109-116.; Martín Mateo, R., Díez Sánchez, J.,(2012) Manual de Derecho Administrativo, pp. 26-27.,(29na ed., 29-34 y 375-380). Navarra: Aranzadi. Organización Internacional de Normalización. (2010). Guía de responsabilidad social (ISO 26000); (2020) Panorama de las Administraciones Públicas América Latina y el Caribe 2020. Cited 13 times.,París: OCDE y Banco Interamericano de Desarrollo,https://doi.org/10.1787/1256b68d-es; Puig i Campmany, M., Martínez i Hernández, A.,(2008) La responsabilidad social de la Administración. Un reto para el siglo XXI, p. 49. Cited 3 times.,Dirección de la Investigación &amp; Asociación para la Gestión Social. Barcelona: Diputación de Barcelona; Ruiz-Rico Ruiz, C.,Responsabilidad social pública y calidad democrática,(2014) Revista Derecho y Cambio Social, 11 (37), pp. 4-6. Cited 3 times.; Salmón, E.,(2014) Curso de Derecho Internacional Público, pp. 191-209. Cited 2 times.,198-199 y 289-291). Lima: Fondo Editorial PUCP; Schwalb, M., Prialé, M., Vallaeys, F.,(2019) Guía de responsabilidad social universitaria, pp. 16-20. Cited 6 times.,Lima: Universidad del Pacífico; Vallaeys, F.,(2016) Introducción a la Responsabilidad Social Universitaria RSU, pp. 76-77. Cited 9 times.,Barranquilla: Ediciones Universidad Simón Bolívar; Vallaeys, F., De la Cruz, C., Sasia, P.,Responsabilidad social universitaria,(2009) Manual de primeros pasos, pp. 6-7. Cited 154 times.; Viera Álvarez, C.,Estado social como fórmula en la Constitución chilena,(2014) Revista de Derecho Universidad Católica del Norte, 21 (2). Cited 6 times.; Villar Ezcurra, J.,Derecho Administrativo Especial,(1999) Administración Pública y actividad de los particulares: Los cauces de la actividad administrativa, pp. 21-25. Cited 4 times.; Zolezzi Ibarcena, L.,La responsabilidad social en la formación de los abogados,(2010) Derecho PUCP, (65), pp. 251-262. Cited 3 times.</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -8251,7 +7766,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>No Encontrado</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -8262,11 +7777,6 @@
       <c r="O98" t="inlineStr">
         <is>
           <t>10.18800/derechopucp.202102.016</t>
-        </is>
-      </c>
-      <c r="P98" t="inlineStr">
-        <is>
-          <t>Peru</t>
         </is>
       </c>
     </row>
@@ -8311,7 +7821,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Andersson, S., Heywood, P.M.,The politics of perception: Use and abuse of transparency international's approach to measuring corruption,; Andersson, S.,Beyond Unidimensional Measurement of Corruption (Open Access),; Andersson, S., Anechiarico, F.,Corruption and corruption control: Democracy in the balance,; Arellano Gault, D.,Corruption as an organizational process: Understanding the logic of the denormalization of corruption (Open Access),; (2021) Combating Corruption in Finland,Anti-Corruption.fi Helsinki, Ministerio de Justicia, disponible en: [fecha de consulta: 23 de abril de 2021],https://korruptiontorjunta.fi/en/combating-corruption-in-finland; Arís, Manuel, Engel, Eduardo, Jaraquemada, María,(2020) Reformas anticorrupción en Chile 2015-2017: Cómo se hizo para mejorar la democracia, pp. 1-106. Cited 3 times.,Bogotá y Santiago de Chile, Fundación Konrad Adenauer/Espacio Público; Bautista, Óscar Diego,(2015) Ética pública frente a corrupción,(ed) Toluca de Lerdo, Instituto de Administración Pública del Estado de México; Caiden, Gerald,What Really Is Public Maladministration?,(1991) Public Administration Review, 51 (6), pp. 486-493. Cited 72 times.; Carrizo, Daniella, Silva, Francisco,(2017) Chile en la implementación transversal de códigos de ética pública: Una metodología participativa. Cited 2 times.,Santiado de Chile, Ministerio de Hacienda; (2015) ,Consejo Asesor Presidencial contra los Conflictos de Interés, el Tráfico de Influencias y la Corrupción Informe final, Santiago de Chile,  11; (2017) Más de 250 servicios públicos entregan sus Códigos de Ética a la Presidenta Michelle Bachelet,dnsc (Dirección Nacional del Servicio Civil) 20 de junio, Santiago de Chile, Ministerio de Hacienda-dnsc, disponible en: [fecha de consulta: 19 de septiembre de 2020],https://www.serviciocivil.cl/noticias/servicio-civil/mas-de-250-servicios-publicos-entregan-sus-codigos-de-etica-a-la-presidenta-michelle-bachelet/; (2021) ,Brasilia, mjsp, disponible en: [fecha de consulta: 23 de abril de 2021],https://www.justica.gov.br/sua-protecao/lavagem-de-dinheiro/enccla; Gilman, Stuart C.,(2005) Ethics Codes and Codes of Conduct as Tools for Promoting an Ethical and Professional Public Service: Comparative Successes and Lessons. Cited 71 times.,Washington, D.C., Banco Mundial; Heywood, Paul, Marquette, Heather, Peiffer, Caryn, Zuñiga, Nieves,(2017) Integrity and Integrity Management in Public Life. Cited 8 times.,University ot Nottingham/University of Birmingham; Huberts, L.W.J.C.,Integrity: What it is and Why it is Important (Open Access),; Huberts, Leo, Hoekstra, Alain,(2016) Integrity Management in The Public Sector-The Dutch Approach. Cited 9 times.,(eds) La Haya, Dutch National Integrity Office; Huberts, L., van Montfort, A.,Building ethical organisations: The importance of organisational integrity systems,; Huberts, Leo, van Montfort, André,Integrity of Governance: Towards a System Approach,(2020) Global Corruption and Ethics Management, pp. 184-193. Cited 3 times.; Huberts, Leo, Anechiarico, Frank, Six, Frédérique,(2008) Local Integrity Systems: World Cities Fighting Corruption and Safeguarding Integrity. Cited 42 times.,La Haya, BJu Legal Publishers; (2018) Collection Anti-corruption,Londres, Gobierno del Reino Unido, disponible en: [fecha de consulta: 23 de abril de 2021],https://www.gov.uk/government/collections/anti-corruption; (2016) issai 130,intosai Viena,  23; Lagos, Nicolás,Pseudomorfismo, cómo nos convencimos que Chile es un país corrupto: Herramientas para promover la integridad y la ética pública en Latinoamérica,(2019) , pp. 41-100.; Lagos, Nicolás, Pliscoff, Cristian,Implementando los sistemas de integridad en el sector público chileno: Reflexiones a partir del manual de la Organización para la Cooperación y el Desarrollo Económico sobre integridad pública,(2020) Revista Chilena de la Administración del Estado, 3, pp. 35-48.; Macaulay, M., Newman, C., Hickey, G.,Towards a Model of Local Integrity Systems: The Experiences of Local Government in Great Britain,; Maesschalck, J.,Approaches to Ethics Management in the Public Sector : A Proposed Extension of the Compliance-Integrity Continuum,; Maesschalck, Jeroen,Facing the Dark Side,(2019) Global Corruption and Ethics Management: Translating Theory into Action. Cited 2 times.; Maesschalck, Jeroen, Bertók, János,(2009) Towards a Sound Integrity Framework: Instruments, Processes, Structures and Conditions for Implementation. Cited 33 times.,París, ocde; Menzel, Donald C.,Ethics Management in Public Organizations: What, Why, and How?,(2001) Handbook of Administrative Ethics, pp. 355-366. Cited 11 times.; (2020) oecd Public Integrity Handbook. Cited 7 times.,ocde (Organización para la Cooperación y el Desarrollo Económicos) París, ocde,  32; (2004) Convención de las Naciones Unidas contra la Corrupción. Cited 7 times.,Nueva York,  34; Petersen Cortés, Germán,Un modelo de choques e interrupciones de reforma anticorrupción: Evidencia del caso mexicano,(2020) Gestión y Política Pública, XXIX (2), pp. 295-319. Cited 3 times.; Pliscoff-Varas, C.,Implementing the new public management: Problems and challenges to public ethics. The Chilean case,; (2017) Sistemas de integridad y códigos de ética,pnud (Programa de las Naciones Unidas para el Desarrollo) Santiago de Chile,  38; Quesada, M.G., Jiménez-Sánchez, F., Villoria, M.,Building Local Integrity Systems in Southern Europe: The case of urban local corruption in Spain,; Rohr, John A.,(1989) Ethics for Bureaucrats: An Essay on Law and Virtue. Cited 400 times.,2a. ed., Nueva York, Marcel Dekker; Rose-Ackerman, S., Palifka, B.J.,Corruption and government: Causes, consequences, and reform: Second edition (Open Access),; Ballesteros, Sandoval, Eréndira, Irma,Corrupción y desafíos organizacionales en un mundo de asociaciones público-privadas,(2016) Gestión y Política Pública, XXV (2), pp. 365-413. Cited 4 times.; Silva, P.,‘A Poor but Honest Country’: Corruption and Probity in Chile,; (2021) ¿Qué hacemos?. Cited 24 times.,Ciudad de México, sna, disponible en: [fecha de consulta: 23 de abril de 2021],https://sna.org.mx/que-hacemos/; (2020) What Is Corruption?. Cited 54 times.,disponible en: [fecha de consulta: 8 de julio de 2020],https://www.transparency.org/what-is-corruption#define; (2019) Directive (EU) 2019/1937 of the European Parliament and of the Council on the Protection of Persons Who Report Breaches of Union Law. Cited 3 times.,23 de octubre,  47</t>
+          <t>Andersson, S., Heywood, P.M.,The politics of perception: Use and abuse of transparency international's approach to measuring corruption,; Andersson, S.,Beyond Unidimensional Measurement of Corruption,; Andersson, S., Anechiarico, F.,Corruption and corruption control: Democracy in the balance,; Arellano Gault, D.,Corruption as an organizational process: Understanding the logic of the denormalization of corruption,; (2021) Combating Corruption in Finland,Anti-Corruption.fi Helsinki, Ministerio de Justicia, disponible en: [fecha de consulta: 23 de abril de 2021],https://korruptiontorjunta.fi/en/combating-corruption-in-finland; Arís, Manuel, Engel, Eduardo, Jaraquemada, María,(2020) Reformas anticorrupción en Chile 2015-2017: Cómo se hizo para mejorar la democracia, pp. 1-106. Cited 3 times.,Bogotá y Santiago de Chile, Fundación Konrad Adenauer/Espacio Público; Bautista, Óscar Diego,(2015) Ética pública frente a corrupción,(ed) Toluca de Lerdo, Instituto de Administración Pública del Estado de México; Caiden, Gerald,What Really Is Public Maladministration?,(1991) Public Administration Review, 51 (6), pp. 486-493. Cited 72 times.; Carrizo, Daniella, Silva, Francisco,(2017) Chile en la implementación transversal de códigos de ética pública: Una metodología participativa. Cited 2 times.,Santiado de Chile, Ministerio de Hacienda; (2015) ,Consejo Asesor Presidencial contra los Conflictos de Interés, el Tráfico de Influencias y la Corrupción Informe final, Santiago de Chile,  11; (2017) Más de 250 servicios públicos entregan sus Códigos de Ética a la Presidenta Michelle Bachelet,dnsc (Dirección Nacional del Servicio Civil) 20 de junio, Santiago de Chile, Ministerio de Hacienda-dnsc, disponible en: [fecha de consulta: 19 de septiembre de 2020],https://www.serviciocivil.cl/noticias/servicio-civil/mas-de-250-servicios-publicos-entregan-sus-codigos-de-etica-a-la-presidenta-michelle-bachelet/; (2021) ,Brasilia, mjsp, disponible en: [fecha de consulta: 23 de abril de 2021],https://www.justica.gov.br/sua-protecao/lavagem-de-dinheiro/enccla; Gilman, Stuart C.,(2005) Ethics Codes and Codes of Conduct as Tools for Promoting an Ethical and Professional Public Service: Comparative Successes and Lessons. Cited 71 times.,Washington, D.C., Banco Mundial; Heywood, Paul, Marquette, Heather, Peiffer, Caryn, Zuñiga, Nieves,(2017) Integrity and Integrity Management in Public Life. Cited 8 times.,University ot Nottingham/University of Birmingham; Huberts, L.W.J.C.,Integrity: What it is and Why it is Important,; Huberts, Leo, Hoekstra, Alain,(2016) Integrity Management in The Public Sector-The Dutch Approach. Cited 9 times.,(eds) La Haya, Dutch National Integrity Office; Huberts, L., van Montfort, A.,Building ethical organisations: The importance of organisational integrity systems,; Huberts, Leo, van Montfort, André,Integrity of Governance: Towards a System Approach,(2020) Global Corruption and Ethics Management, pp. 184-193. Cited 3 times.; Huberts, Leo, Anechiarico, Frank, Six, Frédérique,(2008) Local Integrity Systems: World Cities Fighting Corruption and Safeguarding Integrity. Cited 42 times.,La Haya, BJu Legal Publishers; (2018) Collection Anti-corruption,Londres, Gobierno del Reino Unido, disponible en: [fecha de consulta: 23 de abril de 2021],https://www.gov.uk/government/collections/anti-corruption; (2016) issai 130,intosai Viena,  23; Lagos, Nicolás,Pseudomorfismo, cómo nos convencimos que Chile es un país corrupto: Herramientas para promover la integridad y la ética pública en Latinoamérica,(2019) , pp. 41-100.; Lagos, Nicolás, Pliscoff, Cristian,Implementando los sistemas de integridad en el sector público chileno: Reflexiones a partir del manual de la Organización para la Cooperación y el Desarrollo Económico sobre integridad pública,(2020) Revista Chilena de la Administración del Estado, 3, pp. 35-48.; Macaulay, M., Newman, C., Hickey, G.,Towards a Model of Local Integrity Systems: The Experiences of Local Government in Great Britain,; Maesschalck, J.,Approaches to Ethics Management in the Public Sector : A Proposed Extension of the Compliance-Integrity Continuum,; Maesschalck, Jeroen,Facing the Dark Side,(2019) Global Corruption and Ethics Management: Translating Theory into Action. Cited 2 times.; Maesschalck, Jeroen, Bertók, János,(2009) Towards a Sound Integrity Framework: Instruments, Processes, Structures and Conditions for Implementation. Cited 33 times.,París, ocde; Menzel, Donald C.,Ethics Management in Public Organizations: What, Why, and How?,(2001) Handbook of Administrative Ethics, pp. 355-366. Cited 11 times.; (2020) oecd Public Integrity Handbook. Cited 7 times.,ocde (Organización para la Cooperación y el Desarrollo Económicos) París, ocde,  32; (2004) Convención de las Naciones Unidas contra la Corrupción. Cited 7 times.,Nueva York,  34; Petersen Cortés, Germán,Un modelo de choques e interrupciones de reforma anticorrupción: Evidencia del caso mexicano,(2020) Gestión y Política Pública, XXIX (2), pp. 295-319. Cited 3 times.; Pliscoff-Varas, C.,Implementing the new public management: Problems and challenges to public ethics. The Chilean case,; (2017) Sistemas de integridad y códigos de ética,pnud (Programa de las Naciones Unidas para el Desarrollo) Santiago de Chile,  38; Quesada, M.G., Jiménez-Sánchez, F., Villoria, M.,Building Local Integrity Systems in Southern Europe: The case of urban local corruption in Spain (Open Access),; Rohr, John A.,(1989) Ethics for Bureaucrats: An Essay on Law and Virtue. Cited 400 times.,2a. ed., Nueva York, Marcel Dekker; Rose-Ackerman, S., Palifka, B.J.,Corruption and government: Causes, consequences, and reform: Second edition,; Ballesteros, Sandoval, Eréndira, Irma,Corrupción y desafíos organizacionales en un mundo de asociaciones público-privadas,(2016) Gestión y Política Pública, XXV (2), pp. 365-413. Cited 4 times.; Silva, P.,‘A Poor but Honest Country’: Corruption and Probity in Chile (Open Access),; (2021) ¿Qué hacemos?. Cited 24 times.,Ciudad de México, sna, disponible en: [fecha de consulta: 23 de abril de 2021],https://sna.org.mx/que-hacemos/; (2020) What Is Corruption?. Cited 54 times.,disponible en: [fecha de consulta: 8 de julio de 2020],https://www.transparency.org/what-is-corruption#define; (2019) Directive (EU) 2019/1937 of the European Parliament and of the Council on the Protection of Persons Who Report Breaches of Union Law. Cited 3 times.,23 de octubre,  47</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -8342,11 +7852,6 @@
       <c r="O99" t="inlineStr">
         <is>
           <t>10.29265/gypp.v30i3.961</t>
-        </is>
-      </c>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t>Chile</t>
         </is>
       </c>
     </row>
@@ -8391,7 +7896,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Acker, S.,The concerns of Canadian women academics: Will faculty shortages make things better or worse?,(2003) McGill Journal of Education, 38, pp. 391-406. Cited 19 times.; Alas, R., Mousa, M.,Cultural diversity and business schools' curricula: A case from Egypt (Open Access),; Aluko, Y.,Work-family conflict and coping strategies adopted by women in academia,(2009) Gender &amp; Behavior, 71, pp. 2095-2123. Cited 20 times.; Alvesson, M., Kärreman, D.,(2011) Qualitative Research and Theory Development. Cited 233 times.,Sage, London; Bailyn, L.,Academic careers and gender equity: Lessons learned from MIT,; Bell, S.,(2009) Women in science in Australia: Maximizing productivity, diversity, and innovation. Cited 45 times.,FASTS; Bogdan, R.C., Biklen, S.K.,(2007) Qualitative research for education: An introduction to theories and methods. Cited 7530 times.,5th, Allyn and Bacon, &amp;, ed; Bonawitz, M., Andel, N.,(2009) The glass ceiling is made of concrete: The barriers to promotion and tenure of women in American academia. Cited 4 times.,Forum on Public Policy Online; Bornstein, R.,Chapter 7: Women and the college presidency,(2008) Unfinished agendas: New and continuing gender challenges in higher education, pp. 162-184. Cited 13 times.; Bozeman, Gaughan, Fay,(2013) Power to do … what? Department heads’ power and strategic priorities,  11; Cho, T., Ryu, K.,The impacts of family-work conflict and social comparison standards on Chinese women faculties’ career expectation and success, moderating by self-efficacy,; Choo, H.Y., Ferree, M.M.,Practicing Intersectionality in Sociological Research: A Critical Analysis of Inclusions, Interactions, and Institutions in the Study of Inequalities,; Corneille, M., Lee, A., Allen, S., Cannady, J., Guess, A.,Barriers to the advancement of women of color faculty in STEM: The need for promoting equity using an intersectional framework,; Crenshaw, K.,Mapping the margins: Intersectionality, identity politics, and violence against women of color,(1991) Stanford Law Review, 43 (6), pp. 1241-1299. Cited 11861 times.; Cubillo, L., Brown, M.,Women into educational leadership and management: International differences?,; Devine, D., Grummell, B., Lynch, K.,Crafting the elastic self? Gender and identities in senior appointments in Irish education (Open Access),; Dobbin, F., Jung, J.,Board diversity and corporate performance: Filling in the gaps: Corporate board gender diversity and stock performance: The competence gap or institutional investor bias?,(2011) North Carolina Law Review, 89, p. 809. Cited 128 times.; Doherty, L., Manfredi, S.,Women's progression to senior positions in English universities,; Eisenhardt, K.M.,Building Theories from Case Study Research,(1989) The Academy of Management Review, 14 (4), pp. 532-550. Cited 26474 times.; Ensour, W., Al Maaitah, H., Kharabsheh, R.,Barriers to Arab female academics’ career development: Legislation, HR policies and socio-cultural variables,; Espinosa, L.L.,Pipelines and pathways: Women of color in undergraduate stem majors and the college experiences that contribute to persistence,; (2013) Gender equality policies in public research. Based on a survey among members of the Helsinki Group on gender in research and innovation. Cited 25 times.,  24,Gelman, A., Hill, J.; Greenhaus, J.H., Beutell, N.J.,Sources of conflict between work and family roles,(1985) Academy of Management Review, 10 (1), pp. 76-88. Cited 4573 times.; Grove, J.,Gender still on the Agenda,(2013) Times Higher Education, pp. 37-41. Cited 4 times.; Hunt, V.H., Morimoto, S., Zajicek, A., Lisnic, R.,Intersectionality and dismantling institutional privilege: The case of the NSF advance program,(2012) Race, Gender &amp; Class, 19 (1-2), pp. 266-290. Cited 26 times.; Jamali, D., Sidani, Y., Safieddine, A.,Constraints facing working women in Lebanon: An insider view,; Kalev, A., Dobbin, F., Kelly, E.,Best practices or best guesses? Assessing the efficacy of corporate affirmative action and diversity policies,; Kandade, K., Samara, G., Parada, M.J., Dawson, A.,From family successors to successful business leaders: A qualitative study of how high-quality relationships develop in family businesses (Open Access),; Keiser, L.R., Wilkins, V.M., Meier, K.J., Holland, C.A.,Lipstick and logarithms: Gender, institutional context, and representative bureaucracy (Open Access),; Kvale, S.,The Qualitative Research Interview: A Phenomenological and a Hermeneutical Mode of Understanidng,; Luke, C.,One step up, two down: Women in higher education management in Southeast Asia,; Mabokela, R.O.,"Donkeys of the University": Organizational culture and its impact on South African women administrators,; Madsen, S.R.,Chinese women administrators in higher education: Developing leadership throughout life,; Mai, T.T.B.,Phu nu va su tham gia vao cong tac quan ly nha truong dai hoc o Vietnam,(2007) Nghien Cuugia Dinh Va Gioi, 17 (3), pp. 25-35. Cited 4 times.; Malcom, L.E., Malcom, S.M.,The double bind: The next generation,; Maxwell, J.A.,(1996) Qualitative research design: An interactive approach. Cited 7299 times.,Sage; Mcneill, D.,Few women reach the top in Japan's universities,; Mensch, B.S., Ibrahim, B.L., Lee, S.M., El-Gibaly, O.,Gender-role attitudes among Egyptian adolescents,; Metcalfe, B.D.,Exploring cultural dimensions of gender and management in the Middle East,; Meyerson, D.F., Fletcher, J.K.,(2000) A modest manifesto for shattering the glass ceiling. Cited 322 times.,Harvard Business Review; Morley, L.,Women and higher education leadership: Absences and aspirations,(2013) Stimulus paper for the leadership foundation for higher education, leadership foundation. Cited 66 times.; Mousa, M., Alas, R.,Cultural diversity and organizational commitment: A study on teachers of primary public schools in Menoufia (Egypt),(2016) International Business Research, 9 (7), p. 154. Cited 9 times.; Mousa, M., Alas, R.,Organizational commitment: A case study of Egyptian teachers post revolution,(2016) International Journal of Business Administration, 7 (4), pp. 33-42. Cited 7 times.; Mousa, M., Abdelgaffar, H.A., Ayoubi, R.M.,Responsible management education in Egyptian public business schools: Are academics ready?,; Mousa, M., Ayoubi, R.M.,Inclusive/exclusive talent management, responsible leadership and organizational downsizing: A study of academics in Egyptian public business schools,; Mousa, M., Ayoubi, R.M.,Talent management practices: perceptions of academics in Egyptian public business schools,; Mousa, M., Massoud, H.K., Ayoubi, R.M., Abdelgaffar, H.A.,Should responsible management education become a priority? A qualitative study of academics in Egyptian public business schools (Open Access),; Mousa, M., Massoud, H.K., Ayoubi, R.M., Puhakka, V.,Barriers of organizational inclusion: A study among academics in Egyptian public business schools (Open Access),; Mousa, M., Massoud, H.K., Ayoubi, R.M., Puhakka, V.,Barriers of organizational inclusion: A study among academics in Egyptian public business schools (Open Access),; Mousa, M., Massoud, H.K., Ayoubi, R.M.,Organizational learning, authentic leadership and individual-level resistance to change: A study of Egyptian academics,; Mousa, M.,How do nurses perceive their cultural diversity? An exploratory case study,(2017) African Journal of Business Management, 11 (17), pp. 446-455. Cited 15 times.; Mousa, M.,Organizational inclusion and academics’ psychological contract: Can responsible leadership mediate the relationship?,; Mousa, M.,Academia is racist: Barriers women faculty face in academic public contexts,; Mousa, M.,Does Gender Diversity Affect Workplace Happiness for Academics? The Role of Diversity Management and Organizational Inclusion (Open Access),; Mousa, M.,It is not a man's world: perceptions by male faculty of the status and representation of their female colleagues,; Mousa, M.,Diversity management in Egyptian public contexts: When the heat yields cold reactions,(2020) Global Encyclopedia of public administration, public policy, and governance. Cited 666 times.; Muhonen, T.,Exploring gender harassment among university teachers and researchers (Open Access),; (2010) Gender differences at critical transitions in the careers of science, engineering, and mathematics faculty. Cited 144 times.,The National Academies Press,  61; Neale, J., Özkanli, O.,Organisational barriers for women in senior management: A comparison of Turkish and New Zealand universities,; Ng, T.W.H., Eby, L.T., Sorensen, K.L., Feldman, D.C.,Predictors of objective and subjective career success: A meta-analysis,; Nguyen, T.L.H.,Barriers to and facilitators of female Deans' career advancement in higher education: An exploratory study in Vietnam (Open Access),; Nseer, N.,(2015) Working and discrimination in the Jordanian private sector. Cited 2 times.,Alwarraq; O'Neil, D.A., Hopkins, M.M., Bilimoria, D.,Women's careers at the start of the 21st century: Patterns and paradoxes,; Omair, K.,Women in management in the Arab context,; Ong, M., Wright, C., Espinosa, L.L., Orfield, G.,Inside the double bind: A Synthesis of empirical research on undergraduate and graduate women of color in science, technology, engineering, and mathematics,; Oplatka, I.,Women in educational administration within developing countries: Towards a new international research agenda,; Penney, S.C.,Balancing family and career on the academic tightrope,(2015) Canadian Journal of Higher Education, 45 (4), pp. 457-479. Cited 13 times.; Preko, A.,Attitude of male employees toward female managers in selected organizations in Ghana,(2012) Journal of Arts, Sciences and Commerce, 3 (3), pp. 86-93. Cited 7 times.; Romanowski, M., Al-Hassan, F.,Arab Middle Eastern women in Qatar and their perspectives on the barriers to leadership: Incorporating transformative learning theory to improve leadership skills,(2013) Near and Middle Eastern Journal of Research in Education, 3, pp. 1-13. Cited 11 times.; Rosser, S.V.,Using power to advance: Institutional barriers identified by women scientists and engineers,(2004) NWSA Journal, 16 (1), pp. 50-78. Cited 51 times.; Rudman, L.A., Phelan, J.E.,Backlash effects for disconfirming gender stereotypes in organizations,; Shen, H.,Inequality quantified: Mind the gender gap (Open Access),; Sidani, Y.M., Konrad, A., Karam, C.M.,From female leadership advantage to female leadership deficit: A developing country perspective,; Sidani, Y.,Women, work, and Islam in Arab societies,; Sowa, J.E., Selden, S.C.,Administrative Discretion and Active Representation: An Expansion of the Theory of Representative Bureaucracy,; Strauss, A., Corbin, J.,(1990) Basics of Qualitative Research: Grounded Theory Procedures and Techniques. Cited 62065 times.,London: Sage Publications; Sturm, S.,The architecture of inclusion: Advancing workplace equity in higher education,(2006) Harvard Journal of Law &amp; Gender, 29 (2), pp. 247-334. Cited 128 times.</t>
+          <t>Acker, S.,The concerns of Canadian women academics: Will faculty shortages make things better or worse?,(2003) McGill Journal of Education, 38, pp. 391-406. Cited 19 times.; Alas, R., Mousa, M.,Cultural diversity and business schools' curricula: A case from Egypt,; Aluko, Y.,Work-family conflict and coping strategies adopted by women in academia,(2009) Gender &amp; Behavior, 71, pp. 2095-2123. Cited 20 times.; Alvesson, M., Kärreman, D.,(2011) Qualitative Research and Theory Development. Cited 233 times.,Sage, London; Bailyn, L.,Academic careers and gender equity: Lessons learned from MIT,; Bell, S.,(2009) Women in science in Australia: Maximizing productivity, diversity, and innovation. Cited 45 times.,FASTS; Bogdan, R.C., Biklen, S.K.,(2007) Qualitative research for education: An introduction to theories and methods. Cited 7541 times.,5th, Allyn and Bacon, &amp;, ed; Bonawitz, M., Andel, N.,(2009) The glass ceiling is made of concrete: The barriers to promotion and tenure of women in American academia. Cited 4 times.,Forum on Public Policy Online; Bornstein, R.,Chapter 7: Women and the college presidency,(2008) Unfinished agendas: New and continuing gender challenges in higher education, pp. 162-184. Cited 13 times.; Bozeman, Gaughan, Fay,(2013) Power to do … what? Department heads’ power and strategic priorities,  11; Cho, T., Ryu, K.,The impacts of family-work conflict and social comparison standards on Chinese women faculties’ career expectation and success, moderating by self-efficacy,; Choo, H.Y., Ferree, M.M.,Practicing Intersectionality in Sociological Research: A Critical Analysis of Inclusions, Interactions, and Institutions in the Study of Inequalities,; Corneille, M., Lee, A., Allen, S., Cannady, J., Guess, A.,Barriers to the advancement of women of color faculty in STEM: The need for promoting equity using an intersectional framework,; Crenshaw, K.,Mapping the margins: Intersectionality, identity politics, and violence against women of color,(1991) Stanford Law Review, 43 (6), pp. 1241-1299. Cited 11979 times.; Cubillo, L., Brown, M.,Women into educational leadership and management: International differences?,; Devine, D., Grummell, B., Lynch, K.,Crafting the elastic self? Gender and identities in senior appointments in Irish education,; Dobbin, F., Jung, J.,Board diversity and corporate performance: Filling in the gaps: Corporate board gender diversity and stock performance: The competence gap or institutional investor bias?,(2011) North Carolina Law Review, 89, p. 809. Cited 129 times.; Doherty, L., Manfredi, S.,Women's progression to senior positions in English universities,; Eisenhardt, K.M.,Building Theories from Case Study Research,(1989) The Academy of Management Review, 14 (4), pp. 532-550. Cited 26521 times.; Ensour, W., Al Maaitah, H., Kharabsheh, R.,Barriers to Arab female academics’ career development: Legislation, HR policies and socio-cultural variables,; Espinosa, L.L.,Pipelines and pathways: Women of color in undergraduate stem majors and the college experiences that contribute to persistence,; (2013) Gender equality policies in public research. Based on a survey among members of the Helsinki Group on gender in research and innovation. Cited 25 times.,  24,Gelman, A., Hill, J.; Greenhaus, J.H., Beutell, N.J.,Sources of conflict between work and family roles,(1985) Academy of Management Review, 10 (1), pp. 76-88. Cited 4589 times.; Grove, J.,Gender still on the Agenda,(2013) Times Higher Education, pp. 37-41. Cited 4 times.; Hunt, V.H., Morimoto, S., Zajicek, A., Lisnic, R.,Intersectionality and dismantling institutional privilege: The case of the NSF advance program,(2012) Race, Gender &amp; Class, 19 (1-2), pp. 266-290. Cited 26 times.; Jamali, D., Sidani, Y., Safieddine, A.,Constraints facing working women in Lebanon: An insider view,; Kalev, A., Dobbin, F., Kelly, E.,Best practices or best guesses? Assessing the efficacy of corporate affirmative action and diversity policies,; Kandade, K., Samara, G., Parada, M.J., Dawson, A.,From family successors to successful business leaders: A qualitative study of how high-quality relationships develop in family businesses,; Keiser, L.R., Wilkins, V.M., Meier, K.J., Holland, C.A.,Lipstick and logarithms: Gender, institutional context, and representative bureaucracy,; Kvale, S.,The Qualitative Research Interview: A Phenomenological and a Hermeneutical Mode of Understanidng,; Luke, C.,One step up, two down: Women in higher education management in Southeast Asia,; Mabokela, R.O.,"Donkeys of the University": Organizational culture and its impact on South African women administrators,; Madsen, S.R.,Chinese women administrators in higher education: Developing leadership throughout life,; Mai, T.T.B.,Phu nu va su tham gia vao cong tac quan ly nha truong dai hoc o Vietnam,(2007) Nghien Cuugia Dinh Va Gioi, 17 (3), pp. 25-35. Cited 4 times.; Malcom, L.E., Malcom, S.M.,The double bind: The next generation,; Maxwell, J.A.,(1996) Qualitative research design: An interactive approach. Cited 7319 times.,Sage; Mcneill, D.,Few women reach the top in Japan's universities,; Mensch, B.S., Ibrahim, B.L., Lee, S.M., El-Gibaly, O.,Gender-role attitudes among Egyptian adolescents,; Metcalfe, B.D.,Exploring cultural dimensions of gender and management in the Middle East,; Meyerson, D.F., Fletcher, J.K.,(2000) A modest manifesto for shattering the glass ceiling. Cited 322 times.,Harvard Business Review; Morley, L.,Women and higher education leadership: Absences and aspirations,(2013) Stimulus paper for the leadership foundation for higher education, leadership foundation. Cited 66 times.; Mousa, M., Alas, R.,Cultural diversity and organizational commitment: A study on teachers of primary public schools in Menoufia (Egypt),(2016) International Business Research, 9 (7), p. 154. Cited 9 times.; Mousa, M., Alas, R.,Organizational commitment: A case study of Egyptian teachers post revolution,(2016) International Journal of Business Administration, 7 (4), pp. 33-42. Cited 7 times.; Mousa, M., Abdelgaffar, H.A., Ayoubi, R.M.,Responsible management education in Egyptian public business schools: Are academics ready? (Open Access),; Mousa, M., Ayoubi, R.M.,Inclusive/exclusive talent management, responsible leadership and organizational downsizing: A study of academics in Egyptian public business schools (Open Access),; Mousa, M., Ayoubi, R.M.,Talent management practices: perceptions of academics in Egyptian public business schools,; Mousa, M., Massoud, H.K., Ayoubi, R.M., Abdelgaffar, H.A.,Should responsible management education become a priority? A qualitative study of academics in Egyptian public business schools,; Mousa, M., Massoud, H.K., Ayoubi, R.M., Puhakka, V.,Barriers of organizational inclusion: A study among academics in Egyptian public business schools,; Mousa, M., Massoud, H.K., Ayoubi, R.M., Puhakka, V.,Barriers of organizational inclusion: A study among academics in Egyptian public business schools,; Mousa, M., Massoud, H.K., Ayoubi, R.M.,Organizational learning, authentic leadership and individual-level resistance to change: A study of Egyptian academics,; Mousa, M.,How do nurses perceive their cultural diversity? An exploratory case study,(2017) African Journal of Business Management, 11 (17), pp. 446-455. Cited 15 times.; Mousa, M.,Organizational inclusion and academics’ psychological contract: Can responsible leadership mediate the relationship?,; Mousa, M.,Academia is racist: Barriers women faculty face in academic public contexts,; Mousa, M.,Does Gender Diversity Affect Workplace Happiness for Academics? The Role of Diversity Management and Organizational Inclusion,; Mousa, M.,It is not a man's world: perceptions by male faculty of the status and representation of their female colleagues,; Mousa, M.,Diversity management in Egyptian public contexts: When the heat yields cold reactions,(2020) Global Encyclopedia of public administration, public policy, and governance. Cited 672 times.; Muhonen, T.,Exploring gender harassment among university teachers and researchers,; (2010) Gender differences at critical transitions in the careers of science, engineering, and mathematics faculty. Cited 144 times.,The National Academies Press,  61; Neale, J., Özkanli, O.,Organisational barriers for women in senior management: A comparison of Turkish and New Zealand universities,; Ng, T.W.H., Eby, L.T., Sorensen, K.L., Feldman, D.C.,Predictors of objective and subjective career success: A meta-analysis (Open Access),; Nguyen, T.L.H.,Barriers to and facilitators of female Deans' career advancement in higher education: An exploratory study in Vietnam,; Nseer, N.,(2015) Working and discrimination in the Jordanian private sector. Cited 2 times.,Alwarraq; O'Neil, D.A., Hopkins, M.M., Bilimoria, D.,Women's careers at the start of the 21st century: Patterns and paradoxes,; Omair, K.,Women in management in the Arab context,; Ong, M., Wright, C., Espinosa, L.L., Orfield, G.,Inside the double bind: A Synthesis of empirical research on undergraduate and graduate women of color in science, technology, engineering, and mathematics,; Oplatka, I.,Women in educational administration within developing countries: Towards a new international research agenda (Open Access),; Penney, S.C.,Balancing family and career on the academic tightrope,(2015) Canadian Journal of Higher Education, 45 (4), pp. 457-479. Cited 13 times.; Preko, A.,Attitude of male employees toward female managers in selected organizations in Ghana,(2012) Journal of Arts, Sciences and Commerce, 3 (3), pp. 86-93. Cited 7 times.; Romanowski, M., Al-Hassan, F.,Arab Middle Eastern women in Qatar and their perspectives on the barriers to leadership: Incorporating transformative learning theory to improve leadership skills,(2013) Near and Middle Eastern Journal of Research in Education, 3, pp. 1-13. Cited 11 times.; Rosser, S.V.,Using power to advance: Institutional barriers identified by women scientists and engineers,(2004) NWSA Journal, 16 (1), pp. 50-78. Cited 51 times.; Rudman, L.A., Phelan, J.E.,Backlash effects for disconfirming gender stereotypes in organizations,; Shen, H.,Inequality quantified: Mind the gender gap,; Sidani, Y.M., Konrad, A., Karam, C.M.,From female leadership advantage to female leadership deficit: A developing country perspective,; Sidani, Y.,Women, work, and Islam in Arab societies (Open Access),; Sowa, J.E., Selden, S.C.,Administrative Discretion and Active Representation: An Expansion of the Theory of Representative Bureaucracy,; Strauss, A., Corbin, J.,(1990) Basics of Qualitative Research: Grounded Theory Procedures and Techniques. Cited 62220 times.,London: Sage Publications; Sturm, S.,The architecture of inclusion: Advancing workplace equity in higher education,(2006) Harvard Journal of Law &amp; Gender, 29 (2), pp. 247-334. Cited 128 times.</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -8422,11 +7927,6 @@
       <c r="O100" t="inlineStr">
         <is>
           <t>10.1080/01900692.2021.1990317</t>
-        </is>
-      </c>
-      <c r="P100" t="inlineStr">
-        <is>
-          <t>Peru</t>
         </is>
       </c>
     </row>
@@ -8471,7 +7971,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Arroyo, L.,(2002) Las garantías individuales y el rol de protección constitucional. Cited 3 times.,Arroyo Ediciones. Manta, Ecuador; Bruno, R., Schweinheim, G., Muchnik, D.,Control Del Estado:¿ por Qué?¿ para Qué?¿ cómo?¿ cuándo?¿ dónde?,(2010) ; Carpizo, E.,Conventionality control and its relationship with the Mexican constitutional system. Towards a simple protective activity of human rights (Open Access),; Cavallo, G.A.,Principles of interpretation of fundamental rights in the light of chilean and international case law,; DE, E. P. C., SUBRASANTE, L.,(1961) Acto administrativo,  6; Ricardo, J.E., Rosado, Z.M.M., Pataron, E.K.C., Vargas, V.Y.V.,Measuring Legal and Socioeconomic Effect of the Declared Debtors Usign The AHP Technique in a Neutrosophic Framework,; Juárez, K. A. C.,¿ Control interno o difuso de convencionalidad? Una mejor idea: la garantía de tratados,(2013) Anuario mexicano de derecho internacional, 13, pp. 51-97. Cited 23 times.; Leyva-Vázquez, M., Quiroz-Martínez, M.A., Portilla-Castell, Y., Hechavarría-Hernández, J.R., González-Caballero, E.,A New Model for the Selection of Information Technology Project in a Neutrosophic Environment,; Mar, O., Ching, I., Bron, B.,Remote Laboratory System for Automatic Engineering,(2020) International Journal of Wireless and Ad Hoc Communication, 1 (2), pp. 55-63. Cited 2 times.; Meins, E.,El debido proceso en el ordenamiento jurídico chileno y en el nuevo código de procedimiento penal,(1999) Ius et Praxis, 5 (1), pp. 445-460.; Molina, M. S.,La autonomía institucional y académica de las universidades nacionales. Evolución conceptual en la legislación y jurisprudencia argentina,(2014) Revista iberoamericana de educación superior, 5 (13), pp. 66-89. Cited 4 times.; Palacios, A.J.P., Ricardo, J.E., Piza, I.A.C., Herrería, M.E.E.,Phenomenological Hermeneutical Method and Neutrosophic Cognitive Maps in the Causal Analysis of Transgressions against the Homeless,; Ricardo, J.E., Menéndez, J.J.D., Arias, I.F.B., Bermúdez, J.M.M., Lemus, N.M.,Neutrosophic K-means for the analysis of earthquake data in Ecuador,; Teruel, K.P., Cedeño, J.C., Gavilanez, H.L., Diaz, C.B., Vázquez, M.L.,A framework for selecting cloud computing services based on consensus under single valued neutrosophic numbers,; Vázquez, M. L., Estupiñan, J., Smarandache, F.,Neutrosofía en Latinoamérica, avances y perspectivas,(2020) Revista Asociación Latinoamericana de Ciencias Neutrosóficas, 14, pp. 01-08. Cited 16 times.; Vázquez, M. L., Smarandache, F.,Modelo de Recomendación Basado en Conocimiento y Números SVN,(2018) Neutrosophic Computing and Machine Learning, 2, pp. 29-35.</t>
+          <t>Arroyo, L.,(2002) Las garantías individuales y el rol de protección constitucional. Cited 3 times.,Arroyo Ediciones. Manta, Ecuador; Bruno, R., Schweinheim, G., Muchnik, D.,Control Del Estado:¿ por Qué?¿ para Qué?¿ cómo?¿ cuándo?¿ dónde?,(2010) ; Carpizo, E.,Conventionality control and its relationship with the Mexican constitutional system. Towards a simple protective activity of human rights,; Cavallo, G.A.,Principles of interpretation of fundamental rights in the light of chilean and international case law,; DE, E. P. C., SUBRASANTE, L.,(1961) Acto administrativo,  6; Ricardo, J.E., Rosado, Z.M.M., Pataron, E.K.C., Vargas, V.Y.V.,Measuring Legal and Socioeconomic Effect of the Declared Debtors Usign The AHP Technique in a Neutrosophic Framework,; Juárez, K. A. C.,¿ Control interno o difuso de convencionalidad? Una mejor idea: la garantía de tratados,(2013) Anuario mexicano de derecho internacional, 13, pp. 51-97. Cited 23 times.; Leyva-Vázquez, M., Quiroz-Martínez, M.A., Portilla-Castell, Y., Hechavarría-Hernández, J.R., González-Caballero, E.,A New Model for the Selection of Information Technology Project in a Neutrosophic Environment,; Mar, O., Ching, I., Bron, B.,Remote Laboratory System for Automatic Engineering,(2020) International Journal of Wireless and Ad Hoc Communication, 1 (2), pp. 55-63. Cited 2 times.; Meins, E.,El debido proceso en el ordenamiento jurídico chileno y en el nuevo código de procedimiento penal,(1999) Ius et Praxis, 5 (1), pp. 445-460.; Molina, M. S.,La autonomía institucional y académica de las universidades nacionales. Evolución conceptual en la legislación y jurisprudencia argentina,(2014) Revista iberoamericana de educación superior, 5 (13), pp. 66-89. Cited 4 times.; Palacios, A.J.P., Ricardo, J.E., Piza, I.A.C., Herrería, M.E.E.,Phenomenological Hermeneutical Method and Neutrosophic Cognitive Maps in the Causal Analysis of Transgressions against the Homeless,; Ricardo, J.E., Menéndez, J.J.D., Arias, I.F.B., Bermúdez, J.M.M., Lemus, N.M.,Neutrosophic K-means for the analysis of earthquake data in Ecuador (Open Access),; Teruel, K.P., Cedeño, J.C., Gavilanez, H.L., Diaz, C.B., Vázquez, M.L.,A framework for selecting cloud computing services based on consensus under single valued neutrosophic numbers,; Vázquez, M. L., Estupiñan, J., Smarandache, F.,Neutrosofía en Latinoamérica, avances y perspectivas,(2020) Revista Asociación Latinoamericana de Ciencias Neutrosóficas, 14, pp. 01-08. Cited 16 times.; Vázquez, M. L., Smarandache, F.,Modelo de Recomendación Basado en Conocimiento y Números SVN,(2018) Neutrosophic Computing and Machine Learning, 2, pp. 29-35.</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -8502,11 +8002,6 @@
       <c r="O101" t="inlineStr">
         <is>
           <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85118320693&amp;partnerID=40&amp;md5=c6d7e896579966e6d5a9dc824eae370e</t>
-        </is>
-      </c>
-      <c r="P101" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
         </is>
       </c>
     </row>
